--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,7 +455,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,13 +611,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -764,13 +764,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23631,9 +23631,9 @@
   </sheetPr>
   <dimension ref="A1:EY130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="40" zoomScaleNormal="65" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="BO26" sqref="BO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23641,8 +23641,8 @@
     <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
     <col min="2" max="73" width="10" style="15" bestFit="1" customWidth="1"/>
     <col min="74" max="81" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="82" max="87" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="15"/>
+    <col min="82" max="88" width="10.6328125" style="15" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23822,6 +23822,7 @@
       <c r="CG8" s="3"/>
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -23933,18 +23934,18 @@
       <c r="BS9" s="31"/>
       <c r="BT9" s="31"/>
       <c r="BU9" s="31"/>
-      <c r="BV9" s="32">
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
       <c r="CD9" s="31">
         <v>2020</v>
       </c>
@@ -23955,6 +23956,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="31"/>
+      <c r="CJ9" s="31"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24217,6 +24219,9 @@
       </c>
       <c r="CI10" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24307,6 +24312,7 @@
       <c r="CG11" s="3"/>
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
+      <c r="CJ11" s="3"/>
     </row>
     <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -24568,9 +24574,11 @@
         <v>128854.46387787715</v>
       </c>
       <c r="CI12" s="13">
-        <v>159977.45812684367</v>
-      </c>
-      <c r="CJ12" s="17"/>
+        <v>159934.10067033579</v>
+      </c>
+      <c r="CJ12" s="13">
+        <v>128522.96063229961</v>
+      </c>
       <c r="CK12" s="17"/>
       <c r="CL12" s="17"/>
       <c r="CM12" s="17"/>
@@ -24899,9 +24907,11 @@
         <v>54606.43490007794</v>
       </c>
       <c r="CI13" s="13">
-        <v>54613.25977466943</v>
-      </c>
-      <c r="CJ13" s="17"/>
+        <v>59475.222663406232</v>
+      </c>
+      <c r="CJ13" s="13">
+        <v>59139.03078617662</v>
+      </c>
       <c r="CK13" s="17"/>
       <c r="CL13" s="17"/>
       <c r="CM13" s="17"/>
@@ -25057,7 +25067,7 @@
       <c r="CG14" s="11"/>
       <c r="CH14" s="11"/>
       <c r="CI14" s="11"/>
-      <c r="CJ14" s="17"/>
+      <c r="CJ14" s="11"/>
       <c r="CK14" s="17"/>
       <c r="CL14" s="17"/>
       <c r="CM14" s="17"/>
@@ -25386,9 +25396,11 @@
         <v>183460.8987779551</v>
       </c>
       <c r="CI15" s="14">
-        <v>214590.7179015131</v>
-      </c>
-      <c r="CJ15" s="17"/>
+        <v>219409.32333374201</v>
+      </c>
+      <c r="CJ15" s="14">
+        <v>187661.99141847622</v>
+      </c>
       <c r="CK15" s="17"/>
       <c r="CL15" s="17"/>
       <c r="CM15" s="17"/>
@@ -25545,6 +25557,7 @@
       <c r="CG16" s="9"/>
       <c r="CH16" s="9"/>
       <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -25636,6 +25649,7 @@
       <c r="CG17" s="3"/>
       <c r="CH17" s="3"/>
       <c r="CI17" s="3"/>
+      <c r="CJ17" s="3"/>
     </row>
     <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
@@ -25724,7 +25738,7 @@
       <c r="CG18" s="11"/>
       <c r="CH18" s="11"/>
       <c r="CI18" s="11"/>
-      <c r="CJ18" s="17"/>
+      <c r="CJ18" s="11"/>
       <c r="CK18" s="17"/>
       <c r="CL18" s="17"/>
       <c r="CM18" s="17"/>
@@ -25880,7 +25894,7 @@
       <c r="CG19" s="11"/>
       <c r="CH19" s="11"/>
       <c r="CI19" s="11"/>
-      <c r="CJ19" s="17"/>
+      <c r="CJ19" s="11"/>
       <c r="CK19" s="17"/>
       <c r="CL19" s="17"/>
       <c r="CM19" s="17"/>
@@ -26039,6 +26053,7 @@
       <c r="CG20" s="3"/>
       <c r="CH20" s="3"/>
       <c r="CI20" s="3"/>
+      <c r="CJ20" s="3"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -26130,6 +26145,7 @@
       <c r="CG21" s="3"/>
       <c r="CH21" s="3"/>
       <c r="CI21" s="3"/>
+      <c r="CJ21" s="3"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -26221,6 +26237,7 @@
       <c r="CG22" s="3"/>
       <c r="CH22" s="3"/>
       <c r="CI22" s="3"/>
+      <c r="CJ22" s="3"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -26310,6 +26327,7 @@
       <c r="CG23" s="3"/>
       <c r="CH23" s="3"/>
       <c r="CI23" s="3"/>
+      <c r="CJ23" s="3"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -26401,6 +26419,7 @@
       <c r="CG24" s="3"/>
       <c r="CH24" s="3"/>
       <c r="CI24" s="3"/>
+      <c r="CJ24" s="3"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -26492,6 +26511,7 @@
       <c r="CG25" s="3"/>
       <c r="CH25" s="3"/>
       <c r="CI25" s="3"/>
+      <c r="CJ25" s="3"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -26583,6 +26603,7 @@
       <c r="CG26" s="3"/>
       <c r="CH26" s="3"/>
       <c r="CI26" s="3"/>
+      <c r="CJ26" s="3"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -26672,129 +26693,130 @@
       <c r="CG27" s="3"/>
       <c r="CH27" s="3"/>
       <c r="CI27" s="3"/>
+      <c r="CJ27" s="3"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="31">
         <v>2000</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="31">
         <v>2001</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="31">
         <v>2002</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="31">
         <v>2003</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
       <c r="R28" s="31">
         <v>2004</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
       <c r="V28" s="31">
         <v>2005</v>
       </c>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
       <c r="Z28" s="31">
         <v>2006</v>
       </c>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
       <c r="AD28" s="31">
         <v>2007</v>
       </c>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
       <c r="AH28" s="31">
         <v>2008</v>
       </c>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
       <c r="AL28" s="31">
         <v>2009</v>
       </c>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
       <c r="AP28" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
       <c r="AT28" s="31">
         <v>2011</v>
       </c>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
       <c r="AX28" s="31">
         <v>2012</v>
       </c>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
+      <c r="BA28" s="32"/>
       <c r="BB28" s="31">
         <v>2013</v>
       </c>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
+      <c r="BC28" s="32"/>
+      <c r="BD28" s="32"/>
+      <c r="BE28" s="32"/>
       <c r="BF28" s="31">
         <v>2014</v>
       </c>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
+      <c r="BG28" s="32"/>
+      <c r="BH28" s="32"/>
+      <c r="BI28" s="32"/>
       <c r="BJ28" s="31">
         <v>2015</v>
       </c>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
+      <c r="BK28" s="32"/>
+      <c r="BL28" s="32"/>
+      <c r="BM28" s="32"/>
       <c r="BN28" s="31">
         <v>2016</v>
       </c>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
+      <c r="BO28" s="32"/>
+      <c r="BP28" s="32"/>
+      <c r="BQ28" s="32"/>
       <c r="BR28" s="31">
         <v>2017</v>
       </c>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="34"/>
-      <c r="BU28" s="34"/>
-      <c r="BV28" s="32">
+      <c r="BS28" s="32"/>
+      <c r="BT28" s="32"/>
+      <c r="BU28" s="32"/>
+      <c r="BV28" s="33">
         <v>2018</v>
       </c>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="32">
+      <c r="BW28" s="34"/>
+      <c r="BX28" s="34"/>
+      <c r="BY28" s="34"/>
+      <c r="BZ28" s="33">
         <v>2019</v>
       </c>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
+      <c r="CA28" s="34"/>
+      <c r="CB28" s="34"/>
+      <c r="CC28" s="34"/>
       <c r="CD28" s="31">
         <v>2020</v>
       </c>
@@ -26807,6 +26829,7 @@
       <c r="CI28" s="31">
         <v>0</v>
       </c>
+      <c r="CJ28" s="31"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -27069,6 +27092,9 @@
       </c>
       <c r="CI29" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ29" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27159,6 +27185,7 @@
       <c r="CG30" s="3"/>
       <c r="CH30" s="3"/>
       <c r="CI30" s="3"/>
+      <c r="CJ30" s="3"/>
     </row>
     <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -27422,7 +27449,9 @@
       <c r="CI31" s="13">
         <v>156645.87334198406</v>
       </c>
-      <c r="CJ31" s="17"/>
+      <c r="CJ31" s="13">
+        <v>119603.42912161069</v>
+      </c>
       <c r="CK31" s="17"/>
       <c r="CL31" s="17"/>
       <c r="CM31" s="17"/>
@@ -27751,9 +27780,11 @@
         <v>56197.162287352956</v>
       </c>
       <c r="CI32" s="13">
-        <v>54258.395724131529</v>
-      </c>
-      <c r="CJ32" s="17"/>
+        <v>59109.612349605428</v>
+      </c>
+      <c r="CJ32" s="13">
+        <v>53793.202204624686</v>
+      </c>
       <c r="CK32" s="17"/>
       <c r="CL32" s="17"/>
       <c r="CM32" s="17"/>
@@ -27909,7 +27940,7 @@
       <c r="CG33" s="11"/>
       <c r="CH33" s="11"/>
       <c r="CI33" s="11"/>
-      <c r="CJ33" s="17"/>
+      <c r="CJ33" s="11"/>
       <c r="CK33" s="17"/>
       <c r="CL33" s="17"/>
       <c r="CM33" s="17"/>
@@ -28238,9 +28269,11 @@
         <v>183378.70980796826</v>
       </c>
       <c r="CI34" s="14">
-        <v>210904.26906611558</v>
-      </c>
-      <c r="CJ34" s="17"/>
+        <v>215755.48569158948</v>
+      </c>
+      <c r="CJ34" s="14">
+        <v>173396.63132623537</v>
+      </c>
       <c r="CK34" s="17"/>
       <c r="CL34" s="17"/>
       <c r="CM34" s="17"/>
@@ -28397,6 +28430,7 @@
       <c r="CG35" s="9"/>
       <c r="CH35" s="9"/>
       <c r="CI35" s="9"/>
+      <c r="CJ35" s="9"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -28488,6 +28522,7 @@
       <c r="CG36" s="3"/>
       <c r="CH36" s="3"/>
       <c r="CI36" s="3"/>
+      <c r="CJ36" s="3"/>
     </row>
     <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="11"/>
@@ -28576,7 +28611,7 @@
       <c r="CG37" s="11"/>
       <c r="CH37" s="11"/>
       <c r="CI37" s="11"/>
-      <c r="CJ37" s="17"/>
+      <c r="CJ37" s="11"/>
       <c r="CK37" s="17"/>
       <c r="CL37" s="17"/>
       <c r="CM37" s="17"/>
@@ -28732,7 +28767,7 @@
       <c r="CG38" s="11"/>
       <c r="CH38" s="11"/>
       <c r="CI38" s="11"/>
-      <c r="CJ38" s="17"/>
+      <c r="CJ38" s="11"/>
       <c r="CK38" s="17"/>
       <c r="CL38" s="17"/>
       <c r="CM38" s="17"/>
@@ -28891,6 +28926,7 @@
       <c r="CG39" s="3"/>
       <c r="CH39" s="3"/>
       <c r="CI39" s="3"/>
+      <c r="CJ39" s="3"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -28982,6 +29018,7 @@
       <c r="CG40" s="3"/>
       <c r="CH40" s="3"/>
       <c r="CI40" s="3"/>
+      <c r="CJ40" s="3"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -29073,6 +29110,7 @@
       <c r="CG41" s="3"/>
       <c r="CH41" s="3"/>
       <c r="CI41" s="3"/>
+      <c r="CJ41" s="3"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -29162,6 +29200,7 @@
       <c r="CG42" s="3"/>
       <c r="CH42" s="3"/>
       <c r="CI42" s="3"/>
+      <c r="CJ42" s="3"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -29253,6 +29292,7 @@
       <c r="CG43" s="3"/>
       <c r="CH43" s="3"/>
       <c r="CI43" s="3"/>
+      <c r="CJ43" s="3"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -29512,6 +29552,7 @@
       <c r="CG46" s="3"/>
       <c r="CH46" s="3"/>
       <c r="CI46" s="3"/>
+      <c r="CJ46" s="3"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -29623,18 +29664,18 @@
       <c r="BS47" s="31"/>
       <c r="BT47" s="31"/>
       <c r="BU47" s="31"/>
-      <c r="BV47" s="32" t="s">
+      <c r="BV47" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="32"/>
-      <c r="BX47" s="32"/>
-      <c r="BY47" s="32"/>
-      <c r="BZ47" s="32" t="s">
+      <c r="BW47" s="33"/>
+      <c r="BX47" s="33"/>
+      <c r="BY47" s="33"/>
+      <c r="BZ47" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="32"/>
-      <c r="CB47" s="32"/>
-      <c r="CC47" s="32"/>
+      <c r="CA47" s="33"/>
+      <c r="CB47" s="33"/>
+      <c r="CC47" s="33"/>
       <c r="CD47" s="31" t="s">
         <v>46</v>
       </c>
@@ -29645,6 +29686,7 @@
       <c r="CG47" s="29"/>
       <c r="CH47" s="29"/>
       <c r="CI47" s="29"/>
+      <c r="CJ47" s="29"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -29896,10 +29938,13 @@
       <c r="CE48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="30"/>
+      <c r="CF48" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CG48" s="30"/>
       <c r="CH48" s="30"/>
       <c r="CI48" s="30"/>
+      <c r="CJ48" s="30"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -29989,6 +30034,7 @@
       <c r="CG49" s="3"/>
       <c r="CH49" s="3"/>
       <c r="CI49" s="3"/>
+      <c r="CJ49" s="3"/>
     </row>
     <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
@@ -30238,13 +30284,15 @@
         <v>11.37057178517837</v>
       </c>
       <c r="CE50" s="12">
-        <v>10.627103370915151</v>
-      </c>
-      <c r="CF50" s="11"/>
+        <v>10.597120960398314</v>
+      </c>
+      <c r="CF50" s="12">
+        <v>17.668162055853955</v>
+      </c>
       <c r="CG50" s="11"/>
       <c r="CH50" s="11"/>
       <c r="CI50" s="11"/>
-      <c r="CJ50" s="17"/>
+      <c r="CJ50" s="11"/>
       <c r="CK50" s="17"/>
       <c r="CL50" s="17"/>
       <c r="CM50" s="17"/>
@@ -30557,13 +30605,15 @@
         <v>-9.4927191555994028</v>
       </c>
       <c r="CE51" s="12">
-        <v>13.992949456383613</v>
-      </c>
-      <c r="CF51" s="11"/>
+        <v>24.141208178190368</v>
+      </c>
+      <c r="CF51" s="12">
+        <v>12.464747328115095</v>
+      </c>
       <c r="CG51" s="11"/>
       <c r="CH51" s="11"/>
       <c r="CI51" s="11"/>
-      <c r="CJ51" s="17"/>
+      <c r="CJ51" s="11"/>
       <c r="CK51" s="17"/>
       <c r="CL51" s="17"/>
       <c r="CM51" s="17"/>
@@ -30716,7 +30766,7 @@
       <c r="CG52" s="11"/>
       <c r="CH52" s="11"/>
       <c r="CI52" s="11"/>
-      <c r="CJ52" s="17"/>
+      <c r="CJ52" s="11"/>
       <c r="CK52" s="17"/>
       <c r="CL52" s="17"/>
       <c r="CM52" s="17"/>
@@ -31029,13 +31079,15 @@
         <v>4.2198474357797409</v>
       </c>
       <c r="CE53" s="12">
-        <v>11.464711386231969</v>
-      </c>
-      <c r="CF53" s="11"/>
+        <v>13.967636345148549</v>
+      </c>
+      <c r="CF53" s="12">
+        <v>15.977166730638444</v>
+      </c>
       <c r="CG53" s="11"/>
       <c r="CH53" s="11"/>
       <c r="CI53" s="11"/>
-      <c r="CJ53" s="17"/>
+      <c r="CJ53" s="11"/>
       <c r="CK53" s="17"/>
       <c r="CL53" s="17"/>
       <c r="CM53" s="17"/>
@@ -31188,6 +31240,7 @@
       <c r="CG54" s="9"/>
       <c r="CH54" s="9"/>
       <c r="CI54" s="9"/>
+      <c r="CJ54" s="9"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -31279,6 +31332,7 @@
       <c r="CG55" s="3"/>
       <c r="CH55" s="3"/>
       <c r="CI55" s="3"/>
+      <c r="CJ55" s="3"/>
     </row>
     <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="11"/>
@@ -31367,7 +31421,7 @@
       <c r="CG56" s="11"/>
       <c r="CH56" s="11"/>
       <c r="CI56" s="11"/>
-      <c r="CJ56" s="17"/>
+      <c r="CJ56" s="11"/>
       <c r="CK56" s="17"/>
       <c r="CL56" s="17"/>
       <c r="CM56" s="17"/>
@@ -31519,7 +31573,7 @@
       <c r="CG57" s="11"/>
       <c r="CH57" s="11"/>
       <c r="CI57" s="11"/>
-      <c r="CJ57" s="17"/>
+      <c r="CJ57" s="11"/>
       <c r="CK57" s="17"/>
       <c r="CL57" s="17"/>
       <c r="CM57" s="17"/>
@@ -31674,6 +31728,7 @@
       <c r="CG58" s="3"/>
       <c r="CH58" s="3"/>
       <c r="CI58" s="3"/>
+      <c r="CJ58" s="3"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -31765,6 +31820,7 @@
       <c r="CG59" s="3"/>
       <c r="CH59" s="3"/>
       <c r="CI59" s="3"/>
+      <c r="CJ59" s="3"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -31856,6 +31912,7 @@
       <c r="CG60" s="3"/>
       <c r="CH60" s="3"/>
       <c r="CI60" s="3"/>
+      <c r="CJ60" s="3"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -31945,6 +32002,7 @@
       <c r="CG61" s="3"/>
       <c r="CH61" s="3"/>
       <c r="CI61" s="3"/>
+      <c r="CJ61" s="3"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -32036,6 +32094,7 @@
       <c r="CG62" s="3"/>
       <c r="CH62" s="3"/>
       <c r="CI62" s="3"/>
+      <c r="CJ62" s="3"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -32127,6 +32186,7 @@
       <c r="CG63" s="3"/>
       <c r="CH63" s="3"/>
       <c r="CI63" s="3"/>
+      <c r="CJ63" s="3"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -32218,6 +32278,7 @@
       <c r="CG64" s="3"/>
       <c r="CH64" s="3"/>
       <c r="CI64" s="3"/>
+      <c r="CJ64" s="3"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -32307,6 +32368,7 @@
       <c r="CG65" s="3"/>
       <c r="CH65" s="3"/>
       <c r="CI65" s="3"/>
+      <c r="CJ65" s="3"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -32418,28 +32480,29 @@
       <c r="BS66" s="31"/>
       <c r="BT66" s="31"/>
       <c r="BU66" s="31"/>
-      <c r="BV66" s="32" t="s">
+      <c r="BV66" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="32"/>
-      <c r="BX66" s="32"/>
-      <c r="BY66" s="32"/>
-      <c r="BZ66" s="32" t="s">
+      <c r="BW66" s="33"/>
+      <c r="BX66" s="33"/>
+      <c r="BY66" s="33"/>
+      <c r="BZ66" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="32"/>
-      <c r="CB66" s="32"/>
-      <c r="CC66" s="32"/>
+      <c r="CA66" s="33"/>
+      <c r="CB66" s="33"/>
+      <c r="CC66" s="33"/>
       <c r="CD66" s="31" t="s">
         <v>46</v>
       </c>
       <c r="CE66" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="CF66" s="29"/>
+      <c r="CF66" s="31"/>
       <c r="CG66" s="29"/>
       <c r="CH66" s="29"/>
       <c r="CI66" s="29"/>
+      <c r="CJ66" s="29"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -32691,10 +32754,13 @@
       <c r="CE67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="30"/>
+      <c r="CF67" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CG67" s="30"/>
       <c r="CH67" s="30"/>
       <c r="CI67" s="30"/>
+      <c r="CJ67" s="30"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -32784,6 +32850,7 @@
       <c r="CG68" s="3"/>
       <c r="CH68" s="3"/>
       <c r="CI68" s="3"/>
+      <c r="CJ68" s="3"/>
     </row>
     <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
@@ -33035,11 +33102,13 @@
       <c r="CE69" s="12">
         <v>9.050575213575712</v>
       </c>
-      <c r="CF69" s="11"/>
+      <c r="CF69" s="12">
+        <v>14.739472010668521</v>
+      </c>
       <c r="CG69" s="11"/>
       <c r="CH69" s="11"/>
       <c r="CI69" s="11"/>
-      <c r="CJ69" s="17"/>
+      <c r="CJ69" s="11"/>
       <c r="CK69" s="17"/>
       <c r="CL69" s="17"/>
       <c r="CM69" s="17"/>
@@ -33352,13 +33421,15 @@
         <v>-10.842177507381294</v>
       </c>
       <c r="CE70" s="12">
-        <v>12.965191280611805</v>
-      </c>
-      <c r="CF70" s="11"/>
+        <v>23.06535378498549</v>
+      </c>
+      <c r="CF70" s="12">
+        <v>11.739236115252311</v>
+      </c>
       <c r="CG70" s="11"/>
       <c r="CH70" s="11"/>
       <c r="CI70" s="11"/>
-      <c r="CJ70" s="17"/>
+      <c r="CJ70" s="11"/>
       <c r="CK70" s="17"/>
       <c r="CL70" s="17"/>
       <c r="CM70" s="17"/>
@@ -33510,7 +33581,7 @@
       <c r="CG71" s="11"/>
       <c r="CH71" s="11"/>
       <c r="CI71" s="11"/>
-      <c r="CJ71" s="17"/>
+      <c r="CJ71" s="11"/>
       <c r="CK71" s="17"/>
       <c r="CL71" s="17"/>
       <c r="CM71" s="17"/>
@@ -33823,13 +33894,15 @@
         <v>0.22971107986482764</v>
       </c>
       <c r="CE72" s="12">
-        <v>10.031516944638014</v>
-      </c>
-      <c r="CF72" s="11"/>
+        <v>12.562460138398606</v>
+      </c>
+      <c r="CF72" s="12">
+        <v>13.791606599326585</v>
+      </c>
       <c r="CG72" s="11"/>
       <c r="CH72" s="11"/>
       <c r="CI72" s="11"/>
-      <c r="CJ72" s="17"/>
+      <c r="CJ72" s="11"/>
       <c r="CK72" s="17"/>
       <c r="CL72" s="17"/>
       <c r="CM72" s="17"/>
@@ -33982,6 +34055,7 @@
       <c r="CG73" s="9"/>
       <c r="CH73" s="9"/>
       <c r="CI73" s="9"/>
+      <c r="CJ73" s="9"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -34073,6 +34147,7 @@
       <c r="CG74" s="3"/>
       <c r="CH74" s="3"/>
       <c r="CI74" s="3"/>
+      <c r="CJ74" s="3"/>
     </row>
     <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
@@ -34974,123 +35049,123 @@
       <c r="B84" s="31">
         <v>2000</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
       <c r="F84" s="31">
         <v>2001</v>
       </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
       <c r="J84" s="31">
         <v>2002</v>
       </c>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
       <c r="N84" s="31">
         <v>2003</v>
       </c>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
       <c r="R84" s="31">
         <v>2004</v>
       </c>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
       <c r="V84" s="31">
         <v>2005</v>
       </c>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
       <c r="Z84" s="31">
         <v>2006</v>
       </c>
-      <c r="AA84" s="34"/>
-      <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
       <c r="AD84" s="31">
         <v>2007</v>
       </c>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="34"/>
-      <c r="AG84" s="34"/>
+      <c r="AE84" s="32"/>
+      <c r="AF84" s="32"/>
+      <c r="AG84" s="32"/>
       <c r="AH84" s="31">
         <v>2008</v>
       </c>
-      <c r="AI84" s="34"/>
-      <c r="AJ84" s="34"/>
-      <c r="AK84" s="34"/>
+      <c r="AI84" s="32"/>
+      <c r="AJ84" s="32"/>
+      <c r="AK84" s="32"/>
       <c r="AL84" s="31">
         <v>2009</v>
       </c>
-      <c r="AM84" s="34"/>
-      <c r="AN84" s="34"/>
-      <c r="AO84" s="34"/>
+      <c r="AM84" s="32"/>
+      <c r="AN84" s="32"/>
+      <c r="AO84" s="32"/>
       <c r="AP84" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="34"/>
-      <c r="AS84" s="34"/>
+      <c r="AQ84" s="32"/>
+      <c r="AR84" s="32"/>
+      <c r="AS84" s="32"/>
       <c r="AT84" s="31">
         <v>2011</v>
       </c>
-      <c r="AU84" s="34"/>
-      <c r="AV84" s="34"/>
-      <c r="AW84" s="34"/>
+      <c r="AU84" s="32"/>
+      <c r="AV84" s="32"/>
+      <c r="AW84" s="32"/>
       <c r="AX84" s="31">
         <v>2012</v>
       </c>
-      <c r="AY84" s="34"/>
-      <c r="AZ84" s="34"/>
-      <c r="BA84" s="34"/>
+      <c r="AY84" s="32"/>
+      <c r="AZ84" s="32"/>
+      <c r="BA84" s="32"/>
       <c r="BB84" s="31">
         <v>2013</v>
       </c>
-      <c r="BC84" s="34"/>
-      <c r="BD84" s="34"/>
-      <c r="BE84" s="34"/>
+      <c r="BC84" s="32"/>
+      <c r="BD84" s="32"/>
+      <c r="BE84" s="32"/>
       <c r="BF84" s="31">
         <v>2014</v>
       </c>
-      <c r="BG84" s="34"/>
-      <c r="BH84" s="34"/>
-      <c r="BI84" s="34"/>
+      <c r="BG84" s="32"/>
+      <c r="BH84" s="32"/>
+      <c r="BI84" s="32"/>
       <c r="BJ84" s="31">
         <v>2015</v>
       </c>
-      <c r="BK84" s="34"/>
-      <c r="BL84" s="34"/>
-      <c r="BM84" s="34"/>
+      <c r="BK84" s="32"/>
+      <c r="BL84" s="32"/>
+      <c r="BM84" s="32"/>
       <c r="BN84" s="31">
         <v>2016</v>
       </c>
-      <c r="BO84" s="34"/>
-      <c r="BP84" s="34"/>
-      <c r="BQ84" s="34"/>
+      <c r="BO84" s="32"/>
+      <c r="BP84" s="32"/>
+      <c r="BQ84" s="32"/>
       <c r="BR84" s="31">
         <v>2017</v>
       </c>
-      <c r="BS84" s="34"/>
-      <c r="BT84" s="34"/>
-      <c r="BU84" s="34"/>
-      <c r="BV84" s="32">
+      <c r="BS84" s="32"/>
+      <c r="BT84" s="32"/>
+      <c r="BU84" s="32"/>
+      <c r="BV84" s="33">
         <v>2018</v>
       </c>
-      <c r="BW84" s="33"/>
-      <c r="BX84" s="33"/>
-      <c r="BY84" s="33"/>
-      <c r="BZ84" s="32">
+      <c r="BW84" s="34"/>
+      <c r="BX84" s="34"/>
+      <c r="BY84" s="34"/>
+      <c r="BZ84" s="33">
         <v>2019</v>
       </c>
-      <c r="CA84" s="33"/>
-      <c r="CB84" s="33"/>
-      <c r="CC84" s="33"/>
+      <c r="CA84" s="34"/>
+      <c r="CB84" s="34"/>
+      <c r="CC84" s="34"/>
       <c r="CD84" s="31">
         <v>2020</v>
       </c>
@@ -35103,6 +35178,7 @@
       <c r="CI84" s="31">
         <v>0</v>
       </c>
+      <c r="CJ84" s="31"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -35365,6 +35441,9 @@
       </c>
       <c r="CI85" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ85" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35710,9 +35789,11 @@
         <v>101.31537663275458</v>
       </c>
       <c r="CI87" s="12">
-        <v>102.12682575913522</v>
-      </c>
-      <c r="CJ87" s="17"/>
+        <v>102.09914711329355</v>
+      </c>
+      <c r="CJ87" s="12">
+        <v>107.45758844557851</v>
+      </c>
       <c r="CK87" s="17"/>
       <c r="CL87" s="17"/>
       <c r="CM87" s="17"/>
@@ -36037,9 +36118,11 @@
         <v>97.169381295195748</v>
       </c>
       <c r="CI88" s="12">
-        <v>100.65402606509444</v>
-      </c>
-      <c r="CJ88" s="17"/>
+        <v>100.61852937156547</v>
+      </c>
+      <c r="CJ88" s="12">
+        <v>109.93774001632562</v>
+      </c>
       <c r="CK88" s="17"/>
       <c r="CL88" s="17"/>
       <c r="CM88" s="17"/>
@@ -36191,7 +36274,7 @@
       <c r="CG89" s="11"/>
       <c r="CH89" s="11"/>
       <c r="CI89" s="11"/>
-      <c r="CJ89" s="17"/>
+      <c r="CJ89" s="11"/>
       <c r="CK89" s="17"/>
       <c r="CL89" s="17"/>
       <c r="CM89" s="17"/>
@@ -36516,9 +36599,11 @@
         <v>100.04481925413964</v>
       </c>
       <c r="CI90" s="12">
-        <v>101.74792518507145</v>
-      </c>
-      <c r="CJ90" s="17"/>
+        <v>101.69350857079735</v>
+      </c>
+      <c r="CJ90" s="12">
+        <v>108.22701109192914</v>
+      </c>
       <c r="CK90" s="17"/>
       <c r="CL90" s="17"/>
       <c r="CM90" s="17"/>
@@ -36671,6 +36756,7 @@
       <c r="CG91" s="9"/>
       <c r="CH91" s="9"/>
       <c r="CI91" s="9"/>
+      <c r="CJ91" s="9"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
@@ -36844,6 +36930,7 @@
       <c r="CG93" s="3"/>
       <c r="CH93" s="3"/>
       <c r="CI93" s="3"/>
+      <c r="CJ93" s="3"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
@@ -36932,6 +37019,7 @@
       <c r="CG94" s="3"/>
       <c r="CH94" s="3"/>
       <c r="CI94" s="3"/>
+      <c r="CJ94" s="3"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -37023,6 +37111,7 @@
       <c r="CG95" s="3"/>
       <c r="CH95" s="3"/>
       <c r="CI95" s="3"/>
+      <c r="CJ95" s="3"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
@@ -37114,6 +37203,7 @@
       <c r="CG96" s="3"/>
       <c r="CH96" s="3"/>
       <c r="CI96" s="3"/>
+      <c r="CJ96" s="3"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
@@ -37205,6 +37295,7 @@
       <c r="CG97" s="3"/>
       <c r="CH97" s="3"/>
       <c r="CI97" s="3"/>
+      <c r="CJ97" s="3"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -37294,6 +37385,7 @@
       <c r="CG98" s="3"/>
       <c r="CH98" s="3"/>
       <c r="CI98" s="3"/>
+      <c r="CJ98" s="3"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -37385,6 +37477,7 @@
       <c r="CG99" s="3"/>
       <c r="CH99" s="3"/>
       <c r="CI99" s="3"/>
+      <c r="CJ99" s="3"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -37476,6 +37569,7 @@
       <c r="CG100" s="3"/>
       <c r="CH100" s="3"/>
       <c r="CI100" s="3"/>
+      <c r="CJ100" s="3"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -37567,6 +37661,7 @@
       <c r="CG101" s="3"/>
       <c r="CH101" s="3"/>
       <c r="CI101" s="3"/>
+      <c r="CJ101" s="3"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -37656,129 +37751,130 @@
       <c r="CG102" s="3"/>
       <c r="CH102" s="3"/>
       <c r="CI102" s="3"/>
+      <c r="CJ102" s="3"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="31">
         <v>2000</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
       <c r="F103" s="31">
         <v>2001</v>
       </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
       <c r="J103" s="31">
         <v>2002</v>
       </c>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
       <c r="N103" s="31">
         <v>2003</v>
       </c>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
       <c r="R103" s="31">
         <v>2004</v>
       </c>
-      <c r="S103" s="34"/>
-      <c r="T103" s="34"/>
-      <c r="U103" s="34"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
       <c r="V103" s="31">
         <v>2005</v>
       </c>
-      <c r="W103" s="34"/>
-      <c r="X103" s="34"/>
-      <c r="Y103" s="34"/>
+      <c r="W103" s="32"/>
+      <c r="X103" s="32"/>
+      <c r="Y103" s="32"/>
       <c r="Z103" s="31">
         <v>2006</v>
       </c>
-      <c r="AA103" s="34"/>
-      <c r="AB103" s="34"/>
-      <c r="AC103" s="34"/>
+      <c r="AA103" s="32"/>
+      <c r="AB103" s="32"/>
+      <c r="AC103" s="32"/>
       <c r="AD103" s="31">
         <v>2007</v>
       </c>
-      <c r="AE103" s="34"/>
-      <c r="AF103" s="34"/>
-      <c r="AG103" s="34"/>
+      <c r="AE103" s="32"/>
+      <c r="AF103" s="32"/>
+      <c r="AG103" s="32"/>
       <c r="AH103" s="31">
         <v>2008</v>
       </c>
-      <c r="AI103" s="34"/>
-      <c r="AJ103" s="34"/>
-      <c r="AK103" s="34"/>
+      <c r="AI103" s="32"/>
+      <c r="AJ103" s="32"/>
+      <c r="AK103" s="32"/>
       <c r="AL103" s="31">
         <v>2009</v>
       </c>
-      <c r="AM103" s="34"/>
-      <c r="AN103" s="34"/>
-      <c r="AO103" s="34"/>
+      <c r="AM103" s="32"/>
+      <c r="AN103" s="32"/>
+      <c r="AO103" s="32"/>
       <c r="AP103" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="34"/>
-      <c r="AR103" s="34"/>
-      <c r="AS103" s="34"/>
+      <c r="AQ103" s="32"/>
+      <c r="AR103" s="32"/>
+      <c r="AS103" s="32"/>
       <c r="AT103" s="31">
         <v>2011</v>
       </c>
-      <c r="AU103" s="34"/>
-      <c r="AV103" s="34"/>
-      <c r="AW103" s="34"/>
+      <c r="AU103" s="32"/>
+      <c r="AV103" s="32"/>
+      <c r="AW103" s="32"/>
       <c r="AX103" s="31">
         <v>2012</v>
       </c>
-      <c r="AY103" s="34"/>
-      <c r="AZ103" s="34"/>
-      <c r="BA103" s="34"/>
+      <c r="AY103" s="32"/>
+      <c r="AZ103" s="32"/>
+      <c r="BA103" s="32"/>
       <c r="BB103" s="31">
         <v>2013</v>
       </c>
-      <c r="BC103" s="34"/>
-      <c r="BD103" s="34"/>
-      <c r="BE103" s="34"/>
+      <c r="BC103" s="32"/>
+      <c r="BD103" s="32"/>
+      <c r="BE103" s="32"/>
       <c r="BF103" s="31">
         <v>2014</v>
       </c>
-      <c r="BG103" s="34"/>
-      <c r="BH103" s="34"/>
-      <c r="BI103" s="34"/>
+      <c r="BG103" s="32"/>
+      <c r="BH103" s="32"/>
+      <c r="BI103" s="32"/>
       <c r="BJ103" s="31">
         <v>2015</v>
       </c>
-      <c r="BK103" s="34"/>
-      <c r="BL103" s="34"/>
-      <c r="BM103" s="34"/>
+      <c r="BK103" s="32"/>
+      <c r="BL103" s="32"/>
+      <c r="BM103" s="32"/>
       <c r="BN103" s="31">
         <v>2016</v>
       </c>
-      <c r="BO103" s="34"/>
-      <c r="BP103" s="34"/>
-      <c r="BQ103" s="34"/>
+      <c r="BO103" s="32"/>
+      <c r="BP103" s="32"/>
+      <c r="BQ103" s="32"/>
       <c r="BR103" s="31">
         <v>2017</v>
       </c>
-      <c r="BS103" s="34"/>
-      <c r="BT103" s="34"/>
-      <c r="BU103" s="34"/>
-      <c r="BV103" s="32">
+      <c r="BS103" s="32"/>
+      <c r="BT103" s="32"/>
+      <c r="BU103" s="32"/>
+      <c r="BV103" s="33">
         <v>2018</v>
       </c>
-      <c r="BW103" s="33"/>
-      <c r="BX103" s="33"/>
-      <c r="BY103" s="33"/>
-      <c r="BZ103" s="32">
+      <c r="BW103" s="34"/>
+      <c r="BX103" s="34"/>
+      <c r="BY103" s="34"/>
+      <c r="BZ103" s="33">
         <v>2019</v>
       </c>
-      <c r="CA103" s="33"/>
-      <c r="CB103" s="33"/>
-      <c r="CC103" s="33"/>
+      <c r="CA103" s="34"/>
+      <c r="CB103" s="34"/>
+      <c r="CC103" s="34"/>
       <c r="CD103" s="31">
         <v>2020</v>
       </c>
@@ -37791,6 +37887,7 @@
       <c r="CI103" s="31">
         <v>0</v>
       </c>
+      <c r="CJ103" s="31"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -38053,6 +38150,9 @@
       </c>
       <c r="CI104" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ104" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -38143,6 +38243,7 @@
       <c r="CG105" s="3"/>
       <c r="CH105" s="3"/>
       <c r="CI105" s="3"/>
+      <c r="CJ105" s="3"/>
     </row>
     <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
@@ -38404,9 +38505,11 @@
         <v>70.235382436358407</v>
       </c>
       <c r="CI106" s="12">
-        <v>74.55003631623326</v>
-      </c>
-      <c r="CJ106" s="17"/>
+        <v>72.893028536923708</v>
+      </c>
+      <c r="CJ106" s="12">
+        <v>68.486409880251287</v>
+      </c>
       <c r="CK106" s="17"/>
       <c r="CL106" s="17"/>
       <c r="CM106" s="17"/>
@@ -38735,9 +38838,11 @@
         <v>29.764617563641586</v>
       </c>
       <c r="CI107" s="12">
-        <v>25.449963683766747</v>
-      </c>
-      <c r="CJ107" s="17"/>
+        <v>27.106971463076292</v>
+      </c>
+      <c r="CJ107" s="12">
+        <v>31.513590119748724</v>
+      </c>
       <c r="CK107" s="17"/>
       <c r="CL107" s="17"/>
       <c r="CM107" s="17"/>
@@ -38893,7 +38998,7 @@
       <c r="CG108" s="11"/>
       <c r="CH108" s="11"/>
       <c r="CI108" s="11"/>
-      <c r="CJ108" s="17"/>
+      <c r="CJ108" s="11"/>
       <c r="CK108" s="17"/>
       <c r="CL108" s="17"/>
       <c r="CM108" s="17"/>
@@ -39224,7 +39329,9 @@
       <c r="CI109" s="12">
         <v>100</v>
       </c>
-      <c r="CJ109" s="17"/>
+      <c r="CJ109" s="12">
+        <v>100</v>
+      </c>
       <c r="CK109" s="17"/>
       <c r="CL109" s="17"/>
       <c r="CM109" s="17"/>
@@ -39381,6 +39488,7 @@
       <c r="CG110" s="9"/>
       <c r="CH110" s="9"/>
       <c r="CI110" s="9"/>
+      <c r="CJ110" s="9"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -39472,6 +39580,7 @@
       <c r="CG111" s="3"/>
       <c r="CH111" s="3"/>
       <c r="CI111" s="3"/>
+      <c r="CJ111" s="3"/>
     </row>
     <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="11"/>
@@ -39560,7 +39669,7 @@
       <c r="CG112" s="11"/>
       <c r="CH112" s="11"/>
       <c r="CI112" s="11"/>
-      <c r="CJ112" s="17"/>
+      <c r="CJ112" s="11"/>
       <c r="CK112" s="17"/>
       <c r="CL112" s="17"/>
       <c r="CM112" s="17"/>
@@ -39716,7 +39825,7 @@
       <c r="CG113" s="11"/>
       <c r="CH113" s="11"/>
       <c r="CI113" s="11"/>
-      <c r="CJ113" s="17"/>
+      <c r="CJ113" s="11"/>
       <c r="CK113" s="17"/>
       <c r="CL113" s="17"/>
       <c r="CM113" s="17"/>
@@ -39875,6 +39984,7 @@
       <c r="CG114" s="3"/>
       <c r="CH114" s="3"/>
       <c r="CI114" s="3"/>
+      <c r="CJ114" s="3"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
@@ -39966,6 +40076,7 @@
       <c r="CG115" s="3"/>
       <c r="CH115" s="3"/>
       <c r="CI115" s="3"/>
+      <c r="CJ115" s="3"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -40057,6 +40168,7 @@
       <c r="CG116" s="3"/>
       <c r="CH116" s="3"/>
       <c r="CI116" s="3"/>
+      <c r="CJ116" s="3"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
@@ -40146,6 +40258,7 @@
       <c r="CG117" s="3"/>
       <c r="CH117" s="3"/>
       <c r="CI117" s="3"/>
+      <c r="CJ117" s="3"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
@@ -40237,6 +40350,7 @@
       <c r="CG118" s="3"/>
       <c r="CH118" s="3"/>
       <c r="CI118" s="3"/>
+      <c r="CJ118" s="3"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -40328,6 +40442,7 @@
       <c r="CG119" s="3"/>
       <c r="CH119" s="3"/>
       <c r="CI119" s="3"/>
+      <c r="CJ119" s="3"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -40419,6 +40534,7 @@
       <c r="CG120" s="3"/>
       <c r="CH120" s="3"/>
       <c r="CI120" s="3"/>
+      <c r="CJ120" s="3"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
@@ -40508,129 +40624,130 @@
       <c r="CG121" s="3"/>
       <c r="CH121" s="3"/>
       <c r="CI121" s="3"/>
+      <c r="CJ121" s="3"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="31">
         <v>2000</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
       <c r="F122" s="31">
         <v>2001</v>
       </c>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
       <c r="J122" s="31">
         <v>2002</v>
       </c>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
       <c r="N122" s="31">
         <v>2003</v>
       </c>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
       <c r="R122" s="31">
         <v>2004</v>
       </c>
-      <c r="S122" s="34"/>
-      <c r="T122" s="34"/>
-      <c r="U122" s="34"/>
+      <c r="S122" s="32"/>
+      <c r="T122" s="32"/>
+      <c r="U122" s="32"/>
       <c r="V122" s="31">
         <v>2005</v>
       </c>
-      <c r="W122" s="34"/>
-      <c r="X122" s="34"/>
-      <c r="Y122" s="34"/>
+      <c r="W122" s="32"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="32"/>
       <c r="Z122" s="31">
         <v>2006</v>
       </c>
-      <c r="AA122" s="34"/>
-      <c r="AB122" s="34"/>
-      <c r="AC122" s="34"/>
+      <c r="AA122" s="32"/>
+      <c r="AB122" s="32"/>
+      <c r="AC122" s="32"/>
       <c r="AD122" s="31">
         <v>2007</v>
       </c>
-      <c r="AE122" s="34"/>
-      <c r="AF122" s="34"/>
-      <c r="AG122" s="34"/>
+      <c r="AE122" s="32"/>
+      <c r="AF122" s="32"/>
+      <c r="AG122" s="32"/>
       <c r="AH122" s="31">
         <v>2008</v>
       </c>
-      <c r="AI122" s="34"/>
-      <c r="AJ122" s="34"/>
-      <c r="AK122" s="34"/>
+      <c r="AI122" s="32"/>
+      <c r="AJ122" s="32"/>
+      <c r="AK122" s="32"/>
       <c r="AL122" s="31">
         <v>2009</v>
       </c>
-      <c r="AM122" s="34"/>
-      <c r="AN122" s="34"/>
-      <c r="AO122" s="34"/>
+      <c r="AM122" s="32"/>
+      <c r="AN122" s="32"/>
+      <c r="AO122" s="32"/>
       <c r="AP122" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="34"/>
-      <c r="AR122" s="34"/>
-      <c r="AS122" s="34"/>
+      <c r="AQ122" s="32"/>
+      <c r="AR122" s="32"/>
+      <c r="AS122" s="32"/>
       <c r="AT122" s="31">
         <v>2011</v>
       </c>
-      <c r="AU122" s="34"/>
-      <c r="AV122" s="34"/>
-      <c r="AW122" s="34"/>
+      <c r="AU122" s="32"/>
+      <c r="AV122" s="32"/>
+      <c r="AW122" s="32"/>
       <c r="AX122" s="31">
         <v>2012</v>
       </c>
-      <c r="AY122" s="34"/>
-      <c r="AZ122" s="34"/>
-      <c r="BA122" s="34"/>
+      <c r="AY122" s="32"/>
+      <c r="AZ122" s="32"/>
+      <c r="BA122" s="32"/>
       <c r="BB122" s="31">
         <v>2013</v>
       </c>
-      <c r="BC122" s="34"/>
-      <c r="BD122" s="34"/>
-      <c r="BE122" s="34"/>
+      <c r="BC122" s="32"/>
+      <c r="BD122" s="32"/>
+      <c r="BE122" s="32"/>
       <c r="BF122" s="31">
         <v>2014</v>
       </c>
-      <c r="BG122" s="34"/>
-      <c r="BH122" s="34"/>
-      <c r="BI122" s="34"/>
+      <c r="BG122" s="32"/>
+      <c r="BH122" s="32"/>
+      <c r="BI122" s="32"/>
       <c r="BJ122" s="31">
         <v>2015</v>
       </c>
-      <c r="BK122" s="34"/>
-      <c r="BL122" s="34"/>
-      <c r="BM122" s="34"/>
+      <c r="BK122" s="32"/>
+      <c r="BL122" s="32"/>
+      <c r="BM122" s="32"/>
       <c r="BN122" s="31">
         <v>2016</v>
       </c>
-      <c r="BO122" s="34"/>
-      <c r="BP122" s="34"/>
-      <c r="BQ122" s="34"/>
+      <c r="BO122" s="32"/>
+      <c r="BP122" s="32"/>
+      <c r="BQ122" s="32"/>
       <c r="BR122" s="31">
         <v>2017</v>
       </c>
-      <c r="BS122" s="34"/>
-      <c r="BT122" s="34"/>
-      <c r="BU122" s="34"/>
-      <c r="BV122" s="32">
+      <c r="BS122" s="32"/>
+      <c r="BT122" s="32"/>
+      <c r="BU122" s="32"/>
+      <c r="BV122" s="33">
         <v>2018</v>
       </c>
-      <c r="BW122" s="33"/>
-      <c r="BX122" s="33"/>
-      <c r="BY122" s="33"/>
-      <c r="BZ122" s="32">
+      <c r="BW122" s="34"/>
+      <c r="BX122" s="34"/>
+      <c r="BY122" s="34"/>
+      <c r="BZ122" s="33">
         <v>2019</v>
       </c>
-      <c r="CA122" s="33"/>
-      <c r="CB122" s="33"/>
-      <c r="CC122" s="33"/>
+      <c r="CA122" s="34"/>
+      <c r="CB122" s="34"/>
+      <c r="CC122" s="34"/>
       <c r="CD122" s="31">
         <v>2020</v>
       </c>
@@ -40643,6 +40760,7 @@
       <c r="CI122" s="31">
         <v>0</v>
       </c>
+      <c r="CJ122" s="31"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -40905,6 +41023,9 @@
       </c>
       <c r="CI123" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ123" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -40995,6 +41116,7 @@
       <c r="CG124" s="3"/>
       <c r="CH124" s="3"/>
       <c r="CI124" s="3"/>
+      <c r="CJ124" s="3"/>
     </row>
     <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
@@ -41256,9 +41378,11 @@
         <v>69.354587374836555</v>
       </c>
       <c r="CI125" s="12">
-        <v>74.273448344887569</v>
-      </c>
-      <c r="CJ125" s="17"/>
+        <v>72.603425511924485</v>
+      </c>
+      <c r="CJ125" s="12">
+        <v>68.97678934522321</v>
+      </c>
       <c r="CK125" s="17"/>
       <c r="CL125" s="17"/>
       <c r="CM125" s="17"/>
@@ -41587,9 +41711,11 @@
         <v>30.645412625163456</v>
       </c>
       <c r="CI126" s="12">
-        <v>25.726551655112427</v>
-      </c>
-      <c r="CJ126" s="17"/>
+        <v>27.396574488075519</v>
+      </c>
+      <c r="CJ126" s="12">
+        <v>31.023210654776793</v>
+      </c>
       <c r="CK126" s="17"/>
       <c r="CL126" s="17"/>
       <c r="CM126" s="17"/>
@@ -41745,7 +41871,7 @@
       <c r="CG127" s="11"/>
       <c r="CH127" s="11"/>
       <c r="CI127" s="11"/>
-      <c r="CJ127" s="17"/>
+      <c r="CJ127" s="11"/>
       <c r="CK127" s="17"/>
       <c r="CL127" s="17"/>
       <c r="CM127" s="17"/>
@@ -42076,7 +42202,9 @@
       <c r="CI128" s="12">
         <v>100</v>
       </c>
-      <c r="CJ128" s="17"/>
+      <c r="CJ128" s="12">
+        <v>100</v>
+      </c>
       <c r="CK128" s="17"/>
       <c r="CL128" s="17"/>
       <c r="CM128" s="17"/>
@@ -42145,7 +42273,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:87" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:88" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -42233,8 +42361,9 @@
       <c r="CG129" s="9"/>
       <c r="CH129" s="9"/>
       <c r="CI129" s="9"/>
+      <c r="CJ129" s="9"/>
     </row>
-    <row r="130" spans="1:87" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:88" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -42324,10 +42453,10 @@
       <c r="CG130" s="3"/>
       <c r="CH130" s="3"/>
       <c r="CI130" s="3"/>
+      <c r="CJ130" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="F84:I84"/>
@@ -42375,6 +42504,11 @@
     <mergeCell ref="AP103:AS103"/>
     <mergeCell ref="AP84:AS84"/>
     <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BJ28:BM28"/>
     <mergeCell ref="BN28:BQ28"/>
     <mergeCell ref="B47:E47"/>
@@ -42391,20 +42525,6 @@
     <mergeCell ref="AT47:AW47"/>
     <mergeCell ref="AX47:BA47"/>
     <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF28:BI28"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
@@ -42412,6 +42532,11 @@
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>
     <mergeCell ref="BJ9:BM9"/>
@@ -42431,11 +42556,45 @@
     <mergeCell ref="AX28:BA28"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH28:CJ28"/>
+    <mergeCell ref="CD66:CF66"/>
+    <mergeCell ref="CH84:CJ84"/>
+    <mergeCell ref="CH103:CJ103"/>
+    <mergeCell ref="CH122:CJ122"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="AT103:AW103"/>
     <mergeCell ref="BV47:BY47"/>
     <mergeCell ref="BR66:BU66"/>
     <mergeCell ref="BZ84:CC84"/>
     <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="CD47:CE47"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
     <mergeCell ref="BV122:BY122"/>
     <mergeCell ref="BR84:BU84"/>
     <mergeCell ref="BV84:BY84"/>
@@ -42450,35 +42609,6 @@
     <mergeCell ref="BR103:BU103"/>
     <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH28:CI28"/>
-    <mergeCell ref="CD47:CE47"/>
-    <mergeCell ref="CD66:CE66"/>
-    <mergeCell ref="CH84:CI84"/>
-    <mergeCell ref="CH103:CI103"/>
-    <mergeCell ref="CH122:CI122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CI$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CK$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -608,16 +608,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -761,16 +758,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23632,8 +23629,8 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BO26" sqref="BO26"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23641,8 +23638,8 @@
     <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
     <col min="2" max="73" width="10" style="15" bestFit="1" customWidth="1"/>
     <col min="74" max="81" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="82" max="88" width="10.6328125" style="15" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="15"/>
+    <col min="82" max="89" width="9.36328125" style="15" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23673,7 +23670,7 @@
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV3" s="18"/>
       <c r="BW3" s="18"/>
@@ -23710,7 +23707,7 @@
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BV6" s="18"/>
       <c r="BW6" s="18"/>
@@ -23823,140 +23820,142 @@
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="31">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="31">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="31"/>
-      <c r="BQ9" s="31"/>
-      <c r="BR9" s="31">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="33">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="33">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
-      <c r="CD9" s="31">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="33">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="33">
         <v>2021</v>
       </c>
-      <c r="CI9" s="31"/>
-      <c r="CJ9" s="31"/>
+      <c r="CI9" s="33"/>
+      <c r="CJ9" s="33"/>
+      <c r="CK9" s="33"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24222,6 +24221,9 @@
       </c>
       <c r="CJ10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24313,6 +24315,7 @@
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
     </row>
     <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -24577,9 +24580,11 @@
         <v>159934.10067033579</v>
       </c>
       <c r="CJ12" s="13">
-        <v>128522.96063229961</v>
-      </c>
-      <c r="CK12" s="17"/>
+        <v>128536.7085143947</v>
+      </c>
+      <c r="CK12" s="13">
+        <v>136514.3321851888</v>
+      </c>
       <c r="CL12" s="17"/>
       <c r="CM12" s="17"/>
       <c r="CN12" s="17"/>
@@ -24910,9 +24915,11 @@
         <v>59475.222663406232</v>
       </c>
       <c r="CJ13" s="13">
-        <v>59139.03078617662</v>
-      </c>
-      <c r="CK13" s="17"/>
+        <v>58747.4065456811</v>
+      </c>
+      <c r="CK13" s="13">
+        <v>62850.699678040022</v>
+      </c>
       <c r="CL13" s="17"/>
       <c r="CM13" s="17"/>
       <c r="CN13" s="17"/>
@@ -25068,7 +25075,7 @@
       <c r="CH14" s="11"/>
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
-      <c r="CK14" s="17"/>
+      <c r="CK14" s="11"/>
       <c r="CL14" s="17"/>
       <c r="CM14" s="17"/>
       <c r="CN14" s="17"/>
@@ -25399,9 +25406,11 @@
         <v>219409.32333374201</v>
       </c>
       <c r="CJ15" s="14">
-        <v>187661.99141847622</v>
-      </c>
-      <c r="CK15" s="17"/>
+        <v>187284.1150600758</v>
+      </c>
+      <c r="CK15" s="14">
+        <v>199365.03186322883</v>
+      </c>
       <c r="CL15" s="17"/>
       <c r="CM15" s="17"/>
       <c r="CN15" s="17"/>
@@ -25558,6 +25567,7 @@
       <c r="CH16" s="9"/>
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -25650,6 +25660,7 @@
       <c r="CH17" s="3"/>
       <c r="CI17" s="3"/>
       <c r="CJ17" s="3"/>
+      <c r="CK17" s="3"/>
     </row>
     <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
@@ -25739,7 +25750,7 @@
       <c r="CH18" s="11"/>
       <c r="CI18" s="11"/>
       <c r="CJ18" s="11"/>
-      <c r="CK18" s="17"/>
+      <c r="CK18" s="11"/>
       <c r="CL18" s="17"/>
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
@@ -25895,7 +25906,7 @@
       <c r="CH19" s="11"/>
       <c r="CI19" s="11"/>
       <c r="CJ19" s="11"/>
-      <c r="CK19" s="17"/>
+      <c r="CK19" s="11"/>
       <c r="CL19" s="17"/>
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
@@ -26054,6 +26065,7 @@
       <c r="CH20" s="3"/>
       <c r="CI20" s="3"/>
       <c r="CJ20" s="3"/>
+      <c r="CK20" s="3"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -26146,10 +26158,11 @@
       <c r="CH21" s="3"/>
       <c r="CI21" s="3"/>
       <c r="CJ21" s="3"/>
+      <c r="CK21" s="3"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26238,6 +26251,7 @@
       <c r="CH22" s="3"/>
       <c r="CI22" s="3"/>
       <c r="CJ22" s="3"/>
+      <c r="CK22" s="3"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -26328,6 +26342,7 @@
       <c r="CH23" s="3"/>
       <c r="CI23" s="3"/>
       <c r="CJ23" s="3"/>
+      <c r="CK23" s="3"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -26420,10 +26435,11 @@
       <c r="CH24" s="3"/>
       <c r="CI24" s="3"/>
       <c r="CJ24" s="3"/>
+      <c r="CK24" s="3"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26512,6 +26528,7 @@
       <c r="CH25" s="3"/>
       <c r="CI25" s="3"/>
       <c r="CJ25" s="3"/>
+      <c r="CK25" s="3"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -26604,6 +26621,7 @@
       <c r="CH26" s="3"/>
       <c r="CI26" s="3"/>
       <c r="CJ26" s="3"/>
+      <c r="CK26" s="3"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -26694,142 +26712,142 @@
       <c r="CH27" s="3"/>
       <c r="CI27" s="3"/>
       <c r="CJ27" s="3"/>
+      <c r="CK27" s="3"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="31">
+      <c r="B28" s="33">
         <v>2000</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="31">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="33">
         <v>2001</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="31">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33">
         <v>2002</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="31">
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="33">
         <v>2003</v>
       </c>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="31">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="33">
         <v>2004</v>
       </c>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="31">
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="33">
         <v>2005</v>
       </c>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="31">
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="33">
         <v>2006</v>
       </c>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="31">
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="33">
         <v>2007</v>
       </c>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="31">
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="33">
         <v>2008</v>
       </c>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="31">
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="33">
         <v>2009</v>
       </c>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="31">
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="31">
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="33">
         <v>2011</v>
       </c>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="31">
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="33">
         <v>2012</v>
       </c>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="32"/>
-      <c r="BA28" s="32"/>
-      <c r="BB28" s="31">
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="33">
         <v>2013</v>
       </c>
-      <c r="BC28" s="32"/>
-      <c r="BD28" s="32"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="31">
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="33">
         <v>2014</v>
       </c>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="31">
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="34"/>
+      <c r="BJ28" s="33">
         <v>2015</v>
       </c>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="32"/>
-      <c r="BN28" s="31">
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+      <c r="BN28" s="33">
         <v>2016</v>
       </c>
-      <c r="BO28" s="32"/>
-      <c r="BP28" s="32"/>
-      <c r="BQ28" s="32"/>
-      <c r="BR28" s="31">
+      <c r="BO28" s="34"/>
+      <c r="BP28" s="34"/>
+      <c r="BQ28" s="34"/>
+      <c r="BR28" s="33">
         <v>2017</v>
       </c>
-      <c r="BS28" s="32"/>
-      <c r="BT28" s="32"/>
-      <c r="BU28" s="32"/>
-      <c r="BV28" s="33">
+      <c r="BS28" s="34"/>
+      <c r="BT28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="31">
         <v>2018</v>
       </c>
-      <c r="BW28" s="34"/>
-      <c r="BX28" s="34"/>
-      <c r="BY28" s="34"/>
-      <c r="BZ28" s="33">
+      <c r="BW28" s="32"/>
+      <c r="BX28" s="32"/>
+      <c r="BY28" s="32"/>
+      <c r="BZ28" s="31">
         <v>2019</v>
       </c>
-      <c r="CA28" s="34"/>
-      <c r="CB28" s="34"/>
-      <c r="CC28" s="34"/>
-      <c r="CD28" s="31">
+      <c r="CA28" s="32"/>
+      <c r="CB28" s="32"/>
+      <c r="CC28" s="32"/>
+      <c r="CD28" s="33">
         <v>2020</v>
       </c>
-      <c r="CE28" s="31"/>
-      <c r="CF28" s="31"/>
-      <c r="CG28" s="31"/>
-      <c r="CH28" s="31">
+      <c r="CE28" s="33"/>
+      <c r="CF28" s="33"/>
+      <c r="CG28" s="33"/>
+      <c r="CH28" s="33">
         <v>2021</v>
       </c>
-      <c r="CI28" s="31">
-        <v>0</v>
-      </c>
-      <c r="CJ28" s="31"/>
+      <c r="CI28" s="33"/>
+      <c r="CJ28" s="33"/>
+      <c r="CK28" s="33"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -27095,6 +27113,9 @@
       </c>
       <c r="CJ29" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27186,6 +27207,7 @@
       <c r="CH30" s="3"/>
       <c r="CI30" s="3"/>
       <c r="CJ30" s="3"/>
+      <c r="CK30" s="3"/>
     </row>
     <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -27452,7 +27474,9 @@
       <c r="CJ31" s="13">
         <v>119603.42912161069</v>
       </c>
-      <c r="CK31" s="17"/>
+      <c r="CK31" s="13">
+        <v>109608.35252784514</v>
+      </c>
       <c r="CL31" s="17"/>
       <c r="CM31" s="17"/>
       <c r="CN31" s="17"/>
@@ -27783,9 +27807,11 @@
         <v>59109.612349605428</v>
       </c>
       <c r="CJ32" s="13">
-        <v>53793.202204624686</v>
-      </c>
-      <c r="CK32" s="17"/>
+        <v>53432.379552824837</v>
+      </c>
+      <c r="CK32" s="13">
+        <v>56248.814450468955</v>
+      </c>
       <c r="CL32" s="17"/>
       <c r="CM32" s="17"/>
       <c r="CN32" s="17"/>
@@ -27941,7 +27967,7 @@
       <c r="CH33" s="11"/>
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
-      <c r="CK33" s="17"/>
+      <c r="CK33" s="11"/>
       <c r="CL33" s="17"/>
       <c r="CM33" s="17"/>
       <c r="CN33" s="17"/>
@@ -28272,9 +28298,11 @@
         <v>215755.48569158948</v>
       </c>
       <c r="CJ34" s="14">
-        <v>173396.63132623537</v>
-      </c>
-      <c r="CK34" s="17"/>
+        <v>173035.80867443554</v>
+      </c>
+      <c r="CK34" s="14">
+        <v>165857.16697831411</v>
+      </c>
       <c r="CL34" s="17"/>
       <c r="CM34" s="17"/>
       <c r="CN34" s="17"/>
@@ -28431,6 +28459,7 @@
       <c r="CH35" s="9"/>
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
+      <c r="CK35" s="9"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -28523,6 +28552,7 @@
       <c r="CH36" s="3"/>
       <c r="CI36" s="3"/>
       <c r="CJ36" s="3"/>
+      <c r="CK36" s="3"/>
     </row>
     <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="11"/>
@@ -28612,7 +28642,7 @@
       <c r="CH37" s="11"/>
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
-      <c r="CK37" s="17"/>
+      <c r="CK37" s="11"/>
       <c r="CL37" s="17"/>
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
@@ -28768,7 +28798,7 @@
       <c r="CH38" s="11"/>
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
-      <c r="CK38" s="17"/>
+      <c r="CK38" s="11"/>
       <c r="CL38" s="17"/>
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
@@ -28927,6 +28957,7 @@
       <c r="CH39" s="3"/>
       <c r="CI39" s="3"/>
       <c r="CJ39" s="3"/>
+      <c r="CK39" s="3"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -29019,10 +29050,11 @@
       <c r="CH40" s="3"/>
       <c r="CI40" s="3"/>
       <c r="CJ40" s="3"/>
+      <c r="CK40" s="3"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29111,6 +29143,7 @@
       <c r="CH41" s="3"/>
       <c r="CI41" s="3"/>
       <c r="CJ41" s="3"/>
+      <c r="CK41" s="3"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -29201,6 +29234,7 @@
       <c r="CH42" s="3"/>
       <c r="CI42" s="3"/>
       <c r="CJ42" s="3"/>
+      <c r="CK42" s="3"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -29293,10 +29327,11 @@
       <c r="CH43" s="3"/>
       <c r="CI43" s="3"/>
       <c r="CJ43" s="3"/>
+      <c r="CK43" s="3"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29553,140 +29588,140 @@
       <c r="CH46" s="3"/>
       <c r="CI46" s="3"/>
       <c r="CJ46" s="3"/>
+      <c r="CK46" s="3"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31" t="s">
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31" t="s">
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31" t="s">
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31" t="s">
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31" t="s">
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31" t="s">
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31" t="s">
+      <c r="AE47" s="33"/>
+      <c r="AF47" s="33"/>
+      <c r="AG47" s="33"/>
+      <c r="AH47" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="31" t="s">
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="33"/>
+      <c r="AL47" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="31" t="s">
+      <c r="AM47" s="33"/>
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="31"/>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31" t="s">
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="33"/>
+      <c r="AS47" s="33"/>
+      <c r="AT47" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-      <c r="AW47" s="31"/>
-      <c r="AX47" s="31" t="s">
+      <c r="AU47" s="33"/>
+      <c r="AV47" s="33"/>
+      <c r="AW47" s="33"/>
+      <c r="AX47" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="31"/>
-      <c r="AZ47" s="31"/>
-      <c r="BA47" s="31"/>
-      <c r="BB47" s="31" t="s">
+      <c r="AY47" s="33"/>
+      <c r="AZ47" s="33"/>
+      <c r="BA47" s="33"/>
+      <c r="BB47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="31"/>
-      <c r="BD47" s="31"/>
-      <c r="BE47" s="31"/>
-      <c r="BF47" s="31" t="s">
+      <c r="BC47" s="33"/>
+      <c r="BD47" s="33"/>
+      <c r="BE47" s="33"/>
+      <c r="BF47" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="31"/>
-      <c r="BH47" s="31"/>
-      <c r="BI47" s="31"/>
-      <c r="BJ47" s="31" t="s">
+      <c r="BG47" s="33"/>
+      <c r="BH47" s="33"/>
+      <c r="BI47" s="33"/>
+      <c r="BJ47" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="31"/>
-      <c r="BL47" s="31"/>
-      <c r="BM47" s="31"/>
-      <c r="BN47" s="31" t="s">
+      <c r="BK47" s="33"/>
+      <c r="BL47" s="33"/>
+      <c r="BM47" s="33"/>
+      <c r="BN47" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="31"/>
-      <c r="BP47" s="31"/>
-      <c r="BQ47" s="31"/>
-      <c r="BR47" s="31" t="s">
+      <c r="BO47" s="33"/>
+      <c r="BP47" s="33"/>
+      <c r="BQ47" s="33"/>
+      <c r="BR47" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="31"/>
-      <c r="BT47" s="31"/>
-      <c r="BU47" s="31"/>
-      <c r="BV47" s="33" t="s">
+      <c r="BS47" s="33"/>
+      <c r="BT47" s="33"/>
+      <c r="BU47" s="33"/>
+      <c r="BV47" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="33"/>
-      <c r="BX47" s="33"/>
-      <c r="BY47" s="33"/>
-      <c r="BZ47" s="33" t="s">
+      <c r="BW47" s="31"/>
+      <c r="BX47" s="31"/>
+      <c r="BY47" s="31"/>
+      <c r="BZ47" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="33"/>
-      <c r="CB47" s="33"/>
-      <c r="CC47" s="33"/>
-      <c r="CD47" s="31" t="s">
+      <c r="CA47" s="31"/>
+      <c r="CB47" s="31"/>
+      <c r="CC47" s="31"/>
+      <c r="CD47" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="CF47" s="29"/>
-      <c r="CG47" s="29"/>
+      <c r="CE47" s="33"/>
+      <c r="CF47" s="33"/>
+      <c r="CG47" s="33"/>
       <c r="CH47" s="29"/>
       <c r="CI47" s="29"/>
       <c r="CJ47" s="29"/>
+      <c r="CK47" s="29"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -29941,10 +29976,13 @@
       <c r="CF48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="30"/>
+      <c r="CG48" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CH48" s="30"/>
       <c r="CI48" s="30"/>
       <c r="CJ48" s="30"/>
+      <c r="CK48" s="30"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -30035,6 +30073,7 @@
       <c r="CH49" s="3"/>
       <c r="CI49" s="3"/>
       <c r="CJ49" s="3"/>
+      <c r="CK49" s="3"/>
     </row>
     <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
@@ -30287,13 +30326,15 @@
         <v>10.597120960398314</v>
       </c>
       <c r="CF50" s="12">
-        <v>17.668162055853955</v>
-      </c>
-      <c r="CG50" s="11"/>
+        <v>17.680748818641973</v>
+      </c>
+      <c r="CG50" s="12">
+        <v>10.029435457784544</v>
+      </c>
       <c r="CH50" s="11"/>
       <c r="CI50" s="11"/>
       <c r="CJ50" s="11"/>
-      <c r="CK50" s="17"/>
+      <c r="CK50" s="11"/>
       <c r="CL50" s="17"/>
       <c r="CM50" s="17"/>
       <c r="CN50" s="17"/>
@@ -30608,13 +30649,15 @@
         <v>24.141208178190368</v>
       </c>
       <c r="CF51" s="12">
-        <v>12.464747328115095</v>
-      </c>
-      <c r="CG51" s="11"/>
+        <v>11.719995162423729</v>
+      </c>
+      <c r="CG51" s="12">
+        <v>3.3415703536164898</v>
+      </c>
       <c r="CH51" s="11"/>
       <c r="CI51" s="11"/>
       <c r="CJ51" s="11"/>
-      <c r="CK51" s="17"/>
+      <c r="CK51" s="11"/>
       <c r="CL51" s="17"/>
       <c r="CM51" s="17"/>
       <c r="CN51" s="17"/>
@@ -30767,7 +30810,7 @@
       <c r="CH52" s="11"/>
       <c r="CI52" s="11"/>
       <c r="CJ52" s="11"/>
-      <c r="CK52" s="17"/>
+      <c r="CK52" s="11"/>
       <c r="CL52" s="17"/>
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
@@ -31082,13 +31125,15 @@
         <v>13.967636345148549</v>
       </c>
       <c r="CF53" s="12">
-        <v>15.977166730638444</v>
-      </c>
-      <c r="CG53" s="11"/>
+        <v>15.743635001114995</v>
+      </c>
+      <c r="CG53" s="12">
+        <v>7.8294938932177871</v>
+      </c>
       <c r="CH53" s="11"/>
       <c r="CI53" s="11"/>
       <c r="CJ53" s="11"/>
-      <c r="CK53" s="17"/>
+      <c r="CK53" s="11"/>
       <c r="CL53" s="17"/>
       <c r="CM53" s="17"/>
       <c r="CN53" s="17"/>
@@ -31241,6 +31286,7 @@
       <c r="CH54" s="9"/>
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
+      <c r="CK54" s="9"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -31333,6 +31379,7 @@
       <c r="CH55" s="3"/>
       <c r="CI55" s="3"/>
       <c r="CJ55" s="3"/>
+      <c r="CK55" s="3"/>
     </row>
     <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="11"/>
@@ -31422,7 +31469,7 @@
       <c r="CH56" s="11"/>
       <c r="CI56" s="11"/>
       <c r="CJ56" s="11"/>
-      <c r="CK56" s="17"/>
+      <c r="CK56" s="11"/>
       <c r="CL56" s="17"/>
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
@@ -31574,7 +31621,7 @@
       <c r="CH57" s="11"/>
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
-      <c r="CK57" s="17"/>
+      <c r="CK57" s="11"/>
       <c r="CL57" s="17"/>
       <c r="CM57" s="17"/>
       <c r="CN57" s="17"/>
@@ -31729,6 +31776,7 @@
       <c r="CH58" s="3"/>
       <c r="CI58" s="3"/>
       <c r="CJ58" s="3"/>
+      <c r="CK58" s="3"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -31821,10 +31869,11 @@
       <c r="CH59" s="3"/>
       <c r="CI59" s="3"/>
       <c r="CJ59" s="3"/>
+      <c r="CK59" s="3"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -31913,6 +31962,7 @@
       <c r="CH60" s="3"/>
       <c r="CI60" s="3"/>
       <c r="CJ60" s="3"/>
+      <c r="CK60" s="3"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -32003,6 +32053,7 @@
       <c r="CH61" s="3"/>
       <c r="CI61" s="3"/>
       <c r="CJ61" s="3"/>
+      <c r="CK61" s="3"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -32095,10 +32146,11 @@
       <c r="CH62" s="3"/>
       <c r="CI62" s="3"/>
       <c r="CJ62" s="3"/>
+      <c r="CK62" s="3"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32187,6 +32239,7 @@
       <c r="CH63" s="3"/>
       <c r="CI63" s="3"/>
       <c r="CJ63" s="3"/>
+      <c r="CK63" s="3"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -32279,6 +32332,7 @@
       <c r="CH64" s="3"/>
       <c r="CI64" s="3"/>
       <c r="CJ64" s="3"/>
+      <c r="CK64" s="3"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -32369,140 +32423,140 @@
       <c r="CH65" s="3"/>
       <c r="CI65" s="3"/>
       <c r="CJ65" s="3"/>
+      <c r="CK65" s="3"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31" t="s">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31" t="s">
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31" t="s">
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31" t="s">
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31" t="s">
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="31"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="31"/>
-      <c r="Z66" s="31" t="s">
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="31"/>
-      <c r="AD66" s="31" t="s">
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
+      <c r="AD66" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="31"/>
-      <c r="AF66" s="31"/>
-      <c r="AG66" s="31"/>
-      <c r="AH66" s="31" t="s">
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="33"/>
+      <c r="AG66" s="33"/>
+      <c r="AH66" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="31"/>
-      <c r="AJ66" s="31"/>
-      <c r="AK66" s="31"/>
-      <c r="AL66" s="31" t="s">
+      <c r="AI66" s="33"/>
+      <c r="AJ66" s="33"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="31"/>
-      <c r="AN66" s="31"/>
-      <c r="AO66" s="31"/>
-      <c r="AP66" s="31" t="s">
+      <c r="AM66" s="33"/>
+      <c r="AN66" s="33"/>
+      <c r="AO66" s="33"/>
+      <c r="AP66" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="31"/>
-      <c r="AR66" s="31"/>
-      <c r="AS66" s="31"/>
-      <c r="AT66" s="31" t="s">
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="33"/>
+      <c r="AS66" s="33"/>
+      <c r="AT66" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="31"/>
-      <c r="AV66" s="31"/>
-      <c r="AW66" s="31"/>
-      <c r="AX66" s="31" t="s">
+      <c r="AU66" s="33"/>
+      <c r="AV66" s="33"/>
+      <c r="AW66" s="33"/>
+      <c r="AX66" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="31"/>
-      <c r="AZ66" s="31"/>
-      <c r="BA66" s="31"/>
-      <c r="BB66" s="31" t="s">
+      <c r="AY66" s="33"/>
+      <c r="AZ66" s="33"/>
+      <c r="BA66" s="33"/>
+      <c r="BB66" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="31"/>
-      <c r="BD66" s="31"/>
-      <c r="BE66" s="31"/>
-      <c r="BF66" s="31" t="s">
+      <c r="BC66" s="33"/>
+      <c r="BD66" s="33"/>
+      <c r="BE66" s="33"/>
+      <c r="BF66" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="31"/>
-      <c r="BH66" s="31"/>
-      <c r="BI66" s="31"/>
-      <c r="BJ66" s="31" t="s">
+      <c r="BG66" s="33"/>
+      <c r="BH66" s="33"/>
+      <c r="BI66" s="33"/>
+      <c r="BJ66" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="31"/>
-      <c r="BL66" s="31"/>
-      <c r="BM66" s="31"/>
-      <c r="BN66" s="31" t="s">
+      <c r="BK66" s="33"/>
+      <c r="BL66" s="33"/>
+      <c r="BM66" s="33"/>
+      <c r="BN66" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="31"/>
-      <c r="BP66" s="31"/>
-      <c r="BQ66" s="31"/>
-      <c r="BR66" s="31" t="s">
+      <c r="BO66" s="33"/>
+      <c r="BP66" s="33"/>
+      <c r="BQ66" s="33"/>
+      <c r="BR66" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="31"/>
-      <c r="BT66" s="31"/>
-      <c r="BU66" s="31"/>
-      <c r="BV66" s="33" t="s">
+      <c r="BS66" s="33"/>
+      <c r="BT66" s="33"/>
+      <c r="BU66" s="33"/>
+      <c r="BV66" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="33"/>
-      <c r="BX66" s="33"/>
-      <c r="BY66" s="33"/>
-      <c r="BZ66" s="33" t="s">
+      <c r="BW66" s="31"/>
+      <c r="BX66" s="31"/>
+      <c r="BY66" s="31"/>
+      <c r="BZ66" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="33"/>
-      <c r="CB66" s="33"/>
-      <c r="CC66" s="33"/>
-      <c r="CD66" s="31" t="s">
+      <c r="CA66" s="31"/>
+      <c r="CB66" s="31"/>
+      <c r="CC66" s="31"/>
+      <c r="CD66" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="CF66" s="31"/>
-      <c r="CG66" s="29"/>
+      <c r="CE66" s="33"/>
+      <c r="CF66" s="33"/>
+      <c r="CG66" s="33"/>
       <c r="CH66" s="29"/>
       <c r="CI66" s="29"/>
       <c r="CJ66" s="29"/>
+      <c r="CK66" s="29"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -32757,10 +32811,13 @@
       <c r="CF67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="30"/>
+      <c r="CG67" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CH67" s="30"/>
       <c r="CI67" s="30"/>
       <c r="CJ67" s="30"/>
+      <c r="CK67" s="30"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -32851,6 +32908,7 @@
       <c r="CH68" s="3"/>
       <c r="CI68" s="3"/>
       <c r="CJ68" s="3"/>
+      <c r="CK68" s="3"/>
     </row>
     <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
@@ -33105,11 +33163,13 @@
       <c r="CF69" s="12">
         <v>14.739472010668521</v>
       </c>
-      <c r="CG69" s="11"/>
+      <c r="CG69" s="12">
+        <v>7.2870962624160853</v>
+      </c>
       <c r="CH69" s="11"/>
       <c r="CI69" s="11"/>
       <c r="CJ69" s="11"/>
-      <c r="CK69" s="17"/>
+      <c r="CK69" s="11"/>
       <c r="CL69" s="17"/>
       <c r="CM69" s="17"/>
       <c r="CN69" s="17"/>
@@ -33424,13 +33484,15 @@
         <v>23.06535378498549</v>
       </c>
       <c r="CF70" s="12">
-        <v>11.739236115252311</v>
-      </c>
-      <c r="CG70" s="11"/>
+        <v>10.989735326438364</v>
+      </c>
+      <c r="CG70" s="12">
+        <v>3.4284426791652152</v>
+      </c>
       <c r="CH70" s="11"/>
       <c r="CI70" s="11"/>
       <c r="CJ70" s="11"/>
-      <c r="CK70" s="17"/>
+      <c r="CK70" s="11"/>
       <c r="CL70" s="17"/>
       <c r="CM70" s="17"/>
       <c r="CN70" s="17"/>
@@ -33582,7 +33644,7 @@
       <c r="CH71" s="11"/>
       <c r="CI71" s="11"/>
       <c r="CJ71" s="11"/>
-      <c r="CK71" s="17"/>
+      <c r="CK71" s="11"/>
       <c r="CL71" s="17"/>
       <c r="CM71" s="17"/>
       <c r="CN71" s="17"/>
@@ -33897,13 +33959,15 @@
         <v>12.562460138398606</v>
       </c>
       <c r="CF72" s="12">
-        <v>13.791606599326585</v>
-      </c>
-      <c r="CG72" s="11"/>
+        <v>13.554816594055481</v>
+      </c>
+      <c r="CG72" s="12">
+        <v>5.9466111181947383</v>
+      </c>
       <c r="CH72" s="11"/>
       <c r="CI72" s="11"/>
       <c r="CJ72" s="11"/>
-      <c r="CK72" s="17"/>
+      <c r="CK72" s="11"/>
       <c r="CL72" s="17"/>
       <c r="CM72" s="17"/>
       <c r="CN72" s="17"/>
@@ -34056,6 +34120,7 @@
       <c r="CH73" s="9"/>
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
+      <c r="CK73" s="9"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -34148,6 +34213,7 @@
       <c r="CH74" s="3"/>
       <c r="CI74" s="3"/>
       <c r="CJ74" s="3"/>
+      <c r="CK74" s="3"/>
     </row>
     <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
@@ -34540,7 +34606,7 @@
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -34793,7 +34859,7 @@
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35046,139 +35112,138 @@
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="31">
+      <c r="B84" s="33">
         <v>2000</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="31">
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="33">
         <v>2001</v>
       </c>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="31">
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="33">
         <v>2002</v>
       </c>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="31">
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="33">
         <v>2003</v>
       </c>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="31">
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="33">
         <v>2004</v>
       </c>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="31">
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="33">
         <v>2005</v>
       </c>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="31">
+      <c r="W84" s="34"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="33">
         <v>2006</v>
       </c>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="31">
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="34"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="33">
         <v>2007</v>
       </c>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
-      <c r="AG84" s="32"/>
-      <c r="AH84" s="31">
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="34"/>
+      <c r="AG84" s="34"/>
+      <c r="AH84" s="33">
         <v>2008</v>
       </c>
-      <c r="AI84" s="32"/>
-      <c r="AJ84" s="32"/>
-      <c r="AK84" s="32"/>
-      <c r="AL84" s="31">
+      <c r="AI84" s="34"/>
+      <c r="AJ84" s="34"/>
+      <c r="AK84" s="34"/>
+      <c r="AL84" s="33">
         <v>2009</v>
       </c>
-      <c r="AM84" s="32"/>
-      <c r="AN84" s="32"/>
-      <c r="AO84" s="32"/>
-      <c r="AP84" s="31">
+      <c r="AM84" s="34"/>
+      <c r="AN84" s="34"/>
+      <c r="AO84" s="34"/>
+      <c r="AP84" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="32"/>
-      <c r="AR84" s="32"/>
-      <c r="AS84" s="32"/>
-      <c r="AT84" s="31">
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="34"/>
+      <c r="AS84" s="34"/>
+      <c r="AT84" s="33">
         <v>2011</v>
       </c>
-      <c r="AU84" s="32"/>
-      <c r="AV84" s="32"/>
-      <c r="AW84" s="32"/>
-      <c r="AX84" s="31">
+      <c r="AU84" s="34"/>
+      <c r="AV84" s="34"/>
+      <c r="AW84" s="34"/>
+      <c r="AX84" s="33">
         <v>2012</v>
       </c>
-      <c r="AY84" s="32"/>
-      <c r="AZ84" s="32"/>
-      <c r="BA84" s="32"/>
-      <c r="BB84" s="31">
+      <c r="AY84" s="34"/>
+      <c r="AZ84" s="34"/>
+      <c r="BA84" s="34"/>
+      <c r="BB84" s="33">
         <v>2013</v>
       </c>
-      <c r="BC84" s="32"/>
-      <c r="BD84" s="32"/>
-      <c r="BE84" s="32"/>
-      <c r="BF84" s="31">
+      <c r="BC84" s="34"/>
+      <c r="BD84" s="34"/>
+      <c r="BE84" s="34"/>
+      <c r="BF84" s="33">
         <v>2014</v>
       </c>
-      <c r="BG84" s="32"/>
-      <c r="BH84" s="32"/>
-      <c r="BI84" s="32"/>
-      <c r="BJ84" s="31">
+      <c r="BG84" s="34"/>
+      <c r="BH84" s="34"/>
+      <c r="BI84" s="34"/>
+      <c r="BJ84" s="33">
         <v>2015</v>
       </c>
-      <c r="BK84" s="32"/>
-      <c r="BL84" s="32"/>
-      <c r="BM84" s="32"/>
-      <c r="BN84" s="31">
+      <c r="BK84" s="34"/>
+      <c r="BL84" s="34"/>
+      <c r="BM84" s="34"/>
+      <c r="BN84" s="33">
         <v>2016</v>
       </c>
-      <c r="BO84" s="32"/>
-      <c r="BP84" s="32"/>
-      <c r="BQ84" s="32"/>
-      <c r="BR84" s="31">
+      <c r="BO84" s="34"/>
+      <c r="BP84" s="34"/>
+      <c r="BQ84" s="34"/>
+      <c r="BR84" s="33">
         <v>2017</v>
       </c>
-      <c r="BS84" s="32"/>
-      <c r="BT84" s="32"/>
-      <c r="BU84" s="32"/>
-      <c r="BV84" s="33">
+      <c r="BS84" s="34"/>
+      <c r="BT84" s="34"/>
+      <c r="BU84" s="34"/>
+      <c r="BV84" s="31">
         <v>2018</v>
       </c>
-      <c r="BW84" s="34"/>
-      <c r="BX84" s="34"/>
-      <c r="BY84" s="34"/>
-      <c r="BZ84" s="33">
+      <c r="BW84" s="32"/>
+      <c r="BX84" s="32"/>
+      <c r="BY84" s="32"/>
+      <c r="BZ84" s="31">
         <v>2019</v>
       </c>
-      <c r="CA84" s="34"/>
-      <c r="CB84" s="34"/>
-      <c r="CC84" s="34"/>
-      <c r="CD84" s="31">
+      <c r="CA84" s="32"/>
+      <c r="CB84" s="32"/>
+      <c r="CC84" s="32"/>
+      <c r="CD84" s="33">
         <v>2020</v>
       </c>
-      <c r="CE84" s="31"/>
-      <c r="CF84" s="31"/>
-      <c r="CG84" s="31"/>
-      <c r="CH84" s="31">
+      <c r="CE84" s="33"/>
+      <c r="CF84" s="33"/>
+      <c r="CG84" s="33"/>
+      <c r="CH84" s="33">
         <v>2021</v>
       </c>
-      <c r="CI84" s="31">
-        <v>0</v>
-      </c>
-      <c r="CJ84" s="31"/>
+      <c r="CI84" s="33"/>
+      <c r="CJ84" s="33"/>
+      <c r="CK84" s="33"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -35444,6 +35509,9 @@
       </c>
       <c r="CJ85" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK85" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35792,9 +35860,11 @@
         <v>102.09914711329355</v>
       </c>
       <c r="CJ87" s="12">
-        <v>107.45758844557851</v>
-      </c>
-      <c r="CK87" s="17"/>
+        <v>107.46908300070628</v>
+      </c>
+      <c r="CK87" s="12">
+        <v>124.54738077603021</v>
+      </c>
       <c r="CL87" s="17"/>
       <c r="CM87" s="17"/>
       <c r="CN87" s="17"/>
@@ -36121,9 +36191,11 @@
         <v>100.61852937156547</v>
       </c>
       <c r="CJ88" s="12">
-        <v>109.93774001632562</v>
-      </c>
-      <c r="CK88" s="17"/>
+        <v>109.94720249657171</v>
+      </c>
+      <c r="CK88" s="12">
+        <v>111.7369322217173</v>
+      </c>
       <c r="CL88" s="17"/>
       <c r="CM88" s="17"/>
       <c r="CN88" s="17"/>
@@ -36275,7 +36347,7 @@
       <c r="CH89" s="11"/>
       <c r="CI89" s="11"/>
       <c r="CJ89" s="11"/>
-      <c r="CK89" s="17"/>
+      <c r="CK89" s="11"/>
       <c r="CL89" s="17"/>
       <c r="CM89" s="17"/>
       <c r="CN89" s="17"/>
@@ -36602,9 +36674,11 @@
         <v>101.69350857079735</v>
       </c>
       <c r="CJ90" s="12">
-        <v>108.22701109192914</v>
-      </c>
-      <c r="CK90" s="17"/>
+        <v>108.23431086015742</v>
+      </c>
+      <c r="CK90" s="12">
+        <v>120.20284410699954</v>
+      </c>
       <c r="CL90" s="17"/>
       <c r="CM90" s="17"/>
       <c r="CN90" s="17"/>
@@ -36757,6 +36831,7 @@
       <c r="CH91" s="9"/>
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
+      <c r="CK91" s="9"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
@@ -36931,6 +37006,7 @@
       <c r="CH93" s="3"/>
       <c r="CI93" s="3"/>
       <c r="CJ93" s="3"/>
+      <c r="CK93" s="3"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
@@ -37020,6 +37096,7 @@
       <c r="CH94" s="3"/>
       <c r="CI94" s="3"/>
       <c r="CJ94" s="3"/>
+      <c r="CK94" s="3"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -37112,6 +37189,7 @@
       <c r="CH95" s="3"/>
       <c r="CI95" s="3"/>
       <c r="CJ95" s="3"/>
+      <c r="CK95" s="3"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
@@ -37204,10 +37282,11 @@
       <c r="CH96" s="3"/>
       <c r="CI96" s="3"/>
       <c r="CJ96" s="3"/>
+      <c r="CK96" s="3"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -37296,6 +37375,7 @@
       <c r="CH97" s="3"/>
       <c r="CI97" s="3"/>
       <c r="CJ97" s="3"/>
+      <c r="CK97" s="3"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -37386,6 +37466,7 @@
       <c r="CH98" s="3"/>
       <c r="CI98" s="3"/>
       <c r="CJ98" s="3"/>
+      <c r="CK98" s="3"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -37478,10 +37559,11 @@
       <c r="CH99" s="3"/>
       <c r="CI99" s="3"/>
       <c r="CJ99" s="3"/>
+      <c r="CK99" s="3"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -37570,6 +37652,7 @@
       <c r="CH100" s="3"/>
       <c r="CI100" s="3"/>
       <c r="CJ100" s="3"/>
+      <c r="CK100" s="3"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -37662,6 +37745,7 @@
       <c r="CH101" s="3"/>
       <c r="CI101" s="3"/>
       <c r="CJ101" s="3"/>
+      <c r="CK101" s="3"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -37752,142 +37836,142 @@
       <c r="CH102" s="3"/>
       <c r="CI102" s="3"/>
       <c r="CJ102" s="3"/>
+      <c r="CK102" s="3"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="31">
+      <c r="B103" s="33">
         <v>2000</v>
       </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="31">
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="33">
         <v>2001</v>
       </c>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="31">
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="33">
         <v>2002</v>
       </c>
-      <c r="K103" s="32"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="31">
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="33">
         <v>2003</v>
       </c>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32"/>
-      <c r="R103" s="31">
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="33">
         <v>2004</v>
       </c>
-      <c r="S103" s="32"/>
-      <c r="T103" s="32"/>
-      <c r="U103" s="32"/>
-      <c r="V103" s="31">
+      <c r="S103" s="34"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="34"/>
+      <c r="V103" s="33">
         <v>2005</v>
       </c>
-      <c r="W103" s="32"/>
-      <c r="X103" s="32"/>
-      <c r="Y103" s="32"/>
-      <c r="Z103" s="31">
+      <c r="W103" s="34"/>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="33">
         <v>2006</v>
       </c>
-      <c r="AA103" s="32"/>
-      <c r="AB103" s="32"/>
-      <c r="AC103" s="32"/>
-      <c r="AD103" s="31">
+      <c r="AA103" s="34"/>
+      <c r="AB103" s="34"/>
+      <c r="AC103" s="34"/>
+      <c r="AD103" s="33">
         <v>2007</v>
       </c>
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
-      <c r="AG103" s="32"/>
-      <c r="AH103" s="31">
+      <c r="AE103" s="34"/>
+      <c r="AF103" s="34"/>
+      <c r="AG103" s="34"/>
+      <c r="AH103" s="33">
         <v>2008</v>
       </c>
-      <c r="AI103" s="32"/>
-      <c r="AJ103" s="32"/>
-      <c r="AK103" s="32"/>
-      <c r="AL103" s="31">
+      <c r="AI103" s="34"/>
+      <c r="AJ103" s="34"/>
+      <c r="AK103" s="34"/>
+      <c r="AL103" s="33">
         <v>2009</v>
       </c>
-      <c r="AM103" s="32"/>
-      <c r="AN103" s="32"/>
-      <c r="AO103" s="32"/>
-      <c r="AP103" s="31">
+      <c r="AM103" s="34"/>
+      <c r="AN103" s="34"/>
+      <c r="AO103" s="34"/>
+      <c r="AP103" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="32"/>
-      <c r="AR103" s="32"/>
-      <c r="AS103" s="32"/>
-      <c r="AT103" s="31">
+      <c r="AQ103" s="34"/>
+      <c r="AR103" s="34"/>
+      <c r="AS103" s="34"/>
+      <c r="AT103" s="33">
         <v>2011</v>
       </c>
-      <c r="AU103" s="32"/>
-      <c r="AV103" s="32"/>
-      <c r="AW103" s="32"/>
-      <c r="AX103" s="31">
+      <c r="AU103" s="34"/>
+      <c r="AV103" s="34"/>
+      <c r="AW103" s="34"/>
+      <c r="AX103" s="33">
         <v>2012</v>
       </c>
-      <c r="AY103" s="32"/>
-      <c r="AZ103" s="32"/>
-      <c r="BA103" s="32"/>
-      <c r="BB103" s="31">
+      <c r="AY103" s="34"/>
+      <c r="AZ103" s="34"/>
+      <c r="BA103" s="34"/>
+      <c r="BB103" s="33">
         <v>2013</v>
       </c>
-      <c r="BC103" s="32"/>
-      <c r="BD103" s="32"/>
-      <c r="BE103" s="32"/>
-      <c r="BF103" s="31">
+      <c r="BC103" s="34"/>
+      <c r="BD103" s="34"/>
+      <c r="BE103" s="34"/>
+      <c r="BF103" s="33">
         <v>2014</v>
       </c>
-      <c r="BG103" s="32"/>
-      <c r="BH103" s="32"/>
-      <c r="BI103" s="32"/>
-      <c r="BJ103" s="31">
+      <c r="BG103" s="34"/>
+      <c r="BH103" s="34"/>
+      <c r="BI103" s="34"/>
+      <c r="BJ103" s="33">
         <v>2015</v>
       </c>
-      <c r="BK103" s="32"/>
-      <c r="BL103" s="32"/>
-      <c r="BM103" s="32"/>
-      <c r="BN103" s="31">
+      <c r="BK103" s="34"/>
+      <c r="BL103" s="34"/>
+      <c r="BM103" s="34"/>
+      <c r="BN103" s="33">
         <v>2016</v>
       </c>
-      <c r="BO103" s="32"/>
-      <c r="BP103" s="32"/>
-      <c r="BQ103" s="32"/>
-      <c r="BR103" s="31">
+      <c r="BO103" s="34"/>
+      <c r="BP103" s="34"/>
+      <c r="BQ103" s="34"/>
+      <c r="BR103" s="33">
         <v>2017</v>
       </c>
-      <c r="BS103" s="32"/>
-      <c r="BT103" s="32"/>
-      <c r="BU103" s="32"/>
-      <c r="BV103" s="33">
+      <c r="BS103" s="34"/>
+      <c r="BT103" s="34"/>
+      <c r="BU103" s="34"/>
+      <c r="BV103" s="31">
         <v>2018</v>
       </c>
-      <c r="BW103" s="34"/>
-      <c r="BX103" s="34"/>
-      <c r="BY103" s="34"/>
-      <c r="BZ103" s="33">
+      <c r="BW103" s="32"/>
+      <c r="BX103" s="32"/>
+      <c r="BY103" s="32"/>
+      <c r="BZ103" s="31">
         <v>2019</v>
       </c>
-      <c r="CA103" s="34"/>
-      <c r="CB103" s="34"/>
-      <c r="CC103" s="34"/>
-      <c r="CD103" s="31">
+      <c r="CA103" s="32"/>
+      <c r="CB103" s="32"/>
+      <c r="CC103" s="32"/>
+      <c r="CD103" s="33">
         <v>2020</v>
       </c>
-      <c r="CE103" s="31"/>
-      <c r="CF103" s="31"/>
-      <c r="CG103" s="31"/>
-      <c r="CH103" s="31">
+      <c r="CE103" s="33"/>
+      <c r="CF103" s="33"/>
+      <c r="CG103" s="33"/>
+      <c r="CH103" s="33">
         <v>2021</v>
       </c>
-      <c r="CI103" s="31">
-        <v>0</v>
-      </c>
-      <c r="CJ103" s="31"/>
+      <c r="CI103" s="33"/>
+      <c r="CJ103" s="33"/>
+      <c r="CK103" s="33"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -38153,6 +38237,9 @@
       </c>
       <c r="CJ104" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK104" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -38244,6 +38331,7 @@
       <c r="CH105" s="3"/>
       <c r="CI105" s="3"/>
       <c r="CJ105" s="3"/>
+      <c r="CK105" s="3"/>
     </row>
     <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
@@ -38508,9 +38596,11 @@
         <v>72.893028536923708</v>
       </c>
       <c r="CJ106" s="12">
-        <v>68.486409880251287</v>
-      </c>
-      <c r="CK106" s="17"/>
+        <v>68.631933078341177</v>
+      </c>
+      <c r="CK106" s="12">
+        <v>68.47456191757955</v>
+      </c>
       <c r="CL106" s="17"/>
       <c r="CM106" s="17"/>
       <c r="CN106" s="17"/>
@@ -38841,9 +38931,11 @@
         <v>27.106971463076292</v>
       </c>
       <c r="CJ107" s="12">
-        <v>31.513590119748724</v>
-      </c>
-      <c r="CK107" s="17"/>
+        <v>31.368066921658833</v>
+      </c>
+      <c r="CK107" s="12">
+        <v>31.525438082420461</v>
+      </c>
       <c r="CL107" s="17"/>
       <c r="CM107" s="17"/>
       <c r="CN107" s="17"/>
@@ -38999,7 +39091,7 @@
       <c r="CH108" s="11"/>
       <c r="CI108" s="11"/>
       <c r="CJ108" s="11"/>
-      <c r="CK108" s="17"/>
+      <c r="CK108" s="11"/>
       <c r="CL108" s="17"/>
       <c r="CM108" s="17"/>
       <c r="CN108" s="17"/>
@@ -39332,7 +39424,9 @@
       <c r="CJ109" s="12">
         <v>100</v>
       </c>
-      <c r="CK109" s="17"/>
+      <c r="CK109" s="12">
+        <v>100</v>
+      </c>
       <c r="CL109" s="17"/>
       <c r="CM109" s="17"/>
       <c r="CN109" s="17"/>
@@ -39489,6 +39583,7 @@
       <c r="CH110" s="9"/>
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
+      <c r="CK110" s="9"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
@@ -39581,6 +39676,7 @@
       <c r="CH111" s="3"/>
       <c r="CI111" s="3"/>
       <c r="CJ111" s="3"/>
+      <c r="CK111" s="3"/>
     </row>
     <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="11"/>
@@ -39670,7 +39766,7 @@
       <c r="CH112" s="11"/>
       <c r="CI112" s="11"/>
       <c r="CJ112" s="11"/>
-      <c r="CK112" s="17"/>
+      <c r="CK112" s="11"/>
       <c r="CL112" s="17"/>
       <c r="CM112" s="17"/>
       <c r="CN112" s="17"/>
@@ -39826,7 +39922,7 @@
       <c r="CH113" s="11"/>
       <c r="CI113" s="11"/>
       <c r="CJ113" s="11"/>
-      <c r="CK113" s="17"/>
+      <c r="CK113" s="11"/>
       <c r="CL113" s="17"/>
       <c r="CM113" s="17"/>
       <c r="CN113" s="17"/>
@@ -39985,6 +40081,7 @@
       <c r="CH114" s="3"/>
       <c r="CI114" s="3"/>
       <c r="CJ114" s="3"/>
+      <c r="CK114" s="3"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
@@ -40077,10 +40174,11 @@
       <c r="CH115" s="3"/>
       <c r="CI115" s="3"/>
       <c r="CJ115" s="3"/>
+      <c r="CK115" s="3"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -40169,6 +40267,7 @@
       <c r="CH116" s="3"/>
       <c r="CI116" s="3"/>
       <c r="CJ116" s="3"/>
+      <c r="CK116" s="3"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
@@ -40259,6 +40358,7 @@
       <c r="CH117" s="3"/>
       <c r="CI117" s="3"/>
       <c r="CJ117" s="3"/>
+      <c r="CK117" s="3"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
@@ -40351,10 +40451,11 @@
       <c r="CH118" s="3"/>
       <c r="CI118" s="3"/>
       <c r="CJ118" s="3"/>
+      <c r="CK118" s="3"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -40443,6 +40544,7 @@
       <c r="CH119" s="3"/>
       <c r="CI119" s="3"/>
       <c r="CJ119" s="3"/>
+      <c r="CK119" s="3"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -40535,6 +40637,7 @@
       <c r="CH120" s="3"/>
       <c r="CI120" s="3"/>
       <c r="CJ120" s="3"/>
+      <c r="CK120" s="3"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
@@ -40625,142 +40728,142 @@
       <c r="CH121" s="3"/>
       <c r="CI121" s="3"/>
       <c r="CJ121" s="3"/>
+      <c r="CK121" s="3"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="31">
+      <c r="B122" s="33">
         <v>2000</v>
       </c>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="31">
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="33">
         <v>2001</v>
       </c>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="31">
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="33">
         <v>2002</v>
       </c>
-      <c r="K122" s="32"/>
-      <c r="L122" s="32"/>
-      <c r="M122" s="32"/>
-      <c r="N122" s="31">
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="33">
         <v>2003</v>
       </c>
-      <c r="O122" s="32"/>
-      <c r="P122" s="32"/>
-      <c r="Q122" s="32"/>
-      <c r="R122" s="31">
+      <c r="O122" s="34"/>
+      <c r="P122" s="34"/>
+      <c r="Q122" s="34"/>
+      <c r="R122" s="33">
         <v>2004</v>
       </c>
-      <c r="S122" s="32"/>
-      <c r="T122" s="32"/>
-      <c r="U122" s="32"/>
-      <c r="V122" s="31">
+      <c r="S122" s="34"/>
+      <c r="T122" s="34"/>
+      <c r="U122" s="34"/>
+      <c r="V122" s="33">
         <v>2005</v>
       </c>
-      <c r="W122" s="32"/>
-      <c r="X122" s="32"/>
-      <c r="Y122" s="32"/>
-      <c r="Z122" s="31">
+      <c r="W122" s="34"/>
+      <c r="X122" s="34"/>
+      <c r="Y122" s="34"/>
+      <c r="Z122" s="33">
         <v>2006</v>
       </c>
-      <c r="AA122" s="32"/>
-      <c r="AB122" s="32"/>
-      <c r="AC122" s="32"/>
-      <c r="AD122" s="31">
+      <c r="AA122" s="34"/>
+      <c r="AB122" s="34"/>
+      <c r="AC122" s="34"/>
+      <c r="AD122" s="33">
         <v>2007</v>
       </c>
-      <c r="AE122" s="32"/>
-      <c r="AF122" s="32"/>
-      <c r="AG122" s="32"/>
-      <c r="AH122" s="31">
+      <c r="AE122" s="34"/>
+      <c r="AF122" s="34"/>
+      <c r="AG122" s="34"/>
+      <c r="AH122" s="33">
         <v>2008</v>
       </c>
-      <c r="AI122" s="32"/>
-      <c r="AJ122" s="32"/>
-      <c r="AK122" s="32"/>
-      <c r="AL122" s="31">
+      <c r="AI122" s="34"/>
+      <c r="AJ122" s="34"/>
+      <c r="AK122" s="34"/>
+      <c r="AL122" s="33">
         <v>2009</v>
       </c>
-      <c r="AM122" s="32"/>
-      <c r="AN122" s="32"/>
-      <c r="AO122" s="32"/>
-      <c r="AP122" s="31">
+      <c r="AM122" s="34"/>
+      <c r="AN122" s="34"/>
+      <c r="AO122" s="34"/>
+      <c r="AP122" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="32"/>
-      <c r="AR122" s="32"/>
-      <c r="AS122" s="32"/>
-      <c r="AT122" s="31">
+      <c r="AQ122" s="34"/>
+      <c r="AR122" s="34"/>
+      <c r="AS122" s="34"/>
+      <c r="AT122" s="33">
         <v>2011</v>
       </c>
-      <c r="AU122" s="32"/>
-      <c r="AV122" s="32"/>
-      <c r="AW122" s="32"/>
-      <c r="AX122" s="31">
+      <c r="AU122" s="34"/>
+      <c r="AV122" s="34"/>
+      <c r="AW122" s="34"/>
+      <c r="AX122" s="33">
         <v>2012</v>
       </c>
-      <c r="AY122" s="32"/>
-      <c r="AZ122" s="32"/>
-      <c r="BA122" s="32"/>
-      <c r="BB122" s="31">
+      <c r="AY122" s="34"/>
+      <c r="AZ122" s="34"/>
+      <c r="BA122" s="34"/>
+      <c r="BB122" s="33">
         <v>2013</v>
       </c>
-      <c r="BC122" s="32"/>
-      <c r="BD122" s="32"/>
-      <c r="BE122" s="32"/>
-      <c r="BF122" s="31">
+      <c r="BC122" s="34"/>
+      <c r="BD122" s="34"/>
+      <c r="BE122" s="34"/>
+      <c r="BF122" s="33">
         <v>2014</v>
       </c>
-      <c r="BG122" s="32"/>
-      <c r="BH122" s="32"/>
-      <c r="BI122" s="32"/>
-      <c r="BJ122" s="31">
+      <c r="BG122" s="34"/>
+      <c r="BH122" s="34"/>
+      <c r="BI122" s="34"/>
+      <c r="BJ122" s="33">
         <v>2015</v>
       </c>
-      <c r="BK122" s="32"/>
-      <c r="BL122" s="32"/>
-      <c r="BM122" s="32"/>
-      <c r="BN122" s="31">
+      <c r="BK122" s="34"/>
+      <c r="BL122" s="34"/>
+      <c r="BM122" s="34"/>
+      <c r="BN122" s="33">
         <v>2016</v>
       </c>
-      <c r="BO122" s="32"/>
-      <c r="BP122" s="32"/>
-      <c r="BQ122" s="32"/>
-      <c r="BR122" s="31">
+      <c r="BO122" s="34"/>
+      <c r="BP122" s="34"/>
+      <c r="BQ122" s="34"/>
+      <c r="BR122" s="33">
         <v>2017</v>
       </c>
-      <c r="BS122" s="32"/>
-      <c r="BT122" s="32"/>
-      <c r="BU122" s="32"/>
-      <c r="BV122" s="33">
+      <c r="BS122" s="34"/>
+      <c r="BT122" s="34"/>
+      <c r="BU122" s="34"/>
+      <c r="BV122" s="31">
         <v>2018</v>
       </c>
-      <c r="BW122" s="34"/>
-      <c r="BX122" s="34"/>
-      <c r="BY122" s="34"/>
-      <c r="BZ122" s="33">
+      <c r="BW122" s="32"/>
+      <c r="BX122" s="32"/>
+      <c r="BY122" s="32"/>
+      <c r="BZ122" s="31">
         <v>2019</v>
       </c>
-      <c r="CA122" s="34"/>
-      <c r="CB122" s="34"/>
-      <c r="CC122" s="34"/>
-      <c r="CD122" s="31">
+      <c r="CA122" s="32"/>
+      <c r="CB122" s="32"/>
+      <c r="CC122" s="32"/>
+      <c r="CD122" s="33">
         <v>2020</v>
       </c>
-      <c r="CE122" s="31"/>
-      <c r="CF122" s="31"/>
-      <c r="CG122" s="31"/>
-      <c r="CH122" s="31">
+      <c r="CE122" s="33"/>
+      <c r="CF122" s="33"/>
+      <c r="CG122" s="33"/>
+      <c r="CH122" s="33">
         <v>2021</v>
       </c>
-      <c r="CI122" s="31">
-        <v>0</v>
-      </c>
-      <c r="CJ122" s="31"/>
+      <c r="CI122" s="33"/>
+      <c r="CJ122" s="33"/>
+      <c r="CK122" s="33"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -41026,6 +41129,9 @@
       </c>
       <c r="CJ123" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK123" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -41117,6 +41223,7 @@
       <c r="CH124" s="3"/>
       <c r="CI124" s="3"/>
       <c r="CJ124" s="3"/>
+      <c r="CK124" s="3"/>
     </row>
     <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
@@ -41381,9 +41488,11 @@
         <v>72.603425511924485</v>
       </c>
       <c r="CJ125" s="12">
-        <v>68.97678934522321</v>
-      </c>
-      <c r="CK125" s="17"/>
+        <v>69.120623088278137</v>
+      </c>
+      <c r="CK125" s="12">
+        <v>66.085991051671883</v>
+      </c>
       <c r="CL125" s="17"/>
       <c r="CM125" s="17"/>
       <c r="CN125" s="17"/>
@@ -41714,9 +41823,11 @@
         <v>27.396574488075519</v>
       </c>
       <c r="CJ126" s="12">
-        <v>31.023210654776793</v>
-      </c>
-      <c r="CK126" s="17"/>
+        <v>30.879376911721845</v>
+      </c>
+      <c r="CK126" s="12">
+        <v>33.914008948328117</v>
+      </c>
       <c r="CL126" s="17"/>
       <c r="CM126" s="17"/>
       <c r="CN126" s="17"/>
@@ -41872,7 +41983,7 @@
       <c r="CH127" s="11"/>
       <c r="CI127" s="11"/>
       <c r="CJ127" s="11"/>
-      <c r="CK127" s="17"/>
+      <c r="CK127" s="11"/>
       <c r="CL127" s="17"/>
       <c r="CM127" s="17"/>
       <c r="CN127" s="17"/>
@@ -42205,7 +42316,9 @@
       <c r="CJ128" s="12">
         <v>100</v>
       </c>
-      <c r="CK128" s="17"/>
+      <c r="CK128" s="12">
+        <v>100</v>
+      </c>
       <c r="CL128" s="17"/>
       <c r="CM128" s="17"/>
       <c r="CN128" s="17"/>
@@ -42273,7 +42386,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:88" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:89" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -42362,8 +42475,9 @@
       <c r="CH129" s="9"/>
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
+      <c r="CK129" s="9"/>
     </row>
-    <row r="130" spans="1:88" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:89" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -42454,21 +42568,11 @@
       <c r="CH130" s="3"/>
       <c r="CI130" s="3"/>
       <c r="CJ130" s="3"/>
+      <c r="CK130" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AX66:BA66"/>
     <mergeCell ref="BB66:BE66"/>
     <mergeCell ref="BF66:BI66"/>
@@ -42478,8 +42582,9 @@
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BJ47:BM47"/>
     <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AD122:AG122"/>
     <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="AL122:AO122"/>
@@ -42495,22 +42600,20 @@
     <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="AL66:AO66"/>
     <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
     <mergeCell ref="Z103:AC103"/>
     <mergeCell ref="AD103:AG103"/>
     <mergeCell ref="AH103:AK103"/>
     <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="F47:I47"/>
     <mergeCell ref="J47:M47"/>
@@ -42520,16 +42623,6 @@
     <mergeCell ref="Z47:AC47"/>
     <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="B66:E66"/>
@@ -42554,6 +42647,9 @@
     <mergeCell ref="AP28:AS28"/>
     <mergeCell ref="AT28:AW28"/>
     <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BF9:BI9"/>
@@ -42561,12 +42657,20 @@
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH28:CJ28"/>
-    <mergeCell ref="CD66:CF66"/>
-    <mergeCell ref="CH84:CJ84"/>
-    <mergeCell ref="CH103:CJ103"/>
-    <mergeCell ref="CH122:CJ122"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -42580,16 +42684,22 @@
     <mergeCell ref="J103:M103"/>
     <mergeCell ref="N103:Q103"/>
     <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="AP103:AS103"/>
     <mergeCell ref="AX103:BA103"/>
     <mergeCell ref="BB103:BE103"/>
     <mergeCell ref="AX122:BA122"/>
     <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="CD47:CE47"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="BZ28:CC28"/>
@@ -42598,26 +42708,31 @@
     <mergeCell ref="BV122:BY122"/>
     <mergeCell ref="BR84:BU84"/>
     <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
     <mergeCell ref="BR103:BU103"/>
     <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BV66:BY66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="86" man="1"/>
-    <brk id="76" max="86" man="1"/>
-    <brk id="94" max="86" man="1"/>
+    <brk id="38" max="88" man="1"/>
+    <brk id="76" max="88" man="1"/>
+    <brk id="94" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFA8AE9-14EA-4E0C-ACCB-0F4D6FED09F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -320,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CK$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CL$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -465,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -608,24 +609,27 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -710,9 +714,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -733,9 +737,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -744,18 +748,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,17 +772,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23369,7 +23380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23421,7 +23432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23622,27 +23633,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY130"/>
+  <dimension ref="A1:EY137"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A73" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CI62" sqref="CI62:CM76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="73" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="74" max="81" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="82" max="89" width="9.36328125" style="15" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="15"/>
+    <col min="74" max="77" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="78" max="90" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -23650,12 +23661,8 @@
       <c r="BW1" s="18"/>
       <c r="BX1" s="18"/>
       <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
     </row>
-    <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -23663,36 +23670,24 @@
       <c r="BW2" s="18"/>
       <c r="BX2" s="18"/>
       <c r="BY2" s="18"/>
-      <c r="BZ2" s="18"/>
-      <c r="CA2" s="18"/>
-      <c r="CB2" s="18"/>
-      <c r="CC2" s="18"/>
     </row>
-    <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BV3" s="18"/>
       <c r="BW3" s="18"/>
       <c r="BX3" s="18"/>
       <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18"/>
-      <c r="CB3" s="18"/>
-      <c r="CC3" s="18"/>
     </row>
-    <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="BV4" s="18"/>
       <c r="BW4" s="18"/>
       <c r="BX4" s="18"/>
       <c r="BY4" s="18"/>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="18"/>
-      <c r="CB4" s="18"/>
-      <c r="CC4" s="18"/>
     </row>
-    <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -23700,25 +23695,17 @@
       <c r="BW5" s="18"/>
       <c r="BX5" s="18"/>
       <c r="BY5" s="18"/>
-      <c r="BZ5" s="18"/>
-      <c r="CA5" s="18"/>
-      <c r="CB5" s="18"/>
-      <c r="CC5" s="18"/>
     </row>
-    <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BV6" s="18"/>
       <c r="BW6" s="18"/>
       <c r="BX6" s="18"/>
       <c r="BY6" s="18"/>
-      <c r="BZ6" s="18"/>
-      <c r="CA6" s="18"/>
-      <c r="CB6" s="18"/>
-      <c r="CC6" s="18"/>
     </row>
-    <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -23726,12 +23713,8 @@
       <c r="BW7" s="18"/>
       <c r="BX7" s="18"/>
       <c r="BY7" s="18"/>
-      <c r="BZ7" s="18"/>
-      <c r="CA7" s="18"/>
-      <c r="CB7" s="18"/>
-      <c r="CC7" s="18"/>
     </row>
-    <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -23809,10 +23792,10 @@
       <c r="BW8" s="19"/>
       <c r="BX8" s="19"/>
       <c r="BY8" s="19"/>
-      <c r="BZ8" s="19"/>
-      <c r="CA8" s="19"/>
-      <c r="CB8" s="19"/>
-      <c r="CC8" s="19"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
       <c r="CD8" s="3"/>
       <c r="CE8" s="3"/>
       <c r="CF8" s="3"/>
@@ -23821,143 +23804,147 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
     </row>
-    <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="29">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="29"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BR9" s="29">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
+      <c r="BS9" s="29"/>
+      <c r="BT9" s="29"/>
+      <c r="BU9" s="29"/>
       <c r="BV9" s="31">
         <v>2018</v>
       </c>
       <c r="BW9" s="31"/>
       <c r="BX9" s="31"/>
       <c r="BY9" s="31"/>
-      <c r="BZ9" s="31">
+      <c r="BZ9" s="29">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="33">
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="29">
         <v>2020</v>
       </c>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="33"/>
-      <c r="CG9" s="33"/>
-      <c r="CH9" s="33">
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="29"/>
+      <c r="CG9" s="29"/>
+      <c r="CH9" s="29">
         <v>2021</v>
       </c>
-      <c r="CI9" s="33"/>
-      <c r="CJ9" s="33"/>
-      <c r="CK9" s="33"/>
+      <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="28">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24189,16 +24176,16 @@
       <c r="BY10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="20" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="20" t="s">
+      <c r="CA10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="20" t="s">
+      <c r="CB10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="20" t="s">
+      <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="6" t="s">
@@ -24225,8 +24212,11 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -24304,10 +24294,10 @@
       <c r="BW11" s="19"/>
       <c r="BX11" s="19"/>
       <c r="BY11" s="19"/>
-      <c r="BZ11" s="19"/>
-      <c r="CA11" s="19"/>
-      <c r="CB11" s="19"/>
-      <c r="CC11" s="19"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
       <c r="CD11" s="3"/>
       <c r="CE11" s="3"/>
       <c r="CF11" s="3"/>
@@ -24316,8 +24306,9 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
+      <c r="CL11" s="3"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -24549,43 +24540,45 @@
       <c r="BY12" s="21">
         <v>121669.15606099772</v>
       </c>
-      <c r="BZ12" s="21">
+      <c r="BZ12" s="13">
         <v>103144.09723180546</v>
       </c>
-      <c r="CA12" s="21">
+      <c r="CA12" s="13">
         <v>141599.67519480627</v>
       </c>
-      <c r="CB12" s="21">
+      <c r="CB12" s="13">
         <v>116762.16676764708</v>
       </c>
-      <c r="CC12" s="21">
+      <c r="CC12" s="13">
         <v>129138.54029837236</v>
       </c>
       <c r="CD12" s="13">
-        <v>115698.8437901022</v>
+        <v>116718.58288271978</v>
       </c>
       <c r="CE12" s="13">
-        <v>144609.64198842359</v>
+        <v>145884.1932308937</v>
       </c>
       <c r="CF12" s="13">
-        <v>109224.92404639852</v>
+        <v>110187.60371794616</v>
       </c>
       <c r="CG12" s="13">
-        <v>124070.73763235461</v>
+        <v>125164.26438914001</v>
       </c>
       <c r="CH12" s="13">
-        <v>128854.46387787715</v>
+        <v>129990.15313604233</v>
       </c>
       <c r="CI12" s="13">
-        <v>159934.10067033579</v>
+        <v>161343.7176496727</v>
       </c>
       <c r="CJ12" s="13">
-        <v>128536.7085143947</v>
+        <v>129669.59716059681</v>
       </c>
       <c r="CK12" s="13">
-        <v>136514.3321851888</v>
-      </c>
-      <c r="CL12" s="17"/>
+        <v>140076.82995935337</v>
+      </c>
+      <c r="CL12" s="13">
+        <v>147367.12349501514</v>
+      </c>
       <c r="CM12" s="17"/>
       <c r="CN12" s="17"/>
       <c r="CO12" s="17"/>
@@ -24652,7 +24645,7 @@
       <c r="EX12" s="17"/>
       <c r="EY12" s="17"/>
     </row>
-    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -24884,16 +24877,16 @@
       <c r="BY13" s="21">
         <v>72031.804399066445</v>
       </c>
-      <c r="BZ13" s="21">
+      <c r="BZ13" s="13">
         <v>62426.592929043385</v>
       </c>
-      <c r="CA13" s="21">
+      <c r="CA13" s="13">
         <v>75649.9590431291</v>
       </c>
-      <c r="CB13" s="21">
+      <c r="CB13" s="13">
         <v>73783.049982203112</v>
       </c>
-      <c r="CC13" s="21">
+      <c r="CC13" s="13">
         <v>76363.524362238182</v>
       </c>
       <c r="CD13" s="13">
@@ -24906,7 +24899,7 @@
         <v>52584.505092639316</v>
       </c>
       <c r="CG13" s="13">
-        <v>60818.409728994928</v>
+        <v>60711.2922586852</v>
       </c>
       <c r="CH13" s="13">
         <v>54606.43490007794</v>
@@ -24918,9 +24911,11 @@
         <v>58747.4065456811</v>
       </c>
       <c r="CK13" s="13">
-        <v>62850.699678040022</v>
-      </c>
-      <c r="CL13" s="17"/>
+        <v>62917.475082154022</v>
+      </c>
+      <c r="CL13" s="13">
+        <v>58918.896329164592</v>
+      </c>
       <c r="CM13" s="17"/>
       <c r="CN13" s="17"/>
       <c r="CO13" s="17"/>
@@ -24987,7 +24982,7 @@
       <c r="EX13" s="17"/>
       <c r="EY13" s="17"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -25064,10 +25059,10 @@
       <c r="BW14" s="22"/>
       <c r="BX14" s="22"/>
       <c r="BY14" s="22"/>
-      <c r="BZ14" s="22"/>
-      <c r="CA14" s="22"/>
-      <c r="CB14" s="22"/>
-      <c r="CC14" s="22"/>
+      <c r="BZ14" s="11"/>
+      <c r="CA14" s="11"/>
+      <c r="CB14" s="11"/>
+      <c r="CC14" s="11"/>
       <c r="CD14" s="11"/>
       <c r="CE14" s="11"/>
       <c r="CF14" s="11"/>
@@ -25076,7 +25071,7 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="17"/>
+      <c r="CL14" s="11"/>
       <c r="CM14" s="17"/>
       <c r="CN14" s="17"/>
       <c r="CO14" s="17"/>
@@ -25143,7 +25138,7 @@
       <c r="EX14" s="17"/>
       <c r="EY14" s="17"/>
     </row>
-    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -25375,43 +25370,45 @@
       <c r="BY15" s="23">
         <v>193700.96046006418</v>
       </c>
-      <c r="BZ15" s="23">
+      <c r="BZ15" s="14">
         <v>165570.69016084884</v>
       </c>
-      <c r="CA15" s="23">
+      <c r="CA15" s="14">
         <v>217249.63423793536</v>
       </c>
-      <c r="CB15" s="23">
+      <c r="CB15" s="14">
         <v>190545.21674985019</v>
       </c>
-      <c r="CC15" s="23">
+      <c r="CC15" s="14">
         <v>205502.06466061054</v>
       </c>
       <c r="CD15" s="14">
-        <v>176032.59195999464</v>
+        <v>177052.33105261222</v>
       </c>
       <c r="CE15" s="14">
-        <v>192518.9732541838</v>
+        <v>193793.5244966539</v>
       </c>
       <c r="CF15" s="14">
-        <v>161809.42913903785</v>
+        <v>162772.10881058546</v>
       </c>
       <c r="CG15" s="14">
-        <v>184889.14736134955</v>
+        <v>185875.5566478252</v>
       </c>
       <c r="CH15" s="14">
-        <v>183460.8987779551</v>
+        <v>184596.58803612026</v>
       </c>
       <c r="CI15" s="14">
-        <v>219409.32333374201</v>
+        <v>220818.94031307893</v>
       </c>
       <c r="CJ15" s="14">
-        <v>187284.1150600758</v>
+        <v>188417.0037062779</v>
       </c>
       <c r="CK15" s="14">
-        <v>199365.03186322883</v>
-      </c>
-      <c r="CL15" s="17"/>
+        <v>202994.30504150741</v>
+      </c>
+      <c r="CL15" s="14">
+        <v>206286.01982417973</v>
+      </c>
       <c r="CM15" s="17"/>
       <c r="CN15" s="17"/>
       <c r="CO15" s="17"/>
@@ -25478,7 +25475,7 @@
       <c r="EX15" s="17"/>
       <c r="EY15" s="17"/>
     </row>
-    <row r="16" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -25556,10 +25553,10 @@
       <c r="BW16" s="24"/>
       <c r="BX16" s="24"/>
       <c r="BY16" s="24"/>
-      <c r="BZ16" s="24"/>
-      <c r="CA16" s="24"/>
-      <c r="CB16" s="24"/>
-      <c r="CC16" s="24"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
       <c r="CD16" s="9"/>
       <c r="CE16" s="9"/>
       <c r="CF16" s="9"/>
@@ -25568,8 +25565,9 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
     </row>
-    <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -25649,10 +25647,10 @@
       <c r="BW17" s="19"/>
       <c r="BX17" s="19"/>
       <c r="BY17" s="19"/>
-      <c r="BZ17" s="19"/>
-      <c r="CA17" s="19"/>
-      <c r="CB17" s="19"/>
-      <c r="CC17" s="19"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
       <c r="CD17" s="3"/>
       <c r="CE17" s="3"/>
       <c r="CF17" s="3"/>
@@ -25661,8 +25659,9 @@
       <c r="CI17" s="3"/>
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
+      <c r="CL17" s="3"/>
     </row>
-    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -25739,10 +25738,10 @@
       <c r="BW18" s="22"/>
       <c r="BX18" s="22"/>
       <c r="BY18" s="22"/>
-      <c r="BZ18" s="22"/>
-      <c r="CA18" s="22"/>
-      <c r="CB18" s="22"/>
-      <c r="CC18" s="22"/>
+      <c r="BZ18" s="11"/>
+      <c r="CA18" s="11"/>
+      <c r="CB18" s="11"/>
+      <c r="CC18" s="11"/>
       <c r="CD18" s="11"/>
       <c r="CE18" s="11"/>
       <c r="CF18" s="11"/>
@@ -25751,7 +25750,7 @@
       <c r="CI18" s="11"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="11"/>
-      <c r="CL18" s="17"/>
+      <c r="CL18" s="11"/>
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
@@ -25818,7 +25817,7 @@
       <c r="EX18" s="17"/>
       <c r="EY18" s="17"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -25895,10 +25894,10 @@
       <c r="BW19" s="22"/>
       <c r="BX19" s="22"/>
       <c r="BY19" s="22"/>
-      <c r="BZ19" s="22"/>
-      <c r="CA19" s="22"/>
-      <c r="CB19" s="22"/>
-      <c r="CC19" s="22"/>
+      <c r="BZ19" s="11"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="11"/>
       <c r="CD19" s="11"/>
       <c r="CE19" s="11"/>
       <c r="CF19" s="11"/>
@@ -25907,7 +25906,7 @@
       <c r="CI19" s="11"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="11"/>
-      <c r="CL19" s="17"/>
+      <c r="CL19" s="11"/>
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
@@ -25974,7 +25973,7 @@
       <c r="EX19" s="17"/>
       <c r="EY19" s="17"/>
     </row>
-    <row r="20" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -26054,10 +26053,10 @@
       <c r="BW20" s="19"/>
       <c r="BX20" s="19"/>
       <c r="BY20" s="19"/>
-      <c r="BZ20" s="19"/>
-      <c r="CA20" s="19"/>
-      <c r="CB20" s="19"/>
-      <c r="CC20" s="19"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
       <c r="CD20" s="3"/>
       <c r="CE20" s="3"/>
       <c r="CF20" s="3"/>
@@ -26066,8 +26065,9 @@
       <c r="CI20" s="3"/>
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
+      <c r="CL20" s="3"/>
     </row>
-    <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -26147,10 +26147,10 @@
       <c r="BW21" s="19"/>
       <c r="BX21" s="19"/>
       <c r="BY21" s="19"/>
-      <c r="BZ21" s="19"/>
-      <c r="CA21" s="19"/>
-      <c r="CB21" s="19"/>
-      <c r="CC21" s="19"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
       <c r="CD21" s="3"/>
       <c r="CE21" s="3"/>
       <c r="CF21" s="3"/>
@@ -26159,10 +26159,11 @@
       <c r="CI21" s="3"/>
       <c r="CJ21" s="3"/>
       <c r="CK21" s="3"/>
+      <c r="CL21" s="3"/>
     </row>
-    <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26240,10 +26241,10 @@
       <c r="BW22" s="19"/>
       <c r="BX22" s="19"/>
       <c r="BY22" s="19"/>
-      <c r="BZ22" s="19"/>
-      <c r="CA22" s="19"/>
-      <c r="CB22" s="19"/>
-      <c r="CC22" s="19"/>
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
       <c r="CD22" s="3"/>
       <c r="CE22" s="3"/>
       <c r="CF22" s="3"/>
@@ -26252,8 +26253,9 @@
       <c r="CI22" s="3"/>
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
+      <c r="CL22" s="3"/>
     </row>
-    <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -26331,10 +26333,10 @@
       <c r="BW23" s="19"/>
       <c r="BX23" s="19"/>
       <c r="BY23" s="19"/>
-      <c r="BZ23" s="19"/>
-      <c r="CA23" s="19"/>
-      <c r="CB23" s="19"/>
-      <c r="CC23" s="19"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
       <c r="CD23" s="3"/>
       <c r="CE23" s="3"/>
       <c r="CF23" s="3"/>
@@ -26343,8 +26345,9 @@
       <c r="CI23" s="3"/>
       <c r="CJ23" s="3"/>
       <c r="CK23" s="3"/>
+      <c r="CL23" s="3"/>
     </row>
-    <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -26424,10 +26427,10 @@
       <c r="BW24" s="19"/>
       <c r="BX24" s="19"/>
       <c r="BY24" s="19"/>
-      <c r="BZ24" s="19"/>
-      <c r="CA24" s="19"/>
-      <c r="CB24" s="19"/>
-      <c r="CC24" s="19"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
       <c r="CD24" s="3"/>
       <c r="CE24" s="3"/>
       <c r="CF24" s="3"/>
@@ -26436,10 +26439,11 @@
       <c r="CI24" s="3"/>
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
+      <c r="CL24" s="3"/>
     </row>
-    <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26517,10 +26521,10 @@
       <c r="BW25" s="19"/>
       <c r="BX25" s="19"/>
       <c r="BY25" s="19"/>
-      <c r="BZ25" s="19"/>
-      <c r="CA25" s="19"/>
-      <c r="CB25" s="19"/>
-      <c r="CC25" s="19"/>
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
       <c r="CD25" s="3"/>
       <c r="CE25" s="3"/>
       <c r="CF25" s="3"/>
@@ -26529,8 +26533,9 @@
       <c r="CI25" s="3"/>
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
+      <c r="CL25" s="3"/>
     </row>
-    <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -26610,10 +26615,10 @@
       <c r="BW26" s="19"/>
       <c r="BX26" s="19"/>
       <c r="BY26" s="19"/>
-      <c r="BZ26" s="19"/>
-      <c r="CA26" s="19"/>
-      <c r="CB26" s="19"/>
-      <c r="CC26" s="19"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
       <c r="CD26" s="3"/>
       <c r="CE26" s="3"/>
       <c r="CF26" s="3"/>
@@ -26622,8 +26627,9 @@
       <c r="CI26" s="3"/>
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
+      <c r="CL26" s="3"/>
     </row>
-    <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -26701,10 +26707,10 @@
       <c r="BW27" s="19"/>
       <c r="BX27" s="19"/>
       <c r="BY27" s="19"/>
-      <c r="BZ27" s="19"/>
-      <c r="CA27" s="19"/>
-      <c r="CB27" s="19"/>
-      <c r="CC27" s="19"/>
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="3"/>
       <c r="CD27" s="3"/>
       <c r="CE27" s="3"/>
       <c r="CF27" s="3"/>
@@ -26713,143 +26719,147 @@
       <c r="CI27" s="3"/>
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
+      <c r="CL27" s="3"/>
     </row>
-    <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="33">
+      <c r="B28" s="29">
         <v>2000</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="33">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29">
         <v>2001</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33">
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29">
         <v>2002</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="33">
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="29">
         <v>2003</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="33">
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="29">
         <v>2004</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="33">
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="29">
         <v>2005</v>
       </c>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="33">
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="29">
         <v>2006</v>
       </c>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="33">
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="29">
         <v>2007</v>
       </c>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="33">
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="29">
         <v>2008</v>
       </c>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="33">
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="29">
         <v>2009</v>
       </c>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="33">
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="33">
+      <c r="AQ28" s="30"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="30"/>
+      <c r="AT28" s="29">
         <v>2011</v>
       </c>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="33">
+      <c r="AU28" s="30"/>
+      <c r="AV28" s="30"/>
+      <c r="AW28" s="30"/>
+      <c r="AX28" s="29">
         <v>2012</v>
       </c>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="33">
+      <c r="AY28" s="30"/>
+      <c r="AZ28" s="30"/>
+      <c r="BA28" s="30"/>
+      <c r="BB28" s="29">
         <v>2013</v>
       </c>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="33">
+      <c r="BC28" s="30"/>
+      <c r="BD28" s="30"/>
+      <c r="BE28" s="30"/>
+      <c r="BF28" s="29">
         <v>2014</v>
       </c>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="33">
+      <c r="BG28" s="30"/>
+      <c r="BH28" s="30"/>
+      <c r="BI28" s="30"/>
+      <c r="BJ28" s="29">
         <v>2015</v>
       </c>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
-      <c r="BN28" s="33">
+      <c r="BK28" s="30"/>
+      <c r="BL28" s="30"/>
+      <c r="BM28" s="30"/>
+      <c r="BN28" s="29">
         <v>2016</v>
       </c>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="33">
+      <c r="BO28" s="30"/>
+      <c r="BP28" s="30"/>
+      <c r="BQ28" s="30"/>
+      <c r="BR28" s="29">
         <v>2017</v>
       </c>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="34"/>
-      <c r="BU28" s="34"/>
+      <c r="BS28" s="30"/>
+      <c r="BT28" s="30"/>
+      <c r="BU28" s="30"/>
       <c r="BV28" s="31">
         <v>2018</v>
       </c>
       <c r="BW28" s="32"/>
       <c r="BX28" s="32"/>
       <c r="BY28" s="32"/>
-      <c r="BZ28" s="31">
+      <c r="BZ28" s="29">
         <v>2019</v>
       </c>
-      <c r="CA28" s="32"/>
-      <c r="CB28" s="32"/>
-      <c r="CC28" s="32"/>
-      <c r="CD28" s="33">
+      <c r="CA28" s="30"/>
+      <c r="CB28" s="30"/>
+      <c r="CC28" s="30"/>
+      <c r="CD28" s="29">
         <v>2020</v>
       </c>
-      <c r="CE28" s="33"/>
-      <c r="CF28" s="33"/>
-      <c r="CG28" s="33"/>
-      <c r="CH28" s="33">
+      <c r="CE28" s="29"/>
+      <c r="CF28" s="29"/>
+      <c r="CG28" s="29"/>
+      <c r="CH28" s="29">
         <v>2021</v>
       </c>
-      <c r="CI28" s="33"/>
-      <c r="CJ28" s="33"/>
-      <c r="CK28" s="33"/>
+      <c r="CI28" s="29"/>
+      <c r="CJ28" s="29"/>
+      <c r="CK28" s="29"/>
+      <c r="CL28" s="28">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -27081,16 +27091,16 @@
       <c r="BY29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BZ29" s="20" t="s">
+      <c r="BZ29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA29" s="20" t="s">
+      <c r="CA29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB29" s="20" t="s">
+      <c r="CB29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC29" s="20" t="s">
+      <c r="CC29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD29" s="6" t="s">
@@ -27117,8 +27127,11 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL29" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -27196,10 +27209,10 @@
       <c r="BW30" s="19"/>
       <c r="BX30" s="19"/>
       <c r="BY30" s="19"/>
-      <c r="BZ30" s="19"/>
-      <c r="CA30" s="19"/>
-      <c r="CB30" s="19"/>
-      <c r="CC30" s="19"/>
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="3"/>
       <c r="CD30" s="3"/>
       <c r="CE30" s="3"/>
       <c r="CF30" s="3"/>
@@ -27208,8 +27221,9 @@
       <c r="CI30" s="3"/>
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
+      <c r="CL30" s="3"/>
     </row>
-    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -27441,43 +27455,45 @@
       <c r="BY31" s="21">
         <v>104091.82556571533</v>
       </c>
-      <c r="BZ31" s="21">
+      <c r="BZ31" s="13">
         <v>111578.81359302079</v>
       </c>
-      <c r="CA31" s="21">
+      <c r="CA31" s="13">
         <v>144515.57635658587</v>
       </c>
-      <c r="CB31" s="21">
+      <c r="CB31" s="13">
         <v>114735.79603759706</v>
       </c>
-      <c r="CC31" s="21">
+      <c r="CC31" s="13">
         <v>108962.3393936928</v>
       </c>
       <c r="CD31" s="13">
-        <v>119927.32724548473</v>
+        <v>120984.33507597979</v>
       </c>
       <c r="CE31" s="13">
-        <v>143645.16008759502</v>
+        <v>144911.21064098147</v>
       </c>
       <c r="CF31" s="13">
-        <v>104239.1315087191</v>
+        <v>105157.86771988457</v>
       </c>
       <c r="CG31" s="13">
-        <v>102163.59314987093</v>
+        <v>103064.03611338232</v>
       </c>
       <c r="CH31" s="13">
-        <v>127181.54752061531</v>
+        <v>128302.4921352534</v>
       </c>
       <c r="CI31" s="13">
-        <v>156645.87334198406</v>
+        <v>158026.50875294665</v>
       </c>
       <c r="CJ31" s="13">
-        <v>119603.42912161069</v>
+        <v>120657.58219947277</v>
       </c>
       <c r="CK31" s="13">
-        <v>109608.35252784514</v>
-      </c>
-      <c r="CL31" s="17"/>
+        <v>112468.707962032</v>
+      </c>
+      <c r="CL31" s="13">
+        <v>138608.79741511322</v>
+      </c>
       <c r="CM31" s="17"/>
       <c r="CN31" s="17"/>
       <c r="CO31" s="17"/>
@@ -27544,7 +27560,7 @@
       <c r="EX31" s="17"/>
       <c r="EY31" s="17"/>
     </row>
-    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -27776,16 +27792,16 @@
       <c r="BY32" s="21">
         <v>69195.238105839584</v>
       </c>
-      <c r="BZ32" s="21">
+      <c r="BZ32" s="13">
         <v>69012.979375331081</v>
       </c>
-      <c r="CA32" s="21">
+      <c r="CA32" s="13">
         <v>79581.16836622695</v>
       </c>
-      <c r="CB32" s="21">
+      <c r="CB32" s="13">
         <v>68227.313112365926</v>
       </c>
-      <c r="CC32" s="21">
+      <c r="CC32" s="13">
         <v>69475.029803414349</v>
       </c>
       <c r="CD32" s="13">
@@ -27798,7 +27814,7 @@
         <v>48141.730760661572</v>
       </c>
       <c r="CG32" s="13">
-        <v>54384.280564827459</v>
+        <v>54288.495315185493</v>
       </c>
       <c r="CH32" s="13">
         <v>56197.162287352956</v>
@@ -27810,9 +27826,11 @@
         <v>53432.379552824837</v>
       </c>
       <c r="CK32" s="13">
-        <v>56248.814450468955</v>
-      </c>
-      <c r="CL32" s="17"/>
+        <v>56308.575715420709</v>
+      </c>
+      <c r="CL32" s="13">
+        <v>60296.188923498448</v>
+      </c>
       <c r="CM32" s="17"/>
       <c r="CN32" s="17"/>
       <c r="CO32" s="17"/>
@@ -27879,7 +27897,7 @@
       <c r="EX32" s="17"/>
       <c r="EY32" s="17"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -27956,10 +27974,10 @@
       <c r="BW33" s="22"/>
       <c r="BX33" s="22"/>
       <c r="BY33" s="22"/>
-      <c r="BZ33" s="22"/>
-      <c r="CA33" s="22"/>
-      <c r="CB33" s="22"/>
-      <c r="CC33" s="22"/>
+      <c r="BZ33" s="11"/>
+      <c r="CA33" s="11"/>
+      <c r="CB33" s="11"/>
+      <c r="CC33" s="11"/>
       <c r="CD33" s="11"/>
       <c r="CE33" s="11"/>
       <c r="CF33" s="11"/>
@@ -27968,7 +27986,7 @@
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
-      <c r="CL33" s="17"/>
+      <c r="CL33" s="11"/>
       <c r="CM33" s="17"/>
       <c r="CN33" s="17"/>
       <c r="CO33" s="17"/>
@@ -28035,7 +28053,7 @@
       <c r="EX33" s="17"/>
       <c r="EY33" s="17"/>
     </row>
-    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
@@ -28267,43 +28285,45 @@
       <c r="BY34" s="23">
         <v>173287.0636715549</v>
       </c>
-      <c r="BZ34" s="23">
+      <c r="BZ34" s="14">
         <v>180591.79296835186</v>
       </c>
-      <c r="CA34" s="23">
+      <c r="CA34" s="14">
         <v>224096.74472281281</v>
       </c>
-      <c r="CB34" s="23">
+      <c r="CB34" s="14">
         <v>182963.10914996298</v>
       </c>
-      <c r="CC34" s="23">
+      <c r="CC34" s="14">
         <v>178437.36919710715</v>
       </c>
       <c r="CD34" s="14">
-        <v>182958.43401349208</v>
+        <v>184015.44184398712</v>
       </c>
       <c r="CE34" s="14">
-        <v>191676.23506656857</v>
+        <v>192942.28561995502</v>
       </c>
       <c r="CF34" s="14">
-        <v>152380.86226938068</v>
+        <v>153299.59848054615</v>
       </c>
       <c r="CG34" s="14">
-        <v>156547.87371469839</v>
+        <v>157352.5314285678</v>
       </c>
       <c r="CH34" s="14">
-        <v>183378.70980796826</v>
+        <v>184499.65442260634</v>
       </c>
       <c r="CI34" s="14">
-        <v>215755.48569158948</v>
+        <v>217136.12110255208</v>
       </c>
       <c r="CJ34" s="14">
-        <v>173035.80867443554</v>
+        <v>174089.96175229762</v>
       </c>
       <c r="CK34" s="14">
-        <v>165857.16697831411</v>
-      </c>
-      <c r="CL34" s="17"/>
+        <v>168777.28367745271</v>
+      </c>
+      <c r="CL34" s="14">
+        <v>198904.98633861166</v>
+      </c>
       <c r="CM34" s="17"/>
       <c r="CN34" s="17"/>
       <c r="CO34" s="17"/>
@@ -28370,7 +28390,7 @@
       <c r="EX34" s="17"/>
       <c r="EY34" s="17"/>
     </row>
-    <row r="35" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -28448,10 +28468,10 @@
       <c r="BW35" s="24"/>
       <c r="BX35" s="24"/>
       <c r="BY35" s="24"/>
-      <c r="BZ35" s="24"/>
-      <c r="CA35" s="24"/>
-      <c r="CB35" s="24"/>
-      <c r="CC35" s="24"/>
+      <c r="BZ35" s="9"/>
+      <c r="CA35" s="9"/>
+      <c r="CB35" s="9"/>
+      <c r="CC35" s="9"/>
       <c r="CD35" s="9"/>
       <c r="CE35" s="9"/>
       <c r="CF35" s="9"/>
@@ -28460,8 +28480,9 @@
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
+      <c r="CL35" s="9"/>
     </row>
-    <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
@@ -28541,10 +28562,10 @@
       <c r="BW36" s="19"/>
       <c r="BX36" s="19"/>
       <c r="BY36" s="19"/>
-      <c r="BZ36" s="19"/>
-      <c r="CA36" s="19"/>
-      <c r="CB36" s="19"/>
-      <c r="CC36" s="19"/>
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
+      <c r="CB36" s="3"/>
+      <c r="CC36" s="3"/>
       <c r="CD36" s="3"/>
       <c r="CE36" s="3"/>
       <c r="CF36" s="3"/>
@@ -28553,8 +28574,9 @@
       <c r="CI36" s="3"/>
       <c r="CJ36" s="3"/>
       <c r="CK36" s="3"/>
+      <c r="CL36" s="3"/>
     </row>
-    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -28631,10 +28653,10 @@
       <c r="BW37" s="22"/>
       <c r="BX37" s="22"/>
       <c r="BY37" s="22"/>
-      <c r="BZ37" s="22"/>
-      <c r="CA37" s="22"/>
-      <c r="CB37" s="22"/>
-      <c r="CC37" s="22"/>
+      <c r="BZ37" s="11"/>
+      <c r="CA37" s="11"/>
+      <c r="CB37" s="11"/>
+      <c r="CC37" s="11"/>
       <c r="CD37" s="11"/>
       <c r="CE37" s="11"/>
       <c r="CF37" s="11"/>
@@ -28643,7 +28665,7 @@
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
-      <c r="CL37" s="17"/>
+      <c r="CL37" s="11"/>
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
       <c r="CO37" s="17"/>
@@ -28710,7 +28732,7 @@
       <c r="EX37" s="17"/>
       <c r="EY37" s="17"/>
     </row>
-    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -28787,10 +28809,10 @@
       <c r="BW38" s="22"/>
       <c r="BX38" s="22"/>
       <c r="BY38" s="22"/>
-      <c r="BZ38" s="22"/>
-      <c r="CA38" s="22"/>
-      <c r="CB38" s="22"/>
-      <c r="CC38" s="22"/>
+      <c r="BZ38" s="11"/>
+      <c r="CA38" s="11"/>
+      <c r="CB38" s="11"/>
+      <c r="CC38" s="11"/>
       <c r="CD38" s="11"/>
       <c r="CE38" s="11"/>
       <c r="CF38" s="11"/>
@@ -28799,7 +28821,7 @@
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
-      <c r="CL38" s="17"/>
+      <c r="CL38" s="11"/>
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
       <c r="CO38" s="17"/>
@@ -28866,7 +28888,7 @@
       <c r="EX38" s="17"/>
       <c r="EY38" s="17"/>
     </row>
-    <row r="39" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -28946,10 +28968,10 @@
       <c r="BW39" s="19"/>
       <c r="BX39" s="19"/>
       <c r="BY39" s="19"/>
-      <c r="BZ39" s="19"/>
-      <c r="CA39" s="19"/>
-      <c r="CB39" s="19"/>
-      <c r="CC39" s="19"/>
+      <c r="BZ39" s="3"/>
+      <c r="CA39" s="3"/>
+      <c r="CB39" s="3"/>
+      <c r="CC39" s="3"/>
       <c r="CD39" s="3"/>
       <c r="CE39" s="3"/>
       <c r="CF39" s="3"/>
@@ -28958,8 +28980,9 @@
       <c r="CI39" s="3"/>
       <c r="CJ39" s="3"/>
       <c r="CK39" s="3"/>
+      <c r="CL39" s="3"/>
     </row>
-    <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -29039,10 +29062,10 @@
       <c r="BW40" s="19"/>
       <c r="BX40" s="19"/>
       <c r="BY40" s="19"/>
-      <c r="BZ40" s="19"/>
-      <c r="CA40" s="19"/>
-      <c r="CB40" s="19"/>
-      <c r="CC40" s="19"/>
+      <c r="BZ40" s="3"/>
+      <c r="CA40" s="3"/>
+      <c r="CB40" s="3"/>
+      <c r="CC40" s="3"/>
       <c r="CD40" s="3"/>
       <c r="CE40" s="3"/>
       <c r="CF40" s="3"/>
@@ -29051,10 +29074,11 @@
       <c r="CI40" s="3"/>
       <c r="CJ40" s="3"/>
       <c r="CK40" s="3"/>
+      <c r="CL40" s="3"/>
     </row>
-    <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29132,20 +29156,21 @@
       <c r="BW41" s="19"/>
       <c r="BX41" s="19"/>
       <c r="BY41" s="19"/>
-      <c r="BZ41" s="19"/>
-      <c r="CA41" s="19"/>
-      <c r="CB41" s="19"/>
-      <c r="CC41" s="19"/>
+      <c r="BZ41" s="3"/>
+      <c r="CA41" s="3"/>
+      <c r="CB41" s="3"/>
+      <c r="CC41" s="3"/>
       <c r="CD41" s="3"/>
       <c r="CE41" s="3"/>
       <c r="CF41" s="3"/>
       <c r="CG41" s="3"/>
       <c r="CH41" s="3"/>
-      <c r="CI41" s="3"/>
-      <c r="CJ41" s="3"/>
-      <c r="CK41" s="3"/>
+      <c r="CI41" s="33"/>
+      <c r="CJ41" s="33"/>
+      <c r="CK41" s="33"/>
+      <c r="CL41" s="33"/>
     </row>
-    <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -29223,20 +29248,21 @@
       <c r="BW42" s="19"/>
       <c r="BX42" s="19"/>
       <c r="BY42" s="19"/>
-      <c r="BZ42" s="19"/>
-      <c r="CA42" s="19"/>
-      <c r="CB42" s="19"/>
-      <c r="CC42" s="19"/>
+      <c r="BZ42" s="3"/>
+      <c r="CA42" s="3"/>
+      <c r="CB42" s="3"/>
+      <c r="CC42" s="3"/>
       <c r="CD42" s="3"/>
       <c r="CE42" s="3"/>
       <c r="CF42" s="3"/>
       <c r="CG42" s="3"/>
       <c r="CH42" s="3"/>
-      <c r="CI42" s="3"/>
-      <c r="CJ42" s="3"/>
-      <c r="CK42" s="3"/>
+      <c r="CI42" s="33"/>
+      <c r="CJ42" s="33"/>
+      <c r="CK42" s="33"/>
+      <c r="CL42" s="33"/>
     </row>
-    <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -29316,22 +29342,23 @@
       <c r="BW43" s="19"/>
       <c r="BX43" s="19"/>
       <c r="BY43" s="19"/>
-      <c r="BZ43" s="19"/>
-      <c r="CA43" s="19"/>
-      <c r="CB43" s="19"/>
-      <c r="CC43" s="19"/>
+      <c r="BZ43" s="3"/>
+      <c r="CA43" s="3"/>
+      <c r="CB43" s="3"/>
+      <c r="CC43" s="3"/>
       <c r="CD43" s="3"/>
       <c r="CE43" s="3"/>
       <c r="CF43" s="3"/>
       <c r="CG43" s="3"/>
       <c r="CH43" s="3"/>
-      <c r="CI43" s="3"/>
-      <c r="CJ43" s="3"/>
-      <c r="CK43" s="3"/>
+      <c r="CI43" s="33"/>
+      <c r="CJ43" s="33"/>
+      <c r="CK43" s="33"/>
+      <c r="CL43" s="33"/>
     </row>
-    <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29409,12 +29436,13 @@
       <c r="BW44" s="19"/>
       <c r="BX44" s="19"/>
       <c r="BY44" s="19"/>
-      <c r="BZ44" s="19"/>
-      <c r="CA44" s="18"/>
-      <c r="CB44" s="18"/>
-      <c r="CC44" s="18"/>
+      <c r="BZ44" s="3"/>
+      <c r="CI44" s="34"/>
+      <c r="CJ44" s="34"/>
+      <c r="CK44" s="34"/>
+      <c r="CL44" s="34"/>
     </row>
-    <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -29494,12 +29522,13 @@
       <c r="BW45" s="19"/>
       <c r="BX45" s="19"/>
       <c r="BY45" s="19"/>
-      <c r="BZ45" s="19"/>
-      <c r="CA45" s="18"/>
-      <c r="CB45" s="18"/>
-      <c r="CC45" s="18"/>
+      <c r="BZ45" s="3"/>
+      <c r="CI45" s="34"/>
+      <c r="CJ45" s="34"/>
+      <c r="CK45" s="34"/>
+      <c r="CL45" s="34"/>
     </row>
-    <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -29577,153 +29606,157 @@
       <c r="BW46" s="19"/>
       <c r="BX46" s="19"/>
       <c r="BY46" s="19"/>
-      <c r="BZ46" s="19"/>
-      <c r="CA46" s="19"/>
-      <c r="CB46" s="19"/>
-      <c r="CC46" s="19"/>
+      <c r="BZ46" s="3"/>
+      <c r="CA46" s="3"/>
+      <c r="CB46" s="3"/>
+      <c r="CC46" s="3"/>
       <c r="CD46" s="3"/>
       <c r="CE46" s="3"/>
       <c r="CF46" s="3"/>
       <c r="CG46" s="3"/>
       <c r="CH46" s="3"/>
-      <c r="CI46" s="3"/>
-      <c r="CJ46" s="3"/>
-      <c r="CK46" s="3"/>
+      <c r="CI46" s="33"/>
+      <c r="CJ46" s="33"/>
+      <c r="CK46" s="33"/>
+      <c r="CL46" s="33"/>
     </row>
-    <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33" t="s">
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33" t="s">
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33" t="s">
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33" t="s">
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33" t="s">
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33" t="s">
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="33"/>
-      <c r="AH47" s="33" t="s">
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="33"/>
-      <c r="AK47" s="33"/>
-      <c r="AL47" s="33" t="s">
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="33"/>
-      <c r="AN47" s="33"/>
-      <c r="AO47" s="33"/>
-      <c r="AP47" s="33" t="s">
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="33"/>
-      <c r="AR47" s="33"/>
-      <c r="AS47" s="33"/>
-      <c r="AT47" s="33" t="s">
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="29"/>
+      <c r="AT47" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="33"/>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="33"/>
-      <c r="AX47" s="33" t="s">
+      <c r="AU47" s="29"/>
+      <c r="AV47" s="29"/>
+      <c r="AW47" s="29"/>
+      <c r="AX47" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="33"/>
-      <c r="AZ47" s="33"/>
-      <c r="BA47" s="33"/>
-      <c r="BB47" s="33" t="s">
+      <c r="AY47" s="29"/>
+      <c r="AZ47" s="29"/>
+      <c r="BA47" s="29"/>
+      <c r="BB47" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="33"/>
-      <c r="BD47" s="33"/>
-      <c r="BE47" s="33"/>
-      <c r="BF47" s="33" t="s">
+      <c r="BC47" s="29"/>
+      <c r="BD47" s="29"/>
+      <c r="BE47" s="29"/>
+      <c r="BF47" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="33"/>
-      <c r="BH47" s="33"/>
-      <c r="BI47" s="33"/>
-      <c r="BJ47" s="33" t="s">
+      <c r="BG47" s="29"/>
+      <c r="BH47" s="29"/>
+      <c r="BI47" s="29"/>
+      <c r="BJ47" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="33"/>
-      <c r="BL47" s="33"/>
-      <c r="BM47" s="33"/>
-      <c r="BN47" s="33" t="s">
+      <c r="BK47" s="29"/>
+      <c r="BL47" s="29"/>
+      <c r="BM47" s="29"/>
+      <c r="BN47" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="33"/>
-      <c r="BP47" s="33"/>
-      <c r="BQ47" s="33"/>
-      <c r="BR47" s="33" t="s">
+      <c r="BO47" s="29"/>
+      <c r="BP47" s="29"/>
+      <c r="BQ47" s="29"/>
+      <c r="BR47" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="33"/>
-      <c r="BT47" s="33"/>
-      <c r="BU47" s="33"/>
+      <c r="BS47" s="29"/>
+      <c r="BT47" s="29"/>
+      <c r="BU47" s="29"/>
       <c r="BV47" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BW47" s="31"/>
       <c r="BX47" s="31"/>
       <c r="BY47" s="31"/>
-      <c r="BZ47" s="31" t="s">
+      <c r="BZ47" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="31"/>
-      <c r="CB47" s="31"/>
-      <c r="CC47" s="31"/>
-      <c r="CD47" s="33" t="s">
+      <c r="CA47" s="29"/>
+      <c r="CB47" s="29"/>
+      <c r="CC47" s="29"/>
+      <c r="CD47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="33"/>
-      <c r="CF47" s="33"/>
-      <c r="CG47" s="33"/>
-      <c r="CH47" s="29"/>
-      <c r="CI47" s="29"/>
-      <c r="CJ47" s="29"/>
-      <c r="CK47" s="29"/>
+      <c r="CE47" s="29"/>
+      <c r="CF47" s="29"/>
+      <c r="CG47" s="29"/>
+      <c r="CH47" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI47" s="36"/>
+      <c r="CJ47" s="36"/>
+      <c r="CK47" s="36"/>
+      <c r="CL47" s="37"/>
     </row>
-    <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -29955,16 +29988,16 @@
       <c r="BY48" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="BZ48" s="25" t="s">
+      <c r="BZ48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA48" s="25" t="s">
+      <c r="CA48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB48" s="25" t="s">
+      <c r="CB48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC48" s="25" t="s">
+      <c r="CC48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="CD48" s="5" t="s">
@@ -29979,12 +30012,15 @@
       <c r="CG48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH48" s="30"/>
-      <c r="CI48" s="30"/>
-      <c r="CJ48" s="30"/>
-      <c r="CK48" s="30"/>
+      <c r="CH48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI48" s="36"/>
+      <c r="CJ48" s="36"/>
+      <c r="CK48" s="36"/>
+      <c r="CL48" s="36"/>
     </row>
-    <row r="49" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -30062,20 +30098,21 @@
       <c r="BW49" s="19"/>
       <c r="BX49" s="19"/>
       <c r="BY49" s="19"/>
-      <c r="BZ49" s="19"/>
-      <c r="CA49" s="19"/>
-      <c r="CB49" s="19"/>
-      <c r="CC49" s="19"/>
+      <c r="BZ49" s="3"/>
+      <c r="CA49" s="3"/>
+      <c r="CB49" s="3"/>
+      <c r="CC49" s="3"/>
       <c r="CD49" s="3"/>
       <c r="CE49" s="3"/>
       <c r="CF49" s="3"/>
       <c r="CG49" s="3"/>
       <c r="CH49" s="3"/>
-      <c r="CI49" s="3"/>
-      <c r="CJ49" s="3"/>
-      <c r="CK49" s="3"/>
+      <c r="CI49" s="33"/>
+      <c r="CJ49" s="33"/>
+      <c r="CK49" s="33"/>
+      <c r="CL49" s="33"/>
     </row>
-    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -30307,20 +30344,20 @@
       <c r="BY50" s="26">
         <v>6.1390943105004538</v>
       </c>
-      <c r="BZ50" s="26">
-        <v>12.17204560924246</v>
-      </c>
-      <c r="CA50" s="26">
-        <v>2.1256876398031039</v>
-      </c>
-      <c r="CB50" s="26">
-        <v>-6.4552097052527557</v>
-      </c>
-      <c r="CC50" s="26">
-        <v>-3.9243146579701857</v>
+      <c r="BZ50" s="12">
+        <v>13.160700432916769</v>
+      </c>
+      <c r="CA50" s="12">
+        <v>3.0257965141466485</v>
+      </c>
+      <c r="CB50" s="12">
+        <v>-5.6307305968243071</v>
+      </c>
+      <c r="CC50" s="12">
+        <v>-3.0775289081399393</v>
       </c>
       <c r="CD50" s="12">
-        <v>11.37057178517837</v>
+        <v>11.370571785178356</v>
       </c>
       <c r="CE50" s="12">
         <v>10.597120960398314</v>
@@ -30329,13 +30366,15 @@
         <v>17.680748818641973</v>
       </c>
       <c r="CG50" s="12">
-        <v>10.029435457784544</v>
-      </c>
-      <c r="CH50" s="11"/>
-      <c r="CI50" s="11"/>
-      <c r="CJ50" s="11"/>
-      <c r="CK50" s="11"/>
-      <c r="CL50" s="17"/>
+        <v>11.91439556888993</v>
+      </c>
+      <c r="CH50" s="12">
+        <v>13.367912830125533</v>
+      </c>
+      <c r="CI50" s="35"/>
+      <c r="CJ50" s="35"/>
+      <c r="CK50" s="35"/>
+      <c r="CL50" s="35"/>
       <c r="CM50" s="17"/>
       <c r="CN50" s="17"/>
       <c r="CO50" s="17"/>
@@ -30398,7 +30437,7 @@
       <c r="ET50" s="17"/>
       <c r="EU50" s="17"/>
     </row>
-    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -30630,17 +30669,17 @@
       <c r="BY51" s="26">
         <v>6.0136213431131011</v>
       </c>
-      <c r="BZ51" s="26">
+      <c r="BZ51" s="12">
         <v>-3.3524891571926219</v>
       </c>
-      <c r="CA51" s="26">
+      <c r="CA51" s="12">
         <v>-36.669719492582367</v>
       </c>
-      <c r="CB51" s="26">
+      <c r="CB51" s="12">
         <v>-28.730914342355064</v>
       </c>
-      <c r="CC51" s="26">
-        <v>-20.35672759091554</v>
+      <c r="CC51" s="12">
+        <v>-20.49700067443851</v>
       </c>
       <c r="CD51" s="12">
         <v>-9.4927191555994028</v>
@@ -30652,13 +30691,15 @@
         <v>11.719995162423729</v>
       </c>
       <c r="CG51" s="12">
-        <v>3.3415703536164898</v>
-      </c>
-      <c r="CH51" s="11"/>
-      <c r="CI51" s="11"/>
-      <c r="CJ51" s="11"/>
-      <c r="CK51" s="11"/>
-      <c r="CL51" s="17"/>
+        <v>3.6338920510347208</v>
+      </c>
+      <c r="CH51" s="12">
+        <v>7.8973502609680537</v>
+      </c>
+      <c r="CI51" s="35"/>
+      <c r="CJ51" s="35"/>
+      <c r="CK51" s="35"/>
+      <c r="CL51" s="35"/>
       <c r="CM51" s="17"/>
       <c r="CN51" s="17"/>
       <c r="CO51" s="17"/>
@@ -30721,7 +30762,7 @@
       <c r="ET51" s="17"/>
       <c r="EU51" s="17"/>
     </row>
-    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -30799,19 +30840,19 @@
       <c r="BW52" s="22"/>
       <c r="BX52" s="22"/>
       <c r="BY52" s="22"/>
-      <c r="BZ52" s="22"/>
-      <c r="CA52" s="22"/>
-      <c r="CB52" s="22"/>
-      <c r="CC52" s="22"/>
+      <c r="BZ52" s="11"/>
+      <c r="CA52" s="11"/>
+      <c r="CB52" s="11"/>
+      <c r="CC52" s="11"/>
       <c r="CD52" s="11"/>
       <c r="CE52" s="11"/>
       <c r="CF52" s="11"/>
       <c r="CG52" s="11"/>
       <c r="CH52" s="11"/>
-      <c r="CI52" s="11"/>
-      <c r="CJ52" s="11"/>
-      <c r="CK52" s="11"/>
-      <c r="CL52" s="17"/>
+      <c r="CI52" s="35"/>
+      <c r="CJ52" s="35"/>
+      <c r="CK52" s="35"/>
+      <c r="CL52" s="35"/>
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
@@ -30874,7 +30915,7 @@
       <c r="ET52" s="17"/>
       <c r="EU52" s="17"/>
     </row>
-    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>13</v>
       </c>
@@ -31106,35 +31147,37 @@
       <c r="BY53" s="26">
         <v>6.0924345302765914</v>
       </c>
-      <c r="BZ53" s="26">
-        <v>6.318691906751269</v>
-      </c>
-      <c r="CA53" s="26">
-        <v>-11.383522494986636</v>
-      </c>
-      <c r="CB53" s="26">
-        <v>-15.080823387205257</v>
-      </c>
-      <c r="CC53" s="26">
-        <v>-10.030515913941557</v>
+      <c r="BZ53" s="12">
+        <v>6.9345853910551369</v>
+      </c>
+      <c r="CA53" s="12">
+        <v>-10.796846597031291</v>
+      </c>
+      <c r="CB53" s="12">
+        <v>-14.575599646631687</v>
+      </c>
+      <c r="CC53" s="12">
+        <v>-9.5505162175371794</v>
       </c>
       <c r="CD53" s="12">
-        <v>4.2198474357797409</v>
+        <v>4.261032282747081</v>
       </c>
       <c r="CE53" s="12">
-        <v>13.967636345148549</v>
+        <v>13.945468965807279</v>
       </c>
       <c r="CF53" s="12">
-        <v>15.743635001114995</v>
+        <v>15.75509163276547</v>
       </c>
       <c r="CG53" s="12">
-        <v>7.8294938932177871</v>
-      </c>
-      <c r="CH53" s="11"/>
-      <c r="CI53" s="11"/>
-      <c r="CJ53" s="11"/>
-      <c r="CK53" s="11"/>
-      <c r="CL53" s="17"/>
+        <v>9.2097899812167157</v>
+      </c>
+      <c r="CH53" s="12">
+        <v>11.749638505677822</v>
+      </c>
+      <c r="CI53" s="35"/>
+      <c r="CJ53" s="35"/>
+      <c r="CK53" s="35"/>
+      <c r="CL53" s="35"/>
       <c r="CM53" s="17"/>
       <c r="CN53" s="17"/>
       <c r="CO53" s="17"/>
@@ -31197,7 +31240,7 @@
       <c r="ET53" s="17"/>
       <c r="EU53" s="17"/>
     </row>
-    <row r="54" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -31275,20 +31318,21 @@
       <c r="BW54" s="24"/>
       <c r="BX54" s="24"/>
       <c r="BY54" s="24"/>
-      <c r="BZ54" s="24"/>
-      <c r="CA54" s="24"/>
-      <c r="CB54" s="24"/>
-      <c r="CC54" s="24"/>
+      <c r="BZ54" s="9"/>
+      <c r="CA54" s="9"/>
+      <c r="CB54" s="9"/>
+      <c r="CC54" s="9"/>
       <c r="CD54" s="9"/>
       <c r="CE54" s="9"/>
       <c r="CF54" s="9"/>
       <c r="CG54" s="9"/>
       <c r="CH54" s="9"/>
-      <c r="CI54" s="9"/>
-      <c r="CJ54" s="9"/>
-      <c r="CK54" s="9"/>
+      <c r="CI54" s="38"/>
+      <c r="CJ54" s="38"/>
+      <c r="CK54" s="38"/>
+      <c r="CL54" s="38"/>
     </row>
-    <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -31368,20 +31412,21 @@
       <c r="BW55" s="19"/>
       <c r="BX55" s="19"/>
       <c r="BY55" s="19"/>
-      <c r="BZ55" s="19"/>
-      <c r="CA55" s="19"/>
-      <c r="CB55" s="19"/>
-      <c r="CC55" s="19"/>
+      <c r="BZ55" s="3"/>
+      <c r="CA55" s="3"/>
+      <c r="CB55" s="3"/>
+      <c r="CC55" s="3"/>
       <c r="CD55" s="3"/>
       <c r="CE55" s="3"/>
       <c r="CF55" s="3"/>
       <c r="CG55" s="3"/>
       <c r="CH55" s="3"/>
-      <c r="CI55" s="3"/>
-      <c r="CJ55" s="3"/>
-      <c r="CK55" s="3"/>
+      <c r="CI55" s="33"/>
+      <c r="CJ55" s="33"/>
+      <c r="CK55" s="33"/>
+      <c r="CL55" s="33"/>
     </row>
-    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -31458,19 +31503,19 @@
       <c r="BW56" s="22"/>
       <c r="BX56" s="22"/>
       <c r="BY56" s="22"/>
-      <c r="BZ56" s="22"/>
-      <c r="CA56" s="22"/>
-      <c r="CB56" s="22"/>
-      <c r="CC56" s="22"/>
+      <c r="BZ56" s="11"/>
+      <c r="CA56" s="11"/>
+      <c r="CB56" s="11"/>
+      <c r="CC56" s="11"/>
       <c r="CD56" s="11"/>
       <c r="CE56" s="11"/>
       <c r="CF56" s="11"/>
       <c r="CG56" s="11"/>
       <c r="CH56" s="11"/>
-      <c r="CI56" s="11"/>
-      <c r="CJ56" s="11"/>
-      <c r="CK56" s="11"/>
-      <c r="CL56" s="17"/>
+      <c r="CI56" s="35"/>
+      <c r="CJ56" s="35"/>
+      <c r="CK56" s="35"/>
+      <c r="CL56" s="35"/>
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
@@ -31533,7 +31578,7 @@
       <c r="ET56" s="17"/>
       <c r="EU56" s="17"/>
     </row>
-    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -31610,19 +31655,19 @@
       <c r="BW57" s="22"/>
       <c r="BX57" s="22"/>
       <c r="BY57" s="22"/>
-      <c r="BZ57" s="22"/>
-      <c r="CA57" s="22"/>
-      <c r="CB57" s="22"/>
-      <c r="CC57" s="22"/>
+      <c r="BZ57" s="11"/>
+      <c r="CA57" s="11"/>
+      <c r="CB57" s="11"/>
+      <c r="CC57" s="11"/>
       <c r="CD57" s="11"/>
       <c r="CE57" s="11"/>
       <c r="CF57" s="11"/>
       <c r="CG57" s="11"/>
       <c r="CH57" s="11"/>
-      <c r="CI57" s="11"/>
-      <c r="CJ57" s="11"/>
-      <c r="CK57" s="11"/>
-      <c r="CL57" s="17"/>
+      <c r="CI57" s="35"/>
+      <c r="CJ57" s="35"/>
+      <c r="CK57" s="35"/>
+      <c r="CL57" s="35"/>
       <c r="CM57" s="17"/>
       <c r="CN57" s="17"/>
       <c r="CO57" s="17"/>
@@ -31685,7 +31730,7 @@
       <c r="ET57" s="17"/>
       <c r="EU57" s="17"/>
     </row>
-    <row r="58" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -31765,20 +31810,21 @@
       <c r="BW58" s="19"/>
       <c r="BX58" s="19"/>
       <c r="BY58" s="19"/>
-      <c r="BZ58" s="19"/>
-      <c r="CA58" s="19"/>
-      <c r="CB58" s="19"/>
-      <c r="CC58" s="19"/>
+      <c r="BZ58" s="3"/>
+      <c r="CA58" s="3"/>
+      <c r="CB58" s="3"/>
+      <c r="CC58" s="3"/>
       <c r="CD58" s="3"/>
       <c r="CE58" s="3"/>
       <c r="CF58" s="3"/>
       <c r="CG58" s="3"/>
       <c r="CH58" s="3"/>
-      <c r="CI58" s="3"/>
-      <c r="CJ58" s="3"/>
-      <c r="CK58" s="3"/>
+      <c r="CI58" s="33"/>
+      <c r="CJ58" s="33"/>
+      <c r="CK58" s="33"/>
+      <c r="CL58" s="33"/>
     </row>
-    <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
@@ -31858,22 +31904,23 @@
       <c r="BW59" s="19"/>
       <c r="BX59" s="19"/>
       <c r="BY59" s="19"/>
-      <c r="BZ59" s="19"/>
-      <c r="CA59" s="19"/>
-      <c r="CB59" s="19"/>
-      <c r="CC59" s="19"/>
+      <c r="BZ59" s="3"/>
+      <c r="CA59" s="3"/>
+      <c r="CB59" s="3"/>
+      <c r="CC59" s="3"/>
       <c r="CD59" s="3"/>
       <c r="CE59" s="3"/>
       <c r="CF59" s="3"/>
       <c r="CG59" s="3"/>
       <c r="CH59" s="3"/>
-      <c r="CI59" s="3"/>
-      <c r="CJ59" s="3"/>
-      <c r="CK59" s="3"/>
+      <c r="CI59" s="33"/>
+      <c r="CJ59" s="33"/>
+      <c r="CK59" s="33"/>
+      <c r="CL59" s="33"/>
     </row>
-    <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -31951,10 +31998,10 @@
       <c r="BW60" s="19"/>
       <c r="BX60" s="19"/>
       <c r="BY60" s="19"/>
-      <c r="BZ60" s="19"/>
-      <c r="CA60" s="19"/>
-      <c r="CB60" s="19"/>
-      <c r="CC60" s="19"/>
+      <c r="BZ60" s="3"/>
+      <c r="CA60" s="3"/>
+      <c r="CB60" s="3"/>
+      <c r="CC60" s="3"/>
       <c r="CD60" s="3"/>
       <c r="CE60" s="3"/>
       <c r="CF60" s="3"/>
@@ -31963,8 +32010,9 @@
       <c r="CI60" s="3"/>
       <c r="CJ60" s="3"/>
       <c r="CK60" s="3"/>
+      <c r="CL60" s="3"/>
     </row>
-    <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -32042,10 +32090,10 @@
       <c r="BW61" s="19"/>
       <c r="BX61" s="19"/>
       <c r="BY61" s="19"/>
-      <c r="BZ61" s="19"/>
-      <c r="CA61" s="19"/>
-      <c r="CB61" s="19"/>
-      <c r="CC61" s="19"/>
+      <c r="BZ61" s="3"/>
+      <c r="CA61" s="3"/>
+      <c r="CB61" s="3"/>
+      <c r="CC61" s="3"/>
       <c r="CD61" s="3"/>
       <c r="CE61" s="3"/>
       <c r="CF61" s="3"/>
@@ -32054,8 +32102,9 @@
       <c r="CI61" s="3"/>
       <c r="CJ61" s="3"/>
       <c r="CK61" s="3"/>
+      <c r="CL61" s="3"/>
     </row>
-    <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -32135,22 +32184,24 @@
       <c r="BW62" s="19"/>
       <c r="BX62" s="19"/>
       <c r="BY62" s="19"/>
-      <c r="BZ62" s="19"/>
-      <c r="CA62" s="19"/>
-      <c r="CB62" s="19"/>
-      <c r="CC62" s="19"/>
+      <c r="BZ62" s="3"/>
+      <c r="CA62" s="3"/>
+      <c r="CB62" s="3"/>
+      <c r="CC62" s="3"/>
       <c r="CD62" s="3"/>
       <c r="CE62" s="3"/>
       <c r="CF62" s="3"/>
       <c r="CG62" s="3"/>
       <c r="CH62" s="3"/>
-      <c r="CI62" s="3"/>
-      <c r="CJ62" s="3"/>
-      <c r="CK62" s="3"/>
+      <c r="CI62" s="33"/>
+      <c r="CJ62" s="33"/>
+      <c r="CK62" s="33"/>
+      <c r="CL62" s="33"/>
+      <c r="CM62" s="34"/>
     </row>
-    <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32228,20 +32279,22 @@
       <c r="BW63" s="19"/>
       <c r="BX63" s="19"/>
       <c r="BY63" s="19"/>
-      <c r="BZ63" s="19"/>
-      <c r="CA63" s="19"/>
-      <c r="CB63" s="19"/>
-      <c r="CC63" s="19"/>
+      <c r="BZ63" s="3"/>
+      <c r="CA63" s="3"/>
+      <c r="CB63" s="3"/>
+      <c r="CC63" s="3"/>
       <c r="CD63" s="3"/>
       <c r="CE63" s="3"/>
       <c r="CF63" s="3"/>
       <c r="CG63" s="3"/>
       <c r="CH63" s="3"/>
-      <c r="CI63" s="3"/>
-      <c r="CJ63" s="3"/>
-      <c r="CK63" s="3"/>
+      <c r="CI63" s="33"/>
+      <c r="CJ63" s="33"/>
+      <c r="CK63" s="33"/>
+      <c r="CL63" s="33"/>
+      <c r="CM63" s="34"/>
     </row>
-    <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
@@ -32321,20 +32374,22 @@
       <c r="BW64" s="19"/>
       <c r="BX64" s="19"/>
       <c r="BY64" s="19"/>
-      <c r="BZ64" s="19"/>
-      <c r="CA64" s="19"/>
-      <c r="CB64" s="19"/>
-      <c r="CC64" s="19"/>
+      <c r="BZ64" s="3"/>
+      <c r="CA64" s="3"/>
+      <c r="CB64" s="3"/>
+      <c r="CC64" s="3"/>
       <c r="CD64" s="3"/>
       <c r="CE64" s="3"/>
       <c r="CF64" s="3"/>
       <c r="CG64" s="3"/>
       <c r="CH64" s="3"/>
-      <c r="CI64" s="3"/>
-      <c r="CJ64" s="3"/>
-      <c r="CK64" s="3"/>
+      <c r="CI64" s="33"/>
+      <c r="CJ64" s="33"/>
+      <c r="CK64" s="33"/>
+      <c r="CL64" s="33"/>
+      <c r="CM64" s="34"/>
     </row>
-    <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -32412,153 +32467,159 @@
       <c r="BW65" s="19"/>
       <c r="BX65" s="19"/>
       <c r="BY65" s="19"/>
-      <c r="BZ65" s="19"/>
-      <c r="CA65" s="19"/>
-      <c r="CB65" s="19"/>
-      <c r="CC65" s="19"/>
+      <c r="BZ65" s="3"/>
+      <c r="CA65" s="3"/>
+      <c r="CB65" s="3"/>
+      <c r="CC65" s="3"/>
       <c r="CD65" s="3"/>
       <c r="CE65" s="3"/>
       <c r="CF65" s="3"/>
       <c r="CG65" s="3"/>
       <c r="CH65" s="3"/>
-      <c r="CI65" s="3"/>
-      <c r="CJ65" s="3"/>
-      <c r="CK65" s="3"/>
+      <c r="CI65" s="33"/>
+      <c r="CJ65" s="33"/>
+      <c r="CK65" s="33"/>
+      <c r="CL65" s="33"/>
+      <c r="CM65" s="34"/>
     </row>
-    <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33" t="s">
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33" t="s">
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33" t="s">
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33" t="s">
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="33" t="s">
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33" t="s">
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="33"/>
-      <c r="AD66" s="33" t="s">
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="33"/>
-      <c r="AF66" s="33"/>
-      <c r="AG66" s="33"/>
-      <c r="AH66" s="33" t="s">
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="29"/>
+      <c r="AH66" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="33"/>
-      <c r="AJ66" s="33"/>
-      <c r="AK66" s="33"/>
-      <c r="AL66" s="33" t="s">
+      <c r="AI66" s="29"/>
+      <c r="AJ66" s="29"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="33"/>
-      <c r="AN66" s="33"/>
-      <c r="AO66" s="33"/>
-      <c r="AP66" s="33" t="s">
+      <c r="AM66" s="29"/>
+      <c r="AN66" s="29"/>
+      <c r="AO66" s="29"/>
+      <c r="AP66" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="33"/>
-      <c r="AR66" s="33"/>
-      <c r="AS66" s="33"/>
-      <c r="AT66" s="33" t="s">
+      <c r="AQ66" s="29"/>
+      <c r="AR66" s="29"/>
+      <c r="AS66" s="29"/>
+      <c r="AT66" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="33"/>
-      <c r="AV66" s="33"/>
-      <c r="AW66" s="33"/>
-      <c r="AX66" s="33" t="s">
+      <c r="AU66" s="29"/>
+      <c r="AV66" s="29"/>
+      <c r="AW66" s="29"/>
+      <c r="AX66" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="33"/>
-      <c r="AZ66" s="33"/>
-      <c r="BA66" s="33"/>
-      <c r="BB66" s="33" t="s">
+      <c r="AY66" s="29"/>
+      <c r="AZ66" s="29"/>
+      <c r="BA66" s="29"/>
+      <c r="BB66" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="33"/>
-      <c r="BD66" s="33"/>
-      <c r="BE66" s="33"/>
-      <c r="BF66" s="33" t="s">
+      <c r="BC66" s="29"/>
+      <c r="BD66" s="29"/>
+      <c r="BE66" s="29"/>
+      <c r="BF66" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="33"/>
-      <c r="BH66" s="33"/>
-      <c r="BI66" s="33"/>
-      <c r="BJ66" s="33" t="s">
+      <c r="BG66" s="29"/>
+      <c r="BH66" s="29"/>
+      <c r="BI66" s="29"/>
+      <c r="BJ66" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="33"/>
-      <c r="BL66" s="33"/>
-      <c r="BM66" s="33"/>
-      <c r="BN66" s="33" t="s">
+      <c r="BK66" s="29"/>
+      <c r="BL66" s="29"/>
+      <c r="BM66" s="29"/>
+      <c r="BN66" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="33"/>
-      <c r="BP66" s="33"/>
-      <c r="BQ66" s="33"/>
-      <c r="BR66" s="33" t="s">
+      <c r="BO66" s="29"/>
+      <c r="BP66" s="29"/>
+      <c r="BQ66" s="29"/>
+      <c r="BR66" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="33"/>
-      <c r="BT66" s="33"/>
-      <c r="BU66" s="33"/>
+      <c r="BS66" s="29"/>
+      <c r="BT66" s="29"/>
+      <c r="BU66" s="29"/>
       <c r="BV66" s="31" t="s">
         <v>26</v>
       </c>
       <c r="BW66" s="31"/>
       <c r="BX66" s="31"/>
       <c r="BY66" s="31"/>
-      <c r="BZ66" s="31" t="s">
+      <c r="BZ66" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="31"/>
-      <c r="CB66" s="31"/>
-      <c r="CC66" s="31"/>
-      <c r="CD66" s="33" t="s">
+      <c r="CA66" s="29"/>
+      <c r="CB66" s="29"/>
+      <c r="CC66" s="29"/>
+      <c r="CD66" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="33"/>
-      <c r="CF66" s="33"/>
-      <c r="CG66" s="33"/>
-      <c r="CH66" s="29"/>
-      <c r="CI66" s="29"/>
-      <c r="CJ66" s="29"/>
-      <c r="CK66" s="29"/>
+      <c r="CE66" s="29"/>
+      <c r="CF66" s="29"/>
+      <c r="CG66" s="29"/>
+      <c r="CH66" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI66" s="36"/>
+      <c r="CJ66" s="36"/>
+      <c r="CK66" s="36"/>
+      <c r="CL66" s="37"/>
+      <c r="CM66" s="34"/>
     </row>
-    <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -32790,16 +32851,16 @@
       <c r="BY67" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="BZ67" s="25" t="s">
+      <c r="BZ67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA67" s="25" t="s">
+      <c r="CA67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB67" s="25" t="s">
+      <c r="CB67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC67" s="25" t="s">
+      <c r="CC67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="CD67" s="5" t="s">
@@ -32814,12 +32875,16 @@
       <c r="CG67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH67" s="30"/>
-      <c r="CI67" s="30"/>
-      <c r="CJ67" s="30"/>
-      <c r="CK67" s="30"/>
+      <c r="CH67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI67" s="36"/>
+      <c r="CJ67" s="36"/>
+      <c r="CK67" s="36"/>
+      <c r="CL67" s="36"/>
+      <c r="CM67" s="34"/>
     </row>
-    <row r="68" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -32897,20 +32962,22 @@
       <c r="BW68" s="19"/>
       <c r="BX68" s="19"/>
       <c r="BY68" s="19"/>
-      <c r="BZ68" s="19"/>
-      <c r="CA68" s="19"/>
-      <c r="CB68" s="19"/>
-      <c r="CC68" s="19"/>
+      <c r="BZ68" s="3"/>
+      <c r="CA68" s="3"/>
+      <c r="CB68" s="3"/>
+      <c r="CC68" s="3"/>
       <c r="CD68" s="3"/>
       <c r="CE68" s="3"/>
       <c r="CF68" s="3"/>
       <c r="CG68" s="3"/>
       <c r="CH68" s="3"/>
-      <c r="CI68" s="3"/>
-      <c r="CJ68" s="3"/>
-      <c r="CK68" s="3"/>
+      <c r="CI68" s="33"/>
+      <c r="CJ68" s="33"/>
+      <c r="CK68" s="33"/>
+      <c r="CL68" s="33"/>
+      <c r="CM68" s="34"/>
     </row>
-    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>11</v>
       </c>
@@ -33142,36 +33209,38 @@
       <c r="BY69" s="26">
         <v>4.6790550569243408</v>
       </c>
-      <c r="BZ69" s="26">
-        <v>7.4821674327124583</v>
-      </c>
-      <c r="CA69" s="26">
-        <v>-0.60229927523046456</v>
-      </c>
-      <c r="CB69" s="26">
-        <v>-9.1485524931019455</v>
-      </c>
-      <c r="CC69" s="26">
-        <v>-6.2395376986696931</v>
+      <c r="BZ69" s="12">
+        <v>8.429486907133878</v>
+      </c>
+      <c r="CA69" s="12">
+        <v>0.27376584197359932</v>
+      </c>
+      <c r="CB69" s="12">
+        <v>-8.347811797613673</v>
+      </c>
+      <c r="CC69" s="12">
+        <v>-5.4131577140605174</v>
       </c>
       <c r="CD69" s="12">
-        <v>6.0488467822530367</v>
+        <v>6.0488467822530083</v>
       </c>
       <c r="CE69" s="12">
-        <v>9.050575213575712</v>
+        <v>9.0505752135757263</v>
       </c>
       <c r="CF69" s="12">
         <v>14.739472010668521</v>
       </c>
       <c r="CG69" s="12">
-        <v>7.2870962624160853</v>
-      </c>
-      <c r="CH69" s="11"/>
-      <c r="CI69" s="11"/>
-      <c r="CJ69" s="11"/>
-      <c r="CK69" s="11"/>
-      <c r="CL69" s="17"/>
-      <c r="CM69" s="17"/>
+        <v>9.1250762179577976</v>
+      </c>
+      <c r="CH69" s="12">
+        <v>8.0328176860315068</v>
+      </c>
+      <c r="CI69" s="35"/>
+      <c r="CJ69" s="35"/>
+      <c r="CK69" s="35"/>
+      <c r="CL69" s="35"/>
+      <c r="CM69" s="39"/>
       <c r="CN69" s="17"/>
       <c r="CO69" s="17"/>
       <c r="CP69" s="17"/>
@@ -33233,7 +33302,7 @@
       <c r="ET69" s="17"/>
       <c r="EU69" s="17"/>
     </row>
-    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>12</v>
       </c>
@@ -33465,17 +33534,17 @@
       <c r="BY70" s="26">
         <v>0.40435108720457436</v>
       </c>
-      <c r="BZ70" s="26">
+      <c r="BZ70" s="12">
         <v>-8.6677501268145392</v>
       </c>
-      <c r="CA70" s="26">
+      <c r="CA70" s="12">
         <v>-39.645174901255665</v>
       </c>
-      <c r="CB70" s="26">
+      <c r="CB70" s="12">
         <v>-29.439210538197088</v>
       </c>
-      <c r="CC70" s="26">
-        <v>-21.721112292124928</v>
+      <c r="CC70" s="12">
+        <v>-21.858982329623288</v>
       </c>
       <c r="CD70" s="12">
         <v>-10.842177507381294</v>
@@ -33487,14 +33556,16 @@
         <v>10.989735326438364</v>
       </c>
       <c r="CG70" s="12">
-        <v>3.4284426791652152</v>
-      </c>
-      <c r="CH70" s="11"/>
-      <c r="CI70" s="11"/>
-      <c r="CJ70" s="11"/>
-      <c r="CK70" s="11"/>
-      <c r="CL70" s="17"/>
-      <c r="CM70" s="17"/>
+        <v>3.7210101118241283</v>
+      </c>
+      <c r="CH70" s="12">
+        <v>7.294009998558181</v>
+      </c>
+      <c r="CI70" s="35"/>
+      <c r="CJ70" s="35"/>
+      <c r="CK70" s="35"/>
+      <c r="CL70" s="35"/>
+      <c r="CM70" s="39"/>
       <c r="CN70" s="17"/>
       <c r="CO70" s="17"/>
       <c r="CP70" s="17"/>
@@ -33556,7 +33627,7 @@
       <c r="ET70" s="17"/>
       <c r="EU70" s="17"/>
     </row>
-    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -33633,20 +33704,20 @@
       <c r="BW71" s="22"/>
       <c r="BX71" s="22"/>
       <c r="BY71" s="22"/>
-      <c r="BZ71" s="22"/>
-      <c r="CA71" s="22"/>
-      <c r="CB71" s="22"/>
-      <c r="CC71" s="22"/>
+      <c r="BZ71" s="11"/>
+      <c r="CA71" s="11"/>
+      <c r="CB71" s="11"/>
+      <c r="CC71" s="11"/>
       <c r="CD71" s="11"/>
       <c r="CE71" s="11"/>
       <c r="CF71" s="11"/>
       <c r="CG71" s="11"/>
       <c r="CH71" s="11"/>
-      <c r="CI71" s="11"/>
-      <c r="CJ71" s="11"/>
-      <c r="CK71" s="11"/>
-      <c r="CL71" s="17"/>
-      <c r="CM71" s="17"/>
+      <c r="CI71" s="35"/>
+      <c r="CJ71" s="35"/>
+      <c r="CK71" s="35"/>
+      <c r="CL71" s="35"/>
+      <c r="CM71" s="39"/>
       <c r="CN71" s="17"/>
       <c r="CO71" s="17"/>
       <c r="CP71" s="17"/>
@@ -33708,7 +33779,7 @@
       <c r="ET71" s="17"/>
       <c r="EU71" s="17"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>13</v>
       </c>
@@ -33940,36 +34011,38 @@
       <c r="BY72" s="26">
         <v>2.9721234905994152</v>
       </c>
-      <c r="BZ72" s="26">
-        <v>1.3104920252688004</v>
-      </c>
-      <c r="CA72" s="26">
-        <v>-14.467193486610199</v>
-      </c>
-      <c r="CB72" s="26">
-        <v>-16.714979879094642</v>
-      </c>
-      <c r="CC72" s="26">
-        <v>-12.267326951132631</v>
+      <c r="BZ72" s="12">
+        <v>1.8957942768945486</v>
+      </c>
+      <c r="CA72" s="12">
+        <v>-13.902236349480674</v>
+      </c>
+      <c r="CB72" s="12">
+        <v>-16.212837006996622</v>
+      </c>
+      <c r="CC72" s="12">
+        <v>-11.816380090903721</v>
       </c>
       <c r="CD72" s="12">
-        <v>0.22971107986482764</v>
+        <v>0.26313692686169077</v>
       </c>
       <c r="CE72" s="12">
-        <v>12.562460138398606</v>
+        <v>12.539415817978067</v>
       </c>
       <c r="CF72" s="12">
-        <v>13.554816594055481</v>
+        <v>13.561916324516531</v>
       </c>
       <c r="CG72" s="12">
-        <v>5.9466111181947383</v>
-      </c>
-      <c r="CH72" s="11"/>
-      <c r="CI72" s="11"/>
-      <c r="CJ72" s="11"/>
-      <c r="CK72" s="11"/>
-      <c r="CL72" s="17"/>
-      <c r="CM72" s="17"/>
+        <v>7.2606091209097059</v>
+      </c>
+      <c r="CH72" s="12">
+        <v>7.807782600507835</v>
+      </c>
+      <c r="CI72" s="35"/>
+      <c r="CJ72" s="35"/>
+      <c r="CK72" s="35"/>
+      <c r="CL72" s="35"/>
+      <c r="CM72" s="39"/>
       <c r="CN72" s="17"/>
       <c r="CO72" s="17"/>
       <c r="CP72" s="17"/>
@@ -34031,7 +34104,7 @@
       <c r="ET72" s="17"/>
       <c r="EU72" s="17"/>
     </row>
-    <row r="73" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -34109,20 +34182,22 @@
       <c r="BW73" s="24"/>
       <c r="BX73" s="24"/>
       <c r="BY73" s="24"/>
-      <c r="BZ73" s="24"/>
-      <c r="CA73" s="24"/>
-      <c r="CB73" s="24"/>
-      <c r="CC73" s="24"/>
+      <c r="BZ73" s="9"/>
+      <c r="CA73" s="9"/>
+      <c r="CB73" s="9"/>
+      <c r="CC73" s="9"/>
       <c r="CD73" s="9"/>
       <c r="CE73" s="9"/>
       <c r="CF73" s="9"/>
       <c r="CG73" s="9"/>
       <c r="CH73" s="9"/>
-      <c r="CI73" s="9"/>
-      <c r="CJ73" s="9"/>
-      <c r="CK73" s="9"/>
+      <c r="CI73" s="38"/>
+      <c r="CJ73" s="38"/>
+      <c r="CK73" s="38"/>
+      <c r="CL73" s="38"/>
+      <c r="CM73" s="34"/>
     </row>
-    <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
@@ -34202,20 +34277,22 @@
       <c r="BW74" s="19"/>
       <c r="BX74" s="19"/>
       <c r="BY74" s="19"/>
-      <c r="BZ74" s="19"/>
-      <c r="CA74" s="19"/>
-      <c r="CB74" s="19"/>
-      <c r="CC74" s="19"/>
+      <c r="BZ74" s="3"/>
+      <c r="CA74" s="3"/>
+      <c r="CB74" s="3"/>
+      <c r="CC74" s="3"/>
       <c r="CD74" s="3"/>
       <c r="CE74" s="3"/>
       <c r="CF74" s="3"/>
       <c r="CG74" s="3"/>
       <c r="CH74" s="3"/>
-      <c r="CI74" s="3"/>
-      <c r="CJ74" s="3"/>
-      <c r="CK74" s="3"/>
+      <c r="CI74" s="33"/>
+      <c r="CJ74" s="33"/>
+      <c r="CK74" s="33"/>
+      <c r="CL74" s="33"/>
+      <c r="CM74" s="34"/>
     </row>
-    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -34292,20 +34369,20 @@
       <c r="BW75" s="22"/>
       <c r="BX75" s="22"/>
       <c r="BY75" s="22"/>
-      <c r="BZ75" s="22"/>
-      <c r="CA75" s="22"/>
-      <c r="CB75" s="27"/>
-      <c r="CC75" s="27"/>
+      <c r="BZ75" s="11"/>
+      <c r="CA75" s="11"/>
+      <c r="CB75" s="17"/>
+      <c r="CC75" s="17"/>
       <c r="CD75" s="11"/>
       <c r="CE75" s="11"/>
       <c r="CF75" s="17"/>
       <c r="CG75" s="17"/>
       <c r="CH75" s="17"/>
-      <c r="CI75" s="17"/>
-      <c r="CJ75" s="17"/>
-      <c r="CK75" s="17"/>
-      <c r="CL75" s="17"/>
-      <c r="CM75" s="17"/>
+      <c r="CI75" s="39"/>
+      <c r="CJ75" s="39"/>
+      <c r="CK75" s="39"/>
+      <c r="CL75" s="39"/>
+      <c r="CM75" s="39"/>
       <c r="CN75" s="17"/>
       <c r="CO75" s="17"/>
       <c r="CP75" s="17"/>
@@ -34367,7 +34444,7 @@
       <c r="ET75" s="17"/>
       <c r="EU75" s="17"/>
     </row>
-    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -34444,20 +34521,20 @@
       <c r="BW76" s="22"/>
       <c r="BX76" s="22"/>
       <c r="BY76" s="22"/>
-      <c r="BZ76" s="22"/>
-      <c r="CA76" s="27"/>
-      <c r="CB76" s="27"/>
-      <c r="CC76" s="27"/>
+      <c r="BZ76" s="11"/>
+      <c r="CA76" s="17"/>
+      <c r="CB76" s="17"/>
+      <c r="CC76" s="17"/>
       <c r="CD76" s="17"/>
       <c r="CE76" s="17"/>
       <c r="CF76" s="17"/>
       <c r="CG76" s="17"/>
       <c r="CH76" s="17"/>
-      <c r="CI76" s="17"/>
-      <c r="CJ76" s="17"/>
-      <c r="CK76" s="17"/>
-      <c r="CL76" s="17"/>
-      <c r="CM76" s="17"/>
+      <c r="CI76" s="39"/>
+      <c r="CJ76" s="39"/>
+      <c r="CK76" s="39"/>
+      <c r="CL76" s="39"/>
+      <c r="CM76" s="39"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
       <c r="CP76" s="17"/>
@@ -34519,7 +34596,7 @@
       <c r="ET76" s="17"/>
       <c r="EU76" s="17"/>
     </row>
-    <row r="77" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -34599,14 +34676,11 @@
       <c r="BW77" s="19"/>
       <c r="BX77" s="19"/>
       <c r="BY77" s="19"/>
-      <c r="BZ77" s="19"/>
-      <c r="CA77" s="18"/>
-      <c r="CB77" s="18"/>
-      <c r="CC77" s="18"/>
+      <c r="BZ77" s="3"/>
     </row>
-    <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -34684,12 +34758,9 @@
       <c r="BW78" s="19"/>
       <c r="BX78" s="19"/>
       <c r="BY78" s="19"/>
-      <c r="BZ78" s="19"/>
-      <c r="CA78" s="18"/>
-      <c r="CB78" s="18"/>
-      <c r="CC78" s="18"/>
+      <c r="BZ78" s="3"/>
     </row>
-    <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -34767,12 +34838,9 @@
       <c r="BW79" s="19"/>
       <c r="BX79" s="19"/>
       <c r="BY79" s="19"/>
-      <c r="BZ79" s="19"/>
-      <c r="CA79" s="18"/>
-      <c r="CB79" s="18"/>
-      <c r="CC79" s="18"/>
+      <c r="BZ79" s="3"/>
     </row>
-    <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>18</v>
       </c>
@@ -34852,14 +34920,11 @@
       <c r="BW80" s="19"/>
       <c r="BX80" s="19"/>
       <c r="BY80" s="19"/>
-      <c r="BZ80" s="19"/>
-      <c r="CA80" s="18"/>
-      <c r="CB80" s="18"/>
-      <c r="CC80" s="18"/>
+      <c r="BZ80" s="3"/>
     </row>
-    <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -34937,12 +35002,9 @@
       <c r="BW81" s="19"/>
       <c r="BX81" s="19"/>
       <c r="BY81" s="19"/>
-      <c r="BZ81" s="19"/>
-      <c r="CA81" s="18"/>
-      <c r="CB81" s="18"/>
-      <c r="CC81" s="18"/>
+      <c r="BZ81" s="3"/>
     </row>
-    <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
@@ -35022,12 +35084,9 @@
       <c r="BW82" s="19"/>
       <c r="BX82" s="19"/>
       <c r="BY82" s="19"/>
-      <c r="BZ82" s="19"/>
-      <c r="CA82" s="18"/>
-      <c r="CB82" s="18"/>
-      <c r="CC82" s="18"/>
+      <c r="BZ82" s="3"/>
     </row>
-    <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -35105,147 +35164,147 @@
       <c r="BW83" s="19"/>
       <c r="BX83" s="19"/>
       <c r="BY83" s="19"/>
-      <c r="BZ83" s="19"/>
-      <c r="CA83" s="18"/>
-      <c r="CB83" s="18"/>
-      <c r="CC83" s="18"/>
+      <c r="BZ83" s="3"/>
     </row>
-    <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="33">
+      <c r="B84" s="29">
         <v>2000</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="33">
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="29">
         <v>2001</v>
       </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="33">
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="29">
         <v>2002</v>
       </c>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="33">
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="29">
         <v>2003</v>
       </c>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="33">
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="29">
         <v>2004</v>
       </c>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="33">
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="29">
         <v>2005</v>
       </c>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="33">
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="29">
         <v>2006</v>
       </c>
-      <c r="AA84" s="34"/>
-      <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
-      <c r="AD84" s="33">
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="29">
         <v>2007</v>
       </c>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="34"/>
-      <c r="AG84" s="34"/>
-      <c r="AH84" s="33">
+      <c r="AE84" s="30"/>
+      <c r="AF84" s="30"/>
+      <c r="AG84" s="30"/>
+      <c r="AH84" s="29">
         <v>2008</v>
       </c>
-      <c r="AI84" s="34"/>
-      <c r="AJ84" s="34"/>
-      <c r="AK84" s="34"/>
-      <c r="AL84" s="33">
+      <c r="AI84" s="30"/>
+      <c r="AJ84" s="30"/>
+      <c r="AK84" s="30"/>
+      <c r="AL84" s="29">
         <v>2009</v>
       </c>
-      <c r="AM84" s="34"/>
-      <c r="AN84" s="34"/>
-      <c r="AO84" s="34"/>
-      <c r="AP84" s="33">
+      <c r="AM84" s="30"/>
+      <c r="AN84" s="30"/>
+      <c r="AO84" s="30"/>
+      <c r="AP84" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="34"/>
-      <c r="AS84" s="34"/>
-      <c r="AT84" s="33">
+      <c r="AQ84" s="30"/>
+      <c r="AR84" s="30"/>
+      <c r="AS84" s="30"/>
+      <c r="AT84" s="29">
         <v>2011</v>
       </c>
-      <c r="AU84" s="34"/>
-      <c r="AV84" s="34"/>
-      <c r="AW84" s="34"/>
-      <c r="AX84" s="33">
+      <c r="AU84" s="30"/>
+      <c r="AV84" s="30"/>
+      <c r="AW84" s="30"/>
+      <c r="AX84" s="29">
         <v>2012</v>
       </c>
-      <c r="AY84" s="34"/>
-      <c r="AZ84" s="34"/>
-      <c r="BA84" s="34"/>
-      <c r="BB84" s="33">
+      <c r="AY84" s="30"/>
+      <c r="AZ84" s="30"/>
+      <c r="BA84" s="30"/>
+      <c r="BB84" s="29">
         <v>2013</v>
       </c>
-      <c r="BC84" s="34"/>
-      <c r="BD84" s="34"/>
-      <c r="BE84" s="34"/>
-      <c r="BF84" s="33">
+      <c r="BC84" s="30"/>
+      <c r="BD84" s="30"/>
+      <c r="BE84" s="30"/>
+      <c r="BF84" s="29">
         <v>2014</v>
       </c>
-      <c r="BG84" s="34"/>
-      <c r="BH84" s="34"/>
-      <c r="BI84" s="34"/>
-      <c r="BJ84" s="33">
+      <c r="BG84" s="30"/>
+      <c r="BH84" s="30"/>
+      <c r="BI84" s="30"/>
+      <c r="BJ84" s="29">
         <v>2015</v>
       </c>
-      <c r="BK84" s="34"/>
-      <c r="BL84" s="34"/>
-      <c r="BM84" s="34"/>
-      <c r="BN84" s="33">
+      <c r="BK84" s="30"/>
+      <c r="BL84" s="30"/>
+      <c r="BM84" s="30"/>
+      <c r="BN84" s="29">
         <v>2016</v>
       </c>
-      <c r="BO84" s="34"/>
-      <c r="BP84" s="34"/>
-      <c r="BQ84" s="34"/>
-      <c r="BR84" s="33">
+      <c r="BO84" s="30"/>
+      <c r="BP84" s="30"/>
+      <c r="BQ84" s="30"/>
+      <c r="BR84" s="29">
         <v>2017</v>
       </c>
-      <c r="BS84" s="34"/>
-      <c r="BT84" s="34"/>
-      <c r="BU84" s="34"/>
+      <c r="BS84" s="30"/>
+      <c r="BT84" s="30"/>
+      <c r="BU84" s="30"/>
       <c r="BV84" s="31">
         <v>2018</v>
       </c>
       <c r="BW84" s="32"/>
       <c r="BX84" s="32"/>
       <c r="BY84" s="32"/>
-      <c r="BZ84" s="31">
+      <c r="BZ84" s="29">
         <v>2019</v>
       </c>
-      <c r="CA84" s="32"/>
-      <c r="CB84" s="32"/>
-      <c r="CC84" s="32"/>
-      <c r="CD84" s="33">
+      <c r="CA84" s="30"/>
+      <c r="CB84" s="30"/>
+      <c r="CC84" s="30"/>
+      <c r="CD84" s="29">
         <v>2020</v>
       </c>
-      <c r="CE84" s="33"/>
-      <c r="CF84" s="33"/>
-      <c r="CG84" s="33"/>
-      <c r="CH84" s="33">
+      <c r="CE84" s="29"/>
+      <c r="CF84" s="29"/>
+      <c r="CG84" s="29"/>
+      <c r="CH84" s="29">
         <v>2021</v>
       </c>
-      <c r="CI84" s="33"/>
-      <c r="CJ84" s="33"/>
-      <c r="CK84" s="33"/>
+      <c r="CI84" s="29"/>
+      <c r="CJ84" s="29"/>
+      <c r="CK84" s="29"/>
+      <c r="CL84" s="28">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -35477,16 +35536,16 @@
       <c r="BY85" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BZ85" s="20" t="s">
+      <c r="BZ85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="20" t="s">
+      <c r="CA85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="20" t="s">
+      <c r="CB85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC85" s="20" t="s">
+      <c r="CC85" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD85" s="6" t="s">
@@ -35513,8 +35572,11 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL85" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="86" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -35592,12 +35654,9 @@
       <c r="BW86" s="19"/>
       <c r="BX86" s="19"/>
       <c r="BY86" s="19"/>
-      <c r="BZ86" s="19"/>
-      <c r="CA86" s="18"/>
-      <c r="CB86" s="18"/>
-      <c r="CC86" s="18"/>
+      <c r="BZ86" s="3"/>
     </row>
-    <row r="87" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
@@ -35829,16 +35888,16 @@
       <c r="BY87" s="26">
         <v>116.88636970266744</v>
       </c>
-      <c r="BZ87" s="26">
+      <c r="BZ87" s="12">
         <v>92.440575330025794</v>
       </c>
-      <c r="CA87" s="26">
+      <c r="CA87" s="12">
         <v>97.982292819021296</v>
       </c>
-      <c r="CB87" s="26">
+      <c r="CB87" s="12">
         <v>101.76611903175015</v>
       </c>
-      <c r="CC87" s="26">
+      <c r="CC87" s="12">
         <v>118.51667375805941</v>
       </c>
       <c r="CD87" s="12">
@@ -35848,13 +35907,13 @@
         <v>100.67143362173876</v>
       </c>
       <c r="CF87" s="12">
-        <v>104.78303345923634</v>
+        <v>104.78303345923636</v>
       </c>
       <c r="CG87" s="12">
         <v>121.44320085761527</v>
       </c>
       <c r="CH87" s="12">
-        <v>101.31537663275458</v>
+        <v>101.31537663275461</v>
       </c>
       <c r="CI87" s="12">
         <v>102.09914711329355</v>
@@ -35863,9 +35922,11 @@
         <v>107.46908300070628</v>
       </c>
       <c r="CK87" s="12">
-        <v>124.54738077603021</v>
-      </c>
-      <c r="CL87" s="17"/>
+        <v>124.54738077603018</v>
+      </c>
+      <c r="CL87" s="12">
+        <v>106.31873751394872</v>
+      </c>
       <c r="CM87" s="17"/>
       <c r="CN87" s="17"/>
       <c r="CO87" s="17"/>
@@ -35928,7 +35989,7 @@
       <c r="ET87" s="17"/>
       <c r="EU87" s="17"/>
     </row>
-    <row r="88" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -36160,16 +36221,16 @@
       <c r="BY88" s="26">
         <v>104.09936633050978</v>
       </c>
-      <c r="BZ88" s="26">
+      <c r="BZ88" s="12">
         <v>90.456307630964233</v>
       </c>
-      <c r="CA88" s="26">
+      <c r="CA88" s="12">
         <v>95.060126153204109</v>
       </c>
-      <c r="CB88" s="26">
+      <c r="CB88" s="12">
         <v>108.14298059882155</v>
       </c>
-      <c r="CC88" s="26">
+      <c r="CC88" s="12">
         <v>109.91506528074248</v>
       </c>
       <c r="CD88" s="12">
@@ -36194,9 +36255,11 @@
         <v>109.94720249657171</v>
       </c>
       <c r="CK88" s="12">
-        <v>111.7369322217173</v>
-      </c>
-      <c r="CL88" s="17"/>
+        <v>111.73693222171732</v>
+      </c>
+      <c r="CL88" s="12">
+        <v>97.715788312788192</v>
+      </c>
       <c r="CM88" s="17"/>
       <c r="CN88" s="17"/>
       <c r="CO88" s="17"/>
@@ -36259,7 +36322,7 @@
       <c r="ET88" s="17"/>
       <c r="EU88" s="17"/>
     </row>
-    <row r="89" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -36336,10 +36399,10 @@
       <c r="BW89" s="22"/>
       <c r="BX89" s="22"/>
       <c r="BY89" s="22"/>
-      <c r="BZ89" s="22"/>
-      <c r="CA89" s="22"/>
-      <c r="CB89" s="22"/>
-      <c r="CC89" s="22"/>
+      <c r="BZ89" s="11"/>
+      <c r="CA89" s="11"/>
+      <c r="CB89" s="11"/>
+      <c r="CC89" s="11"/>
       <c r="CD89" s="11"/>
       <c r="CE89" s="11"/>
       <c r="CF89" s="11"/>
@@ -36348,7 +36411,7 @@
       <c r="CI89" s="11"/>
       <c r="CJ89" s="11"/>
       <c r="CK89" s="11"/>
-      <c r="CL89" s="17"/>
+      <c r="CL89" s="11"/>
       <c r="CM89" s="17"/>
       <c r="CN89" s="17"/>
       <c r="CO89" s="17"/>
@@ -36411,7 +36474,7 @@
       <c r="ET89" s="17"/>
       <c r="EU89" s="17"/>
     </row>
-    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>13</v>
       </c>
@@ -36643,43 +36706,45 @@
       <c r="BY90" s="26">
         <v>111.78039280947215</v>
       </c>
-      <c r="BZ90" s="26">
+      <c r="BZ90" s="12">
         <v>91.682289344048201</v>
       </c>
-      <c r="CA90" s="26">
+      <c r="CA90" s="12">
         <v>96.944573874401115</v>
       </c>
-      <c r="CB90" s="26">
+      <c r="CB90" s="12">
         <v>104.14406359572337</v>
       </c>
-      <c r="CC90" s="26">
+      <c r="CC90" s="12">
         <v>115.16761628199468</v>
       </c>
       <c r="CD90" s="12">
-        <v>96.214527036787658</v>
+        <v>96.216018220210884</v>
       </c>
       <c r="CE90" s="12">
-        <v>100.43966754006961</v>
+        <v>100.44118834498292</v>
       </c>
       <c r="CF90" s="12">
-        <v>106.18750066723553</v>
+        <v>106.17908358790736</v>
       </c>
       <c r="CG90" s="12">
-        <v>118.10390200399776</v>
+        <v>118.12682958469327</v>
       </c>
       <c r="CH90" s="12">
-        <v>100.04481925413964</v>
+        <v>100.0525386423174</v>
       </c>
       <c r="CI90" s="12">
-        <v>101.69350857079735</v>
+        <v>101.69608777748567</v>
       </c>
       <c r="CJ90" s="12">
-        <v>108.23431086015742</v>
+        <v>108.22967723685608</v>
       </c>
       <c r="CK90" s="12">
-        <v>120.20284410699954</v>
-      </c>
-      <c r="CL90" s="17"/>
+        <v>120.27347556407308</v>
+      </c>
+      <c r="CL90" s="12">
+        <v>103.71083381137703</v>
+      </c>
       <c r="CM90" s="17"/>
       <c r="CN90" s="17"/>
       <c r="CO90" s="17"/>
@@ -36742,7 +36807,7 @@
       <c r="ET90" s="17"/>
       <c r="EU90" s="17"/>
     </row>
-    <row r="91" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -36820,10 +36885,10 @@
       <c r="BW91" s="24"/>
       <c r="BX91" s="24"/>
       <c r="BY91" s="24"/>
-      <c r="BZ91" s="24"/>
-      <c r="CA91" s="24"/>
-      <c r="CB91" s="24"/>
-      <c r="CC91" s="24"/>
+      <c r="BZ91" s="9"/>
+      <c r="CA91" s="9"/>
+      <c r="CB91" s="9"/>
+      <c r="CC91" s="9"/>
       <c r="CD91" s="9"/>
       <c r="CE91" s="9"/>
       <c r="CF91" s="9"/>
@@ -36832,8 +36897,9 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
+      <c r="CL91" s="9"/>
     </row>
-    <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>0</v>
       </c>
@@ -36913,12 +36979,9 @@
       <c r="BW92" s="19"/>
       <c r="BX92" s="19"/>
       <c r="BY92" s="19"/>
-      <c r="BZ92" s="19"/>
-      <c r="CA92" s="18"/>
-      <c r="CB92" s="18"/>
-      <c r="CC92" s="18"/>
+      <c r="BZ92" s="3"/>
     </row>
-    <row r="93" spans="1:151" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -36995,10 +37058,10 @@
       <c r="BW93" s="19"/>
       <c r="BX93" s="19"/>
       <c r="BY93" s="19"/>
-      <c r="BZ93" s="19"/>
-      <c r="CA93" s="19"/>
-      <c r="CB93" s="19"/>
-      <c r="CC93" s="19"/>
+      <c r="BZ93" s="3"/>
+      <c r="CA93" s="3"/>
+      <c r="CB93" s="3"/>
+      <c r="CC93" s="3"/>
       <c r="CD93" s="3"/>
       <c r="CE93" s="3"/>
       <c r="CF93" s="3"/>
@@ -37007,8 +37070,9 @@
       <c r="CI93" s="3"/>
       <c r="CJ93" s="3"/>
       <c r="CK93" s="3"/>
+      <c r="CL93" s="3"/>
     </row>
-    <row r="94" spans="1:151" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -37085,10 +37149,10 @@
       <c r="BW94" s="19"/>
       <c r="BX94" s="19"/>
       <c r="BY94" s="19"/>
-      <c r="BZ94" s="19"/>
-      <c r="CA94" s="19"/>
-      <c r="CB94" s="19"/>
-      <c r="CC94" s="19"/>
+      <c r="BZ94" s="3"/>
+      <c r="CA94" s="3"/>
+      <c r="CB94" s="3"/>
+      <c r="CC94" s="3"/>
       <c r="CD94" s="3"/>
       <c r="CE94" s="3"/>
       <c r="CF94" s="3"/>
@@ -37097,8 +37161,9 @@
       <c r="CI94" s="3"/>
       <c r="CJ94" s="3"/>
       <c r="CK94" s="3"/>
+      <c r="CL94" s="3"/>
     </row>
-    <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -37178,10 +37243,10 @@
       <c r="BW95" s="19"/>
       <c r="BX95" s="19"/>
       <c r="BY95" s="19"/>
-      <c r="BZ95" s="19"/>
-      <c r="CA95" s="19"/>
-      <c r="CB95" s="19"/>
-      <c r="CC95" s="19"/>
+      <c r="BZ95" s="3"/>
+      <c r="CA95" s="3"/>
+      <c r="CB95" s="3"/>
+      <c r="CC95" s="3"/>
       <c r="CD95" s="3"/>
       <c r="CE95" s="3"/>
       <c r="CF95" s="3"/>
@@ -37190,8 +37255,9 @@
       <c r="CI95" s="3"/>
       <c r="CJ95" s="3"/>
       <c r="CK95" s="3"/>
+      <c r="CL95" s="3"/>
     </row>
-    <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
@@ -37271,10 +37337,10 @@
       <c r="BW96" s="19"/>
       <c r="BX96" s="19"/>
       <c r="BY96" s="19"/>
-      <c r="BZ96" s="19"/>
-      <c r="CA96" s="19"/>
-      <c r="CB96" s="19"/>
-      <c r="CC96" s="19"/>
+      <c r="BZ96" s="3"/>
+      <c r="CA96" s="3"/>
+      <c r="CB96" s="3"/>
+      <c r="CC96" s="3"/>
       <c r="CD96" s="3"/>
       <c r="CE96" s="3"/>
       <c r="CF96" s="3"/>
@@ -37283,10 +37349,11 @@
       <c r="CI96" s="3"/>
       <c r="CJ96" s="3"/>
       <c r="CK96" s="3"/>
+      <c r="CL96" s="3"/>
     </row>
-    <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -37364,10 +37431,10 @@
       <c r="BW97" s="19"/>
       <c r="BX97" s="19"/>
       <c r="BY97" s="19"/>
-      <c r="BZ97" s="19"/>
-      <c r="CA97" s="19"/>
-      <c r="CB97" s="19"/>
-      <c r="CC97" s="19"/>
+      <c r="BZ97" s="3"/>
+      <c r="CA97" s="3"/>
+      <c r="CB97" s="3"/>
+      <c r="CC97" s="3"/>
       <c r="CD97" s="3"/>
       <c r="CE97" s="3"/>
       <c r="CF97" s="3"/>
@@ -37376,8 +37443,9 @@
       <c r="CI97" s="3"/>
       <c r="CJ97" s="3"/>
       <c r="CK97" s="3"/>
+      <c r="CL97" s="3"/>
     </row>
-    <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -37455,10 +37523,10 @@
       <c r="BW98" s="19"/>
       <c r="BX98" s="19"/>
       <c r="BY98" s="19"/>
-      <c r="BZ98" s="19"/>
-      <c r="CA98" s="19"/>
-      <c r="CB98" s="19"/>
-      <c r="CC98" s="19"/>
+      <c r="BZ98" s="3"/>
+      <c r="CA98" s="3"/>
+      <c r="CB98" s="3"/>
+      <c r="CC98" s="3"/>
       <c r="CD98" s="3"/>
       <c r="CE98" s="3"/>
       <c r="CF98" s="3"/>
@@ -37467,8 +37535,9 @@
       <c r="CI98" s="3"/>
       <c r="CJ98" s="3"/>
       <c r="CK98" s="3"/>
+      <c r="CL98" s="3"/>
     </row>
-    <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>19</v>
       </c>
@@ -37548,10 +37617,10 @@
       <c r="BW99" s="19"/>
       <c r="BX99" s="19"/>
       <c r="BY99" s="19"/>
-      <c r="BZ99" s="19"/>
-      <c r="CA99" s="19"/>
-      <c r="CB99" s="19"/>
-      <c r="CC99" s="19"/>
+      <c r="BZ99" s="3"/>
+      <c r="CA99" s="3"/>
+      <c r="CB99" s="3"/>
+      <c r="CC99" s="3"/>
       <c r="CD99" s="3"/>
       <c r="CE99" s="3"/>
       <c r="CF99" s="3"/>
@@ -37560,10 +37629,11 @@
       <c r="CI99" s="3"/>
       <c r="CJ99" s="3"/>
       <c r="CK99" s="3"/>
+      <c r="CL99" s="3"/>
     </row>
-    <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -37641,10 +37711,10 @@
       <c r="BW100" s="19"/>
       <c r="BX100" s="19"/>
       <c r="BY100" s="19"/>
-      <c r="BZ100" s="19"/>
-      <c r="CA100" s="19"/>
-      <c r="CB100" s="19"/>
-      <c r="CC100" s="19"/>
+      <c r="BZ100" s="3"/>
+      <c r="CA100" s="3"/>
+      <c r="CB100" s="3"/>
+      <c r="CC100" s="3"/>
       <c r="CD100" s="3"/>
       <c r="CE100" s="3"/>
       <c r="CF100" s="3"/>
@@ -37653,8 +37723,9 @@
       <c r="CI100" s="3"/>
       <c r="CJ100" s="3"/>
       <c r="CK100" s="3"/>
+      <c r="CL100" s="3"/>
     </row>
-    <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>23</v>
       </c>
@@ -37734,10 +37805,10 @@
       <c r="BW101" s="19"/>
       <c r="BX101" s="19"/>
       <c r="BY101" s="19"/>
-      <c r="BZ101" s="19"/>
-      <c r="CA101" s="19"/>
-      <c r="CB101" s="19"/>
-      <c r="CC101" s="19"/>
+      <c r="BZ101" s="3"/>
+      <c r="CA101" s="3"/>
+      <c r="CB101" s="3"/>
+      <c r="CC101" s="3"/>
       <c r="CD101" s="3"/>
       <c r="CE101" s="3"/>
       <c r="CF101" s="3"/>
@@ -37746,8 +37817,9 @@
       <c r="CI101" s="3"/>
       <c r="CJ101" s="3"/>
       <c r="CK101" s="3"/>
+      <c r="CL101" s="3"/>
     </row>
-    <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -37825,10 +37897,10 @@
       <c r="BW102" s="19"/>
       <c r="BX102" s="19"/>
       <c r="BY102" s="19"/>
-      <c r="BZ102" s="19"/>
-      <c r="CA102" s="19"/>
-      <c r="CB102" s="19"/>
-      <c r="CC102" s="19"/>
+      <c r="BZ102" s="3"/>
+      <c r="CA102" s="3"/>
+      <c r="CB102" s="3"/>
+      <c r="CC102" s="3"/>
       <c r="CD102" s="3"/>
       <c r="CE102" s="3"/>
       <c r="CF102" s="3"/>
@@ -37837,143 +37909,147 @@
       <c r="CI102" s="3"/>
       <c r="CJ102" s="3"/>
       <c r="CK102" s="3"/>
+      <c r="CL102" s="3"/>
     </row>
-    <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="33">
+      <c r="B103" s="29">
         <v>2000</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="33">
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="29">
         <v>2001</v>
       </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="33">
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="29">
         <v>2002</v>
       </c>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="33">
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="29">
         <v>2003</v>
       </c>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="33">
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="30"/>
+      <c r="R103" s="29">
         <v>2004</v>
       </c>
-      <c r="S103" s="34"/>
-      <c r="T103" s="34"/>
-      <c r="U103" s="34"/>
-      <c r="V103" s="33">
+      <c r="S103" s="30"/>
+      <c r="T103" s="30"/>
+      <c r="U103" s="30"/>
+      <c r="V103" s="29">
         <v>2005</v>
       </c>
-      <c r="W103" s="34"/>
-      <c r="X103" s="34"/>
-      <c r="Y103" s="34"/>
-      <c r="Z103" s="33">
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="29">
         <v>2006</v>
       </c>
-      <c r="AA103" s="34"/>
-      <c r="AB103" s="34"/>
-      <c r="AC103" s="34"/>
-      <c r="AD103" s="33">
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="29">
         <v>2007</v>
       </c>
-      <c r="AE103" s="34"/>
-      <c r="AF103" s="34"/>
-      <c r="AG103" s="34"/>
-      <c r="AH103" s="33">
+      <c r="AE103" s="30"/>
+      <c r="AF103" s="30"/>
+      <c r="AG103" s="30"/>
+      <c r="AH103" s="29">
         <v>2008</v>
       </c>
-      <c r="AI103" s="34"/>
-      <c r="AJ103" s="34"/>
-      <c r="AK103" s="34"/>
-      <c r="AL103" s="33">
+      <c r="AI103" s="30"/>
+      <c r="AJ103" s="30"/>
+      <c r="AK103" s="30"/>
+      <c r="AL103" s="29">
         <v>2009</v>
       </c>
-      <c r="AM103" s="34"/>
-      <c r="AN103" s="34"/>
-      <c r="AO103" s="34"/>
-      <c r="AP103" s="33">
+      <c r="AM103" s="30"/>
+      <c r="AN103" s="30"/>
+      <c r="AO103" s="30"/>
+      <c r="AP103" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="34"/>
-      <c r="AR103" s="34"/>
-      <c r="AS103" s="34"/>
-      <c r="AT103" s="33">
+      <c r="AQ103" s="30"/>
+      <c r="AR103" s="30"/>
+      <c r="AS103" s="30"/>
+      <c r="AT103" s="29">
         <v>2011</v>
       </c>
-      <c r="AU103" s="34"/>
-      <c r="AV103" s="34"/>
-      <c r="AW103" s="34"/>
-      <c r="AX103" s="33">
+      <c r="AU103" s="30"/>
+      <c r="AV103" s="30"/>
+      <c r="AW103" s="30"/>
+      <c r="AX103" s="29">
         <v>2012</v>
       </c>
-      <c r="AY103" s="34"/>
-      <c r="AZ103" s="34"/>
-      <c r="BA103" s="34"/>
-      <c r="BB103" s="33">
+      <c r="AY103" s="30"/>
+      <c r="AZ103" s="30"/>
+      <c r="BA103" s="30"/>
+      <c r="BB103" s="29">
         <v>2013</v>
       </c>
-      <c r="BC103" s="34"/>
-      <c r="BD103" s="34"/>
-      <c r="BE103" s="34"/>
-      <c r="BF103" s="33">
+      <c r="BC103" s="30"/>
+      <c r="BD103" s="30"/>
+      <c r="BE103" s="30"/>
+      <c r="BF103" s="29">
         <v>2014</v>
       </c>
-      <c r="BG103" s="34"/>
-      <c r="BH103" s="34"/>
-      <c r="BI103" s="34"/>
-      <c r="BJ103" s="33">
+      <c r="BG103" s="30"/>
+      <c r="BH103" s="30"/>
+      <c r="BI103" s="30"/>
+      <c r="BJ103" s="29">
         <v>2015</v>
       </c>
-      <c r="BK103" s="34"/>
-      <c r="BL103" s="34"/>
-      <c r="BM103" s="34"/>
-      <c r="BN103" s="33">
+      <c r="BK103" s="30"/>
+      <c r="BL103" s="30"/>
+      <c r="BM103" s="30"/>
+      <c r="BN103" s="29">
         <v>2016</v>
       </c>
-      <c r="BO103" s="34"/>
-      <c r="BP103" s="34"/>
-      <c r="BQ103" s="34"/>
-      <c r="BR103" s="33">
+      <c r="BO103" s="30"/>
+      <c r="BP103" s="30"/>
+      <c r="BQ103" s="30"/>
+      <c r="BR103" s="29">
         <v>2017</v>
       </c>
-      <c r="BS103" s="34"/>
-      <c r="BT103" s="34"/>
-      <c r="BU103" s="34"/>
+      <c r="BS103" s="30"/>
+      <c r="BT103" s="30"/>
+      <c r="BU103" s="30"/>
       <c r="BV103" s="31">
         <v>2018</v>
       </c>
       <c r="BW103" s="32"/>
       <c r="BX103" s="32"/>
       <c r="BY103" s="32"/>
-      <c r="BZ103" s="31">
+      <c r="BZ103" s="29">
         <v>2019</v>
       </c>
-      <c r="CA103" s="32"/>
-      <c r="CB103" s="32"/>
-      <c r="CC103" s="32"/>
-      <c r="CD103" s="33">
+      <c r="CA103" s="30"/>
+      <c r="CB103" s="30"/>
+      <c r="CC103" s="30"/>
+      <c r="CD103" s="29">
         <v>2020</v>
       </c>
-      <c r="CE103" s="33"/>
-      <c r="CF103" s="33"/>
-      <c r="CG103" s="33"/>
-      <c r="CH103" s="33">
+      <c r="CE103" s="29"/>
+      <c r="CF103" s="29"/>
+      <c r="CG103" s="29"/>
+      <c r="CH103" s="29">
         <v>2021</v>
       </c>
-      <c r="CI103" s="33"/>
-      <c r="CJ103" s="33"/>
-      <c r="CK103" s="33"/>
+      <c r="CI103" s="29"/>
+      <c r="CJ103" s="29"/>
+      <c r="CK103" s="29"/>
+      <c r="CL103" s="28">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -38205,16 +38281,16 @@
       <c r="BY104" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BZ104" s="20" t="s">
+      <c r="BZ104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA104" s="20" t="s">
+      <c r="CA104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB104" s="20" t="s">
+      <c r="CB104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC104" s="20" t="s">
+      <c r="CC104" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD104" s="6" t="s">
@@ -38241,8 +38317,11 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL104" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -38320,10 +38399,10 @@
       <c r="BW105" s="19"/>
       <c r="BX105" s="19"/>
       <c r="BY105" s="19"/>
-      <c r="BZ105" s="19"/>
-      <c r="CA105" s="19"/>
-      <c r="CB105" s="19"/>
-      <c r="CC105" s="19"/>
+      <c r="BZ105" s="3"/>
+      <c r="CA105" s="3"/>
+      <c r="CB105" s="3"/>
+      <c r="CC105" s="3"/>
       <c r="CD105" s="3"/>
       <c r="CE105" s="3"/>
       <c r="CF105" s="3"/>
@@ -38332,8 +38411,9 @@
       <c r="CI105" s="3"/>
       <c r="CJ105" s="3"/>
       <c r="CK105" s="3"/>
+      <c r="CL105" s="3"/>
     </row>
-    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
@@ -38565,43 +38645,45 @@
       <c r="BY106" s="26">
         <v>62.812882172611914</v>
       </c>
-      <c r="BZ106" s="26">
+      <c r="BZ106" s="12">
         <v>62.296108768769933</v>
       </c>
-      <c r="CA106" s="26">
+      <c r="CA106" s="12">
         <v>65.178326164509897</v>
       </c>
-      <c r="CB106" s="26">
+      <c r="CB106" s="12">
         <v>61.277931169971957</v>
       </c>
-      <c r="CC106" s="26">
+      <c r="CC106" s="12">
         <v>62.840507472100796</v>
       </c>
       <c r="CD106" s="12">
-        <v>65.725808216467115</v>
+        <v>65.923211622690317</v>
       </c>
       <c r="CE106" s="12">
-        <v>75.114488480828712</v>
+        <v>75.27815679590087</v>
       </c>
       <c r="CF106" s="12">
-        <v>67.502199734321366</v>
+        <v>67.694400793301256</v>
       </c>
       <c r="CG106" s="12">
-        <v>67.105473416386786</v>
+        <v>67.33766754834059</v>
       </c>
       <c r="CH106" s="12">
-        <v>70.235382436358407</v>
+        <v>70.418502594753789</v>
       </c>
       <c r="CI106" s="12">
-        <v>72.893028536923708</v>
+        <v>73.066068255249405</v>
       </c>
       <c r="CJ106" s="12">
-        <v>68.631933078341177</v>
+        <v>68.820538810147909</v>
       </c>
       <c r="CK106" s="12">
-        <v>68.47456191757955</v>
-      </c>
-      <c r="CL106" s="17"/>
+        <v>69.005300385501485</v>
+      </c>
+      <c r="CL106" s="12">
+        <v>71.438250454692991</v>
+      </c>
       <c r="CM106" s="17"/>
       <c r="CN106" s="17"/>
       <c r="CO106" s="17"/>
@@ -38668,7 +38750,7 @@
       <c r="EX106" s="17"/>
       <c r="EY106" s="17"/>
     </row>
-    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -38900,43 +38982,45 @@
       <c r="BY107" s="26">
         <v>37.187117827388072</v>
       </c>
-      <c r="BZ107" s="26">
+      <c r="BZ107" s="12">
         <v>37.703891231230067</v>
       </c>
-      <c r="CA107" s="26">
+      <c r="CA107" s="12">
         <v>34.82167383549011</v>
       </c>
-      <c r="CB107" s="26">
+      <c r="CB107" s="12">
         <v>38.722068830028036</v>
       </c>
-      <c r="CC107" s="26">
+      <c r="CC107" s="12">
         <v>37.159492527899211</v>
       </c>
       <c r="CD107" s="12">
-        <v>34.274191783532871</v>
+        <v>34.076788377309683</v>
       </c>
       <c r="CE107" s="12">
-        <v>24.885511519171295</v>
+        <v>24.721843204099127</v>
       </c>
       <c r="CF107" s="12">
-        <v>32.497800265678627</v>
+        <v>32.305599206698751</v>
       </c>
       <c r="CG107" s="12">
-        <v>32.894526583613207</v>
+        <v>32.662332451659424</v>
       </c>
       <c r="CH107" s="12">
-        <v>29.764617563641586</v>
+        <v>29.581497405246203</v>
       </c>
       <c r="CI107" s="12">
-        <v>27.106971463076292</v>
+        <v>26.933931744750595</v>
       </c>
       <c r="CJ107" s="12">
-        <v>31.368066921658833</v>
+        <v>31.179461189852091</v>
       </c>
       <c r="CK107" s="12">
-        <v>31.525438082420461</v>
-      </c>
-      <c r="CL107" s="17"/>
+        <v>30.994699614498504</v>
+      </c>
+      <c r="CL107" s="12">
+        <v>28.561749545307013</v>
+      </c>
       <c r="CM107" s="17"/>
       <c r="CN107" s="17"/>
       <c r="CO107" s="17"/>
@@ -39003,7 +39087,7 @@
       <c r="EX107" s="17"/>
       <c r="EY107" s="17"/>
     </row>
-    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -39080,10 +39164,10 @@
       <c r="BW108" s="22"/>
       <c r="BX108" s="22"/>
       <c r="BY108" s="22"/>
-      <c r="BZ108" s="22"/>
-      <c r="CA108" s="22"/>
-      <c r="CB108" s="22"/>
-      <c r="CC108" s="22"/>
+      <c r="BZ108" s="11"/>
+      <c r="CA108" s="11"/>
+      <c r="CB108" s="11"/>
+      <c r="CC108" s="11"/>
       <c r="CD108" s="11"/>
       <c r="CE108" s="11"/>
       <c r="CF108" s="11"/>
@@ -39092,7 +39176,7 @@
       <c r="CI108" s="11"/>
       <c r="CJ108" s="11"/>
       <c r="CK108" s="11"/>
-      <c r="CL108" s="17"/>
+      <c r="CL108" s="11"/>
       <c r="CM108" s="17"/>
       <c r="CN108" s="17"/>
       <c r="CO108" s="17"/>
@@ -39159,7 +39243,7 @@
       <c r="EX108" s="17"/>
       <c r="EY108" s="17"/>
     </row>
-    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>13</v>
       </c>
@@ -39391,16 +39475,16 @@
       <c r="BY109" s="26">
         <v>100</v>
       </c>
-      <c r="BZ109" s="26">
+      <c r="BZ109" s="12">
         <v>100</v>
       </c>
-      <c r="CA109" s="26">
+      <c r="CA109" s="12">
         <v>100</v>
       </c>
-      <c r="CB109" s="26">
+      <c r="CB109" s="12">
         <v>100</v>
       </c>
-      <c r="CC109" s="26">
+      <c r="CC109" s="12">
         <v>100</v>
       </c>
       <c r="CD109" s="12">
@@ -39427,7 +39511,9 @@
       <c r="CK109" s="12">
         <v>100</v>
       </c>
-      <c r="CL109" s="17"/>
+      <c r="CL109" s="12">
+        <v>100</v>
+      </c>
       <c r="CM109" s="17"/>
       <c r="CN109" s="17"/>
       <c r="CO109" s="17"/>
@@ -39494,7 +39580,7 @@
       <c r="EX109" s="17"/>
       <c r="EY109" s="17"/>
     </row>
-    <row r="110" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -39572,10 +39658,10 @@
       <c r="BW110" s="24"/>
       <c r="BX110" s="24"/>
       <c r="BY110" s="24"/>
-      <c r="BZ110" s="24"/>
-      <c r="CA110" s="24"/>
-      <c r="CB110" s="24"/>
-      <c r="CC110" s="24"/>
+      <c r="BZ110" s="9"/>
+      <c r="CA110" s="9"/>
+      <c r="CB110" s="9"/>
+      <c r="CC110" s="9"/>
       <c r="CD110" s="9"/>
       <c r="CE110" s="9"/>
       <c r="CF110" s="9"/>
@@ -39584,8 +39670,9 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
+      <c r="CL110" s="9"/>
     </row>
-    <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
@@ -39665,10 +39752,10 @@
       <c r="BW111" s="19"/>
       <c r="BX111" s="19"/>
       <c r="BY111" s="19"/>
-      <c r="BZ111" s="19"/>
-      <c r="CA111" s="19"/>
-      <c r="CB111" s="19"/>
-      <c r="CC111" s="19"/>
+      <c r="BZ111" s="3"/>
+      <c r="CA111" s="3"/>
+      <c r="CB111" s="3"/>
+      <c r="CC111" s="3"/>
       <c r="CD111" s="3"/>
       <c r="CE111" s="3"/>
       <c r="CF111" s="3"/>
@@ -39677,8 +39764,9 @@
       <c r="CI111" s="3"/>
       <c r="CJ111" s="3"/>
       <c r="CK111" s="3"/>
+      <c r="CL111" s="3"/>
     </row>
-    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -39755,10 +39843,10 @@
       <c r="BW112" s="22"/>
       <c r="BX112" s="22"/>
       <c r="BY112" s="22"/>
-      <c r="BZ112" s="22"/>
-      <c r="CA112" s="22"/>
-      <c r="CB112" s="22"/>
-      <c r="CC112" s="22"/>
+      <c r="BZ112" s="11"/>
+      <c r="CA112" s="11"/>
+      <c r="CB112" s="11"/>
+      <c r="CC112" s="11"/>
       <c r="CD112" s="11"/>
       <c r="CE112" s="11"/>
       <c r="CF112" s="11"/>
@@ -39767,7 +39855,7 @@
       <c r="CI112" s="11"/>
       <c r="CJ112" s="11"/>
       <c r="CK112" s="11"/>
-      <c r="CL112" s="17"/>
+      <c r="CL112" s="11"/>
       <c r="CM112" s="17"/>
       <c r="CN112" s="17"/>
       <c r="CO112" s="17"/>
@@ -39834,7 +39922,7 @@
       <c r="EX112" s="17"/>
       <c r="EY112" s="17"/>
     </row>
-    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -39911,10 +39999,10 @@
       <c r="BW113" s="22"/>
       <c r="BX113" s="22"/>
       <c r="BY113" s="22"/>
-      <c r="BZ113" s="22"/>
-      <c r="CA113" s="22"/>
-      <c r="CB113" s="22"/>
-      <c r="CC113" s="22"/>
+      <c r="BZ113" s="11"/>
+      <c r="CA113" s="11"/>
+      <c r="CB113" s="11"/>
+      <c r="CC113" s="11"/>
       <c r="CD113" s="11"/>
       <c r="CE113" s="11"/>
       <c r="CF113" s="11"/>
@@ -39923,7 +40011,7 @@
       <c r="CI113" s="11"/>
       <c r="CJ113" s="11"/>
       <c r="CK113" s="11"/>
-      <c r="CL113" s="17"/>
+      <c r="CL113" s="11"/>
       <c r="CM113" s="17"/>
       <c r="CN113" s="17"/>
       <c r="CO113" s="17"/>
@@ -39990,7 +40078,7 @@
       <c r="EX113" s="17"/>
       <c r="EY113" s="17"/>
     </row>
-    <row r="114" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
@@ -40070,10 +40158,10 @@
       <c r="BW114" s="19"/>
       <c r="BX114" s="19"/>
       <c r="BY114" s="19"/>
-      <c r="BZ114" s="19"/>
-      <c r="CA114" s="19"/>
-      <c r="CB114" s="19"/>
-      <c r="CC114" s="19"/>
+      <c r="BZ114" s="3"/>
+      <c r="CA114" s="3"/>
+      <c r="CB114" s="3"/>
+      <c r="CC114" s="3"/>
       <c r="CD114" s="3"/>
       <c r="CE114" s="3"/>
       <c r="CF114" s="3"/>
@@ -40082,8 +40170,9 @@
       <c r="CI114" s="3"/>
       <c r="CJ114" s="3"/>
       <c r="CK114" s="3"/>
+      <c r="CL114" s="3"/>
     </row>
-    <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
@@ -40163,10 +40252,10 @@
       <c r="BW115" s="19"/>
       <c r="BX115" s="19"/>
       <c r="BY115" s="19"/>
-      <c r="BZ115" s="19"/>
-      <c r="CA115" s="19"/>
-      <c r="CB115" s="19"/>
-      <c r="CC115" s="19"/>
+      <c r="BZ115" s="3"/>
+      <c r="CA115" s="3"/>
+      <c r="CB115" s="3"/>
+      <c r="CC115" s="3"/>
       <c r="CD115" s="3"/>
       <c r="CE115" s="3"/>
       <c r="CF115" s="3"/>
@@ -40175,10 +40264,11 @@
       <c r="CI115" s="3"/>
       <c r="CJ115" s="3"/>
       <c r="CK115" s="3"/>
+      <c r="CL115" s="3"/>
     </row>
-    <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -40256,10 +40346,10 @@
       <c r="BW116" s="19"/>
       <c r="BX116" s="19"/>
       <c r="BY116" s="19"/>
-      <c r="BZ116" s="19"/>
-      <c r="CA116" s="19"/>
-      <c r="CB116" s="19"/>
-      <c r="CC116" s="19"/>
+      <c r="BZ116" s="3"/>
+      <c r="CA116" s="3"/>
+      <c r="CB116" s="3"/>
+      <c r="CC116" s="3"/>
       <c r="CD116" s="3"/>
       <c r="CE116" s="3"/>
       <c r="CF116" s="3"/>
@@ -40268,8 +40358,9 @@
       <c r="CI116" s="3"/>
       <c r="CJ116" s="3"/>
       <c r="CK116" s="3"/>
+      <c r="CL116" s="3"/>
     </row>
-    <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -40347,10 +40438,10 @@
       <c r="BW117" s="19"/>
       <c r="BX117" s="19"/>
       <c r="BY117" s="19"/>
-      <c r="BZ117" s="19"/>
-      <c r="CA117" s="19"/>
-      <c r="CB117" s="19"/>
-      <c r="CC117" s="19"/>
+      <c r="BZ117" s="3"/>
+      <c r="CA117" s="3"/>
+      <c r="CB117" s="3"/>
+      <c r="CC117" s="3"/>
       <c r="CD117" s="3"/>
       <c r="CE117" s="3"/>
       <c r="CF117" s="3"/>
@@ -40359,8 +40450,9 @@
       <c r="CI117" s="3"/>
       <c r="CJ117" s="3"/>
       <c r="CK117" s="3"/>
+      <c r="CL117" s="3"/>
     </row>
-    <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>20</v>
       </c>
@@ -40440,10 +40532,10 @@
       <c r="BW118" s="19"/>
       <c r="BX118" s="19"/>
       <c r="BY118" s="19"/>
-      <c r="BZ118" s="19"/>
-      <c r="CA118" s="19"/>
-      <c r="CB118" s="19"/>
-      <c r="CC118" s="19"/>
+      <c r="BZ118" s="3"/>
+      <c r="CA118" s="3"/>
+      <c r="CB118" s="3"/>
+      <c r="CC118" s="3"/>
       <c r="CD118" s="3"/>
       <c r="CE118" s="3"/>
       <c r="CF118" s="3"/>
@@ -40452,10 +40544,11 @@
       <c r="CI118" s="3"/>
       <c r="CJ118" s="3"/>
       <c r="CK118" s="3"/>
+      <c r="CL118" s="3"/>
     </row>
-    <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -40533,10 +40626,10 @@
       <c r="BW119" s="19"/>
       <c r="BX119" s="19"/>
       <c r="BY119" s="19"/>
-      <c r="BZ119" s="19"/>
-      <c r="CA119" s="19"/>
-      <c r="CB119" s="19"/>
-      <c r="CC119" s="19"/>
+      <c r="BZ119" s="3"/>
+      <c r="CA119" s="3"/>
+      <c r="CB119" s="3"/>
+      <c r="CC119" s="3"/>
       <c r="CD119" s="3"/>
       <c r="CE119" s="3"/>
       <c r="CF119" s="3"/>
@@ -40545,8 +40638,9 @@
       <c r="CI119" s="3"/>
       <c r="CJ119" s="3"/>
       <c r="CK119" s="3"/>
+      <c r="CL119" s="3"/>
     </row>
-    <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>24</v>
       </c>
@@ -40626,10 +40720,10 @@
       <c r="BW120" s="19"/>
       <c r="BX120" s="19"/>
       <c r="BY120" s="19"/>
-      <c r="BZ120" s="19"/>
-      <c r="CA120" s="19"/>
-      <c r="CB120" s="19"/>
-      <c r="CC120" s="19"/>
+      <c r="BZ120" s="3"/>
+      <c r="CA120" s="3"/>
+      <c r="CB120" s="3"/>
+      <c r="CC120" s="3"/>
       <c r="CD120" s="3"/>
       <c r="CE120" s="3"/>
       <c r="CF120" s="3"/>
@@ -40638,8 +40732,9 @@
       <c r="CI120" s="3"/>
       <c r="CJ120" s="3"/>
       <c r="CK120" s="3"/>
+      <c r="CL120" s="3"/>
     </row>
-    <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -40717,10 +40812,10 @@
       <c r="BW121" s="19"/>
       <c r="BX121" s="19"/>
       <c r="BY121" s="19"/>
-      <c r="BZ121" s="19"/>
-      <c r="CA121" s="19"/>
-      <c r="CB121" s="19"/>
-      <c r="CC121" s="19"/>
+      <c r="BZ121" s="3"/>
+      <c r="CA121" s="3"/>
+      <c r="CB121" s="3"/>
+      <c r="CC121" s="3"/>
       <c r="CD121" s="3"/>
       <c r="CE121" s="3"/>
       <c r="CF121" s="3"/>
@@ -40729,143 +40824,147 @@
       <c r="CI121" s="3"/>
       <c r="CJ121" s="3"/>
       <c r="CK121" s="3"/>
+      <c r="CL121" s="3"/>
     </row>
-    <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="33">
+      <c r="B122" s="29">
         <v>2000</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="33">
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="29">
         <v>2001</v>
       </c>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="33">
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="29">
         <v>2002</v>
       </c>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="33">
+      <c r="K122" s="30"/>
+      <c r="L122" s="30"/>
+      <c r="M122" s="30"/>
+      <c r="N122" s="29">
         <v>2003</v>
       </c>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
-      <c r="R122" s="33">
+      <c r="O122" s="30"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="30"/>
+      <c r="R122" s="29">
         <v>2004</v>
       </c>
-      <c r="S122" s="34"/>
-      <c r="T122" s="34"/>
-      <c r="U122" s="34"/>
-      <c r="V122" s="33">
+      <c r="S122" s="30"/>
+      <c r="T122" s="30"/>
+      <c r="U122" s="30"/>
+      <c r="V122" s="29">
         <v>2005</v>
       </c>
-      <c r="W122" s="34"/>
-      <c r="X122" s="34"/>
-      <c r="Y122" s="34"/>
-      <c r="Z122" s="33">
+      <c r="W122" s="30"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="29">
         <v>2006</v>
       </c>
-      <c r="AA122" s="34"/>
-      <c r="AB122" s="34"/>
-      <c r="AC122" s="34"/>
-      <c r="AD122" s="33">
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="30"/>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="29">
         <v>2007</v>
       </c>
-      <c r="AE122" s="34"/>
-      <c r="AF122" s="34"/>
-      <c r="AG122" s="34"/>
-      <c r="AH122" s="33">
+      <c r="AE122" s="30"/>
+      <c r="AF122" s="30"/>
+      <c r="AG122" s="30"/>
+      <c r="AH122" s="29">
         <v>2008</v>
       </c>
-      <c r="AI122" s="34"/>
-      <c r="AJ122" s="34"/>
-      <c r="AK122" s="34"/>
-      <c r="AL122" s="33">
+      <c r="AI122" s="30"/>
+      <c r="AJ122" s="30"/>
+      <c r="AK122" s="30"/>
+      <c r="AL122" s="29">
         <v>2009</v>
       </c>
-      <c r="AM122" s="34"/>
-      <c r="AN122" s="34"/>
-      <c r="AO122" s="34"/>
-      <c r="AP122" s="33">
+      <c r="AM122" s="30"/>
+      <c r="AN122" s="30"/>
+      <c r="AO122" s="30"/>
+      <c r="AP122" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="34"/>
-      <c r="AR122" s="34"/>
-      <c r="AS122" s="34"/>
-      <c r="AT122" s="33">
+      <c r="AQ122" s="30"/>
+      <c r="AR122" s="30"/>
+      <c r="AS122" s="30"/>
+      <c r="AT122" s="29">
         <v>2011</v>
       </c>
-      <c r="AU122" s="34"/>
-      <c r="AV122" s="34"/>
-      <c r="AW122" s="34"/>
-      <c r="AX122" s="33">
+      <c r="AU122" s="30"/>
+      <c r="AV122" s="30"/>
+      <c r="AW122" s="30"/>
+      <c r="AX122" s="29">
         <v>2012</v>
       </c>
-      <c r="AY122" s="34"/>
-      <c r="AZ122" s="34"/>
-      <c r="BA122" s="34"/>
-      <c r="BB122" s="33">
+      <c r="AY122" s="30"/>
+      <c r="AZ122" s="30"/>
+      <c r="BA122" s="30"/>
+      <c r="BB122" s="29">
         <v>2013</v>
       </c>
-      <c r="BC122" s="34"/>
-      <c r="BD122" s="34"/>
-      <c r="BE122" s="34"/>
-      <c r="BF122" s="33">
+      <c r="BC122" s="30"/>
+      <c r="BD122" s="30"/>
+      <c r="BE122" s="30"/>
+      <c r="BF122" s="29">
         <v>2014</v>
       </c>
-      <c r="BG122" s="34"/>
-      <c r="BH122" s="34"/>
-      <c r="BI122" s="34"/>
-      <c r="BJ122" s="33">
+      <c r="BG122" s="30"/>
+      <c r="BH122" s="30"/>
+      <c r="BI122" s="30"/>
+      <c r="BJ122" s="29">
         <v>2015</v>
       </c>
-      <c r="BK122" s="34"/>
-      <c r="BL122" s="34"/>
-      <c r="BM122" s="34"/>
-      <c r="BN122" s="33">
+      <c r="BK122" s="30"/>
+      <c r="BL122" s="30"/>
+      <c r="BM122" s="30"/>
+      <c r="BN122" s="29">
         <v>2016</v>
       </c>
-      <c r="BO122" s="34"/>
-      <c r="BP122" s="34"/>
-      <c r="BQ122" s="34"/>
-      <c r="BR122" s="33">
+      <c r="BO122" s="30"/>
+      <c r="BP122" s="30"/>
+      <c r="BQ122" s="30"/>
+      <c r="BR122" s="29">
         <v>2017</v>
       </c>
-      <c r="BS122" s="34"/>
-      <c r="BT122" s="34"/>
-      <c r="BU122" s="34"/>
+      <c r="BS122" s="30"/>
+      <c r="BT122" s="30"/>
+      <c r="BU122" s="30"/>
       <c r="BV122" s="31">
         <v>2018</v>
       </c>
       <c r="BW122" s="32"/>
       <c r="BX122" s="32"/>
       <c r="BY122" s="32"/>
-      <c r="BZ122" s="31">
+      <c r="BZ122" s="29">
         <v>2019</v>
       </c>
-      <c r="CA122" s="32"/>
-      <c r="CB122" s="32"/>
-      <c r="CC122" s="32"/>
-      <c r="CD122" s="33">
+      <c r="CA122" s="30"/>
+      <c r="CB122" s="30"/>
+      <c r="CC122" s="30"/>
+      <c r="CD122" s="29">
         <v>2020</v>
       </c>
-      <c r="CE122" s="33"/>
-      <c r="CF122" s="33"/>
-      <c r="CG122" s="33"/>
-      <c r="CH122" s="33">
+      <c r="CE122" s="29"/>
+      <c r="CF122" s="29"/>
+      <c r="CG122" s="29"/>
+      <c r="CH122" s="29">
         <v>2021</v>
       </c>
-      <c r="CI122" s="33"/>
-      <c r="CJ122" s="33"/>
-      <c r="CK122" s="33"/>
+      <c r="CI122" s="29"/>
+      <c r="CJ122" s="29"/>
+      <c r="CK122" s="29"/>
+      <c r="CL122" s="28">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -41097,16 +41196,16 @@
       <c r="BY123" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BZ123" s="20" t="s">
+      <c r="BZ123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA123" s="20" t="s">
+      <c r="CA123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB123" s="20" t="s">
+      <c r="CB123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC123" s="20" t="s">
+      <c r="CC123" s="6" t="s">
         <v>9</v>
       </c>
       <c r="CD123" s="6" t="s">
@@ -41133,8 +41232,11 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="CL123" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -41212,10 +41314,10 @@
       <c r="BW124" s="19"/>
       <c r="BX124" s="19"/>
       <c r="BY124" s="19"/>
-      <c r="BZ124" s="19"/>
-      <c r="CA124" s="19"/>
-      <c r="CB124" s="19"/>
-      <c r="CC124" s="19"/>
+      <c r="BZ124" s="3"/>
+      <c r="CA124" s="3"/>
+      <c r="CB124" s="3"/>
+      <c r="CC124" s="3"/>
       <c r="CD124" s="3"/>
       <c r="CE124" s="3"/>
       <c r="CF124" s="3"/>
@@ -41224,8 +41326,9 @@
       <c r="CI124" s="3"/>
       <c r="CJ124" s="3"/>
       <c r="CK124" s="3"/>
+      <c r="CL124" s="3"/>
     </row>
-    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>11</v>
       </c>
@@ -41457,43 +41560,45 @@
       <c r="BY125" s="26">
         <v>60.069011131153481</v>
       </c>
-      <c r="BZ125" s="26">
+      <c r="BZ125" s="12">
         <v>61.785096520180524</v>
       </c>
-      <c r="CA125" s="26">
+      <c r="CA125" s="12">
         <v>64.48803017435101</v>
       </c>
-      <c r="CB125" s="26">
+      <c r="CB125" s="12">
         <v>62.709797931754416</v>
       </c>
-      <c r="CC125" s="26">
+      <c r="CC125" s="12">
         <v>61.064753355184145</v>
       </c>
       <c r="CD125" s="12">
-        <v>65.548947165037944</v>
+        <v>65.7468383433567</v>
       </c>
       <c r="CE125" s="12">
-        <v>74.941559676246513</v>
+        <v>75.105988391999261</v>
       </c>
       <c r="CF125" s="12">
-        <v>68.406970505550717</v>
+        <v>68.596309946127604</v>
       </c>
       <c r="CG125" s="12">
-        <v>65.260287939815512</v>
+        <v>65.498810332244034</v>
       </c>
       <c r="CH125" s="12">
-        <v>69.354587374836555</v>
+        <v>69.540776396995113</v>
       </c>
       <c r="CI125" s="12">
-        <v>72.603425511924485</v>
+        <v>72.777623525065962</v>
       </c>
       <c r="CJ125" s="12">
-        <v>69.120623088278137</v>
+        <v>69.307604519523863</v>
       </c>
       <c r="CK125" s="12">
-        <v>66.085991051671883</v>
-      </c>
-      <c r="CL125" s="17"/>
+        <v>66.63734924006063</v>
+      </c>
+      <c r="CL125" s="12">
+        <v>69.685933955998735</v>
+      </c>
       <c r="CM125" s="17"/>
       <c r="CN125" s="17"/>
       <c r="CO125" s="17"/>
@@ -41560,7 +41665,7 @@
       <c r="EX125" s="17"/>
       <c r="EY125" s="17"/>
     </row>
-    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -41792,43 +41897,45 @@
       <c r="BY126" s="26">
         <v>39.930988868846526</v>
       </c>
-      <c r="BZ126" s="26">
+      <c r="BZ126" s="12">
         <v>38.214903479819476</v>
       </c>
-      <c r="CA126" s="26">
+      <c r="CA126" s="12">
         <v>35.511969825648997</v>
       </c>
-      <c r="CB126" s="26">
+      <c r="CB126" s="12">
         <v>37.290202068245584</v>
       </c>
-      <c r="CC126" s="26">
+      <c r="CC126" s="12">
         <v>38.935246644815855</v>
       </c>
       <c r="CD126" s="12">
-        <v>34.451052834962049</v>
+        <v>34.253161656643293</v>
       </c>
       <c r="CE126" s="12">
-        <v>25.058440323753484</v>
+        <v>24.894011608000735</v>
       </c>
       <c r="CF126" s="12">
-        <v>31.593029494449283</v>
+        <v>31.403690053872385</v>
       </c>
       <c r="CG126" s="12">
-        <v>34.739712060184488</v>
+        <v>34.501189667755966</v>
       </c>
       <c r="CH126" s="12">
-        <v>30.645412625163456</v>
+        <v>30.459223603004887</v>
       </c>
       <c r="CI126" s="12">
-        <v>27.396574488075519</v>
+        <v>27.222376474934041</v>
       </c>
       <c r="CJ126" s="12">
-        <v>30.879376911721845</v>
+        <v>30.692395480476144</v>
       </c>
       <c r="CK126" s="12">
-        <v>33.914008948328117</v>
-      </c>
-      <c r="CL126" s="17"/>
+        <v>33.36265075993937</v>
+      </c>
+      <c r="CL126" s="12">
+        <v>30.314066044001269</v>
+      </c>
       <c r="CM126" s="17"/>
       <c r="CN126" s="17"/>
       <c r="CO126" s="17"/>
@@ -41895,7 +42002,7 @@
       <c r="EX126" s="17"/>
       <c r="EY126" s="17"/>
     </row>
-    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -41972,10 +42079,10 @@
       <c r="BW127" s="22"/>
       <c r="BX127" s="22"/>
       <c r="BY127" s="22"/>
-      <c r="BZ127" s="22"/>
-      <c r="CA127" s="22"/>
-      <c r="CB127" s="22"/>
-      <c r="CC127" s="22"/>
+      <c r="BZ127" s="11"/>
+      <c r="CA127" s="11"/>
+      <c r="CB127" s="11"/>
+      <c r="CC127" s="11"/>
       <c r="CD127" s="11"/>
       <c r="CE127" s="11"/>
       <c r="CF127" s="11"/>
@@ -41984,7 +42091,7 @@
       <c r="CI127" s="11"/>
       <c r="CJ127" s="11"/>
       <c r="CK127" s="11"/>
-      <c r="CL127" s="17"/>
+      <c r="CL127" s="11"/>
       <c r="CM127" s="17"/>
       <c r="CN127" s="17"/>
       <c r="CO127" s="17"/>
@@ -42051,7 +42158,7 @@
       <c r="EX127" s="17"/>
       <c r="EY127" s="17"/>
     </row>
-    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>13</v>
       </c>
@@ -42283,16 +42390,16 @@
       <c r="BY128" s="26">
         <v>100</v>
       </c>
-      <c r="BZ128" s="26">
+      <c r="BZ128" s="12">
         <v>100</v>
       </c>
-      <c r="CA128" s="26">
+      <c r="CA128" s="12">
         <v>100</v>
       </c>
-      <c r="CB128" s="26">
+      <c r="CB128" s="12">
         <v>100</v>
       </c>
-      <c r="CC128" s="26">
+      <c r="CC128" s="12">
         <v>100</v>
       </c>
       <c r="CD128" s="12">
@@ -42319,7 +42426,9 @@
       <c r="CK128" s="12">
         <v>100</v>
       </c>
-      <c r="CL128" s="17"/>
+      <c r="CL128" s="12">
+        <v>100</v>
+      </c>
       <c r="CM128" s="17"/>
       <c r="CN128" s="17"/>
       <c r="CO128" s="17"/>
@@ -42386,7 +42495,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:89" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:90" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -42464,10 +42573,10 @@
       <c r="BW129" s="24"/>
       <c r="BX129" s="24"/>
       <c r="BY129" s="24"/>
-      <c r="BZ129" s="24"/>
-      <c r="CA129" s="24"/>
-      <c r="CB129" s="24"/>
-      <c r="CC129" s="24"/>
+      <c r="BZ129" s="9"/>
+      <c r="CA129" s="9"/>
+      <c r="CB129" s="9"/>
+      <c r="CC129" s="9"/>
       <c r="CD129" s="9"/>
       <c r="CE129" s="9"/>
       <c r="CF129" s="9"/>
@@ -42476,8 +42585,9 @@
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
+      <c r="CL129" s="9"/>
     </row>
-    <row r="130" spans="1:89" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:90" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -42557,10 +42667,10 @@
       <c r="BW130" s="19"/>
       <c r="BX130" s="19"/>
       <c r="BY130" s="19"/>
-      <c r="BZ130" s="19"/>
-      <c r="CA130" s="19"/>
-      <c r="CB130" s="19"/>
-      <c r="CC130" s="19"/>
+      <c r="BZ130" s="3"/>
+      <c r="CA130" s="3"/>
+      <c r="CB130" s="3"/>
+      <c r="CC130" s="3"/>
       <c r="CD130" s="3"/>
       <c r="CE130" s="3"/>
       <c r="CF130" s="3"/>
@@ -42569,6 +42679,62 @@
       <c r="CI130" s="3"/>
       <c r="CJ130" s="3"/>
       <c r="CK130" s="3"/>
+      <c r="CL130" s="3"/>
+    </row>
+    <row r="133" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD133" s="16"/>
+      <c r="CE133" s="16"/>
+      <c r="CF133" s="16"/>
+      <c r="CG133" s="16"/>
+      <c r="CH133" s="16"/>
+      <c r="CI133" s="16"/>
+      <c r="CJ133" s="16"/>
+      <c r="CK133" s="16"/>
+      <c r="CL133" s="16"/>
+    </row>
+    <row r="134" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD134" s="16"/>
+      <c r="CE134" s="16"/>
+      <c r="CF134" s="16"/>
+      <c r="CG134" s="16"/>
+      <c r="CH134" s="16"/>
+      <c r="CI134" s="16"/>
+      <c r="CJ134" s="16"/>
+      <c r="CK134" s="16"/>
+      <c r="CL134" s="16"/>
+    </row>
+    <row r="135" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD135" s="16"/>
+      <c r="CE135" s="16"/>
+      <c r="CF135" s="16"/>
+      <c r="CG135" s="16"/>
+      <c r="CH135" s="16"/>
+      <c r="CI135" s="16"/>
+      <c r="CJ135" s="16"/>
+      <c r="CK135" s="16"/>
+      <c r="CL135" s="16"/>
+    </row>
+    <row r="136" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD136" s="16"/>
+      <c r="CE136" s="16"/>
+      <c r="CF136" s="16"/>
+      <c r="CG136" s="16"/>
+      <c r="CH136" s="16"/>
+      <c r="CI136" s="16"/>
+      <c r="CJ136" s="16"/>
+      <c r="CK136" s="16"/>
+      <c r="CL136" s="16"/>
+    </row>
+    <row r="137" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD137" s="16"/>
+      <c r="CE137" s="16"/>
+      <c r="CF137" s="16"/>
+      <c r="CG137" s="16"/>
+      <c r="CH137" s="16"/>
+      <c r="CI137" s="16"/>
+      <c r="CJ137" s="16"/>
+      <c r="CK137" s="16"/>
+      <c r="CL137" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="152">
@@ -42600,8 +42766,6 @@
     <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="AL66:AO66"/>
     <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
@@ -42647,6 +42811,8 @@
     <mergeCell ref="AP28:AS28"/>
     <mergeCell ref="AT28:AW28"/>
     <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
@@ -42730,9 +42896,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="88" man="1"/>
-    <brk id="76" max="88" man="1"/>
-    <brk id="94" max="88" man="1"/>
+    <brk id="38" max="89" man="1"/>
+    <brk id="76" max="89" man="1"/>
+    <brk id="94" max="89" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFA8AE9-14EA-4E0C-ACCB-0F4D6FED09F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74C935-FF86-447C-B38A-D5E594FF6EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CL$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CM$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -612,13 +612,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -626,10 +626,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -711,12 +711,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -737,27 +739,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -766,26 +759,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{7C055B27-A413-407A-9E66-A5F90DA42B62}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B5FABBB2-7737-47FF-8B5E-6AA606D8DA00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23637,84 +23617,54 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY137"/>
+  <dimension ref="A1:EY130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A73" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CI62" sqref="CI62:CM76"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="73" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="78" max="90" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="15"/>
+    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
+    <col min="2" max="91" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
     </row>
-    <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BV2" s="18"/>
-      <c r="BW2" s="18"/>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="18"/>
     </row>
-    <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
     </row>
-    <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="BV4" s="18"/>
-      <c r="BW4" s="18"/>
-      <c r="BX4" s="18"/>
-      <c r="BY4" s="18"/>
     </row>
-    <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BV5" s="18"/>
-      <c r="BW5" s="18"/>
-      <c r="BX5" s="18"/>
-      <c r="BY5" s="18"/>
     </row>
-    <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BV6" s="18"/>
-      <c r="BW6" s="18"/>
-      <c r="BX6" s="18"/>
-      <c r="BY6" s="18"/>
     </row>
-    <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BV7" s="18"/>
-      <c r="BW7" s="18"/>
-      <c r="BX7" s="18"/>
-      <c r="BY7" s="18"/>
     </row>
-    <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -23788,10 +23738,10 @@
       <c r="BS8" s="3"/>
       <c r="BT8" s="3"/>
       <c r="BU8" s="3"/>
-      <c r="BV8" s="19"/>
-      <c r="BW8" s="19"/>
-      <c r="BX8" s="19"/>
-      <c r="BY8" s="19"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
       <c r="BZ8" s="3"/>
       <c r="CA8" s="3"/>
       <c r="CB8" s="3"/>
@@ -23805,146 +23755,148 @@
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
       <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
     </row>
-    <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="31">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="29">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="28">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
+      <c r="CM9" s="22"/>
     </row>
-    <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24164,16 +24116,16 @@
       <c r="BU10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV10" s="20" t="s">
+      <c r="BV10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW10" s="20" t="s">
+      <c r="BW10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX10" s="20" t="s">
+      <c r="BX10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY10" s="20" t="s">
+      <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ10" s="6" t="s">
@@ -24215,8 +24167,11 @@
       <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -24290,10 +24245,10 @@
       <c r="BS11" s="3"/>
       <c r="BT11" s="3"/>
       <c r="BU11" s="3"/>
-      <c r="BV11" s="19"/>
-      <c r="BW11" s="19"/>
-      <c r="BX11" s="19"/>
-      <c r="BY11" s="19"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
       <c r="BZ11" s="3"/>
       <c r="CA11" s="3"/>
       <c r="CB11" s="3"/>
@@ -24307,8 +24262,9 @@
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
       <c r="CL11" s="3"/>
+      <c r="CM11" s="3"/>
     </row>
-    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -24528,16 +24484,16 @@
       <c r="BU12" s="13">
         <v>95773.779914172585</v>
       </c>
-      <c r="BV12" s="21">
+      <c r="BV12" s="13">
         <v>97168.9748582514</v>
       </c>
-      <c r="BW12" s="21">
+      <c r="BW12" s="13">
         <v>123408.46020805498</v>
       </c>
-      <c r="BX12" s="21">
+      <c r="BX12" s="13">
         <v>114324.649077396</v>
       </c>
-      <c r="BY12" s="21">
+      <c r="BY12" s="13">
         <v>121669.15606099772</v>
       </c>
       <c r="BZ12" s="13">
@@ -24579,7 +24535,9 @@
       <c r="CL12" s="13">
         <v>147367.12349501514</v>
       </c>
-      <c r="CM12" s="17"/>
+      <c r="CM12" s="13">
+        <v>176449.81994385709</v>
+      </c>
       <c r="CN12" s="17"/>
       <c r="CO12" s="17"/>
       <c r="CP12" s="17"/>
@@ -24645,7 +24603,7 @@
       <c r="EX12" s="17"/>
       <c r="EY12" s="17"/>
     </row>
-    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -24865,16 +24823,16 @@
       <c r="BU13" s="13">
         <v>68769.514780795493</v>
       </c>
-      <c r="BV13" s="21">
+      <c r="BV13" s="13">
         <v>59759.344302480102</v>
       </c>
-      <c r="BW13" s="21">
+      <c r="BW13" s="13">
         <v>74486.282081585901</v>
       </c>
-      <c r="BX13" s="21">
+      <c r="BX13" s="13">
         <v>68758.592475529294</v>
       </c>
-      <c r="BY13" s="21">
+      <c r="BY13" s="13">
         <v>72031.804399066445</v>
       </c>
       <c r="BZ13" s="13">
@@ -24914,9 +24872,11 @@
         <v>62917.475082154022</v>
       </c>
       <c r="CL13" s="13">
-        <v>58918.896329164592</v>
-      </c>
-      <c r="CM13" s="17"/>
+        <v>60108.603286259393</v>
+      </c>
+      <c r="CM13" s="13">
+        <v>63235.534368817331</v>
+      </c>
       <c r="CN13" s="17"/>
       <c r="CO13" s="17"/>
       <c r="CP13" s="17"/>
@@ -24982,7 +24942,7 @@
       <c r="EX13" s="17"/>
       <c r="EY13" s="17"/>
     </row>
-    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -25055,10 +25015,10 @@
       <c r="BS14" s="11"/>
       <c r="BT14" s="11"/>
       <c r="BU14" s="11"/>
-      <c r="BV14" s="22"/>
-      <c r="BW14" s="22"/>
-      <c r="BX14" s="22"/>
-      <c r="BY14" s="22"/>
+      <c r="BV14" s="11"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="11"/>
+      <c r="BY14" s="11"/>
       <c r="BZ14" s="11"/>
       <c r="CA14" s="11"/>
       <c r="CB14" s="11"/>
@@ -25072,7 +25032,7 @@
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
       <c r="CL14" s="11"/>
-      <c r="CM14" s="17"/>
+      <c r="CM14" s="11"/>
       <c r="CN14" s="17"/>
       <c r="CO14" s="17"/>
       <c r="CP14" s="17"/>
@@ -25138,7 +25098,7 @@
       <c r="EX14" s="17"/>
       <c r="EY14" s="17"/>
     </row>
-    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -25358,40 +25318,40 @@
       <c r="BU15" s="14">
         <v>164543.29469496809</v>
       </c>
-      <c r="BV15" s="23">
+      <c r="BV15" s="18">
         <v>156928.31916073151</v>
       </c>
-      <c r="BW15" s="23">
+      <c r="BW15" s="18">
         <v>197894.74228964088</v>
       </c>
-      <c r="BX15" s="23">
+      <c r="BX15" s="18">
         <v>183083.24155292529</v>
       </c>
-      <c r="BY15" s="23">
+      <c r="BY15" s="18">
         <v>193700.96046006418</v>
       </c>
-      <c r="BZ15" s="14">
+      <c r="BZ15" s="18">
         <v>165570.69016084884</v>
       </c>
-      <c r="CA15" s="14">
+      <c r="CA15" s="18">
         <v>217249.63423793536</v>
       </c>
-      <c r="CB15" s="14">
+      <c r="CB15" s="18">
         <v>190545.21674985019</v>
       </c>
-      <c r="CC15" s="14">
+      <c r="CC15" s="18">
         <v>205502.06466061054</v>
       </c>
-      <c r="CD15" s="14">
+      <c r="CD15" s="18">
         <v>177052.33105261222</v>
       </c>
-      <c r="CE15" s="14">
+      <c r="CE15" s="18">
         <v>193793.5244966539</v>
       </c>
-      <c r="CF15" s="14">
+      <c r="CF15" s="18">
         <v>162772.10881058546</v>
       </c>
-      <c r="CG15" s="14">
+      <c r="CG15" s="18">
         <v>185875.5566478252</v>
       </c>
       <c r="CH15" s="14">
@@ -25407,9 +25367,11 @@
         <v>202994.30504150741</v>
       </c>
       <c r="CL15" s="14">
-        <v>206286.01982417973</v>
-      </c>
-      <c r="CM15" s="17"/>
+        <v>207475.72678127454</v>
+      </c>
+      <c r="CM15" s="14">
+        <v>239685.35431267443</v>
+      </c>
       <c r="CN15" s="17"/>
       <c r="CO15" s="17"/>
       <c r="CP15" s="17"/>
@@ -25475,7 +25437,7 @@
       <c r="EX15" s="17"/>
       <c r="EY15" s="17"/>
     </row>
-    <row r="16" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -25549,10 +25511,10 @@
       <c r="BS16" s="9"/>
       <c r="BT16" s="9"/>
       <c r="BU16" s="9"/>
-      <c r="BV16" s="24"/>
-      <c r="BW16" s="24"/>
-      <c r="BX16" s="24"/>
-      <c r="BY16" s="24"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
       <c r="BZ16" s="9"/>
       <c r="CA16" s="9"/>
       <c r="CB16" s="9"/>
@@ -25566,8 +25528,9 @@
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
     </row>
-    <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -25643,10 +25606,10 @@
       <c r="BS17" s="3"/>
       <c r="BT17" s="3"/>
       <c r="BU17" s="3"/>
-      <c r="BV17" s="19"/>
-      <c r="BW17" s="19"/>
-      <c r="BX17" s="19"/>
-      <c r="BY17" s="19"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
       <c r="BZ17" s="3"/>
       <c r="CA17" s="3"/>
       <c r="CB17" s="3"/>
@@ -25660,8 +25623,9 @@
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
       <c r="CL17" s="3"/>
+      <c r="CM17" s="3"/>
     </row>
-    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -25734,10 +25698,10 @@
       <c r="BS18" s="11"/>
       <c r="BT18" s="11"/>
       <c r="BU18" s="11"/>
-      <c r="BV18" s="22"/>
-      <c r="BW18" s="22"/>
-      <c r="BX18" s="22"/>
-      <c r="BY18" s="22"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
       <c r="BZ18" s="11"/>
       <c r="CA18" s="11"/>
       <c r="CB18" s="11"/>
@@ -25751,7 +25715,7 @@
       <c r="CJ18" s="11"/>
       <c r="CK18" s="11"/>
       <c r="CL18" s="11"/>
-      <c r="CM18" s="17"/>
+      <c r="CM18" s="11"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
       <c r="CP18" s="17"/>
@@ -25817,7 +25781,7 @@
       <c r="EX18" s="17"/>
       <c r="EY18" s="17"/>
     </row>
-    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -25890,10 +25854,10 @@
       <c r="BS19" s="11"/>
       <c r="BT19" s="11"/>
       <c r="BU19" s="11"/>
-      <c r="BV19" s="22"/>
-      <c r="BW19" s="22"/>
-      <c r="BX19" s="22"/>
-      <c r="BY19" s="22"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
       <c r="BZ19" s="11"/>
       <c r="CA19" s="11"/>
       <c r="CB19" s="11"/>
@@ -25907,7 +25871,7 @@
       <c r="CJ19" s="11"/>
       <c r="CK19" s="11"/>
       <c r="CL19" s="11"/>
-      <c r="CM19" s="17"/>
+      <c r="CM19" s="11"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
       <c r="CP19" s="17"/>
@@ -25973,7 +25937,7 @@
       <c r="EX19" s="17"/>
       <c r="EY19" s="17"/>
     </row>
-    <row r="20" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -26049,10 +26013,10 @@
       <c r="BS20" s="3"/>
       <c r="BT20" s="3"/>
       <c r="BU20" s="3"/>
-      <c r="BV20" s="19"/>
-      <c r="BW20" s="19"/>
-      <c r="BX20" s="19"/>
-      <c r="BY20" s="19"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
       <c r="BZ20" s="3"/>
       <c r="CA20" s="3"/>
       <c r="CB20" s="3"/>
@@ -26066,8 +26030,9 @@
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
       <c r="CL20" s="3"/>
+      <c r="CM20" s="3"/>
     </row>
-    <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -26143,10 +26108,10 @@
       <c r="BS21" s="3"/>
       <c r="BT21" s="3"/>
       <c r="BU21" s="3"/>
-      <c r="BV21" s="19"/>
-      <c r="BW21" s="19"/>
-      <c r="BX21" s="19"/>
-      <c r="BY21" s="19"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
       <c r="BZ21" s="3"/>
       <c r="CA21" s="3"/>
       <c r="CB21" s="3"/>
@@ -26160,8 +26125,9 @@
       <c r="CJ21" s="3"/>
       <c r="CK21" s="3"/>
       <c r="CL21" s="3"/>
+      <c r="CM21" s="3"/>
     </row>
-    <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -26237,10 +26203,10 @@
       <c r="BS22" s="3"/>
       <c r="BT22" s="3"/>
       <c r="BU22" s="3"/>
-      <c r="BV22" s="19"/>
-      <c r="BW22" s="19"/>
-      <c r="BX22" s="19"/>
-      <c r="BY22" s="19"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3"/>
+      <c r="BX22" s="3"/>
+      <c r="BY22" s="3"/>
       <c r="BZ22" s="3"/>
       <c r="CA22" s="3"/>
       <c r="CB22" s="3"/>
@@ -26254,8 +26220,9 @@
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
       <c r="CL22" s="3"/>
+      <c r="CM22" s="3"/>
     </row>
-    <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -26329,10 +26296,10 @@
       <c r="BS23" s="3"/>
       <c r="BT23" s="3"/>
       <c r="BU23" s="3"/>
-      <c r="BV23" s="19"/>
-      <c r="BW23" s="19"/>
-      <c r="BX23" s="19"/>
-      <c r="BY23" s="19"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
       <c r="BZ23" s="3"/>
       <c r="CA23" s="3"/>
       <c r="CB23" s="3"/>
@@ -26346,8 +26313,9 @@
       <c r="CJ23" s="3"/>
       <c r="CK23" s="3"/>
       <c r="CL23" s="3"/>
+      <c r="CM23" s="3"/>
     </row>
-    <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -26423,10 +26391,10 @@
       <c r="BS24" s="3"/>
       <c r="BT24" s="3"/>
       <c r="BU24" s="3"/>
-      <c r="BV24" s="19"/>
-      <c r="BW24" s="19"/>
-      <c r="BX24" s="19"/>
-      <c r="BY24" s="19"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
       <c r="BZ24" s="3"/>
       <c r="CA24" s="3"/>
       <c r="CB24" s="3"/>
@@ -26440,8 +26408,9 @@
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
       <c r="CL24" s="3"/>
+      <c r="CM24" s="3"/>
     </row>
-    <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -26517,10 +26486,10 @@
       <c r="BS25" s="3"/>
       <c r="BT25" s="3"/>
       <c r="BU25" s="3"/>
-      <c r="BV25" s="19"/>
-      <c r="BW25" s="19"/>
-      <c r="BX25" s="19"/>
-      <c r="BY25" s="19"/>
+      <c r="BV25" s="3"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
       <c r="BZ25" s="3"/>
       <c r="CA25" s="3"/>
       <c r="CB25" s="3"/>
@@ -26534,8 +26503,9 @@
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
       <c r="CL25" s="3"/>
+      <c r="CM25" s="3"/>
     </row>
-    <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -26611,10 +26581,10 @@
       <c r="BS26" s="3"/>
       <c r="BT26" s="3"/>
       <c r="BU26" s="3"/>
-      <c r="BV26" s="19"/>
-      <c r="BW26" s="19"/>
-      <c r="BX26" s="19"/>
-      <c r="BY26" s="19"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
       <c r="BZ26" s="3"/>
       <c r="CA26" s="3"/>
       <c r="CB26" s="3"/>
@@ -26628,8 +26598,9 @@
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
       <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
     </row>
-    <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -26703,10 +26674,10 @@
       <c r="BS27" s="3"/>
       <c r="BT27" s="3"/>
       <c r="BU27" s="3"/>
-      <c r="BV27" s="19"/>
-      <c r="BW27" s="19"/>
-      <c r="BX27" s="19"/>
-      <c r="BY27" s="19"/>
+      <c r="BV27" s="3"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3"/>
       <c r="BZ27" s="3"/>
       <c r="CA27" s="3"/>
       <c r="CB27" s="3"/>
@@ -26720,146 +26691,148 @@
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
       <c r="CL27" s="3"/>
+      <c r="CM27" s="3"/>
     </row>
-    <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="29">
+      <c r="B28" s="22">
         <v>2000</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22">
         <v>2001</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22">
         <v>2002</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="29">
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22">
         <v>2003</v>
       </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="29">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="22">
         <v>2004</v>
       </c>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="29">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="22">
         <v>2005</v>
       </c>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="29">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="22">
         <v>2006</v>
       </c>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="29">
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="22">
         <v>2007</v>
       </c>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="29">
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="22">
         <v>2008</v>
       </c>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="29">
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="22">
         <v>2009</v>
       </c>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="29">
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="29">
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="22">
         <v>2011</v>
       </c>
-      <c r="AU28" s="30"/>
-      <c r="AV28" s="30"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="29">
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="22">
         <v>2012</v>
       </c>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
-      <c r="BA28" s="30"/>
-      <c r="BB28" s="29">
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="22">
         <v>2013</v>
       </c>
-      <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="29">
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="22">
         <v>2014</v>
       </c>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="30"/>
-      <c r="BJ28" s="29">
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="22">
         <v>2015</v>
       </c>
-      <c r="BK28" s="30"/>
-      <c r="BL28" s="30"/>
-      <c r="BM28" s="30"/>
-      <c r="BN28" s="29">
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="22">
         <v>2016</v>
       </c>
-      <c r="BO28" s="30"/>
-      <c r="BP28" s="30"/>
-      <c r="BQ28" s="30"/>
-      <c r="BR28" s="29">
+      <c r="BO28" s="23"/>
+      <c r="BP28" s="23"/>
+      <c r="BQ28" s="23"/>
+      <c r="BR28" s="22">
         <v>2017</v>
       </c>
-      <c r="BS28" s="30"/>
-      <c r="BT28" s="30"/>
-      <c r="BU28" s="30"/>
-      <c r="BV28" s="31">
+      <c r="BS28" s="23"/>
+      <c r="BT28" s="23"/>
+      <c r="BU28" s="23"/>
+      <c r="BV28" s="22">
         <v>2018</v>
       </c>
-      <c r="BW28" s="32"/>
-      <c r="BX28" s="32"/>
-      <c r="BY28" s="32"/>
-      <c r="BZ28" s="29">
+      <c r="BW28" s="23"/>
+      <c r="BX28" s="23"/>
+      <c r="BY28" s="23"/>
+      <c r="BZ28" s="22">
         <v>2019</v>
       </c>
-      <c r="CA28" s="30"/>
-      <c r="CB28" s="30"/>
-      <c r="CC28" s="30"/>
-      <c r="CD28" s="29">
+      <c r="CA28" s="23"/>
+      <c r="CB28" s="23"/>
+      <c r="CC28" s="23"/>
+      <c r="CD28" s="22">
         <v>2020</v>
       </c>
-      <c r="CE28" s="29"/>
-      <c r="CF28" s="29"/>
-      <c r="CG28" s="29"/>
-      <c r="CH28" s="29">
+      <c r="CE28" s="23"/>
+      <c r="CF28" s="23"/>
+      <c r="CG28" s="23"/>
+      <c r="CH28" s="22">
         <v>2021</v>
       </c>
-      <c r="CI28" s="29"/>
-      <c r="CJ28" s="29"/>
-      <c r="CK28" s="29"/>
-      <c r="CL28" s="28">
+      <c r="CI28" s="22"/>
+      <c r="CJ28" s="22"/>
+      <c r="CK28" s="22"/>
+      <c r="CL28" s="22">
         <v>2022</v>
       </c>
+      <c r="CM28" s="22"/>
     </row>
-    <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -27079,16 +27052,16 @@
       <c r="BU29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV29" s="20" t="s">
+      <c r="BV29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW29" s="20" t="s">
+      <c r="BW29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX29" s="20" t="s">
+      <c r="BX29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY29" s="20" t="s">
+      <c r="BY29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ29" s="6" t="s">
@@ -27130,8 +27103,11 @@
       <c r="CL29" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM29" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -27205,10 +27181,10 @@
       <c r="BS30" s="3"/>
       <c r="BT30" s="3"/>
       <c r="BU30" s="3"/>
-      <c r="BV30" s="19"/>
-      <c r="BW30" s="19"/>
-      <c r="BX30" s="19"/>
-      <c r="BY30" s="19"/>
+      <c r="BV30" s="3"/>
+      <c r="BW30" s="3"/>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3"/>
       <c r="BZ30" s="3"/>
       <c r="CA30" s="3"/>
       <c r="CB30" s="3"/>
@@ -27222,8 +27198,9 @@
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
       <c r="CL30" s="3"/>
+      <c r="CM30" s="3"/>
     </row>
-    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -27443,16 +27420,16 @@
       <c r="BU31" s="13">
         <v>88790.058323711317</v>
       </c>
-      <c r="BV31" s="21">
+      <c r="BV31" s="13">
         <v>110717.6115783666</v>
       </c>
-      <c r="BW31" s="21">
+      <c r="BW31" s="13">
         <v>127564.81936764398</v>
       </c>
-      <c r="BX31" s="21">
+      <c r="BX31" s="13">
         <v>114196.98369297414</v>
       </c>
-      <c r="BY31" s="21">
+      <c r="BY31" s="13">
         <v>104091.82556571533</v>
       </c>
       <c r="BZ31" s="13">
@@ -27494,7 +27471,9 @@
       <c r="CL31" s="13">
         <v>138608.79741511322</v>
       </c>
-      <c r="CM31" s="17"/>
+      <c r="CM31" s="13">
+        <v>165232.64451768147</v>
+      </c>
       <c r="CN31" s="17"/>
       <c r="CO31" s="17"/>
       <c r="CP31" s="17"/>
@@ -27560,7 +27539,7 @@
       <c r="EX31" s="17"/>
       <c r="EY31" s="17"/>
     </row>
-    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -27780,16 +27759,16 @@
       <c r="BU32" s="13">
         <v>62562.699824882759</v>
       </c>
-      <c r="BV32" s="21">
+      <c r="BV32" s="13">
         <v>63264.816514610931</v>
       </c>
-      <c r="BW32" s="21">
+      <c r="BW32" s="13">
         <v>75184.058025953331</v>
       </c>
-      <c r="BX32" s="21">
+      <c r="BX32" s="13">
         <v>67391.910612257896</v>
       </c>
-      <c r="BY32" s="21">
+      <c r="BY32" s="13">
         <v>69195.238105839584</v>
       </c>
       <c r="BZ32" s="13">
@@ -27829,9 +27808,11 @@
         <v>56308.575715420709</v>
       </c>
       <c r="CL32" s="13">
-        <v>60296.188923498448</v>
-      </c>
-      <c r="CM32" s="17"/>
+        <v>61513.706560757382</v>
+      </c>
+      <c r="CM32" s="13">
+        <v>63324.173706633635</v>
+      </c>
       <c r="CN32" s="17"/>
       <c r="CO32" s="17"/>
       <c r="CP32" s="17"/>
@@ -27897,7 +27878,7 @@
       <c r="EX32" s="17"/>
       <c r="EY32" s="17"/>
     </row>
-    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -27970,10 +27951,10 @@
       <c r="BS33" s="11"/>
       <c r="BT33" s="11"/>
       <c r="BU33" s="11"/>
-      <c r="BV33" s="22"/>
-      <c r="BW33" s="22"/>
-      <c r="BX33" s="22"/>
-      <c r="BY33" s="22"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+      <c r="BX33" s="11"/>
+      <c r="BY33" s="11"/>
       <c r="BZ33" s="11"/>
       <c r="CA33" s="11"/>
       <c r="CB33" s="11"/>
@@ -27987,7 +27968,7 @@
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
       <c r="CL33" s="11"/>
-      <c r="CM33" s="17"/>
+      <c r="CM33" s="11"/>
       <c r="CN33" s="17"/>
       <c r="CO33" s="17"/>
       <c r="CP33" s="17"/>
@@ -28053,7 +28034,7 @@
       <c r="EX33" s="17"/>
       <c r="EY33" s="17"/>
     </row>
-    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
@@ -28273,40 +28254,40 @@
       <c r="BU34" s="14">
         <v>151352.75814859406</v>
       </c>
-      <c r="BV34" s="23">
+      <c r="BV34" s="18">
         <v>173982.42809297753</v>
       </c>
-      <c r="BW34" s="23">
+      <c r="BW34" s="18">
         <v>202748.87739359733</v>
       </c>
-      <c r="BX34" s="23">
+      <c r="BX34" s="18">
         <v>181588.89430523204</v>
       </c>
-      <c r="BY34" s="23">
+      <c r="BY34" s="18">
         <v>173287.0636715549</v>
       </c>
-      <c r="BZ34" s="14">
+      <c r="BZ34" s="18">
         <v>180591.79296835186</v>
       </c>
-      <c r="CA34" s="14">
+      <c r="CA34" s="18">
         <v>224096.74472281281</v>
       </c>
-      <c r="CB34" s="14">
+      <c r="CB34" s="18">
         <v>182963.10914996298</v>
       </c>
-      <c r="CC34" s="14">
+      <c r="CC34" s="18">
         <v>178437.36919710715</v>
       </c>
-      <c r="CD34" s="14">
+      <c r="CD34" s="18">
         <v>184015.44184398712</v>
       </c>
-      <c r="CE34" s="14">
+      <c r="CE34" s="18">
         <v>192942.28561995502</v>
       </c>
-      <c r="CF34" s="14">
+      <c r="CF34" s="18">
         <v>153299.59848054615</v>
       </c>
-      <c r="CG34" s="14">
+      <c r="CG34" s="18">
         <v>157352.5314285678</v>
       </c>
       <c r="CH34" s="14">
@@ -28322,9 +28303,11 @@
         <v>168777.28367745271</v>
       </c>
       <c r="CL34" s="14">
-        <v>198904.98633861166</v>
-      </c>
-      <c r="CM34" s="17"/>
+        <v>200122.50397587061</v>
+      </c>
+      <c r="CM34" s="14">
+        <v>228556.81822431512</v>
+      </c>
       <c r="CN34" s="17"/>
       <c r="CO34" s="17"/>
       <c r="CP34" s="17"/>
@@ -28390,7 +28373,7 @@
       <c r="EX34" s="17"/>
       <c r="EY34" s="17"/>
     </row>
-    <row r="35" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -28464,10 +28447,10 @@
       <c r="BS35" s="9"/>
       <c r="BT35" s="9"/>
       <c r="BU35" s="9"/>
-      <c r="BV35" s="24"/>
-      <c r="BW35" s="24"/>
-      <c r="BX35" s="24"/>
-      <c r="BY35" s="24"/>
+      <c r="BV35" s="9"/>
+      <c r="BW35" s="9"/>
+      <c r="BX35" s="9"/>
+      <c r="BY35" s="9"/>
       <c r="BZ35" s="9"/>
       <c r="CA35" s="9"/>
       <c r="CB35" s="9"/>
@@ -28481,8 +28464,9 @@
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
+      <c r="CM35" s="9"/>
     </row>
-    <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
@@ -28558,10 +28542,10 @@
       <c r="BS36" s="3"/>
       <c r="BT36" s="3"/>
       <c r="BU36" s="3"/>
-      <c r="BV36" s="19"/>
-      <c r="BW36" s="19"/>
-      <c r="BX36" s="19"/>
-      <c r="BY36" s="19"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="3"/>
+      <c r="BY36" s="3"/>
       <c r="BZ36" s="3"/>
       <c r="CA36" s="3"/>
       <c r="CB36" s="3"/>
@@ -28575,8 +28559,9 @@
       <c r="CJ36" s="3"/>
       <c r="CK36" s="3"/>
       <c r="CL36" s="3"/>
+      <c r="CM36" s="3"/>
     </row>
-    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -28649,10 +28634,10 @@
       <c r="BS37" s="11"/>
       <c r="BT37" s="11"/>
       <c r="BU37" s="11"/>
-      <c r="BV37" s="22"/>
-      <c r="BW37" s="22"/>
-      <c r="BX37" s="22"/>
-      <c r="BY37" s="22"/>
+      <c r="BV37" s="11"/>
+      <c r="BW37" s="11"/>
+      <c r="BX37" s="11"/>
+      <c r="BY37" s="11"/>
       <c r="BZ37" s="11"/>
       <c r="CA37" s="11"/>
       <c r="CB37" s="11"/>
@@ -28666,7 +28651,7 @@
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
       <c r="CL37" s="11"/>
-      <c r="CM37" s="17"/>
+      <c r="CM37" s="11"/>
       <c r="CN37" s="17"/>
       <c r="CO37" s="17"/>
       <c r="CP37" s="17"/>
@@ -28732,7 +28717,7 @@
       <c r="EX37" s="17"/>
       <c r="EY37" s="17"/>
     </row>
-    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -28805,10 +28790,10 @@
       <c r="BS38" s="11"/>
       <c r="BT38" s="11"/>
       <c r="BU38" s="11"/>
-      <c r="BV38" s="22"/>
-      <c r="BW38" s="22"/>
-      <c r="BX38" s="22"/>
-      <c r="BY38" s="22"/>
+      <c r="BV38" s="11"/>
+      <c r="BW38" s="11"/>
+      <c r="BX38" s="11"/>
+      <c r="BY38" s="11"/>
       <c r="BZ38" s="11"/>
       <c r="CA38" s="11"/>
       <c r="CB38" s="11"/>
@@ -28822,7 +28807,7 @@
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
       <c r="CL38" s="11"/>
-      <c r="CM38" s="17"/>
+      <c r="CM38" s="11"/>
       <c r="CN38" s="17"/>
       <c r="CO38" s="17"/>
       <c r="CP38" s="17"/>
@@ -28888,7 +28873,7 @@
       <c r="EX38" s="17"/>
       <c r="EY38" s="17"/>
     </row>
-    <row r="39" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -28964,10 +28949,10 @@
       <c r="BS39" s="3"/>
       <c r="BT39" s="3"/>
       <c r="BU39" s="3"/>
-      <c r="BV39" s="19"/>
-      <c r="BW39" s="19"/>
-      <c r="BX39" s="19"/>
-      <c r="BY39" s="19"/>
+      <c r="BV39" s="3"/>
+      <c r="BW39" s="3"/>
+      <c r="BX39" s="3"/>
+      <c r="BY39" s="3"/>
       <c r="BZ39" s="3"/>
       <c r="CA39" s="3"/>
       <c r="CB39" s="3"/>
@@ -28981,8 +28966,9 @@
       <c r="CJ39" s="3"/>
       <c r="CK39" s="3"/>
       <c r="CL39" s="3"/>
+      <c r="CM39" s="3"/>
     </row>
-    <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -29058,10 +29044,10 @@
       <c r="BS40" s="3"/>
       <c r="BT40" s="3"/>
       <c r="BU40" s="3"/>
-      <c r="BV40" s="19"/>
-      <c r="BW40" s="19"/>
-      <c r="BX40" s="19"/>
-      <c r="BY40" s="19"/>
+      <c r="BV40" s="3"/>
+      <c r="BW40" s="3"/>
+      <c r="BX40" s="3"/>
+      <c r="BY40" s="3"/>
       <c r="BZ40" s="3"/>
       <c r="CA40" s="3"/>
       <c r="CB40" s="3"/>
@@ -29075,8 +29061,9 @@
       <c r="CJ40" s="3"/>
       <c r="CK40" s="3"/>
       <c r="CL40" s="3"/>
+      <c r="CM40" s="3"/>
     </row>
-    <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -29152,10 +29139,10 @@
       <c r="BS41" s="3"/>
       <c r="BT41" s="3"/>
       <c r="BU41" s="3"/>
-      <c r="BV41" s="19"/>
-      <c r="BW41" s="19"/>
-      <c r="BX41" s="19"/>
-      <c r="BY41" s="19"/>
+      <c r="BV41" s="3"/>
+      <c r="BW41" s="3"/>
+      <c r="BX41" s="3"/>
+      <c r="BY41" s="3"/>
       <c r="BZ41" s="3"/>
       <c r="CA41" s="3"/>
       <c r="CB41" s="3"/>
@@ -29165,12 +29152,13 @@
       <c r="CF41" s="3"/>
       <c r="CG41" s="3"/>
       <c r="CH41" s="3"/>
-      <c r="CI41" s="33"/>
-      <c r="CJ41" s="33"/>
-      <c r="CK41" s="33"/>
-      <c r="CL41" s="33"/>
+      <c r="CI41" s="3"/>
+      <c r="CJ41" s="3"/>
+      <c r="CK41" s="3"/>
+      <c r="CL41" s="3"/>
+      <c r="CM41" s="3"/>
     </row>
-    <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -29244,10 +29232,10 @@
       <c r="BS42" s="3"/>
       <c r="BT42" s="3"/>
       <c r="BU42" s="3"/>
-      <c r="BV42" s="19"/>
-      <c r="BW42" s="19"/>
-      <c r="BX42" s="19"/>
-      <c r="BY42" s="19"/>
+      <c r="BV42" s="3"/>
+      <c r="BW42" s="3"/>
+      <c r="BX42" s="3"/>
+      <c r="BY42" s="3"/>
       <c r="BZ42" s="3"/>
       <c r="CA42" s="3"/>
       <c r="CB42" s="3"/>
@@ -29257,12 +29245,13 @@
       <c r="CF42" s="3"/>
       <c r="CG42" s="3"/>
       <c r="CH42" s="3"/>
-      <c r="CI42" s="33"/>
-      <c r="CJ42" s="33"/>
-      <c r="CK42" s="33"/>
-      <c r="CL42" s="33"/>
+      <c r="CI42" s="3"/>
+      <c r="CJ42" s="3"/>
+      <c r="CK42" s="3"/>
+      <c r="CL42" s="3"/>
+      <c r="CM42" s="3"/>
     </row>
-    <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -29338,10 +29327,10 @@
       <c r="BS43" s="3"/>
       <c r="BT43" s="3"/>
       <c r="BU43" s="3"/>
-      <c r="BV43" s="19"/>
-      <c r="BW43" s="19"/>
-      <c r="BX43" s="19"/>
-      <c r="BY43" s="19"/>
+      <c r="BV43" s="3"/>
+      <c r="BW43" s="3"/>
+      <c r="BX43" s="3"/>
+      <c r="BY43" s="3"/>
       <c r="BZ43" s="3"/>
       <c r="CA43" s="3"/>
       <c r="CB43" s="3"/>
@@ -29351,12 +29340,13 @@
       <c r="CF43" s="3"/>
       <c r="CG43" s="3"/>
       <c r="CH43" s="3"/>
-      <c r="CI43" s="33"/>
-      <c r="CJ43" s="33"/>
-      <c r="CK43" s="33"/>
-      <c r="CL43" s="33"/>
+      <c r="CI43" s="3"/>
+      <c r="CJ43" s="3"/>
+      <c r="CK43" s="3"/>
+      <c r="CL43" s="3"/>
+      <c r="CM43" s="3"/>
     </row>
-    <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -29432,17 +29422,20 @@
       <c r="BS44" s="3"/>
       <c r="BT44" s="3"/>
       <c r="BU44" s="3"/>
-      <c r="BV44" s="19"/>
-      <c r="BW44" s="19"/>
-      <c r="BX44" s="19"/>
-      <c r="BY44" s="19"/>
+      <c r="BV44" s="3"/>
+      <c r="BW44" s="3"/>
+      <c r="BX44" s="3"/>
+      <c r="BY44" s="3"/>
       <c r="BZ44" s="3"/>
-      <c r="CI44" s="34"/>
-      <c r="CJ44" s="34"/>
-      <c r="CK44" s="34"/>
-      <c r="CL44" s="34"/>
+      <c r="CA44" s="3"/>
+      <c r="CB44" s="3"/>
+      <c r="CC44" s="3"/>
+      <c r="CD44" s="3"/>
+      <c r="CE44" s="3"/>
+      <c r="CF44" s="3"/>
+      <c r="CG44" s="3"/>
     </row>
-    <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -29518,17 +29511,20 @@
       <c r="BS45" s="3"/>
       <c r="BT45" s="3"/>
       <c r="BU45" s="3"/>
-      <c r="BV45" s="19"/>
-      <c r="BW45" s="19"/>
-      <c r="BX45" s="19"/>
-      <c r="BY45" s="19"/>
+      <c r="BV45" s="3"/>
+      <c r="BW45" s="3"/>
+      <c r="BX45" s="3"/>
+      <c r="BY45" s="3"/>
       <c r="BZ45" s="3"/>
-      <c r="CI45" s="34"/>
-      <c r="CJ45" s="34"/>
-      <c r="CK45" s="34"/>
-      <c r="CL45" s="34"/>
+      <c r="CA45" s="3"/>
+      <c r="CB45" s="3"/>
+      <c r="CC45" s="3"/>
+      <c r="CD45" s="3"/>
+      <c r="CE45" s="3"/>
+      <c r="CF45" s="3"/>
+      <c r="CG45" s="3"/>
     </row>
-    <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -29602,10 +29598,10 @@
       <c r="BS46" s="3"/>
       <c r="BT46" s="3"/>
       <c r="BU46" s="3"/>
-      <c r="BV46" s="19"/>
-      <c r="BW46" s="19"/>
-      <c r="BX46" s="19"/>
-      <c r="BY46" s="19"/>
+      <c r="BV46" s="3"/>
+      <c r="BW46" s="3"/>
+      <c r="BX46" s="3"/>
+      <c r="BY46" s="3"/>
       <c r="BZ46" s="3"/>
       <c r="CA46" s="3"/>
       <c r="CB46" s="3"/>
@@ -29615,148 +29611,150 @@
       <c r="CF46" s="3"/>
       <c r="CG46" s="3"/>
       <c r="CH46" s="3"/>
-      <c r="CI46" s="33"/>
-      <c r="CJ46" s="33"/>
-      <c r="CK46" s="33"/>
-      <c r="CL46" s="33"/>
+      <c r="CI46" s="3"/>
+      <c r="CJ46" s="3"/>
+      <c r="CK46" s="3"/>
+      <c r="CL46" s="3"/>
+      <c r="CM46" s="3"/>
     </row>
-    <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29" t="s">
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29" t="s">
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29" t="s">
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29" t="s">
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29" t="s">
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-      <c r="AL47" s="29" t="s">
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="29"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
-      <c r="AP47" s="29" t="s">
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="29"/>
-      <c r="AR47" s="29"/>
-      <c r="AS47" s="29"/>
-      <c r="AT47" s="29" t="s">
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="29"/>
-      <c r="AV47" s="29"/>
-      <c r="AW47" s="29"/>
-      <c r="AX47" s="29" t="s">
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="29"/>
-      <c r="AZ47" s="29"/>
-      <c r="BA47" s="29"/>
-      <c r="BB47" s="29" t="s">
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="29"/>
-      <c r="BD47" s="29"/>
-      <c r="BE47" s="29"/>
-      <c r="BF47" s="29" t="s">
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="29"/>
-      <c r="BH47" s="29"/>
-      <c r="BI47" s="29"/>
-      <c r="BJ47" s="29" t="s">
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="29"/>
-      <c r="BL47" s="29"/>
-      <c r="BM47" s="29"/>
-      <c r="BN47" s="29" t="s">
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="29"/>
-      <c r="BP47" s="29"/>
-      <c r="BQ47" s="29"/>
-      <c r="BR47" s="29" t="s">
+      <c r="BO47" s="22"/>
+      <c r="BP47" s="22"/>
+      <c r="BQ47" s="22"/>
+      <c r="BR47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="29"/>
-      <c r="BT47" s="29"/>
-      <c r="BU47" s="29"/>
-      <c r="BV47" s="31" t="s">
+      <c r="BS47" s="22"/>
+      <c r="BT47" s="22"/>
+      <c r="BU47" s="22"/>
+      <c r="BV47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="31"/>
-      <c r="BX47" s="31"/>
-      <c r="BY47" s="31"/>
-      <c r="BZ47" s="29" t="s">
+      <c r="BW47" s="22"/>
+      <c r="BX47" s="22"/>
+      <c r="BY47" s="22"/>
+      <c r="BZ47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="29"/>
-      <c r="CB47" s="29"/>
-      <c r="CC47" s="29"/>
-      <c r="CD47" s="29" t="s">
+      <c r="CA47" s="22"/>
+      <c r="CB47" s="22"/>
+      <c r="CC47" s="22"/>
+      <c r="CD47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="29"/>
-      <c r="CF47" s="29"/>
-      <c r="CG47" s="29"/>
-      <c r="CH47" s="28" t="s">
+      <c r="CE47" s="22"/>
+      <c r="CF47" s="22"/>
+      <c r="CG47" s="22"/>
+      <c r="CH47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="36"/>
-      <c r="CJ47" s="36"/>
-      <c r="CK47" s="36"/>
-      <c r="CL47" s="37"/>
+      <c r="CI47" s="22"/>
+      <c r="CJ47" s="20"/>
+      <c r="CK47" s="20"/>
+      <c r="CL47" s="19"/>
+      <c r="CM47" s="19"/>
     </row>
-    <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -29976,16 +29974,16 @@
       <c r="BU48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BV48" s="25" t="s">
+      <c r="BV48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BW48" s="25" t="s">
+      <c r="BW48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BX48" s="25" t="s">
+      <c r="BX48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BY48" s="25" t="s">
+      <c r="BY48" s="5" t="s">
         <v>9</v>
       </c>
       <c r="BZ48" s="5" t="s">
@@ -30015,12 +30013,15 @@
       <c r="CH48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI48" s="36"/>
-      <c r="CJ48" s="36"/>
-      <c r="CK48" s="36"/>
-      <c r="CL48" s="36"/>
+      <c r="CI48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ48" s="5"/>
+      <c r="CK48" s="5"/>
+      <c r="CL48" s="5"/>
+      <c r="CM48" s="21"/>
     </row>
-    <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -30094,10 +30095,10 @@
       <c r="BS49" s="3"/>
       <c r="BT49" s="3"/>
       <c r="BU49" s="3"/>
-      <c r="BV49" s="19"/>
-      <c r="BW49" s="19"/>
-      <c r="BX49" s="19"/>
-      <c r="BY49" s="19"/>
+      <c r="BV49" s="3"/>
+      <c r="BW49" s="3"/>
+      <c r="BX49" s="3"/>
+      <c r="BY49" s="3"/>
       <c r="BZ49" s="3"/>
       <c r="CA49" s="3"/>
       <c r="CB49" s="3"/>
@@ -30107,12 +30108,13 @@
       <c r="CF49" s="3"/>
       <c r="CG49" s="3"/>
       <c r="CH49" s="3"/>
-      <c r="CI49" s="33"/>
-      <c r="CJ49" s="33"/>
-      <c r="CK49" s="33"/>
-      <c r="CL49" s="33"/>
+      <c r="CI49" s="3"/>
+      <c r="CJ49" s="3"/>
+      <c r="CK49" s="3"/>
+      <c r="CL49" s="3"/>
+      <c r="CM49" s="3"/>
     </row>
-    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -30332,16 +30334,16 @@
       <c r="BU50" s="12">
         <v>27.038064248932443</v>
       </c>
-      <c r="BV50" s="26">
+      <c r="BV50" s="12">
         <v>6.1492079979957168</v>
       </c>
-      <c r="BW50" s="26">
+      <c r="BW50" s="12">
         <v>14.740654697483976</v>
       </c>
-      <c r="BX50" s="26">
+      <c r="BX50" s="12">
         <v>2.1321016158124593</v>
       </c>
-      <c r="BY50" s="26">
+      <c r="BY50" s="12">
         <v>6.1390943105004538</v>
       </c>
       <c r="BZ50" s="12">
@@ -30371,11 +30373,13 @@
       <c r="CH50" s="12">
         <v>13.367912830125533</v>
       </c>
-      <c r="CI50" s="35"/>
-      <c r="CJ50" s="35"/>
-      <c r="CK50" s="35"/>
-      <c r="CL50" s="35"/>
-      <c r="CM50" s="17"/>
+      <c r="CI50" s="12">
+        <v>9.3626839112412199</v>
+      </c>
+      <c r="CJ50" s="12"/>
+      <c r="CK50" s="12"/>
+      <c r="CL50" s="12"/>
+      <c r="CM50" s="11"/>
       <c r="CN50" s="17"/>
       <c r="CO50" s="17"/>
       <c r="CP50" s="17"/>
@@ -30437,7 +30441,7 @@
       <c r="ET50" s="17"/>
       <c r="EU50" s="17"/>
     </row>
-    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -30657,16 +30661,16 @@
       <c r="BU51" s="12">
         <v>4.7438020010313977</v>
       </c>
-      <c r="BV51" s="26">
+      <c r="BV51" s="12">
         <v>4.4633164197094288</v>
       </c>
-      <c r="BW51" s="26">
+      <c r="BW51" s="12">
         <v>1.5622701644157928</v>
       </c>
-      <c r="BX51" s="26">
+      <c r="BX51" s="12">
         <v>7.3073885397842986</v>
       </c>
-      <c r="BY51" s="26">
+      <c r="BY51" s="12">
         <v>6.0136213431131011</v>
       </c>
       <c r="BZ51" s="12">
@@ -30694,13 +30698,15 @@
         <v>3.6338920510347208</v>
       </c>
       <c r="CH51" s="12">
-        <v>7.8973502609680537</v>
-      </c>
-      <c r="CI51" s="35"/>
-      <c r="CJ51" s="35"/>
-      <c r="CK51" s="35"/>
-      <c r="CL51" s="35"/>
-      <c r="CM51" s="17"/>
+        <v>10.076043961210132</v>
+      </c>
+      <c r="CI51" s="12">
+        <v>6.3224844515373775</v>
+      </c>
+      <c r="CJ51" s="12"/>
+      <c r="CK51" s="12"/>
+      <c r="CL51" s="12"/>
+      <c r="CM51" s="11"/>
       <c r="CN51" s="17"/>
       <c r="CO51" s="17"/>
       <c r="CP51" s="17"/>
@@ -30762,7 +30768,7 @@
       <c r="ET51" s="17"/>
       <c r="EU51" s="17"/>
     </row>
-    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -30836,10 +30842,10 @@
       <c r="BS52" s="11"/>
       <c r="BT52" s="11"/>
       <c r="BU52" s="11"/>
-      <c r="BV52" s="22"/>
-      <c r="BW52" s="22"/>
-      <c r="BX52" s="22"/>
-      <c r="BY52" s="22"/>
+      <c r="BV52" s="11"/>
+      <c r="BW52" s="11"/>
+      <c r="BX52" s="11"/>
+      <c r="BY52" s="11"/>
       <c r="BZ52" s="11"/>
       <c r="CA52" s="11"/>
       <c r="CB52" s="11"/>
@@ -30849,11 +30855,11 @@
       <c r="CF52" s="11"/>
       <c r="CG52" s="11"/>
       <c r="CH52" s="11"/>
-      <c r="CI52" s="35"/>
-      <c r="CJ52" s="35"/>
-      <c r="CK52" s="35"/>
-      <c r="CL52" s="35"/>
-      <c r="CM52" s="17"/>
+      <c r="CI52" s="11"/>
+      <c r="CJ52" s="11"/>
+      <c r="CK52" s="11"/>
+      <c r="CL52" s="11"/>
+      <c r="CM52" s="11"/>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
       <c r="CP52" s="17"/>
@@ -30915,7 +30921,7 @@
       <c r="ET52" s="17"/>
       <c r="EU52" s="17"/>
     </row>
-    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>13</v>
       </c>
@@ -31135,16 +31141,16 @@
       <c r="BU53" s="12">
         <v>17.720360965877617</v>
       </c>
-      <c r="BV53" s="26">
+      <c r="BV53" s="12">
         <v>5.507209308261011</v>
       </c>
-      <c r="BW53" s="26">
+      <c r="BW53" s="12">
         <v>9.7803972578343945</v>
       </c>
-      <c r="BX53" s="26">
+      <c r="BX53" s="12">
         <v>4.0757281407254311</v>
       </c>
-      <c r="BY53" s="26">
+      <c r="BY53" s="12">
         <v>6.0924345302765914</v>
       </c>
       <c r="BZ53" s="12">
@@ -31172,13 +31178,15 @@
         <v>9.2097899812167157</v>
       </c>
       <c r="CH53" s="12">
-        <v>11.749638505677822</v>
-      </c>
-      <c r="CI53" s="35"/>
-      <c r="CJ53" s="35"/>
-      <c r="CK53" s="35"/>
-      <c r="CL53" s="35"/>
-      <c r="CM53" s="17"/>
+        <v>12.394128726083238</v>
+      </c>
+      <c r="CI53" s="12">
+        <v>8.5438386638603276</v>
+      </c>
+      <c r="CJ53" s="12"/>
+      <c r="CK53" s="12"/>
+      <c r="CL53" s="12"/>
+      <c r="CM53" s="11"/>
       <c r="CN53" s="17"/>
       <c r="CO53" s="17"/>
       <c r="CP53" s="17"/>
@@ -31240,7 +31248,7 @@
       <c r="ET53" s="17"/>
       <c r="EU53" s="17"/>
     </row>
-    <row r="54" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -31314,10 +31322,10 @@
       <c r="BS54" s="9"/>
       <c r="BT54" s="9"/>
       <c r="BU54" s="9"/>
-      <c r="BV54" s="24"/>
-      <c r="BW54" s="24"/>
-      <c r="BX54" s="24"/>
-      <c r="BY54" s="24"/>
+      <c r="BV54" s="9"/>
+      <c r="BW54" s="9"/>
+      <c r="BX54" s="9"/>
+      <c r="BY54" s="9"/>
       <c r="BZ54" s="9"/>
       <c r="CA54" s="9"/>
       <c r="CB54" s="9"/>
@@ -31327,12 +31335,13 @@
       <c r="CF54" s="9"/>
       <c r="CG54" s="9"/>
       <c r="CH54" s="9"/>
-      <c r="CI54" s="38"/>
-      <c r="CJ54" s="38"/>
-      <c r="CK54" s="38"/>
-      <c r="CL54" s="38"/>
+      <c r="CI54" s="9"/>
+      <c r="CJ54" s="9"/>
+      <c r="CK54" s="9"/>
+      <c r="CL54" s="9"/>
+      <c r="CM54" s="9"/>
     </row>
-    <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -31408,10 +31417,10 @@
       <c r="BS55" s="3"/>
       <c r="BT55" s="3"/>
       <c r="BU55" s="3"/>
-      <c r="BV55" s="19"/>
-      <c r="BW55" s="19"/>
-      <c r="BX55" s="19"/>
-      <c r="BY55" s="19"/>
+      <c r="BV55" s="3"/>
+      <c r="BW55" s="3"/>
+      <c r="BX55" s="3"/>
+      <c r="BY55" s="3"/>
       <c r="BZ55" s="3"/>
       <c r="CA55" s="3"/>
       <c r="CB55" s="3"/>
@@ -31421,12 +31430,13 @@
       <c r="CF55" s="3"/>
       <c r="CG55" s="3"/>
       <c r="CH55" s="3"/>
-      <c r="CI55" s="33"/>
-      <c r="CJ55" s="33"/>
-      <c r="CK55" s="33"/>
-      <c r="CL55" s="33"/>
+      <c r="CI55" s="3"/>
+      <c r="CJ55" s="3"/>
+      <c r="CK55" s="3"/>
+      <c r="CL55" s="3"/>
+      <c r="CM55" s="3"/>
     </row>
-    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -31499,10 +31509,10 @@
       <c r="BS56" s="11"/>
       <c r="BT56" s="11"/>
       <c r="BU56" s="11"/>
-      <c r="BV56" s="22"/>
-      <c r="BW56" s="22"/>
-      <c r="BX56" s="22"/>
-      <c r="BY56" s="22"/>
+      <c r="BV56" s="11"/>
+      <c r="BW56" s="11"/>
+      <c r="BX56" s="11"/>
+      <c r="BY56" s="11"/>
       <c r="BZ56" s="11"/>
       <c r="CA56" s="11"/>
       <c r="CB56" s="11"/>
@@ -31512,11 +31522,11 @@
       <c r="CF56" s="11"/>
       <c r="CG56" s="11"/>
       <c r="CH56" s="11"/>
-      <c r="CI56" s="35"/>
-      <c r="CJ56" s="35"/>
-      <c r="CK56" s="35"/>
-      <c r="CL56" s="35"/>
-      <c r="CM56" s="17"/>
+      <c r="CI56" s="11"/>
+      <c r="CJ56" s="11"/>
+      <c r="CK56" s="11"/>
+      <c r="CL56" s="11"/>
+      <c r="CM56" s="11"/>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
       <c r="CP56" s="17"/>
@@ -31578,7 +31588,7 @@
       <c r="ET56" s="17"/>
       <c r="EU56" s="17"/>
     </row>
-    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -31651,10 +31661,10 @@
       <c r="BS57" s="11"/>
       <c r="BT57" s="11"/>
       <c r="BU57" s="11"/>
-      <c r="BV57" s="22"/>
-      <c r="BW57" s="22"/>
-      <c r="BX57" s="22"/>
-      <c r="BY57" s="22"/>
+      <c r="BV57" s="11"/>
+      <c r="BW57" s="11"/>
+      <c r="BX57" s="11"/>
+      <c r="BY57" s="11"/>
       <c r="BZ57" s="11"/>
       <c r="CA57" s="11"/>
       <c r="CB57" s="11"/>
@@ -31664,11 +31674,11 @@
       <c r="CF57" s="11"/>
       <c r="CG57" s="11"/>
       <c r="CH57" s="11"/>
-      <c r="CI57" s="35"/>
-      <c r="CJ57" s="35"/>
-      <c r="CK57" s="35"/>
-      <c r="CL57" s="35"/>
-      <c r="CM57" s="17"/>
+      <c r="CI57" s="11"/>
+      <c r="CJ57" s="11"/>
+      <c r="CK57" s="11"/>
+      <c r="CL57" s="11"/>
+      <c r="CM57" s="11"/>
       <c r="CN57" s="17"/>
       <c r="CO57" s="17"/>
       <c r="CP57" s="17"/>
@@ -31730,7 +31740,7 @@
       <c r="ET57" s="17"/>
       <c r="EU57" s="17"/>
     </row>
-    <row r="58" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -31806,10 +31816,10 @@
       <c r="BS58" s="3"/>
       <c r="BT58" s="3"/>
       <c r="BU58" s="3"/>
-      <c r="BV58" s="19"/>
-      <c r="BW58" s="19"/>
-      <c r="BX58" s="19"/>
-      <c r="BY58" s="19"/>
+      <c r="BV58" s="3"/>
+      <c r="BW58" s="3"/>
+      <c r="BX58" s="3"/>
+      <c r="BY58" s="3"/>
       <c r="BZ58" s="3"/>
       <c r="CA58" s="3"/>
       <c r="CB58" s="3"/>
@@ -31819,12 +31829,13 @@
       <c r="CF58" s="3"/>
       <c r="CG58" s="3"/>
       <c r="CH58" s="3"/>
-      <c r="CI58" s="33"/>
-      <c r="CJ58" s="33"/>
-      <c r="CK58" s="33"/>
-      <c r="CL58" s="33"/>
+      <c r="CI58" s="3"/>
+      <c r="CJ58" s="3"/>
+      <c r="CK58" s="3"/>
+      <c r="CL58" s="3"/>
+      <c r="CM58" s="3"/>
     </row>
-    <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
@@ -31900,10 +31911,10 @@
       <c r="BS59" s="3"/>
       <c r="BT59" s="3"/>
       <c r="BU59" s="3"/>
-      <c r="BV59" s="19"/>
-      <c r="BW59" s="19"/>
-      <c r="BX59" s="19"/>
-      <c r="BY59" s="19"/>
+      <c r="BV59" s="3"/>
+      <c r="BW59" s="3"/>
+      <c r="BX59" s="3"/>
+      <c r="BY59" s="3"/>
       <c r="BZ59" s="3"/>
       <c r="CA59" s="3"/>
       <c r="CB59" s="3"/>
@@ -31913,12 +31924,13 @@
       <c r="CF59" s="3"/>
       <c r="CG59" s="3"/>
       <c r="CH59" s="3"/>
-      <c r="CI59" s="33"/>
-      <c r="CJ59" s="33"/>
-      <c r="CK59" s="33"/>
-      <c r="CL59" s="33"/>
+      <c r="CI59" s="3"/>
+      <c r="CJ59" s="3"/>
+      <c r="CK59" s="3"/>
+      <c r="CL59" s="3"/>
+      <c r="CM59" s="3"/>
     </row>
-    <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
@@ -31994,10 +32006,10 @@
       <c r="BS60" s="3"/>
       <c r="BT60" s="3"/>
       <c r="BU60" s="3"/>
-      <c r="BV60" s="19"/>
-      <c r="BW60" s="19"/>
-      <c r="BX60" s="19"/>
-      <c r="BY60" s="19"/>
+      <c r="BV60" s="3"/>
+      <c r="BW60" s="3"/>
+      <c r="BX60" s="3"/>
+      <c r="BY60" s="3"/>
       <c r="BZ60" s="3"/>
       <c r="CA60" s="3"/>
       <c r="CB60" s="3"/>
@@ -32011,8 +32023,9 @@
       <c r="CJ60" s="3"/>
       <c r="CK60" s="3"/>
       <c r="CL60" s="3"/>
+      <c r="CM60" s="3"/>
     </row>
-    <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -32086,10 +32099,10 @@
       <c r="BS61" s="3"/>
       <c r="BT61" s="3"/>
       <c r="BU61" s="3"/>
-      <c r="BV61" s="19"/>
-      <c r="BW61" s="19"/>
-      <c r="BX61" s="19"/>
-      <c r="BY61" s="19"/>
+      <c r="BV61" s="3"/>
+      <c r="BW61" s="3"/>
+      <c r="BX61" s="3"/>
+      <c r="BY61" s="3"/>
       <c r="BZ61" s="3"/>
       <c r="CA61" s="3"/>
       <c r="CB61" s="3"/>
@@ -32103,8 +32116,9 @@
       <c r="CJ61" s="3"/>
       <c r="CK61" s="3"/>
       <c r="CL61" s="3"/>
+      <c r="CM61" s="3"/>
     </row>
-    <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -32180,10 +32194,10 @@
       <c r="BS62" s="3"/>
       <c r="BT62" s="3"/>
       <c r="BU62" s="3"/>
-      <c r="BV62" s="19"/>
-      <c r="BW62" s="19"/>
-      <c r="BX62" s="19"/>
-      <c r="BY62" s="19"/>
+      <c r="BV62" s="3"/>
+      <c r="BW62" s="3"/>
+      <c r="BX62" s="3"/>
+      <c r="BY62" s="3"/>
       <c r="BZ62" s="3"/>
       <c r="CA62" s="3"/>
       <c r="CB62" s="3"/>
@@ -32193,13 +32207,13 @@
       <c r="CF62" s="3"/>
       <c r="CG62" s="3"/>
       <c r="CH62" s="3"/>
-      <c r="CI62" s="33"/>
-      <c r="CJ62" s="33"/>
-      <c r="CK62" s="33"/>
-      <c r="CL62" s="33"/>
-      <c r="CM62" s="34"/>
+      <c r="CI62" s="3"/>
+      <c r="CJ62" s="3"/>
+      <c r="CK62" s="3"/>
+      <c r="CL62" s="3"/>
+      <c r="CM62" s="3"/>
     </row>
-    <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>50</v>
       </c>
@@ -32275,10 +32289,10 @@
       <c r="BS63" s="3"/>
       <c r="BT63" s="3"/>
       <c r="BU63" s="3"/>
-      <c r="BV63" s="19"/>
-      <c r="BW63" s="19"/>
-      <c r="BX63" s="19"/>
-      <c r="BY63" s="19"/>
+      <c r="BV63" s="3"/>
+      <c r="BW63" s="3"/>
+      <c r="BX63" s="3"/>
+      <c r="BY63" s="3"/>
       <c r="BZ63" s="3"/>
       <c r="CA63" s="3"/>
       <c r="CB63" s="3"/>
@@ -32288,13 +32302,13 @@
       <c r="CF63" s="3"/>
       <c r="CG63" s="3"/>
       <c r="CH63" s="3"/>
-      <c r="CI63" s="33"/>
-      <c r="CJ63" s="33"/>
-      <c r="CK63" s="33"/>
-      <c r="CL63" s="33"/>
-      <c r="CM63" s="34"/>
+      <c r="CI63" s="3"/>
+      <c r="CJ63" s="3"/>
+      <c r="CK63" s="3"/>
+      <c r="CL63" s="3"/>
+      <c r="CM63" s="3"/>
     </row>
-    <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
@@ -32370,10 +32384,10 @@
       <c r="BS64" s="3"/>
       <c r="BT64" s="3"/>
       <c r="BU64" s="3"/>
-      <c r="BV64" s="19"/>
-      <c r="BW64" s="19"/>
-      <c r="BX64" s="19"/>
-      <c r="BY64" s="19"/>
+      <c r="BV64" s="3"/>
+      <c r="BW64" s="3"/>
+      <c r="BX64" s="3"/>
+      <c r="BY64" s="3"/>
       <c r="BZ64" s="3"/>
       <c r="CA64" s="3"/>
       <c r="CB64" s="3"/>
@@ -32383,13 +32397,13 @@
       <c r="CF64" s="3"/>
       <c r="CG64" s="3"/>
       <c r="CH64" s="3"/>
-      <c r="CI64" s="33"/>
-      <c r="CJ64" s="33"/>
-      <c r="CK64" s="33"/>
-      <c r="CL64" s="33"/>
-      <c r="CM64" s="34"/>
+      <c r="CI64" s="3"/>
+      <c r="CJ64" s="3"/>
+      <c r="CK64" s="3"/>
+      <c r="CL64" s="3"/>
+      <c r="CM64" s="3"/>
     </row>
-    <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -32463,10 +32477,10 @@
       <c r="BS65" s="3"/>
       <c r="BT65" s="3"/>
       <c r="BU65" s="3"/>
-      <c r="BV65" s="19"/>
-      <c r="BW65" s="19"/>
-      <c r="BX65" s="19"/>
-      <c r="BY65" s="19"/>
+      <c r="BV65" s="3"/>
+      <c r="BW65" s="3"/>
+      <c r="BX65" s="3"/>
+      <c r="BY65" s="3"/>
       <c r="BZ65" s="3"/>
       <c r="CA65" s="3"/>
       <c r="CB65" s="3"/>
@@ -32476,150 +32490,150 @@
       <c r="CF65" s="3"/>
       <c r="CG65" s="3"/>
       <c r="CH65" s="3"/>
-      <c r="CI65" s="33"/>
-      <c r="CJ65" s="33"/>
-      <c r="CK65" s="33"/>
-      <c r="CL65" s="33"/>
-      <c r="CM65" s="34"/>
+      <c r="CI65" s="3"/>
+      <c r="CJ65" s="3"/>
+      <c r="CK65" s="3"/>
+      <c r="CL65" s="3"/>
+      <c r="CM65" s="3"/>
     </row>
-    <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29" t="s">
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29" t="s">
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29" t="s">
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29" t="s">
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="29" t="s">
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="29" t="s">
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="29"/>
-      <c r="AF66" s="29"/>
-      <c r="AG66" s="29"/>
-      <c r="AH66" s="29" t="s">
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="29"/>
-      <c r="AJ66" s="29"/>
-      <c r="AK66" s="29"/>
-      <c r="AL66" s="29" t="s">
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="29"/>
-      <c r="AN66" s="29"/>
-      <c r="AO66" s="29"/>
-      <c r="AP66" s="29" t="s">
+      <c r="AM66" s="22"/>
+      <c r="AN66" s="22"/>
+      <c r="AO66" s="22"/>
+      <c r="AP66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="29"/>
-      <c r="AR66" s="29"/>
-      <c r="AS66" s="29"/>
-      <c r="AT66" s="29" t="s">
+      <c r="AQ66" s="22"/>
+      <c r="AR66" s="22"/>
+      <c r="AS66" s="22"/>
+      <c r="AT66" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="29"/>
-      <c r="AV66" s="29"/>
-      <c r="AW66" s="29"/>
-      <c r="AX66" s="29" t="s">
+      <c r="AU66" s="22"/>
+      <c r="AV66" s="22"/>
+      <c r="AW66" s="22"/>
+      <c r="AX66" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="29"/>
-      <c r="AZ66" s="29"/>
-      <c r="BA66" s="29"/>
-      <c r="BB66" s="29" t="s">
+      <c r="AY66" s="22"/>
+      <c r="AZ66" s="22"/>
+      <c r="BA66" s="22"/>
+      <c r="BB66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="29"/>
-      <c r="BD66" s="29"/>
-      <c r="BE66" s="29"/>
-      <c r="BF66" s="29" t="s">
+      <c r="BC66" s="22"/>
+      <c r="BD66" s="22"/>
+      <c r="BE66" s="22"/>
+      <c r="BF66" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="29"/>
-      <c r="BH66" s="29"/>
-      <c r="BI66" s="29"/>
-      <c r="BJ66" s="29" t="s">
+      <c r="BG66" s="22"/>
+      <c r="BH66" s="22"/>
+      <c r="BI66" s="22"/>
+      <c r="BJ66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="29"/>
-      <c r="BL66" s="29"/>
-      <c r="BM66" s="29"/>
-      <c r="BN66" s="29" t="s">
+      <c r="BK66" s="22"/>
+      <c r="BL66" s="22"/>
+      <c r="BM66" s="22"/>
+      <c r="BN66" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="29"/>
-      <c r="BP66" s="29"/>
-      <c r="BQ66" s="29"/>
-      <c r="BR66" s="29" t="s">
+      <c r="BO66" s="22"/>
+      <c r="BP66" s="22"/>
+      <c r="BQ66" s="22"/>
+      <c r="BR66" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="29"/>
-      <c r="BT66" s="29"/>
-      <c r="BU66" s="29"/>
-      <c r="BV66" s="31" t="s">
+      <c r="BS66" s="22"/>
+      <c r="BT66" s="22"/>
+      <c r="BU66" s="22"/>
+      <c r="BV66" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="31"/>
-      <c r="BX66" s="31"/>
-      <c r="BY66" s="31"/>
-      <c r="BZ66" s="29" t="s">
+      <c r="BW66" s="22"/>
+      <c r="BX66" s="22"/>
+      <c r="BY66" s="22"/>
+      <c r="BZ66" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="29"/>
-      <c r="CB66" s="29"/>
-      <c r="CC66" s="29"/>
-      <c r="CD66" s="29" t="s">
+      <c r="CA66" s="22"/>
+      <c r="CB66" s="22"/>
+      <c r="CC66" s="22"/>
+      <c r="CD66" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="29"/>
-      <c r="CF66" s="29"/>
-      <c r="CG66" s="29"/>
-      <c r="CH66" s="28" t="s">
+      <c r="CE66" s="22"/>
+      <c r="CF66" s="22"/>
+      <c r="CG66" s="22"/>
+      <c r="CH66" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="36"/>
-      <c r="CJ66" s="36"/>
-      <c r="CK66" s="36"/>
-      <c r="CL66" s="37"/>
-      <c r="CM66" s="34"/>
+      <c r="CI66" s="22"/>
+      <c r="CJ66" s="20"/>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="19"/>
+      <c r="CM66" s="19"/>
     </row>
-    <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -32839,16 +32853,16 @@
       <c r="BU67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BV67" s="25" t="s">
+      <c r="BV67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BW67" s="25" t="s">
+      <c r="BW67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="BX67" s="25" t="s">
+      <c r="BX67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BY67" s="25" t="s">
+      <c r="BY67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="BZ67" s="5" t="s">
@@ -32878,13 +32892,15 @@
       <c r="CH67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI67" s="36"/>
-      <c r="CJ67" s="36"/>
-      <c r="CK67" s="36"/>
-      <c r="CL67" s="36"/>
-      <c r="CM67" s="34"/>
+      <c r="CI67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ67" s="5"/>
+      <c r="CK67" s="5"/>
+      <c r="CL67" s="5"/>
+      <c r="CM67" s="21"/>
     </row>
-    <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -32958,10 +32974,10 @@
       <c r="BS68" s="3"/>
       <c r="BT68" s="3"/>
       <c r="BU68" s="3"/>
-      <c r="BV68" s="19"/>
-      <c r="BW68" s="19"/>
-      <c r="BX68" s="19"/>
-      <c r="BY68" s="19"/>
+      <c r="BV68" s="3"/>
+      <c r="BW68" s="3"/>
+      <c r="BX68" s="3"/>
+      <c r="BY68" s="3"/>
       <c r="BZ68" s="3"/>
       <c r="CA68" s="3"/>
       <c r="CB68" s="3"/>
@@ -32971,13 +32987,13 @@
       <c r="CF68" s="3"/>
       <c r="CG68" s="3"/>
       <c r="CH68" s="3"/>
-      <c r="CI68" s="33"/>
-      <c r="CJ68" s="33"/>
-      <c r="CK68" s="33"/>
-      <c r="CL68" s="33"/>
-      <c r="CM68" s="34"/>
+      <c r="CI68" s="3"/>
+      <c r="CJ68" s="3"/>
+      <c r="CK68" s="3"/>
+      <c r="CL68" s="3"/>
+      <c r="CM68" s="3"/>
     </row>
-    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>11</v>
       </c>
@@ -33197,16 +33213,16 @@
       <c r="BU69" s="12">
         <v>17.2336492743554</v>
       </c>
-      <c r="BV69" s="26">
+      <c r="BV69" s="12">
         <v>0.77783651794605646</v>
       </c>
-      <c r="BW69" s="26">
+      <c r="BW69" s="12">
         <v>13.287955937200451</v>
       </c>
-      <c r="BX69" s="26">
+      <c r="BX69" s="12">
         <v>0.47182712467392207</v>
       </c>
-      <c r="BY69" s="26">
+      <c r="BY69" s="12">
         <v>4.6790550569243408</v>
       </c>
       <c r="BZ69" s="12">
@@ -33236,11 +33252,13 @@
       <c r="CH69" s="12">
         <v>8.0328176860315068</v>
       </c>
-      <c r="CI69" s="35"/>
-      <c r="CJ69" s="35"/>
-      <c r="CK69" s="35"/>
-      <c r="CL69" s="35"/>
-      <c r="CM69" s="39"/>
+      <c r="CI69" s="12">
+        <v>4.5600803444950202</v>
+      </c>
+      <c r="CJ69" s="12"/>
+      <c r="CK69" s="12"/>
+      <c r="CL69" s="12"/>
+      <c r="CM69" s="11"/>
       <c r="CN69" s="17"/>
       <c r="CO69" s="17"/>
       <c r="CP69" s="17"/>
@@ -33302,7 +33320,7 @@
       <c r="ET69" s="17"/>
       <c r="EU69" s="17"/>
     </row>
-    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>12</v>
       </c>
@@ -33522,16 +33540,16 @@
       <c r="BU70" s="12">
         <v>10.601425928743097</v>
       </c>
-      <c r="BV70" s="26">
+      <c r="BV70" s="12">
         <v>9.0858761273616011</v>
       </c>
-      <c r="BW70" s="26">
+      <c r="BW70" s="12">
         <v>5.8484610377850856</v>
       </c>
-      <c r="BX70" s="26">
+      <c r="BX70" s="12">
         <v>1.2396183644570442</v>
       </c>
-      <c r="BY70" s="26">
+      <c r="BY70" s="12">
         <v>0.40435108720457436</v>
       </c>
       <c r="BZ70" s="12">
@@ -33559,13 +33577,15 @@
         <v>3.7210101118241283</v>
       </c>
       <c r="CH70" s="12">
-        <v>7.294009998558181</v>
-      </c>
-      <c r="CI70" s="35"/>
-      <c r="CJ70" s="35"/>
-      <c r="CK70" s="35"/>
-      <c r="CL70" s="35"/>
-      <c r="CM70" s="39"/>
+        <v>9.46052088220992</v>
+      </c>
+      <c r="CI70" s="12">
+        <v>7.1300778156031015</v>
+      </c>
+      <c r="CJ70" s="12"/>
+      <c r="CK70" s="12"/>
+      <c r="CL70" s="12"/>
+      <c r="CM70" s="11"/>
       <c r="CN70" s="17"/>
       <c r="CO70" s="17"/>
       <c r="CP70" s="17"/>
@@ -33627,7 +33647,7 @@
       <c r="ET70" s="17"/>
       <c r="EU70" s="17"/>
     </row>
-    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -33700,10 +33720,10 @@
       <c r="BS71" s="11"/>
       <c r="BT71" s="11"/>
       <c r="BU71" s="11"/>
-      <c r="BV71" s="22"/>
-      <c r="BW71" s="22"/>
-      <c r="BX71" s="22"/>
-      <c r="BY71" s="22"/>
+      <c r="BV71" s="11"/>
+      <c r="BW71" s="11"/>
+      <c r="BX71" s="11"/>
+      <c r="BY71" s="11"/>
       <c r="BZ71" s="11"/>
       <c r="CA71" s="11"/>
       <c r="CB71" s="11"/>
@@ -33713,11 +33733,11 @@
       <c r="CF71" s="11"/>
       <c r="CG71" s="11"/>
       <c r="CH71" s="11"/>
-      <c r="CI71" s="35"/>
-      <c r="CJ71" s="35"/>
-      <c r="CK71" s="35"/>
-      <c r="CL71" s="35"/>
-      <c r="CM71" s="39"/>
+      <c r="CI71" s="11"/>
+      <c r="CJ71" s="11"/>
+      <c r="CK71" s="11"/>
+      <c r="CL71" s="11"/>
+      <c r="CM71" s="11"/>
       <c r="CN71" s="17"/>
       <c r="CO71" s="17"/>
       <c r="CP71" s="17"/>
@@ -33779,7 +33799,7 @@
       <c r="ET71" s="17"/>
       <c r="EU71" s="17"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>13</v>
       </c>
@@ -33999,16 +34019,16 @@
       <c r="BU72" s="12">
         <v>14.492174302780995</v>
       </c>
-      <c r="BV72" s="26">
+      <c r="BV72" s="12">
         <v>3.7988692006541385</v>
       </c>
-      <c r="BW72" s="26">
+      <c r="BW72" s="12">
         <v>10.529216044818227</v>
       </c>
-      <c r="BX72" s="26">
+      <c r="BX72" s="12">
         <v>0.75677251628671627</v>
       </c>
-      <c r="BY72" s="26">
+      <c r="BY72" s="12">
         <v>2.9721234905994152</v>
       </c>
       <c r="BZ72" s="12">
@@ -34036,13 +34056,15 @@
         <v>7.2606091209097059</v>
       </c>
       <c r="CH72" s="12">
-        <v>7.807782600507835</v>
-      </c>
-      <c r="CI72" s="35"/>
-      <c r="CJ72" s="35"/>
-      <c r="CK72" s="35"/>
-      <c r="CL72" s="35"/>
-      <c r="CM72" s="39"/>
+        <v>8.4676849949427435</v>
+      </c>
+      <c r="CI72" s="12">
+        <v>5.2596947314763582</v>
+      </c>
+      <c r="CJ72" s="12"/>
+      <c r="CK72" s="12"/>
+      <c r="CL72" s="12"/>
+      <c r="CM72" s="11"/>
       <c r="CN72" s="17"/>
       <c r="CO72" s="17"/>
       <c r="CP72" s="17"/>
@@ -34104,7 +34126,7 @@
       <c r="ET72" s="17"/>
       <c r="EU72" s="17"/>
     </row>
-    <row r="73" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -34178,10 +34200,10 @@
       <c r="BS73" s="9"/>
       <c r="BT73" s="9"/>
       <c r="BU73" s="9"/>
-      <c r="BV73" s="24"/>
-      <c r="BW73" s="24"/>
-      <c r="BX73" s="24"/>
-      <c r="BY73" s="24"/>
+      <c r="BV73" s="9"/>
+      <c r="BW73" s="9"/>
+      <c r="BX73" s="9"/>
+      <c r="BY73" s="9"/>
       <c r="BZ73" s="9"/>
       <c r="CA73" s="9"/>
       <c r="CB73" s="9"/>
@@ -34191,13 +34213,13 @@
       <c r="CF73" s="9"/>
       <c r="CG73" s="9"/>
       <c r="CH73" s="9"/>
-      <c r="CI73" s="38"/>
-      <c r="CJ73" s="38"/>
-      <c r="CK73" s="38"/>
-      <c r="CL73" s="38"/>
-      <c r="CM73" s="34"/>
+      <c r="CI73" s="9"/>
+      <c r="CJ73" s="9"/>
+      <c r="CK73" s="9"/>
+      <c r="CL73" s="9"/>
+      <c r="CM73" s="9"/>
     </row>
-    <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
@@ -34273,10 +34295,10 @@
       <c r="BS74" s="3"/>
       <c r="BT74" s="3"/>
       <c r="BU74" s="3"/>
-      <c r="BV74" s="19"/>
-      <c r="BW74" s="19"/>
-      <c r="BX74" s="19"/>
-      <c r="BY74" s="19"/>
+      <c r="BV74" s="3"/>
+      <c r="BW74" s="3"/>
+      <c r="BX74" s="3"/>
+      <c r="BY74" s="3"/>
       <c r="BZ74" s="3"/>
       <c r="CA74" s="3"/>
       <c r="CB74" s="3"/>
@@ -34286,13 +34308,13 @@
       <c r="CF74" s="3"/>
       <c r="CG74" s="3"/>
       <c r="CH74" s="3"/>
-      <c r="CI74" s="33"/>
-      <c r="CJ74" s="33"/>
-      <c r="CK74" s="33"/>
-      <c r="CL74" s="33"/>
-      <c r="CM74" s="34"/>
+      <c r="CI74" s="3"/>
+      <c r="CJ74" s="3"/>
+      <c r="CK74" s="3"/>
+      <c r="CL74" s="3"/>
+      <c r="CM74" s="3"/>
     </row>
-    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -34365,24 +34387,24 @@
       <c r="BS75" s="11"/>
       <c r="BT75" s="11"/>
       <c r="BU75" s="11"/>
-      <c r="BV75" s="22"/>
-      <c r="BW75" s="22"/>
-      <c r="BX75" s="22"/>
-      <c r="BY75" s="22"/>
+      <c r="BV75" s="11"/>
+      <c r="BW75" s="11"/>
+      <c r="BX75" s="11"/>
+      <c r="BY75" s="11"/>
       <c r="BZ75" s="11"/>
       <c r="CA75" s="11"/>
-      <c r="CB75" s="17"/>
-      <c r="CC75" s="17"/>
+      <c r="CB75" s="11"/>
+      <c r="CC75" s="11"/>
       <c r="CD75" s="11"/>
       <c r="CE75" s="11"/>
-      <c r="CF75" s="17"/>
-      <c r="CG75" s="17"/>
+      <c r="CF75" s="11"/>
+      <c r="CG75" s="11"/>
       <c r="CH75" s="17"/>
-      <c r="CI75" s="39"/>
-      <c r="CJ75" s="39"/>
-      <c r="CK75" s="39"/>
-      <c r="CL75" s="39"/>
-      <c r="CM75" s="39"/>
+      <c r="CI75" s="17"/>
+      <c r="CJ75" s="17"/>
+      <c r="CK75" s="17"/>
+      <c r="CL75" s="17"/>
+      <c r="CM75" s="17"/>
       <c r="CN75" s="17"/>
       <c r="CO75" s="17"/>
       <c r="CP75" s="17"/>
@@ -34444,7 +34466,7 @@
       <c r="ET75" s="17"/>
       <c r="EU75" s="17"/>
     </row>
-    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -34517,24 +34539,24 @@
       <c r="BS76" s="11"/>
       <c r="BT76" s="11"/>
       <c r="BU76" s="11"/>
-      <c r="BV76" s="22"/>
-      <c r="BW76" s="22"/>
-      <c r="BX76" s="22"/>
-      <c r="BY76" s="22"/>
+      <c r="BV76" s="11"/>
+      <c r="BW76" s="11"/>
+      <c r="BX76" s="11"/>
+      <c r="BY76" s="11"/>
       <c r="BZ76" s="11"/>
-      <c r="CA76" s="17"/>
-      <c r="CB76" s="17"/>
-      <c r="CC76" s="17"/>
-      <c r="CD76" s="17"/>
-      <c r="CE76" s="17"/>
-      <c r="CF76" s="17"/>
-      <c r="CG76" s="17"/>
+      <c r="CA76" s="11"/>
+      <c r="CB76" s="11"/>
+      <c r="CC76" s="11"/>
+      <c r="CD76" s="11"/>
+      <c r="CE76" s="11"/>
+      <c r="CF76" s="11"/>
+      <c r="CG76" s="11"/>
       <c r="CH76" s="17"/>
-      <c r="CI76" s="39"/>
-      <c r="CJ76" s="39"/>
-      <c r="CK76" s="39"/>
-      <c r="CL76" s="39"/>
-      <c r="CM76" s="39"/>
+      <c r="CI76" s="17"/>
+      <c r="CJ76" s="17"/>
+      <c r="CK76" s="17"/>
+      <c r="CL76" s="17"/>
+      <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
       <c r="CP76" s="17"/>
@@ -34596,7 +34618,7 @@
       <c r="ET76" s="17"/>
       <c r="EU76" s="17"/>
     </row>
-    <row r="77" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -34672,13 +34694,20 @@
       <c r="BS77" s="3"/>
       <c r="BT77" s="3"/>
       <c r="BU77" s="3"/>
-      <c r="BV77" s="19"/>
-      <c r="BW77" s="19"/>
-      <c r="BX77" s="19"/>
-      <c r="BY77" s="19"/>
+      <c r="BV77" s="3"/>
+      <c r="BW77" s="3"/>
+      <c r="BX77" s="3"/>
+      <c r="BY77" s="3"/>
       <c r="BZ77" s="3"/>
+      <c r="CA77" s="3"/>
+      <c r="CB77" s="3"/>
+      <c r="CC77" s="3"/>
+      <c r="CD77" s="3"/>
+      <c r="CE77" s="3"/>
+      <c r="CF77" s="3"/>
+      <c r="CG77" s="3"/>
     </row>
-    <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>48</v>
       </c>
@@ -34754,13 +34783,20 @@
       <c r="BS78" s="3"/>
       <c r="BT78" s="3"/>
       <c r="BU78" s="3"/>
-      <c r="BV78" s="19"/>
-      <c r="BW78" s="19"/>
-      <c r="BX78" s="19"/>
-      <c r="BY78" s="19"/>
+      <c r="BV78" s="3"/>
+      <c r="BW78" s="3"/>
+      <c r="BX78" s="3"/>
+      <c r="BY78" s="3"/>
       <c r="BZ78" s="3"/>
+      <c r="CA78" s="3"/>
+      <c r="CB78" s="3"/>
+      <c r="CC78" s="3"/>
+      <c r="CD78" s="3"/>
+      <c r="CE78" s="3"/>
+      <c r="CF78" s="3"/>
+      <c r="CG78" s="3"/>
     </row>
-    <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -34834,13 +34870,20 @@
       <c r="BS79" s="3"/>
       <c r="BT79" s="3"/>
       <c r="BU79" s="3"/>
-      <c r="BV79" s="19"/>
-      <c r="BW79" s="19"/>
-      <c r="BX79" s="19"/>
-      <c r="BY79" s="19"/>
+      <c r="BV79" s="3"/>
+      <c r="BW79" s="3"/>
+      <c r="BX79" s="3"/>
+      <c r="BY79" s="3"/>
       <c r="BZ79" s="3"/>
+      <c r="CA79" s="3"/>
+      <c r="CB79" s="3"/>
+      <c r="CC79" s="3"/>
+      <c r="CD79" s="3"/>
+      <c r="CE79" s="3"/>
+      <c r="CF79" s="3"/>
+      <c r="CG79" s="3"/>
     </row>
-    <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>18</v>
       </c>
@@ -34916,13 +34959,20 @@
       <c r="BS80" s="3"/>
       <c r="BT80" s="3"/>
       <c r="BU80" s="3"/>
-      <c r="BV80" s="19"/>
-      <c r="BW80" s="19"/>
-      <c r="BX80" s="19"/>
-      <c r="BY80" s="19"/>
+      <c r="BV80" s="3"/>
+      <c r="BW80" s="3"/>
+      <c r="BX80" s="3"/>
+      <c r="BY80" s="3"/>
       <c r="BZ80" s="3"/>
+      <c r="CA80" s="3"/>
+      <c r="CB80" s="3"/>
+      <c r="CC80" s="3"/>
+      <c r="CD80" s="3"/>
+      <c r="CE80" s="3"/>
+      <c r="CF80" s="3"/>
+      <c r="CG80" s="3"/>
     </row>
-    <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>49</v>
       </c>
@@ -34998,13 +35048,20 @@
       <c r="BS81" s="3"/>
       <c r="BT81" s="3"/>
       <c r="BU81" s="3"/>
-      <c r="BV81" s="19"/>
-      <c r="BW81" s="19"/>
-      <c r="BX81" s="19"/>
-      <c r="BY81" s="19"/>
+      <c r="BV81" s="3"/>
+      <c r="BW81" s="3"/>
+      <c r="BX81" s="3"/>
+      <c r="BY81" s="3"/>
       <c r="BZ81" s="3"/>
+      <c r="CA81" s="3"/>
+      <c r="CB81" s="3"/>
+      <c r="CC81" s="3"/>
+      <c r="CD81" s="3"/>
+      <c r="CE81" s="3"/>
+      <c r="CF81" s="3"/>
+      <c r="CG81" s="3"/>
     </row>
-    <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
@@ -35080,13 +35137,20 @@
       <c r="BS82" s="3"/>
       <c r="BT82" s="3"/>
       <c r="BU82" s="3"/>
-      <c r="BV82" s="19"/>
-      <c r="BW82" s="19"/>
-      <c r="BX82" s="19"/>
-      <c r="BY82" s="19"/>
+      <c r="BV82" s="3"/>
+      <c r="BW82" s="3"/>
+      <c r="BX82" s="3"/>
+      <c r="BY82" s="3"/>
       <c r="BZ82" s="3"/>
+      <c r="CA82" s="3"/>
+      <c r="CB82" s="3"/>
+      <c r="CC82" s="3"/>
+      <c r="CD82" s="3"/>
+      <c r="CE82" s="3"/>
+      <c r="CF82" s="3"/>
+      <c r="CG82" s="3"/>
     </row>
-    <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -35160,151 +35224,159 @@
       <c r="BS83" s="3"/>
       <c r="BT83" s="3"/>
       <c r="BU83" s="3"/>
-      <c r="BV83" s="19"/>
-      <c r="BW83" s="19"/>
-      <c r="BX83" s="19"/>
-      <c r="BY83" s="19"/>
+      <c r="BV83" s="3"/>
+      <c r="BW83" s="3"/>
+      <c r="BX83" s="3"/>
+      <c r="BY83" s="3"/>
       <c r="BZ83" s="3"/>
+      <c r="CA83" s="3"/>
+      <c r="CB83" s="3"/>
+      <c r="CC83" s="3"/>
+      <c r="CD83" s="3"/>
+      <c r="CE83" s="3"/>
+      <c r="CF83" s="3"/>
+      <c r="CG83" s="3"/>
     </row>
-    <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="29">
+      <c r="B84" s="22">
         <v>2000</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="29">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="22">
         <v>2001</v>
       </c>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="29">
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="22">
         <v>2002</v>
       </c>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="29">
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="22">
         <v>2003</v>
       </c>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="29">
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="22">
         <v>2004</v>
       </c>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="29">
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="22">
         <v>2005</v>
       </c>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="29">
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="22">
         <v>2006</v>
       </c>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
-      <c r="AD84" s="29">
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="22">
         <v>2007</v>
       </c>
-      <c r="AE84" s="30"/>
-      <c r="AF84" s="30"/>
-      <c r="AG84" s="30"/>
-      <c r="AH84" s="29">
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="22">
         <v>2008</v>
       </c>
-      <c r="AI84" s="30"/>
-      <c r="AJ84" s="30"/>
-      <c r="AK84" s="30"/>
-      <c r="AL84" s="29">
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="22">
         <v>2009</v>
       </c>
-      <c r="AM84" s="30"/>
-      <c r="AN84" s="30"/>
-      <c r="AO84" s="30"/>
-      <c r="AP84" s="29">
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="30"/>
-      <c r="AR84" s="30"/>
-      <c r="AS84" s="30"/>
-      <c r="AT84" s="29">
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="22">
         <v>2011</v>
       </c>
-      <c r="AU84" s="30"/>
-      <c r="AV84" s="30"/>
-      <c r="AW84" s="30"/>
-      <c r="AX84" s="29">
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="22">
         <v>2012</v>
       </c>
-      <c r="AY84" s="30"/>
-      <c r="AZ84" s="30"/>
-      <c r="BA84" s="30"/>
-      <c r="BB84" s="29">
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="22">
         <v>2013</v>
       </c>
-      <c r="BC84" s="30"/>
-      <c r="BD84" s="30"/>
-      <c r="BE84" s="30"/>
-      <c r="BF84" s="29">
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="22">
         <v>2014</v>
       </c>
-      <c r="BG84" s="30"/>
-      <c r="BH84" s="30"/>
-      <c r="BI84" s="30"/>
-      <c r="BJ84" s="29">
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="22">
         <v>2015</v>
       </c>
-      <c r="BK84" s="30"/>
-      <c r="BL84" s="30"/>
-      <c r="BM84" s="30"/>
-      <c r="BN84" s="29">
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="23"/>
+      <c r="BM84" s="23"/>
+      <c r="BN84" s="22">
         <v>2016</v>
       </c>
-      <c r="BO84" s="30"/>
-      <c r="BP84" s="30"/>
-      <c r="BQ84" s="30"/>
-      <c r="BR84" s="29">
+      <c r="BO84" s="23"/>
+      <c r="BP84" s="23"/>
+      <c r="BQ84" s="23"/>
+      <c r="BR84" s="22">
         <v>2017</v>
       </c>
-      <c r="BS84" s="30"/>
-      <c r="BT84" s="30"/>
-      <c r="BU84" s="30"/>
-      <c r="BV84" s="31">
+      <c r="BS84" s="23"/>
+      <c r="BT84" s="23"/>
+      <c r="BU84" s="23"/>
+      <c r="BV84" s="22">
         <v>2018</v>
       </c>
-      <c r="BW84" s="32"/>
-      <c r="BX84" s="32"/>
-      <c r="BY84" s="32"/>
-      <c r="BZ84" s="29">
+      <c r="BW84" s="23"/>
+      <c r="BX84" s="23"/>
+      <c r="BY84" s="23"/>
+      <c r="BZ84" s="22">
         <v>2019</v>
       </c>
-      <c r="CA84" s="30"/>
-      <c r="CB84" s="30"/>
-      <c r="CC84" s="30"/>
-      <c r="CD84" s="29">
+      <c r="CA84" s="23"/>
+      <c r="CB84" s="23"/>
+      <c r="CC84" s="23"/>
+      <c r="CD84" s="22">
         <v>2020</v>
       </c>
-      <c r="CE84" s="29"/>
-      <c r="CF84" s="29"/>
-      <c r="CG84" s="29"/>
-      <c r="CH84" s="29">
+      <c r="CE84" s="23"/>
+      <c r="CF84" s="23"/>
+      <c r="CG84" s="23"/>
+      <c r="CH84" s="22">
         <v>2021</v>
       </c>
-      <c r="CI84" s="29"/>
-      <c r="CJ84" s="29"/>
-      <c r="CK84" s="29"/>
-      <c r="CL84" s="28">
+      <c r="CI84" s="22"/>
+      <c r="CJ84" s="22"/>
+      <c r="CK84" s="22"/>
+      <c r="CL84" s="22">
         <v>2022</v>
       </c>
+      <c r="CM84" s="22"/>
     </row>
-    <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -35524,16 +35596,16 @@
       <c r="BU85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV85" s="20" t="s">
+      <c r="BV85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW85" s="20" t="s">
+      <c r="BW85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX85" s="20" t="s">
+      <c r="BX85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY85" s="20" t="s">
+      <c r="BY85" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ85" s="6" t="s">
@@ -35575,8 +35647,11 @@
       <c r="CL85" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM85" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -35650,13 +35725,20 @@
       <c r="BS86" s="3"/>
       <c r="BT86" s="3"/>
       <c r="BU86" s="3"/>
-      <c r="BV86" s="19"/>
-      <c r="BW86" s="19"/>
-      <c r="BX86" s="19"/>
-      <c r="BY86" s="19"/>
+      <c r="BV86" s="3"/>
+      <c r="BW86" s="3"/>
+      <c r="BX86" s="3"/>
+      <c r="BY86" s="3"/>
       <c r="BZ86" s="3"/>
+      <c r="CA86" s="3"/>
+      <c r="CB86" s="3"/>
+      <c r="CC86" s="3"/>
+      <c r="CD86" s="3"/>
+      <c r="CE86" s="3"/>
+      <c r="CF86" s="3"/>
+      <c r="CG86" s="3"/>
     </row>
-    <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
@@ -35876,16 +35958,16 @@
       <c r="BU87" s="12">
         <v>107.86543192144325</v>
       </c>
-      <c r="BV87" s="26">
+      <c r="BV87" s="12">
         <v>87.762889275727019</v>
       </c>
-      <c r="BW87" s="26">
+      <c r="BW87" s="12">
         <v>96.741766907057411</v>
       </c>
-      <c r="BX87" s="26">
+      <c r="BX87" s="12">
         <v>100.11179400741888</v>
       </c>
-      <c r="BY87" s="26">
+      <c r="BY87" s="12">
         <v>116.88636970266744</v>
       </c>
       <c r="BZ87" s="12">
@@ -35927,7 +36009,9 @@
       <c r="CL87" s="12">
         <v>106.31873751394872</v>
       </c>
-      <c r="CM87" s="17"/>
+      <c r="CM87" s="12">
+        <v>106.78871627269469</v>
+      </c>
       <c r="CN87" s="17"/>
       <c r="CO87" s="17"/>
       <c r="CP87" s="17"/>
@@ -35989,7 +36073,7 @@
       <c r="ET87" s="17"/>
       <c r="EU87" s="17"/>
     </row>
-    <row r="88" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -36209,16 +36293,16 @@
       <c r="BU88" s="12">
         <v>109.92095125895467</v>
       </c>
-      <c r="BV88" s="26">
+      <c r="BV88" s="12">
         <v>94.459049428648484</v>
       </c>
-      <c r="BW88" s="26">
+      <c r="BW88" s="12">
         <v>99.071909707073061</v>
       </c>
-      <c r="BX88" s="26">
+      <c r="BX88" s="12">
         <v>102.02796129513921</v>
       </c>
-      <c r="BY88" s="26">
+      <c r="BY88" s="12">
         <v>104.09936633050978</v>
       </c>
       <c r="BZ88" s="12">
@@ -36260,7 +36344,9 @@
       <c r="CL88" s="12">
         <v>97.715788312788192</v>
       </c>
-      <c r="CM88" s="17"/>
+      <c r="CM88" s="12">
+        <v>99.860022906533374</v>
+      </c>
       <c r="CN88" s="17"/>
       <c r="CO88" s="17"/>
       <c r="CP88" s="17"/>
@@ -36322,7 +36408,7 @@
       <c r="ET88" s="17"/>
       <c r="EU88" s="17"/>
     </row>
-    <row r="89" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -36395,10 +36481,10 @@
       <c r="BS89" s="11"/>
       <c r="BT89" s="11"/>
       <c r="BU89" s="11"/>
-      <c r="BV89" s="22"/>
-      <c r="BW89" s="22"/>
-      <c r="BX89" s="22"/>
-      <c r="BY89" s="22"/>
+      <c r="BV89" s="11"/>
+      <c r="BW89" s="11"/>
+      <c r="BX89" s="11"/>
+      <c r="BY89" s="11"/>
       <c r="BZ89" s="11"/>
       <c r="CA89" s="11"/>
       <c r="CB89" s="11"/>
@@ -36412,7 +36498,7 @@
       <c r="CJ89" s="11"/>
       <c r="CK89" s="11"/>
       <c r="CL89" s="11"/>
-      <c r="CM89" s="17"/>
+      <c r="CM89" s="11"/>
       <c r="CN89" s="17"/>
       <c r="CO89" s="17"/>
       <c r="CP89" s="17"/>
@@ -36474,7 +36560,7 @@
       <c r="ET89" s="17"/>
       <c r="EU89" s="17"/>
     </row>
-    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>13</v>
       </c>
@@ -36694,16 +36780,16 @@
       <c r="BU90" s="12">
         <v>108.71509492639963</v>
       </c>
-      <c r="BV90" s="26">
+      <c r="BV90" s="12">
         <v>90.197798065485003</v>
       </c>
-      <c r="BW90" s="26">
+      <c r="BW90" s="12">
         <v>97.605838727021364</v>
       </c>
-      <c r="BX90" s="26">
+      <c r="BX90" s="12">
         <v>100.82292876632719</v>
       </c>
-      <c r="BY90" s="26">
+      <c r="BY90" s="12">
         <v>111.78039280947215</v>
       </c>
       <c r="BZ90" s="12">
@@ -36743,9 +36829,11 @@
         <v>120.27347556407308</v>
       </c>
       <c r="CL90" s="12">
-        <v>103.71083381137703</v>
-      </c>
-      <c r="CM90" s="17"/>
+        <v>103.67436078367804</v>
+      </c>
+      <c r="CM90" s="12">
+        <v>104.8690457693707</v>
+      </c>
       <c r="CN90" s="17"/>
       <c r="CO90" s="17"/>
       <c r="CP90" s="17"/>
@@ -36807,7 +36895,7 @@
       <c r="ET90" s="17"/>
       <c r="EU90" s="17"/>
     </row>
-    <row r="91" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -36881,10 +36969,10 @@
       <c r="BS91" s="9"/>
       <c r="BT91" s="9"/>
       <c r="BU91" s="9"/>
-      <c r="BV91" s="24"/>
-      <c r="BW91" s="24"/>
-      <c r="BX91" s="24"/>
-      <c r="BY91" s="24"/>
+      <c r="BV91" s="9"/>
+      <c r="BW91" s="9"/>
+      <c r="BX91" s="9"/>
+      <c r="BY91" s="9"/>
       <c r="BZ91" s="9"/>
       <c r="CA91" s="9"/>
       <c r="CB91" s="9"/>
@@ -36898,8 +36986,9 @@
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
+      <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>0</v>
       </c>
@@ -36975,13 +37064,20 @@
       <c r="BS92" s="3"/>
       <c r="BT92" s="3"/>
       <c r="BU92" s="3"/>
-      <c r="BV92" s="19"/>
-      <c r="BW92" s="19"/>
-      <c r="BX92" s="19"/>
-      <c r="BY92" s="19"/>
+      <c r="BV92" s="3"/>
+      <c r="BW92" s="3"/>
+      <c r="BX92" s="3"/>
+      <c r="BY92" s="3"/>
       <c r="BZ92" s="3"/>
+      <c r="CA92" s="3"/>
+      <c r="CB92" s="3"/>
+      <c r="CC92" s="3"/>
+      <c r="CD92" s="3"/>
+      <c r="CE92" s="3"/>
+      <c r="CF92" s="3"/>
+      <c r="CG92" s="3"/>
     </row>
-    <row r="93" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:151" x14ac:dyDescent="0.3">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -37054,10 +37150,10 @@
       <c r="BS93" s="3"/>
       <c r="BT93" s="3"/>
       <c r="BU93" s="3"/>
-      <c r="BV93" s="19"/>
-      <c r="BW93" s="19"/>
-      <c r="BX93" s="19"/>
-      <c r="BY93" s="19"/>
+      <c r="BV93" s="3"/>
+      <c r="BW93" s="3"/>
+      <c r="BX93" s="3"/>
+      <c r="BY93" s="3"/>
       <c r="BZ93" s="3"/>
       <c r="CA93" s="3"/>
       <c r="CB93" s="3"/>
@@ -37071,8 +37167,9 @@
       <c r="CJ93" s="3"/>
       <c r="CK93" s="3"/>
       <c r="CL93" s="3"/>
+      <c r="CM93" s="3"/>
     </row>
-    <row r="94" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:151" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -37145,10 +37242,10 @@
       <c r="BS94" s="3"/>
       <c r="BT94" s="3"/>
       <c r="BU94" s="3"/>
-      <c r="BV94" s="19"/>
-      <c r="BW94" s="19"/>
-      <c r="BX94" s="19"/>
-      <c r="BY94" s="19"/>
+      <c r="BV94" s="3"/>
+      <c r="BW94" s="3"/>
+      <c r="BX94" s="3"/>
+      <c r="BY94" s="3"/>
       <c r="BZ94" s="3"/>
       <c r="CA94" s="3"/>
       <c r="CB94" s="3"/>
@@ -37162,8 +37259,9 @@
       <c r="CJ94" s="3"/>
       <c r="CK94" s="3"/>
       <c r="CL94" s="3"/>
+      <c r="CM94" s="3"/>
     </row>
-    <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -37239,10 +37337,10 @@
       <c r="BS95" s="3"/>
       <c r="BT95" s="3"/>
       <c r="BU95" s="3"/>
-      <c r="BV95" s="19"/>
-      <c r="BW95" s="19"/>
-      <c r="BX95" s="19"/>
-      <c r="BY95" s="19"/>
+      <c r="BV95" s="3"/>
+      <c r="BW95" s="3"/>
+      <c r="BX95" s="3"/>
+      <c r="BY95" s="3"/>
       <c r="BZ95" s="3"/>
       <c r="CA95" s="3"/>
       <c r="CB95" s="3"/>
@@ -37256,8 +37354,9 @@
       <c r="CJ95" s="3"/>
       <c r="CK95" s="3"/>
       <c r="CL95" s="3"/>
+      <c r="CM95" s="3"/>
     </row>
-    <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
@@ -37333,10 +37432,10 @@
       <c r="BS96" s="3"/>
       <c r="BT96" s="3"/>
       <c r="BU96" s="3"/>
-      <c r="BV96" s="19"/>
-      <c r="BW96" s="19"/>
-      <c r="BX96" s="19"/>
-      <c r="BY96" s="19"/>
+      <c r="BV96" s="3"/>
+      <c r="BW96" s="3"/>
+      <c r="BX96" s="3"/>
+      <c r="BY96" s="3"/>
       <c r="BZ96" s="3"/>
       <c r="CA96" s="3"/>
       <c r="CB96" s="3"/>
@@ -37350,8 +37449,9 @@
       <c r="CJ96" s="3"/>
       <c r="CK96" s="3"/>
       <c r="CL96" s="3"/>
+      <c r="CM96" s="3"/>
     </row>
-    <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>48</v>
       </c>
@@ -37427,10 +37527,10 @@
       <c r="BS97" s="3"/>
       <c r="BT97" s="3"/>
       <c r="BU97" s="3"/>
-      <c r="BV97" s="19"/>
-      <c r="BW97" s="19"/>
-      <c r="BX97" s="19"/>
-      <c r="BY97" s="19"/>
+      <c r="BV97" s="3"/>
+      <c r="BW97" s="3"/>
+      <c r="BX97" s="3"/>
+      <c r="BY97" s="3"/>
       <c r="BZ97" s="3"/>
       <c r="CA97" s="3"/>
       <c r="CB97" s="3"/>
@@ -37444,8 +37544,9 @@
       <c r="CJ97" s="3"/>
       <c r="CK97" s="3"/>
       <c r="CL97" s="3"/>
+      <c r="CM97" s="3"/>
     </row>
-    <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -37519,10 +37620,10 @@
       <c r="BS98" s="3"/>
       <c r="BT98" s="3"/>
       <c r="BU98" s="3"/>
-      <c r="BV98" s="19"/>
-      <c r="BW98" s="19"/>
-      <c r="BX98" s="19"/>
-      <c r="BY98" s="19"/>
+      <c r="BV98" s="3"/>
+      <c r="BW98" s="3"/>
+      <c r="BX98" s="3"/>
+      <c r="BY98" s="3"/>
       <c r="BZ98" s="3"/>
       <c r="CA98" s="3"/>
       <c r="CB98" s="3"/>
@@ -37536,8 +37637,9 @@
       <c r="CJ98" s="3"/>
       <c r="CK98" s="3"/>
       <c r="CL98" s="3"/>
+      <c r="CM98" s="3"/>
     </row>
-    <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>19</v>
       </c>
@@ -37613,10 +37715,10 @@
       <c r="BS99" s="3"/>
       <c r="BT99" s="3"/>
       <c r="BU99" s="3"/>
-      <c r="BV99" s="19"/>
-      <c r="BW99" s="19"/>
-      <c r="BX99" s="19"/>
-      <c r="BY99" s="19"/>
+      <c r="BV99" s="3"/>
+      <c r="BW99" s="3"/>
+      <c r="BX99" s="3"/>
+      <c r="BY99" s="3"/>
       <c r="BZ99" s="3"/>
       <c r="CA99" s="3"/>
       <c r="CB99" s="3"/>
@@ -37630,8 +37732,9 @@
       <c r="CJ99" s="3"/>
       <c r="CK99" s="3"/>
       <c r="CL99" s="3"/>
+      <c r="CM99" s="3"/>
     </row>
-    <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>49</v>
       </c>
@@ -37707,10 +37810,10 @@
       <c r="BS100" s="3"/>
       <c r="BT100" s="3"/>
       <c r="BU100" s="3"/>
-      <c r="BV100" s="19"/>
-      <c r="BW100" s="19"/>
-      <c r="BX100" s="19"/>
-      <c r="BY100" s="19"/>
+      <c r="BV100" s="3"/>
+      <c r="BW100" s="3"/>
+      <c r="BX100" s="3"/>
+      <c r="BY100" s="3"/>
       <c r="BZ100" s="3"/>
       <c r="CA100" s="3"/>
       <c r="CB100" s="3"/>
@@ -37724,8 +37827,9 @@
       <c r="CJ100" s="3"/>
       <c r="CK100" s="3"/>
       <c r="CL100" s="3"/>
+      <c r="CM100" s="3"/>
     </row>
-    <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>23</v>
       </c>
@@ -37801,10 +37905,10 @@
       <c r="BS101" s="3"/>
       <c r="BT101" s="3"/>
       <c r="BU101" s="3"/>
-      <c r="BV101" s="19"/>
-      <c r="BW101" s="19"/>
-      <c r="BX101" s="19"/>
-      <c r="BY101" s="19"/>
+      <c r="BV101" s="3"/>
+      <c r="BW101" s="3"/>
+      <c r="BX101" s="3"/>
+      <c r="BY101" s="3"/>
       <c r="BZ101" s="3"/>
       <c r="CA101" s="3"/>
       <c r="CB101" s="3"/>
@@ -37818,8 +37922,9 @@
       <c r="CJ101" s="3"/>
       <c r="CK101" s="3"/>
       <c r="CL101" s="3"/>
+      <c r="CM101" s="3"/>
     </row>
-    <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -37893,10 +37998,10 @@
       <c r="BS102" s="3"/>
       <c r="BT102" s="3"/>
       <c r="BU102" s="3"/>
-      <c r="BV102" s="19"/>
-      <c r="BW102" s="19"/>
-      <c r="BX102" s="19"/>
-      <c r="BY102" s="19"/>
+      <c r="BV102" s="3"/>
+      <c r="BW102" s="3"/>
+      <c r="BX102" s="3"/>
+      <c r="BY102" s="3"/>
       <c r="BZ102" s="3"/>
       <c r="CA102" s="3"/>
       <c r="CB102" s="3"/>
@@ -37910,146 +38015,148 @@
       <c r="CJ102" s="3"/>
       <c r="CK102" s="3"/>
       <c r="CL102" s="3"/>
+      <c r="CM102" s="3"/>
     </row>
-    <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="29">
+      <c r="B103" s="22">
         <v>2000</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="29">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="22">
         <v>2001</v>
       </c>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="29">
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="22">
         <v>2002</v>
       </c>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
-      <c r="N103" s="29">
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="22">
         <v>2003</v>
       </c>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="29">
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="22">
         <v>2004</v>
       </c>
-      <c r="S103" s="30"/>
-      <c r="T103" s="30"/>
-      <c r="U103" s="30"/>
-      <c r="V103" s="29">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="22">
         <v>2005</v>
       </c>
-      <c r="W103" s="30"/>
-      <c r="X103" s="30"/>
-      <c r="Y103" s="30"/>
-      <c r="Z103" s="29">
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="22">
         <v>2006</v>
       </c>
-      <c r="AA103" s="30"/>
-      <c r="AB103" s="30"/>
-      <c r="AC103" s="30"/>
-      <c r="AD103" s="29">
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="22">
         <v>2007</v>
       </c>
-      <c r="AE103" s="30"/>
-      <c r="AF103" s="30"/>
-      <c r="AG103" s="30"/>
-      <c r="AH103" s="29">
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="22">
         <v>2008</v>
       </c>
-      <c r="AI103" s="30"/>
-      <c r="AJ103" s="30"/>
-      <c r="AK103" s="30"/>
-      <c r="AL103" s="29">
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="22">
         <v>2009</v>
       </c>
-      <c r="AM103" s="30"/>
-      <c r="AN103" s="30"/>
-      <c r="AO103" s="30"/>
-      <c r="AP103" s="29">
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="30"/>
-      <c r="AR103" s="30"/>
-      <c r="AS103" s="30"/>
-      <c r="AT103" s="29">
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="22">
         <v>2011</v>
       </c>
-      <c r="AU103" s="30"/>
-      <c r="AV103" s="30"/>
-      <c r="AW103" s="30"/>
-      <c r="AX103" s="29">
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="22">
         <v>2012</v>
       </c>
-      <c r="AY103" s="30"/>
-      <c r="AZ103" s="30"/>
-      <c r="BA103" s="30"/>
-      <c r="BB103" s="29">
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="22">
         <v>2013</v>
       </c>
-      <c r="BC103" s="30"/>
-      <c r="BD103" s="30"/>
-      <c r="BE103" s="30"/>
-      <c r="BF103" s="29">
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="22">
         <v>2014</v>
       </c>
-      <c r="BG103" s="30"/>
-      <c r="BH103" s="30"/>
-      <c r="BI103" s="30"/>
-      <c r="BJ103" s="29">
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="22">
         <v>2015</v>
       </c>
-      <c r="BK103" s="30"/>
-      <c r="BL103" s="30"/>
-      <c r="BM103" s="30"/>
-      <c r="BN103" s="29">
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="23"/>
+      <c r="BM103" s="23"/>
+      <c r="BN103" s="22">
         <v>2016</v>
       </c>
-      <c r="BO103" s="30"/>
-      <c r="BP103" s="30"/>
-      <c r="BQ103" s="30"/>
-      <c r="BR103" s="29">
+      <c r="BO103" s="23"/>
+      <c r="BP103" s="23"/>
+      <c r="BQ103" s="23"/>
+      <c r="BR103" s="22">
         <v>2017</v>
       </c>
-      <c r="BS103" s="30"/>
-      <c r="BT103" s="30"/>
-      <c r="BU103" s="30"/>
-      <c r="BV103" s="31">
+      <c r="BS103" s="23"/>
+      <c r="BT103" s="23"/>
+      <c r="BU103" s="23"/>
+      <c r="BV103" s="22">
         <v>2018</v>
       </c>
-      <c r="BW103" s="32"/>
-      <c r="BX103" s="32"/>
-      <c r="BY103" s="32"/>
-      <c r="BZ103" s="29">
+      <c r="BW103" s="23"/>
+      <c r="BX103" s="23"/>
+      <c r="BY103" s="23"/>
+      <c r="BZ103" s="22">
         <v>2019</v>
       </c>
-      <c r="CA103" s="30"/>
-      <c r="CB103" s="30"/>
-      <c r="CC103" s="30"/>
-      <c r="CD103" s="29">
+      <c r="CA103" s="23"/>
+      <c r="CB103" s="23"/>
+      <c r="CC103" s="23"/>
+      <c r="CD103" s="22">
         <v>2020</v>
       </c>
-      <c r="CE103" s="29"/>
-      <c r="CF103" s="29"/>
-      <c r="CG103" s="29"/>
-      <c r="CH103" s="29">
+      <c r="CE103" s="23"/>
+      <c r="CF103" s="23"/>
+      <c r="CG103" s="23"/>
+      <c r="CH103" s="22">
         <v>2021</v>
       </c>
-      <c r="CI103" s="29"/>
-      <c r="CJ103" s="29"/>
-      <c r="CK103" s="29"/>
-      <c r="CL103" s="28">
+      <c r="CI103" s="22"/>
+      <c r="CJ103" s="22"/>
+      <c r="CK103" s="22"/>
+      <c r="CL103" s="22">
         <v>2022</v>
       </c>
+      <c r="CM103" s="22"/>
     </row>
-    <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -38269,16 +38376,16 @@
       <c r="BU104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV104" s="20" t="s">
+      <c r="BV104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW104" s="20" t="s">
+      <c r="BW104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX104" s="20" t="s">
+      <c r="BX104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY104" s="20" t="s">
+      <c r="BY104" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ104" s="6" t="s">
@@ -38320,8 +38427,11 @@
       <c r="CL104" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM104" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -38395,10 +38505,10 @@
       <c r="BS105" s="3"/>
       <c r="BT105" s="3"/>
       <c r="BU105" s="3"/>
-      <c r="BV105" s="19"/>
-      <c r="BW105" s="19"/>
-      <c r="BX105" s="19"/>
-      <c r="BY105" s="19"/>
+      <c r="BV105" s="3"/>
+      <c r="BW105" s="3"/>
+      <c r="BX105" s="3"/>
+      <c r="BY105" s="3"/>
       <c r="BZ105" s="3"/>
       <c r="CA105" s="3"/>
       <c r="CB105" s="3"/>
@@ -38412,8 +38522,9 @@
       <c r="CJ105" s="3"/>
       <c r="CK105" s="3"/>
       <c r="CL105" s="3"/>
+      <c r="CM105" s="3"/>
     </row>
-    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
@@ -38633,16 +38744,16 @@
       <c r="BU106" s="12">
         <v>58.205823635486887</v>
       </c>
-      <c r="BV106" s="26">
+      <c r="BV106" s="12">
         <v>61.919337043766788</v>
       </c>
-      <c r="BW106" s="26">
+      <c r="BW106" s="12">
         <v>62.360656367228309</v>
       </c>
-      <c r="BX106" s="26">
+      <c r="BX106" s="12">
         <v>62.444081778149688</v>
       </c>
-      <c r="BY106" s="26">
+      <c r="BY106" s="12">
         <v>62.812882172611914</v>
       </c>
       <c r="BZ106" s="12">
@@ -38682,9 +38793,11 @@
         <v>69.005300385501485</v>
       </c>
       <c r="CL106" s="12">
-        <v>71.438250454692991</v>
-      </c>
-      <c r="CM106" s="17"/>
+        <v>71.02860936131232</v>
+      </c>
+      <c r="CM106" s="12">
+        <v>73.617272298446196</v>
+      </c>
       <c r="CN106" s="17"/>
       <c r="CO106" s="17"/>
       <c r="CP106" s="17"/>
@@ -38750,7 +38863,7 @@
       <c r="EX106" s="17"/>
       <c r="EY106" s="17"/>
     </row>
-    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -38970,16 +39083,16 @@
       <c r="BU107" s="12">
         <v>41.794176364513106</v>
       </c>
-      <c r="BV107" s="26">
+      <c r="BV107" s="12">
         <v>38.080662956233205</v>
       </c>
-      <c r="BW107" s="26">
+      <c r="BW107" s="12">
         <v>37.639343632771691</v>
       </c>
-      <c r="BX107" s="26">
+      <c r="BX107" s="12">
         <v>37.555918221850312</v>
       </c>
-      <c r="BY107" s="26">
+      <c r="BY107" s="12">
         <v>37.187117827388072</v>
       </c>
       <c r="BZ107" s="12">
@@ -39019,9 +39132,11 @@
         <v>30.994699614498504</v>
       </c>
       <c r="CL107" s="12">
-        <v>28.561749545307013</v>
-      </c>
-      <c r="CM107" s="17"/>
+        <v>28.971390638687676</v>
+      </c>
+      <c r="CM107" s="12">
+        <v>26.382727701553797</v>
+      </c>
       <c r="CN107" s="17"/>
       <c r="CO107" s="17"/>
       <c r="CP107" s="17"/>
@@ -39087,7 +39202,7 @@
       <c r="EX107" s="17"/>
       <c r="EY107" s="17"/>
     </row>
-    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -39160,10 +39275,10 @@
       <c r="BS108" s="11"/>
       <c r="BT108" s="11"/>
       <c r="BU108" s="11"/>
-      <c r="BV108" s="22"/>
-      <c r="BW108" s="22"/>
-      <c r="BX108" s="22"/>
-      <c r="BY108" s="22"/>
+      <c r="BV108" s="11"/>
+      <c r="BW108" s="11"/>
+      <c r="BX108" s="11"/>
+      <c r="BY108" s="11"/>
       <c r="BZ108" s="11"/>
       <c r="CA108" s="11"/>
       <c r="CB108" s="11"/>
@@ -39177,7 +39292,7 @@
       <c r="CJ108" s="11"/>
       <c r="CK108" s="11"/>
       <c r="CL108" s="11"/>
-      <c r="CM108" s="17"/>
+      <c r="CM108" s="11"/>
       <c r="CN108" s="17"/>
       <c r="CO108" s="17"/>
       <c r="CP108" s="17"/>
@@ -39243,7 +39358,7 @@
       <c r="EX108" s="17"/>
       <c r="EY108" s="17"/>
     </row>
-    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>13</v>
       </c>
@@ -39463,16 +39578,16 @@
       <c r="BU109" s="12">
         <v>100</v>
       </c>
-      <c r="BV109" s="26">
+      <c r="BV109" s="12">
         <v>100</v>
       </c>
-      <c r="BW109" s="26">
+      <c r="BW109" s="12">
         <v>100</v>
       </c>
-      <c r="BX109" s="26">
+      <c r="BX109" s="12">
         <v>100</v>
       </c>
-      <c r="BY109" s="26">
+      <c r="BY109" s="12">
         <v>100</v>
       </c>
       <c r="BZ109" s="12">
@@ -39514,7 +39629,9 @@
       <c r="CL109" s="12">
         <v>100</v>
       </c>
-      <c r="CM109" s="17"/>
+      <c r="CM109" s="12">
+        <v>100</v>
+      </c>
       <c r="CN109" s="17"/>
       <c r="CO109" s="17"/>
       <c r="CP109" s="17"/>
@@ -39580,7 +39697,7 @@
       <c r="EX109" s="17"/>
       <c r="EY109" s="17"/>
     </row>
-    <row r="110" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -39654,10 +39771,10 @@
       <c r="BS110" s="9"/>
       <c r="BT110" s="9"/>
       <c r="BU110" s="9"/>
-      <c r="BV110" s="24"/>
-      <c r="BW110" s="24"/>
-      <c r="BX110" s="24"/>
-      <c r="BY110" s="24"/>
+      <c r="BV110" s="9"/>
+      <c r="BW110" s="9"/>
+      <c r="BX110" s="9"/>
+      <c r="BY110" s="9"/>
       <c r="BZ110" s="9"/>
       <c r="CA110" s="9"/>
       <c r="CB110" s="9"/>
@@ -39671,8 +39788,9 @@
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
       <c r="CL110" s="9"/>
+      <c r="CM110" s="9"/>
     </row>
-    <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
@@ -39748,10 +39866,10 @@
       <c r="BS111" s="3"/>
       <c r="BT111" s="3"/>
       <c r="BU111" s="3"/>
-      <c r="BV111" s="19"/>
-      <c r="BW111" s="19"/>
-      <c r="BX111" s="19"/>
-      <c r="BY111" s="19"/>
+      <c r="BV111" s="3"/>
+      <c r="BW111" s="3"/>
+      <c r="BX111" s="3"/>
+      <c r="BY111" s="3"/>
       <c r="BZ111" s="3"/>
       <c r="CA111" s="3"/>
       <c r="CB111" s="3"/>
@@ -39765,8 +39883,9 @@
       <c r="CJ111" s="3"/>
       <c r="CK111" s="3"/>
       <c r="CL111" s="3"/>
+      <c r="CM111" s="3"/>
     </row>
-    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -39839,10 +39958,10 @@
       <c r="BS112" s="11"/>
       <c r="BT112" s="11"/>
       <c r="BU112" s="11"/>
-      <c r="BV112" s="22"/>
-      <c r="BW112" s="22"/>
-      <c r="BX112" s="22"/>
-      <c r="BY112" s="22"/>
+      <c r="BV112" s="11"/>
+      <c r="BW112" s="11"/>
+      <c r="BX112" s="11"/>
+      <c r="BY112" s="11"/>
       <c r="BZ112" s="11"/>
       <c r="CA112" s="11"/>
       <c r="CB112" s="11"/>
@@ -39856,7 +39975,7 @@
       <c r="CJ112" s="11"/>
       <c r="CK112" s="11"/>
       <c r="CL112" s="11"/>
-      <c r="CM112" s="17"/>
+      <c r="CM112" s="11"/>
       <c r="CN112" s="17"/>
       <c r="CO112" s="17"/>
       <c r="CP112" s="17"/>
@@ -39922,7 +40041,7 @@
       <c r="EX112" s="17"/>
       <c r="EY112" s="17"/>
     </row>
-    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -39995,10 +40114,10 @@
       <c r="BS113" s="11"/>
       <c r="BT113" s="11"/>
       <c r="BU113" s="11"/>
-      <c r="BV113" s="22"/>
-      <c r="BW113" s="22"/>
-      <c r="BX113" s="22"/>
-      <c r="BY113" s="22"/>
+      <c r="BV113" s="11"/>
+      <c r="BW113" s="11"/>
+      <c r="BX113" s="11"/>
+      <c r="BY113" s="11"/>
       <c r="BZ113" s="11"/>
       <c r="CA113" s="11"/>
       <c r="CB113" s="11"/>
@@ -40012,7 +40131,7 @@
       <c r="CJ113" s="11"/>
       <c r="CK113" s="11"/>
       <c r="CL113" s="11"/>
-      <c r="CM113" s="17"/>
+      <c r="CM113" s="11"/>
       <c r="CN113" s="17"/>
       <c r="CO113" s="17"/>
       <c r="CP113" s="17"/>
@@ -40078,7 +40197,7 @@
       <c r="EX113" s="17"/>
       <c r="EY113" s="17"/>
     </row>
-    <row r="114" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
@@ -40154,10 +40273,10 @@
       <c r="BS114" s="3"/>
       <c r="BT114" s="3"/>
       <c r="BU114" s="3"/>
-      <c r="BV114" s="19"/>
-      <c r="BW114" s="19"/>
-      <c r="BX114" s="19"/>
-      <c r="BY114" s="19"/>
+      <c r="BV114" s="3"/>
+      <c r="BW114" s="3"/>
+      <c r="BX114" s="3"/>
+      <c r="BY114" s="3"/>
       <c r="BZ114" s="3"/>
       <c r="CA114" s="3"/>
       <c r="CB114" s="3"/>
@@ -40171,8 +40290,9 @@
       <c r="CJ114" s="3"/>
       <c r="CK114" s="3"/>
       <c r="CL114" s="3"/>
+      <c r="CM114" s="3"/>
     </row>
-    <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
@@ -40248,10 +40368,10 @@
       <c r="BS115" s="3"/>
       <c r="BT115" s="3"/>
       <c r="BU115" s="3"/>
-      <c r="BV115" s="19"/>
-      <c r="BW115" s="19"/>
-      <c r="BX115" s="19"/>
-      <c r="BY115" s="19"/>
+      <c r="BV115" s="3"/>
+      <c r="BW115" s="3"/>
+      <c r="BX115" s="3"/>
+      <c r="BY115" s="3"/>
       <c r="BZ115" s="3"/>
       <c r="CA115" s="3"/>
       <c r="CB115" s="3"/>
@@ -40265,8 +40385,9 @@
       <c r="CJ115" s="3"/>
       <c r="CK115" s="3"/>
       <c r="CL115" s="3"/>
+      <c r="CM115" s="3"/>
     </row>
-    <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>48</v>
       </c>
@@ -40342,10 +40463,10 @@
       <c r="BS116" s="3"/>
       <c r="BT116" s="3"/>
       <c r="BU116" s="3"/>
-      <c r="BV116" s="19"/>
-      <c r="BW116" s="19"/>
-      <c r="BX116" s="19"/>
-      <c r="BY116" s="19"/>
+      <c r="BV116" s="3"/>
+      <c r="BW116" s="3"/>
+      <c r="BX116" s="3"/>
+      <c r="BY116" s="3"/>
       <c r="BZ116" s="3"/>
       <c r="CA116" s="3"/>
       <c r="CB116" s="3"/>
@@ -40359,8 +40480,9 @@
       <c r="CJ116" s="3"/>
       <c r="CK116" s="3"/>
       <c r="CL116" s="3"/>
+      <c r="CM116" s="3"/>
     </row>
-    <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -40434,10 +40556,10 @@
       <c r="BS117" s="3"/>
       <c r="BT117" s="3"/>
       <c r="BU117" s="3"/>
-      <c r="BV117" s="19"/>
-      <c r="BW117" s="19"/>
-      <c r="BX117" s="19"/>
-      <c r="BY117" s="19"/>
+      <c r="BV117" s="3"/>
+      <c r="BW117" s="3"/>
+      <c r="BX117" s="3"/>
+      <c r="BY117" s="3"/>
       <c r="BZ117" s="3"/>
       <c r="CA117" s="3"/>
       <c r="CB117" s="3"/>
@@ -40451,8 +40573,9 @@
       <c r="CJ117" s="3"/>
       <c r="CK117" s="3"/>
       <c r="CL117" s="3"/>
+      <c r="CM117" s="3"/>
     </row>
-    <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>20</v>
       </c>
@@ -40528,10 +40651,10 @@
       <c r="BS118" s="3"/>
       <c r="BT118" s="3"/>
       <c r="BU118" s="3"/>
-      <c r="BV118" s="19"/>
-      <c r="BW118" s="19"/>
-      <c r="BX118" s="19"/>
-      <c r="BY118" s="19"/>
+      <c r="BV118" s="3"/>
+      <c r="BW118" s="3"/>
+      <c r="BX118" s="3"/>
+      <c r="BY118" s="3"/>
       <c r="BZ118" s="3"/>
       <c r="CA118" s="3"/>
       <c r="CB118" s="3"/>
@@ -40545,8 +40668,9 @@
       <c r="CJ118" s="3"/>
       <c r="CK118" s="3"/>
       <c r="CL118" s="3"/>
+      <c r="CM118" s="3"/>
     </row>
-    <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>49</v>
       </c>
@@ -40622,10 +40746,10 @@
       <c r="BS119" s="3"/>
       <c r="BT119" s="3"/>
       <c r="BU119" s="3"/>
-      <c r="BV119" s="19"/>
-      <c r="BW119" s="19"/>
-      <c r="BX119" s="19"/>
-      <c r="BY119" s="19"/>
+      <c r="BV119" s="3"/>
+      <c r="BW119" s="3"/>
+      <c r="BX119" s="3"/>
+      <c r="BY119" s="3"/>
       <c r="BZ119" s="3"/>
       <c r="CA119" s="3"/>
       <c r="CB119" s="3"/>
@@ -40639,8 +40763,9 @@
       <c r="CJ119" s="3"/>
       <c r="CK119" s="3"/>
       <c r="CL119" s="3"/>
+      <c r="CM119" s="3"/>
     </row>
-    <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>24</v>
       </c>
@@ -40716,10 +40841,10 @@
       <c r="BS120" s="3"/>
       <c r="BT120" s="3"/>
       <c r="BU120" s="3"/>
-      <c r="BV120" s="19"/>
-      <c r="BW120" s="19"/>
-      <c r="BX120" s="19"/>
-      <c r="BY120" s="19"/>
+      <c r="BV120" s="3"/>
+      <c r="BW120" s="3"/>
+      <c r="BX120" s="3"/>
+      <c r="BY120" s="3"/>
       <c r="BZ120" s="3"/>
       <c r="CA120" s="3"/>
       <c r="CB120" s="3"/>
@@ -40733,8 +40858,9 @@
       <c r="CJ120" s="3"/>
       <c r="CK120" s="3"/>
       <c r="CL120" s="3"/>
+      <c r="CM120" s="3"/>
     </row>
-    <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -40808,10 +40934,10 @@
       <c r="BS121" s="3"/>
       <c r="BT121" s="3"/>
       <c r="BU121" s="3"/>
-      <c r="BV121" s="19"/>
-      <c r="BW121" s="19"/>
-      <c r="BX121" s="19"/>
-      <c r="BY121" s="19"/>
+      <c r="BV121" s="3"/>
+      <c r="BW121" s="3"/>
+      <c r="BX121" s="3"/>
+      <c r="BY121" s="3"/>
       <c r="BZ121" s="3"/>
       <c r="CA121" s="3"/>
       <c r="CB121" s="3"/>
@@ -40825,146 +40951,148 @@
       <c r="CJ121" s="3"/>
       <c r="CK121" s="3"/>
       <c r="CL121" s="3"/>
+      <c r="CM121" s="3"/>
     </row>
-    <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="29">
+      <c r="B122" s="22">
         <v>2000</v>
       </c>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="29">
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="22">
         <v>2001</v>
       </c>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
-      <c r="I122" s="30"/>
-      <c r="J122" s="29">
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="22">
         <v>2002</v>
       </c>
-      <c r="K122" s="30"/>
-      <c r="L122" s="30"/>
-      <c r="M122" s="30"/>
-      <c r="N122" s="29">
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="22">
         <v>2003</v>
       </c>
-      <c r="O122" s="30"/>
-      <c r="P122" s="30"/>
-      <c r="Q122" s="30"/>
-      <c r="R122" s="29">
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="22">
         <v>2004</v>
       </c>
-      <c r="S122" s="30"/>
-      <c r="T122" s="30"/>
-      <c r="U122" s="30"/>
-      <c r="V122" s="29">
+      <c r="S122" s="23"/>
+      <c r="T122" s="23"/>
+      <c r="U122" s="23"/>
+      <c r="V122" s="22">
         <v>2005</v>
       </c>
-      <c r="W122" s="30"/>
-      <c r="X122" s="30"/>
-      <c r="Y122" s="30"/>
-      <c r="Z122" s="29">
+      <c r="W122" s="23"/>
+      <c r="X122" s="23"/>
+      <c r="Y122" s="23"/>
+      <c r="Z122" s="22">
         <v>2006</v>
       </c>
-      <c r="AA122" s="30"/>
-      <c r="AB122" s="30"/>
-      <c r="AC122" s="30"/>
-      <c r="AD122" s="29">
+      <c r="AA122" s="23"/>
+      <c r="AB122" s="23"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="22">
         <v>2007</v>
       </c>
-      <c r="AE122" s="30"/>
-      <c r="AF122" s="30"/>
-      <c r="AG122" s="30"/>
-      <c r="AH122" s="29">
+      <c r="AE122" s="23"/>
+      <c r="AF122" s="23"/>
+      <c r="AG122" s="23"/>
+      <c r="AH122" s="22">
         <v>2008</v>
       </c>
-      <c r="AI122" s="30"/>
-      <c r="AJ122" s="30"/>
-      <c r="AK122" s="30"/>
-      <c r="AL122" s="29">
+      <c r="AI122" s="23"/>
+      <c r="AJ122" s="23"/>
+      <c r="AK122" s="23"/>
+      <c r="AL122" s="22">
         <v>2009</v>
       </c>
-      <c r="AM122" s="30"/>
-      <c r="AN122" s="30"/>
-      <c r="AO122" s="30"/>
-      <c r="AP122" s="29">
+      <c r="AM122" s="23"/>
+      <c r="AN122" s="23"/>
+      <c r="AO122" s="23"/>
+      <c r="AP122" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="30"/>
-      <c r="AR122" s="30"/>
-      <c r="AS122" s="30"/>
-      <c r="AT122" s="29">
+      <c r="AQ122" s="23"/>
+      <c r="AR122" s="23"/>
+      <c r="AS122" s="23"/>
+      <c r="AT122" s="22">
         <v>2011</v>
       </c>
-      <c r="AU122" s="30"/>
-      <c r="AV122" s="30"/>
-      <c r="AW122" s="30"/>
-      <c r="AX122" s="29">
+      <c r="AU122" s="23"/>
+      <c r="AV122" s="23"/>
+      <c r="AW122" s="23"/>
+      <c r="AX122" s="22">
         <v>2012</v>
       </c>
-      <c r="AY122" s="30"/>
-      <c r="AZ122" s="30"/>
-      <c r="BA122" s="30"/>
-      <c r="BB122" s="29">
+      <c r="AY122" s="23"/>
+      <c r="AZ122" s="23"/>
+      <c r="BA122" s="23"/>
+      <c r="BB122" s="22">
         <v>2013</v>
       </c>
-      <c r="BC122" s="30"/>
-      <c r="BD122" s="30"/>
-      <c r="BE122" s="30"/>
-      <c r="BF122" s="29">
+      <c r="BC122" s="23"/>
+      <c r="BD122" s="23"/>
+      <c r="BE122" s="23"/>
+      <c r="BF122" s="22">
         <v>2014</v>
       </c>
-      <c r="BG122" s="30"/>
-      <c r="BH122" s="30"/>
-      <c r="BI122" s="30"/>
-      <c r="BJ122" s="29">
+      <c r="BG122" s="23"/>
+      <c r="BH122" s="23"/>
+      <c r="BI122" s="23"/>
+      <c r="BJ122" s="22">
         <v>2015</v>
       </c>
-      <c r="BK122" s="30"/>
-      <c r="BL122" s="30"/>
-      <c r="BM122" s="30"/>
-      <c r="BN122" s="29">
+      <c r="BK122" s="23"/>
+      <c r="BL122" s="23"/>
+      <c r="BM122" s="23"/>
+      <c r="BN122" s="22">
         <v>2016</v>
       </c>
-      <c r="BO122" s="30"/>
-      <c r="BP122" s="30"/>
-      <c r="BQ122" s="30"/>
-      <c r="BR122" s="29">
+      <c r="BO122" s="23"/>
+      <c r="BP122" s="23"/>
+      <c r="BQ122" s="23"/>
+      <c r="BR122" s="22">
         <v>2017</v>
       </c>
-      <c r="BS122" s="30"/>
-      <c r="BT122" s="30"/>
-      <c r="BU122" s="30"/>
-      <c r="BV122" s="31">
+      <c r="BS122" s="23"/>
+      <c r="BT122" s="23"/>
+      <c r="BU122" s="23"/>
+      <c r="BV122" s="22">
         <v>2018</v>
       </c>
-      <c r="BW122" s="32"/>
-      <c r="BX122" s="32"/>
-      <c r="BY122" s="32"/>
-      <c r="BZ122" s="29">
+      <c r="BW122" s="23"/>
+      <c r="BX122" s="23"/>
+      <c r="BY122" s="23"/>
+      <c r="BZ122" s="22">
         <v>2019</v>
       </c>
-      <c r="CA122" s="30"/>
-      <c r="CB122" s="30"/>
-      <c r="CC122" s="30"/>
-      <c r="CD122" s="29">
+      <c r="CA122" s="23"/>
+      <c r="CB122" s="23"/>
+      <c r="CC122" s="23"/>
+      <c r="CD122" s="22">
         <v>2020</v>
       </c>
-      <c r="CE122" s="29"/>
-      <c r="CF122" s="29"/>
-      <c r="CG122" s="29"/>
-      <c r="CH122" s="29">
+      <c r="CE122" s="23"/>
+      <c r="CF122" s="23"/>
+      <c r="CG122" s="23"/>
+      <c r="CH122" s="22">
         <v>2021</v>
       </c>
-      <c r="CI122" s="29"/>
-      <c r="CJ122" s="29"/>
-      <c r="CK122" s="29"/>
-      <c r="CL122" s="28">
+      <c r="CI122" s="22"/>
+      <c r="CJ122" s="22"/>
+      <c r="CK122" s="22"/>
+      <c r="CL122" s="22">
         <v>2022</v>
       </c>
+      <c r="CM122" s="22"/>
     </row>
-    <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -41184,16 +41312,16 @@
       <c r="BU123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BV123" s="20" t="s">
+      <c r="BV123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BW123" s="20" t="s">
+      <c r="BW123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BX123" s="20" t="s">
+      <c r="BX123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY123" s="20" t="s">
+      <c r="BY123" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BZ123" s="6" t="s">
@@ -41235,8 +41363,11 @@
       <c r="CL123" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM123" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -41310,10 +41441,10 @@
       <c r="BS124" s="3"/>
       <c r="BT124" s="3"/>
       <c r="BU124" s="3"/>
-      <c r="BV124" s="19"/>
-      <c r="BW124" s="19"/>
-      <c r="BX124" s="19"/>
-      <c r="BY124" s="19"/>
+      <c r="BV124" s="3"/>
+      <c r="BW124" s="3"/>
+      <c r="BX124" s="3"/>
+      <c r="BY124" s="3"/>
       <c r="BZ124" s="3"/>
       <c r="CA124" s="3"/>
       <c r="CB124" s="3"/>
@@ -41327,8 +41458,9 @@
       <c r="CJ124" s="3"/>
       <c r="CK124" s="3"/>
       <c r="CL124" s="3"/>
+      <c r="CM124" s="3"/>
     </row>
-    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>11</v>
       </c>
@@ -41548,16 +41680,16 @@
       <c r="BU125" s="12">
         <v>58.664314684334741</v>
       </c>
-      <c r="BV125" s="26">
+      <c r="BV125" s="12">
         <v>63.637237847490134</v>
       </c>
-      <c r="BW125" s="26">
+      <c r="BW125" s="12">
         <v>62.91764522079292</v>
       </c>
-      <c r="BX125" s="26">
+      <c r="BX125" s="12">
         <v>62.887647468694254</v>
       </c>
-      <c r="BY125" s="26">
+      <c r="BY125" s="12">
         <v>60.069011131153481</v>
       </c>
       <c r="BZ125" s="12">
@@ -41597,9 +41729,11 @@
         <v>66.63734924006063</v>
       </c>
       <c r="CL125" s="12">
-        <v>69.685933955998735</v>
-      </c>
-      <c r="CM125" s="17"/>
+        <v>69.261974371370911</v>
+      </c>
+      <c r="CM125" s="12">
+        <v>72.293903022186512</v>
+      </c>
       <c r="CN125" s="17"/>
       <c r="CO125" s="17"/>
       <c r="CP125" s="17"/>
@@ -41665,7 +41799,7 @@
       <c r="EX125" s="17"/>
       <c r="EY125" s="17"/>
     </row>
-    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -41885,16 +42019,16 @@
       <c r="BU126" s="12">
         <v>41.335685315665266</v>
       </c>
-      <c r="BV126" s="26">
+      <c r="BV126" s="12">
         <v>36.362762152509873</v>
       </c>
-      <c r="BW126" s="26">
+      <c r="BW126" s="12">
         <v>37.082354779207073</v>
       </c>
-      <c r="BX126" s="26">
+      <c r="BX126" s="12">
         <v>37.112352531305746</v>
       </c>
-      <c r="BY126" s="26">
+      <c r="BY126" s="12">
         <v>39.930988868846526</v>
       </c>
       <c r="BZ126" s="12">
@@ -41934,9 +42068,11 @@
         <v>33.36265075993937</v>
       </c>
       <c r="CL126" s="12">
-        <v>30.314066044001269</v>
-      </c>
-      <c r="CM126" s="17"/>
+        <v>30.738025628629089</v>
+      </c>
+      <c r="CM126" s="12">
+        <v>27.706096977813488</v>
+      </c>
       <c r="CN126" s="17"/>
       <c r="CO126" s="17"/>
       <c r="CP126" s="17"/>
@@ -42002,7 +42138,7 @@
       <c r="EX126" s="17"/>
       <c r="EY126" s="17"/>
     </row>
-    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -42075,10 +42211,10 @@
       <c r="BS127" s="11"/>
       <c r="BT127" s="11"/>
       <c r="BU127" s="11"/>
-      <c r="BV127" s="22"/>
-      <c r="BW127" s="22"/>
-      <c r="BX127" s="22"/>
-      <c r="BY127" s="22"/>
+      <c r="BV127" s="11"/>
+      <c r="BW127" s="11"/>
+      <c r="BX127" s="11"/>
+      <c r="BY127" s="11"/>
       <c r="BZ127" s="11"/>
       <c r="CA127" s="11"/>
       <c r="CB127" s="11"/>
@@ -42092,7 +42228,7 @@
       <c r="CJ127" s="11"/>
       <c r="CK127" s="11"/>
       <c r="CL127" s="11"/>
-      <c r="CM127" s="17"/>
+      <c r="CM127" s="11"/>
       <c r="CN127" s="17"/>
       <c r="CO127" s="17"/>
       <c r="CP127" s="17"/>
@@ -42158,7 +42294,7 @@
       <c r="EX127" s="17"/>
       <c r="EY127" s="17"/>
     </row>
-    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>13</v>
       </c>
@@ -42378,16 +42514,16 @@
       <c r="BU128" s="12">
         <v>100</v>
       </c>
-      <c r="BV128" s="26">
+      <c r="BV128" s="12">
         <v>100</v>
       </c>
-      <c r="BW128" s="26">
+      <c r="BW128" s="12">
         <v>100</v>
       </c>
-      <c r="BX128" s="26">
+      <c r="BX128" s="12">
         <v>100</v>
       </c>
-      <c r="BY128" s="26">
+      <c r="BY128" s="12">
         <v>100</v>
       </c>
       <c r="BZ128" s="12">
@@ -42429,7 +42565,9 @@
       <c r="CL128" s="12">
         <v>100</v>
       </c>
-      <c r="CM128" s="17"/>
+      <c r="CM128" s="12">
+        <v>100</v>
+      </c>
       <c r="CN128" s="17"/>
       <c r="CO128" s="17"/>
       <c r="CP128" s="17"/>
@@ -42495,7 +42633,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:90" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:91" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -42569,10 +42707,10 @@
       <c r="BS129" s="9"/>
       <c r="BT129" s="9"/>
       <c r="BU129" s="9"/>
-      <c r="BV129" s="24"/>
-      <c r="BW129" s="24"/>
-      <c r="BX129" s="24"/>
-      <c r="BY129" s="24"/>
+      <c r="BV129" s="9"/>
+      <c r="BW129" s="9"/>
+      <c r="BX129" s="9"/>
+      <c r="BY129" s="9"/>
       <c r="BZ129" s="9"/>
       <c r="CA129" s="9"/>
       <c r="CB129" s="9"/>
@@ -42586,8 +42724,9 @@
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
       <c r="CL129" s="9"/>
+      <c r="CM129" s="9"/>
     </row>
-    <row r="130" spans="1:90" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:91" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -42663,10 +42802,10 @@
       <c r="BS130" s="3"/>
       <c r="BT130" s="3"/>
       <c r="BU130" s="3"/>
-      <c r="BV130" s="19"/>
-      <c r="BW130" s="19"/>
-      <c r="BX130" s="19"/>
-      <c r="BY130" s="19"/>
+      <c r="BV130" s="3"/>
+      <c r="BW130" s="3"/>
+      <c r="BX130" s="3"/>
+      <c r="BY130" s="3"/>
       <c r="BZ130" s="3"/>
       <c r="CA130" s="3"/>
       <c r="CB130" s="3"/>
@@ -42680,67 +42819,10 @@
       <c r="CJ130" s="3"/>
       <c r="CK130" s="3"/>
       <c r="CL130" s="3"/>
-    </row>
-    <row r="133" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD133" s="16"/>
-      <c r="CE133" s="16"/>
-      <c r="CF133" s="16"/>
-      <c r="CG133" s="16"/>
-      <c r="CH133" s="16"/>
-      <c r="CI133" s="16"/>
-      <c r="CJ133" s="16"/>
-      <c r="CK133" s="16"/>
-      <c r="CL133" s="16"/>
-    </row>
-    <row r="134" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD134" s="16"/>
-      <c r="CE134" s="16"/>
-      <c r="CF134" s="16"/>
-      <c r="CG134" s="16"/>
-      <c r="CH134" s="16"/>
-      <c r="CI134" s="16"/>
-      <c r="CJ134" s="16"/>
-      <c r="CK134" s="16"/>
-      <c r="CL134" s="16"/>
-    </row>
-    <row r="135" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD135" s="16"/>
-      <c r="CE135" s="16"/>
-      <c r="CF135" s="16"/>
-      <c r="CG135" s="16"/>
-      <c r="CH135" s="16"/>
-      <c r="CI135" s="16"/>
-      <c r="CJ135" s="16"/>
-      <c r="CK135" s="16"/>
-      <c r="CL135" s="16"/>
-    </row>
-    <row r="136" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD136" s="16"/>
-      <c r="CE136" s="16"/>
-      <c r="CF136" s="16"/>
-      <c r="CG136" s="16"/>
-      <c r="CH136" s="16"/>
-      <c r="CI136" s="16"/>
-      <c r="CJ136" s="16"/>
-      <c r="CK136" s="16"/>
-      <c r="CL136" s="16"/>
-    </row>
-    <row r="137" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD137" s="16"/>
-      <c r="CE137" s="16"/>
-      <c r="CF137" s="16"/>
-      <c r="CG137" s="16"/>
-      <c r="CH137" s="16"/>
-      <c r="CI137" s="16"/>
-      <c r="CJ137" s="16"/>
-      <c r="CK137" s="16"/>
-      <c r="CL137" s="16"/>
+      <c r="CM130" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
+  <mergeCells count="159">
     <mergeCell ref="BF66:BI66"/>
     <mergeCell ref="BJ66:BM66"/>
     <mergeCell ref="BN66:BQ66"/>
@@ -42748,6 +42830,7 @@
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BJ47:BM47"/>
     <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="B66:E66"/>
     <mergeCell ref="AP84:AS84"/>
     <mergeCell ref="AT66:AW66"/>
     <mergeCell ref="AT84:AW84"/>
@@ -42766,6 +42849,8 @@
     <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="AL66:AO66"/>
     <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
@@ -42788,16 +42873,6 @@
     <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AH47:AK47"/>
     <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="J28:M28"/>
@@ -42807,15 +42882,25 @@
     <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="AP28:AS28"/>
     <mergeCell ref="AT28:AW28"/>
     <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BF9:BI9"/>
@@ -42830,13 +42915,10 @@
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BJ28:BM28"/>
     <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -42866,11 +42948,6 @@
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
     <mergeCell ref="BV122:BY122"/>
     <mergeCell ref="BR84:BU84"/>
     <mergeCell ref="BV84:BY84"/>
@@ -42886,19 +42963,34 @@
     <mergeCell ref="BR122:BU122"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL28:CM28"/>
+    <mergeCell ref="CH47:CI47"/>
+    <mergeCell ref="CH66:CI66"/>
+    <mergeCell ref="CL84:CM84"/>
+    <mergeCell ref="CL103:CM103"/>
+    <mergeCell ref="CL122:CM122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
     <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD84:CG84"/>
     <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="89" man="1"/>
-    <brk id="76" max="89" man="1"/>
-    <brk id="94" max="89" man="1"/>
+    <brk id="38" max="90" man="1"/>
+    <brk id="76" max="90" man="1"/>
+    <brk id="94" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74C935-FF86-447C-B38A-D5E594FF6EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E15AE-F3B1-4CD8-A459-F452099E3081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CM$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CN$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -612,13 +612,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -626,10 +626,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -714,11 +714,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -739,20 +739,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23621,50 +23615,50 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="3" customWidth="1"/>
-    <col min="2" max="91" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="15"/>
+    <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
+    <col min="2" max="92" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -23756,147 +23750,149 @@
       <c r="CK8" s="3"/>
       <c r="CL8" s="3"/>
       <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
     </row>
-    <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
     </row>
-    <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24170,8 +24166,11 @@
       <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -24263,8 +24262,9 @@
       <c r="CK11" s="3"/>
       <c r="CL11" s="3"/>
       <c r="CM11" s="3"/>
+      <c r="CN11" s="3"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -24538,7 +24538,9 @@
       <c r="CM12" s="13">
         <v>176449.81994385709</v>
       </c>
-      <c r="CN12" s="17"/>
+      <c r="CN12" s="13">
+        <v>139255.94395957311</v>
+      </c>
       <c r="CO12" s="17"/>
       <c r="CP12" s="17"/>
       <c r="CQ12" s="17"/>
@@ -24603,7 +24605,7 @@
       <c r="EX12" s="17"/>
       <c r="EY12" s="17"/>
     </row>
-    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -24875,9 +24877,11 @@
         <v>60108.603286259393</v>
       </c>
       <c r="CM13" s="13">
-        <v>63235.534368817331</v>
-      </c>
-      <c r="CN13" s="17"/>
+        <v>63753.10068974043</v>
+      </c>
+      <c r="CN13" s="13">
+        <v>65087.376788349953</v>
+      </c>
       <c r="CO13" s="17"/>
       <c r="CP13" s="17"/>
       <c r="CQ13" s="17"/>
@@ -24942,7 +24946,7 @@
       <c r="EX13" s="17"/>
       <c r="EY13" s="17"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -25033,7 +25037,7 @@
       <c r="CK14" s="11"/>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
-      <c r="CN14" s="17"/>
+      <c r="CN14" s="11"/>
       <c r="CO14" s="17"/>
       <c r="CP14" s="17"/>
       <c r="CQ14" s="17"/>
@@ -25098,7 +25102,7 @@
       <c r="EX14" s="17"/>
       <c r="EY14" s="17"/>
     </row>
-    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -25370,9 +25374,11 @@
         <v>207475.72678127454</v>
       </c>
       <c r="CM15" s="14">
-        <v>239685.35431267443</v>
-      </c>
-      <c r="CN15" s="17"/>
+        <v>240202.92063359753</v>
+      </c>
+      <c r="CN15" s="14">
+        <v>204343.32074792305</v>
+      </c>
       <c r="CO15" s="17"/>
       <c r="CP15" s="17"/>
       <c r="CQ15" s="17"/>
@@ -25437,7 +25443,7 @@
       <c r="EX15" s="17"/>
       <c r="EY15" s="17"/>
     </row>
-    <row r="16" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -25529,8 +25535,9 @@
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
     </row>
-    <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -25624,8 +25631,9 @@
       <c r="CK17" s="3"/>
       <c r="CL17" s="3"/>
       <c r="CM17" s="3"/>
+      <c r="CN17" s="3"/>
     </row>
-    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -25716,7 +25724,7 @@
       <c r="CK18" s="11"/>
       <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
-      <c r="CN18" s="17"/>
+      <c r="CN18" s="11"/>
       <c r="CO18" s="17"/>
       <c r="CP18" s="17"/>
       <c r="CQ18" s="17"/>
@@ -25781,7 +25789,7 @@
       <c r="EX18" s="17"/>
       <c r="EY18" s="17"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -25872,7 +25880,7 @@
       <c r="CK19" s="11"/>
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
-      <c r="CN19" s="17"/>
+      <c r="CN19" s="11"/>
       <c r="CO19" s="17"/>
       <c r="CP19" s="17"/>
       <c r="CQ19" s="17"/>
@@ -25937,7 +25945,7 @@
       <c r="EX19" s="17"/>
       <c r="EY19" s="17"/>
     </row>
-    <row r="20" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -26031,8 +26039,9 @@
       <c r="CK20" s="3"/>
       <c r="CL20" s="3"/>
       <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
     </row>
-    <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -26126,10 +26135,11 @@
       <c r="CK21" s="3"/>
       <c r="CL21" s="3"/>
       <c r="CM21" s="3"/>
+      <c r="CN21" s="3"/>
     </row>
-    <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26221,8 +26231,9 @@
       <c r="CK22" s="3"/>
       <c r="CL22" s="3"/>
       <c r="CM22" s="3"/>
+      <c r="CN22" s="3"/>
     </row>
-    <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -26314,8 +26325,9 @@
       <c r="CK23" s="3"/>
       <c r="CL23" s="3"/>
       <c r="CM23" s="3"/>
+      <c r="CN23" s="3"/>
     </row>
-    <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -26409,10 +26421,11 @@
       <c r="CK24" s="3"/>
       <c r="CL24" s="3"/>
       <c r="CM24" s="3"/>
+      <c r="CN24" s="3"/>
     </row>
-    <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26504,8 +26517,9 @@
       <c r="CK25" s="3"/>
       <c r="CL25" s="3"/>
       <c r="CM25" s="3"/>
+      <c r="CN25" s="3"/>
     </row>
-    <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -26599,8 +26613,9 @@
       <c r="CK26" s="3"/>
       <c r="CL26" s="3"/>
       <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
     </row>
-    <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -26692,147 +26707,149 @@
       <c r="CK27" s="3"/>
       <c r="CL27" s="3"/>
       <c r="CM27" s="3"/>
+      <c r="CN27" s="3"/>
     </row>
-    <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <v>2000</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20">
         <v>2001</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20">
         <v>2002</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="22">
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="20">
         <v>2003</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="22">
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20">
         <v>2004</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="22">
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="20">
         <v>2005</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="22">
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="20">
         <v>2006</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="22">
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="20">
         <v>2007</v>
       </c>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="22">
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="20">
         <v>2008</v>
       </c>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="22">
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="20">
         <v>2009</v>
       </c>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="22">
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="22">
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="20">
         <v>2011</v>
       </c>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="22">
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="20">
         <v>2012</v>
       </c>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
-      <c r="BA28" s="23"/>
-      <c r="BB28" s="22">
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="20">
         <v>2013</v>
       </c>
-      <c r="BC28" s="23"/>
-      <c r="BD28" s="23"/>
-      <c r="BE28" s="23"/>
-      <c r="BF28" s="22">
+      <c r="BC28" s="21"/>
+      <c r="BD28" s="21"/>
+      <c r="BE28" s="21"/>
+      <c r="BF28" s="20">
         <v>2014</v>
       </c>
-      <c r="BG28" s="23"/>
-      <c r="BH28" s="23"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="22">
+      <c r="BG28" s="21"/>
+      <c r="BH28" s="21"/>
+      <c r="BI28" s="21"/>
+      <c r="BJ28" s="20">
         <v>2015</v>
       </c>
-      <c r="BK28" s="23"/>
-      <c r="BL28" s="23"/>
-      <c r="BM28" s="23"/>
-      <c r="BN28" s="22">
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="21"/>
+      <c r="BM28" s="21"/>
+      <c r="BN28" s="20">
         <v>2016</v>
       </c>
-      <c r="BO28" s="23"/>
-      <c r="BP28" s="23"/>
-      <c r="BQ28" s="23"/>
-      <c r="BR28" s="22">
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="20">
         <v>2017</v>
       </c>
-      <c r="BS28" s="23"/>
-      <c r="BT28" s="23"/>
-      <c r="BU28" s="23"/>
-      <c r="BV28" s="22">
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="20">
         <v>2018</v>
       </c>
-      <c r="BW28" s="23"/>
-      <c r="BX28" s="23"/>
-      <c r="BY28" s="23"/>
-      <c r="BZ28" s="22">
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="20">
         <v>2019</v>
       </c>
-      <c r="CA28" s="23"/>
-      <c r="CB28" s="23"/>
-      <c r="CC28" s="23"/>
-      <c r="CD28" s="22">
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="20">
         <v>2020</v>
       </c>
-      <c r="CE28" s="23"/>
-      <c r="CF28" s="23"/>
-      <c r="CG28" s="23"/>
-      <c r="CH28" s="22">
+      <c r="CE28" s="21"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" s="20">
         <v>2021</v>
       </c>
-      <c r="CI28" s="22"/>
-      <c r="CJ28" s="22"/>
-      <c r="CK28" s="22"/>
-      <c r="CL28" s="22">
+      <c r="CI28" s="20"/>
+      <c r="CJ28" s="20"/>
+      <c r="CK28" s="20"/>
+      <c r="CL28" s="20">
         <v>2022</v>
       </c>
-      <c r="CM28" s="22"/>
+      <c r="CM28" s="20"/>
+      <c r="CN28" s="20"/>
     </row>
-    <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -27106,8 +27123,11 @@
       <c r="CM29" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN29" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -27199,8 +27219,9 @@
       <c r="CK30" s="3"/>
       <c r="CL30" s="3"/>
       <c r="CM30" s="3"/>
+      <c r="CN30" s="3"/>
     </row>
-    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -27474,7 +27495,9 @@
       <c r="CM31" s="13">
         <v>165232.64451768147</v>
       </c>
-      <c r="CN31" s="17"/>
+      <c r="CN31" s="13">
+        <v>124311.22368091729</v>
+      </c>
       <c r="CO31" s="17"/>
       <c r="CP31" s="17"/>
       <c r="CQ31" s="17"/>
@@ -27539,7 +27562,7 @@
       <c r="EX31" s="17"/>
       <c r="EY31" s="17"/>
     </row>
-    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -27811,9 +27834,11 @@
         <v>61513.706560757382</v>
       </c>
       <c r="CM32" s="13">
-        <v>63324.173706633635</v>
-      </c>
-      <c r="CN32" s="17"/>
+        <v>63855.107761719904</v>
+      </c>
+      <c r="CN32" s="13">
+        <v>58867.729064562562</v>
+      </c>
       <c r="CO32" s="17"/>
       <c r="CP32" s="17"/>
       <c r="CQ32" s="17"/>
@@ -27878,7 +27903,7 @@
       <c r="EX32" s="17"/>
       <c r="EY32" s="17"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -27969,7 +27994,7 @@
       <c r="CK33" s="11"/>
       <c r="CL33" s="11"/>
       <c r="CM33" s="11"/>
-      <c r="CN33" s="17"/>
+      <c r="CN33" s="11"/>
       <c r="CO33" s="17"/>
       <c r="CP33" s="17"/>
       <c r="CQ33" s="17"/>
@@ -28034,7 +28059,7 @@
       <c r="EX33" s="17"/>
       <c r="EY33" s="17"/>
     </row>
-    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>13</v>
       </c>
@@ -28306,9 +28331,11 @@
         <v>200122.50397587061</v>
       </c>
       <c r="CM34" s="14">
-        <v>228556.81822431512</v>
-      </c>
-      <c r="CN34" s="17"/>
+        <v>229087.75227940138</v>
+      </c>
+      <c r="CN34" s="14">
+        <v>183178.95274547985</v>
+      </c>
       <c r="CO34" s="17"/>
       <c r="CP34" s="17"/>
       <c r="CQ34" s="17"/>
@@ -28373,7 +28400,7 @@
       <c r="EX34" s="17"/>
       <c r="EY34" s="17"/>
     </row>
-    <row r="35" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -28465,8 +28492,9 @@
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
+      <c r="CN35" s="9"/>
     </row>
-    <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
@@ -28560,8 +28588,9 @@
       <c r="CK36" s="3"/>
       <c r="CL36" s="3"/>
       <c r="CM36" s="3"/>
+      <c r="CN36" s="3"/>
     </row>
-    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -28652,7 +28681,7 @@
       <c r="CK37" s="11"/>
       <c r="CL37" s="11"/>
       <c r="CM37" s="11"/>
-      <c r="CN37" s="17"/>
+      <c r="CN37" s="11"/>
       <c r="CO37" s="17"/>
       <c r="CP37" s="17"/>
       <c r="CQ37" s="17"/>
@@ -28717,7 +28746,7 @@
       <c r="EX37" s="17"/>
       <c r="EY37" s="17"/>
     </row>
-    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -28808,7 +28837,7 @@
       <c r="CK38" s="11"/>
       <c r="CL38" s="11"/>
       <c r="CM38" s="11"/>
-      <c r="CN38" s="17"/>
+      <c r="CN38" s="11"/>
       <c r="CO38" s="17"/>
       <c r="CP38" s="17"/>
       <c r="CQ38" s="17"/>
@@ -28873,7 +28902,7 @@
       <c r="EX38" s="17"/>
       <c r="EY38" s="17"/>
     </row>
-    <row r="39" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -28967,8 +28996,9 @@
       <c r="CK39" s="3"/>
       <c r="CL39" s="3"/>
       <c r="CM39" s="3"/>
+      <c r="CN39" s="3"/>
     </row>
-    <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -29062,10 +29092,11 @@
       <c r="CK40" s="3"/>
       <c r="CL40" s="3"/>
       <c r="CM40" s="3"/>
+      <c r="CN40" s="3"/>
     </row>
-    <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29157,8 +29188,9 @@
       <c r="CK41" s="3"/>
       <c r="CL41" s="3"/>
       <c r="CM41" s="3"/>
+      <c r="CN41" s="3"/>
     </row>
-    <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -29250,8 +29282,9 @@
       <c r="CK42" s="3"/>
       <c r="CL42" s="3"/>
       <c r="CM42" s="3"/>
+      <c r="CN42" s="3"/>
     </row>
-    <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -29345,10 +29378,11 @@
       <c r="CK43" s="3"/>
       <c r="CL43" s="3"/>
       <c r="CM43" s="3"/>
+      <c r="CN43" s="3"/>
     </row>
-    <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29435,7 +29469,7 @@
       <c r="CF44" s="3"/>
       <c r="CG44" s="3"/>
     </row>
-    <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -29524,7 +29558,7 @@
       <c r="CF45" s="3"/>
       <c r="CG45" s="3"/>
     </row>
-    <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -29616,145 +29650,147 @@
       <c r="CK46" s="3"/>
       <c r="CL46" s="3"/>
       <c r="CM46" s="3"/>
+      <c r="CN46" s="3"/>
     </row>
-    <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22" t="s">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22" t="s">
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22" t="s">
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22" t="s">
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22" t="s">
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22" t="s">
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22" t="s">
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22" t="s">
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22" t="s">
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22" t="s">
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22" t="s">
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="20"/>
+      <c r="BA47" s="20"/>
+      <c r="BB47" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22" t="s">
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="20"/>
+      <c r="BE47" s="20"/>
+      <c r="BF47" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22" t="s">
+      <c r="BG47" s="20"/>
+      <c r="BH47" s="20"/>
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22" t="s">
+      <c r="BK47" s="20"/>
+      <c r="BL47" s="20"/>
+      <c r="BM47" s="20"/>
+      <c r="BN47" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22" t="s">
+      <c r="BO47" s="20"/>
+      <c r="BP47" s="20"/>
+      <c r="BQ47" s="20"/>
+      <c r="BR47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22" t="s">
+      <c r="BS47" s="20"/>
+      <c r="BT47" s="20"/>
+      <c r="BU47" s="20"/>
+      <c r="BV47" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22" t="s">
+      <c r="BW47" s="20"/>
+      <c r="BX47" s="20"/>
+      <c r="BY47" s="20"/>
+      <c r="BZ47" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22" t="s">
+      <c r="CA47" s="20"/>
+      <c r="CB47" s="20"/>
+      <c r="CC47" s="20"/>
+      <c r="CD47" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="22"/>
-      <c r="CF47" s="22"/>
-      <c r="CG47" s="22"/>
-      <c r="CH47" s="22" t="s">
+      <c r="CE47" s="20"/>
+      <c r="CF47" s="20"/>
+      <c r="CG47" s="20"/>
+      <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="22"/>
+      <c r="CI47" s="20"/>
       <c r="CJ47" s="20"/>
-      <c r="CK47" s="20"/>
-      <c r="CL47" s="19"/>
-      <c r="CM47" s="19"/>
+      <c r="CK47" s="19"/>
+      <c r="CL47" s="20"/>
+      <c r="CM47" s="20"/>
+      <c r="CN47" s="19"/>
     </row>
-    <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -30016,12 +30052,15 @@
       <c r="CI48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ48" s="5"/>
+      <c r="CJ48" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK48" s="5"/>
       <c r="CL48" s="5"/>
-      <c r="CM48" s="21"/>
+      <c r="CM48" s="5"/>
+      <c r="CN48" s="5"/>
     </row>
-    <row r="49" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -30113,8 +30152,9 @@
       <c r="CK49" s="3"/>
       <c r="CL49" s="3"/>
       <c r="CM49" s="3"/>
+      <c r="CN49" s="3"/>
     </row>
-    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -30376,11 +30416,13 @@
       <c r="CI50" s="12">
         <v>9.3626839112412199</v>
       </c>
-      <c r="CJ50" s="12"/>
+      <c r="CJ50" s="12">
+        <v>7.3929024296293164</v>
+      </c>
       <c r="CK50" s="12"/>
       <c r="CL50" s="12"/>
-      <c r="CM50" s="11"/>
-      <c r="CN50" s="17"/>
+      <c r="CM50" s="12"/>
+      <c r="CN50" s="12"/>
       <c r="CO50" s="17"/>
       <c r="CP50" s="17"/>
       <c r="CQ50" s="17"/>
@@ -30441,7 +30483,7 @@
       <c r="ET50" s="17"/>
       <c r="EU50" s="17"/>
     </row>
-    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -30701,13 +30743,15 @@
         <v>10.076043961210132</v>
       </c>
       <c r="CI51" s="12">
-        <v>6.3224844515373775</v>
-      </c>
-      <c r="CJ51" s="12"/>
+        <v>7.1927061972418329</v>
+      </c>
+      <c r="CJ51" s="12">
+        <v>10.791915108182664</v>
+      </c>
       <c r="CK51" s="12"/>
       <c r="CL51" s="12"/>
-      <c r="CM51" s="11"/>
-      <c r="CN51" s="17"/>
+      <c r="CM51" s="12"/>
+      <c r="CN51" s="12"/>
       <c r="CO51" s="17"/>
       <c r="CP51" s="17"/>
       <c r="CQ51" s="17"/>
@@ -30768,7 +30812,7 @@
       <c r="ET51" s="17"/>
       <c r="EU51" s="17"/>
     </row>
-    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -30860,7 +30904,7 @@
       <c r="CK52" s="11"/>
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
-      <c r="CN52" s="17"/>
+      <c r="CN52" s="11"/>
       <c r="CO52" s="17"/>
       <c r="CP52" s="17"/>
       <c r="CQ52" s="17"/>
@@ -30921,7 +30965,7 @@
       <c r="ET52" s="17"/>
       <c r="EU52" s="17"/>
     </row>
-    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>13</v>
       </c>
@@ -31181,13 +31225,15 @@
         <v>12.394128726083238</v>
       </c>
       <c r="CI53" s="12">
-        <v>8.5438386638603276</v>
-      </c>
-      <c r="CJ53" s="12"/>
+        <v>8.7782235948763514</v>
+      </c>
+      <c r="CJ53" s="12">
+        <v>8.4526962685770144</v>
+      </c>
       <c r="CK53" s="12"/>
       <c r="CL53" s="12"/>
-      <c r="CM53" s="11"/>
-      <c r="CN53" s="17"/>
+      <c r="CM53" s="12"/>
+      <c r="CN53" s="12"/>
       <c r="CO53" s="17"/>
       <c r="CP53" s="17"/>
       <c r="CQ53" s="17"/>
@@ -31248,7 +31294,7 @@
       <c r="ET53" s="17"/>
       <c r="EU53" s="17"/>
     </row>
-    <row r="54" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -31340,8 +31386,9 @@
       <c r="CK54" s="9"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
+      <c r="CN54" s="9"/>
     </row>
-    <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -31435,8 +31482,9 @@
       <c r="CK55" s="3"/>
       <c r="CL55" s="3"/>
       <c r="CM55" s="3"/>
+      <c r="CN55" s="3"/>
     </row>
-    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -31527,7 +31575,7 @@
       <c r="CK56" s="11"/>
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
-      <c r="CN56" s="17"/>
+      <c r="CN56" s="11"/>
       <c r="CO56" s="17"/>
       <c r="CP56" s="17"/>
       <c r="CQ56" s="17"/>
@@ -31588,7 +31636,7 @@
       <c r="ET56" s="17"/>
       <c r="EU56" s="17"/>
     </row>
-    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -31679,7 +31727,7 @@
       <c r="CK57" s="11"/>
       <c r="CL57" s="11"/>
       <c r="CM57" s="11"/>
-      <c r="CN57" s="17"/>
+      <c r="CN57" s="11"/>
       <c r="CO57" s="17"/>
       <c r="CP57" s="17"/>
       <c r="CQ57" s="17"/>
@@ -31740,7 +31788,7 @@
       <c r="ET57" s="17"/>
       <c r="EU57" s="17"/>
     </row>
-    <row r="58" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -31834,8 +31882,9 @@
       <c r="CK58" s="3"/>
       <c r="CL58" s="3"/>
       <c r="CM58" s="3"/>
+      <c r="CN58" s="3"/>
     </row>
-    <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
@@ -31929,10 +31978,11 @@
       <c r="CK59" s="3"/>
       <c r="CL59" s="3"/>
       <c r="CM59" s="3"/>
+      <c r="CN59" s="3"/>
     </row>
-    <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32024,8 +32074,9 @@
       <c r="CK60" s="3"/>
       <c r="CL60" s="3"/>
       <c r="CM60" s="3"/>
+      <c r="CN60" s="3"/>
     </row>
-    <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -32117,8 +32168,9 @@
       <c r="CK61" s="3"/>
       <c r="CL61" s="3"/>
       <c r="CM61" s="3"/>
+      <c r="CN61" s="3"/>
     </row>
-    <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -32212,10 +32264,11 @@
       <c r="CK62" s="3"/>
       <c r="CL62" s="3"/>
       <c r="CM62" s="3"/>
+      <c r="CN62" s="3"/>
     </row>
-    <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32307,8 +32360,9 @@
       <c r="CK63" s="3"/>
       <c r="CL63" s="3"/>
       <c r="CM63" s="3"/>
+      <c r="CN63" s="3"/>
     </row>
-    <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
@@ -32402,8 +32456,9 @@
       <c r="CK64" s="3"/>
       <c r="CL64" s="3"/>
       <c r="CM64" s="3"/>
+      <c r="CN64" s="3"/>
     </row>
-    <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -32495,145 +32550,147 @@
       <c r="CK65" s="3"/>
       <c r="CL65" s="3"/>
       <c r="CM65" s="3"/>
+      <c r="CN65" s="3"/>
     </row>
-    <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22" t="s">
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22" t="s">
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22" t="s">
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22" t="s">
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22" t="s">
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22" t="s">
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22" t="s">
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="22" t="s">
+      <c r="AI66" s="20"/>
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="20"/>
+      <c r="AL66" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="22" t="s">
+      <c r="AM66" s="20"/>
+      <c r="AN66" s="20"/>
+      <c r="AO66" s="20"/>
+      <c r="AP66" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="22"/>
-      <c r="AR66" s="22"/>
-      <c r="AS66" s="22"/>
-      <c r="AT66" s="22" t="s">
+      <c r="AQ66" s="20"/>
+      <c r="AR66" s="20"/>
+      <c r="AS66" s="20"/>
+      <c r="AT66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="22"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="22"/>
-      <c r="AX66" s="22" t="s">
+      <c r="AU66" s="20"/>
+      <c r="AV66" s="20"/>
+      <c r="AW66" s="20"/>
+      <c r="AX66" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="22"/>
-      <c r="AZ66" s="22"/>
-      <c r="BA66" s="22"/>
-      <c r="BB66" s="22" t="s">
+      <c r="AY66" s="20"/>
+      <c r="AZ66" s="20"/>
+      <c r="BA66" s="20"/>
+      <c r="BB66" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="22"/>
-      <c r="BD66" s="22"/>
-      <c r="BE66" s="22"/>
-      <c r="BF66" s="22" t="s">
+      <c r="BC66" s="20"/>
+      <c r="BD66" s="20"/>
+      <c r="BE66" s="20"/>
+      <c r="BF66" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="22"/>
-      <c r="BH66" s="22"/>
-      <c r="BI66" s="22"/>
-      <c r="BJ66" s="22" t="s">
+      <c r="BG66" s="20"/>
+      <c r="BH66" s="20"/>
+      <c r="BI66" s="20"/>
+      <c r="BJ66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="22"/>
-      <c r="BL66" s="22"/>
-      <c r="BM66" s="22"/>
-      <c r="BN66" s="22" t="s">
+      <c r="BK66" s="20"/>
+      <c r="BL66" s="20"/>
+      <c r="BM66" s="20"/>
+      <c r="BN66" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="22"/>
-      <c r="BP66" s="22"/>
-      <c r="BQ66" s="22"/>
-      <c r="BR66" s="22" t="s">
+      <c r="BO66" s="20"/>
+      <c r="BP66" s="20"/>
+      <c r="BQ66" s="20"/>
+      <c r="BR66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="22"/>
-      <c r="BT66" s="22"/>
-      <c r="BU66" s="22"/>
-      <c r="BV66" s="22" t="s">
+      <c r="BS66" s="20"/>
+      <c r="BT66" s="20"/>
+      <c r="BU66" s="20"/>
+      <c r="BV66" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="22"/>
-      <c r="BX66" s="22"/>
-      <c r="BY66" s="22"/>
-      <c r="BZ66" s="22" t="s">
+      <c r="BW66" s="20"/>
+      <c r="BX66" s="20"/>
+      <c r="BY66" s="20"/>
+      <c r="BZ66" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="22"/>
-      <c r="CB66" s="22"/>
-      <c r="CC66" s="22"/>
-      <c r="CD66" s="22" t="s">
+      <c r="CA66" s="20"/>
+      <c r="CB66" s="20"/>
+      <c r="CC66" s="20"/>
+      <c r="CD66" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="22"/>
-      <c r="CF66" s="22"/>
-      <c r="CG66" s="22"/>
-      <c r="CH66" s="22" t="s">
+      <c r="CE66" s="20"/>
+      <c r="CF66" s="20"/>
+      <c r="CG66" s="20"/>
+      <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="22"/>
+      <c r="CI66" s="20"/>
       <c r="CJ66" s="20"/>
-      <c r="CK66" s="20"/>
-      <c r="CL66" s="19"/>
-      <c r="CM66" s="19"/>
+      <c r="CK66" s="19"/>
+      <c r="CL66" s="20"/>
+      <c r="CM66" s="20"/>
+      <c r="CN66" s="19"/>
     </row>
-    <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -32895,12 +32952,15 @@
       <c r="CI67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ67" s="5"/>
+      <c r="CJ67" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK67" s="5"/>
       <c r="CL67" s="5"/>
-      <c r="CM67" s="21"/>
+      <c r="CM67" s="5"/>
+      <c r="CN67" s="5"/>
     </row>
-    <row r="68" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -32992,8 +33052,9 @@
       <c r="CK68" s="3"/>
       <c r="CL68" s="3"/>
       <c r="CM68" s="3"/>
+      <c r="CN68" s="3"/>
     </row>
-    <row r="69" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>11</v>
       </c>
@@ -33255,11 +33316,13 @@
       <c r="CI69" s="12">
         <v>4.5600803444950202</v>
       </c>
-      <c r="CJ69" s="12"/>
+      <c r="CJ69" s="12">
+        <v>3.0281076537770133</v>
+      </c>
       <c r="CK69" s="12"/>
       <c r="CL69" s="12"/>
-      <c r="CM69" s="11"/>
-      <c r="CN69" s="17"/>
+      <c r="CM69" s="12"/>
+      <c r="CN69" s="12"/>
       <c r="CO69" s="17"/>
       <c r="CP69" s="17"/>
       <c r="CQ69" s="17"/>
@@ -33320,7 +33383,7 @@
       <c r="ET69" s="17"/>
       <c r="EU69" s="17"/>
     </row>
-    <row r="70" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>12</v>
       </c>
@@ -33580,13 +33643,15 @@
         <v>9.46052088220992</v>
       </c>
       <c r="CI70" s="12">
-        <v>7.1300778156031015</v>
-      </c>
-      <c r="CJ70" s="12"/>
+        <v>8.0282972996796502</v>
+      </c>
+      <c r="CJ70" s="12">
+        <v>10.172389021836793</v>
+      </c>
       <c r="CK70" s="12"/>
       <c r="CL70" s="12"/>
-      <c r="CM70" s="11"/>
-      <c r="CN70" s="17"/>
+      <c r="CM70" s="12"/>
+      <c r="CN70" s="12"/>
       <c r="CO70" s="17"/>
       <c r="CP70" s="17"/>
       <c r="CQ70" s="17"/>
@@ -33647,7 +33712,7 @@
       <c r="ET70" s="17"/>
       <c r="EU70" s="17"/>
     </row>
-    <row r="71" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -33738,7 +33803,7 @@
       <c r="CK71" s="11"/>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
-      <c r="CN71" s="17"/>
+      <c r="CN71" s="11"/>
       <c r="CO71" s="17"/>
       <c r="CP71" s="17"/>
       <c r="CQ71" s="17"/>
@@ -33799,7 +33864,7 @@
       <c r="ET71" s="17"/>
       <c r="EU71" s="17"/>
     </row>
-    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>13</v>
       </c>
@@ -34059,13 +34124,15 @@
         <v>8.4676849949427435</v>
       </c>
       <c r="CI72" s="12">
-        <v>5.2596947314763582</v>
-      </c>
-      <c r="CJ72" s="12"/>
+        <v>5.5042114210028785</v>
+      </c>
+      <c r="CJ72" s="12">
+        <v>5.2208587454998963</v>
+      </c>
       <c r="CK72" s="12"/>
       <c r="CL72" s="12"/>
-      <c r="CM72" s="11"/>
-      <c r="CN72" s="17"/>
+      <c r="CM72" s="12"/>
+      <c r="CN72" s="12"/>
       <c r="CO72" s="17"/>
       <c r="CP72" s="17"/>
       <c r="CQ72" s="17"/>
@@ -34126,7 +34193,7 @@
       <c r="ET72" s="17"/>
       <c r="EU72" s="17"/>
     </row>
-    <row r="73" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -34218,8 +34285,9 @@
       <c r="CK73" s="9"/>
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
+      <c r="CN73" s="9"/>
     </row>
-    <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
@@ -34313,8 +34381,9 @@
       <c r="CK74" s="3"/>
       <c r="CL74" s="3"/>
       <c r="CM74" s="3"/>
+      <c r="CN74" s="3"/>
     </row>
-    <row r="75" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -34399,8 +34468,8 @@
       <c r="CE75" s="11"/>
       <c r="CF75" s="11"/>
       <c r="CG75" s="11"/>
-      <c r="CH75" s="17"/>
-      <c r="CI75" s="17"/>
+      <c r="CH75" s="11"/>
+      <c r="CI75" s="11"/>
       <c r="CJ75" s="17"/>
       <c r="CK75" s="17"/>
       <c r="CL75" s="17"/>
@@ -34466,7 +34535,7 @@
       <c r="ET75" s="17"/>
       <c r="EU75" s="17"/>
     </row>
-    <row r="76" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -34618,7 +34687,7 @@
       <c r="ET76" s="17"/>
       <c r="EU76" s="17"/>
     </row>
-    <row r="77" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
@@ -34707,9 +34776,9 @@
       <c r="CF77" s="3"/>
       <c r="CG77" s="3"/>
     </row>
-    <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -34796,7 +34865,7 @@
       <c r="CF78" s="3"/>
       <c r="CG78" s="3"/>
     </row>
-    <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -34883,7 +34952,7 @@
       <c r="CF79" s="3"/>
       <c r="CG79" s="3"/>
     </row>
-    <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>18</v>
       </c>
@@ -34972,9 +35041,9 @@
       <c r="CF80" s="3"/>
       <c r="CG80" s="3"/>
     </row>
-    <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35061,7 +35130,7 @@
       <c r="CF81" s="3"/>
       <c r="CG81" s="3"/>
     </row>
-    <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
@@ -35150,7 +35219,7 @@
       <c r="CF82" s="3"/>
       <c r="CG82" s="3"/>
     </row>
-    <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -35237,146 +35306,147 @@
       <c r="CF83" s="3"/>
       <c r="CG83" s="3"/>
     </row>
-    <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="22">
+      <c r="B84" s="20">
         <v>2000</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="22">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="20">
         <v>2001</v>
       </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="22">
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="20">
         <v>2002</v>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="22">
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="20">
         <v>2003</v>
       </c>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="22">
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="20">
         <v>2004</v>
       </c>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="22">
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="20">
         <v>2005</v>
       </c>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="22">
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="20">
         <v>2006</v>
       </c>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="23"/>
-      <c r="AD84" s="22">
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="20">
         <v>2007</v>
       </c>
-      <c r="AE84" s="23"/>
-      <c r="AF84" s="23"/>
-      <c r="AG84" s="23"/>
-      <c r="AH84" s="22">
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="20">
         <v>2008</v>
       </c>
-      <c r="AI84" s="23"/>
-      <c r="AJ84" s="23"/>
-      <c r="AK84" s="23"/>
-      <c r="AL84" s="22">
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
+      <c r="AL84" s="20">
         <v>2009</v>
       </c>
-      <c r="AM84" s="23"/>
-      <c r="AN84" s="23"/>
-      <c r="AO84" s="23"/>
-      <c r="AP84" s="22">
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
+      <c r="AO84" s="21"/>
+      <c r="AP84" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="23"/>
-      <c r="AR84" s="23"/>
-      <c r="AS84" s="23"/>
-      <c r="AT84" s="22">
+      <c r="AQ84" s="21"/>
+      <c r="AR84" s="21"/>
+      <c r="AS84" s="21"/>
+      <c r="AT84" s="20">
         <v>2011</v>
       </c>
-      <c r="AU84" s="23"/>
-      <c r="AV84" s="23"/>
-      <c r="AW84" s="23"/>
-      <c r="AX84" s="22">
+      <c r="AU84" s="21"/>
+      <c r="AV84" s="21"/>
+      <c r="AW84" s="21"/>
+      <c r="AX84" s="20">
         <v>2012</v>
       </c>
-      <c r="AY84" s="23"/>
-      <c r="AZ84" s="23"/>
-      <c r="BA84" s="23"/>
-      <c r="BB84" s="22">
+      <c r="AY84" s="21"/>
+      <c r="AZ84" s="21"/>
+      <c r="BA84" s="21"/>
+      <c r="BB84" s="20">
         <v>2013</v>
       </c>
-      <c r="BC84" s="23"/>
-      <c r="BD84" s="23"/>
-      <c r="BE84" s="23"/>
-      <c r="BF84" s="22">
+      <c r="BC84" s="21"/>
+      <c r="BD84" s="21"/>
+      <c r="BE84" s="21"/>
+      <c r="BF84" s="20">
         <v>2014</v>
       </c>
-      <c r="BG84" s="23"/>
-      <c r="BH84" s="23"/>
-      <c r="BI84" s="23"/>
-      <c r="BJ84" s="22">
+      <c r="BG84" s="21"/>
+      <c r="BH84" s="21"/>
+      <c r="BI84" s="21"/>
+      <c r="BJ84" s="20">
         <v>2015</v>
       </c>
-      <c r="BK84" s="23"/>
-      <c r="BL84" s="23"/>
-      <c r="BM84" s="23"/>
-      <c r="BN84" s="22">
+      <c r="BK84" s="21"/>
+      <c r="BL84" s="21"/>
+      <c r="BM84" s="21"/>
+      <c r="BN84" s="20">
         <v>2016</v>
       </c>
-      <c r="BO84" s="23"/>
-      <c r="BP84" s="23"/>
-      <c r="BQ84" s="23"/>
-      <c r="BR84" s="22">
+      <c r="BO84" s="21"/>
+      <c r="BP84" s="21"/>
+      <c r="BQ84" s="21"/>
+      <c r="BR84" s="20">
         <v>2017</v>
       </c>
-      <c r="BS84" s="23"/>
-      <c r="BT84" s="23"/>
-      <c r="BU84" s="23"/>
-      <c r="BV84" s="22">
+      <c r="BS84" s="21"/>
+      <c r="BT84" s="21"/>
+      <c r="BU84" s="21"/>
+      <c r="BV84" s="20">
         <v>2018</v>
       </c>
-      <c r="BW84" s="23"/>
-      <c r="BX84" s="23"/>
-      <c r="BY84" s="23"/>
-      <c r="BZ84" s="22">
+      <c r="BW84" s="21"/>
+      <c r="BX84" s="21"/>
+      <c r="BY84" s="21"/>
+      <c r="BZ84" s="20">
         <v>2019</v>
       </c>
-      <c r="CA84" s="23"/>
-      <c r="CB84" s="23"/>
-      <c r="CC84" s="23"/>
-      <c r="CD84" s="22">
+      <c r="CA84" s="21"/>
+      <c r="CB84" s="21"/>
+      <c r="CC84" s="21"/>
+      <c r="CD84" s="20">
         <v>2020</v>
       </c>
-      <c r="CE84" s="23"/>
-      <c r="CF84" s="23"/>
-      <c r="CG84" s="23"/>
-      <c r="CH84" s="22">
+      <c r="CE84" s="21"/>
+      <c r="CF84" s="21"/>
+      <c r="CG84" s="21"/>
+      <c r="CH84" s="20">
         <v>2021</v>
       </c>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="22"/>
-      <c r="CL84" s="22">
+      <c r="CI84" s="20"/>
+      <c r="CJ84" s="20"/>
+      <c r="CK84" s="20"/>
+      <c r="CL84" s="20">
         <v>2022</v>
       </c>
-      <c r="CM84" s="22"/>
+      <c r="CM84" s="20"/>
+      <c r="CN84" s="20"/>
     </row>
-    <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -35650,8 +35720,11 @@
       <c r="CM85" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN85" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="86" spans="1:151" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -35738,7 +35811,7 @@
       <c r="CF86" s="3"/>
       <c r="CG86" s="3"/>
     </row>
-    <row r="87" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
@@ -36012,7 +36085,9 @@
       <c r="CM87" s="12">
         <v>106.78871627269469</v>
       </c>
-      <c r="CN87" s="17"/>
+      <c r="CN87" s="12">
+        <v>112.02202008486057</v>
+      </c>
       <c r="CO87" s="17"/>
       <c r="CP87" s="17"/>
       <c r="CQ87" s="17"/>
@@ -36073,7 +36148,7 @@
       <c r="ET87" s="17"/>
       <c r="EU87" s="17"/>
     </row>
-    <row r="88" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>12</v>
       </c>
@@ -36345,9 +36420,11 @@
         <v>97.715788312788192</v>
       </c>
       <c r="CM88" s="12">
-        <v>99.860022906533374</v>
-      </c>
-      <c r="CN88" s="17"/>
+        <v>99.840252290607481</v>
+      </c>
+      <c r="CN88" s="12">
+        <v>110.56546230442498</v>
+      </c>
       <c r="CO88" s="17"/>
       <c r="CP88" s="17"/>
       <c r="CQ88" s="17"/>
@@ -36408,7 +36485,7 @@
       <c r="ET88" s="17"/>
       <c r="EU88" s="17"/>
     </row>
-    <row r="89" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -36499,7 +36576,7 @@
       <c r="CK89" s="11"/>
       <c r="CL89" s="11"/>
       <c r="CM89" s="11"/>
-      <c r="CN89" s="17"/>
+      <c r="CN89" s="11"/>
       <c r="CO89" s="17"/>
       <c r="CP89" s="17"/>
       <c r="CQ89" s="17"/>
@@ -36560,7 +36637,7 @@
       <c r="ET89" s="17"/>
       <c r="EU89" s="17"/>
     </row>
-    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:151" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>13</v>
       </c>
@@ -36832,9 +36909,11 @@
         <v>103.67436078367804</v>
       </c>
       <c r="CM90" s="12">
-        <v>104.8690457693707</v>
-      </c>
-      <c r="CN90" s="17"/>
+        <v>104.85192606047302</v>
+      </c>
+      <c r="CN90" s="12">
+        <v>111.55393001501122</v>
+      </c>
       <c r="CO90" s="17"/>
       <c r="CP90" s="17"/>
       <c r="CQ90" s="17"/>
@@ -36895,7 +36974,7 @@
       <c r="ET90" s="17"/>
       <c r="EU90" s="17"/>
     </row>
-    <row r="91" spans="1:151" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:151" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -36987,8 +37066,9 @@
       <c r="CK91" s="9"/>
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
+      <c r="CN91" s="9"/>
     </row>
-    <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>0</v>
       </c>
@@ -37077,7 +37157,7 @@
       <c r="CF92" s="3"/>
       <c r="CG92" s="3"/>
     </row>
-    <row r="93" spans="1:151" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -37168,8 +37248,9 @@
       <c r="CK93" s="3"/>
       <c r="CL93" s="3"/>
       <c r="CM93" s="3"/>
+      <c r="CN93" s="3"/>
     </row>
-    <row r="94" spans="1:151" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -37260,8 +37341,9 @@
       <c r="CK94" s="3"/>
       <c r="CL94" s="3"/>
       <c r="CM94" s="3"/>
+      <c r="CN94" s="3"/>
     </row>
-    <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>2</v>
       </c>
@@ -37355,8 +37437,9 @@
       <c r="CK95" s="3"/>
       <c r="CL95" s="3"/>
       <c r="CM95" s="3"/>
+      <c r="CN95" s="3"/>
     </row>
-    <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>1</v>
       </c>
@@ -37450,10 +37533,11 @@
       <c r="CK96" s="3"/>
       <c r="CL96" s="3"/>
       <c r="CM96" s="3"/>
+      <c r="CN96" s="3"/>
     </row>
-    <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -37545,8 +37629,9 @@
       <c r="CK97" s="3"/>
       <c r="CL97" s="3"/>
       <c r="CM97" s="3"/>
+      <c r="CN97" s="3"/>
     </row>
-    <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -37638,8 +37723,9 @@
       <c r="CK98" s="3"/>
       <c r="CL98" s="3"/>
       <c r="CM98" s="3"/>
+      <c r="CN98" s="3"/>
     </row>
-    <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>19</v>
       </c>
@@ -37733,10 +37819,11 @@
       <c r="CK99" s="3"/>
       <c r="CL99" s="3"/>
       <c r="CM99" s="3"/>
+      <c r="CN99" s="3"/>
     </row>
-    <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -37828,8 +37915,9 @@
       <c r="CK100" s="3"/>
       <c r="CL100" s="3"/>
       <c r="CM100" s="3"/>
+      <c r="CN100" s="3"/>
     </row>
-    <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>23</v>
       </c>
@@ -37923,8 +38011,9 @@
       <c r="CK101" s="3"/>
       <c r="CL101" s="3"/>
       <c r="CM101" s="3"/>
+      <c r="CN101" s="3"/>
     </row>
-    <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -38016,147 +38105,149 @@
       <c r="CK102" s="3"/>
       <c r="CL102" s="3"/>
       <c r="CM102" s="3"/>
+      <c r="CN102" s="3"/>
     </row>
-    <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="22">
+      <c r="B103" s="20">
         <v>2000</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="22">
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="20">
         <v>2001</v>
       </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="22">
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="20">
         <v>2002</v>
       </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="22">
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="20">
         <v>2003</v>
       </c>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="22">
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="20">
         <v>2004</v>
       </c>
-      <c r="S103" s="23"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="22">
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="20">
         <v>2005</v>
       </c>
-      <c r="W103" s="23"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="22">
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="20">
         <v>2006</v>
       </c>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="23"/>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="22">
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="20">
         <v>2007</v>
       </c>
-      <c r="AE103" s="23"/>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="23"/>
-      <c r="AH103" s="22">
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="20">
         <v>2008</v>
       </c>
-      <c r="AI103" s="23"/>
-      <c r="AJ103" s="23"/>
-      <c r="AK103" s="23"/>
-      <c r="AL103" s="22">
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="21"/>
+      <c r="AK103" s="21"/>
+      <c r="AL103" s="20">
         <v>2009</v>
       </c>
-      <c r="AM103" s="23"/>
-      <c r="AN103" s="23"/>
-      <c r="AO103" s="23"/>
-      <c r="AP103" s="22">
+      <c r="AM103" s="21"/>
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="23"/>
-      <c r="AR103" s="23"/>
-      <c r="AS103" s="23"/>
-      <c r="AT103" s="22">
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="21"/>
+      <c r="AT103" s="20">
         <v>2011</v>
       </c>
-      <c r="AU103" s="23"/>
-      <c r="AV103" s="23"/>
-      <c r="AW103" s="23"/>
-      <c r="AX103" s="22">
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="21"/>
+      <c r="AX103" s="20">
         <v>2012</v>
       </c>
-      <c r="AY103" s="23"/>
-      <c r="AZ103" s="23"/>
-      <c r="BA103" s="23"/>
-      <c r="BB103" s="22">
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="21"/>
+      <c r="BA103" s="21"/>
+      <c r="BB103" s="20">
         <v>2013</v>
       </c>
-      <c r="BC103" s="23"/>
-      <c r="BD103" s="23"/>
-      <c r="BE103" s="23"/>
-      <c r="BF103" s="22">
+      <c r="BC103" s="21"/>
+      <c r="BD103" s="21"/>
+      <c r="BE103" s="21"/>
+      <c r="BF103" s="20">
         <v>2014</v>
       </c>
-      <c r="BG103" s="23"/>
-      <c r="BH103" s="23"/>
-      <c r="BI103" s="23"/>
-      <c r="BJ103" s="22">
+      <c r="BG103" s="21"/>
+      <c r="BH103" s="21"/>
+      <c r="BI103" s="21"/>
+      <c r="BJ103" s="20">
         <v>2015</v>
       </c>
-      <c r="BK103" s="23"/>
-      <c r="BL103" s="23"/>
-      <c r="BM103" s="23"/>
-      <c r="BN103" s="22">
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="21"/>
+      <c r="BM103" s="21"/>
+      <c r="BN103" s="20">
         <v>2016</v>
       </c>
-      <c r="BO103" s="23"/>
-      <c r="BP103" s="23"/>
-      <c r="BQ103" s="23"/>
-      <c r="BR103" s="22">
+      <c r="BO103" s="21"/>
+      <c r="BP103" s="21"/>
+      <c r="BQ103" s="21"/>
+      <c r="BR103" s="20">
         <v>2017</v>
       </c>
-      <c r="BS103" s="23"/>
-      <c r="BT103" s="23"/>
-      <c r="BU103" s="23"/>
-      <c r="BV103" s="22">
+      <c r="BS103" s="21"/>
+      <c r="BT103" s="21"/>
+      <c r="BU103" s="21"/>
+      <c r="BV103" s="20">
         <v>2018</v>
       </c>
-      <c r="BW103" s="23"/>
-      <c r="BX103" s="23"/>
-      <c r="BY103" s="23"/>
-      <c r="BZ103" s="22">
+      <c r="BW103" s="21"/>
+      <c r="BX103" s="21"/>
+      <c r="BY103" s="21"/>
+      <c r="BZ103" s="20">
         <v>2019</v>
       </c>
-      <c r="CA103" s="23"/>
-      <c r="CB103" s="23"/>
-      <c r="CC103" s="23"/>
-      <c r="CD103" s="22">
+      <c r="CA103" s="21"/>
+      <c r="CB103" s="21"/>
+      <c r="CC103" s="21"/>
+      <c r="CD103" s="20">
         <v>2020</v>
       </c>
-      <c r="CE103" s="23"/>
-      <c r="CF103" s="23"/>
-      <c r="CG103" s="23"/>
-      <c r="CH103" s="22">
+      <c r="CE103" s="21"/>
+      <c r="CF103" s="21"/>
+      <c r="CG103" s="21"/>
+      <c r="CH103" s="20">
         <v>2021</v>
       </c>
-      <c r="CI103" s="22"/>
-      <c r="CJ103" s="22"/>
-      <c r="CK103" s="22"/>
-      <c r="CL103" s="22">
+      <c r="CI103" s="20"/>
+      <c r="CJ103" s="20"/>
+      <c r="CK103" s="20"/>
+      <c r="CL103" s="20">
         <v>2022</v>
       </c>
-      <c r="CM103" s="22"/>
+      <c r="CM103" s="20"/>
+      <c r="CN103" s="20"/>
     </row>
-    <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -38430,8 +38521,11 @@
       <c r="CM104" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN104" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -38523,8 +38617,9 @@
       <c r="CK105" s="3"/>
       <c r="CL105" s="3"/>
       <c r="CM105" s="3"/>
+      <c r="CN105" s="3"/>
     </row>
-    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
@@ -38796,9 +38891,11 @@
         <v>71.02860936131232</v>
       </c>
       <c r="CM106" s="12">
-        <v>73.617272298446196</v>
-      </c>
-      <c r="CN106" s="17"/>
+        <v>73.458648828425936</v>
+      </c>
+      <c r="CN106" s="12">
+        <v>68.14802825454646</v>
+      </c>
       <c r="CO106" s="17"/>
       <c r="CP106" s="17"/>
       <c r="CQ106" s="17"/>
@@ -38863,7 +38960,7 @@
       <c r="EX106" s="17"/>
       <c r="EY106" s="17"/>
     </row>
-    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>12</v>
       </c>
@@ -39135,9 +39232,11 @@
         <v>28.971390638687676</v>
       </c>
       <c r="CM107" s="12">
-        <v>26.382727701553797</v>
-      </c>
-      <c r="CN107" s="17"/>
+        <v>26.54135117157405</v>
+      </c>
+      <c r="CN107" s="12">
+        <v>31.85197174545354</v>
+      </c>
       <c r="CO107" s="17"/>
       <c r="CP107" s="17"/>
       <c r="CQ107" s="17"/>
@@ -39202,7 +39301,7 @@
       <c r="EX107" s="17"/>
       <c r="EY107" s="17"/>
     </row>
-    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -39293,7 +39392,7 @@
       <c r="CK108" s="11"/>
       <c r="CL108" s="11"/>
       <c r="CM108" s="11"/>
-      <c r="CN108" s="17"/>
+      <c r="CN108" s="11"/>
       <c r="CO108" s="17"/>
       <c r="CP108" s="17"/>
       <c r="CQ108" s="17"/>
@@ -39358,7 +39457,7 @@
       <c r="EX108" s="17"/>
       <c r="EY108" s="17"/>
     </row>
-    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>13</v>
       </c>
@@ -39632,7 +39731,9 @@
       <c r="CM109" s="12">
         <v>100</v>
       </c>
-      <c r="CN109" s="17"/>
+      <c r="CN109" s="12">
+        <v>100</v>
+      </c>
       <c r="CO109" s="17"/>
       <c r="CP109" s="17"/>
       <c r="CQ109" s="17"/>
@@ -39697,7 +39798,7 @@
       <c r="EX109" s="17"/>
       <c r="EY109" s="17"/>
     </row>
-    <row r="110" spans="1:155" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -39789,8 +39890,9 @@
       <c r="CK110" s="9"/>
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
+      <c r="CN110" s="9"/>
     </row>
-    <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>0</v>
       </c>
@@ -39884,8 +39986,9 @@
       <c r="CK111" s="3"/>
       <c r="CL111" s="3"/>
       <c r="CM111" s="3"/>
+      <c r="CN111" s="3"/>
     </row>
-    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -39976,7 +40079,7 @@
       <c r="CK112" s="11"/>
       <c r="CL112" s="11"/>
       <c r="CM112" s="11"/>
-      <c r="CN112" s="17"/>
+      <c r="CN112" s="11"/>
       <c r="CO112" s="17"/>
       <c r="CP112" s="17"/>
       <c r="CQ112" s="17"/>
@@ -40041,7 +40144,7 @@
       <c r="EX112" s="17"/>
       <c r="EY112" s="17"/>
     </row>
-    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -40132,7 +40235,7 @@
       <c r="CK113" s="11"/>
       <c r="CL113" s="11"/>
       <c r="CM113" s="11"/>
-      <c r="CN113" s="17"/>
+      <c r="CN113" s="11"/>
       <c r="CO113" s="17"/>
       <c r="CP113" s="17"/>
       <c r="CQ113" s="17"/>
@@ -40197,7 +40300,7 @@
       <c r="EX113" s="17"/>
       <c r="EY113" s="17"/>
     </row>
-    <row r="114" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>2</v>
       </c>
@@ -40291,8 +40394,9 @@
       <c r="CK114" s="3"/>
       <c r="CL114" s="3"/>
       <c r="CM114" s="3"/>
+      <c r="CN114" s="3"/>
     </row>
-    <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>1</v>
       </c>
@@ -40386,10 +40490,11 @@
       <c r="CK115" s="3"/>
       <c r="CL115" s="3"/>
       <c r="CM115" s="3"/>
+      <c r="CN115" s="3"/>
     </row>
-    <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -40481,8 +40586,9 @@
       <c r="CK116" s="3"/>
       <c r="CL116" s="3"/>
       <c r="CM116" s="3"/>
+      <c r="CN116" s="3"/>
     </row>
-    <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -40574,8 +40680,9 @@
       <c r="CK117" s="3"/>
       <c r="CL117" s="3"/>
       <c r="CM117" s="3"/>
+      <c r="CN117" s="3"/>
     </row>
-    <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>20</v>
       </c>
@@ -40669,10 +40776,11 @@
       <c r="CK118" s="3"/>
       <c r="CL118" s="3"/>
       <c r="CM118" s="3"/>
+      <c r="CN118" s="3"/>
     </row>
-    <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -40764,8 +40872,9 @@
       <c r="CK119" s="3"/>
       <c r="CL119" s="3"/>
       <c r="CM119" s="3"/>
+      <c r="CN119" s="3"/>
     </row>
-    <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>24</v>
       </c>
@@ -40859,8 +40968,9 @@
       <c r="CK120" s="3"/>
       <c r="CL120" s="3"/>
       <c r="CM120" s="3"/>
+      <c r="CN120" s="3"/>
     </row>
-    <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -40952,147 +41062,149 @@
       <c r="CK121" s="3"/>
       <c r="CL121" s="3"/>
       <c r="CM121" s="3"/>
+      <c r="CN121" s="3"/>
     </row>
-    <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="22">
+      <c r="B122" s="20">
         <v>2000</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="22">
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="20">
         <v>2001</v>
       </c>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="22">
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="20">
         <v>2002</v>
       </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="23"/>
-      <c r="N122" s="22">
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="20">
         <v>2003</v>
       </c>
-      <c r="O122" s="23"/>
-      <c r="P122" s="23"/>
-      <c r="Q122" s="23"/>
-      <c r="R122" s="22">
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="20">
         <v>2004</v>
       </c>
-      <c r="S122" s="23"/>
-      <c r="T122" s="23"/>
-      <c r="U122" s="23"/>
-      <c r="V122" s="22">
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="20">
         <v>2005</v>
       </c>
-      <c r="W122" s="23"/>
-      <c r="X122" s="23"/>
-      <c r="Y122" s="23"/>
-      <c r="Z122" s="22">
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+      <c r="Z122" s="20">
         <v>2006</v>
       </c>
-      <c r="AA122" s="23"/>
-      <c r="AB122" s="23"/>
-      <c r="AC122" s="23"/>
-      <c r="AD122" s="22">
+      <c r="AA122" s="21"/>
+      <c r="AB122" s="21"/>
+      <c r="AC122" s="21"/>
+      <c r="AD122" s="20">
         <v>2007</v>
       </c>
-      <c r="AE122" s="23"/>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="23"/>
-      <c r="AH122" s="22">
+      <c r="AE122" s="21"/>
+      <c r="AF122" s="21"/>
+      <c r="AG122" s="21"/>
+      <c r="AH122" s="20">
         <v>2008</v>
       </c>
-      <c r="AI122" s="23"/>
-      <c r="AJ122" s="23"/>
-      <c r="AK122" s="23"/>
-      <c r="AL122" s="22">
+      <c r="AI122" s="21"/>
+      <c r="AJ122" s="21"/>
+      <c r="AK122" s="21"/>
+      <c r="AL122" s="20">
         <v>2009</v>
       </c>
-      <c r="AM122" s="23"/>
-      <c r="AN122" s="23"/>
-      <c r="AO122" s="23"/>
-      <c r="AP122" s="22">
+      <c r="AM122" s="21"/>
+      <c r="AN122" s="21"/>
+      <c r="AO122" s="21"/>
+      <c r="AP122" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="23"/>
-      <c r="AR122" s="23"/>
-      <c r="AS122" s="23"/>
-      <c r="AT122" s="22">
+      <c r="AQ122" s="21"/>
+      <c r="AR122" s="21"/>
+      <c r="AS122" s="21"/>
+      <c r="AT122" s="20">
         <v>2011</v>
       </c>
-      <c r="AU122" s="23"/>
-      <c r="AV122" s="23"/>
-      <c r="AW122" s="23"/>
-      <c r="AX122" s="22">
+      <c r="AU122" s="21"/>
+      <c r="AV122" s="21"/>
+      <c r="AW122" s="21"/>
+      <c r="AX122" s="20">
         <v>2012</v>
       </c>
-      <c r="AY122" s="23"/>
-      <c r="AZ122" s="23"/>
-      <c r="BA122" s="23"/>
-      <c r="BB122" s="22">
+      <c r="AY122" s="21"/>
+      <c r="AZ122" s="21"/>
+      <c r="BA122" s="21"/>
+      <c r="BB122" s="20">
         <v>2013</v>
       </c>
-      <c r="BC122" s="23"/>
-      <c r="BD122" s="23"/>
-      <c r="BE122" s="23"/>
-      <c r="BF122" s="22">
+      <c r="BC122" s="21"/>
+      <c r="BD122" s="21"/>
+      <c r="BE122" s="21"/>
+      <c r="BF122" s="20">
         <v>2014</v>
       </c>
-      <c r="BG122" s="23"/>
-      <c r="BH122" s="23"/>
-      <c r="BI122" s="23"/>
-      <c r="BJ122" s="22">
+      <c r="BG122" s="21"/>
+      <c r="BH122" s="21"/>
+      <c r="BI122" s="21"/>
+      <c r="BJ122" s="20">
         <v>2015</v>
       </c>
-      <c r="BK122" s="23"/>
-      <c r="BL122" s="23"/>
-      <c r="BM122" s="23"/>
-      <c r="BN122" s="22">
+      <c r="BK122" s="21"/>
+      <c r="BL122" s="21"/>
+      <c r="BM122" s="21"/>
+      <c r="BN122" s="20">
         <v>2016</v>
       </c>
-      <c r="BO122" s="23"/>
-      <c r="BP122" s="23"/>
-      <c r="BQ122" s="23"/>
-      <c r="BR122" s="22">
+      <c r="BO122" s="21"/>
+      <c r="BP122" s="21"/>
+      <c r="BQ122" s="21"/>
+      <c r="BR122" s="20">
         <v>2017</v>
       </c>
-      <c r="BS122" s="23"/>
-      <c r="BT122" s="23"/>
-      <c r="BU122" s="23"/>
-      <c r="BV122" s="22">
+      <c r="BS122" s="21"/>
+      <c r="BT122" s="21"/>
+      <c r="BU122" s="21"/>
+      <c r="BV122" s="20">
         <v>2018</v>
       </c>
-      <c r="BW122" s="23"/>
-      <c r="BX122" s="23"/>
-      <c r="BY122" s="23"/>
-      <c r="BZ122" s="22">
+      <c r="BW122" s="21"/>
+      <c r="BX122" s="21"/>
+      <c r="BY122" s="21"/>
+      <c r="BZ122" s="20">
         <v>2019</v>
       </c>
-      <c r="CA122" s="23"/>
-      <c r="CB122" s="23"/>
-      <c r="CC122" s="23"/>
-      <c r="CD122" s="22">
+      <c r="CA122" s="21"/>
+      <c r="CB122" s="21"/>
+      <c r="CC122" s="21"/>
+      <c r="CD122" s="20">
         <v>2020</v>
       </c>
-      <c r="CE122" s="23"/>
-      <c r="CF122" s="23"/>
-      <c r="CG122" s="23"/>
-      <c r="CH122" s="22">
+      <c r="CE122" s="21"/>
+      <c r="CF122" s="21"/>
+      <c r="CG122" s="21"/>
+      <c r="CH122" s="20">
         <v>2021</v>
       </c>
-      <c r="CI122" s="22"/>
-      <c r="CJ122" s="22"/>
-      <c r="CK122" s="22"/>
-      <c r="CL122" s="22">
+      <c r="CI122" s="20"/>
+      <c r="CJ122" s="20"/>
+      <c r="CK122" s="20"/>
+      <c r="CL122" s="20">
         <v>2022</v>
       </c>
-      <c r="CM122" s="22"/>
+      <c r="CM122" s="20"/>
+      <c r="CN122" s="20"/>
     </row>
-    <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -41366,8 +41478,11 @@
       <c r="CM123" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN123" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="16" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -41459,8 +41574,9 @@
       <c r="CK124" s="3"/>
       <c r="CL124" s="3"/>
       <c r="CM124" s="3"/>
+      <c r="CN124" s="3"/>
     </row>
-    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>11</v>
       </c>
@@ -41732,9 +41848,11 @@
         <v>69.261974371370911</v>
       </c>
       <c r="CM125" s="12">
-        <v>72.293903022186512</v>
-      </c>
-      <c r="CN125" s="17"/>
+        <v>72.126354584054525</v>
+      </c>
+      <c r="CN125" s="12">
+        <v>67.863268032568669</v>
+      </c>
       <c r="CO125" s="17"/>
       <c r="CP125" s="17"/>
       <c r="CQ125" s="17"/>
@@ -41799,7 +41917,7 @@
       <c r="EX125" s="17"/>
       <c r="EY125" s="17"/>
     </row>
-    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
@@ -42071,9 +42189,11 @@
         <v>30.738025628629089</v>
       </c>
       <c r="CM126" s="12">
-        <v>27.706096977813488</v>
-      </c>
-      <c r="CN126" s="17"/>
+        <v>27.873645415945482</v>
+      </c>
+      <c r="CN126" s="12">
+        <v>32.136731967431338</v>
+      </c>
       <c r="CO126" s="17"/>
       <c r="CP126" s="17"/>
       <c r="CQ126" s="17"/>
@@ -42138,7 +42258,7 @@
       <c r="EX126" s="17"/>
       <c r="EY126" s="17"/>
     </row>
-    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -42229,7 +42349,7 @@
       <c r="CK127" s="11"/>
       <c r="CL127" s="11"/>
       <c r="CM127" s="11"/>
-      <c r="CN127" s="17"/>
+      <c r="CN127" s="11"/>
       <c r="CO127" s="17"/>
       <c r="CP127" s="17"/>
       <c r="CQ127" s="17"/>
@@ -42294,7 +42414,7 @@
       <c r="EX127" s="17"/>
       <c r="EY127" s="17"/>
     </row>
-    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:155" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>13</v>
       </c>
@@ -42568,7 +42688,9 @@
       <c r="CM128" s="12">
         <v>100</v>
       </c>
-      <c r="CN128" s="17"/>
+      <c r="CN128" s="12">
+        <v>100</v>
+      </c>
       <c r="CO128" s="17"/>
       <c r="CP128" s="17"/>
       <c r="CQ128" s="17"/>
@@ -42633,7 +42755,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:91" s="16" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:92" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -42725,8 +42847,9 @@
       <c r="CK129" s="9"/>
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
+      <c r="CN129" s="9"/>
     </row>
-    <row r="130" spans="1:91" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:92" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -42820,35 +42943,123 @@
       <c r="CK130" s="3"/>
       <c r="CL130" s="3"/>
       <c r="CM130" s="3"/>
+      <c r="CN130" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AT84:AW84"/>
+  <mergeCells count="161">
+    <mergeCell ref="CL103:CN103"/>
+    <mergeCell ref="CL122:CN122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL28:CN28"/>
+    <mergeCell ref="CH47:CJ47"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CH66:CJ66"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="CL84:CN84"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AP103:AS103"/>
     <mergeCell ref="AD122:AG122"/>
     <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="Z66:AC66"/>
     <mergeCell ref="AD66:AG66"/>
     <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -42873,124 +43084,39 @@
     <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AH47:AK47"/>
     <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AL47:AO47"/>
     <mergeCell ref="AP47:AS47"/>
     <mergeCell ref="AT47:AW47"/>
     <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
     <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL28:CM28"/>
-    <mergeCell ref="CH47:CI47"/>
-    <mergeCell ref="CH66:CI66"/>
-    <mergeCell ref="CL84:CM84"/>
-    <mergeCell ref="CL103:CM103"/>
-    <mergeCell ref="CL122:CM122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="V66:Y66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="90" man="1"/>
-    <brk id="76" max="90" man="1"/>
-    <brk id="94" max="90" man="1"/>
+    <brk id="38" max="91" man="1"/>
+    <brk id="76" max="91" man="1"/>
+    <brk id="94" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E15AE-F3B1-4CD8-A459-F452099E3081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586638E-83DA-4B65-B512-83EEDC0F056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CN$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CO$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -612,13 +612,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15147,7 +15147,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15856,7 +15856,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15879,7 +15879,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15908,7 +15908,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15971,7 +15971,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16000,7 +16000,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16031,7 +16031,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18425,7 +18425,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18513,7 +18513,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18534,7 +18534,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18591,7 +18591,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18608,7 +18608,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18649,7 +18649,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18662,7 +18662,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18709,7 +18709,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18738,7 +18738,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23155,7 +23155,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23198,7 +23198,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23600,7 +23600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23615,14 +23615,14 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="92" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="15"/>
+    <col min="2" max="93" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23637,7 +23637,7 @@
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23650,7 +23650,7 @@
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23751,6 +23751,7 @@
       <c r="CL8" s="3"/>
       <c r="CM8" s="3"/>
       <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -23891,6 +23892,7 @@
       </c>
       <c r="CM9" s="20"/>
       <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24168,6 +24170,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24263,6 +24268,7 @@
       <c r="CL11" s="3"/>
       <c r="CM11" s="3"/>
       <c r="CN11" s="3"/>
+      <c r="CO11" s="3"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24541,7 +24547,9 @@
       <c r="CN12" s="13">
         <v>139255.94395957311</v>
       </c>
-      <c r="CO12" s="17"/>
+      <c r="CO12" s="13">
+        <v>165730.24826079427</v>
+      </c>
       <c r="CP12" s="17"/>
       <c r="CQ12" s="17"/>
       <c r="CR12" s="17"/>
@@ -24880,9 +24888,11 @@
         <v>63753.10068974043</v>
       </c>
       <c r="CN13" s="13">
-        <v>65087.376788349953</v>
-      </c>
-      <c r="CO13" s="17"/>
+        <v>66052.612190712462</v>
+      </c>
+      <c r="CO13" s="13">
+        <v>67776.038097693759</v>
+      </c>
       <c r="CP13" s="17"/>
       <c r="CQ13" s="17"/>
       <c r="CR13" s="17"/>
@@ -25038,7 +25048,7 @@
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
-      <c r="CO14" s="17"/>
+      <c r="CO14" s="11"/>
       <c r="CP14" s="17"/>
       <c r="CQ14" s="17"/>
       <c r="CR14" s="17"/>
@@ -25377,9 +25387,11 @@
         <v>240202.92063359753</v>
       </c>
       <c r="CN15" s="14">
-        <v>204343.32074792305</v>
-      </c>
-      <c r="CO15" s="17"/>
+        <v>205308.55615028559</v>
+      </c>
+      <c r="CO15" s="14">
+        <v>233506.28635848803</v>
+      </c>
       <c r="CP15" s="17"/>
       <c r="CQ15" s="17"/>
       <c r="CR15" s="17"/>
@@ -25536,6 +25548,7 @@
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25632,6 +25645,7 @@
       <c r="CL17" s="3"/>
       <c r="CM17" s="3"/>
       <c r="CN17" s="3"/>
+      <c r="CO17" s="3"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25725,7 +25739,7 @@
       <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
-      <c r="CO18" s="17"/>
+      <c r="CO18" s="11"/>
       <c r="CP18" s="17"/>
       <c r="CQ18" s="17"/>
       <c r="CR18" s="17"/>
@@ -25881,7 +25895,7 @@
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
-      <c r="CO19" s="17"/>
+      <c r="CO19" s="11"/>
       <c r="CP19" s="17"/>
       <c r="CQ19" s="17"/>
       <c r="CR19" s="17"/>
@@ -26040,6 +26054,7 @@
       <c r="CL20" s="3"/>
       <c r="CM20" s="3"/>
       <c r="CN20" s="3"/>
+      <c r="CO20" s="3"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26136,10 +26151,11 @@
       <c r="CL21" s="3"/>
       <c r="CM21" s="3"/>
       <c r="CN21" s="3"/>
+      <c r="CO21" s="3"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26232,6 +26248,7 @@
       <c r="CL22" s="3"/>
       <c r="CM22" s="3"/>
       <c r="CN22" s="3"/>
+      <c r="CO22" s="3"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26326,6 +26343,7 @@
       <c r="CL23" s="3"/>
       <c r="CM23" s="3"/>
       <c r="CN23" s="3"/>
+      <c r="CO23" s="3"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26422,10 +26440,11 @@
       <c r="CL24" s="3"/>
       <c r="CM24" s="3"/>
       <c r="CN24" s="3"/>
+      <c r="CO24" s="3"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26518,6 +26537,7 @@
       <c r="CL25" s="3"/>
       <c r="CM25" s="3"/>
       <c r="CN25" s="3"/>
+      <c r="CO25" s="3"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26614,6 +26634,7 @@
       <c r="CL26" s="3"/>
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
+      <c r="CO26" s="3"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26708,6 +26729,7 @@
       <c r="CL27" s="3"/>
       <c r="CM27" s="3"/>
       <c r="CN27" s="3"/>
+      <c r="CO27" s="3"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
@@ -26848,6 +26870,7 @@
       </c>
       <c r="CM28" s="20"/>
       <c r="CN28" s="20"/>
+      <c r="CO28" s="20"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27125,6 +27148,9 @@
       </c>
       <c r="CN29" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27220,6 +27246,7 @@
       <c r="CL30" s="3"/>
       <c r="CM30" s="3"/>
       <c r="CN30" s="3"/>
+      <c r="CO30" s="3"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27498,7 +27525,9 @@
       <c r="CN31" s="13">
         <v>124311.22368091729</v>
       </c>
-      <c r="CO31" s="17"/>
+      <c r="CO31" s="13">
+        <v>128789.28582203362</v>
+      </c>
       <c r="CP31" s="17"/>
       <c r="CQ31" s="17"/>
       <c r="CR31" s="17"/>
@@ -27837,9 +27866,11 @@
         <v>63855.107761719904</v>
       </c>
       <c r="CN32" s="13">
-        <v>58867.729064562562</v>
-      </c>
-      <c r="CO32" s="17"/>
+        <v>59740.728084550268</v>
+      </c>
+      <c r="CO32" s="13">
+        <v>59037.565595232074</v>
+      </c>
       <c r="CP32" s="17"/>
       <c r="CQ32" s="17"/>
       <c r="CR32" s="17"/>
@@ -27995,7 +28026,7 @@
       <c r="CL33" s="11"/>
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
-      <c r="CO33" s="17"/>
+      <c r="CO33" s="11"/>
       <c r="CP33" s="17"/>
       <c r="CQ33" s="17"/>
       <c r="CR33" s="17"/>
@@ -28334,9 +28365,11 @@
         <v>229087.75227940138</v>
       </c>
       <c r="CN34" s="14">
-        <v>183178.95274547985</v>
-      </c>
-      <c r="CO34" s="17"/>
+        <v>184051.95176546756</v>
+      </c>
+      <c r="CO34" s="14">
+        <v>187826.85141726569</v>
+      </c>
       <c r="CP34" s="17"/>
       <c r="CQ34" s="17"/>
       <c r="CR34" s="17"/>
@@ -28493,6 +28526,7 @@
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
+      <c r="CO35" s="9"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28589,6 +28623,7 @@
       <c r="CL36" s="3"/>
       <c r="CM36" s="3"/>
       <c r="CN36" s="3"/>
+      <c r="CO36" s="3"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -28682,7 +28717,7 @@
       <c r="CL37" s="11"/>
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
-      <c r="CO37" s="17"/>
+      <c r="CO37" s="11"/>
       <c r="CP37" s="17"/>
       <c r="CQ37" s="17"/>
       <c r="CR37" s="17"/>
@@ -28838,7 +28873,7 @@
       <c r="CL38" s="11"/>
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
-      <c r="CO38" s="17"/>
+      <c r="CO38" s="11"/>
       <c r="CP38" s="17"/>
       <c r="CQ38" s="17"/>
       <c r="CR38" s="17"/>
@@ -28997,6 +29032,7 @@
       <c r="CL39" s="3"/>
       <c r="CM39" s="3"/>
       <c r="CN39" s="3"/>
+      <c r="CO39" s="3"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29093,10 +29129,11 @@
       <c r="CL40" s="3"/>
       <c r="CM40" s="3"/>
       <c r="CN40" s="3"/>
+      <c r="CO40" s="3"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29189,6 +29226,7 @@
       <c r="CL41" s="3"/>
       <c r="CM41" s="3"/>
       <c r="CN41" s="3"/>
+      <c r="CO41" s="3"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29283,6 +29321,7 @@
       <c r="CL42" s="3"/>
       <c r="CM42" s="3"/>
       <c r="CN42" s="3"/>
+      <c r="CO42" s="3"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29379,10 +29418,11 @@
       <c r="CL43" s="3"/>
       <c r="CM43" s="3"/>
       <c r="CN43" s="3"/>
+      <c r="CO43" s="3"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29651,6 +29691,7 @@
       <c r="CL46" s="3"/>
       <c r="CM46" s="3"/>
       <c r="CN46" s="3"/>
+      <c r="CO46" s="3"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -29785,10 +29826,11 @@
       </c>
       <c r="CI47" s="20"/>
       <c r="CJ47" s="20"/>
-      <c r="CK47" s="19"/>
+      <c r="CK47" s="20"/>
       <c r="CL47" s="20"/>
       <c r="CM47" s="20"/>
       <c r="CN47" s="19"/>
+      <c r="CO47" s="19"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30055,10 +30097,13 @@
       <c r="CJ48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK48" s="5"/>
+      <c r="CK48" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL48" s="5"/>
       <c r="CM48" s="5"/>
       <c r="CN48" s="5"/>
+      <c r="CO48" s="5"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30153,6 +30198,7 @@
       <c r="CL49" s="3"/>
       <c r="CM49" s="3"/>
       <c r="CN49" s="3"/>
+      <c r="CO49" s="3"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30419,11 +30465,13 @@
       <c r="CJ50" s="12">
         <v>7.3929024296293164</v>
       </c>
-      <c r="CK50" s="12"/>
+      <c r="CK50" s="12">
+        <v>18.313819857919995</v>
+      </c>
       <c r="CL50" s="12"/>
       <c r="CM50" s="12"/>
       <c r="CN50" s="12"/>
-      <c r="CO50" s="17"/>
+      <c r="CO50" s="12"/>
       <c r="CP50" s="17"/>
       <c r="CQ50" s="17"/>
       <c r="CR50" s="17"/>
@@ -30746,13 +30794,15 @@
         <v>7.1927061972418329</v>
       </c>
       <c r="CJ51" s="12">
-        <v>10.791915108182664</v>
-      </c>
-      <c r="CK51" s="12"/>
+        <v>12.434941514143176</v>
+      </c>
+      <c r="CK51" s="12">
+        <v>7.7221201410191895</v>
+      </c>
       <c r="CL51" s="12"/>
       <c r="CM51" s="12"/>
       <c r="CN51" s="12"/>
-      <c r="CO51" s="17"/>
+      <c r="CO51" s="12"/>
       <c r="CP51" s="17"/>
       <c r="CQ51" s="17"/>
       <c r="CR51" s="17"/>
@@ -30905,7 +30955,7 @@
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
-      <c r="CO52" s="17"/>
+      <c r="CO52" s="11"/>
       <c r="CP52" s="17"/>
       <c r="CQ52" s="17"/>
       <c r="CR52" s="17"/>
@@ -31228,13 +31278,15 @@
         <v>8.7782235948763514</v>
       </c>
       <c r="CJ53" s="12">
-        <v>8.4526962685770144</v>
-      </c>
-      <c r="CK53" s="12"/>
+        <v>8.964983049162484</v>
+      </c>
+      <c r="CK53" s="12">
+        <v>15.030954346596886</v>
+      </c>
       <c r="CL53" s="12"/>
       <c r="CM53" s="12"/>
       <c r="CN53" s="12"/>
-      <c r="CO53" s="17"/>
+      <c r="CO53" s="12"/>
       <c r="CP53" s="17"/>
       <c r="CQ53" s="17"/>
       <c r="CR53" s="17"/>
@@ -31387,6 +31439,7 @@
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
+      <c r="CO54" s="9"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -31483,6 +31536,7 @@
       <c r="CL55" s="3"/>
       <c r="CM55" s="3"/>
       <c r="CN55" s="3"/>
+      <c r="CO55" s="3"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -31576,7 +31630,7 @@
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
-      <c r="CO56" s="17"/>
+      <c r="CO56" s="11"/>
       <c r="CP56" s="17"/>
       <c r="CQ56" s="17"/>
       <c r="CR56" s="17"/>
@@ -31728,7 +31782,7 @@
       <c r="CL57" s="11"/>
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
-      <c r="CO57" s="17"/>
+      <c r="CO57" s="11"/>
       <c r="CP57" s="17"/>
       <c r="CQ57" s="17"/>
       <c r="CR57" s="17"/>
@@ -31883,6 +31937,7 @@
       <c r="CL58" s="3"/>
       <c r="CM58" s="3"/>
       <c r="CN58" s="3"/>
+      <c r="CO58" s="3"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -31979,10 +32034,11 @@
       <c r="CL59" s="3"/>
       <c r="CM59" s="3"/>
       <c r="CN59" s="3"/>
+      <c r="CO59" s="3"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32075,6 +32131,7 @@
       <c r="CL60" s="3"/>
       <c r="CM60" s="3"/>
       <c r="CN60" s="3"/>
+      <c r="CO60" s="3"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32169,6 +32226,7 @@
       <c r="CL61" s="3"/>
       <c r="CM61" s="3"/>
       <c r="CN61" s="3"/>
+      <c r="CO61" s="3"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32265,10 +32323,11 @@
       <c r="CL62" s="3"/>
       <c r="CM62" s="3"/>
       <c r="CN62" s="3"/>
+      <c r="CO62" s="3"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32361,6 +32420,7 @@
       <c r="CL63" s="3"/>
       <c r="CM63" s="3"/>
       <c r="CN63" s="3"/>
+      <c r="CO63" s="3"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -32457,6 +32517,7 @@
       <c r="CL64" s="3"/>
       <c r="CM64" s="3"/>
       <c r="CN64" s="3"/>
+      <c r="CO64" s="3"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -32551,6 +32612,7 @@
       <c r="CL65" s="3"/>
       <c r="CM65" s="3"/>
       <c r="CN65" s="3"/>
+      <c r="CO65" s="3"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -32685,10 +32747,11 @@
       </c>
       <c r="CI66" s="20"/>
       <c r="CJ66" s="20"/>
-      <c r="CK66" s="19"/>
+      <c r="CK66" s="20"/>
       <c r="CL66" s="20"/>
       <c r="CM66" s="20"/>
       <c r="CN66" s="19"/>
+      <c r="CO66" s="19"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -32955,10 +33018,13 @@
       <c r="CJ67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK67" s="5"/>
+      <c r="CK67" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL67" s="5"/>
       <c r="CM67" s="5"/>
       <c r="CN67" s="5"/>
+      <c r="CO67" s="5"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33053,6 +33119,7 @@
       <c r="CL68" s="3"/>
       <c r="CM68" s="3"/>
       <c r="CN68" s="3"/>
+      <c r="CO68" s="3"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33319,11 +33386,13 @@
       <c r="CJ69" s="12">
         <v>3.0281076537770133</v>
       </c>
-      <c r="CK69" s="12"/>
+      <c r="CK69" s="12">
+        <v>14.511216635929742</v>
+      </c>
       <c r="CL69" s="12"/>
       <c r="CM69" s="12"/>
       <c r="CN69" s="12"/>
-      <c r="CO69" s="17"/>
+      <c r="CO69" s="12"/>
       <c r="CP69" s="17"/>
       <c r="CQ69" s="17"/>
       <c r="CR69" s="17"/>
@@ -33646,13 +33715,15 @@
         <v>8.0282972996796502</v>
       </c>
       <c r="CJ70" s="12">
-        <v>10.172389021836793</v>
-      </c>
-      <c r="CK70" s="12"/>
+        <v>11.806227954884193</v>
+      </c>
+      <c r="CK70" s="12">
+        <v>4.8464906901632077</v>
+      </c>
       <c r="CL70" s="12"/>
       <c r="CM70" s="12"/>
       <c r="CN70" s="12"/>
-      <c r="CO70" s="17"/>
+      <c r="CO70" s="12"/>
       <c r="CP70" s="17"/>
       <c r="CQ70" s="17"/>
       <c r="CR70" s="17"/>
@@ -33804,7 +33875,7 @@
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
-      <c r="CO71" s="17"/>
+      <c r="CO71" s="11"/>
       <c r="CP71" s="17"/>
       <c r="CQ71" s="17"/>
       <c r="CR71" s="17"/>
@@ -34127,13 +34198,15 @@
         <v>5.5042114210028785</v>
       </c>
       <c r="CJ72" s="12">
-        <v>5.2208587454998963</v>
-      </c>
-      <c r="CK72" s="12"/>
+        <v>5.722323052344791</v>
+      </c>
+      <c r="CK72" s="12">
+        <v>11.28680787173839</v>
+      </c>
       <c r="CL72" s="12"/>
       <c r="CM72" s="12"/>
       <c r="CN72" s="12"/>
-      <c r="CO72" s="17"/>
+      <c r="CO72" s="12"/>
       <c r="CP72" s="17"/>
       <c r="CQ72" s="17"/>
       <c r="CR72" s="17"/>
@@ -34286,6 +34359,7 @@
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
+      <c r="CO73" s="9"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -34382,6 +34456,7 @@
       <c r="CL74" s="3"/>
       <c r="CM74" s="3"/>
       <c r="CN74" s="3"/>
+      <c r="CO74" s="3"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -34778,7 +34853,7 @@
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -35043,7 +35118,7 @@
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35445,6 +35520,7 @@
       </c>
       <c r="CM84" s="20"/>
       <c r="CN84" s="20"/>
+      <c r="CO84" s="20"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -35722,6 +35798,9 @@
       </c>
       <c r="CN85" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO85" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36088,7 +36167,9 @@
       <c r="CN87" s="12">
         <v>112.02202008486057</v>
       </c>
-      <c r="CO87" s="17"/>
+      <c r="CO87" s="12">
+        <v>128.68325746429497</v>
+      </c>
       <c r="CP87" s="17"/>
       <c r="CQ87" s="17"/>
       <c r="CR87" s="17"/>
@@ -36425,7 +36506,9 @@
       <c r="CN88" s="12">
         <v>110.56546230442498</v>
       </c>
-      <c r="CO88" s="17"/>
+      <c r="CO88" s="12">
+        <v>114.80154612467186</v>
+      </c>
       <c r="CP88" s="17"/>
       <c r="CQ88" s="17"/>
       <c r="CR88" s="17"/>
@@ -36577,7 +36660,7 @@
       <c r="CL89" s="11"/>
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
-      <c r="CO89" s="17"/>
+      <c r="CO89" s="11"/>
       <c r="CP89" s="17"/>
       <c r="CQ89" s="17"/>
       <c r="CR89" s="17"/>
@@ -36912,9 +36995,11 @@
         <v>104.85192606047302</v>
       </c>
       <c r="CN90" s="12">
-        <v>111.55393001501122</v>
-      </c>
-      <c r="CO90" s="17"/>
+        <v>111.54924149454537</v>
+      </c>
+      <c r="CO90" s="12">
+        <v>124.31997054550175</v>
+      </c>
       <c r="CP90" s="17"/>
       <c r="CQ90" s="17"/>
       <c r="CR90" s="17"/>
@@ -37067,6 +37152,7 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
+      <c r="CO91" s="9"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37249,6 +37335,7 @@
       <c r="CL93" s="3"/>
       <c r="CM93" s="3"/>
       <c r="CN93" s="3"/>
+      <c r="CO93" s="3"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -37342,6 +37429,7 @@
       <c r="CL94" s="3"/>
       <c r="CM94" s="3"/>
       <c r="CN94" s="3"/>
+      <c r="CO94" s="3"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -37438,6 +37526,7 @@
       <c r="CL95" s="3"/>
       <c r="CM95" s="3"/>
       <c r="CN95" s="3"/>
+      <c r="CO95" s="3"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -37534,10 +37623,11 @@
       <c r="CL96" s="3"/>
       <c r="CM96" s="3"/>
       <c r="CN96" s="3"/>
+      <c r="CO96" s="3"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -37630,6 +37720,7 @@
       <c r="CL97" s="3"/>
       <c r="CM97" s="3"/>
       <c r="CN97" s="3"/>
+      <c r="CO97" s="3"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -37724,6 +37815,7 @@
       <c r="CL98" s="3"/>
       <c r="CM98" s="3"/>
       <c r="CN98" s="3"/>
+      <c r="CO98" s="3"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -37820,10 +37912,11 @@
       <c r="CL99" s="3"/>
       <c r="CM99" s="3"/>
       <c r="CN99" s="3"/>
+      <c r="CO99" s="3"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -37916,6 +38009,7 @@
       <c r="CL100" s="3"/>
       <c r="CM100" s="3"/>
       <c r="CN100" s="3"/>
+      <c r="CO100" s="3"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38012,6 +38106,7 @@
       <c r="CL101" s="3"/>
       <c r="CM101" s="3"/>
       <c r="CN101" s="3"/>
+      <c r="CO101" s="3"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -38106,6 +38201,7 @@
       <c r="CL102" s="3"/>
       <c r="CM102" s="3"/>
       <c r="CN102" s="3"/>
+      <c r="CO102" s="3"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
@@ -38246,6 +38342,7 @@
       </c>
       <c r="CM103" s="20"/>
       <c r="CN103" s="20"/>
+      <c r="CO103" s="20"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -38523,6 +38620,9 @@
       </c>
       <c r="CN104" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO104" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38618,6 +38718,7 @@
       <c r="CL105" s="3"/>
       <c r="CM105" s="3"/>
       <c r="CN105" s="3"/>
+      <c r="CO105" s="3"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -38894,9 +38995,11 @@
         <v>73.458648828425936</v>
       </c>
       <c r="CN106" s="12">
-        <v>68.14802825454646</v>
-      </c>
-      <c r="CO106" s="17"/>
+        <v>67.827637859202497</v>
+      </c>
+      <c r="CO106" s="12">
+        <v>70.974640916672655</v>
+      </c>
       <c r="CP106" s="17"/>
       <c r="CQ106" s="17"/>
       <c r="CR106" s="17"/>
@@ -39235,9 +39338,11 @@
         <v>26.54135117157405</v>
       </c>
       <c r="CN107" s="12">
-        <v>31.85197174545354</v>
-      </c>
-      <c r="CO107" s="17"/>
+        <v>32.172362140797503</v>
+      </c>
+      <c r="CO107" s="12">
+        <v>29.025359083327341</v>
+      </c>
       <c r="CP107" s="17"/>
       <c r="CQ107" s="17"/>
       <c r="CR107" s="17"/>
@@ -39393,7 +39498,7 @@
       <c r="CL108" s="11"/>
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
-      <c r="CO108" s="17"/>
+      <c r="CO108" s="11"/>
       <c r="CP108" s="17"/>
       <c r="CQ108" s="17"/>
       <c r="CR108" s="17"/>
@@ -39734,7 +39839,9 @@
       <c r="CN109" s="12">
         <v>100</v>
       </c>
-      <c r="CO109" s="17"/>
+      <c r="CO109" s="12">
+        <v>100</v>
+      </c>
       <c r="CP109" s="17"/>
       <c r="CQ109" s="17"/>
       <c r="CR109" s="17"/>
@@ -39891,6 +39998,7 @@
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
+      <c r="CO110" s="9"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -39987,6 +40095,7 @@
       <c r="CL111" s="3"/>
       <c r="CM111" s="3"/>
       <c r="CN111" s="3"/>
+      <c r="CO111" s="3"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -40080,7 +40189,7 @@
       <c r="CL112" s="11"/>
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
-      <c r="CO112" s="17"/>
+      <c r="CO112" s="11"/>
       <c r="CP112" s="17"/>
       <c r="CQ112" s="17"/>
       <c r="CR112" s="17"/>
@@ -40236,7 +40345,7 @@
       <c r="CL113" s="11"/>
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
-      <c r="CO113" s="17"/>
+      <c r="CO113" s="11"/>
       <c r="CP113" s="17"/>
       <c r="CQ113" s="17"/>
       <c r="CR113" s="17"/>
@@ -40395,6 +40504,7 @@
       <c r="CL114" s="3"/>
       <c r="CM114" s="3"/>
       <c r="CN114" s="3"/>
+      <c r="CO114" s="3"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -40491,10 +40601,11 @@
       <c r="CL115" s="3"/>
       <c r="CM115" s="3"/>
       <c r="CN115" s="3"/>
+      <c r="CO115" s="3"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -40587,6 +40698,7 @@
       <c r="CL116" s="3"/>
       <c r="CM116" s="3"/>
       <c r="CN116" s="3"/>
+      <c r="CO116" s="3"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -40681,6 +40793,7 @@
       <c r="CL117" s="3"/>
       <c r="CM117" s="3"/>
       <c r="CN117" s="3"/>
+      <c r="CO117" s="3"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -40777,10 +40890,11 @@
       <c r="CL118" s="3"/>
       <c r="CM118" s="3"/>
       <c r="CN118" s="3"/>
+      <c r="CO118" s="3"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -40873,6 +40987,7 @@
       <c r="CL119" s="3"/>
       <c r="CM119" s="3"/>
       <c r="CN119" s="3"/>
+      <c r="CO119" s="3"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -40969,6 +41084,7 @@
       <c r="CL120" s="3"/>
       <c r="CM120" s="3"/>
       <c r="CN120" s="3"/>
+      <c r="CO120" s="3"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -41063,6 +41179,7 @@
       <c r="CL121" s="3"/>
       <c r="CM121" s="3"/>
       <c r="CN121" s="3"/>
+      <c r="CO121" s="3"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
@@ -41203,6 +41320,7 @@
       </c>
       <c r="CM122" s="20"/>
       <c r="CN122" s="20"/>
+      <c r="CO122" s="20"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -41480,6 +41598,9 @@
       </c>
       <c r="CN123" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO123" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41575,6 +41696,7 @@
       <c r="CL124" s="3"/>
       <c r="CM124" s="3"/>
       <c r="CN124" s="3"/>
+      <c r="CO124" s="3"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -41851,9 +41973,11 @@
         <v>72.126354584054525</v>
       </c>
       <c r="CN125" s="12">
-        <v>67.863268032568669</v>
-      </c>
-      <c r="CO125" s="17"/>
+        <v>67.541377577632929</v>
+      </c>
+      <c r="CO125" s="12">
+        <v>68.568090691102796</v>
+      </c>
       <c r="CP125" s="17"/>
       <c r="CQ125" s="17"/>
       <c r="CR125" s="17"/>
@@ -42192,9 +42316,11 @@
         <v>27.873645415945482</v>
       </c>
       <c r="CN126" s="12">
-        <v>32.136731967431338</v>
-      </c>
-      <c r="CO126" s="17"/>
+        <v>32.458622422367064</v>
+      </c>
+      <c r="CO126" s="12">
+        <v>31.431909308897215</v>
+      </c>
       <c r="CP126" s="17"/>
       <c r="CQ126" s="17"/>
       <c r="CR126" s="17"/>
@@ -42350,7 +42476,7 @@
       <c r="CL127" s="11"/>
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
-      <c r="CO127" s="17"/>
+      <c r="CO127" s="11"/>
       <c r="CP127" s="17"/>
       <c r="CQ127" s="17"/>
       <c r="CR127" s="17"/>
@@ -42691,7 +42817,9 @@
       <c r="CN128" s="12">
         <v>100</v>
       </c>
-      <c r="CO128" s="17"/>
+      <c r="CO128" s="12">
+        <v>100</v>
+      </c>
       <c r="CP128" s="17"/>
       <c r="CQ128" s="17"/>
       <c r="CR128" s="17"/>
@@ -42755,7 +42883,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:92" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:93" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -42848,8 +42976,9 @@
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
+      <c r="CO129" s="9"/>
     </row>
-    <row r="130" spans="1:92" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:93" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -42944,49 +43073,10 @@
       <c r="CL130" s="3"/>
       <c r="CM130" s="3"/>
       <c r="CN130" s="3"/>
+      <c r="CO130" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CL103:CN103"/>
-    <mergeCell ref="CL122:CN122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL28:CN28"/>
-    <mergeCell ref="CH47:CJ47"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CH66:CJ66"/>
-    <mergeCell ref="CL66:CM66"/>
-    <mergeCell ref="CL84:CN84"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
     <mergeCell ref="BF103:BI103"/>
     <mergeCell ref="BJ103:BM103"/>
     <mergeCell ref="BN103:BQ103"/>
@@ -42995,9 +43085,99 @@
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
     <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -43016,107 +43196,57 @@
     <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CL66:CM66"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="91" man="1"/>
-    <brk id="76" max="91" man="1"/>
-    <brk id="94" max="91" man="1"/>
+    <brk id="38" max="92" man="1"/>
+    <brk id="76" max="92" man="1"/>
+    <brk id="94" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586638E-83DA-4B65-B512-83EEDC0F056D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7070FD89-A6DE-4C07-A7E9-86A3F0317395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -612,13 +612,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,7 +746,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23600,7 +23599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23614,8 +23613,8 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23637,7 +23636,7 @@
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23650,7 +23649,7 @@
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23755,144 +23754,144 @@
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="20"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="20"/>
-      <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24527,28 +24526,28 @@
         <v>125164.26438914001</v>
       </c>
       <c r="CH12" s="13">
-        <v>129990.15313604233</v>
+        <v>129787.71245106154</v>
       </c>
       <c r="CI12" s="13">
-        <v>161343.7176496727</v>
+        <v>161092.44836557424</v>
       </c>
       <c r="CJ12" s="13">
-        <v>129669.59716059681</v>
+        <v>129467.6556947467</v>
       </c>
       <c r="CK12" s="13">
-        <v>140076.82995935337</v>
+        <v>139858.68074787248</v>
       </c>
       <c r="CL12" s="13">
-        <v>147367.12349501514</v>
+        <v>147137.62071573344</v>
       </c>
       <c r="CM12" s="13">
-        <v>176449.81994385709</v>
+        <v>176175.02511092243</v>
       </c>
       <c r="CN12" s="13">
-        <v>139255.94395957311</v>
+        <v>139039.07315818773</v>
       </c>
       <c r="CO12" s="13">
-        <v>165730.24826079427</v>
+        <v>161962.20810424158</v>
       </c>
       <c r="CP12" s="17"/>
       <c r="CQ12" s="17"/>
@@ -24879,19 +24878,19 @@
         <v>58747.4065456811</v>
       </c>
       <c r="CK13" s="13">
-        <v>62917.475082154022</v>
+        <v>63436.648987605236</v>
       </c>
       <c r="CL13" s="13">
-        <v>60108.603286259393</v>
+        <v>60315.21638098656</v>
       </c>
       <c r="CM13" s="13">
-        <v>63753.10068974043</v>
+        <v>63839.12832106831</v>
       </c>
       <c r="CN13" s="13">
-        <v>66052.612190712462</v>
+        <v>66443.327890908462</v>
       </c>
       <c r="CO13" s="13">
-        <v>67776.038097693759</v>
+        <v>69060.72654017483</v>
       </c>
       <c r="CP13" s="17"/>
       <c r="CQ13" s="17"/>
@@ -25368,29 +25367,29 @@
       <c r="CG15" s="18">
         <v>185875.5566478252</v>
       </c>
-      <c r="CH15" s="14">
-        <v>184596.58803612026</v>
-      </c>
-      <c r="CI15" s="14">
-        <v>220818.94031307893</v>
-      </c>
-      <c r="CJ15" s="14">
-        <v>188417.0037062779</v>
-      </c>
-      <c r="CK15" s="14">
-        <v>202994.30504150741</v>
-      </c>
-      <c r="CL15" s="14">
-        <v>207475.72678127454</v>
-      </c>
-      <c r="CM15" s="14">
-        <v>240202.92063359753</v>
-      </c>
-      <c r="CN15" s="14">
-        <v>205308.55615028559</v>
-      </c>
-      <c r="CO15" s="14">
-        <v>233506.28635848803</v>
+      <c r="CH15" s="18">
+        <v>184394.14735113949</v>
+      </c>
+      <c r="CI15" s="18">
+        <v>220567.67102898046</v>
+      </c>
+      <c r="CJ15" s="18">
+        <v>188215.0622404278</v>
+      </c>
+      <c r="CK15" s="18">
+        <v>203295.32973547772</v>
+      </c>
+      <c r="CL15" s="18">
+        <v>207452.83709672</v>
+      </c>
+      <c r="CM15" s="18">
+        <v>240014.15343199074</v>
+      </c>
+      <c r="CN15" s="18">
+        <v>205482.4010490962</v>
+      </c>
+      <c r="CO15" s="18">
+        <v>231022.93464441641</v>
       </c>
       <c r="CP15" s="17"/>
       <c r="CQ15" s="17"/>
@@ -26155,7 +26154,7 @@
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26444,7 +26443,7 @@
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26733,139 +26732,139 @@
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>2000</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19">
         <v>2001</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="20">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19">
         <v>2002</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="20">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="19">
         <v>2003</v>
       </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="20">
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="19">
         <v>2004</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="20">
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="19">
         <v>2005</v>
       </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="20">
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="19">
         <v>2006</v>
       </c>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="20">
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="19">
         <v>2007</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="20">
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="19">
         <v>2008</v>
       </c>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="20">
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="19">
         <v>2009</v>
       </c>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="20">
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="20">
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="19">
         <v>2011</v>
       </c>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="20">
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="19">
         <v>2012</v>
       </c>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="20">
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="19">
         <v>2013</v>
       </c>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="20">
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="19">
         <v>2014</v>
       </c>
-      <c r="BG28" s="21"/>
-      <c r="BH28" s="21"/>
-      <c r="BI28" s="21"/>
-      <c r="BJ28" s="20">
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="19">
         <v>2015</v>
       </c>
-      <c r="BK28" s="21"/>
-      <c r="BL28" s="21"/>
-      <c r="BM28" s="21"/>
-      <c r="BN28" s="20">
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="19">
         <v>2016</v>
       </c>
-      <c r="BO28" s="21"/>
-      <c r="BP28" s="21"/>
-      <c r="BQ28" s="21"/>
-      <c r="BR28" s="20">
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="19">
         <v>2017</v>
       </c>
-      <c r="BS28" s="21"/>
-      <c r="BT28" s="21"/>
-      <c r="BU28" s="21"/>
-      <c r="BV28" s="20">
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="19">
         <v>2018</v>
       </c>
-      <c r="BW28" s="21"/>
-      <c r="BX28" s="21"/>
-      <c r="BY28" s="21"/>
-      <c r="BZ28" s="20">
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="19">
         <v>2019</v>
       </c>
-      <c r="CA28" s="21"/>
-      <c r="CB28" s="21"/>
-      <c r="CC28" s="21"/>
-      <c r="CD28" s="20">
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="19">
         <v>2020</v>
       </c>
-      <c r="CE28" s="21"/>
-      <c r="CF28" s="21"/>
-      <c r="CG28" s="21"/>
-      <c r="CH28" s="20">
+      <c r="CE28" s="20"/>
+      <c r="CF28" s="20"/>
+      <c r="CG28" s="20"/>
+      <c r="CH28" s="19">
         <v>2021</v>
       </c>
       <c r="CI28" s="20"/>
       <c r="CJ28" s="20"/>
       <c r="CK28" s="20"/>
-      <c r="CL28" s="20">
+      <c r="CL28" s="19">
         <v>2022</v>
       </c>
       <c r="CM28" s="20"/>
@@ -27505,28 +27504,28 @@
         <v>103064.03611338232</v>
       </c>
       <c r="CH31" s="13">
-        <v>128302.4921352534</v>
+        <v>128102.67973588328</v>
       </c>
       <c r="CI31" s="13">
-        <v>158026.50875294665</v>
+        <v>157780.40553739321</v>
       </c>
       <c r="CJ31" s="13">
-        <v>120657.58219947277</v>
+        <v>120469.67563117278</v>
       </c>
       <c r="CK31" s="13">
-        <v>112468.707962032</v>
+        <v>112293.55436978329</v>
       </c>
       <c r="CL31" s="13">
-        <v>138608.79741511322</v>
+        <v>138392.93444998763</v>
       </c>
       <c r="CM31" s="13">
-        <v>165232.64451768147</v>
+        <v>164975.31879776841</v>
       </c>
       <c r="CN31" s="13">
-        <v>124311.22368091729</v>
+        <v>124117.62709944065</v>
       </c>
       <c r="CO31" s="13">
-        <v>128789.28582203362</v>
+        <v>125861.13477052779</v>
       </c>
       <c r="CP31" s="17"/>
       <c r="CQ31" s="17"/>
@@ -27857,19 +27856,19 @@
         <v>53432.379552824837</v>
       </c>
       <c r="CK32" s="13">
-        <v>56308.575715420709</v>
+        <v>56773.215199544939</v>
       </c>
       <c r="CL32" s="13">
-        <v>61513.706560757382</v>
+        <v>61725.149458875145</v>
       </c>
       <c r="CM32" s="13">
-        <v>63855.107761719904</v>
+        <v>63941.273040106309</v>
       </c>
       <c r="CN32" s="13">
-        <v>59740.728084550268</v>
+        <v>60094.107604748198</v>
       </c>
       <c r="CO32" s="13">
-        <v>59037.565595232074</v>
+        <v>60156.617111390151</v>
       </c>
       <c r="CP32" s="17"/>
       <c r="CQ32" s="17"/>
@@ -28346,29 +28345,29 @@
       <c r="CG34" s="18">
         <v>157352.5314285678</v>
       </c>
-      <c r="CH34" s="14">
-        <v>184499.65442260634</v>
-      </c>
-      <c r="CI34" s="14">
-        <v>217136.12110255208</v>
-      </c>
-      <c r="CJ34" s="14">
-        <v>174089.96175229762</v>
-      </c>
-      <c r="CK34" s="14">
-        <v>168777.28367745271</v>
-      </c>
-      <c r="CL34" s="14">
-        <v>200122.50397587061</v>
-      </c>
-      <c r="CM34" s="14">
-        <v>229087.75227940138</v>
-      </c>
-      <c r="CN34" s="14">
-        <v>184051.95176546756</v>
-      </c>
-      <c r="CO34" s="14">
-        <v>187826.85141726569</v>
+      <c r="CH34" s="18">
+        <v>184299.84202323624</v>
+      </c>
+      <c r="CI34" s="18">
+        <v>216890.01788699863</v>
+      </c>
+      <c r="CJ34" s="18">
+        <v>173902.05518399761</v>
+      </c>
+      <c r="CK34" s="18">
+        <v>169066.76956932823</v>
+      </c>
+      <c r="CL34" s="18">
+        <v>200118.08390886278</v>
+      </c>
+      <c r="CM34" s="18">
+        <v>228916.59183787473</v>
+      </c>
+      <c r="CN34" s="18">
+        <v>184211.73470418886</v>
+      </c>
+      <c r="CO34" s="18">
+        <v>186017.75188191794</v>
       </c>
       <c r="CP34" s="17"/>
       <c r="CQ34" s="17"/>
@@ -29133,7 +29132,7 @@
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29422,7 +29421,7 @@
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29508,6 +29507,14 @@
       <c r="CE44" s="3"/>
       <c r="CF44" s="3"/>
       <c r="CG44" s="3"/>
+      <c r="CH44" s="3"/>
+      <c r="CI44" s="3"/>
+      <c r="CJ44" s="3"/>
+      <c r="CK44" s="3"/>
+      <c r="CL44" s="3"/>
+      <c r="CM44" s="3"/>
+      <c r="CN44" s="3"/>
+      <c r="CO44" s="3"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -29597,6 +29604,14 @@
       <c r="CE45" s="3"/>
       <c r="CF45" s="3"/>
       <c r="CG45" s="3"/>
+      <c r="CH45" s="3"/>
+      <c r="CI45" s="3"/>
+      <c r="CJ45" s="3"/>
+      <c r="CK45" s="3"/>
+      <c r="CL45" s="3"/>
+      <c r="CM45" s="3"/>
+      <c r="CN45" s="3"/>
+      <c r="CO45" s="3"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -29695,140 +29710,140 @@
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20" t="s">
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20" t="s">
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20" t="s">
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20" t="s">
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20" t="s">
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="20" t="s">
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20" t="s">
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="20" t="s">
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
-      <c r="AS47" s="20"/>
-      <c r="AT47" s="20" t="s">
+      <c r="AQ47" s="19"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="20"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="20" t="s">
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="20"/>
-      <c r="AZ47" s="20"/>
-      <c r="BA47" s="20"/>
-      <c r="BB47" s="20" t="s">
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="19"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="20"/>
-      <c r="BE47" s="20"/>
-      <c r="BF47" s="20" t="s">
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="19"/>
+      <c r="BF47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="20"/>
-      <c r="BH47" s="20"/>
-      <c r="BI47" s="20"/>
-      <c r="BJ47" s="20" t="s">
+      <c r="BG47" s="19"/>
+      <c r="BH47" s="19"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="20"/>
-      <c r="BL47" s="20"/>
-      <c r="BM47" s="20"/>
-      <c r="BN47" s="20" t="s">
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="19"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="20"/>
-      <c r="BP47" s="20"/>
-      <c r="BQ47" s="20"/>
-      <c r="BR47" s="20" t="s">
+      <c r="BO47" s="19"/>
+      <c r="BP47" s="19"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="20"/>
-      <c r="BT47" s="20"/>
-      <c r="BU47" s="20"/>
-      <c r="BV47" s="20" t="s">
+      <c r="BS47" s="19"/>
+      <c r="BT47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="BV47" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="20"/>
-      <c r="BX47" s="20"/>
-      <c r="BY47" s="20"/>
-      <c r="BZ47" s="20" t="s">
+      <c r="BW47" s="19"/>
+      <c r="BX47" s="19"/>
+      <c r="BY47" s="19"/>
+      <c r="BZ47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="20"/>
-      <c r="CB47" s="20"/>
-      <c r="CC47" s="20"/>
-      <c r="CD47" s="20" t="s">
+      <c r="CA47" s="19"/>
+      <c r="CB47" s="19"/>
+      <c r="CC47" s="19"/>
+      <c r="CD47" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="20"/>
-      <c r="CF47" s="20"/>
-      <c r="CG47" s="20"/>
-      <c r="CH47" s="20" t="s">
+      <c r="CE47" s="19"/>
+      <c r="CF47" s="19"/>
+      <c r="CG47" s="19"/>
+      <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="20"/>
-      <c r="CJ47" s="20"/>
-      <c r="CK47" s="20"/>
-      <c r="CL47" s="20"/>
-      <c r="CM47" s="20"/>
+      <c r="CI47" s="19"/>
+      <c r="CJ47" s="19"/>
+      <c r="CK47" s="19"/>
+      <c r="CL47" s="19"/>
+      <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
     </row>
@@ -30445,19 +30460,19 @@
         <v>-3.0775289081399393</v>
       </c>
       <c r="CD50" s="12">
-        <v>11.370571785178356</v>
+        <v>11.197128379697489</v>
       </c>
       <c r="CE50" s="12">
-        <v>10.597120960398314</v>
+        <v>10.424882091653444</v>
       </c>
       <c r="CF50" s="12">
-        <v>17.680748818641973</v>
+        <v>17.497478233715697</v>
       </c>
       <c r="CG50" s="12">
-        <v>11.91439556888993</v>
+        <v>11.740105237264075</v>
       </c>
       <c r="CH50" s="12">
-        <v>13.367912830125533</v>
+        <v>13.367912830125547</v>
       </c>
       <c r="CI50" s="12">
         <v>9.3626839112412199</v>
@@ -30466,7 +30481,7 @@
         <v>7.3929024296293164</v>
       </c>
       <c r="CK50" s="12">
-        <v>18.313819857919995</v>
+        <v>15.804186939397653</v>
       </c>
       <c r="CL50" s="12"/>
       <c r="CM50" s="12"/>
@@ -30785,19 +30800,19 @@
         <v>11.719995162423729</v>
       </c>
       <c r="CG51" s="12">
-        <v>3.6338920510347208</v>
+        <v>4.4890441753529871</v>
       </c>
       <c r="CH51" s="12">
-        <v>10.076043961210132</v>
+        <v>10.454411629975269</v>
       </c>
       <c r="CI51" s="12">
-        <v>7.1927061972418329</v>
+        <v>7.3373506852746857</v>
       </c>
       <c r="CJ51" s="12">
-        <v>12.434941514143176</v>
+        <v>13.10001887358743</v>
       </c>
       <c r="CK51" s="12">
-        <v>7.7221201410191895</v>
+        <v>8.8656599021623492</v>
       </c>
       <c r="CL51" s="12"/>
       <c r="CM51" s="12"/>
@@ -31260,28 +31275,28 @@
         <v>-9.5505162175371794</v>
       </c>
       <c r="CD53" s="12">
-        <v>4.261032282747081</v>
+        <v>4.1466928195063417</v>
       </c>
       <c r="CE53" s="12">
-        <v>13.945468965807279</v>
+        <v>13.815810720130045</v>
       </c>
       <c r="CF53" s="12">
-        <v>15.75509163276547</v>
+        <v>15.631027708469247</v>
       </c>
       <c r="CG53" s="12">
-        <v>9.2097899812167157</v>
+        <v>9.3717395669498558</v>
       </c>
       <c r="CH53" s="12">
-        <v>12.394128726083238</v>
+        <v>12.505109341496691</v>
       </c>
       <c r="CI53" s="12">
-        <v>8.7782235948763514</v>
+        <v>8.8165606103059417</v>
       </c>
       <c r="CJ53" s="12">
-        <v>8.964983049162484</v>
+        <v>9.1742598085008353</v>
       </c>
       <c r="CK53" s="12">
-        <v>15.030954346596886</v>
+        <v>13.639076187838199</v>
       </c>
       <c r="CL53" s="12"/>
       <c r="CM53" s="12"/>
@@ -32038,7 +32053,7 @@
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32327,7 +32342,7 @@
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32616,140 +32631,140 @@
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20" t="s">
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20" t="s">
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20" t="s">
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20" t="s">
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20" t="s">
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="20" t="s">
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="20"/>
-      <c r="AG66" s="20"/>
-      <c r="AH66" s="20" t="s">
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="19"/>
+      <c r="AH66" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="20"/>
-      <c r="AJ66" s="20"/>
-      <c r="AK66" s="20"/>
-      <c r="AL66" s="20" t="s">
+      <c r="AI66" s="19"/>
+      <c r="AJ66" s="19"/>
+      <c r="AK66" s="19"/>
+      <c r="AL66" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="20"/>
-      <c r="AN66" s="20"/>
-      <c r="AO66" s="20"/>
-      <c r="AP66" s="20" t="s">
+      <c r="AM66" s="19"/>
+      <c r="AN66" s="19"/>
+      <c r="AO66" s="19"/>
+      <c r="AP66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="20"/>
-      <c r="AR66" s="20"/>
-      <c r="AS66" s="20"/>
-      <c r="AT66" s="20" t="s">
+      <c r="AQ66" s="19"/>
+      <c r="AR66" s="19"/>
+      <c r="AS66" s="19"/>
+      <c r="AT66" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="20"/>
-      <c r="AV66" s="20"/>
-      <c r="AW66" s="20"/>
-      <c r="AX66" s="20" t="s">
+      <c r="AU66" s="19"/>
+      <c r="AV66" s="19"/>
+      <c r="AW66" s="19"/>
+      <c r="AX66" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="20"/>
-      <c r="AZ66" s="20"/>
-      <c r="BA66" s="20"/>
-      <c r="BB66" s="20" t="s">
+      <c r="AY66" s="19"/>
+      <c r="AZ66" s="19"/>
+      <c r="BA66" s="19"/>
+      <c r="BB66" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="20"/>
-      <c r="BD66" s="20"/>
-      <c r="BE66" s="20"/>
-      <c r="BF66" s="20" t="s">
+      <c r="BC66" s="19"/>
+      <c r="BD66" s="19"/>
+      <c r="BE66" s="19"/>
+      <c r="BF66" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="20"/>
-      <c r="BH66" s="20"/>
-      <c r="BI66" s="20"/>
-      <c r="BJ66" s="20" t="s">
+      <c r="BG66" s="19"/>
+      <c r="BH66" s="19"/>
+      <c r="BI66" s="19"/>
+      <c r="BJ66" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="20"/>
-      <c r="BL66" s="20"/>
-      <c r="BM66" s="20"/>
-      <c r="BN66" s="20" t="s">
+      <c r="BK66" s="19"/>
+      <c r="BL66" s="19"/>
+      <c r="BM66" s="19"/>
+      <c r="BN66" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="20"/>
-      <c r="BP66" s="20"/>
-      <c r="BQ66" s="20"/>
-      <c r="BR66" s="20" t="s">
+      <c r="BO66" s="19"/>
+      <c r="BP66" s="19"/>
+      <c r="BQ66" s="19"/>
+      <c r="BR66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="20"/>
-      <c r="BT66" s="20"/>
-      <c r="BU66" s="20"/>
-      <c r="BV66" s="20" t="s">
+      <c r="BS66" s="19"/>
+      <c r="BT66" s="19"/>
+      <c r="BU66" s="19"/>
+      <c r="BV66" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="20"/>
-      <c r="BX66" s="20"/>
-      <c r="BY66" s="20"/>
-      <c r="BZ66" s="20" t="s">
+      <c r="BW66" s="19"/>
+      <c r="BX66" s="19"/>
+      <c r="BY66" s="19"/>
+      <c r="BZ66" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="20"/>
-      <c r="CB66" s="20"/>
-      <c r="CC66" s="20"/>
-      <c r="CD66" s="20" t="s">
+      <c r="CA66" s="19"/>
+      <c r="CB66" s="19"/>
+      <c r="CC66" s="19"/>
+      <c r="CD66" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="20"/>
-      <c r="CF66" s="20"/>
-      <c r="CG66" s="20"/>
-      <c r="CH66" s="20" t="s">
+      <c r="CE66" s="19"/>
+      <c r="CF66" s="19"/>
+      <c r="CG66" s="19"/>
+      <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="20"/>
-      <c r="CJ66" s="20"/>
-      <c r="CK66" s="20"/>
-      <c r="CL66" s="20"/>
-      <c r="CM66" s="20"/>
+      <c r="CI66" s="19"/>
+      <c r="CJ66" s="19"/>
+      <c r="CK66" s="19"/>
+      <c r="CL66" s="19"/>
+      <c r="CM66" s="19"/>
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
     </row>
@@ -33366,19 +33381,19 @@
         <v>-5.4131577140605174</v>
       </c>
       <c r="CD69" s="12">
-        <v>6.0488467822530083</v>
+        <v>5.8836911864937491</v>
       </c>
       <c r="CE69" s="12">
-        <v>9.0505752135757263</v>
+        <v>8.8807448640362736</v>
       </c>
       <c r="CF69" s="12">
-        <v>14.739472010668521</v>
+        <v>14.560782034945035</v>
       </c>
       <c r="CG69" s="12">
-        <v>9.1250762179577976</v>
+        <v>8.9551298439811262</v>
       </c>
       <c r="CH69" s="12">
-        <v>8.0328176860315068</v>
+        <v>8.032817686031521</v>
       </c>
       <c r="CI69" s="12">
         <v>4.5600803444950202</v>
@@ -33387,7 +33402,7 @@
         <v>3.0281076537770133</v>
       </c>
       <c r="CK69" s="12">
-        <v>14.511216635929742</v>
+        <v>12.082243256871521</v>
       </c>
       <c r="CL69" s="12"/>
       <c r="CM69" s="12"/>
@@ -33706,19 +33721,19 @@
         <v>10.989735326438364</v>
       </c>
       <c r="CG70" s="12">
-        <v>3.7210101118241283</v>
+        <v>4.5768811051656115</v>
       </c>
       <c r="CH70" s="12">
-        <v>9.46052088220992</v>
+        <v>9.8367727951385291</v>
       </c>
       <c r="CI70" s="12">
-        <v>8.0282972996796502</v>
+        <v>8.1740693238248525</v>
       </c>
       <c r="CJ70" s="12">
-        <v>11.806227954884193</v>
+        <v>12.467586335617668</v>
       </c>
       <c r="CK70" s="12">
-        <v>4.8464906901632077</v>
+        <v>5.9595037905697694</v>
       </c>
       <c r="CL70" s="12"/>
       <c r="CM70" s="12"/>
@@ -34180,28 +34195,28 @@
         <v>-11.816380090903721</v>
       </c>
       <c r="CD72" s="12">
-        <v>0.26313692686169077</v>
+        <v>0.15455234430284293</v>
       </c>
       <c r="CE72" s="12">
-        <v>12.539415817978067</v>
+        <v>12.411863055366851</v>
       </c>
       <c r="CF72" s="12">
-        <v>13.561916324516531</v>
+        <v>13.439341594926574</v>
       </c>
       <c r="CG72" s="12">
-        <v>7.2606091209097059</v>
+        <v>7.4445819424762618</v>
       </c>
       <c r="CH72" s="12">
-        <v>8.4676849949427435</v>
+        <v>8.582884126201364</v>
       </c>
       <c r="CI72" s="12">
-        <v>5.5042114210028785</v>
+        <v>5.5450103550372063</v>
       </c>
       <c r="CJ72" s="12">
-        <v>5.722323052344791</v>
+        <v>5.928440298927498</v>
       </c>
       <c r="CK72" s="12">
-        <v>11.28680787173839</v>
+        <v>10.026205833215911</v>
       </c>
       <c r="CL72" s="12"/>
       <c r="CM72" s="12"/>
@@ -34545,12 +34560,12 @@
       <c r="CG75" s="11"/>
       <c r="CH75" s="11"/>
       <c r="CI75" s="11"/>
-      <c r="CJ75" s="17"/>
-      <c r="CK75" s="17"/>
-      <c r="CL75" s="17"/>
-      <c r="CM75" s="17"/>
-      <c r="CN75" s="17"/>
-      <c r="CO75" s="17"/>
+      <c r="CJ75" s="11"/>
+      <c r="CK75" s="11"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
+      <c r="CN75" s="11"/>
+      <c r="CO75" s="11"/>
       <c r="CP75" s="17"/>
       <c r="CQ75" s="17"/>
       <c r="CR75" s="17"/>
@@ -34695,14 +34710,14 @@
       <c r="CE76" s="11"/>
       <c r="CF76" s="11"/>
       <c r="CG76" s="11"/>
-      <c r="CH76" s="17"/>
-      <c r="CI76" s="17"/>
-      <c r="CJ76" s="17"/>
-      <c r="CK76" s="17"/>
-      <c r="CL76" s="17"/>
-      <c r="CM76" s="17"/>
-      <c r="CN76" s="17"/>
-      <c r="CO76" s="17"/>
+      <c r="CH76" s="11"/>
+      <c r="CI76" s="11"/>
+      <c r="CJ76" s="11"/>
+      <c r="CK76" s="11"/>
+      <c r="CL76" s="11"/>
+      <c r="CM76" s="11"/>
+      <c r="CN76" s="11"/>
+      <c r="CO76" s="11"/>
       <c r="CP76" s="17"/>
       <c r="CQ76" s="17"/>
       <c r="CR76" s="17"/>
@@ -34850,10 +34865,18 @@
       <c r="CE77" s="3"/>
       <c r="CF77" s="3"/>
       <c r="CG77" s="3"/>
+      <c r="CH77" s="3"/>
+      <c r="CI77" s="3"/>
+      <c r="CJ77" s="3"/>
+      <c r="CK77" s="3"/>
+      <c r="CL77" s="3"/>
+      <c r="CM77" s="3"/>
+      <c r="CN77" s="3"/>
+      <c r="CO77" s="3"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -34939,6 +34962,14 @@
       <c r="CE78" s="3"/>
       <c r="CF78" s="3"/>
       <c r="CG78" s="3"/>
+      <c r="CH78" s="3"/>
+      <c r="CI78" s="3"/>
+      <c r="CJ78" s="3"/>
+      <c r="CK78" s="3"/>
+      <c r="CL78" s="3"/>
+      <c r="CM78" s="3"/>
+      <c r="CN78" s="3"/>
+      <c r="CO78" s="3"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35026,6 +35057,14 @@
       <c r="CE79" s="3"/>
       <c r="CF79" s="3"/>
       <c r="CG79" s="3"/>
+      <c r="CH79" s="3"/>
+      <c r="CI79" s="3"/>
+      <c r="CJ79" s="3"/>
+      <c r="CK79" s="3"/>
+      <c r="CL79" s="3"/>
+      <c r="CM79" s="3"/>
+      <c r="CN79" s="3"/>
+      <c r="CO79" s="3"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35115,10 +35154,18 @@
       <c r="CE80" s="3"/>
       <c r="CF80" s="3"/>
       <c r="CG80" s="3"/>
+      <c r="CH80" s="3"/>
+      <c r="CI80" s="3"/>
+      <c r="CJ80" s="3"/>
+      <c r="CK80" s="3"/>
+      <c r="CL80" s="3"/>
+      <c r="CM80" s="3"/>
+      <c r="CN80" s="3"/>
+      <c r="CO80" s="3"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35204,6 +35251,14 @@
       <c r="CE81" s="3"/>
       <c r="CF81" s="3"/>
       <c r="CG81" s="3"/>
+      <c r="CH81" s="3"/>
+      <c r="CI81" s="3"/>
+      <c r="CJ81" s="3"/>
+      <c r="CK81" s="3"/>
+      <c r="CL81" s="3"/>
+      <c r="CM81" s="3"/>
+      <c r="CN81" s="3"/>
+      <c r="CO81" s="3"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -35293,6 +35348,14 @@
       <c r="CE82" s="3"/>
       <c r="CF82" s="3"/>
       <c r="CG82" s="3"/>
+      <c r="CH82" s="3"/>
+      <c r="CI82" s="3"/>
+      <c r="CJ82" s="3"/>
+      <c r="CK82" s="3"/>
+      <c r="CL82" s="3"/>
+      <c r="CM82" s="3"/>
+      <c r="CN82" s="3"/>
+      <c r="CO82" s="3"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -35380,142 +35443,150 @@
       <c r="CE83" s="3"/>
       <c r="CF83" s="3"/>
       <c r="CG83" s="3"/>
+      <c r="CH83" s="3"/>
+      <c r="CI83" s="3"/>
+      <c r="CJ83" s="3"/>
+      <c r="CK83" s="3"/>
+      <c r="CL83" s="3"/>
+      <c r="CM83" s="3"/>
+      <c r="CN83" s="3"/>
+      <c r="CO83" s="3"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="20">
+      <c r="B84" s="19">
         <v>2000</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="20">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="19">
         <v>2001</v>
       </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="20">
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="19">
         <v>2002</v>
       </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="20">
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="19">
         <v>2003</v>
       </c>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="20">
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="19">
         <v>2004</v>
       </c>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="20">
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="19">
         <v>2005</v>
       </c>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="20">
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="19">
         <v>2006</v>
       </c>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21"/>
-      <c r="AD84" s="20">
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="19">
         <v>2007</v>
       </c>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="21"/>
-      <c r="AH84" s="20">
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="19">
         <v>2008</v>
       </c>
-      <c r="AI84" s="21"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="21"/>
-      <c r="AL84" s="20">
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+      <c r="AL84" s="19">
         <v>2009</v>
       </c>
-      <c r="AM84" s="21"/>
-      <c r="AN84" s="21"/>
-      <c r="AO84" s="21"/>
-      <c r="AP84" s="20">
+      <c r="AM84" s="20"/>
+      <c r="AN84" s="20"/>
+      <c r="AO84" s="20"/>
+      <c r="AP84" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="21"/>
-      <c r="AR84" s="21"/>
-      <c r="AS84" s="21"/>
-      <c r="AT84" s="20">
+      <c r="AQ84" s="20"/>
+      <c r="AR84" s="20"/>
+      <c r="AS84" s="20"/>
+      <c r="AT84" s="19">
         <v>2011</v>
       </c>
-      <c r="AU84" s="21"/>
-      <c r="AV84" s="21"/>
-      <c r="AW84" s="21"/>
-      <c r="AX84" s="20">
+      <c r="AU84" s="20"/>
+      <c r="AV84" s="20"/>
+      <c r="AW84" s="20"/>
+      <c r="AX84" s="19">
         <v>2012</v>
       </c>
-      <c r="AY84" s="21"/>
-      <c r="AZ84" s="21"/>
-      <c r="BA84" s="21"/>
-      <c r="BB84" s="20">
+      <c r="AY84" s="20"/>
+      <c r="AZ84" s="20"/>
+      <c r="BA84" s="20"/>
+      <c r="BB84" s="19">
         <v>2013</v>
       </c>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="21"/>
-      <c r="BE84" s="21"/>
-      <c r="BF84" s="20">
+      <c r="BC84" s="20"/>
+      <c r="BD84" s="20"/>
+      <c r="BE84" s="20"/>
+      <c r="BF84" s="19">
         <v>2014</v>
       </c>
-      <c r="BG84" s="21"/>
-      <c r="BH84" s="21"/>
-      <c r="BI84" s="21"/>
-      <c r="BJ84" s="20">
+      <c r="BG84" s="20"/>
+      <c r="BH84" s="20"/>
+      <c r="BI84" s="20"/>
+      <c r="BJ84" s="19">
         <v>2015</v>
       </c>
-      <c r="BK84" s="21"/>
-      <c r="BL84" s="21"/>
-      <c r="BM84" s="21"/>
-      <c r="BN84" s="20">
+      <c r="BK84" s="20"/>
+      <c r="BL84" s="20"/>
+      <c r="BM84" s="20"/>
+      <c r="BN84" s="19">
         <v>2016</v>
       </c>
-      <c r="BO84" s="21"/>
-      <c r="BP84" s="21"/>
-      <c r="BQ84" s="21"/>
-      <c r="BR84" s="20">
+      <c r="BO84" s="20"/>
+      <c r="BP84" s="20"/>
+      <c r="BQ84" s="20"/>
+      <c r="BR84" s="19">
         <v>2017</v>
       </c>
-      <c r="BS84" s="21"/>
-      <c r="BT84" s="21"/>
-      <c r="BU84" s="21"/>
-      <c r="BV84" s="20">
+      <c r="BS84" s="20"/>
+      <c r="BT84" s="20"/>
+      <c r="BU84" s="20"/>
+      <c r="BV84" s="19">
         <v>2018</v>
       </c>
-      <c r="BW84" s="21"/>
-      <c r="BX84" s="21"/>
-      <c r="BY84" s="21"/>
-      <c r="BZ84" s="20">
+      <c r="BW84" s="20"/>
+      <c r="BX84" s="20"/>
+      <c r="BY84" s="20"/>
+      <c r="BZ84" s="19">
         <v>2019</v>
       </c>
-      <c r="CA84" s="21"/>
-      <c r="CB84" s="21"/>
-      <c r="CC84" s="21"/>
-      <c r="CD84" s="20">
+      <c r="CA84" s="20"/>
+      <c r="CB84" s="20"/>
+      <c r="CC84" s="20"/>
+      <c r="CD84" s="19">
         <v>2020</v>
       </c>
-      <c r="CE84" s="21"/>
-      <c r="CF84" s="21"/>
-      <c r="CG84" s="21"/>
-      <c r="CH84" s="20">
+      <c r="CE84" s="20"/>
+      <c r="CF84" s="20"/>
+      <c r="CG84" s="20"/>
+      <c r="CH84" s="19">
         <v>2021</v>
       </c>
       <c r="CI84" s="20"/>
       <c r="CJ84" s="20"/>
       <c r="CK84" s="20"/>
-      <c r="CL84" s="20">
+      <c r="CL84" s="19">
         <v>2022</v>
       </c>
       <c r="CM84" s="20"/>
@@ -35889,6 +35960,14 @@
       <c r="CE86" s="3"/>
       <c r="CF86" s="3"/>
       <c r="CG86" s="3"/>
+      <c r="CH86" s="3"/>
+      <c r="CI86" s="3"/>
+      <c r="CJ86" s="3"/>
+      <c r="CK86" s="3"/>
+      <c r="CL86" s="3"/>
+      <c r="CM86" s="3"/>
+      <c r="CN86" s="3"/>
+      <c r="CO86" s="3"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36147,10 +36226,10 @@
         <v>121.44320085761527</v>
       </c>
       <c r="CH87" s="12">
-        <v>101.31537663275461</v>
+        <v>101.31537663275458</v>
       </c>
       <c r="CI87" s="12">
-        <v>102.09914711329355</v>
+        <v>102.09914711329353</v>
       </c>
       <c r="CJ87" s="12">
         <v>107.46908300070628</v>
@@ -36165,10 +36244,10 @@
         <v>106.78871627269469</v>
       </c>
       <c r="CN87" s="12">
-        <v>112.02202008486057</v>
+        <v>112.02202008486056</v>
       </c>
       <c r="CO87" s="12">
-        <v>128.68325746429497</v>
+        <v>128.683257464295</v>
       </c>
       <c r="CP87" s="17"/>
       <c r="CQ87" s="17"/>
@@ -36495,19 +36574,19 @@
         <v>109.94720249657171</v>
       </c>
       <c r="CK88" s="12">
-        <v>111.73693222171732</v>
+        <v>111.7369322217173</v>
       </c>
       <c r="CL88" s="12">
         <v>97.715788312788192</v>
       </c>
       <c r="CM88" s="12">
-        <v>99.840252290607481</v>
+        <v>99.840252290607452</v>
       </c>
       <c r="CN88" s="12">
         <v>110.56546230442498</v>
       </c>
       <c r="CO88" s="12">
-        <v>114.80154612467186</v>
+        <v>114.8015461246719</v>
       </c>
       <c r="CP88" s="17"/>
       <c r="CQ88" s="17"/>
@@ -36977,28 +37056,28 @@
         <v>118.12682958469327</v>
       </c>
       <c r="CH90" s="12">
-        <v>100.0525386423174</v>
+        <v>100.05116951098165</v>
       </c>
       <c r="CI90" s="12">
-        <v>101.69608777748567</v>
+        <v>101.69563042956543</v>
       </c>
       <c r="CJ90" s="12">
-        <v>108.22967723685608</v>
+        <v>108.23049908253601</v>
       </c>
       <c r="CK90" s="12">
-        <v>120.27347556407308</v>
+        <v>120.24558714485497</v>
       </c>
       <c r="CL90" s="12">
-        <v>103.67436078367804</v>
+        <v>103.66521258078684</v>
       </c>
       <c r="CM90" s="12">
-        <v>104.85192606047302</v>
+        <v>104.84786249219349</v>
       </c>
       <c r="CN90" s="12">
-        <v>111.54924149454537</v>
+        <v>111.54685741332615</v>
       </c>
       <c r="CO90" s="12">
-        <v>124.31997054550175</v>
+        <v>124.19402573527888</v>
       </c>
       <c r="CP90" s="17"/>
       <c r="CQ90" s="17"/>
@@ -37242,6 +37321,14 @@
       <c r="CE92" s="3"/>
       <c r="CF92" s="3"/>
       <c r="CG92" s="3"/>
+      <c r="CH92" s="3"/>
+      <c r="CI92" s="3"/>
+      <c r="CJ92" s="3"/>
+      <c r="CK92" s="3"/>
+      <c r="CL92" s="3"/>
+      <c r="CM92" s="3"/>
+      <c r="CN92" s="3"/>
+      <c r="CO92" s="3"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -37627,7 +37714,7 @@
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -37916,7 +38003,7 @@
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -38205,139 +38292,139 @@
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="20">
+      <c r="B103" s="19">
         <v>2000</v>
       </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="20">
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="19">
         <v>2001</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="20">
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="19">
         <v>2002</v>
       </c>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="20">
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="19">
         <v>2003</v>
       </c>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="20">
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="19">
         <v>2004</v>
       </c>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="20">
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="19">
         <v>2005</v>
       </c>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="21"/>
-      <c r="Z103" s="20">
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="19">
         <v>2006</v>
       </c>
-      <c r="AA103" s="21"/>
-      <c r="AB103" s="21"/>
-      <c r="AC103" s="21"/>
-      <c r="AD103" s="20">
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="19">
         <v>2007</v>
       </c>
-      <c r="AE103" s="21"/>
-      <c r="AF103" s="21"/>
-      <c r="AG103" s="21"/>
-      <c r="AH103" s="20">
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="19">
         <v>2008</v>
       </c>
-      <c r="AI103" s="21"/>
-      <c r="AJ103" s="21"/>
-      <c r="AK103" s="21"/>
-      <c r="AL103" s="20">
+      <c r="AI103" s="20"/>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="20"/>
+      <c r="AL103" s="19">
         <v>2009</v>
       </c>
-      <c r="AM103" s="21"/>
-      <c r="AN103" s="21"/>
-      <c r="AO103" s="21"/>
-      <c r="AP103" s="20">
+      <c r="AM103" s="20"/>
+      <c r="AN103" s="20"/>
+      <c r="AO103" s="20"/>
+      <c r="AP103" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="21"/>
-      <c r="AR103" s="21"/>
-      <c r="AS103" s="21"/>
-      <c r="AT103" s="20">
+      <c r="AQ103" s="20"/>
+      <c r="AR103" s="20"/>
+      <c r="AS103" s="20"/>
+      <c r="AT103" s="19">
         <v>2011</v>
       </c>
-      <c r="AU103" s="21"/>
-      <c r="AV103" s="21"/>
-      <c r="AW103" s="21"/>
-      <c r="AX103" s="20">
+      <c r="AU103" s="20"/>
+      <c r="AV103" s="20"/>
+      <c r="AW103" s="20"/>
+      <c r="AX103" s="19">
         <v>2012</v>
       </c>
-      <c r="AY103" s="21"/>
-      <c r="AZ103" s="21"/>
-      <c r="BA103" s="21"/>
-      <c r="BB103" s="20">
+      <c r="AY103" s="20"/>
+      <c r="AZ103" s="20"/>
+      <c r="BA103" s="20"/>
+      <c r="BB103" s="19">
         <v>2013</v>
       </c>
-      <c r="BC103" s="21"/>
-      <c r="BD103" s="21"/>
-      <c r="BE103" s="21"/>
-      <c r="BF103" s="20">
+      <c r="BC103" s="20"/>
+      <c r="BD103" s="20"/>
+      <c r="BE103" s="20"/>
+      <c r="BF103" s="19">
         <v>2014</v>
       </c>
-      <c r="BG103" s="21"/>
-      <c r="BH103" s="21"/>
-      <c r="BI103" s="21"/>
-      <c r="BJ103" s="20">
+      <c r="BG103" s="20"/>
+      <c r="BH103" s="20"/>
+      <c r="BI103" s="20"/>
+      <c r="BJ103" s="19">
         <v>2015</v>
       </c>
-      <c r="BK103" s="21"/>
-      <c r="BL103" s="21"/>
-      <c r="BM103" s="21"/>
-      <c r="BN103" s="20">
+      <c r="BK103" s="20"/>
+      <c r="BL103" s="20"/>
+      <c r="BM103" s="20"/>
+      <c r="BN103" s="19">
         <v>2016</v>
       </c>
-      <c r="BO103" s="21"/>
-      <c r="BP103" s="21"/>
-      <c r="BQ103" s="21"/>
-      <c r="BR103" s="20">
+      <c r="BO103" s="20"/>
+      <c r="BP103" s="20"/>
+      <c r="BQ103" s="20"/>
+      <c r="BR103" s="19">
         <v>2017</v>
       </c>
-      <c r="BS103" s="21"/>
-      <c r="BT103" s="21"/>
-      <c r="BU103" s="21"/>
-      <c r="BV103" s="20">
+      <c r="BS103" s="20"/>
+      <c r="BT103" s="20"/>
+      <c r="BU103" s="20"/>
+      <c r="BV103" s="19">
         <v>2018</v>
       </c>
-      <c r="BW103" s="21"/>
-      <c r="BX103" s="21"/>
-      <c r="BY103" s="21"/>
-      <c r="BZ103" s="20">
+      <c r="BW103" s="20"/>
+      <c r="BX103" s="20"/>
+      <c r="BY103" s="20"/>
+      <c r="BZ103" s="19">
         <v>2019</v>
       </c>
-      <c r="CA103" s="21"/>
-      <c r="CB103" s="21"/>
-      <c r="CC103" s="21"/>
-      <c r="CD103" s="20">
+      <c r="CA103" s="20"/>
+      <c r="CB103" s="20"/>
+      <c r="CC103" s="20"/>
+      <c r="CD103" s="19">
         <v>2020</v>
       </c>
-      <c r="CE103" s="21"/>
-      <c r="CF103" s="21"/>
-      <c r="CG103" s="21"/>
-      <c r="CH103" s="20">
+      <c r="CE103" s="20"/>
+      <c r="CF103" s="20"/>
+      <c r="CG103" s="20"/>
+      <c r="CH103" s="19">
         <v>2021</v>
       </c>
       <c r="CI103" s="20"/>
       <c r="CJ103" s="20"/>
       <c r="CK103" s="20"/>
-      <c r="CL103" s="20">
+      <c r="CL103" s="19">
         <v>2022</v>
       </c>
       <c r="CM103" s="20"/>
@@ -38977,28 +39064,28 @@
         <v>67.33766754834059</v>
       </c>
       <c r="CH106" s="12">
-        <v>70.418502594753789</v>
+        <v>70.386025975058971</v>
       </c>
       <c r="CI106" s="12">
-        <v>73.066068255249405</v>
+        <v>73.035385291985179</v>
       </c>
       <c r="CJ106" s="12">
-        <v>68.820538810147909</v>
+        <v>68.787085450878223</v>
       </c>
       <c r="CK106" s="12">
-        <v>69.005300385501485</v>
+        <v>68.795815885122764</v>
       </c>
       <c r="CL106" s="12">
-        <v>71.02860936131232</v>
+        <v>70.925817537570708</v>
       </c>
       <c r="CM106" s="12">
-        <v>73.458648828425936</v>
+        <v>73.401931757679677</v>
       </c>
       <c r="CN106" s="12">
-        <v>67.827637859202497</v>
+        <v>67.664711161792852</v>
       </c>
       <c r="CO106" s="12">
-        <v>70.974640916672655</v>
+        <v>70.10654953090652</v>
       </c>
       <c r="CP106" s="17"/>
       <c r="CQ106" s="17"/>
@@ -39320,28 +39407,28 @@
         <v>32.662332451659424</v>
       </c>
       <c r="CH107" s="12">
-        <v>29.581497405246203</v>
+        <v>29.613974024941029</v>
       </c>
       <c r="CI107" s="12">
-        <v>26.933931744750595</v>
+        <v>26.964614708014828</v>
       </c>
       <c r="CJ107" s="12">
-        <v>31.179461189852091</v>
+        <v>31.212914549121777</v>
       </c>
       <c r="CK107" s="12">
-        <v>30.994699614498504</v>
+        <v>31.204184114877236</v>
       </c>
       <c r="CL107" s="12">
-        <v>28.971390638687676</v>
+        <v>29.074182462429281</v>
       </c>
       <c r="CM107" s="12">
-        <v>26.54135117157405</v>
+        <v>26.598068242320327</v>
       </c>
       <c r="CN107" s="12">
-        <v>32.172362140797503</v>
+        <v>32.335288838207155</v>
       </c>
       <c r="CO107" s="12">
-        <v>29.025359083327341</v>
+        <v>29.893450469093487</v>
       </c>
       <c r="CP107" s="17"/>
       <c r="CQ107" s="17"/>
@@ -40605,7 +40692,7 @@
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -40894,7 +40981,7 @@
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -41183,139 +41270,139 @@
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="20">
+      <c r="B122" s="19">
         <v>2000</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="20">
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="19">
         <v>2001</v>
       </c>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="20">
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="19">
         <v>2002</v>
       </c>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="20">
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="19">
         <v>2003</v>
       </c>
-      <c r="O122" s="21"/>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="20">
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="19">
         <v>2004</v>
       </c>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="20">
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="19">
         <v>2005</v>
       </c>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="20">
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="19">
         <v>2006</v>
       </c>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="20">
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="19">
         <v>2007</v>
       </c>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="20">
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="19">
         <v>2008</v>
       </c>
-      <c r="AI122" s="21"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="21"/>
-      <c r="AL122" s="20">
+      <c r="AI122" s="20"/>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="20"/>
+      <c r="AL122" s="19">
         <v>2009</v>
       </c>
-      <c r="AM122" s="21"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="21"/>
-      <c r="AP122" s="20">
+      <c r="AM122" s="20"/>
+      <c r="AN122" s="20"/>
+      <c r="AO122" s="20"/>
+      <c r="AP122" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="21"/>
-      <c r="AR122" s="21"/>
-      <c r="AS122" s="21"/>
-      <c r="AT122" s="20">
+      <c r="AQ122" s="20"/>
+      <c r="AR122" s="20"/>
+      <c r="AS122" s="20"/>
+      <c r="AT122" s="19">
         <v>2011</v>
       </c>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="21"/>
-      <c r="AW122" s="21"/>
-      <c r="AX122" s="20">
+      <c r="AU122" s="20"/>
+      <c r="AV122" s="20"/>
+      <c r="AW122" s="20"/>
+      <c r="AX122" s="19">
         <v>2012</v>
       </c>
-      <c r="AY122" s="21"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="21"/>
-      <c r="BB122" s="20">
+      <c r="AY122" s="20"/>
+      <c r="AZ122" s="20"/>
+      <c r="BA122" s="20"/>
+      <c r="BB122" s="19">
         <v>2013</v>
       </c>
-      <c r="BC122" s="21"/>
-      <c r="BD122" s="21"/>
-      <c r="BE122" s="21"/>
-      <c r="BF122" s="20">
+      <c r="BC122" s="20"/>
+      <c r="BD122" s="20"/>
+      <c r="BE122" s="20"/>
+      <c r="BF122" s="19">
         <v>2014</v>
       </c>
-      <c r="BG122" s="21"/>
-      <c r="BH122" s="21"/>
-      <c r="BI122" s="21"/>
-      <c r="BJ122" s="20">
+      <c r="BG122" s="20"/>
+      <c r="BH122" s="20"/>
+      <c r="BI122" s="20"/>
+      <c r="BJ122" s="19">
         <v>2015</v>
       </c>
-      <c r="BK122" s="21"/>
-      <c r="BL122" s="21"/>
-      <c r="BM122" s="21"/>
-      <c r="BN122" s="20">
+      <c r="BK122" s="20"/>
+      <c r="BL122" s="20"/>
+      <c r="BM122" s="20"/>
+      <c r="BN122" s="19">
         <v>2016</v>
       </c>
-      <c r="BO122" s="21"/>
-      <c r="BP122" s="21"/>
-      <c r="BQ122" s="21"/>
-      <c r="BR122" s="20">
+      <c r="BO122" s="20"/>
+      <c r="BP122" s="20"/>
+      <c r="BQ122" s="20"/>
+      <c r="BR122" s="19">
         <v>2017</v>
       </c>
-      <c r="BS122" s="21"/>
-      <c r="BT122" s="21"/>
-      <c r="BU122" s="21"/>
-      <c r="BV122" s="20">
+      <c r="BS122" s="20"/>
+      <c r="BT122" s="20"/>
+      <c r="BU122" s="20"/>
+      <c r="BV122" s="19">
         <v>2018</v>
       </c>
-      <c r="BW122" s="21"/>
-      <c r="BX122" s="21"/>
-      <c r="BY122" s="21"/>
-      <c r="BZ122" s="20">
+      <c r="BW122" s="20"/>
+      <c r="BX122" s="20"/>
+      <c r="BY122" s="20"/>
+      <c r="BZ122" s="19">
         <v>2019</v>
       </c>
-      <c r="CA122" s="21"/>
-      <c r="CB122" s="21"/>
-      <c r="CC122" s="21"/>
-      <c r="CD122" s="20">
+      <c r="CA122" s="20"/>
+      <c r="CB122" s="20"/>
+      <c r="CC122" s="20"/>
+      <c r="CD122" s="19">
         <v>2020</v>
       </c>
-      <c r="CE122" s="21"/>
-      <c r="CF122" s="21"/>
-      <c r="CG122" s="21"/>
-      <c r="CH122" s="20">
+      <c r="CE122" s="20"/>
+      <c r="CF122" s="20"/>
+      <c r="CG122" s="20"/>
+      <c r="CH122" s="19">
         <v>2021</v>
       </c>
       <c r="CI122" s="20"/>
       <c r="CJ122" s="20"/>
       <c r="CK122" s="20"/>
-      <c r="CL122" s="20">
+      <c r="CL122" s="19">
         <v>2022</v>
       </c>
       <c r="CM122" s="20"/>
@@ -41955,28 +42042,28 @@
         <v>65.498810332244034</v>
       </c>
       <c r="CH125" s="12">
-        <v>69.540776396995113</v>
+        <v>69.507753413989519</v>
       </c>
       <c r="CI125" s="12">
-        <v>72.777623525065962</v>
+        <v>72.746734531414916</v>
       </c>
       <c r="CJ125" s="12">
-        <v>69.307604519523863</v>
+        <v>69.274440433558681</v>
       </c>
       <c r="CK125" s="12">
-        <v>66.63734924006063</v>
+        <v>66.419648672435144</v>
       </c>
       <c r="CL125" s="12">
-        <v>69.261974371370911</v>
+        <v>69.155636385672253</v>
       </c>
       <c r="CM125" s="12">
-        <v>72.126354584054525</v>
+        <v>72.067873050726121</v>
       </c>
       <c r="CN125" s="12">
-        <v>67.541377577632929</v>
+        <v>67.377698439652278</v>
       </c>
       <c r="CO125" s="12">
-        <v>68.568090691102796</v>
+        <v>67.660819194515952</v>
       </c>
       <c r="CP125" s="17"/>
       <c r="CQ125" s="17"/>
@@ -42298,28 +42385,28 @@
         <v>34.501189667755966</v>
       </c>
       <c r="CH126" s="12">
-        <v>30.459223603004887</v>
+        <v>30.492246586010481</v>
       </c>
       <c r="CI126" s="12">
-        <v>27.222376474934041</v>
+        <v>27.253265468585091</v>
       </c>
       <c r="CJ126" s="12">
-        <v>30.692395480476144</v>
+        <v>30.725559566441319</v>
       </c>
       <c r="CK126" s="12">
-        <v>33.36265075993937</v>
+        <v>33.580351327564863</v>
       </c>
       <c r="CL126" s="12">
-        <v>30.738025628629089</v>
+        <v>30.844363614327747</v>
       </c>
       <c r="CM126" s="12">
-        <v>27.873645415945482</v>
+        <v>27.932126949273883</v>
       </c>
       <c r="CN126" s="12">
-        <v>32.458622422367064</v>
+        <v>32.622301560347715</v>
       </c>
       <c r="CO126" s="12">
-        <v>31.431909308897215</v>
+        <v>32.339180805484055</v>
       </c>
       <c r="CP126" s="17"/>
       <c r="CQ126" s="17"/>
@@ -43097,6 +43184,12 @@
     <mergeCell ref="BB103:BE103"/>
     <mergeCell ref="BB122:BE122"/>
     <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="V66:Y66"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
@@ -43120,7 +43213,6 @@
     <mergeCell ref="Z103:AC103"/>
     <mergeCell ref="AD103:AG103"/>
     <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="F84:I84"/>
     <mergeCell ref="J84:M84"/>
@@ -43130,8 +43222,8 @@
     <mergeCell ref="Z84:AC84"/>
     <mergeCell ref="AD84:AG84"/>
     <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R66:U66"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="AP28:AS28"/>
     <mergeCell ref="B28:E28"/>
@@ -43143,7 +43235,6 @@
     <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="R9:U9"/>
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AX66:BA66"/>
     <mergeCell ref="BR9:BU9"/>
@@ -43196,10 +43287,6 @@
     <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="R66:U66"/>
     <mergeCell ref="BR122:BU122"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
@@ -43227,8 +43314,6 @@
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CL66:CM66"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
     <mergeCell ref="CL9:CO9"/>
@@ -43238,6 +43323,8 @@
     <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CL66:CO66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7070FD89-A6DE-4C07-A7E9-86A3F0317395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB223E7A-BD3C-4D25-B2DC-500EBB9F8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CO$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CP$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -612,13 +612,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,6 +749,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23614,14 +23620,14 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="93" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="15"/>
+    <col min="2" max="94" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23636,7 +23642,7 @@
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23649,7 +23655,7 @@
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23751,147 +23757,151 @@
       <c r="CM8" s="3"/>
       <c r="CN8" s="3"/>
       <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
+      <c r="CP9" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24172,6 +24182,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24268,6 +24281,7 @@
       <c r="CM11" s="3"/>
       <c r="CN11" s="3"/>
       <c r="CO11" s="3"/>
+      <c r="CP11" s="3"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24549,7 +24563,9 @@
       <c r="CO12" s="13">
         <v>161962.20810424158</v>
       </c>
-      <c r="CP12" s="17"/>
+      <c r="CP12" s="13">
+        <v>160239.5991545516</v>
+      </c>
       <c r="CQ12" s="17"/>
       <c r="CR12" s="17"/>
       <c r="CS12" s="17"/>
@@ -24892,7 +24908,9 @@
       <c r="CO13" s="13">
         <v>69060.72654017483</v>
       </c>
-      <c r="CP13" s="17"/>
+      <c r="CP13" s="13">
+        <v>67103.675473496769</v>
+      </c>
       <c r="CQ13" s="17"/>
       <c r="CR13" s="17"/>
       <c r="CS13" s="17"/>
@@ -25048,7 +25066,7 @@
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
-      <c r="CP14" s="17"/>
+      <c r="CP14" s="11"/>
       <c r="CQ14" s="17"/>
       <c r="CR14" s="17"/>
       <c r="CS14" s="17"/>
@@ -25355,43 +25373,45 @@
       <c r="CC15" s="18">
         <v>205502.06466061054</v>
       </c>
-      <c r="CD15" s="18">
+      <c r="CD15" s="14">
         <v>177052.33105261222</v>
       </c>
-      <c r="CE15" s="18">
+      <c r="CE15" s="14">
         <v>193793.5244966539</v>
       </c>
-      <c r="CF15" s="18">
+      <c r="CF15" s="14">
         <v>162772.10881058546</v>
       </c>
-      <c r="CG15" s="18">
+      <c r="CG15" s="14">
         <v>185875.5566478252</v>
       </c>
-      <c r="CH15" s="18">
+      <c r="CH15" s="14">
         <v>184394.14735113949</v>
       </c>
-      <c r="CI15" s="18">
+      <c r="CI15" s="14">
         <v>220567.67102898046</v>
       </c>
-      <c r="CJ15" s="18">
+      <c r="CJ15" s="14">
         <v>188215.0622404278</v>
       </c>
-      <c r="CK15" s="18">
+      <c r="CK15" s="14">
         <v>203295.32973547772</v>
       </c>
-      <c r="CL15" s="18">
+      <c r="CL15" s="14">
         <v>207452.83709672</v>
       </c>
-      <c r="CM15" s="18">
+      <c r="CM15" s="14">
         <v>240014.15343199074</v>
       </c>
-      <c r="CN15" s="18">
+      <c r="CN15" s="14">
         <v>205482.4010490962</v>
       </c>
-      <c r="CO15" s="18">
+      <c r="CO15" s="14">
         <v>231022.93464441641</v>
       </c>
-      <c r="CP15" s="17"/>
+      <c r="CP15" s="14">
+        <v>227343.27462804836</v>
+      </c>
       <c r="CQ15" s="17"/>
       <c r="CR15" s="17"/>
       <c r="CS15" s="17"/>
@@ -25548,6 +25568,7 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
+      <c r="CP16" s="9"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25645,6 +25666,7 @@
       <c r="CM17" s="3"/>
       <c r="CN17" s="3"/>
       <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25739,7 +25761,7 @@
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
-      <c r="CP18" s="17"/>
+      <c r="CP18" s="11"/>
       <c r="CQ18" s="17"/>
       <c r="CR18" s="17"/>
       <c r="CS18" s="17"/>
@@ -25895,7 +25917,7 @@
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
-      <c r="CP19" s="17"/>
+      <c r="CP19" s="11"/>
       <c r="CQ19" s="17"/>
       <c r="CR19" s="17"/>
       <c r="CS19" s="17"/>
@@ -26054,6 +26076,7 @@
       <c r="CM20" s="3"/>
       <c r="CN20" s="3"/>
       <c r="CO20" s="3"/>
+      <c r="CP20" s="3"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26151,10 +26174,11 @@
       <c r="CM21" s="3"/>
       <c r="CN21" s="3"/>
       <c r="CO21" s="3"/>
+      <c r="CP21" s="3"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26248,6 +26272,7 @@
       <c r="CM22" s="3"/>
       <c r="CN22" s="3"/>
       <c r="CO22" s="3"/>
+      <c r="CP22" s="3"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26343,6 +26368,7 @@
       <c r="CM23" s="3"/>
       <c r="CN23" s="3"/>
       <c r="CO23" s="3"/>
+      <c r="CP23" s="3"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26440,10 +26466,11 @@
       <c r="CM24" s="3"/>
       <c r="CN24" s="3"/>
       <c r="CO24" s="3"/>
+      <c r="CP24" s="3"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26537,6 +26564,7 @@
       <c r="CM25" s="3"/>
       <c r="CN25" s="3"/>
       <c r="CO25" s="3"/>
+      <c r="CP25" s="3"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26634,6 +26662,7 @@
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
       <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26729,147 +26758,151 @@
       <c r="CM27" s="3"/>
       <c r="CN27" s="3"/>
       <c r="CO27" s="3"/>
+      <c r="CP27" s="3"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="19">
+      <c r="B28" s="20">
         <v>2000</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20">
         <v>2001</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="19">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20">
         <v>2002</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="19">
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="20">
         <v>2003</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="19">
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20">
         <v>2004</v>
       </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="19">
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="20">
         <v>2005</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="19">
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="20">
         <v>2006</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="19">
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="20">
         <v>2007</v>
       </c>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="19">
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="20">
         <v>2008</v>
       </c>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="19">
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="20">
         <v>2009</v>
       </c>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="19">
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="19">
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="20">
         <v>2011</v>
       </c>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="19">
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="20">
         <v>2012</v>
       </c>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="19">
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="20">
         <v>2013</v>
       </c>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="19">
+      <c r="BC28" s="21"/>
+      <c r="BD28" s="21"/>
+      <c r="BE28" s="21"/>
+      <c r="BF28" s="20">
         <v>2014</v>
       </c>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="19">
+      <c r="BG28" s="21"/>
+      <c r="BH28" s="21"/>
+      <c r="BI28" s="21"/>
+      <c r="BJ28" s="20">
         <v>2015</v>
       </c>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="19">
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="21"/>
+      <c r="BM28" s="21"/>
+      <c r="BN28" s="20">
         <v>2016</v>
       </c>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="19">
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="20">
         <v>2017</v>
       </c>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="19">
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="20">
         <v>2018</v>
       </c>
-      <c r="BW28" s="20"/>
-      <c r="BX28" s="20"/>
-      <c r="BY28" s="20"/>
-      <c r="BZ28" s="19">
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="20">
         <v>2019</v>
       </c>
-      <c r="CA28" s="20"/>
-      <c r="CB28" s="20"/>
-      <c r="CC28" s="20"/>
-      <c r="CD28" s="19">
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="20">
         <v>2020</v>
       </c>
       <c r="CE28" s="20"/>
       <c r="CF28" s="20"/>
       <c r="CG28" s="20"/>
-      <c r="CH28" s="19">
+      <c r="CH28" s="20">
         <v>2021</v>
       </c>
       <c r="CI28" s="20"/>
       <c r="CJ28" s="20"/>
       <c r="CK28" s="20"/>
-      <c r="CL28" s="19">
+      <c r="CL28" s="20">
         <v>2022</v>
       </c>
       <c r="CM28" s="20"/>
       <c r="CN28" s="20"/>
       <c r="CO28" s="20"/>
+      <c r="CP28" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27150,6 +27183,9 @@
       </c>
       <c r="CO29" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP29" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27246,6 +27282,7 @@
       <c r="CM30" s="3"/>
       <c r="CN30" s="3"/>
       <c r="CO30" s="3"/>
+      <c r="CP30" s="3"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27527,7 +27564,9 @@
       <c r="CO31" s="13">
         <v>125861.13477052779</v>
       </c>
-      <c r="CP31" s="17"/>
+      <c r="CP31" s="13">
+        <v>145300.81961965648</v>
+      </c>
       <c r="CQ31" s="17"/>
       <c r="CR31" s="17"/>
       <c r="CS31" s="17"/>
@@ -27870,7 +27909,9 @@
       <c r="CO32" s="13">
         <v>60156.617111390151</v>
       </c>
-      <c r="CP32" s="17"/>
+      <c r="CP32" s="13">
+        <v>66473.062873184623</v>
+      </c>
       <c r="CQ32" s="17"/>
       <c r="CR32" s="17"/>
       <c r="CS32" s="17"/>
@@ -28026,7 +28067,7 @@
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
-      <c r="CP33" s="17"/>
+      <c r="CP33" s="11"/>
       <c r="CQ33" s="17"/>
       <c r="CR33" s="17"/>
       <c r="CS33" s="17"/>
@@ -28333,43 +28374,45 @@
       <c r="CC34" s="18">
         <v>178437.36919710715</v>
       </c>
-      <c r="CD34" s="18">
+      <c r="CD34" s="14">
         <v>184015.44184398712</v>
       </c>
-      <c r="CE34" s="18">
+      <c r="CE34" s="14">
         <v>192942.28561995502</v>
       </c>
-      <c r="CF34" s="18">
+      <c r="CF34" s="14">
         <v>153299.59848054615</v>
       </c>
-      <c r="CG34" s="18">
+      <c r="CG34" s="14">
         <v>157352.5314285678</v>
       </c>
-      <c r="CH34" s="18">
+      <c r="CH34" s="14">
         <v>184299.84202323624</v>
       </c>
-      <c r="CI34" s="18">
+      <c r="CI34" s="14">
         <v>216890.01788699863</v>
       </c>
-      <c r="CJ34" s="18">
+      <c r="CJ34" s="14">
         <v>173902.05518399761</v>
       </c>
-      <c r="CK34" s="18">
+      <c r="CK34" s="14">
         <v>169066.76956932823</v>
       </c>
-      <c r="CL34" s="18">
+      <c r="CL34" s="14">
         <v>200118.08390886278</v>
       </c>
-      <c r="CM34" s="18">
+      <c r="CM34" s="14">
         <v>228916.59183787473</v>
       </c>
-      <c r="CN34" s="18">
+      <c r="CN34" s="14">
         <v>184211.73470418886</v>
       </c>
-      <c r="CO34" s="18">
+      <c r="CO34" s="14">
         <v>186017.75188191794</v>
       </c>
-      <c r="CP34" s="17"/>
+      <c r="CP34" s="14">
+        <v>211773.8824928411</v>
+      </c>
       <c r="CQ34" s="17"/>
       <c r="CR34" s="17"/>
       <c r="CS34" s="17"/>
@@ -28526,6 +28569,7 @@
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
+      <c r="CP35" s="9"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28623,6 +28667,7 @@
       <c r="CM36" s="3"/>
       <c r="CN36" s="3"/>
       <c r="CO36" s="3"/>
+      <c r="CP36" s="3"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -28717,7 +28762,7 @@
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
-      <c r="CP37" s="17"/>
+      <c r="CP37" s="11"/>
       <c r="CQ37" s="17"/>
       <c r="CR37" s="17"/>
       <c r="CS37" s="17"/>
@@ -28873,7 +28918,7 @@
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
-      <c r="CP38" s="17"/>
+      <c r="CP38" s="11"/>
       <c r="CQ38" s="17"/>
       <c r="CR38" s="17"/>
       <c r="CS38" s="17"/>
@@ -29032,6 +29077,7 @@
       <c r="CM39" s="3"/>
       <c r="CN39" s="3"/>
       <c r="CO39" s="3"/>
+      <c r="CP39" s="3"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29129,10 +29175,11 @@
       <c r="CM40" s="3"/>
       <c r="CN40" s="3"/>
       <c r="CO40" s="3"/>
+      <c r="CP40" s="3"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29226,6 +29273,7 @@
       <c r="CM41" s="3"/>
       <c r="CN41" s="3"/>
       <c r="CO41" s="3"/>
+      <c r="CP41" s="3"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29321,6 +29369,7 @@
       <c r="CM42" s="3"/>
       <c r="CN42" s="3"/>
       <c r="CO42" s="3"/>
+      <c r="CP42" s="3"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29418,10 +29467,11 @@
       <c r="CM43" s="3"/>
       <c r="CN43" s="3"/>
       <c r="CO43" s="3"/>
+      <c r="CP43" s="3"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29503,18 +29553,6 @@
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
-      <c r="CD44" s="3"/>
-      <c r="CE44" s="3"/>
-      <c r="CF44" s="3"/>
-      <c r="CG44" s="3"/>
-      <c r="CH44" s="3"/>
-      <c r="CI44" s="3"/>
-      <c r="CJ44" s="3"/>
-      <c r="CK44" s="3"/>
-      <c r="CL44" s="3"/>
-      <c r="CM44" s="3"/>
-      <c r="CN44" s="3"/>
-      <c r="CO44" s="3"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -29600,18 +29638,6 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
-      <c r="CD45" s="3"/>
-      <c r="CE45" s="3"/>
-      <c r="CF45" s="3"/>
-      <c r="CG45" s="3"/>
-      <c r="CH45" s="3"/>
-      <c r="CI45" s="3"/>
-      <c r="CJ45" s="3"/>
-      <c r="CK45" s="3"/>
-      <c r="CL45" s="3"/>
-      <c r="CM45" s="3"/>
-      <c r="CN45" s="3"/>
-      <c r="CO45" s="3"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -29707,145 +29733,149 @@
       <c r="CM46" s="3"/>
       <c r="CN46" s="3"/>
       <c r="CO46" s="3"/>
+      <c r="CP46" s="3"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19" t="s">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19" t="s">
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19" t="s">
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19" t="s">
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19" t="s">
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19" t="s">
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19" t="s">
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="19" t="s">
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="19"/>
-      <c r="AR47" s="19"/>
-      <c r="AS47" s="19"/>
-      <c r="AT47" s="19" t="s">
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="19"/>
-      <c r="AV47" s="19"/>
-      <c r="AW47" s="19"/>
-      <c r="AX47" s="19" t="s">
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="19"/>
-      <c r="AZ47" s="19"/>
-      <c r="BA47" s="19"/>
-      <c r="BB47" s="19" t="s">
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="20"/>
+      <c r="BA47" s="20"/>
+      <c r="BB47" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="19"/>
-      <c r="BD47" s="19"/>
-      <c r="BE47" s="19"/>
-      <c r="BF47" s="19" t="s">
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="20"/>
+      <c r="BE47" s="20"/>
+      <c r="BF47" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="19"/>
-      <c r="BH47" s="19"/>
-      <c r="BI47" s="19"/>
-      <c r="BJ47" s="19" t="s">
+      <c r="BG47" s="20"/>
+      <c r="BH47" s="20"/>
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="19"/>
-      <c r="BL47" s="19"/>
-      <c r="BM47" s="19"/>
-      <c r="BN47" s="19" t="s">
+      <c r="BK47" s="20"/>
+      <c r="BL47" s="20"/>
+      <c r="BM47" s="20"/>
+      <c r="BN47" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="19"/>
-      <c r="BP47" s="19"/>
-      <c r="BQ47" s="19"/>
-      <c r="BR47" s="19" t="s">
+      <c r="BO47" s="20"/>
+      <c r="BP47" s="20"/>
+      <c r="BQ47" s="20"/>
+      <c r="BR47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="19"/>
-      <c r="BT47" s="19"/>
-      <c r="BU47" s="19"/>
-      <c r="BV47" s="19" t="s">
+      <c r="BS47" s="20"/>
+      <c r="BT47" s="20"/>
+      <c r="BU47" s="20"/>
+      <c r="BV47" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="19"/>
-      <c r="BX47" s="19"/>
-      <c r="BY47" s="19"/>
-      <c r="BZ47" s="19" t="s">
+      <c r="BW47" s="20"/>
+      <c r="BX47" s="20"/>
+      <c r="BY47" s="20"/>
+      <c r="BZ47" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="19"/>
-      <c r="CB47" s="19"/>
-      <c r="CC47" s="19"/>
-      <c r="CD47" s="19" t="s">
+      <c r="CA47" s="20"/>
+      <c r="CB47" s="20"/>
+      <c r="CC47" s="20"/>
+      <c r="CD47" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="19"/>
-      <c r="CF47" s="19"/>
-      <c r="CG47" s="19"/>
-      <c r="CH47" s="19" t="s">
+      <c r="CE47" s="20"/>
+      <c r="CF47" s="20"/>
+      <c r="CG47" s="20"/>
+      <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="19"/>
-      <c r="CJ47" s="19"/>
-      <c r="CK47" s="19"/>
-      <c r="CL47" s="19"/>
+      <c r="CI47" s="20"/>
+      <c r="CJ47" s="20"/>
+      <c r="CK47" s="20"/>
+      <c r="CL47" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
+      <c r="CP47" s="19"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30115,10 +30145,13 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5"/>
+      <c r="CL48" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM48" s="5"/>
       <c r="CN48" s="5"/>
       <c r="CO48" s="5"/>
+      <c r="CP48" s="5"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30214,6 +30247,7 @@
       <c r="CM49" s="3"/>
       <c r="CN49" s="3"/>
       <c r="CO49" s="3"/>
+      <c r="CP49" s="3"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30483,11 +30517,13 @@
       <c r="CK50" s="12">
         <v>15.804186939397653</v>
       </c>
-      <c r="CL50" s="12"/>
+      <c r="CL50" s="12">
+        <v>8.9045740817916794</v>
+      </c>
       <c r="CM50" s="12"/>
       <c r="CN50" s="12"/>
       <c r="CO50" s="12"/>
-      <c r="CP50" s="17"/>
+      <c r="CP50" s="12"/>
       <c r="CQ50" s="17"/>
       <c r="CR50" s="17"/>
       <c r="CS50" s="17"/>
@@ -30814,11 +30850,13 @@
       <c r="CK51" s="12">
         <v>8.8656599021623492</v>
       </c>
-      <c r="CL51" s="12"/>
+      <c r="CL51" s="12">
+        <v>11.254969309287205</v>
+      </c>
       <c r="CM51" s="12"/>
       <c r="CN51" s="12"/>
       <c r="CO51" s="12"/>
-      <c r="CP51" s="17"/>
+      <c r="CP51" s="12"/>
       <c r="CQ51" s="17"/>
       <c r="CR51" s="17"/>
       <c r="CS51" s="17"/>
@@ -30971,7 +31009,7 @@
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
-      <c r="CP52" s="17"/>
+      <c r="CP52" s="11"/>
       <c r="CQ52" s="17"/>
       <c r="CR52" s="17"/>
       <c r="CS52" s="17"/>
@@ -31298,11 +31336,13 @@
       <c r="CK53" s="12">
         <v>13.639076187838199</v>
       </c>
-      <c r="CL53" s="12"/>
+      <c r="CL53" s="12">
+        <v>9.5879322788219525</v>
+      </c>
       <c r="CM53" s="12"/>
       <c r="CN53" s="12"/>
       <c r="CO53" s="12"/>
-      <c r="CP53" s="17"/>
+      <c r="CP53" s="12"/>
       <c r="CQ53" s="17"/>
       <c r="CR53" s="17"/>
       <c r="CS53" s="17"/>
@@ -31455,6 +31495,7 @@
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
+      <c r="CP54" s="9"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -31552,6 +31593,7 @@
       <c r="CM55" s="3"/>
       <c r="CN55" s="3"/>
       <c r="CO55" s="3"/>
+      <c r="CP55" s="3"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -31646,7 +31688,7 @@
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
-      <c r="CP56" s="17"/>
+      <c r="CP56" s="11"/>
       <c r="CQ56" s="17"/>
       <c r="CR56" s="17"/>
       <c r="CS56" s="17"/>
@@ -31798,7 +31840,7 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="17"/>
+      <c r="CP57" s="11"/>
       <c r="CQ57" s="17"/>
       <c r="CR57" s="17"/>
       <c r="CS57" s="17"/>
@@ -31953,6 +31995,7 @@
       <c r="CM58" s="3"/>
       <c r="CN58" s="3"/>
       <c r="CO58" s="3"/>
+      <c r="CP58" s="3"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32050,10 +32093,11 @@
       <c r="CM59" s="3"/>
       <c r="CN59" s="3"/>
       <c r="CO59" s="3"/>
+      <c r="CP59" s="3"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32147,6 +32191,7 @@
       <c r="CM60" s="3"/>
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
+      <c r="CP60" s="3"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32242,6 +32287,7 @@
       <c r="CM61" s="3"/>
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
+      <c r="CP61" s="3"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32339,10 +32385,11 @@
       <c r="CM62" s="3"/>
       <c r="CN62" s="3"/>
       <c r="CO62" s="3"/>
+      <c r="CP62" s="3"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32436,6 +32483,7 @@
       <c r="CM63" s="3"/>
       <c r="CN63" s="3"/>
       <c r="CO63" s="3"/>
+      <c r="CP63" s="3"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -32533,6 +32581,7 @@
       <c r="CM64" s="3"/>
       <c r="CN64" s="3"/>
       <c r="CO64" s="3"/>
+      <c r="CP64" s="3"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -32628,145 +32677,149 @@
       <c r="CM65" s="3"/>
       <c r="CN65" s="3"/>
       <c r="CO65" s="3"/>
+      <c r="CP65" s="3"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19" t="s">
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19" t="s">
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19" t="s">
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19" t="s">
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="19" t="s">
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19" t="s">
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="19"/>
-      <c r="AH66" s="19" t="s">
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="19"/>
-      <c r="AJ66" s="19"/>
-      <c r="AK66" s="19"/>
-      <c r="AL66" s="19" t="s">
+      <c r="AI66" s="20"/>
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="20"/>
+      <c r="AL66" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="19"/>
-      <c r="AN66" s="19"/>
-      <c r="AO66" s="19"/>
-      <c r="AP66" s="19" t="s">
+      <c r="AM66" s="20"/>
+      <c r="AN66" s="20"/>
+      <c r="AO66" s="20"/>
+      <c r="AP66" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="19"/>
-      <c r="AR66" s="19"/>
-      <c r="AS66" s="19"/>
-      <c r="AT66" s="19" t="s">
+      <c r="AQ66" s="20"/>
+      <c r="AR66" s="20"/>
+      <c r="AS66" s="20"/>
+      <c r="AT66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="19"/>
-      <c r="AV66" s="19"/>
-      <c r="AW66" s="19"/>
-      <c r="AX66" s="19" t="s">
+      <c r="AU66" s="20"/>
+      <c r="AV66" s="20"/>
+      <c r="AW66" s="20"/>
+      <c r="AX66" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="19"/>
-      <c r="AZ66" s="19"/>
-      <c r="BA66" s="19"/>
-      <c r="BB66" s="19" t="s">
+      <c r="AY66" s="20"/>
+      <c r="AZ66" s="20"/>
+      <c r="BA66" s="20"/>
+      <c r="BB66" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="19"/>
-      <c r="BD66" s="19"/>
-      <c r="BE66" s="19"/>
-      <c r="BF66" s="19" t="s">
+      <c r="BC66" s="20"/>
+      <c r="BD66" s="20"/>
+      <c r="BE66" s="20"/>
+      <c r="BF66" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="19"/>
-      <c r="BH66" s="19"/>
-      <c r="BI66" s="19"/>
-      <c r="BJ66" s="19" t="s">
+      <c r="BG66" s="20"/>
+      <c r="BH66" s="20"/>
+      <c r="BI66" s="20"/>
+      <c r="BJ66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="19"/>
-      <c r="BL66" s="19"/>
-      <c r="BM66" s="19"/>
-      <c r="BN66" s="19" t="s">
+      <c r="BK66" s="20"/>
+      <c r="BL66" s="20"/>
+      <c r="BM66" s="20"/>
+      <c r="BN66" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="19"/>
-      <c r="BP66" s="19"/>
-      <c r="BQ66" s="19"/>
-      <c r="BR66" s="19" t="s">
+      <c r="BO66" s="20"/>
+      <c r="BP66" s="20"/>
+      <c r="BQ66" s="20"/>
+      <c r="BR66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="19"/>
-      <c r="BT66" s="19"/>
-      <c r="BU66" s="19"/>
-      <c r="BV66" s="19" t="s">
+      <c r="BS66" s="20"/>
+      <c r="BT66" s="20"/>
+      <c r="BU66" s="20"/>
+      <c r="BV66" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="19"/>
-      <c r="BX66" s="19"/>
-      <c r="BY66" s="19"/>
-      <c r="BZ66" s="19" t="s">
+      <c r="BW66" s="20"/>
+      <c r="BX66" s="20"/>
+      <c r="BY66" s="20"/>
+      <c r="BZ66" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="19"/>
-      <c r="CB66" s="19"/>
-      <c r="CC66" s="19"/>
-      <c r="CD66" s="19" t="s">
+      <c r="CA66" s="20"/>
+      <c r="CB66" s="20"/>
+      <c r="CC66" s="20"/>
+      <c r="CD66" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="19"/>
-      <c r="CF66" s="19"/>
-      <c r="CG66" s="19"/>
-      <c r="CH66" s="19" t="s">
+      <c r="CE66" s="20"/>
+      <c r="CF66" s="20"/>
+      <c r="CG66" s="20"/>
+      <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="19"/>
-      <c r="CJ66" s="19"/>
-      <c r="CK66" s="19"/>
-      <c r="CL66" s="19"/>
+      <c r="CI66" s="20"/>
+      <c r="CJ66" s="20"/>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="CM66" s="19"/>
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
+      <c r="CP66" s="19"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33036,10 +33089,13 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5"/>
+      <c r="CL67" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM67" s="5"/>
       <c r="CN67" s="5"/>
       <c r="CO67" s="5"/>
+      <c r="CP67" s="5"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33135,6 +33191,7 @@
       <c r="CM68" s="3"/>
       <c r="CN68" s="3"/>
       <c r="CO68" s="3"/>
+      <c r="CP68" s="3"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33404,11 +33461,13 @@
       <c r="CK69" s="12">
         <v>12.082243256871521</v>
       </c>
-      <c r="CL69" s="12"/>
+      <c r="CL69" s="12">
+        <v>4.9915013343150321</v>
+      </c>
       <c r="CM69" s="12"/>
       <c r="CN69" s="12"/>
       <c r="CO69" s="12"/>
-      <c r="CP69" s="17"/>
+      <c r="CP69" s="12"/>
       <c r="CQ69" s="17"/>
       <c r="CR69" s="17"/>
       <c r="CS69" s="17"/>
@@ -33735,11 +33794,13 @@
       <c r="CK70" s="12">
         <v>5.9595037905697694</v>
       </c>
-      <c r="CL70" s="12"/>
+      <c r="CL70" s="12">
+        <v>7.6920241683218933</v>
+      </c>
       <c r="CM70" s="12"/>
       <c r="CN70" s="12"/>
       <c r="CO70" s="12"/>
-      <c r="CP70" s="17"/>
+      <c r="CP70" s="12"/>
       <c r="CQ70" s="17"/>
       <c r="CR70" s="17"/>
       <c r="CS70" s="17"/>
@@ -33891,7 +33952,7 @@
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
-      <c r="CP71" s="17"/>
+      <c r="CP71" s="11"/>
       <c r="CQ71" s="17"/>
       <c r="CR71" s="17"/>
       <c r="CS71" s="17"/>
@@ -34218,11 +34279,13 @@
       <c r="CK72" s="12">
         <v>10.026205833215911</v>
       </c>
-      <c r="CL72" s="12"/>
+      <c r="CL72" s="12">
+        <v>5.8244604167240368</v>
+      </c>
       <c r="CM72" s="12"/>
       <c r="CN72" s="12"/>
       <c r="CO72" s="12"/>
-      <c r="CP72" s="17"/>
+      <c r="CP72" s="12"/>
       <c r="CQ72" s="17"/>
       <c r="CR72" s="17"/>
       <c r="CS72" s="17"/>
@@ -34375,6 +34438,7 @@
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
+      <c r="CP73" s="9"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -34472,6 +34536,7 @@
       <c r="CM74" s="3"/>
       <c r="CN74" s="3"/>
       <c r="CO74" s="3"/>
+      <c r="CP74" s="3"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -34556,16 +34621,16 @@
       <c r="CC75" s="11"/>
       <c r="CD75" s="11"/>
       <c r="CE75" s="11"/>
-      <c r="CF75" s="11"/>
-      <c r="CG75" s="11"/>
+      <c r="CF75" s="17"/>
+      <c r="CG75" s="17"/>
       <c r="CH75" s="11"/>
       <c r="CI75" s="11"/>
-      <c r="CJ75" s="11"/>
-      <c r="CK75" s="11"/>
+      <c r="CJ75" s="17"/>
+      <c r="CK75" s="17"/>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
-      <c r="CO75" s="11"/>
+      <c r="CN75" s="17"/>
+      <c r="CO75" s="17"/>
       <c r="CP75" s="17"/>
       <c r="CQ75" s="17"/>
       <c r="CR75" s="17"/>
@@ -34706,18 +34771,18 @@
       <c r="CA76" s="11"/>
       <c r="CB76" s="11"/>
       <c r="CC76" s="11"/>
-      <c r="CD76" s="11"/>
-      <c r="CE76" s="11"/>
-      <c r="CF76" s="11"/>
-      <c r="CG76" s="11"/>
-      <c r="CH76" s="11"/>
-      <c r="CI76" s="11"/>
-      <c r="CJ76" s="11"/>
-      <c r="CK76" s="11"/>
-      <c r="CL76" s="11"/>
-      <c r="CM76" s="11"/>
-      <c r="CN76" s="11"/>
-      <c r="CO76" s="11"/>
+      <c r="CD76" s="17"/>
+      <c r="CE76" s="17"/>
+      <c r="CF76" s="17"/>
+      <c r="CG76" s="17"/>
+      <c r="CH76" s="17"/>
+      <c r="CI76" s="17"/>
+      <c r="CJ76" s="17"/>
+      <c r="CK76" s="17"/>
+      <c r="CL76" s="17"/>
+      <c r="CM76" s="17"/>
+      <c r="CN76" s="17"/>
+      <c r="CO76" s="17"/>
       <c r="CP76" s="17"/>
       <c r="CQ76" s="17"/>
       <c r="CR76" s="17"/>
@@ -34861,22 +34926,10 @@
       <c r="CA77" s="3"/>
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
-      <c r="CD77" s="3"/>
-      <c r="CE77" s="3"/>
-      <c r="CF77" s="3"/>
-      <c r="CG77" s="3"/>
-      <c r="CH77" s="3"/>
-      <c r="CI77" s="3"/>
-      <c r="CJ77" s="3"/>
-      <c r="CK77" s="3"/>
-      <c r="CL77" s="3"/>
-      <c r="CM77" s="3"/>
-      <c r="CN77" s="3"/>
-      <c r="CO77" s="3"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -34958,18 +35011,6 @@
       <c r="CA78" s="3"/>
       <c r="CB78" s="3"/>
       <c r="CC78" s="3"/>
-      <c r="CD78" s="3"/>
-      <c r="CE78" s="3"/>
-      <c r="CF78" s="3"/>
-      <c r="CG78" s="3"/>
-      <c r="CH78" s="3"/>
-      <c r="CI78" s="3"/>
-      <c r="CJ78" s="3"/>
-      <c r="CK78" s="3"/>
-      <c r="CL78" s="3"/>
-      <c r="CM78" s="3"/>
-      <c r="CN78" s="3"/>
-      <c r="CO78" s="3"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35053,18 +35094,6 @@
       <c r="CA79" s="3"/>
       <c r="CB79" s="3"/>
       <c r="CC79" s="3"/>
-      <c r="CD79" s="3"/>
-      <c r="CE79" s="3"/>
-      <c r="CF79" s="3"/>
-      <c r="CG79" s="3"/>
-      <c r="CH79" s="3"/>
-      <c r="CI79" s="3"/>
-      <c r="CJ79" s="3"/>
-      <c r="CK79" s="3"/>
-      <c r="CL79" s="3"/>
-      <c r="CM79" s="3"/>
-      <c r="CN79" s="3"/>
-      <c r="CO79" s="3"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35150,22 +35179,10 @@
       <c r="CA80" s="3"/>
       <c r="CB80" s="3"/>
       <c r="CC80" s="3"/>
-      <c r="CD80" s="3"/>
-      <c r="CE80" s="3"/>
-      <c r="CF80" s="3"/>
-      <c r="CG80" s="3"/>
-      <c r="CH80" s="3"/>
-      <c r="CI80" s="3"/>
-      <c r="CJ80" s="3"/>
-      <c r="CK80" s="3"/>
-      <c r="CL80" s="3"/>
-      <c r="CM80" s="3"/>
-      <c r="CN80" s="3"/>
-      <c r="CO80" s="3"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35247,18 +35264,6 @@
       <c r="CA81" s="3"/>
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
-      <c r="CD81" s="3"/>
-      <c r="CE81" s="3"/>
-      <c r="CF81" s="3"/>
-      <c r="CG81" s="3"/>
-      <c r="CH81" s="3"/>
-      <c r="CI81" s="3"/>
-      <c r="CJ81" s="3"/>
-      <c r="CK81" s="3"/>
-      <c r="CL81" s="3"/>
-      <c r="CM81" s="3"/>
-      <c r="CN81" s="3"/>
-      <c r="CO81" s="3"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -35344,18 +35349,6 @@
       <c r="CA82" s="3"/>
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
-      <c r="CD82" s="3"/>
-      <c r="CE82" s="3"/>
-      <c r="CF82" s="3"/>
-      <c r="CG82" s="3"/>
-      <c r="CH82" s="3"/>
-      <c r="CI82" s="3"/>
-      <c r="CJ82" s="3"/>
-      <c r="CK82" s="3"/>
-      <c r="CL82" s="3"/>
-      <c r="CM82" s="3"/>
-      <c r="CN82" s="3"/>
-      <c r="CO82" s="3"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -35439,159 +35432,150 @@
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
-      <c r="CD83" s="3"/>
-      <c r="CE83" s="3"/>
-      <c r="CF83" s="3"/>
-      <c r="CG83" s="3"/>
-      <c r="CH83" s="3"/>
-      <c r="CI83" s="3"/>
-      <c r="CJ83" s="3"/>
-      <c r="CK83" s="3"/>
-      <c r="CL83" s="3"/>
-      <c r="CM83" s="3"/>
-      <c r="CN83" s="3"/>
-      <c r="CO83" s="3"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="19">
+      <c r="B84" s="20">
         <v>2000</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="19">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="20">
         <v>2001</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="19">
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="20">
         <v>2002</v>
       </c>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="19">
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="20">
         <v>2003</v>
       </c>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="19">
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="20">
         <v>2004</v>
       </c>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="19">
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="20">
         <v>2005</v>
       </c>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="19">
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="20">
         <v>2006</v>
       </c>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-      <c r="AD84" s="19">
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="20">
         <v>2007</v>
       </c>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
-      <c r="AH84" s="19">
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="20">
         <v>2008</v>
       </c>
-      <c r="AI84" s="20"/>
-      <c r="AJ84" s="20"/>
-      <c r="AK84" s="20"/>
-      <c r="AL84" s="19">
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
+      <c r="AL84" s="20">
         <v>2009</v>
       </c>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
-      <c r="AP84" s="19">
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
+      <c r="AO84" s="21"/>
+      <c r="AP84" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="20"/>
-      <c r="AR84" s="20"/>
-      <c r="AS84" s="20"/>
-      <c r="AT84" s="19">
+      <c r="AQ84" s="21"/>
+      <c r="AR84" s="21"/>
+      <c r="AS84" s="21"/>
+      <c r="AT84" s="20">
         <v>2011</v>
       </c>
-      <c r="AU84" s="20"/>
-      <c r="AV84" s="20"/>
-      <c r="AW84" s="20"/>
-      <c r="AX84" s="19">
+      <c r="AU84" s="21"/>
+      <c r="AV84" s="21"/>
+      <c r="AW84" s="21"/>
+      <c r="AX84" s="20">
         <v>2012</v>
       </c>
-      <c r="AY84" s="20"/>
-      <c r="AZ84" s="20"/>
-      <c r="BA84" s="20"/>
-      <c r="BB84" s="19">
+      <c r="AY84" s="21"/>
+      <c r="AZ84" s="21"/>
+      <c r="BA84" s="21"/>
+      <c r="BB84" s="20">
         <v>2013</v>
       </c>
-      <c r="BC84" s="20"/>
-      <c r="BD84" s="20"/>
-      <c r="BE84" s="20"/>
-      <c r="BF84" s="19">
+      <c r="BC84" s="21"/>
+      <c r="BD84" s="21"/>
+      <c r="BE84" s="21"/>
+      <c r="BF84" s="20">
         <v>2014</v>
       </c>
-      <c r="BG84" s="20"/>
-      <c r="BH84" s="20"/>
-      <c r="BI84" s="20"/>
-      <c r="BJ84" s="19">
+      <c r="BG84" s="21"/>
+      <c r="BH84" s="21"/>
+      <c r="BI84" s="21"/>
+      <c r="BJ84" s="20">
         <v>2015</v>
       </c>
-      <c r="BK84" s="20"/>
-      <c r="BL84" s="20"/>
-      <c r="BM84" s="20"/>
-      <c r="BN84" s="19">
+      <c r="BK84" s="21"/>
+      <c r="BL84" s="21"/>
+      <c r="BM84" s="21"/>
+      <c r="BN84" s="20">
         <v>2016</v>
       </c>
-      <c r="BO84" s="20"/>
-      <c r="BP84" s="20"/>
-      <c r="BQ84" s="20"/>
-      <c r="BR84" s="19">
+      <c r="BO84" s="21"/>
+      <c r="BP84" s="21"/>
+      <c r="BQ84" s="21"/>
+      <c r="BR84" s="20">
         <v>2017</v>
       </c>
-      <c r="BS84" s="20"/>
-      <c r="BT84" s="20"/>
-      <c r="BU84" s="20"/>
-      <c r="BV84" s="19">
+      <c r="BS84" s="21"/>
+      <c r="BT84" s="21"/>
+      <c r="BU84" s="21"/>
+      <c r="BV84" s="20">
         <v>2018</v>
       </c>
-      <c r="BW84" s="20"/>
-      <c r="BX84" s="20"/>
-      <c r="BY84" s="20"/>
-      <c r="BZ84" s="19">
+      <c r="BW84" s="21"/>
+      <c r="BX84" s="21"/>
+      <c r="BY84" s="21"/>
+      <c r="BZ84" s="20">
         <v>2019</v>
       </c>
-      <c r="CA84" s="20"/>
-      <c r="CB84" s="20"/>
-      <c r="CC84" s="20"/>
-      <c r="CD84" s="19">
+      <c r="CA84" s="21"/>
+      <c r="CB84" s="21"/>
+      <c r="CC84" s="21"/>
+      <c r="CD84" s="20">
         <v>2020</v>
       </c>
       <c r="CE84" s="20"/>
       <c r="CF84" s="20"/>
       <c r="CG84" s="20"/>
-      <c r="CH84" s="19">
+      <c r="CH84" s="20">
         <v>2021</v>
       </c>
       <c r="CI84" s="20"/>
       <c r="CJ84" s="20"/>
       <c r="CK84" s="20"/>
-      <c r="CL84" s="19">
+      <c r="CL84" s="20">
         <v>2022</v>
       </c>
       <c r="CM84" s="20"/>
       <c r="CN84" s="20"/>
       <c r="CO84" s="20"/>
+      <c r="CP84" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -35872,6 +35856,9 @@
       </c>
       <c r="CO85" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP85" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35956,18 +35943,6 @@
       <c r="CA86" s="3"/>
       <c r="CB86" s="3"/>
       <c r="CC86" s="3"/>
-      <c r="CD86" s="3"/>
-      <c r="CE86" s="3"/>
-      <c r="CF86" s="3"/>
-      <c r="CG86" s="3"/>
-      <c r="CH86" s="3"/>
-      <c r="CI86" s="3"/>
-      <c r="CJ86" s="3"/>
-      <c r="CK86" s="3"/>
-      <c r="CL86" s="3"/>
-      <c r="CM86" s="3"/>
-      <c r="CN86" s="3"/>
-      <c r="CO86" s="3"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36249,7 +36224,9 @@
       <c r="CO87" s="12">
         <v>128.683257464295</v>
       </c>
-      <c r="CP87" s="17"/>
+      <c r="CP87" s="12">
+        <v>110.28127685308264</v>
+      </c>
       <c r="CQ87" s="17"/>
       <c r="CR87" s="17"/>
       <c r="CS87" s="17"/>
@@ -36588,7 +36565,9 @@
       <c r="CO88" s="12">
         <v>114.8015461246719</v>
       </c>
-      <c r="CP88" s="17"/>
+      <c r="CP88" s="12">
+        <v>100.94867390346553</v>
+      </c>
       <c r="CQ88" s="17"/>
       <c r="CR88" s="17"/>
       <c r="CS88" s="17"/>
@@ -36740,7 +36719,7 @@
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
-      <c r="CP89" s="17"/>
+      <c r="CP89" s="11"/>
       <c r="CQ89" s="17"/>
       <c r="CR89" s="17"/>
       <c r="CS89" s="17"/>
@@ -37079,7 +37058,9 @@
       <c r="CO90" s="12">
         <v>124.19402573527888</v>
       </c>
-      <c r="CP90" s="17"/>
+      <c r="CP90" s="12">
+        <v>107.35189436579063</v>
+      </c>
       <c r="CQ90" s="17"/>
       <c r="CR90" s="17"/>
       <c r="CS90" s="17"/>
@@ -37232,6 +37213,7 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
+      <c r="CP91" s="9"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37317,18 +37299,6 @@
       <c r="CA92" s="3"/>
       <c r="CB92" s="3"/>
       <c r="CC92" s="3"/>
-      <c r="CD92" s="3"/>
-      <c r="CE92" s="3"/>
-      <c r="CF92" s="3"/>
-      <c r="CG92" s="3"/>
-      <c r="CH92" s="3"/>
-      <c r="CI92" s="3"/>
-      <c r="CJ92" s="3"/>
-      <c r="CK92" s="3"/>
-      <c r="CL92" s="3"/>
-      <c r="CM92" s="3"/>
-      <c r="CN92" s="3"/>
-      <c r="CO92" s="3"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -37423,6 +37393,7 @@
       <c r="CM93" s="3"/>
       <c r="CN93" s="3"/>
       <c r="CO93" s="3"/>
+      <c r="CP93" s="3"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -37517,6 +37488,7 @@
       <c r="CM94" s="3"/>
       <c r="CN94" s="3"/>
       <c r="CO94" s="3"/>
+      <c r="CP94" s="3"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -37614,6 +37586,7 @@
       <c r="CM95" s="3"/>
       <c r="CN95" s="3"/>
       <c r="CO95" s="3"/>
+      <c r="CP95" s="3"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -37711,10 +37684,11 @@
       <c r="CM96" s="3"/>
       <c r="CN96" s="3"/>
       <c r="CO96" s="3"/>
+      <c r="CP96" s="3"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -37808,6 +37782,7 @@
       <c r="CM97" s="3"/>
       <c r="CN97" s="3"/>
       <c r="CO97" s="3"/>
+      <c r="CP97" s="3"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -37903,6 +37878,7 @@
       <c r="CM98" s="3"/>
       <c r="CN98" s="3"/>
       <c r="CO98" s="3"/>
+      <c r="CP98" s="3"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -38000,10 +37976,11 @@
       <c r="CM99" s="3"/>
       <c r="CN99" s="3"/>
       <c r="CO99" s="3"/>
+      <c r="CP99" s="3"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -38097,6 +38074,7 @@
       <c r="CM100" s="3"/>
       <c r="CN100" s="3"/>
       <c r="CO100" s="3"/>
+      <c r="CP100" s="3"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38194,6 +38172,7 @@
       <c r="CM101" s="3"/>
       <c r="CN101" s="3"/>
       <c r="CO101" s="3"/>
+      <c r="CP101" s="3"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -38289,147 +38268,151 @@
       <c r="CM102" s="3"/>
       <c r="CN102" s="3"/>
       <c r="CO102" s="3"/>
+      <c r="CP102" s="3"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="19">
+      <c r="B103" s="20">
         <v>2000</v>
       </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="19">
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="20">
         <v>2001</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="19">
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="20">
         <v>2002</v>
       </c>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="19">
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="20">
         <v>2003</v>
       </c>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="19">
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="20">
         <v>2004</v>
       </c>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="19">
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="20">
         <v>2005</v>
       </c>
-      <c r="W103" s="20"/>
-      <c r="X103" s="20"/>
-      <c r="Y103" s="20"/>
-      <c r="Z103" s="19">
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="20">
         <v>2006</v>
       </c>
-      <c r="AA103" s="20"/>
-      <c r="AB103" s="20"/>
-      <c r="AC103" s="20"/>
-      <c r="AD103" s="19">
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="20">
         <v>2007</v>
       </c>
-      <c r="AE103" s="20"/>
-      <c r="AF103" s="20"/>
-      <c r="AG103" s="20"/>
-      <c r="AH103" s="19">
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="20">
         <v>2008</v>
       </c>
-      <c r="AI103" s="20"/>
-      <c r="AJ103" s="20"/>
-      <c r="AK103" s="20"/>
-      <c r="AL103" s="19">
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="21"/>
+      <c r="AK103" s="21"/>
+      <c r="AL103" s="20">
         <v>2009</v>
       </c>
-      <c r="AM103" s="20"/>
-      <c r="AN103" s="20"/>
-      <c r="AO103" s="20"/>
-      <c r="AP103" s="19">
+      <c r="AM103" s="21"/>
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="20"/>
-      <c r="AR103" s="20"/>
-      <c r="AS103" s="20"/>
-      <c r="AT103" s="19">
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="21"/>
+      <c r="AT103" s="20">
         <v>2011</v>
       </c>
-      <c r="AU103" s="20"/>
-      <c r="AV103" s="20"/>
-      <c r="AW103" s="20"/>
-      <c r="AX103" s="19">
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="21"/>
+      <c r="AX103" s="20">
         <v>2012</v>
       </c>
-      <c r="AY103" s="20"/>
-      <c r="AZ103" s="20"/>
-      <c r="BA103" s="20"/>
-      <c r="BB103" s="19">
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="21"/>
+      <c r="BA103" s="21"/>
+      <c r="BB103" s="20">
         <v>2013</v>
       </c>
-      <c r="BC103" s="20"/>
-      <c r="BD103" s="20"/>
-      <c r="BE103" s="20"/>
-      <c r="BF103" s="19">
+      <c r="BC103" s="21"/>
+      <c r="BD103" s="21"/>
+      <c r="BE103" s="21"/>
+      <c r="BF103" s="20">
         <v>2014</v>
       </c>
-      <c r="BG103" s="20"/>
-      <c r="BH103" s="20"/>
-      <c r="BI103" s="20"/>
-      <c r="BJ103" s="19">
+      <c r="BG103" s="21"/>
+      <c r="BH103" s="21"/>
+      <c r="BI103" s="21"/>
+      <c r="BJ103" s="20">
         <v>2015</v>
       </c>
-      <c r="BK103" s="20"/>
-      <c r="BL103" s="20"/>
-      <c r="BM103" s="20"/>
-      <c r="BN103" s="19">
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="21"/>
+      <c r="BM103" s="21"/>
+      <c r="BN103" s="20">
         <v>2016</v>
       </c>
-      <c r="BO103" s="20"/>
-      <c r="BP103" s="20"/>
-      <c r="BQ103" s="20"/>
-      <c r="BR103" s="19">
+      <c r="BO103" s="21"/>
+      <c r="BP103" s="21"/>
+      <c r="BQ103" s="21"/>
+      <c r="BR103" s="20">
         <v>2017</v>
       </c>
-      <c r="BS103" s="20"/>
-      <c r="BT103" s="20"/>
-      <c r="BU103" s="20"/>
-      <c r="BV103" s="19">
+      <c r="BS103" s="21"/>
+      <c r="BT103" s="21"/>
+      <c r="BU103" s="21"/>
+      <c r="BV103" s="20">
         <v>2018</v>
       </c>
-      <c r="BW103" s="20"/>
-      <c r="BX103" s="20"/>
-      <c r="BY103" s="20"/>
-      <c r="BZ103" s="19">
+      <c r="BW103" s="21"/>
+      <c r="BX103" s="21"/>
+      <c r="BY103" s="21"/>
+      <c r="BZ103" s="20">
         <v>2019</v>
       </c>
-      <c r="CA103" s="20"/>
-      <c r="CB103" s="20"/>
-      <c r="CC103" s="20"/>
-      <c r="CD103" s="19">
+      <c r="CA103" s="21"/>
+      <c r="CB103" s="21"/>
+      <c r="CC103" s="21"/>
+      <c r="CD103" s="20">
         <v>2020</v>
       </c>
       <c r="CE103" s="20"/>
       <c r="CF103" s="20"/>
       <c r="CG103" s="20"/>
-      <c r="CH103" s="19">
+      <c r="CH103" s="20">
         <v>2021</v>
       </c>
       <c r="CI103" s="20"/>
       <c r="CJ103" s="20"/>
       <c r="CK103" s="20"/>
-      <c r="CL103" s="19">
+      <c r="CL103" s="20">
         <v>2022</v>
       </c>
       <c r="CM103" s="20"/>
       <c r="CN103" s="20"/>
       <c r="CO103" s="20"/>
+      <c r="CP103" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -38710,6 +38693,9 @@
       </c>
       <c r="CO104" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP104" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38806,6 +38792,7 @@
       <c r="CM105" s="3"/>
       <c r="CN105" s="3"/>
       <c r="CO105" s="3"/>
+      <c r="CP105" s="3"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39087,7 +39074,9 @@
       <c r="CO106" s="12">
         <v>70.10654953090652</v>
       </c>
-      <c r="CP106" s="17"/>
+      <c r="CP106" s="12">
+        <v>70.483544946168436</v>
+      </c>
       <c r="CQ106" s="17"/>
       <c r="CR106" s="17"/>
       <c r="CS106" s="17"/>
@@ -39430,7 +39419,9 @@
       <c r="CO107" s="12">
         <v>29.893450469093487</v>
       </c>
-      <c r="CP107" s="17"/>
+      <c r="CP107" s="12">
+        <v>29.516455053831571</v>
+      </c>
       <c r="CQ107" s="17"/>
       <c r="CR107" s="17"/>
       <c r="CS107" s="17"/>
@@ -39586,7 +39577,7 @@
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
-      <c r="CP108" s="17"/>
+      <c r="CP108" s="11"/>
       <c r="CQ108" s="17"/>
       <c r="CR108" s="17"/>
       <c r="CS108" s="17"/>
@@ -39929,7 +39920,9 @@
       <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="17"/>
+      <c r="CP109" s="12">
+        <v>100</v>
+      </c>
       <c r="CQ109" s="17"/>
       <c r="CR109" s="17"/>
       <c r="CS109" s="17"/>
@@ -40086,6 +40079,7 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
+      <c r="CP110" s="9"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -40183,6 +40177,7 @@
       <c r="CM111" s="3"/>
       <c r="CN111" s="3"/>
       <c r="CO111" s="3"/>
+      <c r="CP111" s="3"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -40277,7 +40272,7 @@
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
-      <c r="CP112" s="17"/>
+      <c r="CP112" s="11"/>
       <c r="CQ112" s="17"/>
       <c r="CR112" s="17"/>
       <c r="CS112" s="17"/>
@@ -40433,7 +40428,7 @@
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
-      <c r="CP113" s="17"/>
+      <c r="CP113" s="11"/>
       <c r="CQ113" s="17"/>
       <c r="CR113" s="17"/>
       <c r="CS113" s="17"/>
@@ -40592,6 +40587,7 @@
       <c r="CM114" s="3"/>
       <c r="CN114" s="3"/>
       <c r="CO114" s="3"/>
+      <c r="CP114" s="3"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -40689,10 +40685,11 @@
       <c r="CM115" s="3"/>
       <c r="CN115" s="3"/>
       <c r="CO115" s="3"/>
+      <c r="CP115" s="3"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -40786,6 +40783,7 @@
       <c r="CM116" s="3"/>
       <c r="CN116" s="3"/>
       <c r="CO116" s="3"/>
+      <c r="CP116" s="3"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -40881,6 +40879,7 @@
       <c r="CM117" s="3"/>
       <c r="CN117" s="3"/>
       <c r="CO117" s="3"/>
+      <c r="CP117" s="3"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -40978,10 +40977,11 @@
       <c r="CM118" s="3"/>
       <c r="CN118" s="3"/>
       <c r="CO118" s="3"/>
+      <c r="CP118" s="3"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -41075,6 +41075,7 @@
       <c r="CM119" s="3"/>
       <c r="CN119" s="3"/>
       <c r="CO119" s="3"/>
+      <c r="CP119" s="3"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -41172,6 +41173,7 @@
       <c r="CM120" s="3"/>
       <c r="CN120" s="3"/>
       <c r="CO120" s="3"/>
+      <c r="CP120" s="3"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -41267,147 +41269,151 @@
       <c r="CM121" s="3"/>
       <c r="CN121" s="3"/>
       <c r="CO121" s="3"/>
+      <c r="CP121" s="3"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="19">
+      <c r="B122" s="20">
         <v>2000</v>
       </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="19">
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="20">
         <v>2001</v>
       </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="19">
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="20">
         <v>2002</v>
       </c>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="19">
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="20">
         <v>2003</v>
       </c>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="19">
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="20">
         <v>2004</v>
       </c>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
-      <c r="V122" s="19">
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="20">
         <v>2005</v>
       </c>
-      <c r="W122" s="20"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="20"/>
-      <c r="Z122" s="19">
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+      <c r="Z122" s="20">
         <v>2006</v>
       </c>
-      <c r="AA122" s="20"/>
-      <c r="AB122" s="20"/>
-      <c r="AC122" s="20"/>
-      <c r="AD122" s="19">
+      <c r="AA122" s="21"/>
+      <c r="AB122" s="21"/>
+      <c r="AC122" s="21"/>
+      <c r="AD122" s="20">
         <v>2007</v>
       </c>
-      <c r="AE122" s="20"/>
-      <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
-      <c r="AH122" s="19">
+      <c r="AE122" s="21"/>
+      <c r="AF122" s="21"/>
+      <c r="AG122" s="21"/>
+      <c r="AH122" s="20">
         <v>2008</v>
       </c>
-      <c r="AI122" s="20"/>
-      <c r="AJ122" s="20"/>
-      <c r="AK122" s="20"/>
-      <c r="AL122" s="19">
+      <c r="AI122" s="21"/>
+      <c r="AJ122" s="21"/>
+      <c r="AK122" s="21"/>
+      <c r="AL122" s="20">
         <v>2009</v>
       </c>
-      <c r="AM122" s="20"/>
-      <c r="AN122" s="20"/>
-      <c r="AO122" s="20"/>
-      <c r="AP122" s="19">
+      <c r="AM122" s="21"/>
+      <c r="AN122" s="21"/>
+      <c r="AO122" s="21"/>
+      <c r="AP122" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="20"/>
-      <c r="AR122" s="20"/>
-      <c r="AS122" s="20"/>
-      <c r="AT122" s="19">
+      <c r="AQ122" s="21"/>
+      <c r="AR122" s="21"/>
+      <c r="AS122" s="21"/>
+      <c r="AT122" s="20">
         <v>2011</v>
       </c>
-      <c r="AU122" s="20"/>
-      <c r="AV122" s="20"/>
-      <c r="AW122" s="20"/>
-      <c r="AX122" s="19">
+      <c r="AU122" s="21"/>
+      <c r="AV122" s="21"/>
+      <c r="AW122" s="21"/>
+      <c r="AX122" s="20">
         <v>2012</v>
       </c>
-      <c r="AY122" s="20"/>
-      <c r="AZ122" s="20"/>
-      <c r="BA122" s="20"/>
-      <c r="BB122" s="19">
+      <c r="AY122" s="21"/>
+      <c r="AZ122" s="21"/>
+      <c r="BA122" s="21"/>
+      <c r="BB122" s="20">
         <v>2013</v>
       </c>
-      <c r="BC122" s="20"/>
-      <c r="BD122" s="20"/>
-      <c r="BE122" s="20"/>
-      <c r="BF122" s="19">
+      <c r="BC122" s="21"/>
+      <c r="BD122" s="21"/>
+      <c r="BE122" s="21"/>
+      <c r="BF122" s="20">
         <v>2014</v>
       </c>
-      <c r="BG122" s="20"/>
-      <c r="BH122" s="20"/>
-      <c r="BI122" s="20"/>
-      <c r="BJ122" s="19">
+      <c r="BG122" s="21"/>
+      <c r="BH122" s="21"/>
+      <c r="BI122" s="21"/>
+      <c r="BJ122" s="20">
         <v>2015</v>
       </c>
-      <c r="BK122" s="20"/>
-      <c r="BL122" s="20"/>
-      <c r="BM122" s="20"/>
-      <c r="BN122" s="19">
+      <c r="BK122" s="21"/>
+      <c r="BL122" s="21"/>
+      <c r="BM122" s="21"/>
+      <c r="BN122" s="20">
         <v>2016</v>
       </c>
-      <c r="BO122" s="20"/>
-      <c r="BP122" s="20"/>
-      <c r="BQ122" s="20"/>
-      <c r="BR122" s="19">
+      <c r="BO122" s="21"/>
+      <c r="BP122" s="21"/>
+      <c r="BQ122" s="21"/>
+      <c r="BR122" s="20">
         <v>2017</v>
       </c>
-      <c r="BS122" s="20"/>
-      <c r="BT122" s="20"/>
-      <c r="BU122" s="20"/>
-      <c r="BV122" s="19">
+      <c r="BS122" s="21"/>
+      <c r="BT122" s="21"/>
+      <c r="BU122" s="21"/>
+      <c r="BV122" s="20">
         <v>2018</v>
       </c>
-      <c r="BW122" s="20"/>
-      <c r="BX122" s="20"/>
-      <c r="BY122" s="20"/>
-      <c r="BZ122" s="19">
+      <c r="BW122" s="21"/>
+      <c r="BX122" s="21"/>
+      <c r="BY122" s="21"/>
+      <c r="BZ122" s="20">
         <v>2019</v>
       </c>
-      <c r="CA122" s="20"/>
-      <c r="CB122" s="20"/>
-      <c r="CC122" s="20"/>
-      <c r="CD122" s="19">
+      <c r="CA122" s="21"/>
+      <c r="CB122" s="21"/>
+      <c r="CC122" s="21"/>
+      <c r="CD122" s="20">
         <v>2020</v>
       </c>
       <c r="CE122" s="20"/>
       <c r="CF122" s="20"/>
       <c r="CG122" s="20"/>
-      <c r="CH122" s="19">
+      <c r="CH122" s="20">
         <v>2021</v>
       </c>
       <c r="CI122" s="20"/>
       <c r="CJ122" s="20"/>
       <c r="CK122" s="20"/>
-      <c r="CL122" s="19">
+      <c r="CL122" s="20">
         <v>2022</v>
       </c>
       <c r="CM122" s="20"/>
       <c r="CN122" s="20"/>
       <c r="CO122" s="20"/>
+      <c r="CP122" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -41688,6 +41694,9 @@
       </c>
       <c r="CO123" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP123" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41784,6 +41793,7 @@
       <c r="CM124" s="3"/>
       <c r="CN124" s="3"/>
       <c r="CO124" s="3"/>
+      <c r="CP124" s="3"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -42065,7 +42075,9 @@
       <c r="CO125" s="12">
         <v>67.660819194515952</v>
       </c>
-      <c r="CP125" s="17"/>
+      <c r="CP125" s="12">
+        <v>68.611302729725551</v>
+      </c>
       <c r="CQ125" s="17"/>
       <c r="CR125" s="17"/>
       <c r="CS125" s="17"/>
@@ -42408,7 +42420,9 @@
       <c r="CO126" s="12">
         <v>32.339180805484055</v>
       </c>
-      <c r="CP126" s="17"/>
+      <c r="CP126" s="12">
+        <v>31.388697270274442</v>
+      </c>
       <c r="CQ126" s="17"/>
       <c r="CR126" s="17"/>
       <c r="CS126" s="17"/>
@@ -42564,7 +42578,7 @@
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
-      <c r="CP127" s="17"/>
+      <c r="CP127" s="11"/>
       <c r="CQ127" s="17"/>
       <c r="CR127" s="17"/>
       <c r="CS127" s="17"/>
@@ -42907,7 +42921,9 @@
       <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="17"/>
+      <c r="CP128" s="12">
+        <v>100</v>
+      </c>
       <c r="CQ128" s="17"/>
       <c r="CR128" s="17"/>
       <c r="CS128" s="17"/>
@@ -42970,7 +42986,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:93" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:94" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -43064,8 +43080,9 @@
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
+      <c r="CP129" s="9"/>
     </row>
-    <row r="130" spans="1:93" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:94" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -43161,9 +43178,10 @@
       <c r="CM130" s="3"/>
       <c r="CN130" s="3"/>
       <c r="CO130" s="3"/>
+      <c r="CP130" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="BF103:BI103"/>
     <mergeCell ref="BJ103:BM103"/>
     <mergeCell ref="BN103:BQ103"/>
@@ -43323,17 +43341,15 @@
     <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CL66:CO66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="92" man="1"/>
-    <brk id="76" max="92" man="1"/>
-    <brk id="94" max="92" man="1"/>
+    <brk id="38" max="93" man="1"/>
+    <brk id="76" max="93" man="1"/>
+    <brk id="94" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB223E7A-BD3C-4D25-B2DC-500EBB9F8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2C9A0-98A9-4EAF-9F9D-5CEFE0010ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CP$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CQ$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -752,10 +752,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23619,15 +23619,15 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CR9" sqref="CR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="94" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="15"/>
+    <col min="2" max="95" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23758,150 +23758,152 @@
       <c r="CN8" s="3"/>
       <c r="CO8" s="3"/>
       <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="20"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="20"/>
-      <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
       <c r="CP9" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="21"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24185,6 +24187,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24282,6 +24287,7 @@
       <c r="CN11" s="3"/>
       <c r="CO11" s="3"/>
       <c r="CP11" s="3"/>
+      <c r="CQ11" s="3"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24566,7 +24572,9 @@
       <c r="CP12" s="13">
         <v>160239.5991545516</v>
       </c>
-      <c r="CQ12" s="17"/>
+      <c r="CQ12" s="13">
+        <v>193170.67265058804</v>
+      </c>
       <c r="CR12" s="17"/>
       <c r="CS12" s="17"/>
       <c r="CT12" s="17"/>
@@ -24909,9 +24917,11 @@
         <v>69060.72654017483</v>
       </c>
       <c r="CP13" s="13">
-        <v>67103.675473496769</v>
-      </c>
-      <c r="CQ13" s="17"/>
+        <v>68692.300594161963</v>
+      </c>
+      <c r="CQ13" s="13">
+        <v>72288.843088410154</v>
+      </c>
       <c r="CR13" s="17"/>
       <c r="CS13" s="17"/>
       <c r="CT13" s="17"/>
@@ -25067,7 +25077,7 @@
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
       <c r="CP14" s="11"/>
-      <c r="CQ14" s="17"/>
+      <c r="CQ14" s="11"/>
       <c r="CR14" s="17"/>
       <c r="CS14" s="17"/>
       <c r="CT14" s="17"/>
@@ -25410,9 +25420,11 @@
         <v>231022.93464441641</v>
       </c>
       <c r="CP15" s="14">
-        <v>227343.27462804836</v>
-      </c>
-      <c r="CQ15" s="17"/>
+        <v>228931.89974871356</v>
+      </c>
+      <c r="CQ15" s="14">
+        <v>265459.51573899819</v>
+      </c>
       <c r="CR15" s="17"/>
       <c r="CS15" s="17"/>
       <c r="CT15" s="17"/>
@@ -25569,6 +25581,7 @@
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25667,6 +25680,7 @@
       <c r="CN17" s="3"/>
       <c r="CO17" s="3"/>
       <c r="CP17" s="3"/>
+      <c r="CQ17" s="3"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25762,7 +25776,7 @@
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
       <c r="CP18" s="11"/>
-      <c r="CQ18" s="17"/>
+      <c r="CQ18" s="11"/>
       <c r="CR18" s="17"/>
       <c r="CS18" s="17"/>
       <c r="CT18" s="17"/>
@@ -25918,7 +25932,7 @@
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
       <c r="CP19" s="11"/>
-      <c r="CQ19" s="17"/>
+      <c r="CQ19" s="11"/>
       <c r="CR19" s="17"/>
       <c r="CS19" s="17"/>
       <c r="CT19" s="17"/>
@@ -26077,6 +26091,7 @@
       <c r="CN20" s="3"/>
       <c r="CO20" s="3"/>
       <c r="CP20" s="3"/>
+      <c r="CQ20" s="3"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26175,6 +26190,7 @@
       <c r="CN21" s="3"/>
       <c r="CO21" s="3"/>
       <c r="CP21" s="3"/>
+      <c r="CQ21" s="3"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -26273,6 +26289,7 @@
       <c r="CN22" s="3"/>
       <c r="CO22" s="3"/>
       <c r="CP22" s="3"/>
+      <c r="CQ22" s="3"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26369,6 +26386,7 @@
       <c r="CN23" s="3"/>
       <c r="CO23" s="3"/>
       <c r="CP23" s="3"/>
+      <c r="CQ23" s="3"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26467,6 +26485,7 @@
       <c r="CN24" s="3"/>
       <c r="CO24" s="3"/>
       <c r="CP24" s="3"/>
+      <c r="CQ24" s="3"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -26565,6 +26584,7 @@
       <c r="CN25" s="3"/>
       <c r="CO25" s="3"/>
       <c r="CP25" s="3"/>
+      <c r="CQ25" s="3"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26663,6 +26683,7 @@
       <c r="CN26" s="3"/>
       <c r="CO26" s="3"/>
       <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26759,150 +26780,152 @@
       <c r="CN27" s="3"/>
       <c r="CO27" s="3"/>
       <c r="CP27" s="3"/>
+      <c r="CQ27" s="3"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>2000</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19">
         <v>2001</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="20">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19">
         <v>2002</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="20">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="19">
         <v>2003</v>
       </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="20">
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="19">
         <v>2004</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="20">
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="19">
         <v>2005</v>
       </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="20">
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="19">
         <v>2006</v>
       </c>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="20">
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="19">
         <v>2007</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="20">
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="19">
         <v>2008</v>
       </c>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="20">
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="19">
         <v>2009</v>
       </c>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="20">
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="20">
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="19">
         <v>2011</v>
       </c>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="20">
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="19">
         <v>2012</v>
       </c>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="20">
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="19">
         <v>2013</v>
       </c>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="20">
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="19">
         <v>2014</v>
       </c>
-      <c r="BG28" s="21"/>
-      <c r="BH28" s="21"/>
-      <c r="BI28" s="21"/>
-      <c r="BJ28" s="20">
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="19">
         <v>2015</v>
       </c>
-      <c r="BK28" s="21"/>
-      <c r="BL28" s="21"/>
-      <c r="BM28" s="21"/>
-      <c r="BN28" s="20">
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="19">
         <v>2016</v>
       </c>
-      <c r="BO28" s="21"/>
-      <c r="BP28" s="21"/>
-      <c r="BQ28" s="21"/>
-      <c r="BR28" s="20">
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="19">
         <v>2017</v>
       </c>
-      <c r="BS28" s="21"/>
-      <c r="BT28" s="21"/>
-      <c r="BU28" s="21"/>
-      <c r="BV28" s="20">
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="19">
         <v>2018</v>
       </c>
-      <c r="BW28" s="21"/>
-      <c r="BX28" s="21"/>
-      <c r="BY28" s="21"/>
-      <c r="BZ28" s="20">
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="19">
         <v>2019</v>
       </c>
-      <c r="CA28" s="21"/>
-      <c r="CB28" s="21"/>
-      <c r="CC28" s="21"/>
-      <c r="CD28" s="20">
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="19">
         <v>2020</v>
       </c>
-      <c r="CE28" s="20"/>
-      <c r="CF28" s="20"/>
-      <c r="CG28" s="20"/>
-      <c r="CH28" s="20">
+      <c r="CE28" s="19"/>
+      <c r="CF28" s="19"/>
+      <c r="CG28" s="19"/>
+      <c r="CH28" s="19">
         <v>2021</v>
       </c>
-      <c r="CI28" s="20"/>
-      <c r="CJ28" s="20"/>
-      <c r="CK28" s="20"/>
-      <c r="CL28" s="20">
+      <c r="CI28" s="19"/>
+      <c r="CJ28" s="19"/>
+      <c r="CK28" s="19"/>
+      <c r="CL28" s="19">
         <v>2022</v>
       </c>
-      <c r="CM28" s="20"/>
-      <c r="CN28" s="20"/>
-      <c r="CO28" s="20"/>
+      <c r="CM28" s="19"/>
+      <c r="CN28" s="19"/>
+      <c r="CO28" s="19"/>
       <c r="CP28" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ28" s="21"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27186,6 +27209,9 @@
       </c>
       <c r="CP29" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ29" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27283,6 +27309,7 @@
       <c r="CN30" s="3"/>
       <c r="CO30" s="3"/>
       <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27567,7 +27594,9 @@
       <c r="CP31" s="13">
         <v>145300.81961965648</v>
       </c>
-      <c r="CQ31" s="17"/>
+      <c r="CQ31" s="13">
+        <v>173597.42512971928</v>
+      </c>
       <c r="CR31" s="17"/>
       <c r="CS31" s="17"/>
       <c r="CT31" s="17"/>
@@ -27910,9 +27939,11 @@
         <v>60156.617111390151</v>
       </c>
       <c r="CP32" s="13">
-        <v>66473.062873184623</v>
-      </c>
-      <c r="CQ32" s="17"/>
+        <v>68051.329022264807</v>
+      </c>
+      <c r="CQ32" s="13">
+        <v>69967.894016315753</v>
+      </c>
       <c r="CR32" s="17"/>
       <c r="CS32" s="17"/>
       <c r="CT32" s="17"/>
@@ -28068,7 +28099,7 @@
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
       <c r="CP33" s="11"/>
-      <c r="CQ33" s="17"/>
+      <c r="CQ33" s="11"/>
       <c r="CR33" s="17"/>
       <c r="CS33" s="17"/>
       <c r="CT33" s="17"/>
@@ -28411,9 +28442,11 @@
         <v>186017.75188191794</v>
       </c>
       <c r="CP34" s="14">
-        <v>211773.8824928411</v>
-      </c>
-      <c r="CQ34" s="17"/>
+        <v>213352.14864192129</v>
+      </c>
+      <c r="CQ34" s="14">
+        <v>243565.31914603504</v>
+      </c>
       <c r="CR34" s="17"/>
       <c r="CS34" s="17"/>
       <c r="CT34" s="17"/>
@@ -28570,6 +28603,7 @@
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
+      <c r="CQ35" s="9"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28668,6 +28702,7 @@
       <c r="CN36" s="3"/>
       <c r="CO36" s="3"/>
       <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -28763,7 +28798,7 @@
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
       <c r="CP37" s="11"/>
-      <c r="CQ37" s="17"/>
+      <c r="CQ37" s="11"/>
       <c r="CR37" s="17"/>
       <c r="CS37" s="17"/>
       <c r="CT37" s="17"/>
@@ -28919,7 +28954,7 @@
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
       <c r="CP38" s="11"/>
-      <c r="CQ38" s="17"/>
+      <c r="CQ38" s="11"/>
       <c r="CR38" s="17"/>
       <c r="CS38" s="17"/>
       <c r="CT38" s="17"/>
@@ -29078,6 +29113,7 @@
       <c r="CN39" s="3"/>
       <c r="CO39" s="3"/>
       <c r="CP39" s="3"/>
+      <c r="CQ39" s="3"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29176,6 +29212,7 @@
       <c r="CN40" s="3"/>
       <c r="CO40" s="3"/>
       <c r="CP40" s="3"/>
+      <c r="CQ40" s="3"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -29274,6 +29311,7 @@
       <c r="CN41" s="3"/>
       <c r="CO41" s="3"/>
       <c r="CP41" s="3"/>
+      <c r="CQ41" s="3"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29370,6 +29408,7 @@
       <c r="CN42" s="3"/>
       <c r="CO42" s="3"/>
       <c r="CP42" s="3"/>
+      <c r="CQ42" s="3"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29468,6 +29507,7 @@
       <c r="CN43" s="3"/>
       <c r="CO43" s="3"/>
       <c r="CP43" s="3"/>
+      <c r="CQ43" s="3"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -29734,141 +29774,142 @@
       <c r="CN46" s="3"/>
       <c r="CO46" s="3"/>
       <c r="CP46" s="3"/>
+      <c r="CQ46" s="3"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20" t="s">
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20" t="s">
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20" t="s">
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20" t="s">
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20" t="s">
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="20" t="s">
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20" t="s">
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="20" t="s">
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
-      <c r="AS47" s="20"/>
-      <c r="AT47" s="20" t="s">
+      <c r="AQ47" s="19"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="20"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="20" t="s">
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="20"/>
-      <c r="AZ47" s="20"/>
-      <c r="BA47" s="20"/>
-      <c r="BB47" s="20" t="s">
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="19"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="20"/>
-      <c r="BE47" s="20"/>
-      <c r="BF47" s="20" t="s">
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="19"/>
+      <c r="BF47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="20"/>
-      <c r="BH47" s="20"/>
-      <c r="BI47" s="20"/>
-      <c r="BJ47" s="20" t="s">
+      <c r="BG47" s="19"/>
+      <c r="BH47" s="19"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="20"/>
-      <c r="BL47" s="20"/>
-      <c r="BM47" s="20"/>
-      <c r="BN47" s="20" t="s">
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="19"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="20"/>
-      <c r="BP47" s="20"/>
-      <c r="BQ47" s="20"/>
-      <c r="BR47" s="20" t="s">
+      <c r="BO47" s="19"/>
+      <c r="BP47" s="19"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="20"/>
-      <c r="BT47" s="20"/>
-      <c r="BU47" s="20"/>
-      <c r="BV47" s="20" t="s">
+      <c r="BS47" s="19"/>
+      <c r="BT47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="BV47" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="20"/>
-      <c r="BX47" s="20"/>
-      <c r="BY47" s="20"/>
-      <c r="BZ47" s="20" t="s">
+      <c r="BW47" s="19"/>
+      <c r="BX47" s="19"/>
+      <c r="BY47" s="19"/>
+      <c r="BZ47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="20"/>
-      <c r="CB47" s="20"/>
-      <c r="CC47" s="20"/>
-      <c r="CD47" s="20" t="s">
+      <c r="CA47" s="19"/>
+      <c r="CB47" s="19"/>
+      <c r="CC47" s="19"/>
+      <c r="CD47" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="20"/>
-      <c r="CF47" s="20"/>
-      <c r="CG47" s="20"/>
-      <c r="CH47" s="20" t="s">
+      <c r="CE47" s="19"/>
+      <c r="CF47" s="19"/>
+      <c r="CG47" s="19"/>
+      <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="20"/>
-      <c r="CJ47" s="20"/>
-      <c r="CK47" s="20"/>
+      <c r="CI47" s="19"/>
+      <c r="CJ47" s="19"/>
+      <c r="CK47" s="19"/>
       <c r="CL47" s="19" t="s">
         <v>48</v>
       </c>
@@ -29876,6 +29917,7 @@
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
       <c r="CP47" s="19"/>
+      <c r="CQ47" s="21"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30148,10 +30190,13 @@
       <c r="CL48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5"/>
+      <c r="CM48" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN48" s="5"/>
       <c r="CO48" s="5"/>
       <c r="CP48" s="5"/>
+      <c r="CQ48" s="5"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30248,6 +30293,7 @@
       <c r="CN49" s="3"/>
       <c r="CO49" s="3"/>
       <c r="CP49" s="3"/>
+      <c r="CQ49" s="3"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30520,11 +30566,13 @@
       <c r="CL50" s="12">
         <v>8.9045740817916794</v>
       </c>
-      <c r="CM50" s="12"/>
+      <c r="CM50" s="12">
+        <v>9.6470243321747233</v>
+      </c>
       <c r="CN50" s="12"/>
       <c r="CO50" s="12"/>
       <c r="CP50" s="12"/>
-      <c r="CQ50" s="17"/>
+      <c r="CQ50" s="12"/>
       <c r="CR50" s="17"/>
       <c r="CS50" s="17"/>
       <c r="CT50" s="17"/>
@@ -30851,13 +30899,15 @@
         <v>8.8656599021623492</v>
       </c>
       <c r="CL51" s="12">
-        <v>11.254969309287205</v>
-      </c>
-      <c r="CM51" s="12"/>
+        <v>13.888840521205779</v>
+      </c>
+      <c r="CM51" s="12">
+        <v>13.235949471060152</v>
+      </c>
       <c r="CN51" s="12"/>
       <c r="CO51" s="12"/>
       <c r="CP51" s="12"/>
-      <c r="CQ51" s="17"/>
+      <c r="CQ51" s="12"/>
       <c r="CR51" s="17"/>
       <c r="CS51" s="17"/>
       <c r="CT51" s="17"/>
@@ -31010,7 +31060,7 @@
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
       <c r="CP52" s="11"/>
-      <c r="CQ52" s="17"/>
+      <c r="CQ52" s="11"/>
       <c r="CR52" s="17"/>
       <c r="CS52" s="17"/>
       <c r="CT52" s="17"/>
@@ -31337,13 +31387,15 @@
         <v>13.639076187838199</v>
       </c>
       <c r="CL53" s="12">
-        <v>9.5879322788219525</v>
-      </c>
-      <c r="CM53" s="12"/>
+        <v>10.353708800800575</v>
+      </c>
+      <c r="CM53" s="12">
+        <v>10.601609089781249</v>
+      </c>
       <c r="CN53" s="12"/>
       <c r="CO53" s="12"/>
       <c r="CP53" s="12"/>
-      <c r="CQ53" s="17"/>
+      <c r="CQ53" s="12"/>
       <c r="CR53" s="17"/>
       <c r="CS53" s="17"/>
       <c r="CT53" s="17"/>
@@ -31496,6 +31548,7 @@
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
+      <c r="CQ54" s="9"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -31594,6 +31647,7 @@
       <c r="CN55" s="3"/>
       <c r="CO55" s="3"/>
       <c r="CP55" s="3"/>
+      <c r="CQ55" s="3"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -31689,7 +31743,7 @@
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
       <c r="CP56" s="11"/>
-      <c r="CQ56" s="17"/>
+      <c r="CQ56" s="11"/>
       <c r="CR56" s="17"/>
       <c r="CS56" s="17"/>
       <c r="CT56" s="17"/>
@@ -31841,7 +31895,7 @@
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
       <c r="CP57" s="11"/>
-      <c r="CQ57" s="17"/>
+      <c r="CQ57" s="11"/>
       <c r="CR57" s="17"/>
       <c r="CS57" s="17"/>
       <c r="CT57" s="17"/>
@@ -31996,6 +32050,7 @@
       <c r="CN58" s="3"/>
       <c r="CO58" s="3"/>
       <c r="CP58" s="3"/>
+      <c r="CQ58" s="3"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32094,6 +32149,7 @@
       <c r="CN59" s="3"/>
       <c r="CO59" s="3"/>
       <c r="CP59" s="3"/>
+      <c r="CQ59" s="3"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
@@ -32192,6 +32248,7 @@
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
       <c r="CP60" s="3"/>
+      <c r="CQ60" s="3"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32288,6 +32345,7 @@
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
       <c r="CP61" s="3"/>
+      <c r="CQ61" s="3"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32386,6 +32444,7 @@
       <c r="CN62" s="3"/>
       <c r="CO62" s="3"/>
       <c r="CP62" s="3"/>
+      <c r="CQ62" s="3"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
@@ -32484,6 +32543,7 @@
       <c r="CN63" s="3"/>
       <c r="CO63" s="3"/>
       <c r="CP63" s="3"/>
+      <c r="CQ63" s="3"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -32582,6 +32642,7 @@
       <c r="CN64" s="3"/>
       <c r="CO64" s="3"/>
       <c r="CP64" s="3"/>
+      <c r="CQ64" s="3"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -32678,141 +32739,142 @@
       <c r="CN65" s="3"/>
       <c r="CO65" s="3"/>
       <c r="CP65" s="3"/>
+      <c r="CQ65" s="3"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20" t="s">
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20" t="s">
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20" t="s">
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20" t="s">
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20" t="s">
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="20" t="s">
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="20"/>
-      <c r="AG66" s="20"/>
-      <c r="AH66" s="20" t="s">
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="19"/>
+      <c r="AH66" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="20"/>
-      <c r="AJ66" s="20"/>
-      <c r="AK66" s="20"/>
-      <c r="AL66" s="20" t="s">
+      <c r="AI66" s="19"/>
+      <c r="AJ66" s="19"/>
+      <c r="AK66" s="19"/>
+      <c r="AL66" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="20"/>
-      <c r="AN66" s="20"/>
-      <c r="AO66" s="20"/>
-      <c r="AP66" s="20" t="s">
+      <c r="AM66" s="19"/>
+      <c r="AN66" s="19"/>
+      <c r="AO66" s="19"/>
+      <c r="AP66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="20"/>
-      <c r="AR66" s="20"/>
-      <c r="AS66" s="20"/>
-      <c r="AT66" s="20" t="s">
+      <c r="AQ66" s="19"/>
+      <c r="AR66" s="19"/>
+      <c r="AS66" s="19"/>
+      <c r="AT66" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="20"/>
-      <c r="AV66" s="20"/>
-      <c r="AW66" s="20"/>
-      <c r="AX66" s="20" t="s">
+      <c r="AU66" s="19"/>
+      <c r="AV66" s="19"/>
+      <c r="AW66" s="19"/>
+      <c r="AX66" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="20"/>
-      <c r="AZ66" s="20"/>
-      <c r="BA66" s="20"/>
-      <c r="BB66" s="20" t="s">
+      <c r="AY66" s="19"/>
+      <c r="AZ66" s="19"/>
+      <c r="BA66" s="19"/>
+      <c r="BB66" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="20"/>
-      <c r="BD66" s="20"/>
-      <c r="BE66" s="20"/>
-      <c r="BF66" s="20" t="s">
+      <c r="BC66" s="19"/>
+      <c r="BD66" s="19"/>
+      <c r="BE66" s="19"/>
+      <c r="BF66" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="20"/>
-      <c r="BH66" s="20"/>
-      <c r="BI66" s="20"/>
-      <c r="BJ66" s="20" t="s">
+      <c r="BG66" s="19"/>
+      <c r="BH66" s="19"/>
+      <c r="BI66" s="19"/>
+      <c r="BJ66" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="20"/>
-      <c r="BL66" s="20"/>
-      <c r="BM66" s="20"/>
-      <c r="BN66" s="20" t="s">
+      <c r="BK66" s="19"/>
+      <c r="BL66" s="19"/>
+      <c r="BM66" s="19"/>
+      <c r="BN66" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="20"/>
-      <c r="BP66" s="20"/>
-      <c r="BQ66" s="20"/>
-      <c r="BR66" s="20" t="s">
+      <c r="BO66" s="19"/>
+      <c r="BP66" s="19"/>
+      <c r="BQ66" s="19"/>
+      <c r="BR66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="20"/>
-      <c r="BT66" s="20"/>
-      <c r="BU66" s="20"/>
-      <c r="BV66" s="20" t="s">
+      <c r="BS66" s="19"/>
+      <c r="BT66" s="19"/>
+      <c r="BU66" s="19"/>
+      <c r="BV66" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="20"/>
-      <c r="BX66" s="20"/>
-      <c r="BY66" s="20"/>
-      <c r="BZ66" s="20" t="s">
+      <c r="BW66" s="19"/>
+      <c r="BX66" s="19"/>
+      <c r="BY66" s="19"/>
+      <c r="BZ66" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="20"/>
-      <c r="CB66" s="20"/>
-      <c r="CC66" s="20"/>
-      <c r="CD66" s="20" t="s">
+      <c r="CA66" s="19"/>
+      <c r="CB66" s="19"/>
+      <c r="CC66" s="19"/>
+      <c r="CD66" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="20"/>
-      <c r="CF66" s="20"/>
-      <c r="CG66" s="20"/>
-      <c r="CH66" s="20" t="s">
+      <c r="CE66" s="19"/>
+      <c r="CF66" s="19"/>
+      <c r="CG66" s="19"/>
+      <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="20"/>
-      <c r="CJ66" s="20"/>
-      <c r="CK66" s="20"/>
+      <c r="CI66" s="19"/>
+      <c r="CJ66" s="19"/>
+      <c r="CK66" s="19"/>
       <c r="CL66" s="19" t="s">
         <v>48</v>
       </c>
@@ -32820,6 +32882,7 @@
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
       <c r="CP66" s="19"/>
+      <c r="CQ66" s="21"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33092,10 +33155,13 @@
       <c r="CL67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5"/>
+      <c r="CM67" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN67" s="5"/>
       <c r="CO67" s="5"/>
       <c r="CP67" s="5"/>
+      <c r="CQ67" s="5"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33192,6 +33258,7 @@
       <c r="CN68" s="3"/>
       <c r="CO68" s="3"/>
       <c r="CP68" s="3"/>
+      <c r="CQ68" s="3"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33464,11 +33531,13 @@
       <c r="CL69" s="12">
         <v>4.9915013343150321</v>
       </c>
-      <c r="CM69" s="12"/>
+      <c r="CM69" s="12">
+        <v>5.2263007550360214</v>
+      </c>
       <c r="CN69" s="12"/>
       <c r="CO69" s="12"/>
       <c r="CP69" s="12"/>
-      <c r="CQ69" s="17"/>
+      <c r="CQ69" s="12"/>
       <c r="CR69" s="17"/>
       <c r="CS69" s="17"/>
       <c r="CT69" s="17"/>
@@ -33795,13 +33864,15 @@
         <v>5.9595037905697694</v>
       </c>
       <c r="CL70" s="12">
-        <v>7.6920241683218933</v>
-      </c>
-      <c r="CM70" s="12"/>
+        <v>10.248949769825217</v>
+      </c>
+      <c r="CM70" s="12">
+        <v>9.4252439616416837</v>
+      </c>
       <c r="CN70" s="12"/>
       <c r="CO70" s="12"/>
       <c r="CP70" s="12"/>
-      <c r="CQ70" s="17"/>
+      <c r="CQ70" s="12"/>
       <c r="CR70" s="17"/>
       <c r="CS70" s="17"/>
       <c r="CT70" s="17"/>
@@ -33953,7 +34024,7 @@
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
-      <c r="CQ71" s="17"/>
+      <c r="CQ71" s="11"/>
       <c r="CR71" s="17"/>
       <c r="CS71" s="17"/>
       <c r="CT71" s="17"/>
@@ -34280,13 +34351,15 @@
         <v>10.026205833215911</v>
       </c>
       <c r="CL72" s="12">
-        <v>5.8244604167240368</v>
-      </c>
-      <c r="CM72" s="12"/>
+        <v>6.613127846599582</v>
+      </c>
+      <c r="CM72" s="12">
+        <v>6.3991549020330183</v>
+      </c>
       <c r="CN72" s="12"/>
       <c r="CO72" s="12"/>
       <c r="CP72" s="12"/>
-      <c r="CQ72" s="17"/>
+      <c r="CQ72" s="12"/>
       <c r="CR72" s="17"/>
       <c r="CS72" s="17"/>
       <c r="CT72" s="17"/>
@@ -34439,6 +34512,7 @@
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
+      <c r="CQ73" s="9"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -34537,6 +34611,7 @@
       <c r="CN74" s="3"/>
       <c r="CO74" s="3"/>
       <c r="CP74" s="3"/>
+      <c r="CQ74" s="3"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -34631,8 +34706,8 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="17"/>
       <c r="CO75" s="17"/>
-      <c r="CP75" s="17"/>
-      <c r="CQ75" s="17"/>
+      <c r="CP75" s="11"/>
+      <c r="CQ75" s="11"/>
       <c r="CR75" s="17"/>
       <c r="CS75" s="17"/>
       <c r="CT75" s="17"/>
@@ -35435,147 +35510,148 @@
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="20">
+      <c r="B84" s="19">
         <v>2000</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="20">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="19">
         <v>2001</v>
       </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="20">
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="19">
         <v>2002</v>
       </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="20">
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="19">
         <v>2003</v>
       </c>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="20">
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="19">
         <v>2004</v>
       </c>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="20">
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="19">
         <v>2005</v>
       </c>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="20">
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="19">
         <v>2006</v>
       </c>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21"/>
-      <c r="AD84" s="20">
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="19">
         <v>2007</v>
       </c>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="21"/>
-      <c r="AH84" s="20">
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="19">
         <v>2008</v>
       </c>
-      <c r="AI84" s="21"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="21"/>
-      <c r="AL84" s="20">
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+      <c r="AL84" s="19">
         <v>2009</v>
       </c>
-      <c r="AM84" s="21"/>
-      <c r="AN84" s="21"/>
-      <c r="AO84" s="21"/>
-      <c r="AP84" s="20">
+      <c r="AM84" s="20"/>
+      <c r="AN84" s="20"/>
+      <c r="AO84" s="20"/>
+      <c r="AP84" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="21"/>
-      <c r="AR84" s="21"/>
-      <c r="AS84" s="21"/>
-      <c r="AT84" s="20">
+      <c r="AQ84" s="20"/>
+      <c r="AR84" s="20"/>
+      <c r="AS84" s="20"/>
+      <c r="AT84" s="19">
         <v>2011</v>
       </c>
-      <c r="AU84" s="21"/>
-      <c r="AV84" s="21"/>
-      <c r="AW84" s="21"/>
-      <c r="AX84" s="20">
+      <c r="AU84" s="20"/>
+      <c r="AV84" s="20"/>
+      <c r="AW84" s="20"/>
+      <c r="AX84" s="19">
         <v>2012</v>
       </c>
-      <c r="AY84" s="21"/>
-      <c r="AZ84" s="21"/>
-      <c r="BA84" s="21"/>
-      <c r="BB84" s="20">
+      <c r="AY84" s="20"/>
+      <c r="AZ84" s="20"/>
+      <c r="BA84" s="20"/>
+      <c r="BB84" s="19">
         <v>2013</v>
       </c>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="21"/>
-      <c r="BE84" s="21"/>
-      <c r="BF84" s="20">
+      <c r="BC84" s="20"/>
+      <c r="BD84" s="20"/>
+      <c r="BE84" s="20"/>
+      <c r="BF84" s="19">
         <v>2014</v>
       </c>
-      <c r="BG84" s="21"/>
-      <c r="BH84" s="21"/>
-      <c r="BI84" s="21"/>
-      <c r="BJ84" s="20">
+      <c r="BG84" s="20"/>
+      <c r="BH84" s="20"/>
+      <c r="BI84" s="20"/>
+      <c r="BJ84" s="19">
         <v>2015</v>
       </c>
-      <c r="BK84" s="21"/>
-      <c r="BL84" s="21"/>
-      <c r="BM84" s="21"/>
-      <c r="BN84" s="20">
+      <c r="BK84" s="20"/>
+      <c r="BL84" s="20"/>
+      <c r="BM84" s="20"/>
+      <c r="BN84" s="19">
         <v>2016</v>
       </c>
-      <c r="BO84" s="21"/>
-      <c r="BP84" s="21"/>
-      <c r="BQ84" s="21"/>
-      <c r="BR84" s="20">
+      <c r="BO84" s="20"/>
+      <c r="BP84" s="20"/>
+      <c r="BQ84" s="20"/>
+      <c r="BR84" s="19">
         <v>2017</v>
       </c>
-      <c r="BS84" s="21"/>
-      <c r="BT84" s="21"/>
-      <c r="BU84" s="21"/>
-      <c r="BV84" s="20">
+      <c r="BS84" s="20"/>
+      <c r="BT84" s="20"/>
+      <c r="BU84" s="20"/>
+      <c r="BV84" s="19">
         <v>2018</v>
       </c>
-      <c r="BW84" s="21"/>
-      <c r="BX84" s="21"/>
-      <c r="BY84" s="21"/>
-      <c r="BZ84" s="20">
+      <c r="BW84" s="20"/>
+      <c r="BX84" s="20"/>
+      <c r="BY84" s="20"/>
+      <c r="BZ84" s="19">
         <v>2019</v>
       </c>
-      <c r="CA84" s="21"/>
-      <c r="CB84" s="21"/>
-      <c r="CC84" s="21"/>
-      <c r="CD84" s="20">
+      <c r="CA84" s="20"/>
+      <c r="CB84" s="20"/>
+      <c r="CC84" s="20"/>
+      <c r="CD84" s="19">
         <v>2020</v>
       </c>
-      <c r="CE84" s="20"/>
-      <c r="CF84" s="20"/>
-      <c r="CG84" s="20"/>
-      <c r="CH84" s="20">
+      <c r="CE84" s="19"/>
+      <c r="CF84" s="19"/>
+      <c r="CG84" s="19"/>
+      <c r="CH84" s="19">
         <v>2021</v>
       </c>
-      <c r="CI84" s="20"/>
-      <c r="CJ84" s="20"/>
-      <c r="CK84" s="20"/>
-      <c r="CL84" s="20">
+      <c r="CI84" s="19"/>
+      <c r="CJ84" s="19"/>
+      <c r="CK84" s="19"/>
+      <c r="CL84" s="19">
         <v>2022</v>
       </c>
-      <c r="CM84" s="20"/>
-      <c r="CN84" s="20"/>
-      <c r="CO84" s="20"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
       <c r="CP84" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ84" s="21"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -35859,6 +35935,9 @@
       </c>
       <c r="CP85" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ85" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36227,7 +36306,9 @@
       <c r="CP87" s="12">
         <v>110.28127685308264</v>
       </c>
-      <c r="CQ87" s="17"/>
+      <c r="CQ87" s="12">
+        <v>111.27507940065517</v>
+      </c>
       <c r="CR87" s="17"/>
       <c r="CS87" s="17"/>
       <c r="CT87" s="17"/>
@@ -36566,9 +36647,11 @@
         <v>114.8015461246719</v>
       </c>
       <c r="CP88" s="12">
-        <v>100.94867390346553</v>
-      </c>
-      <c r="CQ88" s="17"/>
+        <v>100.94189427466942</v>
+      </c>
+      <c r="CQ88" s="12">
+        <v>103.31716297128106</v>
+      </c>
       <c r="CR88" s="17"/>
       <c r="CS88" s="17"/>
       <c r="CT88" s="17"/>
@@ -36720,7 +36803,7 @@
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
       <c r="CP89" s="11"/>
-      <c r="CQ89" s="17"/>
+      <c r="CQ89" s="11"/>
       <c r="CR89" s="17"/>
       <c r="CS89" s="17"/>
       <c r="CT89" s="17"/>
@@ -37059,9 +37142,11 @@
         <v>124.19402573527888</v>
       </c>
       <c r="CP90" s="12">
-        <v>107.35189436579063</v>
-      </c>
-      <c r="CQ90" s="17"/>
+        <v>107.30236428644572</v>
+      </c>
+      <c r="CQ90" s="12">
+        <v>108.98904518497396</v>
+      </c>
       <c r="CR90" s="17"/>
       <c r="CS90" s="17"/>
       <c r="CT90" s="17"/>
@@ -37214,6 +37299,7 @@
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
       <c r="CP91" s="9"/>
+      <c r="CQ91" s="9"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37394,6 +37480,7 @@
       <c r="CN93" s="3"/>
       <c r="CO93" s="3"/>
       <c r="CP93" s="3"/>
+      <c r="CQ93" s="3"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -37489,6 +37576,7 @@
       <c r="CN94" s="3"/>
       <c r="CO94" s="3"/>
       <c r="CP94" s="3"/>
+      <c r="CQ94" s="3"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -37587,6 +37675,7 @@
       <c r="CN95" s="3"/>
       <c r="CO95" s="3"/>
       <c r="CP95" s="3"/>
+      <c r="CQ95" s="3"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -37685,6 +37774,7 @@
       <c r="CN96" s="3"/>
       <c r="CO96" s="3"/>
       <c r="CP96" s="3"/>
+      <c r="CQ96" s="3"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
@@ -37783,6 +37873,7 @@
       <c r="CN97" s="3"/>
       <c r="CO97" s="3"/>
       <c r="CP97" s="3"/>
+      <c r="CQ97" s="3"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -37879,6 +37970,7 @@
       <c r="CN98" s="3"/>
       <c r="CO98" s="3"/>
       <c r="CP98" s="3"/>
+      <c r="CQ98" s="3"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -37977,6 +38069,7 @@
       <c r="CN99" s="3"/>
       <c r="CO99" s="3"/>
       <c r="CP99" s="3"/>
+      <c r="CQ99" s="3"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -38075,6 +38168,7 @@
       <c r="CN100" s="3"/>
       <c r="CO100" s="3"/>
       <c r="CP100" s="3"/>
+      <c r="CQ100" s="3"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38173,6 +38267,7 @@
       <c r="CN101" s="3"/>
       <c r="CO101" s="3"/>
       <c r="CP101" s="3"/>
+      <c r="CQ101" s="3"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -38269,150 +38364,152 @@
       <c r="CN102" s="3"/>
       <c r="CO102" s="3"/>
       <c r="CP102" s="3"/>
+      <c r="CQ102" s="3"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="20">
+      <c r="B103" s="19">
         <v>2000</v>
       </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="20">
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="19">
         <v>2001</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="20">
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="19">
         <v>2002</v>
       </c>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="20">
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="19">
         <v>2003</v>
       </c>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="20">
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="19">
         <v>2004</v>
       </c>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="20">
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="19">
         <v>2005</v>
       </c>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="21"/>
-      <c r="Z103" s="20">
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="19">
         <v>2006</v>
       </c>
-      <c r="AA103" s="21"/>
-      <c r="AB103" s="21"/>
-      <c r="AC103" s="21"/>
-      <c r="AD103" s="20">
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="19">
         <v>2007</v>
       </c>
-      <c r="AE103" s="21"/>
-      <c r="AF103" s="21"/>
-      <c r="AG103" s="21"/>
-      <c r="AH103" s="20">
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="19">
         <v>2008</v>
       </c>
-      <c r="AI103" s="21"/>
-      <c r="AJ103" s="21"/>
-      <c r="AK103" s="21"/>
-      <c r="AL103" s="20">
+      <c r="AI103" s="20"/>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="20"/>
+      <c r="AL103" s="19">
         <v>2009</v>
       </c>
-      <c r="AM103" s="21"/>
-      <c r="AN103" s="21"/>
-      <c r="AO103" s="21"/>
-      <c r="AP103" s="20">
+      <c r="AM103" s="20"/>
+      <c r="AN103" s="20"/>
+      <c r="AO103" s="20"/>
+      <c r="AP103" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="21"/>
-      <c r="AR103" s="21"/>
-      <c r="AS103" s="21"/>
-      <c r="AT103" s="20">
+      <c r="AQ103" s="20"/>
+      <c r="AR103" s="20"/>
+      <c r="AS103" s="20"/>
+      <c r="AT103" s="19">
         <v>2011</v>
       </c>
-      <c r="AU103" s="21"/>
-      <c r="AV103" s="21"/>
-      <c r="AW103" s="21"/>
-      <c r="AX103" s="20">
+      <c r="AU103" s="20"/>
+      <c r="AV103" s="20"/>
+      <c r="AW103" s="20"/>
+      <c r="AX103" s="19">
         <v>2012</v>
       </c>
-      <c r="AY103" s="21"/>
-      <c r="AZ103" s="21"/>
-      <c r="BA103" s="21"/>
-      <c r="BB103" s="20">
+      <c r="AY103" s="20"/>
+      <c r="AZ103" s="20"/>
+      <c r="BA103" s="20"/>
+      <c r="BB103" s="19">
         <v>2013</v>
       </c>
-      <c r="BC103" s="21"/>
-      <c r="BD103" s="21"/>
-      <c r="BE103" s="21"/>
-      <c r="BF103" s="20">
+      <c r="BC103" s="20"/>
+      <c r="BD103" s="20"/>
+      <c r="BE103" s="20"/>
+      <c r="BF103" s="19">
         <v>2014</v>
       </c>
-      <c r="BG103" s="21"/>
-      <c r="BH103" s="21"/>
-      <c r="BI103" s="21"/>
-      <c r="BJ103" s="20">
+      <c r="BG103" s="20"/>
+      <c r="BH103" s="20"/>
+      <c r="BI103" s="20"/>
+      <c r="BJ103" s="19">
         <v>2015</v>
       </c>
-      <c r="BK103" s="21"/>
-      <c r="BL103" s="21"/>
-      <c r="BM103" s="21"/>
-      <c r="BN103" s="20">
+      <c r="BK103" s="20"/>
+      <c r="BL103" s="20"/>
+      <c r="BM103" s="20"/>
+      <c r="BN103" s="19">
         <v>2016</v>
       </c>
-      <c r="BO103" s="21"/>
-      <c r="BP103" s="21"/>
-      <c r="BQ103" s="21"/>
-      <c r="BR103" s="20">
+      <c r="BO103" s="20"/>
+      <c r="BP103" s="20"/>
+      <c r="BQ103" s="20"/>
+      <c r="BR103" s="19">
         <v>2017</v>
       </c>
-      <c r="BS103" s="21"/>
-      <c r="BT103" s="21"/>
-      <c r="BU103" s="21"/>
-      <c r="BV103" s="20">
+      <c r="BS103" s="20"/>
+      <c r="BT103" s="20"/>
+      <c r="BU103" s="20"/>
+      <c r="BV103" s="19">
         <v>2018</v>
       </c>
-      <c r="BW103" s="21"/>
-      <c r="BX103" s="21"/>
-      <c r="BY103" s="21"/>
-      <c r="BZ103" s="20">
+      <c r="BW103" s="20"/>
+      <c r="BX103" s="20"/>
+      <c r="BY103" s="20"/>
+      <c r="BZ103" s="19">
         <v>2019</v>
       </c>
-      <c r="CA103" s="21"/>
-      <c r="CB103" s="21"/>
-      <c r="CC103" s="21"/>
-      <c r="CD103" s="20">
+      <c r="CA103" s="20"/>
+      <c r="CB103" s="20"/>
+      <c r="CC103" s="20"/>
+      <c r="CD103" s="19">
         <v>2020</v>
       </c>
-      <c r="CE103" s="20"/>
-      <c r="CF103" s="20"/>
-      <c r="CG103" s="20"/>
-      <c r="CH103" s="20">
+      <c r="CE103" s="19"/>
+      <c r="CF103" s="19"/>
+      <c r="CG103" s="19"/>
+      <c r="CH103" s="19">
         <v>2021</v>
       </c>
-      <c r="CI103" s="20"/>
-      <c r="CJ103" s="20"/>
-      <c r="CK103" s="20"/>
-      <c r="CL103" s="20">
+      <c r="CI103" s="19"/>
+      <c r="CJ103" s="19"/>
+      <c r="CK103" s="19"/>
+      <c r="CL103" s="19">
         <v>2022</v>
       </c>
-      <c r="CM103" s="20"/>
-      <c r="CN103" s="20"/>
-      <c r="CO103" s="20"/>
+      <c r="CM103" s="19"/>
+      <c r="CN103" s="19"/>
+      <c r="CO103" s="19"/>
       <c r="CP103" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ103" s="21"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -38696,6 +38793,9 @@
       </c>
       <c r="CP104" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ104" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38793,6 +38893,7 @@
       <c r="CN105" s="3"/>
       <c r="CO105" s="3"/>
       <c r="CP105" s="3"/>
+      <c r="CQ105" s="3"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39075,9 +39176,11 @@
         <v>70.10654953090652</v>
       </c>
       <c r="CP106" s="12">
-        <v>70.483544946168436</v>
-      </c>
-      <c r="CQ106" s="17"/>
+        <v>69.994439101950462</v>
+      </c>
+      <c r="CQ106" s="12">
+        <v>72.768411451678716</v>
+      </c>
       <c r="CR106" s="17"/>
       <c r="CS106" s="17"/>
       <c r="CT106" s="17"/>
@@ -39420,9 +39523,11 @@
         <v>29.893450469093487</v>
       </c>
       <c r="CP107" s="12">
-        <v>29.516455053831571</v>
-      </c>
-      <c r="CQ107" s="17"/>
+        <v>30.005560898049538</v>
+      </c>
+      <c r="CQ107" s="12">
+        <v>27.231588548321277</v>
+      </c>
       <c r="CR107" s="17"/>
       <c r="CS107" s="17"/>
       <c r="CT107" s="17"/>
@@ -39578,7 +39683,7 @@
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
       <c r="CP108" s="11"/>
-      <c r="CQ108" s="17"/>
+      <c r="CQ108" s="11"/>
       <c r="CR108" s="17"/>
       <c r="CS108" s="17"/>
       <c r="CT108" s="17"/>
@@ -39923,7 +40028,9 @@
       <c r="CP109" s="12">
         <v>100</v>
       </c>
-      <c r="CQ109" s="17"/>
+      <c r="CQ109" s="12">
+        <v>100</v>
+      </c>
       <c r="CR109" s="17"/>
       <c r="CS109" s="17"/>
       <c r="CT109" s="17"/>
@@ -40080,6 +40187,7 @@
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
       <c r="CP110" s="9"/>
+      <c r="CQ110" s="9"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -40178,6 +40286,7 @@
       <c r="CN111" s="3"/>
       <c r="CO111" s="3"/>
       <c r="CP111" s="3"/>
+      <c r="CQ111" s="3"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -40273,7 +40382,7 @@
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
       <c r="CP112" s="11"/>
-      <c r="CQ112" s="17"/>
+      <c r="CQ112" s="11"/>
       <c r="CR112" s="17"/>
       <c r="CS112" s="17"/>
       <c r="CT112" s="17"/>
@@ -40429,7 +40538,7 @@
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
       <c r="CP113" s="11"/>
-      <c r="CQ113" s="17"/>
+      <c r="CQ113" s="11"/>
       <c r="CR113" s="17"/>
       <c r="CS113" s="17"/>
       <c r="CT113" s="17"/>
@@ -40588,6 +40697,7 @@
       <c r="CN114" s="3"/>
       <c r="CO114" s="3"/>
       <c r="CP114" s="3"/>
+      <c r="CQ114" s="3"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -40686,6 +40796,7 @@
       <c r="CN115" s="3"/>
       <c r="CO115" s="3"/>
       <c r="CP115" s="3"/>
+      <c r="CQ115" s="3"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
@@ -40784,6 +40895,7 @@
       <c r="CN116" s="3"/>
       <c r="CO116" s="3"/>
       <c r="CP116" s="3"/>
+      <c r="CQ116" s="3"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -40880,6 +40992,7 @@
       <c r="CN117" s="3"/>
       <c r="CO117" s="3"/>
       <c r="CP117" s="3"/>
+      <c r="CQ117" s="3"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -40978,6 +41091,7 @@
       <c r="CN118" s="3"/>
       <c r="CO118" s="3"/>
       <c r="CP118" s="3"/>
+      <c r="CQ118" s="3"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
@@ -41076,6 +41190,7 @@
       <c r="CN119" s="3"/>
       <c r="CO119" s="3"/>
       <c r="CP119" s="3"/>
+      <c r="CQ119" s="3"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -41174,6 +41289,7 @@
       <c r="CN120" s="3"/>
       <c r="CO120" s="3"/>
       <c r="CP120" s="3"/>
+      <c r="CQ120" s="3"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -41270,150 +41386,152 @@
       <c r="CN121" s="3"/>
       <c r="CO121" s="3"/>
       <c r="CP121" s="3"/>
+      <c r="CQ121" s="3"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="20">
+      <c r="B122" s="19">
         <v>2000</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="20">
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="19">
         <v>2001</v>
       </c>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="20">
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="19">
         <v>2002</v>
       </c>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="20">
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="19">
         <v>2003</v>
       </c>
-      <c r="O122" s="21"/>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="20">
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="19">
         <v>2004</v>
       </c>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="20">
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="19">
         <v>2005</v>
       </c>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="20">
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="19">
         <v>2006</v>
       </c>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="20">
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="19">
         <v>2007</v>
       </c>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="20">
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="19">
         <v>2008</v>
       </c>
-      <c r="AI122" s="21"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="21"/>
-      <c r="AL122" s="20">
+      <c r="AI122" s="20"/>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="20"/>
+      <c r="AL122" s="19">
         <v>2009</v>
       </c>
-      <c r="AM122" s="21"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="21"/>
-      <c r="AP122" s="20">
+      <c r="AM122" s="20"/>
+      <c r="AN122" s="20"/>
+      <c r="AO122" s="20"/>
+      <c r="AP122" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="21"/>
-      <c r="AR122" s="21"/>
-      <c r="AS122" s="21"/>
-      <c r="AT122" s="20">
+      <c r="AQ122" s="20"/>
+      <c r="AR122" s="20"/>
+      <c r="AS122" s="20"/>
+      <c r="AT122" s="19">
         <v>2011</v>
       </c>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="21"/>
-      <c r="AW122" s="21"/>
-      <c r="AX122" s="20">
+      <c r="AU122" s="20"/>
+      <c r="AV122" s="20"/>
+      <c r="AW122" s="20"/>
+      <c r="AX122" s="19">
         <v>2012</v>
       </c>
-      <c r="AY122" s="21"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="21"/>
-      <c r="BB122" s="20">
+      <c r="AY122" s="20"/>
+      <c r="AZ122" s="20"/>
+      <c r="BA122" s="20"/>
+      <c r="BB122" s="19">
         <v>2013</v>
       </c>
-      <c r="BC122" s="21"/>
-      <c r="BD122" s="21"/>
-      <c r="BE122" s="21"/>
-      <c r="BF122" s="20">
+      <c r="BC122" s="20"/>
+      <c r="BD122" s="20"/>
+      <c r="BE122" s="20"/>
+      <c r="BF122" s="19">
         <v>2014</v>
       </c>
-      <c r="BG122" s="21"/>
-      <c r="BH122" s="21"/>
-      <c r="BI122" s="21"/>
-      <c r="BJ122" s="20">
+      <c r="BG122" s="20"/>
+      <c r="BH122" s="20"/>
+      <c r="BI122" s="20"/>
+      <c r="BJ122" s="19">
         <v>2015</v>
       </c>
-      <c r="BK122" s="21"/>
-      <c r="BL122" s="21"/>
-      <c r="BM122" s="21"/>
-      <c r="BN122" s="20">
+      <c r="BK122" s="20"/>
+      <c r="BL122" s="20"/>
+      <c r="BM122" s="20"/>
+      <c r="BN122" s="19">
         <v>2016</v>
       </c>
-      <c r="BO122" s="21"/>
-      <c r="BP122" s="21"/>
-      <c r="BQ122" s="21"/>
-      <c r="BR122" s="20">
+      <c r="BO122" s="20"/>
+      <c r="BP122" s="20"/>
+      <c r="BQ122" s="20"/>
+      <c r="BR122" s="19">
         <v>2017</v>
       </c>
-      <c r="BS122" s="21"/>
-      <c r="BT122" s="21"/>
-      <c r="BU122" s="21"/>
-      <c r="BV122" s="20">
+      <c r="BS122" s="20"/>
+      <c r="BT122" s="20"/>
+      <c r="BU122" s="20"/>
+      <c r="BV122" s="19">
         <v>2018</v>
       </c>
-      <c r="BW122" s="21"/>
-      <c r="BX122" s="21"/>
-      <c r="BY122" s="21"/>
-      <c r="BZ122" s="20">
+      <c r="BW122" s="20"/>
+      <c r="BX122" s="20"/>
+      <c r="BY122" s="20"/>
+      <c r="BZ122" s="19">
         <v>2019</v>
       </c>
-      <c r="CA122" s="21"/>
-      <c r="CB122" s="21"/>
-      <c r="CC122" s="21"/>
-      <c r="CD122" s="20">
+      <c r="CA122" s="20"/>
+      <c r="CB122" s="20"/>
+      <c r="CC122" s="20"/>
+      <c r="CD122" s="19">
         <v>2020</v>
       </c>
-      <c r="CE122" s="20"/>
-      <c r="CF122" s="20"/>
-      <c r="CG122" s="20"/>
-      <c r="CH122" s="20">
+      <c r="CE122" s="19"/>
+      <c r="CF122" s="19"/>
+      <c r="CG122" s="19"/>
+      <c r="CH122" s="19">
         <v>2021</v>
       </c>
-      <c r="CI122" s="20"/>
-      <c r="CJ122" s="20"/>
-      <c r="CK122" s="20"/>
-      <c r="CL122" s="20">
+      <c r="CI122" s="19"/>
+      <c r="CJ122" s="19"/>
+      <c r="CK122" s="19"/>
+      <c r="CL122" s="19">
         <v>2022</v>
       </c>
-      <c r="CM122" s="20"/>
-      <c r="CN122" s="20"/>
-      <c r="CO122" s="20"/>
+      <c r="CM122" s="19"/>
+      <c r="CN122" s="19"/>
+      <c r="CO122" s="19"/>
       <c r="CP122" s="19">
         <v>2023</v>
       </c>
+      <c r="CQ122" s="21"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -41697,6 +41815,9 @@
       </c>
       <c r="CP123" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ123" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41794,6 +41915,7 @@
       <c r="CN124" s="3"/>
       <c r="CO124" s="3"/>
       <c r="CP124" s="3"/>
+      <c r="CQ124" s="3"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -42076,9 +42198,11 @@
         <v>67.660819194515952</v>
       </c>
       <c r="CP125" s="12">
-        <v>68.611302729725551</v>
-      </c>
-      <c r="CQ125" s="17"/>
+        <v>68.10375266645265</v>
+      </c>
+      <c r="CQ125" s="12">
+        <v>71.273457870919245</v>
+      </c>
       <c r="CR125" s="17"/>
       <c r="CS125" s="17"/>
       <c r="CT125" s="17"/>
@@ -42421,9 +42545,11 @@
         <v>32.339180805484055</v>
       </c>
       <c r="CP126" s="12">
-        <v>31.388697270274442</v>
-      </c>
-      <c r="CQ126" s="17"/>
+        <v>31.896247333547358</v>
+      </c>
+      <c r="CQ126" s="12">
+        <v>28.726542129080755</v>
+      </c>
       <c r="CR126" s="17"/>
       <c r="CS126" s="17"/>
       <c r="CT126" s="17"/>
@@ -42579,7 +42705,7 @@
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
       <c r="CP127" s="11"/>
-      <c r="CQ127" s="17"/>
+      <c r="CQ127" s="11"/>
       <c r="CR127" s="17"/>
       <c r="CS127" s="17"/>
       <c r="CT127" s="17"/>
@@ -42924,7 +43050,9 @@
       <c r="CP128" s="12">
         <v>100</v>
       </c>
-      <c r="CQ128" s="17"/>
+      <c r="CQ128" s="12">
+        <v>100</v>
+      </c>
       <c r="CR128" s="17"/>
       <c r="CS128" s="17"/>
       <c r="CT128" s="17"/>
@@ -42986,7 +43114,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:94" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:95" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -43081,8 +43209,9 @@
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
       <c r="CP129" s="9"/>
+      <c r="CQ129" s="9"/>
     </row>
-    <row r="130" spans="1:94" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:95" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -43179,45 +43308,118 @@
       <c r="CN130" s="3"/>
       <c r="CO130" s="3"/>
       <c r="CP130" s="3"/>
+      <c r="CQ130" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP28:CQ28"/>
+    <mergeCell ref="CP84:CQ84"/>
+    <mergeCell ref="CP103:CQ103"/>
+    <mergeCell ref="CP122:CQ122"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CP47:CQ47"/>
+    <mergeCell ref="CL66:CO66"/>
+    <mergeCell ref="CP66:CQ66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="Z47:AC47"/>
     <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AH47:AK47"/>
@@ -43242,114 +43444,51 @@
     <mergeCell ref="AH84:AK84"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="93" man="1"/>
-    <brk id="76" max="93" man="1"/>
-    <brk id="94" max="93" man="1"/>
+    <brk id="38" max="94" man="1"/>
+    <brk id="76" max="94" man="1"/>
+    <brk id="94" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2C9A0-98A9-4EAF-9F9D-5CEFE0010ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D20742-8118-44E7-AFA5-ED729EA5C8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CQ$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CR$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,6 +749,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23620,48 +23639,98 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CR9" sqref="CR9"/>
+      <selection pane="topRight" activeCell="CQ6" sqref="CQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="95" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="15"/>
+    <col min="2" max="89" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="9.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
     </row>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="CL3" s="20"/>
+      <c r="CM3" s="20"/>
+      <c r="CN3" s="20"/>
+      <c r="CO3" s="20"/>
+      <c r="CP3" s="20"/>
+      <c r="CQ3" s="20"/>
+      <c r="CR3" s="20"/>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
+      <c r="CL4" s="20"/>
+      <c r="CM4" s="20"/>
+      <c r="CN4" s="20"/>
+      <c r="CO4" s="20"/>
+      <c r="CP4" s="20"/>
+      <c r="CQ4" s="20"/>
+      <c r="CR4" s="20"/>
     </row>
     <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="CL5" s="20"/>
+      <c r="CM5" s="20"/>
+      <c r="CN5" s="20"/>
+      <c r="CO5" s="20"/>
+      <c r="CP5" s="20"/>
+      <c r="CQ5" s="20"/>
+      <c r="CR5" s="20"/>
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="CL6" s="20"/>
+      <c r="CM6" s="20"/>
+      <c r="CN6" s="20"/>
+      <c r="CO6" s="20"/>
+      <c r="CP6" s="20"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="20"/>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="CL7" s="20"/>
+      <c r="CM7" s="20"/>
+      <c r="CN7" s="20"/>
+      <c r="CO7" s="20"/>
+      <c r="CP7" s="20"/>
+      <c r="CQ7" s="20"/>
+      <c r="CR7" s="20"/>
     </row>
     <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -23753,157 +23822,159 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="3"/>
-      <c r="CM8" s="3"/>
-      <c r="CN8" s="3"/>
-      <c r="CO8" s="3"/>
-      <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
+      <c r="CL8" s="21"/>
+      <c r="CM8" s="21"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="21"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
+      <c r="CR8" s="21"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="19">
+      <c r="B9" s="32">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="32">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="34">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
-      <c r="CP9" s="19">
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="21"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24173,23 +24244,26 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24282,12 +24356,13 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="3"/>
-      <c r="CM11" s="3"/>
-      <c r="CN11" s="3"/>
-      <c r="CO11" s="3"/>
-      <c r="CP11" s="3"/>
-      <c r="CQ11" s="3"/>
+      <c r="CL11" s="21"/>
+      <c r="CM11" s="21"/>
+      <c r="CN11" s="21"/>
+      <c r="CO11" s="21"/>
+      <c r="CP11" s="21"/>
+      <c r="CQ11" s="21"/>
+      <c r="CR11" s="21"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24557,25 +24632,27 @@
       <c r="CK12" s="13">
         <v>139858.68074787248</v>
       </c>
-      <c r="CL12" s="13">
+      <c r="CL12" s="23">
         <v>147137.62071573344</v>
       </c>
-      <c r="CM12" s="13">
+      <c r="CM12" s="23">
         <v>176175.02511092243</v>
       </c>
-      <c r="CN12" s="13">
+      <c r="CN12" s="23">
         <v>139039.07315818773</v>
       </c>
-      <c r="CO12" s="13">
+      <c r="CO12" s="23">
         <v>161962.20810424158</v>
       </c>
-      <c r="CP12" s="13">
+      <c r="CP12" s="23">
         <v>160239.5991545516</v>
       </c>
-      <c r="CQ12" s="13">
+      <c r="CQ12" s="23">
         <v>193170.67265058804</v>
       </c>
-      <c r="CR12" s="17"/>
+      <c r="CR12" s="23">
+        <v>150856.40015933674</v>
+      </c>
       <c r="CS12" s="17"/>
       <c r="CT12" s="17"/>
       <c r="CU12" s="17"/>
@@ -24904,25 +24981,27 @@
       <c r="CK13" s="13">
         <v>63436.648987605236</v>
       </c>
-      <c r="CL13" s="13">
+      <c r="CL13" s="23">
         <v>60315.21638098656</v>
       </c>
-      <c r="CM13" s="13">
+      <c r="CM13" s="23">
         <v>63839.12832106831</v>
       </c>
-      <c r="CN13" s="13">
+      <c r="CN13" s="23">
         <v>66443.327890908462</v>
       </c>
-      <c r="CO13" s="13">
+      <c r="CO13" s="23">
         <v>69060.72654017483</v>
       </c>
-      <c r="CP13" s="13">
+      <c r="CP13" s="23">
         <v>68692.300594161963</v>
       </c>
-      <c r="CQ13" s="13">
-        <v>72288.843088410154</v>
-      </c>
-      <c r="CR13" s="17"/>
+      <c r="CQ13" s="23">
+        <v>73414.160731908894</v>
+      </c>
+      <c r="CR13" s="23">
+        <v>74547.102444039367</v>
+      </c>
       <c r="CS13" s="17"/>
       <c r="CT13" s="17"/>
       <c r="CU13" s="17"/>
@@ -25072,13 +25151,13 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="11"/>
-      <c r="CM14" s="11"/>
-      <c r="CN14" s="11"/>
-      <c r="CO14" s="11"/>
-      <c r="CP14" s="11"/>
-      <c r="CQ14" s="11"/>
-      <c r="CR14" s="17"/>
+      <c r="CL14" s="24"/>
+      <c r="CM14" s="24"/>
+      <c r="CN14" s="24"/>
+      <c r="CO14" s="24"/>
+      <c r="CP14" s="24"/>
+      <c r="CQ14" s="24"/>
+      <c r="CR14" s="24"/>
       <c r="CS14" s="17"/>
       <c r="CT14" s="17"/>
       <c r="CU14" s="17"/>
@@ -25407,25 +25486,27 @@
       <c r="CK15" s="14">
         <v>203295.32973547772</v>
       </c>
-      <c r="CL15" s="14">
+      <c r="CL15" s="25">
         <v>207452.83709672</v>
       </c>
-      <c r="CM15" s="14">
+      <c r="CM15" s="25">
         <v>240014.15343199074</v>
       </c>
-      <c r="CN15" s="14">
+      <c r="CN15" s="25">
         <v>205482.4010490962</v>
       </c>
-      <c r="CO15" s="14">
+      <c r="CO15" s="25">
         <v>231022.93464441641</v>
       </c>
-      <c r="CP15" s="14">
+      <c r="CP15" s="25">
         <v>228931.89974871356</v>
       </c>
-      <c r="CQ15" s="14">
-        <v>265459.51573899819</v>
-      </c>
-      <c r="CR15" s="17"/>
+      <c r="CQ15" s="25">
+        <v>266584.83338249696</v>
+      </c>
+      <c r="CR15" s="25">
+        <v>225403.50260337611</v>
+      </c>
       <c r="CS15" s="17"/>
       <c r="CT15" s="17"/>
       <c r="CU15" s="17"/>
@@ -25576,12 +25657,13 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="9"/>
-      <c r="CM16" s="9"/>
-      <c r="CN16" s="9"/>
-      <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
+      <c r="CL16" s="26"/>
+      <c r="CM16" s="26"/>
+      <c r="CN16" s="26"/>
+      <c r="CO16" s="26"/>
+      <c r="CP16" s="26"/>
+      <c r="CQ16" s="26"/>
+      <c r="CR16" s="26"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25675,12 +25757,13 @@
       <c r="CI17" s="3"/>
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
-      <c r="CL17" s="3"/>
-      <c r="CM17" s="3"/>
-      <c r="CN17" s="3"/>
-      <c r="CO17" s="3"/>
-      <c r="CP17" s="3"/>
-      <c r="CQ17" s="3"/>
+      <c r="CL17" s="21"/>
+      <c r="CM17" s="21"/>
+      <c r="CN17" s="21"/>
+      <c r="CO17" s="21"/>
+      <c r="CP17" s="21"/>
+      <c r="CQ17" s="21"/>
+      <c r="CR17" s="21"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25771,13 +25854,13 @@
       <c r="CI18" s="11"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="11"/>
-      <c r="CL18" s="11"/>
-      <c r="CM18" s="11"/>
-      <c r="CN18" s="11"/>
-      <c r="CO18" s="11"/>
-      <c r="CP18" s="11"/>
-      <c r="CQ18" s="11"/>
-      <c r="CR18" s="17"/>
+      <c r="CL18" s="24"/>
+      <c r="CM18" s="24"/>
+      <c r="CN18" s="24"/>
+      <c r="CO18" s="24"/>
+      <c r="CP18" s="24"/>
+      <c r="CQ18" s="24"/>
+      <c r="CR18" s="24"/>
       <c r="CS18" s="17"/>
       <c r="CT18" s="17"/>
       <c r="CU18" s="17"/>
@@ -25927,13 +26010,13 @@
       <c r="CI19" s="11"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="11"/>
-      <c r="CL19" s="11"/>
-      <c r="CM19" s="11"/>
-      <c r="CN19" s="11"/>
-      <c r="CO19" s="11"/>
-      <c r="CP19" s="11"/>
-      <c r="CQ19" s="11"/>
-      <c r="CR19" s="17"/>
+      <c r="CL19" s="24"/>
+      <c r="CM19" s="24"/>
+      <c r="CN19" s="24"/>
+      <c r="CO19" s="24"/>
+      <c r="CP19" s="24"/>
+      <c r="CQ19" s="24"/>
+      <c r="CR19" s="24"/>
       <c r="CS19" s="17"/>
       <c r="CT19" s="17"/>
       <c r="CU19" s="17"/>
@@ -26086,12 +26169,13 @@
       <c r="CI20" s="3"/>
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
-      <c r="CL20" s="3"/>
-      <c r="CM20" s="3"/>
-      <c r="CN20" s="3"/>
-      <c r="CO20" s="3"/>
-      <c r="CP20" s="3"/>
-      <c r="CQ20" s="3"/>
+      <c r="CL20" s="21"/>
+      <c r="CM20" s="21"/>
+      <c r="CN20" s="21"/>
+      <c r="CO20" s="21"/>
+      <c r="CP20" s="21"/>
+      <c r="CQ20" s="21"/>
+      <c r="CR20" s="21"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26185,12 +26269,13 @@
       <c r="CI21" s="3"/>
       <c r="CJ21" s="3"/>
       <c r="CK21" s="3"/>
-      <c r="CL21" s="3"/>
-      <c r="CM21" s="3"/>
-      <c r="CN21" s="3"/>
-      <c r="CO21" s="3"/>
-      <c r="CP21" s="3"/>
-      <c r="CQ21" s="3"/>
+      <c r="CL21" s="21"/>
+      <c r="CM21" s="21"/>
+      <c r="CN21" s="21"/>
+      <c r="CO21" s="21"/>
+      <c r="CP21" s="21"/>
+      <c r="CQ21" s="21"/>
+      <c r="CR21" s="21"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -26284,12 +26369,13 @@
       <c r="CI22" s="3"/>
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
-      <c r="CL22" s="3"/>
-      <c r="CM22" s="3"/>
-      <c r="CN22" s="3"/>
-      <c r="CO22" s="3"/>
-      <c r="CP22" s="3"/>
-      <c r="CQ22" s="3"/>
+      <c r="CL22" s="21"/>
+      <c r="CM22" s="21"/>
+      <c r="CN22" s="21"/>
+      <c r="CO22" s="21"/>
+      <c r="CP22" s="21"/>
+      <c r="CQ22" s="21"/>
+      <c r="CR22" s="21"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26381,12 +26467,13 @@
       <c r="CI23" s="3"/>
       <c r="CJ23" s="3"/>
       <c r="CK23" s="3"/>
-      <c r="CL23" s="3"/>
-      <c r="CM23" s="3"/>
-      <c r="CN23" s="3"/>
-      <c r="CO23" s="3"/>
-      <c r="CP23" s="3"/>
-      <c r="CQ23" s="3"/>
+      <c r="CL23" s="21"/>
+      <c r="CM23" s="21"/>
+      <c r="CN23" s="21"/>
+      <c r="CO23" s="21"/>
+      <c r="CP23" s="21"/>
+      <c r="CQ23" s="21"/>
+      <c r="CR23" s="21"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26480,12 +26567,13 @@
       <c r="CI24" s="3"/>
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
-      <c r="CL24" s="3"/>
-      <c r="CM24" s="3"/>
-      <c r="CN24" s="3"/>
-      <c r="CO24" s="3"/>
-      <c r="CP24" s="3"/>
-      <c r="CQ24" s="3"/>
+      <c r="CL24" s="21"/>
+      <c r="CM24" s="21"/>
+      <c r="CN24" s="21"/>
+      <c r="CO24" s="21"/>
+      <c r="CP24" s="21"/>
+      <c r="CQ24" s="21"/>
+      <c r="CR24" s="21"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -26579,12 +26667,13 @@
       <c r="CI25" s="3"/>
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
-      <c r="CL25" s="3"/>
-      <c r="CM25" s="3"/>
-      <c r="CN25" s="3"/>
-      <c r="CO25" s="3"/>
-      <c r="CP25" s="3"/>
-      <c r="CQ25" s="3"/>
+      <c r="CL25" s="21"/>
+      <c r="CM25" s="21"/>
+      <c r="CN25" s="21"/>
+      <c r="CO25" s="21"/>
+      <c r="CP25" s="21"/>
+      <c r="CQ25" s="21"/>
+      <c r="CR25" s="21"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26678,12 +26767,13 @@
       <c r="CI26" s="3"/>
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
-      <c r="CL26" s="3"/>
-      <c r="CM26" s="3"/>
-      <c r="CN26" s="3"/>
-      <c r="CO26" s="3"/>
-      <c r="CP26" s="3"/>
-      <c r="CQ26" s="3"/>
+      <c r="CL26" s="21"/>
+      <c r="CM26" s="21"/>
+      <c r="CN26" s="21"/>
+      <c r="CO26" s="21"/>
+      <c r="CP26" s="21"/>
+      <c r="CQ26" s="21"/>
+      <c r="CR26" s="21"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26775,157 +26865,159 @@
       <c r="CI27" s="3"/>
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
-      <c r="CL27" s="3"/>
-      <c r="CM27" s="3"/>
-      <c r="CN27" s="3"/>
-      <c r="CO27" s="3"/>
-      <c r="CP27" s="3"/>
-      <c r="CQ27" s="3"/>
+      <c r="CL27" s="21"/>
+      <c r="CM27" s="21"/>
+      <c r="CN27" s="21"/>
+      <c r="CO27" s="21"/>
+      <c r="CP27" s="21"/>
+      <c r="CQ27" s="21"/>
+      <c r="CR27" s="21"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="19">
+      <c r="B28" s="32">
         <v>2000</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="32">
         <v>2001</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="19">
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="32">
         <v>2002</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="19">
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="32">
         <v>2003</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="19">
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="32">
         <v>2004</v>
       </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="19">
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="32">
         <v>2005</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="19">
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="32">
         <v>2006</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="19">
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="32">
         <v>2007</v>
       </c>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="19">
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="32">
         <v>2008</v>
       </c>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="19">
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="32">
         <v>2009</v>
       </c>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="19">
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="19">
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="32">
         <v>2011</v>
       </c>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="19">
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="32">
         <v>2012</v>
       </c>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="19">
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="33"/>
+      <c r="BB28" s="32">
         <v>2013</v>
       </c>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="19">
+      <c r="BC28" s="33"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="32">
         <v>2014</v>
       </c>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="19">
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="32">
         <v>2015</v>
       </c>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="19">
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="33"/>
+      <c r="BM28" s="33"/>
+      <c r="BN28" s="32">
         <v>2016</v>
       </c>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="19">
+      <c r="BO28" s="33"/>
+      <c r="BP28" s="33"/>
+      <c r="BQ28" s="33"/>
+      <c r="BR28" s="32">
         <v>2017</v>
       </c>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="19">
+      <c r="BS28" s="33"/>
+      <c r="BT28" s="33"/>
+      <c r="BU28" s="33"/>
+      <c r="BV28" s="32">
         <v>2018</v>
       </c>
-      <c r="BW28" s="20"/>
-      <c r="BX28" s="20"/>
-      <c r="BY28" s="20"/>
-      <c r="BZ28" s="19">
+      <c r="BW28" s="33"/>
+      <c r="BX28" s="33"/>
+      <c r="BY28" s="33"/>
+      <c r="BZ28" s="32">
         <v>2019</v>
       </c>
-      <c r="CA28" s="20"/>
-      <c r="CB28" s="20"/>
-      <c r="CC28" s="20"/>
-      <c r="CD28" s="19">
+      <c r="CA28" s="33"/>
+      <c r="CB28" s="33"/>
+      <c r="CC28" s="33"/>
+      <c r="CD28" s="32">
         <v>2020</v>
       </c>
-      <c r="CE28" s="19"/>
-      <c r="CF28" s="19"/>
-      <c r="CG28" s="19"/>
-      <c r="CH28" s="19">
+      <c r="CE28" s="32"/>
+      <c r="CF28" s="32"/>
+      <c r="CG28" s="32"/>
+      <c r="CH28" s="32">
         <v>2021</v>
       </c>
-      <c r="CI28" s="19"/>
-      <c r="CJ28" s="19"/>
-      <c r="CK28" s="19"/>
-      <c r="CL28" s="19">
+      <c r="CI28" s="32"/>
+      <c r="CJ28" s="32"/>
+      <c r="CK28" s="32"/>
+      <c r="CL28" s="34">
         <v>2022</v>
       </c>
-      <c r="CM28" s="19"/>
-      <c r="CN28" s="19"/>
-      <c r="CO28" s="19"/>
-      <c r="CP28" s="19">
+      <c r="CM28" s="34"/>
+      <c r="CN28" s="34"/>
+      <c r="CO28" s="34"/>
+      <c r="CP28" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="21"/>
+      <c r="CQ28" s="34"/>
+      <c r="CR28" s="34"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27195,23 +27287,26 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="6" t="s">
+      <c r="CL29" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="6" t="s">
+      <c r="CM29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="6" t="s">
+      <c r="CN29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="6" t="s">
+      <c r="CO29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR29" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27304,12 +27399,13 @@
       <c r="CI30" s="3"/>
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
-      <c r="CL30" s="3"/>
-      <c r="CM30" s="3"/>
-      <c r="CN30" s="3"/>
-      <c r="CO30" s="3"/>
-      <c r="CP30" s="3"/>
-      <c r="CQ30" s="3"/>
+      <c r="CL30" s="21"/>
+      <c r="CM30" s="21"/>
+      <c r="CN30" s="21"/>
+      <c r="CO30" s="21"/>
+      <c r="CP30" s="21"/>
+      <c r="CQ30" s="21"/>
+      <c r="CR30" s="21"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27579,25 +27675,27 @@
       <c r="CK31" s="13">
         <v>112293.55436978329</v>
       </c>
-      <c r="CL31" s="13">
+      <c r="CL31" s="23">
         <v>138392.93444998763</v>
       </c>
-      <c r="CM31" s="13">
+      <c r="CM31" s="23">
         <v>164975.31879776841</v>
       </c>
-      <c r="CN31" s="13">
+      <c r="CN31" s="23">
         <v>124117.62709944065</v>
       </c>
-      <c r="CO31" s="13">
+      <c r="CO31" s="23">
         <v>125861.13477052779</v>
       </c>
-      <c r="CP31" s="13">
+      <c r="CP31" s="23">
         <v>145300.81961965648</v>
       </c>
-      <c r="CQ31" s="13">
+      <c r="CQ31" s="23">
         <v>173597.42512971928</v>
       </c>
-      <c r="CR31" s="17"/>
+      <c r="CR31" s="23">
+        <v>130300.4462980215</v>
+      </c>
       <c r="CS31" s="17"/>
       <c r="CT31" s="17"/>
       <c r="CU31" s="17"/>
@@ -27926,25 +28024,27 @@
       <c r="CK32" s="13">
         <v>56773.215199544939</v>
       </c>
-      <c r="CL32" s="13">
+      <c r="CL32" s="23">
         <v>61725.149458875145</v>
       </c>
-      <c r="CM32" s="13">
+      <c r="CM32" s="23">
         <v>63941.273040106309</v>
       </c>
-      <c r="CN32" s="13">
+      <c r="CN32" s="23">
         <v>60094.107604748198</v>
       </c>
-      <c r="CO32" s="13">
+      <c r="CO32" s="23">
         <v>60156.617111390151</v>
       </c>
-      <c r="CP32" s="13">
+      <c r="CP32" s="23">
         <v>68051.329022264807</v>
       </c>
-      <c r="CQ32" s="13">
-        <v>69967.894016315753</v>
-      </c>
-      <c r="CR32" s="17"/>
+      <c r="CQ32" s="23">
+        <v>71057.081534764671</v>
+      </c>
+      <c r="CR32" s="23">
+        <v>65202.488810263865</v>
+      </c>
       <c r="CS32" s="17"/>
       <c r="CT32" s="17"/>
       <c r="CU32" s="17"/>
@@ -28094,13 +28194,13 @@
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
-      <c r="CL33" s="11"/>
-      <c r="CM33" s="11"/>
-      <c r="CN33" s="11"/>
-      <c r="CO33" s="11"/>
-      <c r="CP33" s="11"/>
-      <c r="CQ33" s="11"/>
-      <c r="CR33" s="17"/>
+      <c r="CL33" s="24"/>
+      <c r="CM33" s="24"/>
+      <c r="CN33" s="24"/>
+      <c r="CO33" s="24"/>
+      <c r="CP33" s="24"/>
+      <c r="CQ33" s="24"/>
+      <c r="CR33" s="24"/>
       <c r="CS33" s="17"/>
       <c r="CT33" s="17"/>
       <c r="CU33" s="17"/>
@@ -28429,25 +28529,27 @@
       <c r="CK34" s="14">
         <v>169066.76956932823</v>
       </c>
-      <c r="CL34" s="14">
+      <c r="CL34" s="25">
         <v>200118.08390886278</v>
       </c>
-      <c r="CM34" s="14">
+      <c r="CM34" s="25">
         <v>228916.59183787473</v>
       </c>
-      <c r="CN34" s="14">
+      <c r="CN34" s="25">
         <v>184211.73470418886</v>
       </c>
-      <c r="CO34" s="14">
+      <c r="CO34" s="25">
         <v>186017.75188191794</v>
       </c>
-      <c r="CP34" s="14">
+      <c r="CP34" s="25">
         <v>213352.14864192129</v>
       </c>
-      <c r="CQ34" s="14">
-        <v>243565.31914603504</v>
-      </c>
-      <c r="CR34" s="17"/>
+      <c r="CQ34" s="25">
+        <v>244654.50666448395</v>
+      </c>
+      <c r="CR34" s="25">
+        <v>195502.93510828537</v>
+      </c>
       <c r="CS34" s="17"/>
       <c r="CT34" s="17"/>
       <c r="CU34" s="17"/>
@@ -28598,12 +28700,13 @@
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
-      <c r="CL35" s="9"/>
-      <c r="CM35" s="9"/>
-      <c r="CN35" s="9"/>
-      <c r="CO35" s="9"/>
-      <c r="CP35" s="9"/>
-      <c r="CQ35" s="9"/>
+      <c r="CL35" s="26"/>
+      <c r="CM35" s="26"/>
+      <c r="CN35" s="26"/>
+      <c r="CO35" s="26"/>
+      <c r="CP35" s="26"/>
+      <c r="CQ35" s="26"/>
+      <c r="CR35" s="26"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28697,12 +28800,13 @@
       <c r="CI36" s="3"/>
       <c r="CJ36" s="3"/>
       <c r="CK36" s="3"/>
-      <c r="CL36" s="3"/>
-      <c r="CM36" s="3"/>
-      <c r="CN36" s="3"/>
-      <c r="CO36" s="3"/>
-      <c r="CP36" s="3"/>
-      <c r="CQ36" s="3"/>
+      <c r="CL36" s="21"/>
+      <c r="CM36" s="21"/>
+      <c r="CN36" s="21"/>
+      <c r="CO36" s="21"/>
+      <c r="CP36" s="21"/>
+      <c r="CQ36" s="21"/>
+      <c r="CR36" s="21"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -28793,13 +28897,13 @@
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
-      <c r="CL37" s="11"/>
-      <c r="CM37" s="11"/>
-      <c r="CN37" s="11"/>
-      <c r="CO37" s="11"/>
-      <c r="CP37" s="11"/>
-      <c r="CQ37" s="11"/>
-      <c r="CR37" s="17"/>
+      <c r="CL37" s="24"/>
+      <c r="CM37" s="24"/>
+      <c r="CN37" s="24"/>
+      <c r="CO37" s="24"/>
+      <c r="CP37" s="24"/>
+      <c r="CQ37" s="24"/>
+      <c r="CR37" s="24"/>
       <c r="CS37" s="17"/>
       <c r="CT37" s="17"/>
       <c r="CU37" s="17"/>
@@ -28949,13 +29053,13 @@
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
-      <c r="CL38" s="11"/>
-      <c r="CM38" s="11"/>
-      <c r="CN38" s="11"/>
-      <c r="CO38" s="11"/>
-      <c r="CP38" s="11"/>
-      <c r="CQ38" s="11"/>
-      <c r="CR38" s="17"/>
+      <c r="CL38" s="24"/>
+      <c r="CM38" s="24"/>
+      <c r="CN38" s="24"/>
+      <c r="CO38" s="24"/>
+      <c r="CP38" s="24"/>
+      <c r="CQ38" s="24"/>
+      <c r="CR38" s="24"/>
       <c r="CS38" s="17"/>
       <c r="CT38" s="17"/>
       <c r="CU38" s="17"/>
@@ -29108,12 +29212,13 @@
       <c r="CI39" s="3"/>
       <c r="CJ39" s="3"/>
       <c r="CK39" s="3"/>
-      <c r="CL39" s="3"/>
-      <c r="CM39" s="3"/>
-      <c r="CN39" s="3"/>
-      <c r="CO39" s="3"/>
-      <c r="CP39" s="3"/>
-      <c r="CQ39" s="3"/>
+      <c r="CL39" s="21"/>
+      <c r="CM39" s="21"/>
+      <c r="CN39" s="21"/>
+      <c r="CO39" s="21"/>
+      <c r="CP39" s="21"/>
+      <c r="CQ39" s="21"/>
+      <c r="CR39" s="21"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29207,12 +29312,13 @@
       <c r="CI40" s="3"/>
       <c r="CJ40" s="3"/>
       <c r="CK40" s="3"/>
-      <c r="CL40" s="3"/>
-      <c r="CM40" s="3"/>
-      <c r="CN40" s="3"/>
-      <c r="CO40" s="3"/>
-      <c r="CP40" s="3"/>
-      <c r="CQ40" s="3"/>
+      <c r="CL40" s="21"/>
+      <c r="CM40" s="21"/>
+      <c r="CN40" s="21"/>
+      <c r="CO40" s="21"/>
+      <c r="CP40" s="21"/>
+      <c r="CQ40" s="21"/>
+      <c r="CR40" s="21"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -29306,12 +29412,13 @@
       <c r="CI41" s="3"/>
       <c r="CJ41" s="3"/>
       <c r="CK41" s="3"/>
-      <c r="CL41" s="3"/>
-      <c r="CM41" s="3"/>
-      <c r="CN41" s="3"/>
-      <c r="CO41" s="3"/>
-      <c r="CP41" s="3"/>
-      <c r="CQ41" s="3"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
+      <c r="CN41" s="21"/>
+      <c r="CO41" s="21"/>
+      <c r="CP41" s="21"/>
+      <c r="CQ41" s="21"/>
+      <c r="CR41" s="21"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29403,12 +29510,13 @@
       <c r="CI42" s="3"/>
       <c r="CJ42" s="3"/>
       <c r="CK42" s="3"/>
-      <c r="CL42" s="3"/>
-      <c r="CM42" s="3"/>
-      <c r="CN42" s="3"/>
-      <c r="CO42" s="3"/>
-      <c r="CP42" s="3"/>
-      <c r="CQ42" s="3"/>
+      <c r="CL42" s="21"/>
+      <c r="CM42" s="21"/>
+      <c r="CN42" s="21"/>
+      <c r="CO42" s="21"/>
+      <c r="CP42" s="21"/>
+      <c r="CQ42" s="21"/>
+      <c r="CR42" s="21"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29502,12 +29610,13 @@
       <c r="CI43" s="3"/>
       <c r="CJ43" s="3"/>
       <c r="CK43" s="3"/>
-      <c r="CL43" s="3"/>
-      <c r="CM43" s="3"/>
-      <c r="CN43" s="3"/>
-      <c r="CO43" s="3"/>
-      <c r="CP43" s="3"/>
-      <c r="CQ43" s="3"/>
+      <c r="CL43" s="21"/>
+      <c r="CM43" s="21"/>
+      <c r="CN43" s="21"/>
+      <c r="CO43" s="21"/>
+      <c r="CP43" s="21"/>
+      <c r="CQ43" s="21"/>
+      <c r="CR43" s="21"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -29593,6 +29702,13 @@
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
+      <c r="CL44" s="20"/>
+      <c r="CM44" s="20"/>
+      <c r="CN44" s="20"/>
+      <c r="CO44" s="20"/>
+      <c r="CP44" s="20"/>
+      <c r="CQ44" s="20"/>
+      <c r="CR44" s="20"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -29678,6 +29794,13 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
+      <c r="CL45" s="20"/>
+      <c r="CM45" s="20"/>
+      <c r="CN45" s="20"/>
+      <c r="CO45" s="20"/>
+      <c r="CP45" s="20"/>
+      <c r="CQ45" s="20"/>
+      <c r="CR45" s="20"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -29769,155 +29892,157 @@
       <c r="CI46" s="3"/>
       <c r="CJ46" s="3"/>
       <c r="CK46" s="3"/>
-      <c r="CL46" s="3"/>
-      <c r="CM46" s="3"/>
-      <c r="CN46" s="3"/>
-      <c r="CO46" s="3"/>
-      <c r="CP46" s="3"/>
-      <c r="CQ46" s="3"/>
+      <c r="CL46" s="21"/>
+      <c r="CM46" s="21"/>
+      <c r="CN46" s="21"/>
+      <c r="CO46" s="21"/>
+      <c r="CP46" s="21"/>
+      <c r="CQ46" s="21"/>
+      <c r="CR46" s="21"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19" t="s">
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19" t="s">
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19" t="s">
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19" t="s">
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19" t="s">
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19" t="s">
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19" t="s">
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19" t="s">
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="19" t="s">
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="19"/>
-      <c r="AR47" s="19"/>
-      <c r="AS47" s="19"/>
-      <c r="AT47" s="19" t="s">
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="19"/>
-      <c r="AV47" s="19"/>
-      <c r="AW47" s="19"/>
-      <c r="AX47" s="19" t="s">
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="19"/>
-      <c r="AZ47" s="19"/>
-      <c r="BA47" s="19"/>
-      <c r="BB47" s="19" t="s">
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="32"/>
+      <c r="BA47" s="32"/>
+      <c r="BB47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="19"/>
-      <c r="BD47" s="19"/>
-      <c r="BE47" s="19"/>
-      <c r="BF47" s="19" t="s">
+      <c r="BC47" s="32"/>
+      <c r="BD47" s="32"/>
+      <c r="BE47" s="32"/>
+      <c r="BF47" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="19"/>
-      <c r="BH47" s="19"/>
-      <c r="BI47" s="19"/>
-      <c r="BJ47" s="19" t="s">
+      <c r="BG47" s="32"/>
+      <c r="BH47" s="32"/>
+      <c r="BI47" s="32"/>
+      <c r="BJ47" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="19"/>
-      <c r="BL47" s="19"/>
-      <c r="BM47" s="19"/>
-      <c r="BN47" s="19" t="s">
+      <c r="BK47" s="32"/>
+      <c r="BL47" s="32"/>
+      <c r="BM47" s="32"/>
+      <c r="BN47" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="19"/>
-      <c r="BP47" s="19"/>
-      <c r="BQ47" s="19"/>
-      <c r="BR47" s="19" t="s">
+      <c r="BO47" s="32"/>
+      <c r="BP47" s="32"/>
+      <c r="BQ47" s="32"/>
+      <c r="BR47" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="19"/>
-      <c r="BT47" s="19"/>
-      <c r="BU47" s="19"/>
-      <c r="BV47" s="19" t="s">
+      <c r="BS47" s="32"/>
+      <c r="BT47" s="32"/>
+      <c r="BU47" s="32"/>
+      <c r="BV47" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="19"/>
-      <c r="BX47" s="19"/>
-      <c r="BY47" s="19"/>
-      <c r="BZ47" s="19" t="s">
+      <c r="BW47" s="32"/>
+      <c r="BX47" s="32"/>
+      <c r="BY47" s="32"/>
+      <c r="BZ47" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="19"/>
-      <c r="CB47" s="19"/>
-      <c r="CC47" s="19"/>
-      <c r="CD47" s="19" t="s">
+      <c r="CA47" s="32"/>
+      <c r="CB47" s="32"/>
+      <c r="CC47" s="32"/>
+      <c r="CD47" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="19"/>
-      <c r="CF47" s="19"/>
-      <c r="CG47" s="19"/>
-      <c r="CH47" s="19" t="s">
+      <c r="CE47" s="32"/>
+      <c r="CF47" s="32"/>
+      <c r="CG47" s="32"/>
+      <c r="CH47" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="19"/>
-      <c r="CJ47" s="19"/>
-      <c r="CK47" s="19"/>
-      <c r="CL47" s="19" t="s">
+      <c r="CI47" s="32"/>
+      <c r="CJ47" s="32"/>
+      <c r="CK47" s="32"/>
+      <c r="CL47" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="19"/>
-      <c r="CN47" s="19"/>
-      <c r="CO47" s="19"/>
+      <c r="CM47" s="34"/>
+      <c r="CN47" s="34"/>
+      <c r="CO47" s="27"/>
       <c r="CP47" s="19"/>
-      <c r="CQ47" s="21"/>
+      <c r="CQ47" s="19"/>
+      <c r="CR47" s="19"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30187,16 +30312,19 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5" t="s">
+      <c r="CL48" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5" t="s">
+      <c r="CM48" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="5"/>
-      <c r="CO48" s="5"/>
-      <c r="CP48" s="5"/>
-      <c r="CQ48" s="5"/>
+      <c r="CN48" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO48" s="28"/>
+      <c r="CP48" s="28"/>
+      <c r="CQ48" s="28"/>
+      <c r="CR48" s="28"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30288,12 +30416,13 @@
       <c r="CI49" s="3"/>
       <c r="CJ49" s="3"/>
       <c r="CK49" s="3"/>
-      <c r="CL49" s="3"/>
-      <c r="CM49" s="3"/>
-      <c r="CN49" s="3"/>
-      <c r="CO49" s="3"/>
-      <c r="CP49" s="3"/>
-      <c r="CQ49" s="3"/>
+      <c r="CL49" s="21"/>
+      <c r="CM49" s="21"/>
+      <c r="CN49" s="21"/>
+      <c r="CO49" s="21"/>
+      <c r="CP49" s="21"/>
+      <c r="CQ49" s="21"/>
+      <c r="CR49" s="21"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30563,17 +30692,19 @@
       <c r="CK50" s="12">
         <v>15.804186939397653</v>
       </c>
-      <c r="CL50" s="12">
+      <c r="CL50" s="29">
         <v>8.9045740817916794</v>
       </c>
-      <c r="CM50" s="12">
+      <c r="CM50" s="29">
         <v>9.6470243321747233</v>
       </c>
-      <c r="CN50" s="12"/>
-      <c r="CO50" s="12"/>
-      <c r="CP50" s="12"/>
-      <c r="CQ50" s="12"/>
-      <c r="CR50" s="17"/>
+      <c r="CN50" s="29">
+        <v>8.4992849367631891</v>
+      </c>
+      <c r="CO50" s="29"/>
+      <c r="CP50" s="29"/>
+      <c r="CQ50" s="29"/>
+      <c r="CR50" s="29"/>
       <c r="CS50" s="17"/>
       <c r="CT50" s="17"/>
       <c r="CU50" s="17"/>
@@ -30898,17 +31029,19 @@
       <c r="CK51" s="12">
         <v>8.8656599021623492</v>
       </c>
-      <c r="CL51" s="12">
+      <c r="CL51" s="29">
         <v>13.888840521205779</v>
       </c>
-      <c r="CM51" s="12">
-        <v>13.235949471060152</v>
-      </c>
-      <c r="CN51" s="12"/>
-      <c r="CO51" s="12"/>
-      <c r="CP51" s="12"/>
-      <c r="CQ51" s="12"/>
-      <c r="CR51" s="17"/>
+      <c r="CM51" s="29">
+        <v>14.998689146700968</v>
+      </c>
+      <c r="CN51" s="29">
+        <v>12.196521171299963</v>
+      </c>
+      <c r="CO51" s="29"/>
+      <c r="CP51" s="29"/>
+      <c r="CQ51" s="29"/>
+      <c r="CR51" s="29"/>
       <c r="CS51" s="17"/>
       <c r="CT51" s="17"/>
       <c r="CU51" s="17"/>
@@ -31055,13 +31188,13 @@
       <c r="CI52" s="11"/>
       <c r="CJ52" s="11"/>
       <c r="CK52" s="11"/>
-      <c r="CL52" s="11"/>
-      <c r="CM52" s="11"/>
-      <c r="CN52" s="11"/>
-      <c r="CO52" s="11"/>
-      <c r="CP52" s="11"/>
-      <c r="CQ52" s="11"/>
-      <c r="CR52" s="17"/>
+      <c r="CL52" s="24"/>
+      <c r="CM52" s="24"/>
+      <c r="CN52" s="24"/>
+      <c r="CO52" s="24"/>
+      <c r="CP52" s="24"/>
+      <c r="CQ52" s="24"/>
+      <c r="CR52" s="24"/>
       <c r="CS52" s="17"/>
       <c r="CT52" s="17"/>
       <c r="CU52" s="17"/>
@@ -31386,17 +31519,19 @@
       <c r="CK53" s="12">
         <v>13.639076187838199</v>
       </c>
-      <c r="CL53" s="12">
+      <c r="CL53" s="29">
         <v>10.353708800800575</v>
       </c>
-      <c r="CM53" s="12">
-        <v>10.601609089781249</v>
-      </c>
-      <c r="CN53" s="12"/>
-      <c r="CO53" s="12"/>
-      <c r="CP53" s="12"/>
-      <c r="CQ53" s="12"/>
-      <c r="CR53" s="17"/>
+      <c r="CM53" s="29">
+        <v>11.070463791642666</v>
+      </c>
+      <c r="CN53" s="29">
+        <v>9.6947969522315276</v>
+      </c>
+      <c r="CO53" s="29"/>
+      <c r="CP53" s="29"/>
+      <c r="CQ53" s="29"/>
+      <c r="CR53" s="29"/>
       <c r="CS53" s="17"/>
       <c r="CT53" s="17"/>
       <c r="CU53" s="17"/>
@@ -31543,12 +31678,13 @@
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
       <c r="CK54" s="9"/>
-      <c r="CL54" s="9"/>
-      <c r="CM54" s="9"/>
-      <c r="CN54" s="9"/>
-      <c r="CO54" s="9"/>
-      <c r="CP54" s="9"/>
-      <c r="CQ54" s="9"/>
+      <c r="CL54" s="26"/>
+      <c r="CM54" s="26"/>
+      <c r="CN54" s="26"/>
+      <c r="CO54" s="26"/>
+      <c r="CP54" s="26"/>
+      <c r="CQ54" s="26"/>
+      <c r="CR54" s="26"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -31642,12 +31778,13 @@
       <c r="CI55" s="3"/>
       <c r="CJ55" s="3"/>
       <c r="CK55" s="3"/>
-      <c r="CL55" s="3"/>
-      <c r="CM55" s="3"/>
-      <c r="CN55" s="3"/>
-      <c r="CO55" s="3"/>
-      <c r="CP55" s="3"/>
-      <c r="CQ55" s="3"/>
+      <c r="CL55" s="21"/>
+      <c r="CM55" s="21"/>
+      <c r="CN55" s="21"/>
+      <c r="CO55" s="21"/>
+      <c r="CP55" s="21"/>
+      <c r="CQ55" s="21"/>
+      <c r="CR55" s="21"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -31738,13 +31875,13 @@
       <c r="CI56" s="11"/>
       <c r="CJ56" s="11"/>
       <c r="CK56" s="11"/>
-      <c r="CL56" s="11"/>
-      <c r="CM56" s="11"/>
-      <c r="CN56" s="11"/>
-      <c r="CO56" s="11"/>
-      <c r="CP56" s="11"/>
-      <c r="CQ56" s="11"/>
-      <c r="CR56" s="17"/>
+      <c r="CL56" s="24"/>
+      <c r="CM56" s="24"/>
+      <c r="CN56" s="24"/>
+      <c r="CO56" s="24"/>
+      <c r="CP56" s="24"/>
+      <c r="CQ56" s="24"/>
+      <c r="CR56" s="24"/>
       <c r="CS56" s="17"/>
       <c r="CT56" s="17"/>
       <c r="CU56" s="17"/>
@@ -31890,13 +32027,13 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="11"/>
-      <c r="CM57" s="11"/>
-      <c r="CN57" s="11"/>
-      <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="17"/>
+      <c r="CL57" s="24"/>
+      <c r="CM57" s="24"/>
+      <c r="CN57" s="24"/>
+      <c r="CO57" s="24"/>
+      <c r="CP57" s="24"/>
+      <c r="CQ57" s="24"/>
+      <c r="CR57" s="24"/>
       <c r="CS57" s="17"/>
       <c r="CT57" s="17"/>
       <c r="CU57" s="17"/>
@@ -32045,12 +32182,13 @@
       <c r="CI58" s="3"/>
       <c r="CJ58" s="3"/>
       <c r="CK58" s="3"/>
-      <c r="CL58" s="3"/>
-      <c r="CM58" s="3"/>
-      <c r="CN58" s="3"/>
-      <c r="CO58" s="3"/>
-      <c r="CP58" s="3"/>
-      <c r="CQ58" s="3"/>
+      <c r="CL58" s="21"/>
+      <c r="CM58" s="21"/>
+      <c r="CN58" s="21"/>
+      <c r="CO58" s="21"/>
+      <c r="CP58" s="21"/>
+      <c r="CQ58" s="21"/>
+      <c r="CR58" s="21"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32144,12 +32282,13 @@
       <c r="CI59" s="3"/>
       <c r="CJ59" s="3"/>
       <c r="CK59" s="3"/>
-      <c r="CL59" s="3"/>
-      <c r="CM59" s="3"/>
-      <c r="CN59" s="3"/>
-      <c r="CO59" s="3"/>
-      <c r="CP59" s="3"/>
-      <c r="CQ59" s="3"/>
+      <c r="CL59" s="21"/>
+      <c r="CM59" s="21"/>
+      <c r="CN59" s="21"/>
+      <c r="CO59" s="21"/>
+      <c r="CP59" s="21"/>
+      <c r="CQ59" s="21"/>
+      <c r="CR59" s="21"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
@@ -32243,12 +32382,13 @@
       <c r="CI60" s="3"/>
       <c r="CJ60" s="3"/>
       <c r="CK60" s="3"/>
-      <c r="CL60" s="3"/>
-      <c r="CM60" s="3"/>
-      <c r="CN60" s="3"/>
-      <c r="CO60" s="3"/>
-      <c r="CP60" s="3"/>
-      <c r="CQ60" s="3"/>
+      <c r="CL60" s="21"/>
+      <c r="CM60" s="21"/>
+      <c r="CN60" s="21"/>
+      <c r="CO60" s="21"/>
+      <c r="CP60" s="21"/>
+      <c r="CQ60" s="21"/>
+      <c r="CR60" s="21"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32340,12 +32480,13 @@
       <c r="CI61" s="3"/>
       <c r="CJ61" s="3"/>
       <c r="CK61" s="3"/>
-      <c r="CL61" s="3"/>
-      <c r="CM61" s="3"/>
-      <c r="CN61" s="3"/>
-      <c r="CO61" s="3"/>
-      <c r="CP61" s="3"/>
-      <c r="CQ61" s="3"/>
+      <c r="CL61" s="21"/>
+      <c r="CM61" s="21"/>
+      <c r="CN61" s="21"/>
+      <c r="CO61" s="21"/>
+      <c r="CP61" s="21"/>
+      <c r="CQ61" s="21"/>
+      <c r="CR61" s="21"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32439,12 +32580,13 @@
       <c r="CI62" s="3"/>
       <c r="CJ62" s="3"/>
       <c r="CK62" s="3"/>
-      <c r="CL62" s="3"/>
-      <c r="CM62" s="3"/>
-      <c r="CN62" s="3"/>
-      <c r="CO62" s="3"/>
-      <c r="CP62" s="3"/>
-      <c r="CQ62" s="3"/>
+      <c r="CL62" s="21"/>
+      <c r="CM62" s="21"/>
+      <c r="CN62" s="21"/>
+      <c r="CO62" s="21"/>
+      <c r="CP62" s="21"/>
+      <c r="CQ62" s="21"/>
+      <c r="CR62" s="21"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
@@ -32538,12 +32680,13 @@
       <c r="CI63" s="3"/>
       <c r="CJ63" s="3"/>
       <c r="CK63" s="3"/>
-      <c r="CL63" s="3"/>
-      <c r="CM63" s="3"/>
-      <c r="CN63" s="3"/>
-      <c r="CO63" s="3"/>
-      <c r="CP63" s="3"/>
-      <c r="CQ63" s="3"/>
+      <c r="CL63" s="21"/>
+      <c r="CM63" s="21"/>
+      <c r="CN63" s="21"/>
+      <c r="CO63" s="21"/>
+      <c r="CP63" s="21"/>
+      <c r="CQ63" s="21"/>
+      <c r="CR63" s="21"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -32637,12 +32780,13 @@
       <c r="CI64" s="3"/>
       <c r="CJ64" s="3"/>
       <c r="CK64" s="3"/>
-      <c r="CL64" s="3"/>
-      <c r="CM64" s="3"/>
-      <c r="CN64" s="3"/>
-      <c r="CO64" s="3"/>
-      <c r="CP64" s="3"/>
-      <c r="CQ64" s="3"/>
+      <c r="CL64" s="21"/>
+      <c r="CM64" s="21"/>
+      <c r="CN64" s="21"/>
+      <c r="CO64" s="21"/>
+      <c r="CP64" s="21"/>
+      <c r="CQ64" s="21"/>
+      <c r="CR64" s="21"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -32734,155 +32878,157 @@
       <c r="CI65" s="3"/>
       <c r="CJ65" s="3"/>
       <c r="CK65" s="3"/>
-      <c r="CL65" s="3"/>
-      <c r="CM65" s="3"/>
-      <c r="CN65" s="3"/>
-      <c r="CO65" s="3"/>
-      <c r="CP65" s="3"/>
-      <c r="CQ65" s="3"/>
+      <c r="CL65" s="21"/>
+      <c r="CM65" s="21"/>
+      <c r="CN65" s="21"/>
+      <c r="CO65" s="21"/>
+      <c r="CP65" s="21"/>
+      <c r="CQ65" s="21"/>
+      <c r="CR65" s="21"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19" t="s">
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19" t="s">
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19" t="s">
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19" t="s">
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="19" t="s">
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19" t="s">
+      <c r="AA66" s="32"/>
+      <c r="AB66" s="32"/>
+      <c r="AC66" s="32"/>
+      <c r="AD66" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="19"/>
-      <c r="AH66" s="19" t="s">
+      <c r="AE66" s="32"/>
+      <c r="AF66" s="32"/>
+      <c r="AG66" s="32"/>
+      <c r="AH66" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="19"/>
-      <c r="AJ66" s="19"/>
-      <c r="AK66" s="19"/>
-      <c r="AL66" s="19" t="s">
+      <c r="AI66" s="32"/>
+      <c r="AJ66" s="32"/>
+      <c r="AK66" s="32"/>
+      <c r="AL66" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="19"/>
-      <c r="AN66" s="19"/>
-      <c r="AO66" s="19"/>
-      <c r="AP66" s="19" t="s">
+      <c r="AM66" s="32"/>
+      <c r="AN66" s="32"/>
+      <c r="AO66" s="32"/>
+      <c r="AP66" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="19"/>
-      <c r="AR66" s="19"/>
-      <c r="AS66" s="19"/>
-      <c r="AT66" s="19" t="s">
+      <c r="AQ66" s="32"/>
+      <c r="AR66" s="32"/>
+      <c r="AS66" s="32"/>
+      <c r="AT66" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="19"/>
-      <c r="AV66" s="19"/>
-      <c r="AW66" s="19"/>
-      <c r="AX66" s="19" t="s">
+      <c r="AU66" s="32"/>
+      <c r="AV66" s="32"/>
+      <c r="AW66" s="32"/>
+      <c r="AX66" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="19"/>
-      <c r="AZ66" s="19"/>
-      <c r="BA66" s="19"/>
-      <c r="BB66" s="19" t="s">
+      <c r="AY66" s="32"/>
+      <c r="AZ66" s="32"/>
+      <c r="BA66" s="32"/>
+      <c r="BB66" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="19"/>
-      <c r="BD66" s="19"/>
-      <c r="BE66" s="19"/>
-      <c r="BF66" s="19" t="s">
+      <c r="BC66" s="32"/>
+      <c r="BD66" s="32"/>
+      <c r="BE66" s="32"/>
+      <c r="BF66" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="19"/>
-      <c r="BH66" s="19"/>
-      <c r="BI66" s="19"/>
-      <c r="BJ66" s="19" t="s">
+      <c r="BG66" s="32"/>
+      <c r="BH66" s="32"/>
+      <c r="BI66" s="32"/>
+      <c r="BJ66" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="19"/>
-      <c r="BL66" s="19"/>
-      <c r="BM66" s="19"/>
-      <c r="BN66" s="19" t="s">
+      <c r="BK66" s="32"/>
+      <c r="BL66" s="32"/>
+      <c r="BM66" s="32"/>
+      <c r="BN66" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="19"/>
-      <c r="BP66" s="19"/>
-      <c r="BQ66" s="19"/>
-      <c r="BR66" s="19" t="s">
+      <c r="BO66" s="32"/>
+      <c r="BP66" s="32"/>
+      <c r="BQ66" s="32"/>
+      <c r="BR66" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="19"/>
-      <c r="BT66" s="19"/>
-      <c r="BU66" s="19"/>
-      <c r="BV66" s="19" t="s">
+      <c r="BS66" s="32"/>
+      <c r="BT66" s="32"/>
+      <c r="BU66" s="32"/>
+      <c r="BV66" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="19"/>
-      <c r="BX66" s="19"/>
-      <c r="BY66" s="19"/>
-      <c r="BZ66" s="19" t="s">
+      <c r="BW66" s="32"/>
+      <c r="BX66" s="32"/>
+      <c r="BY66" s="32"/>
+      <c r="BZ66" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="19"/>
-      <c r="CB66" s="19"/>
-      <c r="CC66" s="19"/>
-      <c r="CD66" s="19" t="s">
+      <c r="CA66" s="32"/>
+      <c r="CB66" s="32"/>
+      <c r="CC66" s="32"/>
+      <c r="CD66" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="19"/>
-      <c r="CF66" s="19"/>
-      <c r="CG66" s="19"/>
-      <c r="CH66" s="19" t="s">
+      <c r="CE66" s="32"/>
+      <c r="CF66" s="32"/>
+      <c r="CG66" s="32"/>
+      <c r="CH66" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="19"/>
-      <c r="CJ66" s="19"/>
-      <c r="CK66" s="19"/>
-      <c r="CL66" s="19" t="s">
+      <c r="CI66" s="32"/>
+      <c r="CJ66" s="32"/>
+      <c r="CK66" s="32"/>
+      <c r="CL66" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="19"/>
-      <c r="CN66" s="19"/>
-      <c r="CO66" s="19"/>
+      <c r="CM66" s="34"/>
+      <c r="CN66" s="34"/>
+      <c r="CO66" s="27"/>
       <c r="CP66" s="19"/>
-      <c r="CQ66" s="21"/>
+      <c r="CQ66" s="19"/>
+      <c r="CR66" s="19"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33152,16 +33298,19 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5" t="s">
+      <c r="CL67" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5" t="s">
+      <c r="CM67" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="5"/>
-      <c r="CO67" s="5"/>
-      <c r="CP67" s="5"/>
-      <c r="CQ67" s="5"/>
+      <c r="CN67" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO67" s="28"/>
+      <c r="CP67" s="28"/>
+      <c r="CQ67" s="28"/>
+      <c r="CR67" s="28"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33253,12 +33402,13 @@
       <c r="CI68" s="3"/>
       <c r="CJ68" s="3"/>
       <c r="CK68" s="3"/>
-      <c r="CL68" s="3"/>
-      <c r="CM68" s="3"/>
-      <c r="CN68" s="3"/>
-      <c r="CO68" s="3"/>
-      <c r="CP68" s="3"/>
-      <c r="CQ68" s="3"/>
+      <c r="CL68" s="21"/>
+      <c r="CM68" s="21"/>
+      <c r="CN68" s="21"/>
+      <c r="CO68" s="21"/>
+      <c r="CP68" s="21"/>
+      <c r="CQ68" s="21"/>
+      <c r="CR68" s="21"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33528,17 +33678,19 @@
       <c r="CK69" s="12">
         <v>12.082243256871521</v>
       </c>
-      <c r="CL69" s="12">
+      <c r="CL69" s="29">
         <v>4.9915013343150321</v>
       </c>
-      <c r="CM69" s="12">
+      <c r="CM69" s="29">
         <v>5.2263007550360214</v>
       </c>
-      <c r="CN69" s="12"/>
-      <c r="CO69" s="12"/>
-      <c r="CP69" s="12"/>
-      <c r="CQ69" s="12"/>
-      <c r="CR69" s="17"/>
+      <c r="CN69" s="29">
+        <v>4.9814191127157841</v>
+      </c>
+      <c r="CO69" s="29"/>
+      <c r="CP69" s="29"/>
+      <c r="CQ69" s="29"/>
+      <c r="CR69" s="29"/>
       <c r="CS69" s="17"/>
       <c r="CT69" s="17"/>
       <c r="CU69" s="17"/>
@@ -33863,17 +34015,19 @@
       <c r="CK70" s="12">
         <v>5.9595037905697694</v>
       </c>
-      <c r="CL70" s="12">
+      <c r="CL70" s="29">
         <v>10.248949769825217</v>
       </c>
-      <c r="CM70" s="12">
-        <v>9.4252439616416837</v>
-      </c>
-      <c r="CN70" s="12"/>
-      <c r="CO70" s="12"/>
-      <c r="CP70" s="12"/>
-      <c r="CQ70" s="12"/>
-      <c r="CR70" s="17"/>
+      <c r="CM70" s="29">
+        <v>11.128662530999449</v>
+      </c>
+      <c r="CN70" s="29">
+        <v>8.500635768010028</v>
+      </c>
+      <c r="CO70" s="29"/>
+      <c r="CP70" s="29"/>
+      <c r="CQ70" s="29"/>
+      <c r="CR70" s="29"/>
       <c r="CS70" s="17"/>
       <c r="CT70" s="17"/>
       <c r="CU70" s="17"/>
@@ -34019,13 +34173,13 @@
       <c r="CI71" s="11"/>
       <c r="CJ71" s="11"/>
       <c r="CK71" s="11"/>
-      <c r="CL71" s="11"/>
-      <c r="CM71" s="11"/>
-      <c r="CN71" s="11"/>
-      <c r="CO71" s="11"/>
-      <c r="CP71" s="11"/>
-      <c r="CQ71" s="11"/>
-      <c r="CR71" s="17"/>
+      <c r="CL71" s="24"/>
+      <c r="CM71" s="24"/>
+      <c r="CN71" s="24"/>
+      <c r="CO71" s="24"/>
+      <c r="CP71" s="24"/>
+      <c r="CQ71" s="24"/>
+      <c r="CR71" s="24"/>
       <c r="CS71" s="17"/>
       <c r="CT71" s="17"/>
       <c r="CU71" s="17"/>
@@ -34350,17 +34504,19 @@
       <c r="CK72" s="12">
         <v>10.026205833215911</v>
       </c>
-      <c r="CL72" s="12">
+      <c r="CL72" s="29">
         <v>6.613127846599582</v>
       </c>
-      <c r="CM72" s="12">
-        <v>6.3991549020330183</v>
-      </c>
-      <c r="CN72" s="12"/>
-      <c r="CO72" s="12"/>
-      <c r="CP72" s="12"/>
-      <c r="CQ72" s="12"/>
-      <c r="CR72" s="17"/>
+      <c r="CM72" s="29">
+        <v>6.8749559393035327</v>
+      </c>
+      <c r="CN72" s="29">
+        <v>6.129468582567867</v>
+      </c>
+      <c r="CO72" s="29"/>
+      <c r="CP72" s="29"/>
+      <c r="CQ72" s="29"/>
+      <c r="CR72" s="29"/>
       <c r="CS72" s="17"/>
       <c r="CT72" s="17"/>
       <c r="CU72" s="17"/>
@@ -34507,12 +34663,13 @@
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
       <c r="CK73" s="9"/>
-      <c r="CL73" s="9"/>
-      <c r="CM73" s="9"/>
-      <c r="CN73" s="9"/>
-      <c r="CO73" s="9"/>
-      <c r="CP73" s="9"/>
-      <c r="CQ73" s="9"/>
+      <c r="CL73" s="26"/>
+      <c r="CM73" s="26"/>
+      <c r="CN73" s="26"/>
+      <c r="CO73" s="26"/>
+      <c r="CP73" s="26"/>
+      <c r="CQ73" s="26"/>
+      <c r="CR73" s="26"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -34606,12 +34763,13 @@
       <c r="CI74" s="3"/>
       <c r="CJ74" s="3"/>
       <c r="CK74" s="3"/>
-      <c r="CL74" s="3"/>
-      <c r="CM74" s="3"/>
-      <c r="CN74" s="3"/>
-      <c r="CO74" s="3"/>
-      <c r="CP74" s="3"/>
-      <c r="CQ74" s="3"/>
+      <c r="CL74" s="21"/>
+      <c r="CM74" s="21"/>
+      <c r="CN74" s="21"/>
+      <c r="CO74" s="21"/>
+      <c r="CP74" s="21"/>
+      <c r="CQ74" s="21"/>
+      <c r="CR74" s="21"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -34702,13 +34860,13 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="17"/>
       <c r="CK75" s="17"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="17"/>
-      <c r="CO75" s="17"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="17"/>
+      <c r="CL75" s="24"/>
+      <c r="CM75" s="24"/>
+      <c r="CN75" s="30"/>
+      <c r="CO75" s="30"/>
+      <c r="CP75" s="24"/>
+      <c r="CQ75" s="24"/>
+      <c r="CR75" s="30"/>
       <c r="CS75" s="17"/>
       <c r="CT75" s="17"/>
       <c r="CU75" s="17"/>
@@ -34854,13 +35012,13 @@
       <c r="CI76" s="17"/>
       <c r="CJ76" s="17"/>
       <c r="CK76" s="17"/>
-      <c r="CL76" s="17"/>
-      <c r="CM76" s="17"/>
-      <c r="CN76" s="17"/>
-      <c r="CO76" s="17"/>
-      <c r="CP76" s="17"/>
-      <c r="CQ76" s="17"/>
-      <c r="CR76" s="17"/>
+      <c r="CL76" s="30"/>
+      <c r="CM76" s="30"/>
+      <c r="CN76" s="30"/>
+      <c r="CO76" s="30"/>
+      <c r="CP76" s="30"/>
+      <c r="CQ76" s="30"/>
+      <c r="CR76" s="30"/>
       <c r="CS76" s="17"/>
       <c r="CT76" s="17"/>
       <c r="CU76" s="17"/>
@@ -35001,6 +35159,13 @@
       <c r="CA77" s="3"/>
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
+      <c r="CL77" s="20"/>
+      <c r="CM77" s="20"/>
+      <c r="CN77" s="20"/>
+      <c r="CO77" s="20"/>
+      <c r="CP77" s="20"/>
+      <c r="CQ77" s="20"/>
+      <c r="CR77" s="20"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
@@ -35086,6 +35251,13 @@
       <c r="CA78" s="3"/>
       <c r="CB78" s="3"/>
       <c r="CC78" s="3"/>
+      <c r="CL78" s="20"/>
+      <c r="CM78" s="20"/>
+      <c r="CN78" s="20"/>
+      <c r="CO78" s="20"/>
+      <c r="CP78" s="20"/>
+      <c r="CQ78" s="20"/>
+      <c r="CR78" s="20"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35169,6 +35341,13 @@
       <c r="CA79" s="3"/>
       <c r="CB79" s="3"/>
       <c r="CC79" s="3"/>
+      <c r="CL79" s="20"/>
+      <c r="CM79" s="20"/>
+      <c r="CN79" s="20"/>
+      <c r="CO79" s="20"/>
+      <c r="CP79" s="20"/>
+      <c r="CQ79" s="20"/>
+      <c r="CR79" s="20"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35254,6 +35433,13 @@
       <c r="CA80" s="3"/>
       <c r="CB80" s="3"/>
       <c r="CC80" s="3"/>
+      <c r="CL80" s="20"/>
+      <c r="CM80" s="20"/>
+      <c r="CN80" s="20"/>
+      <c r="CO80" s="20"/>
+      <c r="CP80" s="20"/>
+      <c r="CQ80" s="20"/>
+      <c r="CR80" s="20"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
@@ -35339,6 +35525,13 @@
       <c r="CA81" s="3"/>
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
+      <c r="CL81" s="20"/>
+      <c r="CM81" s="20"/>
+      <c r="CN81" s="20"/>
+      <c r="CO81" s="20"/>
+      <c r="CP81" s="20"/>
+      <c r="CQ81" s="20"/>
+      <c r="CR81" s="20"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -35424,6 +35617,13 @@
       <c r="CA82" s="3"/>
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
+      <c r="CL82" s="20"/>
+      <c r="CM82" s="20"/>
+      <c r="CN82" s="20"/>
+      <c r="CO82" s="20"/>
+      <c r="CP82" s="20"/>
+      <c r="CQ82" s="20"/>
+      <c r="CR82" s="20"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -35507,151 +35707,159 @@
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
+      <c r="CL83" s="20"/>
+      <c r="CM83" s="20"/>
+      <c r="CN83" s="20"/>
+      <c r="CO83" s="20"/>
+      <c r="CP83" s="20"/>
+      <c r="CQ83" s="20"/>
+      <c r="CR83" s="20"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="19">
+      <c r="B84" s="32">
         <v>2000</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="19">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="32">
         <v>2001</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="19">
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="32">
         <v>2002</v>
       </c>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="19">
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="32">
         <v>2003</v>
       </c>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="19">
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="32">
         <v>2004</v>
       </c>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="19">
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="32">
         <v>2005</v>
       </c>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="19">
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="32">
         <v>2006</v>
       </c>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-      <c r="AD84" s="19">
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="32">
         <v>2007</v>
       </c>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
-      <c r="AH84" s="19">
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="32">
         <v>2008</v>
       </c>
-      <c r="AI84" s="20"/>
-      <c r="AJ84" s="20"/>
-      <c r="AK84" s="20"/>
-      <c r="AL84" s="19">
+      <c r="AI84" s="33"/>
+      <c r="AJ84" s="33"/>
+      <c r="AK84" s="33"/>
+      <c r="AL84" s="32">
         <v>2009</v>
       </c>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
-      <c r="AP84" s="19">
+      <c r="AM84" s="33"/>
+      <c r="AN84" s="33"/>
+      <c r="AO84" s="33"/>
+      <c r="AP84" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="20"/>
-      <c r="AR84" s="20"/>
-      <c r="AS84" s="20"/>
-      <c r="AT84" s="19">
+      <c r="AQ84" s="33"/>
+      <c r="AR84" s="33"/>
+      <c r="AS84" s="33"/>
+      <c r="AT84" s="32">
         <v>2011</v>
       </c>
-      <c r="AU84" s="20"/>
-      <c r="AV84" s="20"/>
-      <c r="AW84" s="20"/>
-      <c r="AX84" s="19">
+      <c r="AU84" s="33"/>
+      <c r="AV84" s="33"/>
+      <c r="AW84" s="33"/>
+      <c r="AX84" s="32">
         <v>2012</v>
       </c>
-      <c r="AY84" s="20"/>
-      <c r="AZ84" s="20"/>
-      <c r="BA84" s="20"/>
-      <c r="BB84" s="19">
+      <c r="AY84" s="33"/>
+      <c r="AZ84" s="33"/>
+      <c r="BA84" s="33"/>
+      <c r="BB84" s="32">
         <v>2013</v>
       </c>
-      <c r="BC84" s="20"/>
-      <c r="BD84" s="20"/>
-      <c r="BE84" s="20"/>
-      <c r="BF84" s="19">
+      <c r="BC84" s="33"/>
+      <c r="BD84" s="33"/>
+      <c r="BE84" s="33"/>
+      <c r="BF84" s="32">
         <v>2014</v>
       </c>
-      <c r="BG84" s="20"/>
-      <c r="BH84" s="20"/>
-      <c r="BI84" s="20"/>
-      <c r="BJ84" s="19">
+      <c r="BG84" s="33"/>
+      <c r="BH84" s="33"/>
+      <c r="BI84" s="33"/>
+      <c r="BJ84" s="32">
         <v>2015</v>
       </c>
-      <c r="BK84" s="20"/>
-      <c r="BL84" s="20"/>
-      <c r="BM84" s="20"/>
-      <c r="BN84" s="19">
+      <c r="BK84" s="33"/>
+      <c r="BL84" s="33"/>
+      <c r="BM84" s="33"/>
+      <c r="BN84" s="32">
         <v>2016</v>
       </c>
-      <c r="BO84" s="20"/>
-      <c r="BP84" s="20"/>
-      <c r="BQ84" s="20"/>
-      <c r="BR84" s="19">
+      <c r="BO84" s="33"/>
+      <c r="BP84" s="33"/>
+      <c r="BQ84" s="33"/>
+      <c r="BR84" s="32">
         <v>2017</v>
       </c>
-      <c r="BS84" s="20"/>
-      <c r="BT84" s="20"/>
-      <c r="BU84" s="20"/>
-      <c r="BV84" s="19">
+      <c r="BS84" s="33"/>
+      <c r="BT84" s="33"/>
+      <c r="BU84" s="33"/>
+      <c r="BV84" s="32">
         <v>2018</v>
       </c>
-      <c r="BW84" s="20"/>
-      <c r="BX84" s="20"/>
-      <c r="BY84" s="20"/>
-      <c r="BZ84" s="19">
+      <c r="BW84" s="33"/>
+      <c r="BX84" s="33"/>
+      <c r="BY84" s="33"/>
+      <c r="BZ84" s="32">
         <v>2019</v>
       </c>
-      <c r="CA84" s="20"/>
-      <c r="CB84" s="20"/>
-      <c r="CC84" s="20"/>
-      <c r="CD84" s="19">
+      <c r="CA84" s="33"/>
+      <c r="CB84" s="33"/>
+      <c r="CC84" s="33"/>
+      <c r="CD84" s="32">
         <v>2020</v>
       </c>
-      <c r="CE84" s="19"/>
-      <c r="CF84" s="19"/>
-      <c r="CG84" s="19"/>
-      <c r="CH84" s="19">
+      <c r="CE84" s="32"/>
+      <c r="CF84" s="32"/>
+      <c r="CG84" s="32"/>
+      <c r="CH84" s="32">
         <v>2021</v>
       </c>
-      <c r="CI84" s="19"/>
-      <c r="CJ84" s="19"/>
-      <c r="CK84" s="19"/>
-      <c r="CL84" s="19">
+      <c r="CI84" s="32"/>
+      <c r="CJ84" s="32"/>
+      <c r="CK84" s="32"/>
+      <c r="CL84" s="34">
         <v>2022</v>
       </c>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
-      <c r="CP84" s="19">
+      <c r="CM84" s="34"/>
+      <c r="CN84" s="34"/>
+      <c r="CO84" s="34"/>
+      <c r="CP84" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="21"/>
+      <c r="CQ84" s="34"/>
+      <c r="CR84" s="34"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -35921,23 +36129,26 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="6" t="s">
+      <c r="CL85" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="6" t="s">
+      <c r="CM85" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="6" t="s">
+      <c r="CN85" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="6" t="s">
+      <c r="CO85" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR85" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36022,6 +36233,13 @@
       <c r="CA86" s="3"/>
       <c r="CB86" s="3"/>
       <c r="CC86" s="3"/>
+      <c r="CL86" s="20"/>
+      <c r="CM86" s="20"/>
+      <c r="CN86" s="20"/>
+      <c r="CO86" s="20"/>
+      <c r="CP86" s="20"/>
+      <c r="CQ86" s="20"/>
+      <c r="CR86" s="20"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36291,25 +36509,27 @@
       <c r="CK87" s="12">
         <v>124.54738077603018</v>
       </c>
-      <c r="CL87" s="12">
+      <c r="CL87" s="29">
         <v>106.31873751394872</v>
       </c>
-      <c r="CM87" s="12">
+      <c r="CM87" s="29">
         <v>106.78871627269469</v>
       </c>
-      <c r="CN87" s="12">
+      <c r="CN87" s="29">
         <v>112.02202008486056</v>
       </c>
-      <c r="CO87" s="12">
+      <c r="CO87" s="29">
         <v>128.683257464295</v>
       </c>
-      <c r="CP87" s="12">
+      <c r="CP87" s="29">
         <v>110.28127685308264</v>
       </c>
-      <c r="CQ87" s="12">
+      <c r="CQ87" s="29">
         <v>111.27507940065517</v>
       </c>
-      <c r="CR87" s="17"/>
+      <c r="CR87" s="29">
+        <v>115.77581232093399</v>
+      </c>
       <c r="CS87" s="17"/>
       <c r="CT87" s="17"/>
       <c r="CU87" s="17"/>
@@ -36634,25 +36854,27 @@
       <c r="CK88" s="12">
         <v>111.7369322217173</v>
       </c>
-      <c r="CL88" s="12">
+      <c r="CL88" s="29">
         <v>97.715788312788192</v>
       </c>
-      <c r="CM88" s="12">
+      <c r="CM88" s="29">
         <v>99.840252290607452</v>
       </c>
-      <c r="CN88" s="12">
+      <c r="CN88" s="29">
         <v>110.56546230442498</v>
       </c>
-      <c r="CO88" s="12">
+      <c r="CO88" s="29">
         <v>114.8015461246719</v>
       </c>
-      <c r="CP88" s="12">
+      <c r="CP88" s="29">
         <v>100.94189427466942</v>
       </c>
-      <c r="CQ88" s="12">
-        <v>103.31716297128106</v>
-      </c>
-      <c r="CR88" s="17"/>
+      <c r="CQ88" s="29">
+        <v>103.31716297128108</v>
+      </c>
+      <c r="CR88" s="29">
+        <v>114.33168243158308</v>
+      </c>
       <c r="CS88" s="17"/>
       <c r="CT88" s="17"/>
       <c r="CU88" s="17"/>
@@ -36798,13 +37020,13 @@
       <c r="CI89" s="11"/>
       <c r="CJ89" s="11"/>
       <c r="CK89" s="11"/>
-      <c r="CL89" s="11"/>
-      <c r="CM89" s="11"/>
-      <c r="CN89" s="11"/>
-      <c r="CO89" s="11"/>
-      <c r="CP89" s="11"/>
-      <c r="CQ89" s="11"/>
-      <c r="CR89" s="17"/>
+      <c r="CL89" s="24"/>
+      <c r="CM89" s="24"/>
+      <c r="CN89" s="24"/>
+      <c r="CO89" s="24"/>
+      <c r="CP89" s="24"/>
+      <c r="CQ89" s="24"/>
+      <c r="CR89" s="24"/>
       <c r="CS89" s="17"/>
       <c r="CT89" s="17"/>
       <c r="CU89" s="17"/>
@@ -37129,25 +37351,27 @@
       <c r="CK90" s="12">
         <v>120.24558714485497</v>
       </c>
-      <c r="CL90" s="12">
+      <c r="CL90" s="29">
         <v>103.66521258078684</v>
       </c>
-      <c r="CM90" s="12">
+      <c r="CM90" s="29">
         <v>104.84786249219349</v>
       </c>
-      <c r="CN90" s="12">
+      <c r="CN90" s="29">
         <v>111.54685741332615</v>
       </c>
-      <c r="CO90" s="12">
+      <c r="CO90" s="29">
         <v>124.19402573527888</v>
       </c>
-      <c r="CP90" s="12">
+      <c r="CP90" s="29">
         <v>107.30236428644572</v>
       </c>
-      <c r="CQ90" s="12">
-        <v>108.98904518497396</v>
-      </c>
-      <c r="CR90" s="17"/>
+      <c r="CQ90" s="29">
+        <v>108.96379429792722</v>
+      </c>
+      <c r="CR90" s="29">
+        <v>115.29417830915396</v>
+      </c>
       <c r="CS90" s="17"/>
       <c r="CT90" s="17"/>
       <c r="CU90" s="17"/>
@@ -37294,12 +37518,13 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
-      <c r="CL91" s="9"/>
-      <c r="CM91" s="9"/>
-      <c r="CN91" s="9"/>
-      <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
+      <c r="CL91" s="26"/>
+      <c r="CM91" s="26"/>
+      <c r="CN91" s="26"/>
+      <c r="CO91" s="26"/>
+      <c r="CP91" s="26"/>
+      <c r="CQ91" s="26"/>
+      <c r="CR91" s="26"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37385,6 +37610,13 @@
       <c r="CA92" s="3"/>
       <c r="CB92" s="3"/>
       <c r="CC92" s="3"/>
+      <c r="CL92" s="20"/>
+      <c r="CM92" s="20"/>
+      <c r="CN92" s="20"/>
+      <c r="CO92" s="20"/>
+      <c r="CP92" s="20"/>
+      <c r="CQ92" s="20"/>
+      <c r="CR92" s="20"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -37475,12 +37707,13 @@
       <c r="CI93" s="3"/>
       <c r="CJ93" s="3"/>
       <c r="CK93" s="3"/>
-      <c r="CL93" s="3"/>
-      <c r="CM93" s="3"/>
-      <c r="CN93" s="3"/>
-      <c r="CO93" s="3"/>
-      <c r="CP93" s="3"/>
-      <c r="CQ93" s="3"/>
+      <c r="CL93" s="21"/>
+      <c r="CM93" s="21"/>
+      <c r="CN93" s="21"/>
+      <c r="CO93" s="21"/>
+      <c r="CP93" s="21"/>
+      <c r="CQ93" s="21"/>
+      <c r="CR93" s="21"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -37571,12 +37804,13 @@
       <c r="CI94" s="3"/>
       <c r="CJ94" s="3"/>
       <c r="CK94" s="3"/>
-      <c r="CL94" s="3"/>
-      <c r="CM94" s="3"/>
-      <c r="CN94" s="3"/>
-      <c r="CO94" s="3"/>
-      <c r="CP94" s="3"/>
-      <c r="CQ94" s="3"/>
+      <c r="CL94" s="21"/>
+      <c r="CM94" s="21"/>
+      <c r="CN94" s="21"/>
+      <c r="CO94" s="21"/>
+      <c r="CP94" s="21"/>
+      <c r="CQ94" s="21"/>
+      <c r="CR94" s="21"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -37670,12 +37904,13 @@
       <c r="CI95" s="3"/>
       <c r="CJ95" s="3"/>
       <c r="CK95" s="3"/>
-      <c r="CL95" s="3"/>
-      <c r="CM95" s="3"/>
-      <c r="CN95" s="3"/>
-      <c r="CO95" s="3"/>
-      <c r="CP95" s="3"/>
-      <c r="CQ95" s="3"/>
+      <c r="CL95" s="21"/>
+      <c r="CM95" s="21"/>
+      <c r="CN95" s="21"/>
+      <c r="CO95" s="21"/>
+      <c r="CP95" s="21"/>
+      <c r="CQ95" s="21"/>
+      <c r="CR95" s="21"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -37769,12 +38004,13 @@
       <c r="CI96" s="3"/>
       <c r="CJ96" s="3"/>
       <c r="CK96" s="3"/>
-      <c r="CL96" s="3"/>
-      <c r="CM96" s="3"/>
-      <c r="CN96" s="3"/>
-      <c r="CO96" s="3"/>
-      <c r="CP96" s="3"/>
-      <c r="CQ96" s="3"/>
+      <c r="CL96" s="21"/>
+      <c r="CM96" s="21"/>
+      <c r="CN96" s="21"/>
+      <c r="CO96" s="21"/>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
@@ -37868,12 +38104,13 @@
       <c r="CI97" s="3"/>
       <c r="CJ97" s="3"/>
       <c r="CK97" s="3"/>
-      <c r="CL97" s="3"/>
-      <c r="CM97" s="3"/>
-      <c r="CN97" s="3"/>
-      <c r="CO97" s="3"/>
-      <c r="CP97" s="3"/>
-      <c r="CQ97" s="3"/>
+      <c r="CL97" s="21"/>
+      <c r="CM97" s="21"/>
+      <c r="CN97" s="21"/>
+      <c r="CO97" s="21"/>
+      <c r="CP97" s="21"/>
+      <c r="CQ97" s="21"/>
+      <c r="CR97" s="21"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -37965,12 +38202,13 @@
       <c r="CI98" s="3"/>
       <c r="CJ98" s="3"/>
       <c r="CK98" s="3"/>
-      <c r="CL98" s="3"/>
-      <c r="CM98" s="3"/>
-      <c r="CN98" s="3"/>
-      <c r="CO98" s="3"/>
-      <c r="CP98" s="3"/>
-      <c r="CQ98" s="3"/>
+      <c r="CL98" s="21"/>
+      <c r="CM98" s="21"/>
+      <c r="CN98" s="21"/>
+      <c r="CO98" s="21"/>
+      <c r="CP98" s="21"/>
+      <c r="CQ98" s="21"/>
+      <c r="CR98" s="21"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -38064,12 +38302,13 @@
       <c r="CI99" s="3"/>
       <c r="CJ99" s="3"/>
       <c r="CK99" s="3"/>
-      <c r="CL99" s="3"/>
-      <c r="CM99" s="3"/>
-      <c r="CN99" s="3"/>
-      <c r="CO99" s="3"/>
-      <c r="CP99" s="3"/>
-      <c r="CQ99" s="3"/>
+      <c r="CL99" s="21"/>
+      <c r="CM99" s="21"/>
+      <c r="CN99" s="21"/>
+      <c r="CO99" s="21"/>
+      <c r="CP99" s="21"/>
+      <c r="CQ99" s="21"/>
+      <c r="CR99" s="21"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -38163,12 +38402,13 @@
       <c r="CI100" s="3"/>
       <c r="CJ100" s="3"/>
       <c r="CK100" s="3"/>
-      <c r="CL100" s="3"/>
-      <c r="CM100" s="3"/>
-      <c r="CN100" s="3"/>
-      <c r="CO100" s="3"/>
-      <c r="CP100" s="3"/>
-      <c r="CQ100" s="3"/>
+      <c r="CL100" s="21"/>
+      <c r="CM100" s="21"/>
+      <c r="CN100" s="21"/>
+      <c r="CO100" s="21"/>
+      <c r="CP100" s="21"/>
+      <c r="CQ100" s="21"/>
+      <c r="CR100" s="21"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38262,12 +38502,13 @@
       <c r="CI101" s="3"/>
       <c r="CJ101" s="3"/>
       <c r="CK101" s="3"/>
-      <c r="CL101" s="3"/>
-      <c r="CM101" s="3"/>
-      <c r="CN101" s="3"/>
-      <c r="CO101" s="3"/>
-      <c r="CP101" s="3"/>
-      <c r="CQ101" s="3"/>
+      <c r="CL101" s="21"/>
+      <c r="CM101" s="21"/>
+      <c r="CN101" s="21"/>
+      <c r="CO101" s="21"/>
+      <c r="CP101" s="21"/>
+      <c r="CQ101" s="21"/>
+      <c r="CR101" s="21"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -38359,157 +38600,159 @@
       <c r="CI102" s="3"/>
       <c r="CJ102" s="3"/>
       <c r="CK102" s="3"/>
-      <c r="CL102" s="3"/>
-      <c r="CM102" s="3"/>
-      <c r="CN102" s="3"/>
-      <c r="CO102" s="3"/>
-      <c r="CP102" s="3"/>
-      <c r="CQ102" s="3"/>
+      <c r="CL102" s="21"/>
+      <c r="CM102" s="21"/>
+      <c r="CN102" s="21"/>
+      <c r="CO102" s="21"/>
+      <c r="CP102" s="21"/>
+      <c r="CQ102" s="21"/>
+      <c r="CR102" s="21"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="19">
+      <c r="B103" s="32">
         <v>2000</v>
       </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="19">
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="32">
         <v>2001</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="19">
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="32">
         <v>2002</v>
       </c>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="19">
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="32">
         <v>2003</v>
       </c>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="19">
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="32">
         <v>2004</v>
       </c>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="19">
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="32">
         <v>2005</v>
       </c>
-      <c r="W103" s="20"/>
-      <c r="X103" s="20"/>
-      <c r="Y103" s="20"/>
-      <c r="Z103" s="19">
+      <c r="W103" s="33"/>
+      <c r="X103" s="33"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="32">
         <v>2006</v>
       </c>
-      <c r="AA103" s="20"/>
-      <c r="AB103" s="20"/>
-      <c r="AC103" s="20"/>
-      <c r="AD103" s="19">
+      <c r="AA103" s="33"/>
+      <c r="AB103" s="33"/>
+      <c r="AC103" s="33"/>
+      <c r="AD103" s="32">
         <v>2007</v>
       </c>
-      <c r="AE103" s="20"/>
-      <c r="AF103" s="20"/>
-      <c r="AG103" s="20"/>
-      <c r="AH103" s="19">
+      <c r="AE103" s="33"/>
+      <c r="AF103" s="33"/>
+      <c r="AG103" s="33"/>
+      <c r="AH103" s="32">
         <v>2008</v>
       </c>
-      <c r="AI103" s="20"/>
-      <c r="AJ103" s="20"/>
-      <c r="AK103" s="20"/>
-      <c r="AL103" s="19">
+      <c r="AI103" s="33"/>
+      <c r="AJ103" s="33"/>
+      <c r="AK103" s="33"/>
+      <c r="AL103" s="32">
         <v>2009</v>
       </c>
-      <c r="AM103" s="20"/>
-      <c r="AN103" s="20"/>
-      <c r="AO103" s="20"/>
-      <c r="AP103" s="19">
+      <c r="AM103" s="33"/>
+      <c r="AN103" s="33"/>
+      <c r="AO103" s="33"/>
+      <c r="AP103" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="20"/>
-      <c r="AR103" s="20"/>
-      <c r="AS103" s="20"/>
-      <c r="AT103" s="19">
+      <c r="AQ103" s="33"/>
+      <c r="AR103" s="33"/>
+      <c r="AS103" s="33"/>
+      <c r="AT103" s="32">
         <v>2011</v>
       </c>
-      <c r="AU103" s="20"/>
-      <c r="AV103" s="20"/>
-      <c r="AW103" s="20"/>
-      <c r="AX103" s="19">
+      <c r="AU103" s="33"/>
+      <c r="AV103" s="33"/>
+      <c r="AW103" s="33"/>
+      <c r="AX103" s="32">
         <v>2012</v>
       </c>
-      <c r="AY103" s="20"/>
-      <c r="AZ103" s="20"/>
-      <c r="BA103" s="20"/>
-      <c r="BB103" s="19">
+      <c r="AY103" s="33"/>
+      <c r="AZ103" s="33"/>
+      <c r="BA103" s="33"/>
+      <c r="BB103" s="32">
         <v>2013</v>
       </c>
-      <c r="BC103" s="20"/>
-      <c r="BD103" s="20"/>
-      <c r="BE103" s="20"/>
-      <c r="BF103" s="19">
+      <c r="BC103" s="33"/>
+      <c r="BD103" s="33"/>
+      <c r="BE103" s="33"/>
+      <c r="BF103" s="32">
         <v>2014</v>
       </c>
-      <c r="BG103" s="20"/>
-      <c r="BH103" s="20"/>
-      <c r="BI103" s="20"/>
-      <c r="BJ103" s="19">
+      <c r="BG103" s="33"/>
+      <c r="BH103" s="33"/>
+      <c r="BI103" s="33"/>
+      <c r="BJ103" s="32">
         <v>2015</v>
       </c>
-      <c r="BK103" s="20"/>
-      <c r="BL103" s="20"/>
-      <c r="BM103" s="20"/>
-      <c r="BN103" s="19">
+      <c r="BK103" s="33"/>
+      <c r="BL103" s="33"/>
+      <c r="BM103" s="33"/>
+      <c r="BN103" s="32">
         <v>2016</v>
       </c>
-      <c r="BO103" s="20"/>
-      <c r="BP103" s="20"/>
-      <c r="BQ103" s="20"/>
-      <c r="BR103" s="19">
+      <c r="BO103" s="33"/>
+      <c r="BP103" s="33"/>
+      <c r="BQ103" s="33"/>
+      <c r="BR103" s="32">
         <v>2017</v>
       </c>
-      <c r="BS103" s="20"/>
-      <c r="BT103" s="20"/>
-      <c r="BU103" s="20"/>
-      <c r="BV103" s="19">
+      <c r="BS103" s="33"/>
+      <c r="BT103" s="33"/>
+      <c r="BU103" s="33"/>
+      <c r="BV103" s="32">
         <v>2018</v>
       </c>
-      <c r="BW103" s="20"/>
-      <c r="BX103" s="20"/>
-      <c r="BY103" s="20"/>
-      <c r="BZ103" s="19">
+      <c r="BW103" s="33"/>
+      <c r="BX103" s="33"/>
+      <c r="BY103" s="33"/>
+      <c r="BZ103" s="32">
         <v>2019</v>
       </c>
-      <c r="CA103" s="20"/>
-      <c r="CB103" s="20"/>
-      <c r="CC103" s="20"/>
-      <c r="CD103" s="19">
+      <c r="CA103" s="33"/>
+      <c r="CB103" s="33"/>
+      <c r="CC103" s="33"/>
+      <c r="CD103" s="32">
         <v>2020</v>
       </c>
-      <c r="CE103" s="19"/>
-      <c r="CF103" s="19"/>
-      <c r="CG103" s="19"/>
-      <c r="CH103" s="19">
+      <c r="CE103" s="32"/>
+      <c r="CF103" s="32"/>
+      <c r="CG103" s="32"/>
+      <c r="CH103" s="32">
         <v>2021</v>
       </c>
-      <c r="CI103" s="19"/>
-      <c r="CJ103" s="19"/>
-      <c r="CK103" s="19"/>
-      <c r="CL103" s="19">
+      <c r="CI103" s="32"/>
+      <c r="CJ103" s="32"/>
+      <c r="CK103" s="32"/>
+      <c r="CL103" s="34">
         <v>2022</v>
       </c>
-      <c r="CM103" s="19"/>
-      <c r="CN103" s="19"/>
-      <c r="CO103" s="19"/>
-      <c r="CP103" s="19">
+      <c r="CM103" s="34"/>
+      <c r="CN103" s="34"/>
+      <c r="CO103" s="34"/>
+      <c r="CP103" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="21"/>
+      <c r="CQ103" s="34"/>
+      <c r="CR103" s="34"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -38779,23 +39022,26 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="6" t="s">
+      <c r="CL104" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="6" t="s">
+      <c r="CM104" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="6" t="s">
+      <c r="CN104" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="6" t="s">
+      <c r="CO104" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR104" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38888,12 +39134,13 @@
       <c r="CI105" s="3"/>
       <c r="CJ105" s="3"/>
       <c r="CK105" s="3"/>
-      <c r="CL105" s="3"/>
-      <c r="CM105" s="3"/>
-      <c r="CN105" s="3"/>
-      <c r="CO105" s="3"/>
-      <c r="CP105" s="3"/>
-      <c r="CQ105" s="3"/>
+      <c r="CL105" s="21"/>
+      <c r="CM105" s="21"/>
+      <c r="CN105" s="21"/>
+      <c r="CO105" s="21"/>
+      <c r="CP105" s="21"/>
+      <c r="CQ105" s="21"/>
+      <c r="CR105" s="21"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39163,25 +39410,27 @@
       <c r="CK106" s="12">
         <v>68.795815885122764</v>
       </c>
-      <c r="CL106" s="12">
+      <c r="CL106" s="29">
         <v>70.925817537570708</v>
       </c>
-      <c r="CM106" s="12">
+      <c r="CM106" s="29">
         <v>73.401931757679677</v>
       </c>
-      <c r="CN106" s="12">
+      <c r="CN106" s="29">
         <v>67.664711161792852</v>
       </c>
-      <c r="CO106" s="12">
+      <c r="CO106" s="29">
         <v>70.10654953090652</v>
       </c>
-      <c r="CP106" s="12">
+      <c r="CP106" s="29">
         <v>69.994439101950462</v>
       </c>
-      <c r="CQ106" s="12">
-        <v>72.768411451678716</v>
-      </c>
-      <c r="CR106" s="17"/>
+      <c r="CQ106" s="29">
+        <v>72.461238773259836</v>
+      </c>
+      <c r="CR106" s="29">
+        <v>66.927265289566634</v>
+      </c>
       <c r="CS106" s="17"/>
       <c r="CT106" s="17"/>
       <c r="CU106" s="17"/>
@@ -39510,25 +39759,27 @@
       <c r="CK107" s="12">
         <v>31.204184114877236</v>
       </c>
-      <c r="CL107" s="12">
+      <c r="CL107" s="29">
         <v>29.074182462429281</v>
       </c>
-      <c r="CM107" s="12">
+      <c r="CM107" s="29">
         <v>26.598068242320327</v>
       </c>
-      <c r="CN107" s="12">
+      <c r="CN107" s="29">
         <v>32.335288838207155</v>
       </c>
-      <c r="CO107" s="12">
+      <c r="CO107" s="29">
         <v>29.893450469093487</v>
       </c>
-      <c r="CP107" s="12">
+      <c r="CP107" s="29">
         <v>30.005560898049538</v>
       </c>
-      <c r="CQ107" s="12">
-        <v>27.231588548321277</v>
-      </c>
-      <c r="CR107" s="17"/>
+      <c r="CQ107" s="29">
+        <v>27.538761226740142</v>
+      </c>
+      <c r="CR107" s="29">
+        <v>33.07273471043338</v>
+      </c>
       <c r="CS107" s="17"/>
       <c r="CT107" s="17"/>
       <c r="CU107" s="17"/>
@@ -39678,13 +39929,13 @@
       <c r="CI108" s="11"/>
       <c r="CJ108" s="11"/>
       <c r="CK108" s="11"/>
-      <c r="CL108" s="11"/>
-      <c r="CM108" s="11"/>
-      <c r="CN108" s="11"/>
-      <c r="CO108" s="11"/>
-      <c r="CP108" s="11"/>
-      <c r="CQ108" s="11"/>
-      <c r="CR108" s="17"/>
+      <c r="CL108" s="24"/>
+      <c r="CM108" s="24"/>
+      <c r="CN108" s="24"/>
+      <c r="CO108" s="24"/>
+      <c r="CP108" s="24"/>
+      <c r="CQ108" s="24"/>
+      <c r="CR108" s="24"/>
       <c r="CS108" s="17"/>
       <c r="CT108" s="17"/>
       <c r="CU108" s="17"/>
@@ -40013,25 +40264,27 @@
       <c r="CK109" s="12">
         <v>100</v>
       </c>
-      <c r="CL109" s="12">
+      <c r="CL109" s="29">
         <v>100</v>
       </c>
-      <c r="CM109" s="12">
+      <c r="CM109" s="29">
         <v>100</v>
       </c>
-      <c r="CN109" s="12">
+      <c r="CN109" s="29">
         <v>100</v>
       </c>
-      <c r="CO109" s="12">
+      <c r="CO109" s="29">
         <v>100</v>
       </c>
-      <c r="CP109" s="12">
+      <c r="CP109" s="29">
         <v>100</v>
       </c>
-      <c r="CQ109" s="12">
+      <c r="CQ109" s="29">
         <v>100</v>
       </c>
-      <c r="CR109" s="17"/>
+      <c r="CR109" s="29">
+        <v>100</v>
+      </c>
       <c r="CS109" s="17"/>
       <c r="CT109" s="17"/>
       <c r="CU109" s="17"/>
@@ -40182,12 +40435,13 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="9"/>
-      <c r="CM110" s="9"/>
-      <c r="CN110" s="9"/>
-      <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
+      <c r="CL110" s="26"/>
+      <c r="CM110" s="26"/>
+      <c r="CN110" s="26"/>
+      <c r="CO110" s="26"/>
+      <c r="CP110" s="26"/>
+      <c r="CQ110" s="26"/>
+      <c r="CR110" s="26"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -40281,12 +40535,13 @@
       <c r="CI111" s="3"/>
       <c r="CJ111" s="3"/>
       <c r="CK111" s="3"/>
-      <c r="CL111" s="3"/>
-      <c r="CM111" s="3"/>
-      <c r="CN111" s="3"/>
-      <c r="CO111" s="3"/>
-      <c r="CP111" s="3"/>
-      <c r="CQ111" s="3"/>
+      <c r="CL111" s="21"/>
+      <c r="CM111" s="21"/>
+      <c r="CN111" s="21"/>
+      <c r="CO111" s="21"/>
+      <c r="CP111" s="21"/>
+      <c r="CQ111" s="21"/>
+      <c r="CR111" s="21"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -40377,13 +40632,13 @@
       <c r="CI112" s="11"/>
       <c r="CJ112" s="11"/>
       <c r="CK112" s="11"/>
-      <c r="CL112" s="11"/>
-      <c r="CM112" s="11"/>
-      <c r="CN112" s="11"/>
-      <c r="CO112" s="11"/>
-      <c r="CP112" s="11"/>
-      <c r="CQ112" s="11"/>
-      <c r="CR112" s="17"/>
+      <c r="CL112" s="24"/>
+      <c r="CM112" s="24"/>
+      <c r="CN112" s="24"/>
+      <c r="CO112" s="24"/>
+      <c r="CP112" s="24"/>
+      <c r="CQ112" s="24"/>
+      <c r="CR112" s="24"/>
       <c r="CS112" s="17"/>
       <c r="CT112" s="17"/>
       <c r="CU112" s="17"/>
@@ -40533,13 +40788,13 @@
       <c r="CI113" s="11"/>
       <c r="CJ113" s="11"/>
       <c r="CK113" s="11"/>
-      <c r="CL113" s="11"/>
-      <c r="CM113" s="11"/>
-      <c r="CN113" s="11"/>
-      <c r="CO113" s="11"/>
-      <c r="CP113" s="11"/>
-      <c r="CQ113" s="11"/>
-      <c r="CR113" s="17"/>
+      <c r="CL113" s="24"/>
+      <c r="CM113" s="24"/>
+      <c r="CN113" s="24"/>
+      <c r="CO113" s="24"/>
+      <c r="CP113" s="24"/>
+      <c r="CQ113" s="24"/>
+      <c r="CR113" s="24"/>
       <c r="CS113" s="17"/>
       <c r="CT113" s="17"/>
       <c r="CU113" s="17"/>
@@ -40692,12 +40947,13 @@
       <c r="CI114" s="3"/>
       <c r="CJ114" s="3"/>
       <c r="CK114" s="3"/>
-      <c r="CL114" s="3"/>
-      <c r="CM114" s="3"/>
-      <c r="CN114" s="3"/>
-      <c r="CO114" s="3"/>
-      <c r="CP114" s="3"/>
-      <c r="CQ114" s="3"/>
+      <c r="CL114" s="21"/>
+      <c r="CM114" s="21"/>
+      <c r="CN114" s="21"/>
+      <c r="CO114" s="21"/>
+      <c r="CP114" s="21"/>
+      <c r="CQ114" s="21"/>
+      <c r="CR114" s="21"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -40791,12 +41047,13 @@
       <c r="CI115" s="3"/>
       <c r="CJ115" s="3"/>
       <c r="CK115" s="3"/>
-      <c r="CL115" s="3"/>
-      <c r="CM115" s="3"/>
-      <c r="CN115" s="3"/>
-      <c r="CO115" s="3"/>
-      <c r="CP115" s="3"/>
-      <c r="CQ115" s="3"/>
+      <c r="CL115" s="21"/>
+      <c r="CM115" s="21"/>
+      <c r="CN115" s="21"/>
+      <c r="CO115" s="21"/>
+      <c r="CP115" s="21"/>
+      <c r="CQ115" s="21"/>
+      <c r="CR115" s="21"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
@@ -40890,12 +41147,13 @@
       <c r="CI116" s="3"/>
       <c r="CJ116" s="3"/>
       <c r="CK116" s="3"/>
-      <c r="CL116" s="3"/>
-      <c r="CM116" s="3"/>
-      <c r="CN116" s="3"/>
-      <c r="CO116" s="3"/>
-      <c r="CP116" s="3"/>
-      <c r="CQ116" s="3"/>
+      <c r="CL116" s="21"/>
+      <c r="CM116" s="21"/>
+      <c r="CN116" s="21"/>
+      <c r="CO116" s="21"/>
+      <c r="CP116" s="21"/>
+      <c r="CQ116" s="21"/>
+      <c r="CR116" s="21"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -40987,12 +41245,13 @@
       <c r="CI117" s="3"/>
       <c r="CJ117" s="3"/>
       <c r="CK117" s="3"/>
-      <c r="CL117" s="3"/>
-      <c r="CM117" s="3"/>
-      <c r="CN117" s="3"/>
-      <c r="CO117" s="3"/>
-      <c r="CP117" s="3"/>
-      <c r="CQ117" s="3"/>
+      <c r="CL117" s="21"/>
+      <c r="CM117" s="21"/>
+      <c r="CN117" s="21"/>
+      <c r="CO117" s="21"/>
+      <c r="CP117" s="21"/>
+      <c r="CQ117" s="21"/>
+      <c r="CR117" s="21"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -41086,12 +41345,13 @@
       <c r="CI118" s="3"/>
       <c r="CJ118" s="3"/>
       <c r="CK118" s="3"/>
-      <c r="CL118" s="3"/>
-      <c r="CM118" s="3"/>
-      <c r="CN118" s="3"/>
-      <c r="CO118" s="3"/>
-      <c r="CP118" s="3"/>
-      <c r="CQ118" s="3"/>
+      <c r="CL118" s="21"/>
+      <c r="CM118" s="21"/>
+      <c r="CN118" s="21"/>
+      <c r="CO118" s="21"/>
+      <c r="CP118" s="21"/>
+      <c r="CQ118" s="21"/>
+      <c r="CR118" s="21"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
@@ -41185,12 +41445,13 @@
       <c r="CI119" s="3"/>
       <c r="CJ119" s="3"/>
       <c r="CK119" s="3"/>
-      <c r="CL119" s="3"/>
-      <c r="CM119" s="3"/>
-      <c r="CN119" s="3"/>
-      <c r="CO119" s="3"/>
-      <c r="CP119" s="3"/>
-      <c r="CQ119" s="3"/>
+      <c r="CL119" s="21"/>
+      <c r="CM119" s="21"/>
+      <c r="CN119" s="21"/>
+      <c r="CO119" s="21"/>
+      <c r="CP119" s="21"/>
+      <c r="CQ119" s="21"/>
+      <c r="CR119" s="21"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -41284,12 +41545,13 @@
       <c r="CI120" s="3"/>
       <c r="CJ120" s="3"/>
       <c r="CK120" s="3"/>
-      <c r="CL120" s="3"/>
-      <c r="CM120" s="3"/>
-      <c r="CN120" s="3"/>
-      <c r="CO120" s="3"/>
-      <c r="CP120" s="3"/>
-      <c r="CQ120" s="3"/>
+      <c r="CL120" s="21"/>
+      <c r="CM120" s="21"/>
+      <c r="CN120" s="21"/>
+      <c r="CO120" s="21"/>
+      <c r="CP120" s="21"/>
+      <c r="CQ120" s="21"/>
+      <c r="CR120" s="21"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -41381,157 +41643,159 @@
       <c r="CI121" s="3"/>
       <c r="CJ121" s="3"/>
       <c r="CK121" s="3"/>
-      <c r="CL121" s="3"/>
-      <c r="CM121" s="3"/>
-      <c r="CN121" s="3"/>
-      <c r="CO121" s="3"/>
-      <c r="CP121" s="3"/>
-      <c r="CQ121" s="3"/>
+      <c r="CL121" s="21"/>
+      <c r="CM121" s="21"/>
+      <c r="CN121" s="21"/>
+      <c r="CO121" s="21"/>
+      <c r="CP121" s="21"/>
+      <c r="CQ121" s="21"/>
+      <c r="CR121" s="21"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="19">
+      <c r="B122" s="32">
         <v>2000</v>
       </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="19">
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="32">
         <v>2001</v>
       </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="19">
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="32">
         <v>2002</v>
       </c>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="19">
+      <c r="K122" s="33"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="32">
         <v>2003</v>
       </c>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="19">
+      <c r="O122" s="33"/>
+      <c r="P122" s="33"/>
+      <c r="Q122" s="33"/>
+      <c r="R122" s="32">
         <v>2004</v>
       </c>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
-      <c r="V122" s="19">
+      <c r="S122" s="33"/>
+      <c r="T122" s="33"/>
+      <c r="U122" s="33"/>
+      <c r="V122" s="32">
         <v>2005</v>
       </c>
-      <c r="W122" s="20"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="20"/>
-      <c r="Z122" s="19">
+      <c r="W122" s="33"/>
+      <c r="X122" s="33"/>
+      <c r="Y122" s="33"/>
+      <c r="Z122" s="32">
         <v>2006</v>
       </c>
-      <c r="AA122" s="20"/>
-      <c r="AB122" s="20"/>
-      <c r="AC122" s="20"/>
-      <c r="AD122" s="19">
+      <c r="AA122" s="33"/>
+      <c r="AB122" s="33"/>
+      <c r="AC122" s="33"/>
+      <c r="AD122" s="32">
         <v>2007</v>
       </c>
-      <c r="AE122" s="20"/>
-      <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
-      <c r="AH122" s="19">
+      <c r="AE122" s="33"/>
+      <c r="AF122" s="33"/>
+      <c r="AG122" s="33"/>
+      <c r="AH122" s="32">
         <v>2008</v>
       </c>
-      <c r="AI122" s="20"/>
-      <c r="AJ122" s="20"/>
-      <c r="AK122" s="20"/>
-      <c r="AL122" s="19">
+      <c r="AI122" s="33"/>
+      <c r="AJ122" s="33"/>
+      <c r="AK122" s="33"/>
+      <c r="AL122" s="32">
         <v>2009</v>
       </c>
-      <c r="AM122" s="20"/>
-      <c r="AN122" s="20"/>
-      <c r="AO122" s="20"/>
-      <c r="AP122" s="19">
+      <c r="AM122" s="33"/>
+      <c r="AN122" s="33"/>
+      <c r="AO122" s="33"/>
+      <c r="AP122" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="20"/>
-      <c r="AR122" s="20"/>
-      <c r="AS122" s="20"/>
-      <c r="AT122" s="19">
+      <c r="AQ122" s="33"/>
+      <c r="AR122" s="33"/>
+      <c r="AS122" s="33"/>
+      <c r="AT122" s="32">
         <v>2011</v>
       </c>
-      <c r="AU122" s="20"/>
-      <c r="AV122" s="20"/>
-      <c r="AW122" s="20"/>
-      <c r="AX122" s="19">
+      <c r="AU122" s="33"/>
+      <c r="AV122" s="33"/>
+      <c r="AW122" s="33"/>
+      <c r="AX122" s="32">
         <v>2012</v>
       </c>
-      <c r="AY122" s="20"/>
-      <c r="AZ122" s="20"/>
-      <c r="BA122" s="20"/>
-      <c r="BB122" s="19">
+      <c r="AY122" s="33"/>
+      <c r="AZ122" s="33"/>
+      <c r="BA122" s="33"/>
+      <c r="BB122" s="32">
         <v>2013</v>
       </c>
-      <c r="BC122" s="20"/>
-      <c r="BD122" s="20"/>
-      <c r="BE122" s="20"/>
-      <c r="BF122" s="19">
+      <c r="BC122" s="33"/>
+      <c r="BD122" s="33"/>
+      <c r="BE122" s="33"/>
+      <c r="BF122" s="32">
         <v>2014</v>
       </c>
-      <c r="BG122" s="20"/>
-      <c r="BH122" s="20"/>
-      <c r="BI122" s="20"/>
-      <c r="BJ122" s="19">
+      <c r="BG122" s="33"/>
+      <c r="BH122" s="33"/>
+      <c r="BI122" s="33"/>
+      <c r="BJ122" s="32">
         <v>2015</v>
       </c>
-      <c r="BK122" s="20"/>
-      <c r="BL122" s="20"/>
-      <c r="BM122" s="20"/>
-      <c r="BN122" s="19">
+      <c r="BK122" s="33"/>
+      <c r="BL122" s="33"/>
+      <c r="BM122" s="33"/>
+      <c r="BN122" s="32">
         <v>2016</v>
       </c>
-      <c r="BO122" s="20"/>
-      <c r="BP122" s="20"/>
-      <c r="BQ122" s="20"/>
-      <c r="BR122" s="19">
+      <c r="BO122" s="33"/>
+      <c r="BP122" s="33"/>
+      <c r="BQ122" s="33"/>
+      <c r="BR122" s="32">
         <v>2017</v>
       </c>
-      <c r="BS122" s="20"/>
-      <c r="BT122" s="20"/>
-      <c r="BU122" s="20"/>
-      <c r="BV122" s="19">
+      <c r="BS122" s="33"/>
+      <c r="BT122" s="33"/>
+      <c r="BU122" s="33"/>
+      <c r="BV122" s="32">
         <v>2018</v>
       </c>
-      <c r="BW122" s="20"/>
-      <c r="BX122" s="20"/>
-      <c r="BY122" s="20"/>
-      <c r="BZ122" s="19">
+      <c r="BW122" s="33"/>
+      <c r="BX122" s="33"/>
+      <c r="BY122" s="33"/>
+      <c r="BZ122" s="32">
         <v>2019</v>
       </c>
-      <c r="CA122" s="20"/>
-      <c r="CB122" s="20"/>
-      <c r="CC122" s="20"/>
-      <c r="CD122" s="19">
+      <c r="CA122" s="33"/>
+      <c r="CB122" s="33"/>
+      <c r="CC122" s="33"/>
+      <c r="CD122" s="32">
         <v>2020</v>
       </c>
-      <c r="CE122" s="19"/>
-      <c r="CF122" s="19"/>
-      <c r="CG122" s="19"/>
-      <c r="CH122" s="19">
+      <c r="CE122" s="32"/>
+      <c r="CF122" s="32"/>
+      <c r="CG122" s="32"/>
+      <c r="CH122" s="32">
         <v>2021</v>
       </c>
-      <c r="CI122" s="19"/>
-      <c r="CJ122" s="19"/>
-      <c r="CK122" s="19"/>
-      <c r="CL122" s="19">
+      <c r="CI122" s="32"/>
+      <c r="CJ122" s="32"/>
+      <c r="CK122" s="32"/>
+      <c r="CL122" s="34">
         <v>2022</v>
       </c>
-      <c r="CM122" s="19"/>
-      <c r="CN122" s="19"/>
-      <c r="CO122" s="19"/>
-      <c r="CP122" s="19">
+      <c r="CM122" s="34"/>
+      <c r="CN122" s="34"/>
+      <c r="CO122" s="34"/>
+      <c r="CP122" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="21"/>
+      <c r="CQ122" s="34"/>
+      <c r="CR122" s="34"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -41801,23 +42065,26 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="6" t="s">
+      <c r="CL123" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="6" t="s">
+      <c r="CM123" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="6" t="s">
+      <c r="CN123" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="6" t="s">
+      <c r="CO123" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR123" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41910,12 +42177,13 @@
       <c r="CI124" s="3"/>
       <c r="CJ124" s="3"/>
       <c r="CK124" s="3"/>
-      <c r="CL124" s="3"/>
-      <c r="CM124" s="3"/>
-      <c r="CN124" s="3"/>
-      <c r="CO124" s="3"/>
-      <c r="CP124" s="3"/>
-      <c r="CQ124" s="3"/>
+      <c r="CL124" s="21"/>
+      <c r="CM124" s="21"/>
+      <c r="CN124" s="21"/>
+      <c r="CO124" s="21"/>
+      <c r="CP124" s="21"/>
+      <c r="CQ124" s="21"/>
+      <c r="CR124" s="21"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -42185,25 +42453,27 @@
       <c r="CK125" s="12">
         <v>66.419648672435144</v>
       </c>
-      <c r="CL125" s="12">
+      <c r="CL125" s="29">
         <v>69.155636385672253</v>
       </c>
-      <c r="CM125" s="12">
+      <c r="CM125" s="29">
         <v>72.067873050726121</v>
       </c>
-      <c r="CN125" s="12">
+      <c r="CN125" s="29">
         <v>67.377698439652278</v>
       </c>
-      <c r="CO125" s="12">
+      <c r="CO125" s="29">
         <v>67.660819194515952</v>
       </c>
-      <c r="CP125" s="12">
+      <c r="CP125" s="29">
         <v>68.10375266645265</v>
       </c>
-      <c r="CQ125" s="12">
-        <v>71.273457870919245</v>
-      </c>
-      <c r="CR125" s="17"/>
+      <c r="CQ125" s="29">
+        <v>70.956152615569252</v>
+      </c>
+      <c r="CR125" s="29">
+        <v>66.648844031855873</v>
+      </c>
       <c r="CS125" s="17"/>
       <c r="CT125" s="17"/>
       <c r="CU125" s="17"/>
@@ -42532,25 +42802,27 @@
       <c r="CK126" s="12">
         <v>33.580351327564863</v>
       </c>
-      <c r="CL126" s="12">
+      <c r="CL126" s="29">
         <v>30.844363614327747</v>
       </c>
-      <c r="CM126" s="12">
+      <c r="CM126" s="29">
         <v>27.932126949273883</v>
       </c>
-      <c r="CN126" s="12">
+      <c r="CN126" s="29">
         <v>32.622301560347715</v>
       </c>
-      <c r="CO126" s="12">
+      <c r="CO126" s="29">
         <v>32.339180805484055</v>
       </c>
-      <c r="CP126" s="12">
+      <c r="CP126" s="29">
         <v>31.896247333547358</v>
       </c>
-      <c r="CQ126" s="12">
-        <v>28.726542129080755</v>
-      </c>
-      <c r="CR126" s="17"/>
+      <c r="CQ126" s="29">
+        <v>29.043847384430748</v>
+      </c>
+      <c r="CR126" s="29">
+        <v>33.351155968144127</v>
+      </c>
       <c r="CS126" s="17"/>
       <c r="CT126" s="17"/>
       <c r="CU126" s="17"/>
@@ -42700,13 +42972,13 @@
       <c r="CI127" s="11"/>
       <c r="CJ127" s="11"/>
       <c r="CK127" s="11"/>
-      <c r="CL127" s="11"/>
-      <c r="CM127" s="11"/>
-      <c r="CN127" s="11"/>
-      <c r="CO127" s="11"/>
-      <c r="CP127" s="11"/>
-      <c r="CQ127" s="11"/>
-      <c r="CR127" s="17"/>
+      <c r="CL127" s="24"/>
+      <c r="CM127" s="24"/>
+      <c r="CN127" s="24"/>
+      <c r="CO127" s="24"/>
+      <c r="CP127" s="24"/>
+      <c r="CQ127" s="24"/>
+      <c r="CR127" s="24"/>
       <c r="CS127" s="17"/>
       <c r="CT127" s="17"/>
       <c r="CU127" s="17"/>
@@ -43035,25 +43307,27 @@
       <c r="CK128" s="12">
         <v>100</v>
       </c>
-      <c r="CL128" s="12">
+      <c r="CL128" s="29">
         <v>100</v>
       </c>
-      <c r="CM128" s="12">
+      <c r="CM128" s="29">
         <v>100</v>
       </c>
-      <c r="CN128" s="12">
+      <c r="CN128" s="29">
         <v>100</v>
       </c>
-      <c r="CO128" s="12">
+      <c r="CO128" s="29">
         <v>100</v>
       </c>
-      <c r="CP128" s="12">
+      <c r="CP128" s="29">
         <v>100</v>
       </c>
-      <c r="CQ128" s="12">
+      <c r="CQ128" s="29">
         <v>100</v>
       </c>
-      <c r="CR128" s="17"/>
+      <c r="CR128" s="29">
+        <v>100</v>
+      </c>
       <c r="CS128" s="17"/>
       <c r="CT128" s="17"/>
       <c r="CU128" s="17"/>
@@ -43114,7 +43388,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:95" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -43204,14 +43478,15 @@
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
-      <c r="CL129" s="9"/>
-      <c r="CM129" s="9"/>
-      <c r="CN129" s="9"/>
-      <c r="CO129" s="9"/>
-      <c r="CP129" s="9"/>
-      <c r="CQ129" s="9"/>
+      <c r="CL129" s="26"/>
+      <c r="CM129" s="26"/>
+      <c r="CN129" s="26"/>
+      <c r="CO129" s="26"/>
+      <c r="CP129" s="26"/>
+      <c r="CQ129" s="26"/>
+      <c r="CR129" s="26"/>
     </row>
-    <row r="130" spans="1:95" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -43303,24 +43578,21 @@
       <c r="CI130" s="3"/>
       <c r="CJ130" s="3"/>
       <c r="CK130" s="3"/>
-      <c r="CL130" s="3"/>
-      <c r="CM130" s="3"/>
-      <c r="CN130" s="3"/>
-      <c r="CO130" s="3"/>
-      <c r="CP130" s="3"/>
-      <c r="CQ130" s="3"/>
+      <c r="CL130" s="21"/>
+      <c r="CM130" s="21"/>
+      <c r="CN130" s="21"/>
+      <c r="CO130" s="21"/>
+      <c r="CP130" s="21"/>
+      <c r="CQ130" s="21"/>
+      <c r="CR130" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP28:CQ28"/>
-    <mergeCell ref="CP84:CQ84"/>
-    <mergeCell ref="CP103:CQ103"/>
-    <mergeCell ref="CP122:CQ122"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CP47:CQ47"/>
-    <mergeCell ref="CL66:CO66"/>
-    <mergeCell ref="CP66:CQ66"/>
+  <mergeCells count="166">
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP28:CR28"/>
+    <mergeCell ref="CP84:CR84"/>
+    <mergeCell ref="CP103:CR103"/>
+    <mergeCell ref="CP122:CR122"/>
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
@@ -43333,6 +43605,8 @@
     <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CL47:CN47"/>
+    <mergeCell ref="CL66:CN66"/>
     <mergeCell ref="BR122:BU122"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
@@ -43486,9 +43760,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="94" man="1"/>
-    <brk id="76" max="94" man="1"/>
-    <brk id="94" max="94" man="1"/>
+    <brk id="38" max="95" man="1"/>
+    <brk id="76" max="95" man="1"/>
+    <brk id="94" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D20742-8118-44E7-AFA5-ED729EA5C8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7466A42E-8892-47EB-B6A0-3193FD52BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CR$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CS$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,32 +749,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23336,9 +23321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23376,7 +23361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23482,7 +23467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23624,7 +23609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23639,98 +23624,48 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CQ6" sqref="CQ6"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="89" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="9.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="15"/>
+    <col min="2" max="97" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CL1" s="20"/>
-      <c r="CM1" s="20"/>
-      <c r="CN1" s="20"/>
-      <c r="CO1" s="20"/>
-      <c r="CP1" s="20"/>
-      <c r="CQ1" s="20"/>
-      <c r="CR1" s="20"/>
     </row>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="20"/>
-      <c r="CN2" s="20"/>
-      <c r="CO2" s="20"/>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL3" s="20"/>
-      <c r="CM3" s="20"/>
-      <c r="CN3" s="20"/>
-      <c r="CO3" s="20"/>
-      <c r="CP3" s="20"/>
-      <c r="CQ3" s="20"/>
-      <c r="CR3" s="20"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="CL4" s="20"/>
-      <c r="CM4" s="20"/>
-      <c r="CN4" s="20"/>
-      <c r="CO4" s="20"/>
-      <c r="CP4" s="20"/>
-      <c r="CQ4" s="20"/>
-      <c r="CR4" s="20"/>
     </row>
     <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="CL5" s="20"/>
-      <c r="CM5" s="20"/>
-      <c r="CN5" s="20"/>
-      <c r="CO5" s="20"/>
-      <c r="CP5" s="20"/>
-      <c r="CQ5" s="20"/>
-      <c r="CR5" s="20"/>
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL6" s="20"/>
-      <c r="CM6" s="20"/>
-      <c r="CN6" s="20"/>
-      <c r="CO6" s="20"/>
-      <c r="CP6" s="20"/>
-      <c r="CQ6" s="20"/>
-      <c r="CR6" s="20"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="CL7" s="20"/>
-      <c r="CM7" s="20"/>
-      <c r="CN7" s="20"/>
-      <c r="CO7" s="20"/>
-      <c r="CP7" s="20"/>
-      <c r="CQ7" s="20"/>
-      <c r="CR7" s="20"/>
     </row>
     <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -23822,159 +23757,161 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="21"/>
-      <c r="CM8" s="21"/>
-      <c r="CN8" s="21"/>
-      <c r="CO8" s="21"/>
-      <c r="CP8" s="21"/>
-      <c r="CQ8" s="21"/>
-      <c r="CR8" s="21"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="32">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="34">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34">
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="34"/>
+      <c r="CQ9" s="21"/>
+      <c r="CR9" s="21"/>
+      <c r="CS9" s="21"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24244,26 +24181,29 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="22" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="22" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="22" t="s">
+      <c r="CN10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="22" t="s">
+      <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="22" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="22" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="22" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24356,13 +24296,14 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="21"/>
-      <c r="CM11" s="21"/>
-      <c r="CN11" s="21"/>
-      <c r="CO11" s="21"/>
-      <c r="CP11" s="21"/>
-      <c r="CQ11" s="21"/>
-      <c r="CR11" s="21"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="3"/>
+      <c r="CN11" s="3"/>
+      <c r="CO11" s="3"/>
+      <c r="CP11" s="3"/>
+      <c r="CQ11" s="3"/>
+      <c r="CR11" s="3"/>
+      <c r="CS11" s="3"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24632,28 +24573,30 @@
       <c r="CK12" s="13">
         <v>139858.68074787248</v>
       </c>
-      <c r="CL12" s="23">
+      <c r="CL12" s="13">
         <v>147137.62071573344</v>
       </c>
-      <c r="CM12" s="23">
+      <c r="CM12" s="13">
         <v>176175.02511092243</v>
       </c>
-      <c r="CN12" s="23">
+      <c r="CN12" s="13">
         <v>139039.07315818773</v>
       </c>
-      <c r="CO12" s="23">
+      <c r="CO12" s="13">
         <v>161962.20810424158</v>
       </c>
-      <c r="CP12" s="23">
+      <c r="CP12" s="13">
         <v>160239.5991545516</v>
       </c>
-      <c r="CQ12" s="23">
+      <c r="CQ12" s="13">
         <v>193170.67265058804</v>
       </c>
-      <c r="CR12" s="23">
+      <c r="CR12" s="13">
         <v>150856.40015933674</v>
       </c>
-      <c r="CS12" s="17"/>
+      <c r="CS12" s="13">
+        <v>180029.16877352871</v>
+      </c>
       <c r="CT12" s="17"/>
       <c r="CU12" s="17"/>
       <c r="CV12" s="17"/>
@@ -24981,28 +24924,30 @@
       <c r="CK13" s="13">
         <v>63436.648987605236</v>
       </c>
-      <c r="CL13" s="23">
+      <c r="CL13" s="13">
         <v>60315.21638098656</v>
       </c>
-      <c r="CM13" s="23">
+      <c r="CM13" s="13">
         <v>63839.12832106831</v>
       </c>
-      <c r="CN13" s="23">
+      <c r="CN13" s="13">
         <v>66443.327890908462</v>
       </c>
-      <c r="CO13" s="23">
+      <c r="CO13" s="13">
         <v>69060.72654017483</v>
       </c>
-      <c r="CP13" s="23">
+      <c r="CP13" s="13">
         <v>68692.300594161963</v>
       </c>
-      <c r="CQ13" s="23">
+      <c r="CQ13" s="13">
         <v>73414.160731908894</v>
       </c>
-      <c r="CR13" s="23">
-        <v>74547.102444039367</v>
-      </c>
-      <c r="CS13" s="17"/>
+      <c r="CR13" s="13">
+        <v>75194.779191434616</v>
+      </c>
+      <c r="CS13" s="13">
+        <v>78628.399853677154</v>
+      </c>
       <c r="CT13" s="17"/>
       <c r="CU13" s="17"/>
       <c r="CV13" s="17"/>
@@ -25151,14 +25096,14 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="24"/>
-      <c r="CM14" s="24"/>
-      <c r="CN14" s="24"/>
-      <c r="CO14" s="24"/>
-      <c r="CP14" s="24"/>
-      <c r="CQ14" s="24"/>
-      <c r="CR14" s="24"/>
-      <c r="CS14" s="17"/>
+      <c r="CL14" s="11"/>
+      <c r="CM14" s="11"/>
+      <c r="CN14" s="11"/>
+      <c r="CO14" s="11"/>
+      <c r="CP14" s="11"/>
+      <c r="CQ14" s="11"/>
+      <c r="CR14" s="11"/>
+      <c r="CS14" s="11"/>
       <c r="CT14" s="17"/>
       <c r="CU14" s="17"/>
       <c r="CV14" s="17"/>
@@ -25486,28 +25431,30 @@
       <c r="CK15" s="14">
         <v>203295.32973547772</v>
       </c>
-      <c r="CL15" s="25">
+      <c r="CL15" s="19">
         <v>207452.83709672</v>
       </c>
-      <c r="CM15" s="25">
+      <c r="CM15" s="19">
         <v>240014.15343199074</v>
       </c>
-      <c r="CN15" s="25">
+      <c r="CN15" s="19">
         <v>205482.4010490962</v>
       </c>
-      <c r="CO15" s="25">
+      <c r="CO15" s="19">
         <v>231022.93464441641</v>
       </c>
-      <c r="CP15" s="25">
+      <c r="CP15" s="19">
         <v>228931.89974871356</v>
       </c>
-      <c r="CQ15" s="25">
+      <c r="CQ15" s="19">
         <v>266584.83338249696</v>
       </c>
-      <c r="CR15" s="25">
-        <v>225403.50260337611</v>
-      </c>
-      <c r="CS15" s="17"/>
+      <c r="CR15" s="19">
+        <v>226051.17935077136</v>
+      </c>
+      <c r="CS15" s="19">
+        <v>258657.56862720585</v>
+      </c>
       <c r="CT15" s="17"/>
       <c r="CU15" s="17"/>
       <c r="CV15" s="17"/>
@@ -25657,13 +25604,14 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="26"/>
-      <c r="CM16" s="26"/>
-      <c r="CN16" s="26"/>
-      <c r="CO16" s="26"/>
-      <c r="CP16" s="26"/>
-      <c r="CQ16" s="26"/>
-      <c r="CR16" s="26"/>
+      <c r="CL16" s="9"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="9"/>
+      <c r="CO16" s="9"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
+      <c r="CS16" s="9"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25757,13 +25705,14 @@
       <c r="CI17" s="3"/>
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
-      <c r="CL17" s="21"/>
-      <c r="CM17" s="21"/>
-      <c r="CN17" s="21"/>
-      <c r="CO17" s="21"/>
-      <c r="CP17" s="21"/>
-      <c r="CQ17" s="21"/>
-      <c r="CR17" s="21"/>
+      <c r="CL17" s="3"/>
+      <c r="CM17" s="3"/>
+      <c r="CN17" s="3"/>
+      <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
+      <c r="CQ17" s="3"/>
+      <c r="CR17" s="3"/>
+      <c r="CS17" s="3"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25854,14 +25803,14 @@
       <c r="CI18" s="11"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="11"/>
-      <c r="CL18" s="24"/>
-      <c r="CM18" s="24"/>
-      <c r="CN18" s="24"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="24"/>
-      <c r="CQ18" s="24"/>
-      <c r="CR18" s="24"/>
-      <c r="CS18" s="17"/>
+      <c r="CL18" s="11"/>
+      <c r="CM18" s="11"/>
+      <c r="CN18" s="11"/>
+      <c r="CO18" s="11"/>
+      <c r="CP18" s="11"/>
+      <c r="CQ18" s="11"/>
+      <c r="CR18" s="11"/>
+      <c r="CS18" s="11"/>
       <c r="CT18" s="17"/>
       <c r="CU18" s="17"/>
       <c r="CV18" s="17"/>
@@ -26010,14 +25959,14 @@
       <c r="CI19" s="11"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="11"/>
-      <c r="CL19" s="24"/>
-      <c r="CM19" s="24"/>
-      <c r="CN19" s="24"/>
-      <c r="CO19" s="24"/>
-      <c r="CP19" s="24"/>
-      <c r="CQ19" s="24"/>
-      <c r="CR19" s="24"/>
-      <c r="CS19" s="17"/>
+      <c r="CL19" s="11"/>
+      <c r="CM19" s="11"/>
+      <c r="CN19" s="11"/>
+      <c r="CO19" s="11"/>
+      <c r="CP19" s="11"/>
+      <c r="CQ19" s="11"/>
+      <c r="CR19" s="11"/>
+      <c r="CS19" s="11"/>
       <c r="CT19" s="17"/>
       <c r="CU19" s="17"/>
       <c r="CV19" s="17"/>
@@ -26169,13 +26118,14 @@
       <c r="CI20" s="3"/>
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
-      <c r="CL20" s="21"/>
-      <c r="CM20" s="21"/>
-      <c r="CN20" s="21"/>
-      <c r="CO20" s="21"/>
-      <c r="CP20" s="21"/>
-      <c r="CQ20" s="21"/>
-      <c r="CR20" s="21"/>
+      <c r="CL20" s="3"/>
+      <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="CO20" s="3"/>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="3"/>
+      <c r="CR20" s="3"/>
+      <c r="CS20" s="3"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26269,17 +26219,18 @@
       <c r="CI21" s="3"/>
       <c r="CJ21" s="3"/>
       <c r="CK21" s="3"/>
-      <c r="CL21" s="21"/>
-      <c r="CM21" s="21"/>
-      <c r="CN21" s="21"/>
-      <c r="CO21" s="21"/>
-      <c r="CP21" s="21"/>
-      <c r="CQ21" s="21"/>
-      <c r="CR21" s="21"/>
+      <c r="CL21" s="3"/>
+      <c r="CM21" s="3"/>
+      <c r="CN21" s="3"/>
+      <c r="CO21" s="3"/>
+      <c r="CP21" s="3"/>
+      <c r="CQ21" s="3"/>
+      <c r="CR21" s="3"/>
+      <c r="CS21" s="3"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26369,13 +26320,14 @@
       <c r="CI22" s="3"/>
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
-      <c r="CL22" s="21"/>
-      <c r="CM22" s="21"/>
-      <c r="CN22" s="21"/>
-      <c r="CO22" s="21"/>
-      <c r="CP22" s="21"/>
-      <c r="CQ22" s="21"/>
-      <c r="CR22" s="21"/>
+      <c r="CL22" s="3"/>
+      <c r="CM22" s="3"/>
+      <c r="CN22" s="3"/>
+      <c r="CO22" s="3"/>
+      <c r="CP22" s="3"/>
+      <c r="CQ22" s="3"/>
+      <c r="CR22" s="3"/>
+      <c r="CS22" s="3"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26467,13 +26419,14 @@
       <c r="CI23" s="3"/>
       <c r="CJ23" s="3"/>
       <c r="CK23" s="3"/>
-      <c r="CL23" s="21"/>
-      <c r="CM23" s="21"/>
-      <c r="CN23" s="21"/>
-      <c r="CO23" s="21"/>
-      <c r="CP23" s="21"/>
-      <c r="CQ23" s="21"/>
-      <c r="CR23" s="21"/>
+      <c r="CL23" s="3"/>
+      <c r="CM23" s="3"/>
+      <c r="CN23" s="3"/>
+      <c r="CO23" s="3"/>
+      <c r="CP23" s="3"/>
+      <c r="CQ23" s="3"/>
+      <c r="CR23" s="3"/>
+      <c r="CS23" s="3"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26567,17 +26520,18 @@
       <c r="CI24" s="3"/>
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
-      <c r="CL24" s="21"/>
-      <c r="CM24" s="21"/>
-      <c r="CN24" s="21"/>
-      <c r="CO24" s="21"/>
-      <c r="CP24" s="21"/>
-      <c r="CQ24" s="21"/>
-      <c r="CR24" s="21"/>
+      <c r="CL24" s="3"/>
+      <c r="CM24" s="3"/>
+      <c r="CN24" s="3"/>
+      <c r="CO24" s="3"/>
+      <c r="CP24" s="3"/>
+      <c r="CQ24" s="3"/>
+      <c r="CR24" s="3"/>
+      <c r="CS24" s="3"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26667,13 +26621,14 @@
       <c r="CI25" s="3"/>
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
-      <c r="CL25" s="21"/>
-      <c r="CM25" s="21"/>
-      <c r="CN25" s="21"/>
-      <c r="CO25" s="21"/>
-      <c r="CP25" s="21"/>
-      <c r="CQ25" s="21"/>
-      <c r="CR25" s="21"/>
+      <c r="CL25" s="3"/>
+      <c r="CM25" s="3"/>
+      <c r="CN25" s="3"/>
+      <c r="CO25" s="3"/>
+      <c r="CP25" s="3"/>
+      <c r="CQ25" s="3"/>
+      <c r="CR25" s="3"/>
+      <c r="CS25" s="3"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26767,13 +26722,14 @@
       <c r="CI26" s="3"/>
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
-      <c r="CL26" s="21"/>
-      <c r="CM26" s="21"/>
-      <c r="CN26" s="21"/>
-      <c r="CO26" s="21"/>
-      <c r="CP26" s="21"/>
-      <c r="CQ26" s="21"/>
-      <c r="CR26" s="21"/>
+      <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
+      <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="3"/>
+      <c r="CS26" s="3"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26865,159 +26821,161 @@
       <c r="CI27" s="3"/>
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
-      <c r="CL27" s="21"/>
-      <c r="CM27" s="21"/>
-      <c r="CN27" s="21"/>
-      <c r="CO27" s="21"/>
-      <c r="CP27" s="21"/>
-      <c r="CQ27" s="21"/>
-      <c r="CR27" s="21"/>
+      <c r="CL27" s="3"/>
+      <c r="CM27" s="3"/>
+      <c r="CN27" s="3"/>
+      <c r="CO27" s="3"/>
+      <c r="CP27" s="3"/>
+      <c r="CQ27" s="3"/>
+      <c r="CR27" s="3"/>
+      <c r="CS27" s="3"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="32">
+      <c r="B28" s="22">
         <v>2000</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="32">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22">
         <v>2001</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22">
         <v>2002</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="32">
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22">
         <v>2003</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="32">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="22">
         <v>2004</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="32">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="22">
         <v>2005</v>
       </c>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="32">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="22">
         <v>2006</v>
       </c>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="32">
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="22">
         <v>2007</v>
       </c>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="32">
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="22">
         <v>2008</v>
       </c>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="32">
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="22">
         <v>2009</v>
       </c>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="32">
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="32">
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="22">
         <v>2011</v>
       </c>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="32">
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="22">
         <v>2012</v>
       </c>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="33"/>
-      <c r="BB28" s="32">
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="22">
         <v>2013</v>
       </c>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="32">
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="22">
         <v>2014</v>
       </c>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="32">
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="22">
         <v>2015</v>
       </c>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="32">
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="22">
         <v>2016</v>
       </c>
-      <c r="BO28" s="33"/>
-      <c r="BP28" s="33"/>
-      <c r="BQ28" s="33"/>
-      <c r="BR28" s="32">
+      <c r="BO28" s="23"/>
+      <c r="BP28" s="23"/>
+      <c r="BQ28" s="23"/>
+      <c r="BR28" s="22">
         <v>2017</v>
       </c>
-      <c r="BS28" s="33"/>
-      <c r="BT28" s="33"/>
-      <c r="BU28" s="33"/>
-      <c r="BV28" s="32">
+      <c r="BS28" s="23"/>
+      <c r="BT28" s="23"/>
+      <c r="BU28" s="23"/>
+      <c r="BV28" s="22">
         <v>2018</v>
       </c>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="32">
+      <c r="BW28" s="23"/>
+      <c r="BX28" s="23"/>
+      <c r="BY28" s="23"/>
+      <c r="BZ28" s="22">
         <v>2019</v>
       </c>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
-      <c r="CD28" s="32">
+      <c r="CA28" s="23"/>
+      <c r="CB28" s="23"/>
+      <c r="CC28" s="23"/>
+      <c r="CD28" s="22">
         <v>2020</v>
       </c>
-      <c r="CE28" s="32"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32"/>
-      <c r="CH28" s="32">
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
+      <c r="CH28" s="22">
         <v>2021</v>
       </c>
-      <c r="CI28" s="32"/>
-      <c r="CJ28" s="32"/>
-      <c r="CK28" s="32"/>
-      <c r="CL28" s="34">
+      <c r="CI28" s="22"/>
+      <c r="CJ28" s="22"/>
+      <c r="CK28" s="22"/>
+      <c r="CL28" s="21">
         <v>2022</v>
       </c>
-      <c r="CM28" s="34"/>
-      <c r="CN28" s="34"/>
-      <c r="CO28" s="34"/>
-      <c r="CP28" s="34">
+      <c r="CM28" s="21"/>
+      <c r="CN28" s="21"/>
+      <c r="CO28" s="21"/>
+      <c r="CP28" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="34"/>
-      <c r="CR28" s="34"/>
+      <c r="CQ28" s="21"/>
+      <c r="CR28" s="21"/>
+      <c r="CS28" s="21"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27287,26 +27245,29 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="22" t="s">
+      <c r="CL29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="22" t="s">
+      <c r="CM29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="22" t="s">
+      <c r="CN29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="22" t="s">
+      <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="22" t="s">
+      <c r="CP29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="22" t="s">
+      <c r="CQ29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="22" t="s">
+      <c r="CR29" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27399,13 +27360,14 @@
       <c r="CI30" s="3"/>
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
-      <c r="CL30" s="21"/>
-      <c r="CM30" s="21"/>
-      <c r="CN30" s="21"/>
-      <c r="CO30" s="21"/>
-      <c r="CP30" s="21"/>
-      <c r="CQ30" s="21"/>
-      <c r="CR30" s="21"/>
+      <c r="CL30" s="3"/>
+      <c r="CM30" s="3"/>
+      <c r="CN30" s="3"/>
+      <c r="CO30" s="3"/>
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="3"/>
+      <c r="CS30" s="3"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27675,28 +27637,30 @@
       <c r="CK31" s="13">
         <v>112293.55436978329</v>
       </c>
-      <c r="CL31" s="23">
+      <c r="CL31" s="13">
         <v>138392.93444998763</v>
       </c>
-      <c r="CM31" s="23">
+      <c r="CM31" s="13">
         <v>164975.31879776841</v>
       </c>
-      <c r="CN31" s="23">
+      <c r="CN31" s="13">
         <v>124117.62709944065</v>
       </c>
-      <c r="CO31" s="23">
+      <c r="CO31" s="13">
         <v>125861.13477052779</v>
       </c>
-      <c r="CP31" s="23">
+      <c r="CP31" s="13">
         <v>145300.81961965648</v>
       </c>
-      <c r="CQ31" s="23">
+      <c r="CQ31" s="13">
         <v>173597.42512971928</v>
       </c>
-      <c r="CR31" s="23">
+      <c r="CR31" s="13">
         <v>130300.4462980215</v>
       </c>
-      <c r="CS31" s="17"/>
+      <c r="CS31" s="13">
+        <v>134951.43011214683</v>
+      </c>
       <c r="CT31" s="17"/>
       <c r="CU31" s="17"/>
       <c r="CV31" s="17"/>
@@ -28024,28 +27988,30 @@
       <c r="CK32" s="13">
         <v>56773.215199544939</v>
       </c>
-      <c r="CL32" s="23">
+      <c r="CL32" s="13">
         <v>61725.149458875145</v>
       </c>
-      <c r="CM32" s="23">
+      <c r="CM32" s="13">
         <v>63941.273040106309</v>
       </c>
-      <c r="CN32" s="23">
+      <c r="CN32" s="13">
         <v>60094.107604748198</v>
       </c>
-      <c r="CO32" s="23">
+      <c r="CO32" s="13">
         <v>60156.617111390151</v>
       </c>
-      <c r="CP32" s="23">
+      <c r="CP32" s="13">
         <v>68051.329022264807</v>
       </c>
-      <c r="CQ32" s="23">
+      <c r="CQ32" s="13">
         <v>71057.081534764671</v>
       </c>
-      <c r="CR32" s="23">
-        <v>65202.488810263865</v>
-      </c>
-      <c r="CS32" s="17"/>
+      <c r="CR32" s="13">
+        <v>65768.978110185461</v>
+      </c>
+      <c r="CS32" s="13">
+        <v>65787.363869877401</v>
+      </c>
       <c r="CT32" s="17"/>
       <c r="CU32" s="17"/>
       <c r="CV32" s="17"/>
@@ -28194,14 +28160,14 @@
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
-      <c r="CL33" s="24"/>
-      <c r="CM33" s="24"/>
-      <c r="CN33" s="24"/>
-      <c r="CO33" s="24"/>
-      <c r="CP33" s="24"/>
-      <c r="CQ33" s="24"/>
-      <c r="CR33" s="24"/>
-      <c r="CS33" s="17"/>
+      <c r="CL33" s="11"/>
+      <c r="CM33" s="11"/>
+      <c r="CN33" s="11"/>
+      <c r="CO33" s="11"/>
+      <c r="CP33" s="11"/>
+      <c r="CQ33" s="11"/>
+      <c r="CR33" s="11"/>
+      <c r="CS33" s="11"/>
       <c r="CT33" s="17"/>
       <c r="CU33" s="17"/>
       <c r="CV33" s="17"/>
@@ -28529,28 +28495,30 @@
       <c r="CK34" s="14">
         <v>169066.76956932823</v>
       </c>
-      <c r="CL34" s="25">
+      <c r="CL34" s="19">
         <v>200118.08390886278</v>
       </c>
-      <c r="CM34" s="25">
+      <c r="CM34" s="19">
         <v>228916.59183787473</v>
       </c>
-      <c r="CN34" s="25">
+      <c r="CN34" s="19">
         <v>184211.73470418886</v>
       </c>
-      <c r="CO34" s="25">
+      <c r="CO34" s="19">
         <v>186017.75188191794</v>
       </c>
-      <c r="CP34" s="25">
+      <c r="CP34" s="19">
         <v>213352.14864192129</v>
       </c>
-      <c r="CQ34" s="25">
+      <c r="CQ34" s="19">
         <v>244654.50666448395</v>
       </c>
-      <c r="CR34" s="25">
-        <v>195502.93510828537</v>
-      </c>
-      <c r="CS34" s="17"/>
+      <c r="CR34" s="19">
+        <v>196069.42440820695</v>
+      </c>
+      <c r="CS34" s="19">
+        <v>200738.79398202425</v>
+      </c>
       <c r="CT34" s="17"/>
       <c r="CU34" s="17"/>
       <c r="CV34" s="17"/>
@@ -28700,13 +28668,14 @@
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
-      <c r="CL35" s="26"/>
-      <c r="CM35" s="26"/>
-      <c r="CN35" s="26"/>
-      <c r="CO35" s="26"/>
-      <c r="CP35" s="26"/>
-      <c r="CQ35" s="26"/>
-      <c r="CR35" s="26"/>
+      <c r="CL35" s="9"/>
+      <c r="CM35" s="9"/>
+      <c r="CN35" s="9"/>
+      <c r="CO35" s="9"/>
+      <c r="CP35" s="9"/>
+      <c r="CQ35" s="9"/>
+      <c r="CR35" s="9"/>
+      <c r="CS35" s="9"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28800,13 +28769,14 @@
       <c r="CI36" s="3"/>
       <c r="CJ36" s="3"/>
       <c r="CK36" s="3"/>
-      <c r="CL36" s="21"/>
-      <c r="CM36" s="21"/>
-      <c r="CN36" s="21"/>
-      <c r="CO36" s="21"/>
-      <c r="CP36" s="21"/>
-      <c r="CQ36" s="21"/>
-      <c r="CR36" s="21"/>
+      <c r="CL36" s="3"/>
+      <c r="CM36" s="3"/>
+      <c r="CN36" s="3"/>
+      <c r="CO36" s="3"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="3"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -28897,14 +28867,14 @@
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
-      <c r="CL37" s="24"/>
-      <c r="CM37" s="24"/>
-      <c r="CN37" s="24"/>
-      <c r="CO37" s="24"/>
-      <c r="CP37" s="24"/>
-      <c r="CQ37" s="24"/>
-      <c r="CR37" s="24"/>
-      <c r="CS37" s="17"/>
+      <c r="CL37" s="11"/>
+      <c r="CM37" s="11"/>
+      <c r="CN37" s="11"/>
+      <c r="CO37" s="11"/>
+      <c r="CP37" s="11"/>
+      <c r="CQ37" s="11"/>
+      <c r="CR37" s="11"/>
+      <c r="CS37" s="11"/>
       <c r="CT37" s="17"/>
       <c r="CU37" s="17"/>
       <c r="CV37" s="17"/>
@@ -29053,14 +29023,14 @@
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
-      <c r="CL38" s="24"/>
-      <c r="CM38" s="24"/>
-      <c r="CN38" s="24"/>
-      <c r="CO38" s="24"/>
-      <c r="CP38" s="24"/>
-      <c r="CQ38" s="24"/>
-      <c r="CR38" s="24"/>
-      <c r="CS38" s="17"/>
+      <c r="CL38" s="11"/>
+      <c r="CM38" s="11"/>
+      <c r="CN38" s="11"/>
+      <c r="CO38" s="11"/>
+      <c r="CP38" s="11"/>
+      <c r="CQ38" s="11"/>
+      <c r="CR38" s="11"/>
+      <c r="CS38" s="11"/>
       <c r="CT38" s="17"/>
       <c r="CU38" s="17"/>
       <c r="CV38" s="17"/>
@@ -29212,13 +29182,14 @@
       <c r="CI39" s="3"/>
       <c r="CJ39" s="3"/>
       <c r="CK39" s="3"/>
-      <c r="CL39" s="21"/>
-      <c r="CM39" s="21"/>
-      <c r="CN39" s="21"/>
-      <c r="CO39" s="21"/>
-      <c r="CP39" s="21"/>
-      <c r="CQ39" s="21"/>
-      <c r="CR39" s="21"/>
+      <c r="CL39" s="3"/>
+      <c r="CM39" s="3"/>
+      <c r="CN39" s="3"/>
+      <c r="CO39" s="3"/>
+      <c r="CP39" s="3"/>
+      <c r="CQ39" s="3"/>
+      <c r="CR39" s="3"/>
+      <c r="CS39" s="3"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29312,17 +29283,18 @@
       <c r="CI40" s="3"/>
       <c r="CJ40" s="3"/>
       <c r="CK40" s="3"/>
-      <c r="CL40" s="21"/>
-      <c r="CM40" s="21"/>
-      <c r="CN40" s="21"/>
-      <c r="CO40" s="21"/>
-      <c r="CP40" s="21"/>
-      <c r="CQ40" s="21"/>
-      <c r="CR40" s="21"/>
+      <c r="CL40" s="3"/>
+      <c r="CM40" s="3"/>
+      <c r="CN40" s="3"/>
+      <c r="CO40" s="3"/>
+      <c r="CP40" s="3"/>
+      <c r="CQ40" s="3"/>
+      <c r="CR40" s="3"/>
+      <c r="CS40" s="3"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29412,13 +29384,14 @@
       <c r="CI41" s="3"/>
       <c r="CJ41" s="3"/>
       <c r="CK41" s="3"/>
-      <c r="CL41" s="21"/>
-      <c r="CM41" s="21"/>
-      <c r="CN41" s="21"/>
-      <c r="CO41" s="21"/>
-      <c r="CP41" s="21"/>
-      <c r="CQ41" s="21"/>
-      <c r="CR41" s="21"/>
+      <c r="CL41" s="3"/>
+      <c r="CM41" s="3"/>
+      <c r="CN41" s="3"/>
+      <c r="CO41" s="3"/>
+      <c r="CP41" s="3"/>
+      <c r="CQ41" s="3"/>
+      <c r="CR41" s="3"/>
+      <c r="CS41" s="3"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29510,13 +29483,14 @@
       <c r="CI42" s="3"/>
       <c r="CJ42" s="3"/>
       <c r="CK42" s="3"/>
-      <c r="CL42" s="21"/>
-      <c r="CM42" s="21"/>
-      <c r="CN42" s="21"/>
-      <c r="CO42" s="21"/>
-      <c r="CP42" s="21"/>
-      <c r="CQ42" s="21"/>
-      <c r="CR42" s="21"/>
+      <c r="CL42" s="3"/>
+      <c r="CM42" s="3"/>
+      <c r="CN42" s="3"/>
+      <c r="CO42" s="3"/>
+      <c r="CP42" s="3"/>
+      <c r="CQ42" s="3"/>
+      <c r="CR42" s="3"/>
+      <c r="CS42" s="3"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29610,17 +29584,18 @@
       <c r="CI43" s="3"/>
       <c r="CJ43" s="3"/>
       <c r="CK43" s="3"/>
-      <c r="CL43" s="21"/>
-      <c r="CM43" s="21"/>
-      <c r="CN43" s="21"/>
-      <c r="CO43" s="21"/>
-      <c r="CP43" s="21"/>
-      <c r="CQ43" s="21"/>
-      <c r="CR43" s="21"/>
+      <c r="CL43" s="3"/>
+      <c r="CM43" s="3"/>
+      <c r="CN43" s="3"/>
+      <c r="CO43" s="3"/>
+      <c r="CP43" s="3"/>
+      <c r="CQ43" s="3"/>
+      <c r="CR43" s="3"/>
+      <c r="CS43" s="3"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29702,13 +29677,6 @@
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
-      <c r="CL44" s="20"/>
-      <c r="CM44" s="20"/>
-      <c r="CN44" s="20"/>
-      <c r="CO44" s="20"/>
-      <c r="CP44" s="20"/>
-      <c r="CQ44" s="20"/>
-      <c r="CR44" s="20"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -29794,13 +29762,6 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
-      <c r="CL45" s="20"/>
-      <c r="CM45" s="20"/>
-      <c r="CN45" s="20"/>
-      <c r="CO45" s="20"/>
-      <c r="CP45" s="20"/>
-      <c r="CQ45" s="20"/>
-      <c r="CR45" s="20"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -29892,157 +29853,159 @@
       <c r="CI46" s="3"/>
       <c r="CJ46" s="3"/>
       <c r="CK46" s="3"/>
-      <c r="CL46" s="21"/>
-      <c r="CM46" s="21"/>
-      <c r="CN46" s="21"/>
-      <c r="CO46" s="21"/>
-      <c r="CP46" s="21"/>
-      <c r="CQ46" s="21"/>
-      <c r="CR46" s="21"/>
+      <c r="CL46" s="3"/>
+      <c r="CM46" s="3"/>
+      <c r="CN46" s="3"/>
+      <c r="CO46" s="3"/>
+      <c r="CP46" s="3"/>
+      <c r="CQ46" s="3"/>
+      <c r="CR46" s="3"/>
+      <c r="CS46" s="3"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32" t="s">
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32" t="s">
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32" t="s">
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32" t="s">
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32" t="s">
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32" t="s">
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="32" t="s">
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="32"/>
-      <c r="AR47" s="32"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="32" t="s">
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="32" t="s">
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="32"/>
-      <c r="BA47" s="32"/>
-      <c r="BB47" s="32" t="s">
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="32"/>
-      <c r="BD47" s="32"/>
-      <c r="BE47" s="32"/>
-      <c r="BF47" s="32" t="s">
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="32"/>
-      <c r="BH47" s="32"/>
-      <c r="BI47" s="32"/>
-      <c r="BJ47" s="32" t="s">
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="32"/>
-      <c r="BL47" s="32"/>
-      <c r="BM47" s="32"/>
-      <c r="BN47" s="32" t="s">
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="32"/>
-      <c r="BP47" s="32"/>
-      <c r="BQ47" s="32"/>
-      <c r="BR47" s="32" t="s">
+      <c r="BO47" s="22"/>
+      <c r="BP47" s="22"/>
+      <c r="BQ47" s="22"/>
+      <c r="BR47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="32"/>
-      <c r="BT47" s="32"/>
-      <c r="BU47" s="32"/>
-      <c r="BV47" s="32" t="s">
+      <c r="BS47" s="22"/>
+      <c r="BT47" s="22"/>
+      <c r="BU47" s="22"/>
+      <c r="BV47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="32"/>
-      <c r="BX47" s="32"/>
-      <c r="BY47" s="32"/>
-      <c r="BZ47" s="32" t="s">
+      <c r="BW47" s="22"/>
+      <c r="BX47" s="22"/>
+      <c r="BY47" s="22"/>
+      <c r="BZ47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="32"/>
-      <c r="CB47" s="32"/>
-      <c r="CC47" s="32"/>
-      <c r="CD47" s="32" t="s">
+      <c r="CA47" s="22"/>
+      <c r="CB47" s="22"/>
+      <c r="CC47" s="22"/>
+      <c r="CD47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="32"/>
-      <c r="CF47" s="32"/>
-      <c r="CG47" s="32"/>
-      <c r="CH47" s="32" t="s">
+      <c r="CE47" s="22"/>
+      <c r="CF47" s="22"/>
+      <c r="CG47" s="22"/>
+      <c r="CH47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="32"/>
-      <c r="CJ47" s="32"/>
-      <c r="CK47" s="32"/>
-      <c r="CL47" s="34" t="s">
+      <c r="CI47" s="22"/>
+      <c r="CJ47" s="22"/>
+      <c r="CK47" s="22"/>
+      <c r="CL47" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="34"/>
-      <c r="CN47" s="34"/>
-      <c r="CO47" s="27"/>
-      <c r="CP47" s="19"/>
-      <c r="CQ47" s="19"/>
-      <c r="CR47" s="19"/>
+      <c r="CM47" s="21"/>
+      <c r="CN47" s="21"/>
+      <c r="CO47" s="21"/>
+      <c r="CP47" s="20"/>
+      <c r="CQ47" s="20"/>
+      <c r="CR47" s="20"/>
+      <c r="CS47" s="20"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30312,19 +30275,22 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="28" t="s">
+      <c r="CL48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="28" t="s">
+      <c r="CM48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="28" t="s">
+      <c r="CN48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="28"/>
-      <c r="CP48" s="28"/>
-      <c r="CQ48" s="28"/>
-      <c r="CR48" s="28"/>
+      <c r="CO48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP48" s="5"/>
+      <c r="CQ48" s="5"/>
+      <c r="CR48" s="5"/>
+      <c r="CS48" s="5"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30416,13 +30382,14 @@
       <c r="CI49" s="3"/>
       <c r="CJ49" s="3"/>
       <c r="CK49" s="3"/>
-      <c r="CL49" s="21"/>
-      <c r="CM49" s="21"/>
-      <c r="CN49" s="21"/>
-      <c r="CO49" s="21"/>
-      <c r="CP49" s="21"/>
-      <c r="CQ49" s="21"/>
-      <c r="CR49" s="21"/>
+      <c r="CL49" s="3"/>
+      <c r="CM49" s="3"/>
+      <c r="CN49" s="3"/>
+      <c r="CO49" s="3"/>
+      <c r="CP49" s="3"/>
+      <c r="CQ49" s="3"/>
+      <c r="CR49" s="3"/>
+      <c r="CS49" s="3"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30692,20 +30659,22 @@
       <c r="CK50" s="12">
         <v>15.804186939397653</v>
       </c>
-      <c r="CL50" s="29">
+      <c r="CL50" s="12">
         <v>8.9045740817916794</v>
       </c>
-      <c r="CM50" s="29">
+      <c r="CM50" s="12">
         <v>9.6470243321747233</v>
       </c>
-      <c r="CN50" s="29">
+      <c r="CN50" s="12">
         <v>8.4992849367631891</v>
       </c>
-      <c r="CO50" s="29"/>
-      <c r="CP50" s="29"/>
-      <c r="CQ50" s="29"/>
-      <c r="CR50" s="29"/>
-      <c r="CS50" s="17"/>
+      <c r="CO50" s="12">
+        <v>11.155047143873787</v>
+      </c>
+      <c r="CP50" s="12"/>
+      <c r="CQ50" s="12"/>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="12"/>
       <c r="CT50" s="17"/>
       <c r="CU50" s="17"/>
       <c r="CV50" s="17"/>
@@ -31029,20 +30998,22 @@
       <c r="CK51" s="12">
         <v>8.8656599021623492</v>
       </c>
-      <c r="CL51" s="29">
+      <c r="CL51" s="12">
         <v>13.888840521205779</v>
       </c>
-      <c r="CM51" s="29">
+      <c r="CM51" s="12">
         <v>14.998689146700968</v>
       </c>
-      <c r="CN51" s="29">
-        <v>12.196521171299963</v>
-      </c>
-      <c r="CO51" s="29"/>
-      <c r="CP51" s="29"/>
-      <c r="CQ51" s="29"/>
-      <c r="CR51" s="29"/>
-      <c r="CS51" s="17"/>
+      <c r="CN51" s="12">
+        <v>13.171301887369239</v>
+      </c>
+      <c r="CO51" s="12">
+        <v>13.85400037449142</v>
+      </c>
+      <c r="CP51" s="12"/>
+      <c r="CQ51" s="12"/>
+      <c r="CR51" s="12"/>
+      <c r="CS51" s="12"/>
       <c r="CT51" s="17"/>
       <c r="CU51" s="17"/>
       <c r="CV51" s="17"/>
@@ -31188,14 +31159,14 @@
       <c r="CI52" s="11"/>
       <c r="CJ52" s="11"/>
       <c r="CK52" s="11"/>
-      <c r="CL52" s="24"/>
-      <c r="CM52" s="24"/>
-      <c r="CN52" s="24"/>
-      <c r="CO52" s="24"/>
-      <c r="CP52" s="24"/>
-      <c r="CQ52" s="24"/>
-      <c r="CR52" s="24"/>
-      <c r="CS52" s="17"/>
+      <c r="CL52" s="11"/>
+      <c r="CM52" s="11"/>
+      <c r="CN52" s="11"/>
+      <c r="CO52" s="11"/>
+      <c r="CP52" s="11"/>
+      <c r="CQ52" s="11"/>
+      <c r="CR52" s="11"/>
+      <c r="CS52" s="11"/>
       <c r="CT52" s="17"/>
       <c r="CU52" s="17"/>
       <c r="CV52" s="17"/>
@@ -31519,20 +31490,22 @@
       <c r="CK53" s="12">
         <v>13.639076187838199</v>
       </c>
-      <c r="CL53" s="29">
+      <c r="CL53" s="12">
         <v>10.353708800800575</v>
       </c>
-      <c r="CM53" s="29">
+      <c r="CM53" s="12">
         <v>11.070463791642666</v>
       </c>
-      <c r="CN53" s="29">
-        <v>9.6947969522315276</v>
-      </c>
-      <c r="CO53" s="29"/>
-      <c r="CP53" s="29"/>
-      <c r="CQ53" s="29"/>
-      <c r="CR53" s="29"/>
-      <c r="CS53" s="17"/>
+      <c r="CN53" s="12">
+        <v>10.009995112311671</v>
+      </c>
+      <c r="CO53" s="12">
+        <v>11.961857391052462</v>
+      </c>
+      <c r="CP53" s="12"/>
+      <c r="CQ53" s="12"/>
+      <c r="CR53" s="12"/>
+      <c r="CS53" s="12"/>
       <c r="CT53" s="17"/>
       <c r="CU53" s="17"/>
       <c r="CV53" s="17"/>
@@ -31678,13 +31651,14 @@
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
       <c r="CK54" s="9"/>
-      <c r="CL54" s="26"/>
-      <c r="CM54" s="26"/>
-      <c r="CN54" s="26"/>
-      <c r="CO54" s="26"/>
-      <c r="CP54" s="26"/>
-      <c r="CQ54" s="26"/>
-      <c r="CR54" s="26"/>
+      <c r="CL54" s="9"/>
+      <c r="CM54" s="9"/>
+      <c r="CN54" s="9"/>
+      <c r="CO54" s="9"/>
+      <c r="CP54" s="9"/>
+      <c r="CQ54" s="9"/>
+      <c r="CR54" s="9"/>
+      <c r="CS54" s="9"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -31778,13 +31752,14 @@
       <c r="CI55" s="3"/>
       <c r="CJ55" s="3"/>
       <c r="CK55" s="3"/>
-      <c r="CL55" s="21"/>
-      <c r="CM55" s="21"/>
-      <c r="CN55" s="21"/>
-      <c r="CO55" s="21"/>
-      <c r="CP55" s="21"/>
-      <c r="CQ55" s="21"/>
-      <c r="CR55" s="21"/>
+      <c r="CL55" s="3"/>
+      <c r="CM55" s="3"/>
+      <c r="CN55" s="3"/>
+      <c r="CO55" s="3"/>
+      <c r="CP55" s="3"/>
+      <c r="CQ55" s="3"/>
+      <c r="CR55" s="3"/>
+      <c r="CS55" s="3"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -31875,14 +31850,14 @@
       <c r="CI56" s="11"/>
       <c r="CJ56" s="11"/>
       <c r="CK56" s="11"/>
-      <c r="CL56" s="24"/>
-      <c r="CM56" s="24"/>
-      <c r="CN56" s="24"/>
-      <c r="CO56" s="24"/>
-      <c r="CP56" s="24"/>
-      <c r="CQ56" s="24"/>
-      <c r="CR56" s="24"/>
-      <c r="CS56" s="17"/>
+      <c r="CL56" s="11"/>
+      <c r="CM56" s="11"/>
+      <c r="CN56" s="11"/>
+      <c r="CO56" s="11"/>
+      <c r="CP56" s="11"/>
+      <c r="CQ56" s="11"/>
+      <c r="CR56" s="11"/>
+      <c r="CS56" s="11"/>
       <c r="CT56" s="17"/>
       <c r="CU56" s="17"/>
       <c r="CV56" s="17"/>
@@ -32027,14 +32002,14 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="24"/>
-      <c r="CM57" s="24"/>
-      <c r="CN57" s="24"/>
-      <c r="CO57" s="24"/>
-      <c r="CP57" s="24"/>
-      <c r="CQ57" s="24"/>
-      <c r="CR57" s="24"/>
-      <c r="CS57" s="17"/>
+      <c r="CL57" s="11"/>
+      <c r="CM57" s="11"/>
+      <c r="CN57" s="11"/>
+      <c r="CO57" s="11"/>
+      <c r="CP57" s="11"/>
+      <c r="CQ57" s="11"/>
+      <c r="CR57" s="11"/>
+      <c r="CS57" s="11"/>
       <c r="CT57" s="17"/>
       <c r="CU57" s="17"/>
       <c r="CV57" s="17"/>
@@ -32182,13 +32157,14 @@
       <c r="CI58" s="3"/>
       <c r="CJ58" s="3"/>
       <c r="CK58" s="3"/>
-      <c r="CL58" s="21"/>
-      <c r="CM58" s="21"/>
-      <c r="CN58" s="21"/>
-      <c r="CO58" s="21"/>
-      <c r="CP58" s="21"/>
-      <c r="CQ58" s="21"/>
-      <c r="CR58" s="21"/>
+      <c r="CL58" s="3"/>
+      <c r="CM58" s="3"/>
+      <c r="CN58" s="3"/>
+      <c r="CO58" s="3"/>
+      <c r="CP58" s="3"/>
+      <c r="CQ58" s="3"/>
+      <c r="CR58" s="3"/>
+      <c r="CS58" s="3"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32282,17 +32258,18 @@
       <c r="CI59" s="3"/>
       <c r="CJ59" s="3"/>
       <c r="CK59" s="3"/>
-      <c r="CL59" s="21"/>
-      <c r="CM59" s="21"/>
-      <c r="CN59" s="21"/>
-      <c r="CO59" s="21"/>
-      <c r="CP59" s="21"/>
-      <c r="CQ59" s="21"/>
-      <c r="CR59" s="21"/>
+      <c r="CL59" s="3"/>
+      <c r="CM59" s="3"/>
+      <c r="CN59" s="3"/>
+      <c r="CO59" s="3"/>
+      <c r="CP59" s="3"/>
+      <c r="CQ59" s="3"/>
+      <c r="CR59" s="3"/>
+      <c r="CS59" s="3"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32382,13 +32359,14 @@
       <c r="CI60" s="3"/>
       <c r="CJ60" s="3"/>
       <c r="CK60" s="3"/>
-      <c r="CL60" s="21"/>
-      <c r="CM60" s="21"/>
-      <c r="CN60" s="21"/>
-      <c r="CO60" s="21"/>
-      <c r="CP60" s="21"/>
-      <c r="CQ60" s="21"/>
-      <c r="CR60" s="21"/>
+      <c r="CL60" s="3"/>
+      <c r="CM60" s="3"/>
+      <c r="CN60" s="3"/>
+      <c r="CO60" s="3"/>
+      <c r="CP60" s="3"/>
+      <c r="CQ60" s="3"/>
+      <c r="CR60" s="3"/>
+      <c r="CS60" s="3"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32480,13 +32458,14 @@
       <c r="CI61" s="3"/>
       <c r="CJ61" s="3"/>
       <c r="CK61" s="3"/>
-      <c r="CL61" s="21"/>
-      <c r="CM61" s="21"/>
-      <c r="CN61" s="21"/>
-      <c r="CO61" s="21"/>
-      <c r="CP61" s="21"/>
-      <c r="CQ61" s="21"/>
-      <c r="CR61" s="21"/>
+      <c r="CL61" s="3"/>
+      <c r="CM61" s="3"/>
+      <c r="CN61" s="3"/>
+      <c r="CO61" s="3"/>
+      <c r="CP61" s="3"/>
+      <c r="CQ61" s="3"/>
+      <c r="CR61" s="3"/>
+      <c r="CS61" s="3"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32580,17 +32559,18 @@
       <c r="CI62" s="3"/>
       <c r="CJ62" s="3"/>
       <c r="CK62" s="3"/>
-      <c r="CL62" s="21"/>
-      <c r="CM62" s="21"/>
-      <c r="CN62" s="21"/>
-      <c r="CO62" s="21"/>
-      <c r="CP62" s="21"/>
-      <c r="CQ62" s="21"/>
-      <c r="CR62" s="21"/>
+      <c r="CL62" s="3"/>
+      <c r="CM62" s="3"/>
+      <c r="CN62" s="3"/>
+      <c r="CO62" s="3"/>
+      <c r="CP62" s="3"/>
+      <c r="CQ62" s="3"/>
+      <c r="CR62" s="3"/>
+      <c r="CS62" s="3"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32680,13 +32660,14 @@
       <c r="CI63" s="3"/>
       <c r="CJ63" s="3"/>
       <c r="CK63" s="3"/>
-      <c r="CL63" s="21"/>
-      <c r="CM63" s="21"/>
-      <c r="CN63" s="21"/>
-      <c r="CO63" s="21"/>
-      <c r="CP63" s="21"/>
-      <c r="CQ63" s="21"/>
-      <c r="CR63" s="21"/>
+      <c r="CL63" s="3"/>
+      <c r="CM63" s="3"/>
+      <c r="CN63" s="3"/>
+      <c r="CO63" s="3"/>
+      <c r="CP63" s="3"/>
+      <c r="CQ63" s="3"/>
+      <c r="CR63" s="3"/>
+      <c r="CS63" s="3"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -32780,13 +32761,14 @@
       <c r="CI64" s="3"/>
       <c r="CJ64" s="3"/>
       <c r="CK64" s="3"/>
-      <c r="CL64" s="21"/>
-      <c r="CM64" s="21"/>
-      <c r="CN64" s="21"/>
-      <c r="CO64" s="21"/>
-      <c r="CP64" s="21"/>
-      <c r="CQ64" s="21"/>
-      <c r="CR64" s="21"/>
+      <c r="CL64" s="3"/>
+      <c r="CM64" s="3"/>
+      <c r="CN64" s="3"/>
+      <c r="CO64" s="3"/>
+      <c r="CP64" s="3"/>
+      <c r="CQ64" s="3"/>
+      <c r="CR64" s="3"/>
+      <c r="CS64" s="3"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -32878,157 +32860,159 @@
       <c r="CI65" s="3"/>
       <c r="CJ65" s="3"/>
       <c r="CK65" s="3"/>
-      <c r="CL65" s="21"/>
-      <c r="CM65" s="21"/>
-      <c r="CN65" s="21"/>
-      <c r="CO65" s="21"/>
-      <c r="CP65" s="21"/>
-      <c r="CQ65" s="21"/>
-      <c r="CR65" s="21"/>
+      <c r="CL65" s="3"/>
+      <c r="CM65" s="3"/>
+      <c r="CN65" s="3"/>
+      <c r="CO65" s="3"/>
+      <c r="CP65" s="3"/>
+      <c r="CQ65" s="3"/>
+      <c r="CR65" s="3"/>
+      <c r="CS65" s="3"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32" t="s">
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32" t="s">
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32" t="s">
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32" t="s">
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32" t="s">
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="32" t="s">
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="32" t="s">
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="32"/>
-      <c r="AJ66" s="32"/>
-      <c r="AK66" s="32"/>
-      <c r="AL66" s="32" t="s">
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="32"/>
-      <c r="AN66" s="32"/>
-      <c r="AO66" s="32"/>
-      <c r="AP66" s="32" t="s">
+      <c r="AM66" s="22"/>
+      <c r="AN66" s="22"/>
+      <c r="AO66" s="22"/>
+      <c r="AP66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="32"/>
-      <c r="AR66" s="32"/>
-      <c r="AS66" s="32"/>
-      <c r="AT66" s="32" t="s">
+      <c r="AQ66" s="22"/>
+      <c r="AR66" s="22"/>
+      <c r="AS66" s="22"/>
+      <c r="AT66" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="32"/>
-      <c r="AV66" s="32"/>
-      <c r="AW66" s="32"/>
-      <c r="AX66" s="32" t="s">
+      <c r="AU66" s="22"/>
+      <c r="AV66" s="22"/>
+      <c r="AW66" s="22"/>
+      <c r="AX66" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="32"/>
-      <c r="AZ66" s="32"/>
-      <c r="BA66" s="32"/>
-      <c r="BB66" s="32" t="s">
+      <c r="AY66" s="22"/>
+      <c r="AZ66" s="22"/>
+      <c r="BA66" s="22"/>
+      <c r="BB66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="32"/>
-      <c r="BD66" s="32"/>
-      <c r="BE66" s="32"/>
-      <c r="BF66" s="32" t="s">
+      <c r="BC66" s="22"/>
+      <c r="BD66" s="22"/>
+      <c r="BE66" s="22"/>
+      <c r="BF66" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="32"/>
-      <c r="BH66" s="32"/>
-      <c r="BI66" s="32"/>
-      <c r="BJ66" s="32" t="s">
+      <c r="BG66" s="22"/>
+      <c r="BH66" s="22"/>
+      <c r="BI66" s="22"/>
+      <c r="BJ66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="32"/>
-      <c r="BL66" s="32"/>
-      <c r="BM66" s="32"/>
-      <c r="BN66" s="32" t="s">
+      <c r="BK66" s="22"/>
+      <c r="BL66" s="22"/>
+      <c r="BM66" s="22"/>
+      <c r="BN66" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="32"/>
-      <c r="BP66" s="32"/>
-      <c r="BQ66" s="32"/>
-      <c r="BR66" s="32" t="s">
+      <c r="BO66" s="22"/>
+      <c r="BP66" s="22"/>
+      <c r="BQ66" s="22"/>
+      <c r="BR66" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="32"/>
-      <c r="BT66" s="32"/>
-      <c r="BU66" s="32"/>
-      <c r="BV66" s="32" t="s">
+      <c r="BS66" s="22"/>
+      <c r="BT66" s="22"/>
+      <c r="BU66" s="22"/>
+      <c r="BV66" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="32"/>
-      <c r="BX66" s="32"/>
-      <c r="BY66" s="32"/>
-      <c r="BZ66" s="32" t="s">
+      <c r="BW66" s="22"/>
+      <c r="BX66" s="22"/>
+      <c r="BY66" s="22"/>
+      <c r="BZ66" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="32"/>
-      <c r="CB66" s="32"/>
-      <c r="CC66" s="32"/>
-      <c r="CD66" s="32" t="s">
+      <c r="CA66" s="22"/>
+      <c r="CB66" s="22"/>
+      <c r="CC66" s="22"/>
+      <c r="CD66" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="32"/>
-      <c r="CF66" s="32"/>
-      <c r="CG66" s="32"/>
-      <c r="CH66" s="32" t="s">
+      <c r="CE66" s="22"/>
+      <c r="CF66" s="22"/>
+      <c r="CG66" s="22"/>
+      <c r="CH66" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="32"/>
-      <c r="CJ66" s="32"/>
-      <c r="CK66" s="32"/>
-      <c r="CL66" s="34" t="s">
+      <c r="CI66" s="22"/>
+      <c r="CJ66" s="22"/>
+      <c r="CK66" s="22"/>
+      <c r="CL66" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="34"/>
-      <c r="CN66" s="34"/>
-      <c r="CO66" s="27"/>
-      <c r="CP66" s="19"/>
-      <c r="CQ66" s="19"/>
-      <c r="CR66" s="19"/>
+      <c r="CM66" s="21"/>
+      <c r="CN66" s="21"/>
+      <c r="CO66" s="21"/>
+      <c r="CP66" s="20"/>
+      <c r="CQ66" s="20"/>
+      <c r="CR66" s="20"/>
+      <c r="CS66" s="20"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33298,19 +33282,22 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="28" t="s">
+      <c r="CL67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="28" t="s">
+      <c r="CM67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="28" t="s">
+      <c r="CN67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="28"/>
-      <c r="CP67" s="28"/>
-      <c r="CQ67" s="28"/>
-      <c r="CR67" s="28"/>
+      <c r="CO67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP67" s="5"/>
+      <c r="CQ67" s="5"/>
+      <c r="CR67" s="5"/>
+      <c r="CS67" s="5"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33402,13 +33389,14 @@
       <c r="CI68" s="3"/>
       <c r="CJ68" s="3"/>
       <c r="CK68" s="3"/>
-      <c r="CL68" s="21"/>
-      <c r="CM68" s="21"/>
-      <c r="CN68" s="21"/>
-      <c r="CO68" s="21"/>
-      <c r="CP68" s="21"/>
-      <c r="CQ68" s="21"/>
-      <c r="CR68" s="21"/>
+      <c r="CL68" s="3"/>
+      <c r="CM68" s="3"/>
+      <c r="CN68" s="3"/>
+      <c r="CO68" s="3"/>
+      <c r="CP68" s="3"/>
+      <c r="CQ68" s="3"/>
+      <c r="CR68" s="3"/>
+      <c r="CS68" s="3"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33678,20 +33666,22 @@
       <c r="CK69" s="12">
         <v>12.082243256871521</v>
       </c>
-      <c r="CL69" s="29">
+      <c r="CL69" s="12">
         <v>4.9915013343150321</v>
       </c>
-      <c r="CM69" s="29">
+      <c r="CM69" s="12">
         <v>5.2263007550360214</v>
       </c>
-      <c r="CN69" s="29">
+      <c r="CN69" s="12">
         <v>4.9814191127157841</v>
       </c>
-      <c r="CO69" s="29"/>
-      <c r="CP69" s="29"/>
-      <c r="CQ69" s="29"/>
-      <c r="CR69" s="29"/>
-      <c r="CS69" s="17"/>
+      <c r="CO69" s="12">
+        <v>7.2224800437344072</v>
+      </c>
+      <c r="CP69" s="12"/>
+      <c r="CQ69" s="12"/>
+      <c r="CR69" s="12"/>
+      <c r="CS69" s="12"/>
       <c r="CT69" s="17"/>
       <c r="CU69" s="17"/>
       <c r="CV69" s="17"/>
@@ -34015,20 +34005,22 @@
       <c r="CK70" s="12">
         <v>5.9595037905697694</v>
       </c>
-      <c r="CL70" s="29">
+      <c r="CL70" s="12">
         <v>10.248949769825217</v>
       </c>
-      <c r="CM70" s="29">
+      <c r="CM70" s="12">
         <v>11.128662530999449</v>
       </c>
-      <c r="CN70" s="29">
-        <v>8.500635768010028</v>
-      </c>
-      <c r="CO70" s="29"/>
-      <c r="CP70" s="29"/>
-      <c r="CQ70" s="29"/>
-      <c r="CR70" s="29"/>
-      <c r="CS70" s="17"/>
+      <c r="CN70" s="12">
+        <v>9.4433060604911532</v>
+      </c>
+      <c r="CO70" s="12">
+        <v>9.3601452822072275</v>
+      </c>
+      <c r="CP70" s="12"/>
+      <c r="CQ70" s="12"/>
+      <c r="CR70" s="12"/>
+      <c r="CS70" s="12"/>
       <c r="CT70" s="17"/>
       <c r="CU70" s="17"/>
       <c r="CV70" s="17"/>
@@ -34173,14 +34165,14 @@
       <c r="CI71" s="11"/>
       <c r="CJ71" s="11"/>
       <c r="CK71" s="11"/>
-      <c r="CL71" s="24"/>
-      <c r="CM71" s="24"/>
-      <c r="CN71" s="24"/>
-      <c r="CO71" s="24"/>
-      <c r="CP71" s="24"/>
-      <c r="CQ71" s="24"/>
-      <c r="CR71" s="24"/>
-      <c r="CS71" s="17"/>
+      <c r="CL71" s="11"/>
+      <c r="CM71" s="11"/>
+      <c r="CN71" s="11"/>
+      <c r="CO71" s="11"/>
+      <c r="CP71" s="11"/>
+      <c r="CQ71" s="11"/>
+      <c r="CR71" s="11"/>
+      <c r="CS71" s="11"/>
       <c r="CT71" s="17"/>
       <c r="CU71" s="17"/>
       <c r="CV71" s="17"/>
@@ -34504,20 +34496,22 @@
       <c r="CK72" s="12">
         <v>10.026205833215911</v>
       </c>
-      <c r="CL72" s="29">
+      <c r="CL72" s="12">
         <v>6.613127846599582</v>
       </c>
-      <c r="CM72" s="29">
+      <c r="CM72" s="12">
         <v>6.8749559393035327</v>
       </c>
-      <c r="CN72" s="29">
-        <v>6.129468582567867</v>
-      </c>
-      <c r="CO72" s="29"/>
-      <c r="CP72" s="29"/>
-      <c r="CQ72" s="29"/>
-      <c r="CR72" s="29"/>
-      <c r="CS72" s="17"/>
+      <c r="CN72" s="12">
+        <v>6.4369893281008643</v>
+      </c>
+      <c r="CO72" s="12">
+        <v>7.9137834702201104</v>
+      </c>
+      <c r="CP72" s="12"/>
+      <c r="CQ72" s="12"/>
+      <c r="CR72" s="12"/>
+      <c r="CS72" s="12"/>
       <c r="CT72" s="17"/>
       <c r="CU72" s="17"/>
       <c r="CV72" s="17"/>
@@ -34663,13 +34657,14 @@
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
       <c r="CK73" s="9"/>
-      <c r="CL73" s="26"/>
-      <c r="CM73" s="26"/>
-      <c r="CN73" s="26"/>
-      <c r="CO73" s="26"/>
-      <c r="CP73" s="26"/>
-      <c r="CQ73" s="26"/>
-      <c r="CR73" s="26"/>
+      <c r="CL73" s="9"/>
+      <c r="CM73" s="9"/>
+      <c r="CN73" s="9"/>
+      <c r="CO73" s="9"/>
+      <c r="CP73" s="9"/>
+      <c r="CQ73" s="9"/>
+      <c r="CR73" s="9"/>
+      <c r="CS73" s="9"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -34763,13 +34758,14 @@
       <c r="CI74" s="3"/>
       <c r="CJ74" s="3"/>
       <c r="CK74" s="3"/>
-      <c r="CL74" s="21"/>
-      <c r="CM74" s="21"/>
-      <c r="CN74" s="21"/>
-      <c r="CO74" s="21"/>
-      <c r="CP74" s="21"/>
-      <c r="CQ74" s="21"/>
-      <c r="CR74" s="21"/>
+      <c r="CL74" s="3"/>
+      <c r="CM74" s="3"/>
+      <c r="CN74" s="3"/>
+      <c r="CO74" s="3"/>
+      <c r="CP74" s="3"/>
+      <c r="CQ74" s="3"/>
+      <c r="CR74" s="3"/>
+      <c r="CS74" s="3"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -34860,13 +34856,13 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="17"/>
       <c r="CK75" s="17"/>
-      <c r="CL75" s="24"/>
-      <c r="CM75" s="24"/>
-      <c r="CN75" s="30"/>
-      <c r="CO75" s="30"/>
-      <c r="CP75" s="24"/>
-      <c r="CQ75" s="24"/>
-      <c r="CR75" s="30"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
+      <c r="CN75" s="17"/>
+      <c r="CO75" s="17"/>
+      <c r="CP75" s="11"/>
+      <c r="CQ75" s="11"/>
+      <c r="CR75" s="17"/>
       <c r="CS75" s="17"/>
       <c r="CT75" s="17"/>
       <c r="CU75" s="17"/>
@@ -35012,13 +35008,13 @@
       <c r="CI76" s="17"/>
       <c r="CJ76" s="17"/>
       <c r="CK76" s="17"/>
-      <c r="CL76" s="30"/>
-      <c r="CM76" s="30"/>
-      <c r="CN76" s="30"/>
-      <c r="CO76" s="30"/>
-      <c r="CP76" s="30"/>
-      <c r="CQ76" s="30"/>
-      <c r="CR76" s="30"/>
+      <c r="CL76" s="17"/>
+      <c r="CM76" s="17"/>
+      <c r="CN76" s="17"/>
+      <c r="CO76" s="17"/>
+      <c r="CP76" s="17"/>
+      <c r="CQ76" s="17"/>
+      <c r="CR76" s="17"/>
       <c r="CS76" s="17"/>
       <c r="CT76" s="17"/>
       <c r="CU76" s="17"/>
@@ -35159,17 +35155,10 @@
       <c r="CA77" s="3"/>
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
-      <c r="CL77" s="20"/>
-      <c r="CM77" s="20"/>
-      <c r="CN77" s="20"/>
-      <c r="CO77" s="20"/>
-      <c r="CP77" s="20"/>
-      <c r="CQ77" s="20"/>
-      <c r="CR77" s="20"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -35251,13 +35240,6 @@
       <c r="CA78" s="3"/>
       <c r="CB78" s="3"/>
       <c r="CC78" s="3"/>
-      <c r="CL78" s="20"/>
-      <c r="CM78" s="20"/>
-      <c r="CN78" s="20"/>
-      <c r="CO78" s="20"/>
-      <c r="CP78" s="20"/>
-      <c r="CQ78" s="20"/>
-      <c r="CR78" s="20"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35341,13 +35323,6 @@
       <c r="CA79" s="3"/>
       <c r="CB79" s="3"/>
       <c r="CC79" s="3"/>
-      <c r="CL79" s="20"/>
-      <c r="CM79" s="20"/>
-      <c r="CN79" s="20"/>
-      <c r="CO79" s="20"/>
-      <c r="CP79" s="20"/>
-      <c r="CQ79" s="20"/>
-      <c r="CR79" s="20"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35433,17 +35408,10 @@
       <c r="CA80" s="3"/>
       <c r="CB80" s="3"/>
       <c r="CC80" s="3"/>
-      <c r="CL80" s="20"/>
-      <c r="CM80" s="20"/>
-      <c r="CN80" s="20"/>
-      <c r="CO80" s="20"/>
-      <c r="CP80" s="20"/>
-      <c r="CQ80" s="20"/>
-      <c r="CR80" s="20"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35525,13 +35493,6 @@
       <c r="CA81" s="3"/>
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
-      <c r="CL81" s="20"/>
-      <c r="CM81" s="20"/>
-      <c r="CN81" s="20"/>
-      <c r="CO81" s="20"/>
-      <c r="CP81" s="20"/>
-      <c r="CQ81" s="20"/>
-      <c r="CR81" s="20"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -35617,13 +35578,6 @@
       <c r="CA82" s="3"/>
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
-      <c r="CL82" s="20"/>
-      <c r="CM82" s="20"/>
-      <c r="CN82" s="20"/>
-      <c r="CO82" s="20"/>
-      <c r="CP82" s="20"/>
-      <c r="CQ82" s="20"/>
-      <c r="CR82" s="20"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -35707,159 +35661,153 @@
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
-      <c r="CL83" s="20"/>
-      <c r="CM83" s="20"/>
-      <c r="CN83" s="20"/>
-      <c r="CO83" s="20"/>
-      <c r="CP83" s="20"/>
-      <c r="CQ83" s="20"/>
-      <c r="CR83" s="20"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="32">
+      <c r="B84" s="22">
         <v>2000</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="32">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="22">
         <v>2001</v>
       </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="32">
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="22">
         <v>2002</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="32">
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="22">
         <v>2003</v>
       </c>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="32">
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="22">
         <v>2004</v>
       </c>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="32">
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="22">
         <v>2005</v>
       </c>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="32">
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="22">
         <v>2006</v>
       </c>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="32">
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="22">
         <v>2007</v>
       </c>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
-      <c r="AG84" s="33"/>
-      <c r="AH84" s="32">
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="22">
         <v>2008</v>
       </c>
-      <c r="AI84" s="33"/>
-      <c r="AJ84" s="33"/>
-      <c r="AK84" s="33"/>
-      <c r="AL84" s="32">
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="22">
         <v>2009</v>
       </c>
-      <c r="AM84" s="33"/>
-      <c r="AN84" s="33"/>
-      <c r="AO84" s="33"/>
-      <c r="AP84" s="32">
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="33"/>
-      <c r="AR84" s="33"/>
-      <c r="AS84" s="33"/>
-      <c r="AT84" s="32">
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="22">
         <v>2011</v>
       </c>
-      <c r="AU84" s="33"/>
-      <c r="AV84" s="33"/>
-      <c r="AW84" s="33"/>
-      <c r="AX84" s="32">
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="22">
         <v>2012</v>
       </c>
-      <c r="AY84" s="33"/>
-      <c r="AZ84" s="33"/>
-      <c r="BA84" s="33"/>
-      <c r="BB84" s="32">
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="22">
         <v>2013</v>
       </c>
-      <c r="BC84" s="33"/>
-      <c r="BD84" s="33"/>
-      <c r="BE84" s="33"/>
-      <c r="BF84" s="32">
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="22">
         <v>2014</v>
       </c>
-      <c r="BG84" s="33"/>
-      <c r="BH84" s="33"/>
-      <c r="BI84" s="33"/>
-      <c r="BJ84" s="32">
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="22">
         <v>2015</v>
       </c>
-      <c r="BK84" s="33"/>
-      <c r="BL84" s="33"/>
-      <c r="BM84" s="33"/>
-      <c r="BN84" s="32">
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="23"/>
+      <c r="BM84" s="23"/>
+      <c r="BN84" s="22">
         <v>2016</v>
       </c>
-      <c r="BO84" s="33"/>
-      <c r="BP84" s="33"/>
-      <c r="BQ84" s="33"/>
-      <c r="BR84" s="32">
+      <c r="BO84" s="23"/>
+      <c r="BP84" s="23"/>
+      <c r="BQ84" s="23"/>
+      <c r="BR84" s="22">
         <v>2017</v>
       </c>
-      <c r="BS84" s="33"/>
-      <c r="BT84" s="33"/>
-      <c r="BU84" s="33"/>
-      <c r="BV84" s="32">
+      <c r="BS84" s="23"/>
+      <c r="BT84" s="23"/>
+      <c r="BU84" s="23"/>
+      <c r="BV84" s="22">
         <v>2018</v>
       </c>
-      <c r="BW84" s="33"/>
-      <c r="BX84" s="33"/>
-      <c r="BY84" s="33"/>
-      <c r="BZ84" s="32">
+      <c r="BW84" s="23"/>
+      <c r="BX84" s="23"/>
+      <c r="BY84" s="23"/>
+      <c r="BZ84" s="22">
         <v>2019</v>
       </c>
-      <c r="CA84" s="33"/>
-      <c r="CB84" s="33"/>
-      <c r="CC84" s="33"/>
-      <c r="CD84" s="32">
+      <c r="CA84" s="23"/>
+      <c r="CB84" s="23"/>
+      <c r="CC84" s="23"/>
+      <c r="CD84" s="22">
         <v>2020</v>
       </c>
-      <c r="CE84" s="32"/>
-      <c r="CF84" s="32"/>
-      <c r="CG84" s="32"/>
-      <c r="CH84" s="32">
+      <c r="CE84" s="22"/>
+      <c r="CF84" s="22"/>
+      <c r="CG84" s="22"/>
+      <c r="CH84" s="22">
         <v>2021</v>
       </c>
-      <c r="CI84" s="32"/>
-      <c r="CJ84" s="32"/>
-      <c r="CK84" s="32"/>
-      <c r="CL84" s="34">
+      <c r="CI84" s="22"/>
+      <c r="CJ84" s="22"/>
+      <c r="CK84" s="22"/>
+      <c r="CL84" s="21">
         <v>2022</v>
       </c>
-      <c r="CM84" s="34"/>
-      <c r="CN84" s="34"/>
-      <c r="CO84" s="34"/>
-      <c r="CP84" s="34">
+      <c r="CM84" s="21"/>
+      <c r="CN84" s="21"/>
+      <c r="CO84" s="21"/>
+      <c r="CP84" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="34"/>
-      <c r="CR84" s="34"/>
+      <c r="CQ84" s="21"/>
+      <c r="CR84" s="21"/>
+      <c r="CS84" s="21"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -36129,26 +36077,29 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="22" t="s">
+      <c r="CL85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="22" t="s">
+      <c r="CM85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="22" t="s">
+      <c r="CN85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="22" t="s">
+      <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="22" t="s">
+      <c r="CP85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="22" t="s">
+      <c r="CQ85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="22" t="s">
+      <c r="CR85" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS85" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36233,13 +36184,6 @@
       <c r="CA86" s="3"/>
       <c r="CB86" s="3"/>
       <c r="CC86" s="3"/>
-      <c r="CL86" s="20"/>
-      <c r="CM86" s="20"/>
-      <c r="CN86" s="20"/>
-      <c r="CO86" s="20"/>
-      <c r="CP86" s="20"/>
-      <c r="CQ86" s="20"/>
-      <c r="CR86" s="20"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36509,28 +36453,30 @@
       <c r="CK87" s="12">
         <v>124.54738077603018</v>
       </c>
-      <c r="CL87" s="29">
+      <c r="CL87" s="12">
         <v>106.31873751394872</v>
       </c>
-      <c r="CM87" s="29">
+      <c r="CM87" s="12">
         <v>106.78871627269469</v>
       </c>
-      <c r="CN87" s="29">
+      <c r="CN87" s="12">
         <v>112.02202008486056</v>
       </c>
-      <c r="CO87" s="29">
+      <c r="CO87" s="12">
         <v>128.683257464295</v>
       </c>
-      <c r="CP87" s="29">
+      <c r="CP87" s="12">
         <v>110.28127685308264</v>
       </c>
-      <c r="CQ87" s="29">
+      <c r="CQ87" s="12">
         <v>111.27507940065517</v>
       </c>
-      <c r="CR87" s="29">
+      <c r="CR87" s="12">
         <v>115.77581232093399</v>
       </c>
-      <c r="CS87" s="17"/>
+      <c r="CS87" s="12">
+        <v>133.40293513297453</v>
+      </c>
       <c r="CT87" s="17"/>
       <c r="CU87" s="17"/>
       <c r="CV87" s="17"/>
@@ -36854,28 +36800,30 @@
       <c r="CK88" s="12">
         <v>111.7369322217173</v>
       </c>
-      <c r="CL88" s="29">
+      <c r="CL88" s="12">
         <v>97.715788312788192</v>
       </c>
-      <c r="CM88" s="29">
+      <c r="CM88" s="12">
         <v>99.840252290607452</v>
       </c>
-      <c r="CN88" s="29">
+      <c r="CN88" s="12">
         <v>110.56546230442498</v>
       </c>
-      <c r="CO88" s="29">
+      <c r="CO88" s="12">
         <v>114.8015461246719</v>
       </c>
-      <c r="CP88" s="29">
+      <c r="CP88" s="12">
         <v>100.94189427466942</v>
       </c>
-      <c r="CQ88" s="29">
+      <c r="CQ88" s="12">
         <v>103.31716297128108</v>
       </c>
-      <c r="CR88" s="29">
-        <v>114.33168243158308</v>
-      </c>
-      <c r="CS88" s="17"/>
+      <c r="CR88" s="12">
+        <v>114.33168243158305</v>
+      </c>
+      <c r="CS88" s="12">
+        <v>119.51900065367931</v>
+      </c>
       <c r="CT88" s="17"/>
       <c r="CU88" s="17"/>
       <c r="CV88" s="17"/>
@@ -37020,14 +36968,14 @@
       <c r="CI89" s="11"/>
       <c r="CJ89" s="11"/>
       <c r="CK89" s="11"/>
-      <c r="CL89" s="24"/>
-      <c r="CM89" s="24"/>
-      <c r="CN89" s="24"/>
-      <c r="CO89" s="24"/>
-      <c r="CP89" s="24"/>
-      <c r="CQ89" s="24"/>
-      <c r="CR89" s="24"/>
-      <c r="CS89" s="17"/>
+      <c r="CL89" s="11"/>
+      <c r="CM89" s="11"/>
+      <c r="CN89" s="11"/>
+      <c r="CO89" s="11"/>
+      <c r="CP89" s="11"/>
+      <c r="CQ89" s="11"/>
+      <c r="CR89" s="11"/>
+      <c r="CS89" s="11"/>
       <c r="CT89" s="17"/>
       <c r="CU89" s="17"/>
       <c r="CV89" s="17"/>
@@ -37351,28 +37299,30 @@
       <c r="CK90" s="12">
         <v>120.24558714485497</v>
       </c>
-      <c r="CL90" s="29">
+      <c r="CL90" s="12">
         <v>103.66521258078684</v>
       </c>
-      <c r="CM90" s="29">
+      <c r="CM90" s="12">
         <v>104.84786249219349</v>
       </c>
-      <c r="CN90" s="29">
+      <c r="CN90" s="12">
         <v>111.54685741332615</v>
       </c>
-      <c r="CO90" s="29">
+      <c r="CO90" s="12">
         <v>124.19402573527888</v>
       </c>
-      <c r="CP90" s="29">
+      <c r="CP90" s="12">
         <v>107.30236428644572</v>
       </c>
-      <c r="CQ90" s="29">
+      <c r="CQ90" s="12">
         <v>108.96379429792722</v>
       </c>
-      <c r="CR90" s="29">
-        <v>115.29417830915396</v>
-      </c>
-      <c r="CS90" s="17"/>
+      <c r="CR90" s="12">
+        <v>115.29139743897237</v>
+      </c>
+      <c r="CS90" s="12">
+        <v>128.85280592567878</v>
+      </c>
       <c r="CT90" s="17"/>
       <c r="CU90" s="17"/>
       <c r="CV90" s="17"/>
@@ -37518,13 +37468,14 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
-      <c r="CL91" s="26"/>
-      <c r="CM91" s="26"/>
-      <c r="CN91" s="26"/>
-      <c r="CO91" s="26"/>
-      <c r="CP91" s="26"/>
-      <c r="CQ91" s="26"/>
-      <c r="CR91" s="26"/>
+      <c r="CL91" s="9"/>
+      <c r="CM91" s="9"/>
+      <c r="CN91" s="9"/>
+      <c r="CO91" s="9"/>
+      <c r="CP91" s="9"/>
+      <c r="CQ91" s="9"/>
+      <c r="CR91" s="9"/>
+      <c r="CS91" s="9"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37610,13 +37561,6 @@
       <c r="CA92" s="3"/>
       <c r="CB92" s="3"/>
       <c r="CC92" s="3"/>
-      <c r="CL92" s="20"/>
-      <c r="CM92" s="20"/>
-      <c r="CN92" s="20"/>
-      <c r="CO92" s="20"/>
-      <c r="CP92" s="20"/>
-      <c r="CQ92" s="20"/>
-      <c r="CR92" s="20"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -37707,13 +37651,14 @@
       <c r="CI93" s="3"/>
       <c r="CJ93" s="3"/>
       <c r="CK93" s="3"/>
-      <c r="CL93" s="21"/>
-      <c r="CM93" s="21"/>
-      <c r="CN93" s="21"/>
-      <c r="CO93" s="21"/>
-      <c r="CP93" s="21"/>
-      <c r="CQ93" s="21"/>
-      <c r="CR93" s="21"/>
+      <c r="CL93" s="3"/>
+      <c r="CM93" s="3"/>
+      <c r="CN93" s="3"/>
+      <c r="CO93" s="3"/>
+      <c r="CP93" s="3"/>
+      <c r="CQ93" s="3"/>
+      <c r="CR93" s="3"/>
+      <c r="CS93" s="3"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -37804,13 +37749,14 @@
       <c r="CI94" s="3"/>
       <c r="CJ94" s="3"/>
       <c r="CK94" s="3"/>
-      <c r="CL94" s="21"/>
-      <c r="CM94" s="21"/>
-      <c r="CN94" s="21"/>
-      <c r="CO94" s="21"/>
-      <c r="CP94" s="21"/>
-      <c r="CQ94" s="21"/>
-      <c r="CR94" s="21"/>
+      <c r="CL94" s="3"/>
+      <c r="CM94" s="3"/>
+      <c r="CN94" s="3"/>
+      <c r="CO94" s="3"/>
+      <c r="CP94" s="3"/>
+      <c r="CQ94" s="3"/>
+      <c r="CR94" s="3"/>
+      <c r="CS94" s="3"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -37904,13 +37850,14 @@
       <c r="CI95" s="3"/>
       <c r="CJ95" s="3"/>
       <c r="CK95" s="3"/>
-      <c r="CL95" s="21"/>
-      <c r="CM95" s="21"/>
-      <c r="CN95" s="21"/>
-      <c r="CO95" s="21"/>
-      <c r="CP95" s="21"/>
-      <c r="CQ95" s="21"/>
-      <c r="CR95" s="21"/>
+      <c r="CL95" s="3"/>
+      <c r="CM95" s="3"/>
+      <c r="CN95" s="3"/>
+      <c r="CO95" s="3"/>
+      <c r="CP95" s="3"/>
+      <c r="CQ95" s="3"/>
+      <c r="CR95" s="3"/>
+      <c r="CS95" s="3"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -38004,17 +37951,18 @@
       <c r="CI96" s="3"/>
       <c r="CJ96" s="3"/>
       <c r="CK96" s="3"/>
-      <c r="CL96" s="21"/>
-      <c r="CM96" s="21"/>
-      <c r="CN96" s="21"/>
-      <c r="CO96" s="21"/>
-      <c r="CP96" s="21"/>
-      <c r="CQ96" s="21"/>
-      <c r="CR96" s="21"/>
+      <c r="CL96" s="3"/>
+      <c r="CM96" s="3"/>
+      <c r="CN96" s="3"/>
+      <c r="CO96" s="3"/>
+      <c r="CP96" s="3"/>
+      <c r="CQ96" s="3"/>
+      <c r="CR96" s="3"/>
+      <c r="CS96" s="3"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -38104,13 +38052,14 @@
       <c r="CI97" s="3"/>
       <c r="CJ97" s="3"/>
       <c r="CK97" s="3"/>
-      <c r="CL97" s="21"/>
-      <c r="CM97" s="21"/>
-      <c r="CN97" s="21"/>
-      <c r="CO97" s="21"/>
-      <c r="CP97" s="21"/>
-      <c r="CQ97" s="21"/>
-      <c r="CR97" s="21"/>
+      <c r="CL97" s="3"/>
+      <c r="CM97" s="3"/>
+      <c r="CN97" s="3"/>
+      <c r="CO97" s="3"/>
+      <c r="CP97" s="3"/>
+      <c r="CQ97" s="3"/>
+      <c r="CR97" s="3"/>
+      <c r="CS97" s="3"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -38202,13 +38151,14 @@
       <c r="CI98" s="3"/>
       <c r="CJ98" s="3"/>
       <c r="CK98" s="3"/>
-      <c r="CL98" s="21"/>
-      <c r="CM98" s="21"/>
-      <c r="CN98" s="21"/>
-      <c r="CO98" s="21"/>
-      <c r="CP98" s="21"/>
-      <c r="CQ98" s="21"/>
-      <c r="CR98" s="21"/>
+      <c r="CL98" s="3"/>
+      <c r="CM98" s="3"/>
+      <c r="CN98" s="3"/>
+      <c r="CO98" s="3"/>
+      <c r="CP98" s="3"/>
+      <c r="CQ98" s="3"/>
+      <c r="CR98" s="3"/>
+      <c r="CS98" s="3"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -38302,17 +38252,18 @@
       <c r="CI99" s="3"/>
       <c r="CJ99" s="3"/>
       <c r="CK99" s="3"/>
-      <c r="CL99" s="21"/>
-      <c r="CM99" s="21"/>
-      <c r="CN99" s="21"/>
-      <c r="CO99" s="21"/>
-      <c r="CP99" s="21"/>
-      <c r="CQ99" s="21"/>
-      <c r="CR99" s="21"/>
+      <c r="CL99" s="3"/>
+      <c r="CM99" s="3"/>
+      <c r="CN99" s="3"/>
+      <c r="CO99" s="3"/>
+      <c r="CP99" s="3"/>
+      <c r="CQ99" s="3"/>
+      <c r="CR99" s="3"/>
+      <c r="CS99" s="3"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -38402,13 +38353,14 @@
       <c r="CI100" s="3"/>
       <c r="CJ100" s="3"/>
       <c r="CK100" s="3"/>
-      <c r="CL100" s="21"/>
-      <c r="CM100" s="21"/>
-      <c r="CN100" s="21"/>
-      <c r="CO100" s="21"/>
-      <c r="CP100" s="21"/>
-      <c r="CQ100" s="21"/>
-      <c r="CR100" s="21"/>
+      <c r="CL100" s="3"/>
+      <c r="CM100" s="3"/>
+      <c r="CN100" s="3"/>
+      <c r="CO100" s="3"/>
+      <c r="CP100" s="3"/>
+      <c r="CQ100" s="3"/>
+      <c r="CR100" s="3"/>
+      <c r="CS100" s="3"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38502,13 +38454,14 @@
       <c r="CI101" s="3"/>
       <c r="CJ101" s="3"/>
       <c r="CK101" s="3"/>
-      <c r="CL101" s="21"/>
-      <c r="CM101" s="21"/>
-      <c r="CN101" s="21"/>
-      <c r="CO101" s="21"/>
-      <c r="CP101" s="21"/>
-      <c r="CQ101" s="21"/>
-      <c r="CR101" s="21"/>
+      <c r="CL101" s="3"/>
+      <c r="CM101" s="3"/>
+      <c r="CN101" s="3"/>
+      <c r="CO101" s="3"/>
+      <c r="CP101" s="3"/>
+      <c r="CQ101" s="3"/>
+      <c r="CR101" s="3"/>
+      <c r="CS101" s="3"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -38600,159 +38553,161 @@
       <c r="CI102" s="3"/>
       <c r="CJ102" s="3"/>
       <c r="CK102" s="3"/>
-      <c r="CL102" s="21"/>
-      <c r="CM102" s="21"/>
-      <c r="CN102" s="21"/>
-      <c r="CO102" s="21"/>
-      <c r="CP102" s="21"/>
-      <c r="CQ102" s="21"/>
-      <c r="CR102" s="21"/>
+      <c r="CL102" s="3"/>
+      <c r="CM102" s="3"/>
+      <c r="CN102" s="3"/>
+      <c r="CO102" s="3"/>
+      <c r="CP102" s="3"/>
+      <c r="CQ102" s="3"/>
+      <c r="CR102" s="3"/>
+      <c r="CS102" s="3"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="32">
+      <c r="B103" s="22">
         <v>2000</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="32">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="22">
         <v>2001</v>
       </c>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="32">
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="22">
         <v>2002</v>
       </c>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="32">
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="22">
         <v>2003</v>
       </c>
-      <c r="O103" s="33"/>
-      <c r="P103" s="33"/>
-      <c r="Q103" s="33"/>
-      <c r="R103" s="32">
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="22">
         <v>2004</v>
       </c>
-      <c r="S103" s="33"/>
-      <c r="T103" s="33"/>
-      <c r="U103" s="33"/>
-      <c r="V103" s="32">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="22">
         <v>2005</v>
       </c>
-      <c r="W103" s="33"/>
-      <c r="X103" s="33"/>
-      <c r="Y103" s="33"/>
-      <c r="Z103" s="32">
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="22">
         <v>2006</v>
       </c>
-      <c r="AA103" s="33"/>
-      <c r="AB103" s="33"/>
-      <c r="AC103" s="33"/>
-      <c r="AD103" s="32">
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="22">
         <v>2007</v>
       </c>
-      <c r="AE103" s="33"/>
-      <c r="AF103" s="33"/>
-      <c r="AG103" s="33"/>
-      <c r="AH103" s="32">
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="22">
         <v>2008</v>
       </c>
-      <c r="AI103" s="33"/>
-      <c r="AJ103" s="33"/>
-      <c r="AK103" s="33"/>
-      <c r="AL103" s="32">
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="22">
         <v>2009</v>
       </c>
-      <c r="AM103" s="33"/>
-      <c r="AN103" s="33"/>
-      <c r="AO103" s="33"/>
-      <c r="AP103" s="32">
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="33"/>
-      <c r="AR103" s="33"/>
-      <c r="AS103" s="33"/>
-      <c r="AT103" s="32">
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="22">
         <v>2011</v>
       </c>
-      <c r="AU103" s="33"/>
-      <c r="AV103" s="33"/>
-      <c r="AW103" s="33"/>
-      <c r="AX103" s="32">
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="22">
         <v>2012</v>
       </c>
-      <c r="AY103" s="33"/>
-      <c r="AZ103" s="33"/>
-      <c r="BA103" s="33"/>
-      <c r="BB103" s="32">
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="22">
         <v>2013</v>
       </c>
-      <c r="BC103" s="33"/>
-      <c r="BD103" s="33"/>
-      <c r="BE103" s="33"/>
-      <c r="BF103" s="32">
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="22">
         <v>2014</v>
       </c>
-      <c r="BG103" s="33"/>
-      <c r="BH103" s="33"/>
-      <c r="BI103" s="33"/>
-      <c r="BJ103" s="32">
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="22">
         <v>2015</v>
       </c>
-      <c r="BK103" s="33"/>
-      <c r="BL103" s="33"/>
-      <c r="BM103" s="33"/>
-      <c r="BN103" s="32">
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="23"/>
+      <c r="BM103" s="23"/>
+      <c r="BN103" s="22">
         <v>2016</v>
       </c>
-      <c r="BO103" s="33"/>
-      <c r="BP103" s="33"/>
-      <c r="BQ103" s="33"/>
-      <c r="BR103" s="32">
+      <c r="BO103" s="23"/>
+      <c r="BP103" s="23"/>
+      <c r="BQ103" s="23"/>
+      <c r="BR103" s="22">
         <v>2017</v>
       </c>
-      <c r="BS103" s="33"/>
-      <c r="BT103" s="33"/>
-      <c r="BU103" s="33"/>
-      <c r="BV103" s="32">
+      <c r="BS103" s="23"/>
+      <c r="BT103" s="23"/>
+      <c r="BU103" s="23"/>
+      <c r="BV103" s="22">
         <v>2018</v>
       </c>
-      <c r="BW103" s="33"/>
-      <c r="BX103" s="33"/>
-      <c r="BY103" s="33"/>
-      <c r="BZ103" s="32">
+      <c r="BW103" s="23"/>
+      <c r="BX103" s="23"/>
+      <c r="BY103" s="23"/>
+      <c r="BZ103" s="22">
         <v>2019</v>
       </c>
-      <c r="CA103" s="33"/>
-      <c r="CB103" s="33"/>
-      <c r="CC103" s="33"/>
-      <c r="CD103" s="32">
+      <c r="CA103" s="23"/>
+      <c r="CB103" s="23"/>
+      <c r="CC103" s="23"/>
+      <c r="CD103" s="22">
         <v>2020</v>
       </c>
-      <c r="CE103" s="32"/>
-      <c r="CF103" s="32"/>
-      <c r="CG103" s="32"/>
-      <c r="CH103" s="32">
+      <c r="CE103" s="22"/>
+      <c r="CF103" s="22"/>
+      <c r="CG103" s="22"/>
+      <c r="CH103" s="22">
         <v>2021</v>
       </c>
-      <c r="CI103" s="32"/>
-      <c r="CJ103" s="32"/>
-      <c r="CK103" s="32"/>
-      <c r="CL103" s="34">
+      <c r="CI103" s="22"/>
+      <c r="CJ103" s="22"/>
+      <c r="CK103" s="22"/>
+      <c r="CL103" s="21">
         <v>2022</v>
       </c>
-      <c r="CM103" s="34"/>
-      <c r="CN103" s="34"/>
-      <c r="CO103" s="34"/>
-      <c r="CP103" s="34">
+      <c r="CM103" s="21"/>
+      <c r="CN103" s="21"/>
+      <c r="CO103" s="21"/>
+      <c r="CP103" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="34"/>
-      <c r="CR103" s="34"/>
+      <c r="CQ103" s="21"/>
+      <c r="CR103" s="21"/>
+      <c r="CS103" s="21"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -39022,26 +38977,29 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="22" t="s">
+      <c r="CL104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="22" t="s">
+      <c r="CM104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="22" t="s">
+      <c r="CN104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="22" t="s">
+      <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="22" t="s">
+      <c r="CP104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="22" t="s">
+      <c r="CQ104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="22" t="s">
+      <c r="CR104" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS104" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39134,13 +39092,14 @@
       <c r="CI105" s="3"/>
       <c r="CJ105" s="3"/>
       <c r="CK105" s="3"/>
-      <c r="CL105" s="21"/>
-      <c r="CM105" s="21"/>
-      <c r="CN105" s="21"/>
-      <c r="CO105" s="21"/>
-      <c r="CP105" s="21"/>
-      <c r="CQ105" s="21"/>
-      <c r="CR105" s="21"/>
+      <c r="CL105" s="3"/>
+      <c r="CM105" s="3"/>
+      <c r="CN105" s="3"/>
+      <c r="CO105" s="3"/>
+      <c r="CP105" s="3"/>
+      <c r="CQ105" s="3"/>
+      <c r="CR105" s="3"/>
+      <c r="CS105" s="3"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39410,28 +39369,30 @@
       <c r="CK106" s="12">
         <v>68.795815885122764</v>
       </c>
-      <c r="CL106" s="29">
+      <c r="CL106" s="12">
         <v>70.925817537570708</v>
       </c>
-      <c r="CM106" s="29">
+      <c r="CM106" s="12">
         <v>73.401931757679677</v>
       </c>
-      <c r="CN106" s="29">
+      <c r="CN106" s="12">
         <v>67.664711161792852</v>
       </c>
-      <c r="CO106" s="29">
+      <c r="CO106" s="12">
         <v>70.10654953090652</v>
       </c>
-      <c r="CP106" s="29">
+      <c r="CP106" s="12">
         <v>69.994439101950462</v>
       </c>
-      <c r="CQ106" s="29">
+      <c r="CQ106" s="12">
         <v>72.461238773259836</v>
       </c>
-      <c r="CR106" s="29">
-        <v>66.927265289566634</v>
-      </c>
-      <c r="CS106" s="17"/>
+      <c r="CR106" s="12">
+        <v>66.73550679655942</v>
+      </c>
+      <c r="CS106" s="12">
+        <v>69.601353530465786</v>
+      </c>
       <c r="CT106" s="17"/>
       <c r="CU106" s="17"/>
       <c r="CV106" s="17"/>
@@ -39759,28 +39720,30 @@
       <c r="CK107" s="12">
         <v>31.204184114877236</v>
       </c>
-      <c r="CL107" s="29">
+      <c r="CL107" s="12">
         <v>29.074182462429281</v>
       </c>
-      <c r="CM107" s="29">
+      <c r="CM107" s="12">
         <v>26.598068242320327</v>
       </c>
-      <c r="CN107" s="29">
+      <c r="CN107" s="12">
         <v>32.335288838207155</v>
       </c>
-      <c r="CO107" s="29">
+      <c r="CO107" s="12">
         <v>29.893450469093487</v>
       </c>
-      <c r="CP107" s="29">
+      <c r="CP107" s="12">
         <v>30.005560898049538</v>
       </c>
-      <c r="CQ107" s="29">
+      <c r="CQ107" s="12">
         <v>27.538761226740142</v>
       </c>
-      <c r="CR107" s="29">
-        <v>33.07273471043338</v>
-      </c>
-      <c r="CS107" s="17"/>
+      <c r="CR107" s="12">
+        <v>33.26449320344058</v>
+      </c>
+      <c r="CS107" s="12">
+        <v>30.398646469534217</v>
+      </c>
       <c r="CT107" s="17"/>
       <c r="CU107" s="17"/>
       <c r="CV107" s="17"/>
@@ -39929,14 +39892,14 @@
       <c r="CI108" s="11"/>
       <c r="CJ108" s="11"/>
       <c r="CK108" s="11"/>
-      <c r="CL108" s="24"/>
-      <c r="CM108" s="24"/>
-      <c r="CN108" s="24"/>
-      <c r="CO108" s="24"/>
-      <c r="CP108" s="24"/>
-      <c r="CQ108" s="24"/>
-      <c r="CR108" s="24"/>
-      <c r="CS108" s="17"/>
+      <c r="CL108" s="11"/>
+      <c r="CM108" s="11"/>
+      <c r="CN108" s="11"/>
+      <c r="CO108" s="11"/>
+      <c r="CP108" s="11"/>
+      <c r="CQ108" s="11"/>
+      <c r="CR108" s="11"/>
+      <c r="CS108" s="11"/>
       <c r="CT108" s="17"/>
       <c r="CU108" s="17"/>
       <c r="CV108" s="17"/>
@@ -40264,28 +40227,30 @@
       <c r="CK109" s="12">
         <v>100</v>
       </c>
-      <c r="CL109" s="29">
+      <c r="CL109" s="12">
         <v>100</v>
       </c>
-      <c r="CM109" s="29">
+      <c r="CM109" s="12">
         <v>100</v>
       </c>
-      <c r="CN109" s="29">
+      <c r="CN109" s="12">
         <v>100</v>
       </c>
-      <c r="CO109" s="29">
+      <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="29">
+      <c r="CP109" s="12">
         <v>100</v>
       </c>
-      <c r="CQ109" s="29">
+      <c r="CQ109" s="12">
         <v>100</v>
       </c>
-      <c r="CR109" s="29">
+      <c r="CR109" s="12">
         <v>100</v>
       </c>
-      <c r="CS109" s="17"/>
+      <c r="CS109" s="12">
+        <v>100</v>
+      </c>
       <c r="CT109" s="17"/>
       <c r="CU109" s="17"/>
       <c r="CV109" s="17"/>
@@ -40435,13 +40400,14 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="26"/>
-      <c r="CM110" s="26"/>
-      <c r="CN110" s="26"/>
-      <c r="CO110" s="26"/>
-      <c r="CP110" s="26"/>
-      <c r="CQ110" s="26"/>
-      <c r="CR110" s="26"/>
+      <c r="CL110" s="9"/>
+      <c r="CM110" s="9"/>
+      <c r="CN110" s="9"/>
+      <c r="CO110" s="9"/>
+      <c r="CP110" s="9"/>
+      <c r="CQ110" s="9"/>
+      <c r="CR110" s="9"/>
+      <c r="CS110" s="9"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -40535,13 +40501,14 @@
       <c r="CI111" s="3"/>
       <c r="CJ111" s="3"/>
       <c r="CK111" s="3"/>
-      <c r="CL111" s="21"/>
-      <c r="CM111" s="21"/>
-      <c r="CN111" s="21"/>
-      <c r="CO111" s="21"/>
-      <c r="CP111" s="21"/>
-      <c r="CQ111" s="21"/>
-      <c r="CR111" s="21"/>
+      <c r="CL111" s="3"/>
+      <c r="CM111" s="3"/>
+      <c r="CN111" s="3"/>
+      <c r="CO111" s="3"/>
+      <c r="CP111" s="3"/>
+      <c r="CQ111" s="3"/>
+      <c r="CR111" s="3"/>
+      <c r="CS111" s="3"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -40632,14 +40599,14 @@
       <c r="CI112" s="11"/>
       <c r="CJ112" s="11"/>
       <c r="CK112" s="11"/>
-      <c r="CL112" s="24"/>
-      <c r="CM112" s="24"/>
-      <c r="CN112" s="24"/>
-      <c r="CO112" s="24"/>
-      <c r="CP112" s="24"/>
-      <c r="CQ112" s="24"/>
-      <c r="CR112" s="24"/>
-      <c r="CS112" s="17"/>
+      <c r="CL112" s="11"/>
+      <c r="CM112" s="11"/>
+      <c r="CN112" s="11"/>
+      <c r="CO112" s="11"/>
+      <c r="CP112" s="11"/>
+      <c r="CQ112" s="11"/>
+      <c r="CR112" s="11"/>
+      <c r="CS112" s="11"/>
       <c r="CT112" s="17"/>
       <c r="CU112" s="17"/>
       <c r="CV112" s="17"/>
@@ -40788,14 +40755,14 @@
       <c r="CI113" s="11"/>
       <c r="CJ113" s="11"/>
       <c r="CK113" s="11"/>
-      <c r="CL113" s="24"/>
-      <c r="CM113" s="24"/>
-      <c r="CN113" s="24"/>
-      <c r="CO113" s="24"/>
-      <c r="CP113" s="24"/>
-      <c r="CQ113" s="24"/>
-      <c r="CR113" s="24"/>
-      <c r="CS113" s="17"/>
+      <c r="CL113" s="11"/>
+      <c r="CM113" s="11"/>
+      <c r="CN113" s="11"/>
+      <c r="CO113" s="11"/>
+      <c r="CP113" s="11"/>
+      <c r="CQ113" s="11"/>
+      <c r="CR113" s="11"/>
+      <c r="CS113" s="11"/>
       <c r="CT113" s="17"/>
       <c r="CU113" s="17"/>
       <c r="CV113" s="17"/>
@@ -40947,13 +40914,14 @@
       <c r="CI114" s="3"/>
       <c r="CJ114" s="3"/>
       <c r="CK114" s="3"/>
-      <c r="CL114" s="21"/>
-      <c r="CM114" s="21"/>
-      <c r="CN114" s="21"/>
-      <c r="CO114" s="21"/>
-      <c r="CP114" s="21"/>
-      <c r="CQ114" s="21"/>
-      <c r="CR114" s="21"/>
+      <c r="CL114" s="3"/>
+      <c r="CM114" s="3"/>
+      <c r="CN114" s="3"/>
+      <c r="CO114" s="3"/>
+      <c r="CP114" s="3"/>
+      <c r="CQ114" s="3"/>
+      <c r="CR114" s="3"/>
+      <c r="CS114" s="3"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -41047,17 +41015,18 @@
       <c r="CI115" s="3"/>
       <c r="CJ115" s="3"/>
       <c r="CK115" s="3"/>
-      <c r="CL115" s="21"/>
-      <c r="CM115" s="21"/>
-      <c r="CN115" s="21"/>
-      <c r="CO115" s="21"/>
-      <c r="CP115" s="21"/>
-      <c r="CQ115" s="21"/>
-      <c r="CR115" s="21"/>
+      <c r="CL115" s="3"/>
+      <c r="CM115" s="3"/>
+      <c r="CN115" s="3"/>
+      <c r="CO115" s="3"/>
+      <c r="CP115" s="3"/>
+      <c r="CQ115" s="3"/>
+      <c r="CR115" s="3"/>
+      <c r="CS115" s="3"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -41147,13 +41116,14 @@
       <c r="CI116" s="3"/>
       <c r="CJ116" s="3"/>
       <c r="CK116" s="3"/>
-      <c r="CL116" s="21"/>
-      <c r="CM116" s="21"/>
-      <c r="CN116" s="21"/>
-      <c r="CO116" s="21"/>
-      <c r="CP116" s="21"/>
-      <c r="CQ116" s="21"/>
-      <c r="CR116" s="21"/>
+      <c r="CL116" s="3"/>
+      <c r="CM116" s="3"/>
+      <c r="CN116" s="3"/>
+      <c r="CO116" s="3"/>
+      <c r="CP116" s="3"/>
+      <c r="CQ116" s="3"/>
+      <c r="CR116" s="3"/>
+      <c r="CS116" s="3"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -41245,13 +41215,14 @@
       <c r="CI117" s="3"/>
       <c r="CJ117" s="3"/>
       <c r="CK117" s="3"/>
-      <c r="CL117" s="21"/>
-      <c r="CM117" s="21"/>
-      <c r="CN117" s="21"/>
-      <c r="CO117" s="21"/>
-      <c r="CP117" s="21"/>
-      <c r="CQ117" s="21"/>
-      <c r="CR117" s="21"/>
+      <c r="CL117" s="3"/>
+      <c r="CM117" s="3"/>
+      <c r="CN117" s="3"/>
+      <c r="CO117" s="3"/>
+      <c r="CP117" s="3"/>
+      <c r="CQ117" s="3"/>
+      <c r="CR117" s="3"/>
+      <c r="CS117" s="3"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -41345,17 +41316,18 @@
       <c r="CI118" s="3"/>
       <c r="CJ118" s="3"/>
       <c r="CK118" s="3"/>
-      <c r="CL118" s="21"/>
-      <c r="CM118" s="21"/>
-      <c r="CN118" s="21"/>
-      <c r="CO118" s="21"/>
-      <c r="CP118" s="21"/>
-      <c r="CQ118" s="21"/>
-      <c r="CR118" s="21"/>
+      <c r="CL118" s="3"/>
+      <c r="CM118" s="3"/>
+      <c r="CN118" s="3"/>
+      <c r="CO118" s="3"/>
+      <c r="CP118" s="3"/>
+      <c r="CQ118" s="3"/>
+      <c r="CR118" s="3"/>
+      <c r="CS118" s="3"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -41445,13 +41417,14 @@
       <c r="CI119" s="3"/>
       <c r="CJ119" s="3"/>
       <c r="CK119" s="3"/>
-      <c r="CL119" s="21"/>
-      <c r="CM119" s="21"/>
-      <c r="CN119" s="21"/>
-      <c r="CO119" s="21"/>
-      <c r="CP119" s="21"/>
-      <c r="CQ119" s="21"/>
-      <c r="CR119" s="21"/>
+      <c r="CL119" s="3"/>
+      <c r="CM119" s="3"/>
+      <c r="CN119" s="3"/>
+      <c r="CO119" s="3"/>
+      <c r="CP119" s="3"/>
+      <c r="CQ119" s="3"/>
+      <c r="CR119" s="3"/>
+      <c r="CS119" s="3"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -41545,13 +41518,14 @@
       <c r="CI120" s="3"/>
       <c r="CJ120" s="3"/>
       <c r="CK120" s="3"/>
-      <c r="CL120" s="21"/>
-      <c r="CM120" s="21"/>
-      <c r="CN120" s="21"/>
-      <c r="CO120" s="21"/>
-      <c r="CP120" s="21"/>
-      <c r="CQ120" s="21"/>
-      <c r="CR120" s="21"/>
+      <c r="CL120" s="3"/>
+      <c r="CM120" s="3"/>
+      <c r="CN120" s="3"/>
+      <c r="CO120" s="3"/>
+      <c r="CP120" s="3"/>
+      <c r="CQ120" s="3"/>
+      <c r="CR120" s="3"/>
+      <c r="CS120" s="3"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -41643,159 +41617,161 @@
       <c r="CI121" s="3"/>
       <c r="CJ121" s="3"/>
       <c r="CK121" s="3"/>
-      <c r="CL121" s="21"/>
-      <c r="CM121" s="21"/>
-      <c r="CN121" s="21"/>
-      <c r="CO121" s="21"/>
-      <c r="CP121" s="21"/>
-      <c r="CQ121" s="21"/>
-      <c r="CR121" s="21"/>
+      <c r="CL121" s="3"/>
+      <c r="CM121" s="3"/>
+      <c r="CN121" s="3"/>
+      <c r="CO121" s="3"/>
+      <c r="CP121" s="3"/>
+      <c r="CQ121" s="3"/>
+      <c r="CR121" s="3"/>
+      <c r="CS121" s="3"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="32">
+      <c r="B122" s="22">
         <v>2000</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="32">
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="22">
         <v>2001</v>
       </c>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="32">
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="22">
         <v>2002</v>
       </c>
-      <c r="K122" s="33"/>
-      <c r="L122" s="33"/>
-      <c r="M122" s="33"/>
-      <c r="N122" s="32">
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="22">
         <v>2003</v>
       </c>
-      <c r="O122" s="33"/>
-      <c r="P122" s="33"/>
-      <c r="Q122" s="33"/>
-      <c r="R122" s="32">
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="22">
         <v>2004</v>
       </c>
-      <c r="S122" s="33"/>
-      <c r="T122" s="33"/>
-      <c r="U122" s="33"/>
-      <c r="V122" s="32">
+      <c r="S122" s="23"/>
+      <c r="T122" s="23"/>
+      <c r="U122" s="23"/>
+      <c r="V122" s="22">
         <v>2005</v>
       </c>
-      <c r="W122" s="33"/>
-      <c r="X122" s="33"/>
-      <c r="Y122" s="33"/>
-      <c r="Z122" s="32">
+      <c r="W122" s="23"/>
+      <c r="X122" s="23"/>
+      <c r="Y122" s="23"/>
+      <c r="Z122" s="22">
         <v>2006</v>
       </c>
-      <c r="AA122" s="33"/>
-      <c r="AB122" s="33"/>
-      <c r="AC122" s="33"/>
-      <c r="AD122" s="32">
+      <c r="AA122" s="23"/>
+      <c r="AB122" s="23"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="22">
         <v>2007</v>
       </c>
-      <c r="AE122" s="33"/>
-      <c r="AF122" s="33"/>
-      <c r="AG122" s="33"/>
-      <c r="AH122" s="32">
+      <c r="AE122" s="23"/>
+      <c r="AF122" s="23"/>
+      <c r="AG122" s="23"/>
+      <c r="AH122" s="22">
         <v>2008</v>
       </c>
-      <c r="AI122" s="33"/>
-      <c r="AJ122" s="33"/>
-      <c r="AK122" s="33"/>
-      <c r="AL122" s="32">
+      <c r="AI122" s="23"/>
+      <c r="AJ122" s="23"/>
+      <c r="AK122" s="23"/>
+      <c r="AL122" s="22">
         <v>2009</v>
       </c>
-      <c r="AM122" s="33"/>
-      <c r="AN122" s="33"/>
-      <c r="AO122" s="33"/>
-      <c r="AP122" s="32">
+      <c r="AM122" s="23"/>
+      <c r="AN122" s="23"/>
+      <c r="AO122" s="23"/>
+      <c r="AP122" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="33"/>
-      <c r="AR122" s="33"/>
-      <c r="AS122" s="33"/>
-      <c r="AT122" s="32">
+      <c r="AQ122" s="23"/>
+      <c r="AR122" s="23"/>
+      <c r="AS122" s="23"/>
+      <c r="AT122" s="22">
         <v>2011</v>
       </c>
-      <c r="AU122" s="33"/>
-      <c r="AV122" s="33"/>
-      <c r="AW122" s="33"/>
-      <c r="AX122" s="32">
+      <c r="AU122" s="23"/>
+      <c r="AV122" s="23"/>
+      <c r="AW122" s="23"/>
+      <c r="AX122" s="22">
         <v>2012</v>
       </c>
-      <c r="AY122" s="33"/>
-      <c r="AZ122" s="33"/>
-      <c r="BA122" s="33"/>
-      <c r="BB122" s="32">
+      <c r="AY122" s="23"/>
+      <c r="AZ122" s="23"/>
+      <c r="BA122" s="23"/>
+      <c r="BB122" s="22">
         <v>2013</v>
       </c>
-      <c r="BC122" s="33"/>
-      <c r="BD122" s="33"/>
-      <c r="BE122" s="33"/>
-      <c r="BF122" s="32">
+      <c r="BC122" s="23"/>
+      <c r="BD122" s="23"/>
+      <c r="BE122" s="23"/>
+      <c r="BF122" s="22">
         <v>2014</v>
       </c>
-      <c r="BG122" s="33"/>
-      <c r="BH122" s="33"/>
-      <c r="BI122" s="33"/>
-      <c r="BJ122" s="32">
+      <c r="BG122" s="23"/>
+      <c r="BH122" s="23"/>
+      <c r="BI122" s="23"/>
+      <c r="BJ122" s="22">
         <v>2015</v>
       </c>
-      <c r="BK122" s="33"/>
-      <c r="BL122" s="33"/>
-      <c r="BM122" s="33"/>
-      <c r="BN122" s="32">
+      <c r="BK122" s="23"/>
+      <c r="BL122" s="23"/>
+      <c r="BM122" s="23"/>
+      <c r="BN122" s="22">
         <v>2016</v>
       </c>
-      <c r="BO122" s="33"/>
-      <c r="BP122" s="33"/>
-      <c r="BQ122" s="33"/>
-      <c r="BR122" s="32">
+      <c r="BO122" s="23"/>
+      <c r="BP122" s="23"/>
+      <c r="BQ122" s="23"/>
+      <c r="BR122" s="22">
         <v>2017</v>
       </c>
-      <c r="BS122" s="33"/>
-      <c r="BT122" s="33"/>
-      <c r="BU122" s="33"/>
-      <c r="BV122" s="32">
+      <c r="BS122" s="23"/>
+      <c r="BT122" s="23"/>
+      <c r="BU122" s="23"/>
+      <c r="BV122" s="22">
         <v>2018</v>
       </c>
-      <c r="BW122" s="33"/>
-      <c r="BX122" s="33"/>
-      <c r="BY122" s="33"/>
-      <c r="BZ122" s="32">
+      <c r="BW122" s="23"/>
+      <c r="BX122" s="23"/>
+      <c r="BY122" s="23"/>
+      <c r="BZ122" s="22">
         <v>2019</v>
       </c>
-      <c r="CA122" s="33"/>
-      <c r="CB122" s="33"/>
-      <c r="CC122" s="33"/>
-      <c r="CD122" s="32">
+      <c r="CA122" s="23"/>
+      <c r="CB122" s="23"/>
+      <c r="CC122" s="23"/>
+      <c r="CD122" s="22">
         <v>2020</v>
       </c>
-      <c r="CE122" s="32"/>
-      <c r="CF122" s="32"/>
-      <c r="CG122" s="32"/>
-      <c r="CH122" s="32">
+      <c r="CE122" s="22"/>
+      <c r="CF122" s="22"/>
+      <c r="CG122" s="22"/>
+      <c r="CH122" s="22">
         <v>2021</v>
       </c>
-      <c r="CI122" s="32"/>
-      <c r="CJ122" s="32"/>
-      <c r="CK122" s="32"/>
-      <c r="CL122" s="34">
+      <c r="CI122" s="22"/>
+      <c r="CJ122" s="22"/>
+      <c r="CK122" s="22"/>
+      <c r="CL122" s="21">
         <v>2022</v>
       </c>
-      <c r="CM122" s="34"/>
-      <c r="CN122" s="34"/>
-      <c r="CO122" s="34"/>
-      <c r="CP122" s="34">
+      <c r="CM122" s="21"/>
+      <c r="CN122" s="21"/>
+      <c r="CO122" s="21"/>
+      <c r="CP122" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="34"/>
-      <c r="CR122" s="34"/>
+      <c r="CQ122" s="21"/>
+      <c r="CR122" s="21"/>
+      <c r="CS122" s="21"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -42065,26 +42041,29 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="22" t="s">
+      <c r="CL123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="22" t="s">
+      <c r="CM123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="22" t="s">
+      <c r="CN123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="22" t="s">
+      <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="22" t="s">
+      <c r="CP123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="22" t="s">
+      <c r="CQ123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="22" t="s">
+      <c r="CR123" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS123" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42177,13 +42156,14 @@
       <c r="CI124" s="3"/>
       <c r="CJ124" s="3"/>
       <c r="CK124" s="3"/>
-      <c r="CL124" s="21"/>
-      <c r="CM124" s="21"/>
-      <c r="CN124" s="21"/>
-      <c r="CO124" s="21"/>
-      <c r="CP124" s="21"/>
-      <c r="CQ124" s="21"/>
-      <c r="CR124" s="21"/>
+      <c r="CL124" s="3"/>
+      <c r="CM124" s="3"/>
+      <c r="CN124" s="3"/>
+      <c r="CO124" s="3"/>
+      <c r="CP124" s="3"/>
+      <c r="CQ124" s="3"/>
+      <c r="CR124" s="3"/>
+      <c r="CS124" s="3"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -42453,28 +42433,30 @@
       <c r="CK125" s="12">
         <v>66.419648672435144</v>
       </c>
-      <c r="CL125" s="29">
+      <c r="CL125" s="12">
         <v>69.155636385672253</v>
       </c>
-      <c r="CM125" s="29">
+      <c r="CM125" s="12">
         <v>72.067873050726121</v>
       </c>
-      <c r="CN125" s="29">
+      <c r="CN125" s="12">
         <v>67.377698439652278</v>
       </c>
-      <c r="CO125" s="29">
+      <c r="CO125" s="12">
         <v>67.660819194515952</v>
       </c>
-      <c r="CP125" s="29">
+      <c r="CP125" s="12">
         <v>68.10375266645265</v>
       </c>
-      <c r="CQ125" s="29">
+      <c r="CQ125" s="12">
         <v>70.956152615569252</v>
       </c>
-      <c r="CR125" s="29">
-        <v>66.648844031855873</v>
-      </c>
-      <c r="CS125" s="17"/>
+      <c r="CR125" s="12">
+        <v>66.456280315661232</v>
+      </c>
+      <c r="CS125" s="12">
+        <v>67.2273791403925</v>
+      </c>
       <c r="CT125" s="17"/>
       <c r="CU125" s="17"/>
       <c r="CV125" s="17"/>
@@ -42802,28 +42784,30 @@
       <c r="CK126" s="12">
         <v>33.580351327564863</v>
       </c>
-      <c r="CL126" s="29">
+      <c r="CL126" s="12">
         <v>30.844363614327747</v>
       </c>
-      <c r="CM126" s="29">
+      <c r="CM126" s="12">
         <v>27.932126949273883</v>
       </c>
-      <c r="CN126" s="29">
+      <c r="CN126" s="12">
         <v>32.622301560347715</v>
       </c>
-      <c r="CO126" s="29">
+      <c r="CO126" s="12">
         <v>32.339180805484055</v>
       </c>
-      <c r="CP126" s="29">
+      <c r="CP126" s="12">
         <v>31.896247333547358</v>
       </c>
-      <c r="CQ126" s="29">
+      <c r="CQ126" s="12">
         <v>29.043847384430748</v>
       </c>
-      <c r="CR126" s="29">
-        <v>33.351155968144127</v>
-      </c>
-      <c r="CS126" s="17"/>
+      <c r="CR126" s="12">
+        <v>33.543719684338782</v>
+      </c>
+      <c r="CS126" s="12">
+        <v>32.7726208596075</v>
+      </c>
       <c r="CT126" s="17"/>
       <c r="CU126" s="17"/>
       <c r="CV126" s="17"/>
@@ -42972,14 +42956,14 @@
       <c r="CI127" s="11"/>
       <c r="CJ127" s="11"/>
       <c r="CK127" s="11"/>
-      <c r="CL127" s="24"/>
-      <c r="CM127" s="24"/>
-      <c r="CN127" s="24"/>
-      <c r="CO127" s="24"/>
-      <c r="CP127" s="24"/>
-      <c r="CQ127" s="24"/>
-      <c r="CR127" s="24"/>
-      <c r="CS127" s="17"/>
+      <c r="CL127" s="11"/>
+      <c r="CM127" s="11"/>
+      <c r="CN127" s="11"/>
+      <c r="CO127" s="11"/>
+      <c r="CP127" s="11"/>
+      <c r="CQ127" s="11"/>
+      <c r="CR127" s="11"/>
+      <c r="CS127" s="11"/>
       <c r="CT127" s="17"/>
       <c r="CU127" s="17"/>
       <c r="CV127" s="17"/>
@@ -43307,28 +43291,30 @@
       <c r="CK128" s="12">
         <v>100</v>
       </c>
-      <c r="CL128" s="29">
+      <c r="CL128" s="12">
         <v>100</v>
       </c>
-      <c r="CM128" s="29">
+      <c r="CM128" s="12">
         <v>100</v>
       </c>
-      <c r="CN128" s="29">
+      <c r="CN128" s="12">
         <v>100</v>
       </c>
-      <c r="CO128" s="29">
+      <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="29">
+      <c r="CP128" s="12">
         <v>100</v>
       </c>
-      <c r="CQ128" s="29">
+      <c r="CQ128" s="12">
         <v>100</v>
       </c>
-      <c r="CR128" s="29">
+      <c r="CR128" s="12">
         <v>100</v>
       </c>
-      <c r="CS128" s="17"/>
+      <c r="CS128" s="12">
+        <v>100</v>
+      </c>
       <c r="CT128" s="17"/>
       <c r="CU128" s="17"/>
       <c r="CV128" s="17"/>
@@ -43388,7 +43374,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:96" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:97" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -43478,15 +43464,16 @@
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
-      <c r="CL129" s="26"/>
-      <c r="CM129" s="26"/>
-      <c r="CN129" s="26"/>
-      <c r="CO129" s="26"/>
-      <c r="CP129" s="26"/>
-      <c r="CQ129" s="26"/>
-      <c r="CR129" s="26"/>
+      <c r="CL129" s="9"/>
+      <c r="CM129" s="9"/>
+      <c r="CN129" s="9"/>
+      <c r="CO129" s="9"/>
+      <c r="CP129" s="9"/>
+      <c r="CQ129" s="9"/>
+      <c r="CR129" s="9"/>
+      <c r="CS129" s="9"/>
     </row>
-    <row r="130" spans="1:96" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:97" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -43578,35 +43565,24 @@
       <c r="CI130" s="3"/>
       <c r="CJ130" s="3"/>
       <c r="CK130" s="3"/>
-      <c r="CL130" s="21"/>
-      <c r="CM130" s="21"/>
-      <c r="CN130" s="21"/>
-      <c r="CO130" s="21"/>
-      <c r="CP130" s="21"/>
-      <c r="CQ130" s="21"/>
-      <c r="CR130" s="21"/>
+      <c r="CL130" s="3"/>
+      <c r="CM130" s="3"/>
+      <c r="CN130" s="3"/>
+      <c r="CO130" s="3"/>
+      <c r="CP130" s="3"/>
+      <c r="CQ130" s="3"/>
+      <c r="CR130" s="3"/>
+      <c r="CS130" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP28:CR28"/>
-    <mergeCell ref="CP84:CR84"/>
-    <mergeCell ref="CP103:CR103"/>
-    <mergeCell ref="CP122:CR122"/>
+  <mergeCells count="154">
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
-    <mergeCell ref="CL47:CN47"/>
-    <mergeCell ref="CL66:CN66"/>
     <mergeCell ref="BR122:BU122"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
@@ -43760,9 +43736,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="95" man="1"/>
-    <brk id="76" max="95" man="1"/>
-    <brk id="94" max="95" man="1"/>
+    <brk id="38" max="96" man="1"/>
+    <brk id="76" max="96" man="1"/>
+    <brk id="94" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7466A42E-8892-47EB-B6A0-3193FD52BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAC8332-9FA4-4F90-9B69-95A2E59F0404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CS$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CT$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,13 +752,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23623,49 +23643,85 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV9" sqref="CV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="97" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="15"/>
+    <col min="2" max="93" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="94" max="98" width="9.6640625" style="32" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
     </row>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="20"/>
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP3" s="20"/>
+      <c r="CQ3" s="20"/>
+      <c r="CR3" s="20"/>
+      <c r="CS3" s="20"/>
+      <c r="CT3" s="20"/>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
+      <c r="CP4" s="20"/>
+      <c r="CQ4" s="20"/>
+      <c r="CR4" s="20"/>
+      <c r="CS4" s="20"/>
+      <c r="CT4" s="20"/>
     </row>
     <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="CP5" s="20"/>
+      <c r="CQ5" s="20"/>
+      <c r="CR5" s="20"/>
+      <c r="CS5" s="20"/>
+      <c r="CT5" s="20"/>
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CP6" s="20"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="20"/>
+      <c r="CS6" s="20"/>
+      <c r="CT6" s="20"/>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="CP7" s="20"/>
+      <c r="CQ7" s="20"/>
+      <c r="CR7" s="20"/>
+      <c r="CS7" s="20"/>
+      <c r="CT7" s="20"/>
     </row>
     <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -23761,157 +23817,161 @@
       <c r="CM8" s="3"/>
       <c r="CN8" s="3"/>
       <c r="CO8" s="3"/>
-      <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
-      <c r="CR8" s="3"/>
-      <c r="CS8" s="3"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
+      <c r="CR8" s="21"/>
+      <c r="CS8" s="21"/>
+      <c r="CT8" s="21"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="22">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="21">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
-      <c r="CP9" s="21">
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="21"/>
-      <c r="CR9" s="21"/>
-      <c r="CS9" s="21"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
+      <c r="CT9" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24193,17 +24253,20 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24300,10 +24363,11 @@
       <c r="CM11" s="3"/>
       <c r="CN11" s="3"/>
       <c r="CO11" s="3"/>
-      <c r="CP11" s="3"/>
-      <c r="CQ11" s="3"/>
-      <c r="CR11" s="3"/>
-      <c r="CS11" s="3"/>
+      <c r="CP11" s="21"/>
+      <c r="CQ11" s="21"/>
+      <c r="CR11" s="21"/>
+      <c r="CS11" s="21"/>
+      <c r="CT11" s="21"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24574,30 +24638,32 @@
         <v>139858.68074787248</v>
       </c>
       <c r="CL12" s="13">
-        <v>147137.62071573344</v>
+        <v>146036.15651912635</v>
       </c>
       <c r="CM12" s="13">
-        <v>176175.02511092243</v>
+        <v>174687.6084082509</v>
       </c>
       <c r="CN12" s="13">
-        <v>139039.07315818773</v>
+        <v>137998.23424650621</v>
       </c>
       <c r="CO12" s="13">
-        <v>161962.20810424158</v>
-      </c>
-      <c r="CP12" s="13">
-        <v>160239.5991545516</v>
-      </c>
-      <c r="CQ12" s="13">
-        <v>193170.67265058804</v>
-      </c>
-      <c r="CR12" s="13">
-        <v>150856.40015933674</v>
-      </c>
-      <c r="CS12" s="13">
-        <v>180029.16877352871</v>
-      </c>
-      <c r="CT12" s="17"/>
+        <v>160749.76785570109</v>
+      </c>
+      <c r="CP12" s="24">
+        <v>159040.05426257322</v>
+      </c>
+      <c r="CQ12" s="24">
+        <v>191540.13930252948</v>
+      </c>
+      <c r="CR12" s="24">
+        <v>149727.0973828187</v>
+      </c>
+      <c r="CS12" s="24">
+        <v>178724.73119020896</v>
+      </c>
+      <c r="CT12" s="24">
+        <v>164928.00176265615</v>
+      </c>
       <c r="CU12" s="17"/>
       <c r="CV12" s="17"/>
       <c r="CW12" s="17"/>
@@ -24925,30 +24991,32 @@
         <v>63436.648987605236</v>
       </c>
       <c r="CL13" s="13">
-        <v>60315.21638098656</v>
+        <v>60278.631307192292</v>
       </c>
       <c r="CM13" s="13">
-        <v>63839.12832106831</v>
+        <v>64235.079167507261</v>
       </c>
       <c r="CN13" s="13">
-        <v>66443.327890908462</v>
+        <v>67039.007684755474</v>
       </c>
       <c r="CO13" s="13">
-        <v>69060.72654017483</v>
-      </c>
-      <c r="CP13" s="13">
-        <v>68692.300594161963</v>
-      </c>
-      <c r="CQ13" s="13">
-        <v>73414.160731908894</v>
-      </c>
-      <c r="CR13" s="13">
-        <v>75194.779191434616</v>
-      </c>
-      <c r="CS13" s="13">
-        <v>78628.399853677154</v>
-      </c>
-      <c r="CT13" s="17"/>
+        <v>69365.327308605774</v>
+      </c>
+      <c r="CP13" s="24">
+        <v>69291.17195269253</v>
+      </c>
+      <c r="CQ13" s="24">
+        <v>73589.944872166205</v>
+      </c>
+      <c r="CR13" s="24">
+        <v>75443.577784210705</v>
+      </c>
+      <c r="CS13" s="24">
+        <v>79287.401714957232</v>
+      </c>
+      <c r="CT13" s="24">
+        <v>81733.476093138001</v>
+      </c>
       <c r="CU13" s="17"/>
       <c r="CV13" s="17"/>
       <c r="CW13" s="17"/>
@@ -25100,11 +25168,11 @@
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
-      <c r="CP14" s="11"/>
-      <c r="CQ14" s="11"/>
-      <c r="CR14" s="11"/>
-      <c r="CS14" s="11"/>
-      <c r="CT14" s="17"/>
+      <c r="CP14" s="25"/>
+      <c r="CQ14" s="25"/>
+      <c r="CR14" s="25"/>
+      <c r="CS14" s="25"/>
+      <c r="CT14" s="25"/>
       <c r="CU14" s="17"/>
       <c r="CV14" s="17"/>
       <c r="CW14" s="17"/>
@@ -25431,31 +25499,33 @@
       <c r="CK15" s="14">
         <v>203295.32973547772</v>
       </c>
-      <c r="CL15" s="19">
-        <v>207452.83709672</v>
-      </c>
-      <c r="CM15" s="19">
-        <v>240014.15343199074</v>
-      </c>
-      <c r="CN15" s="19">
-        <v>205482.4010490962</v>
-      </c>
-      <c r="CO15" s="19">
-        <v>231022.93464441641</v>
-      </c>
-      <c r="CP15" s="19">
-        <v>228931.89974871356</v>
-      </c>
-      <c r="CQ15" s="19">
-        <v>266584.83338249696</v>
-      </c>
-      <c r="CR15" s="19">
-        <v>226051.17935077136</v>
-      </c>
-      <c r="CS15" s="19">
-        <v>258657.56862720585</v>
-      </c>
-      <c r="CT15" s="17"/>
+      <c r="CL15" s="14">
+        <v>206314.78782631864</v>
+      </c>
+      <c r="CM15" s="14">
+        <v>238922.68757575817</v>
+      </c>
+      <c r="CN15" s="14">
+        <v>205037.24193126167</v>
+      </c>
+      <c r="CO15" s="14">
+        <v>230115.09516430687</v>
+      </c>
+      <c r="CP15" s="26">
+        <v>228331.22621526575</v>
+      </c>
+      <c r="CQ15" s="26">
+        <v>265130.08417469566</v>
+      </c>
+      <c r="CR15" s="26">
+        <v>225170.6751670294</v>
+      </c>
+      <c r="CS15" s="26">
+        <v>258012.13290516619</v>
+      </c>
+      <c r="CT15" s="26">
+        <v>246661.47785579413</v>
+      </c>
       <c r="CU15" s="17"/>
       <c r="CV15" s="17"/>
       <c r="CW15" s="17"/>
@@ -25608,10 +25678,11 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
-      <c r="CR16" s="9"/>
-      <c r="CS16" s="9"/>
+      <c r="CP16" s="27"/>
+      <c r="CQ16" s="27"/>
+      <c r="CR16" s="27"/>
+      <c r="CS16" s="27"/>
+      <c r="CT16" s="27"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25709,10 +25780,11 @@
       <c r="CM17" s="3"/>
       <c r="CN17" s="3"/>
       <c r="CO17" s="3"/>
-      <c r="CP17" s="3"/>
-      <c r="CQ17" s="3"/>
-      <c r="CR17" s="3"/>
-      <c r="CS17" s="3"/>
+      <c r="CP17" s="21"/>
+      <c r="CQ17" s="21"/>
+      <c r="CR17" s="21"/>
+      <c r="CS17" s="21"/>
+      <c r="CT17" s="21"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25807,11 +25879,11 @@
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
-      <c r="CP18" s="11"/>
-      <c r="CQ18" s="11"/>
-      <c r="CR18" s="11"/>
-      <c r="CS18" s="11"/>
-      <c r="CT18" s="17"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
       <c r="CU18" s="17"/>
       <c r="CV18" s="17"/>
       <c r="CW18" s="17"/>
@@ -25963,11 +26035,11 @@
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
-      <c r="CP19" s="11"/>
-      <c r="CQ19" s="11"/>
-      <c r="CR19" s="11"/>
-      <c r="CS19" s="11"/>
-      <c r="CT19" s="17"/>
+      <c r="CP19" s="25"/>
+      <c r="CQ19" s="25"/>
+      <c r="CR19" s="25"/>
+      <c r="CS19" s="25"/>
+      <c r="CT19" s="25"/>
       <c r="CU19" s="17"/>
       <c r="CV19" s="17"/>
       <c r="CW19" s="17"/>
@@ -26122,10 +26194,11 @@
       <c r="CM20" s="3"/>
       <c r="CN20" s="3"/>
       <c r="CO20" s="3"/>
-      <c r="CP20" s="3"/>
-      <c r="CQ20" s="3"/>
-      <c r="CR20" s="3"/>
-      <c r="CS20" s="3"/>
+      <c r="CP20" s="21"/>
+      <c r="CQ20" s="21"/>
+      <c r="CR20" s="21"/>
+      <c r="CS20" s="21"/>
+      <c r="CT20" s="21"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26223,14 +26296,15 @@
       <c r="CM21" s="3"/>
       <c r="CN21" s="3"/>
       <c r="CO21" s="3"/>
-      <c r="CP21" s="3"/>
-      <c r="CQ21" s="3"/>
-      <c r="CR21" s="3"/>
-      <c r="CS21" s="3"/>
+      <c r="CP21" s="21"/>
+      <c r="CQ21" s="21"/>
+      <c r="CR21" s="21"/>
+      <c r="CS21" s="21"/>
+      <c r="CT21" s="21"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26324,10 +26398,11 @@
       <c r="CM22" s="3"/>
       <c r="CN22" s="3"/>
       <c r="CO22" s="3"/>
-      <c r="CP22" s="3"/>
-      <c r="CQ22" s="3"/>
-      <c r="CR22" s="3"/>
-      <c r="CS22" s="3"/>
+      <c r="CP22" s="21"/>
+      <c r="CQ22" s="21"/>
+      <c r="CR22" s="21"/>
+      <c r="CS22" s="21"/>
+      <c r="CT22" s="21"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26423,10 +26498,11 @@
       <c r="CM23" s="3"/>
       <c r="CN23" s="3"/>
       <c r="CO23" s="3"/>
-      <c r="CP23" s="3"/>
-      <c r="CQ23" s="3"/>
-      <c r="CR23" s="3"/>
-      <c r="CS23" s="3"/>
+      <c r="CP23" s="21"/>
+      <c r="CQ23" s="21"/>
+      <c r="CR23" s="21"/>
+      <c r="CS23" s="21"/>
+      <c r="CT23" s="21"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26524,14 +26600,15 @@
       <c r="CM24" s="3"/>
       <c r="CN24" s="3"/>
       <c r="CO24" s="3"/>
-      <c r="CP24" s="3"/>
-      <c r="CQ24" s="3"/>
-      <c r="CR24" s="3"/>
-      <c r="CS24" s="3"/>
+      <c r="CP24" s="21"/>
+      <c r="CQ24" s="21"/>
+      <c r="CR24" s="21"/>
+      <c r="CS24" s="21"/>
+      <c r="CT24" s="21"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26625,10 +26702,11 @@
       <c r="CM25" s="3"/>
       <c r="CN25" s="3"/>
       <c r="CO25" s="3"/>
-      <c r="CP25" s="3"/>
-      <c r="CQ25" s="3"/>
-      <c r="CR25" s="3"/>
-      <c r="CS25" s="3"/>
+      <c r="CP25" s="21"/>
+      <c r="CQ25" s="21"/>
+      <c r="CR25" s="21"/>
+      <c r="CS25" s="21"/>
+      <c r="CT25" s="21"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26726,10 +26804,11 @@
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
       <c r="CO26" s="3"/>
-      <c r="CP26" s="3"/>
-      <c r="CQ26" s="3"/>
-      <c r="CR26" s="3"/>
-      <c r="CS26" s="3"/>
+      <c r="CP26" s="21"/>
+      <c r="CQ26" s="21"/>
+      <c r="CR26" s="21"/>
+      <c r="CS26" s="21"/>
+      <c r="CT26" s="21"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26825,157 +26904,161 @@
       <c r="CM27" s="3"/>
       <c r="CN27" s="3"/>
       <c r="CO27" s="3"/>
-      <c r="CP27" s="3"/>
-      <c r="CQ27" s="3"/>
-      <c r="CR27" s="3"/>
-      <c r="CS27" s="3"/>
+      <c r="CP27" s="21"/>
+      <c r="CQ27" s="21"/>
+      <c r="CR27" s="21"/>
+      <c r="CS27" s="21"/>
+      <c r="CT27" s="21"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="22">
+      <c r="B28" s="33">
         <v>2000</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="33">
         <v>2001</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33">
         <v>2002</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="22">
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="33">
         <v>2003</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="22">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="33">
         <v>2004</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="22">
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="33">
         <v>2005</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="22">
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="33">
         <v>2006</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="22">
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="33">
         <v>2007</v>
       </c>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="22">
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="33">
         <v>2008</v>
       </c>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="22">
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="33">
         <v>2009</v>
       </c>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="22">
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="22">
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="33">
         <v>2011</v>
       </c>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="22">
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="33">
         <v>2012</v>
       </c>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
-      <c r="BA28" s="23"/>
-      <c r="BB28" s="22">
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="33">
         <v>2013</v>
       </c>
-      <c r="BC28" s="23"/>
-      <c r="BD28" s="23"/>
-      <c r="BE28" s="23"/>
-      <c r="BF28" s="22">
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="33">
         <v>2014</v>
       </c>
-      <c r="BG28" s="23"/>
-      <c r="BH28" s="23"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="22">
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="34"/>
+      <c r="BJ28" s="33">
         <v>2015</v>
       </c>
-      <c r="BK28" s="23"/>
-      <c r="BL28" s="23"/>
-      <c r="BM28" s="23"/>
-      <c r="BN28" s="22">
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+      <c r="BN28" s="33">
         <v>2016</v>
       </c>
-      <c r="BO28" s="23"/>
-      <c r="BP28" s="23"/>
-      <c r="BQ28" s="23"/>
-      <c r="BR28" s="22">
+      <c r="BO28" s="34"/>
+      <c r="BP28" s="34"/>
+      <c r="BQ28" s="34"/>
+      <c r="BR28" s="33">
         <v>2017</v>
       </c>
-      <c r="BS28" s="23"/>
-      <c r="BT28" s="23"/>
-      <c r="BU28" s="23"/>
-      <c r="BV28" s="22">
+      <c r="BS28" s="34"/>
+      <c r="BT28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="33">
         <v>2018</v>
       </c>
-      <c r="BW28" s="23"/>
-      <c r="BX28" s="23"/>
-      <c r="BY28" s="23"/>
-      <c r="BZ28" s="22">
+      <c r="BW28" s="34"/>
+      <c r="BX28" s="34"/>
+      <c r="BY28" s="34"/>
+      <c r="BZ28" s="33">
         <v>2019</v>
       </c>
-      <c r="CA28" s="23"/>
-      <c r="CB28" s="23"/>
-      <c r="CC28" s="23"/>
-      <c r="CD28" s="22">
+      <c r="CA28" s="34"/>
+      <c r="CB28" s="34"/>
+      <c r="CC28" s="34"/>
+      <c r="CD28" s="33">
         <v>2020</v>
       </c>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
-      <c r="CH28" s="22">
+      <c r="CE28" s="33"/>
+      <c r="CF28" s="33"/>
+      <c r="CG28" s="33"/>
+      <c r="CH28" s="19">
         <v>2021</v>
       </c>
-      <c r="CI28" s="22"/>
-      <c r="CJ28" s="22"/>
-      <c r="CK28" s="22"/>
-      <c r="CL28" s="21">
+      <c r="CI28" s="19"/>
+      <c r="CJ28" s="19"/>
+      <c r="CK28" s="19"/>
+      <c r="CL28" s="19">
         <v>2022</v>
       </c>
-      <c r="CM28" s="21"/>
-      <c r="CN28" s="21"/>
-      <c r="CO28" s="21"/>
-      <c r="CP28" s="21">
+      <c r="CM28" s="19"/>
+      <c r="CN28" s="19"/>
+      <c r="CO28" s="19"/>
+      <c r="CP28" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="21"/>
-      <c r="CR28" s="21"/>
-      <c r="CS28" s="21"/>
+      <c r="CQ28" s="22"/>
+      <c r="CR28" s="22"/>
+      <c r="CS28" s="22"/>
+      <c r="CT28" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27257,17 +27340,20 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="6" t="s">
+      <c r="CR29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="6" t="s">
+      <c r="CS29" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT29" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27364,10 +27450,11 @@
       <c r="CM30" s="3"/>
       <c r="CN30" s="3"/>
       <c r="CO30" s="3"/>
-      <c r="CP30" s="3"/>
-      <c r="CQ30" s="3"/>
-      <c r="CR30" s="3"/>
-      <c r="CS30" s="3"/>
+      <c r="CP30" s="21"/>
+      <c r="CQ30" s="21"/>
+      <c r="CR30" s="21"/>
+      <c r="CS30" s="21"/>
+      <c r="CT30" s="21"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27638,30 +27725,32 @@
         <v>112293.55436978329</v>
       </c>
       <c r="CL31" s="13">
-        <v>138392.93444998763</v>
+        <v>137356.93249740373</v>
       </c>
       <c r="CM31" s="13">
-        <v>164975.31879776841</v>
+        <v>163608.89605444705</v>
       </c>
       <c r="CN31" s="13">
-        <v>124117.62709944065</v>
+        <v>123188.48931841059</v>
       </c>
       <c r="CO31" s="13">
-        <v>125861.13477052779</v>
-      </c>
-      <c r="CP31" s="13">
-        <v>145300.81961965648</v>
-      </c>
-      <c r="CQ31" s="13">
-        <v>173597.42512971928</v>
-      </c>
-      <c r="CR31" s="13">
-        <v>130300.4462980215</v>
-      </c>
-      <c r="CS31" s="13">
-        <v>134951.43011214683</v>
-      </c>
-      <c r="CT31" s="17"/>
+        <v>124918.94518624805</v>
+      </c>
+      <c r="CP31" s="24">
+        <v>144213.10561578581</v>
+      </c>
+      <c r="CQ31" s="24">
+        <v>172159.5890242467</v>
+      </c>
+      <c r="CR31" s="24">
+        <v>129325.02426998374</v>
+      </c>
+      <c r="CS31" s="24">
+        <v>133941.19107316836</v>
+      </c>
+      <c r="CT31" s="24">
+        <v>145110.48306089113</v>
+      </c>
       <c r="CU31" s="17"/>
       <c r="CV31" s="17"/>
       <c r="CW31" s="17"/>
@@ -27989,30 +28078,32 @@
         <v>56773.215199544939</v>
       </c>
       <c r="CL32" s="13">
-        <v>61725.149458875145</v>
+        <v>61687.709169617927</v>
       </c>
       <c r="CM32" s="13">
-        <v>63941.273040106309</v>
+        <v>64337.857421009561</v>
       </c>
       <c r="CN32" s="13">
-        <v>60094.107604748198</v>
+        <v>60632.865171018668</v>
       </c>
       <c r="CO32" s="13">
-        <v>60156.617111390151</v>
-      </c>
-      <c r="CP32" s="13">
-        <v>68051.329022264807</v>
-      </c>
-      <c r="CQ32" s="13">
-        <v>71057.081534764671</v>
-      </c>
-      <c r="CR32" s="13">
-        <v>65768.978110185461</v>
-      </c>
-      <c r="CS32" s="13">
-        <v>65787.363869877401</v>
-      </c>
-      <c r="CT32" s="17"/>
+        <v>60421.945217773122</v>
+      </c>
+      <c r="CP32" s="24">
+        <v>68441.428613615251</v>
+      </c>
+      <c r="CQ32" s="24">
+        <v>71227.221843694948</v>
+      </c>
+      <c r="CR32" s="24">
+        <v>65986.589350993527</v>
+      </c>
+      <c r="CS32" s="24">
+        <v>66325.072018427192</v>
+      </c>
+      <c r="CT32" s="24">
+        <v>77283.815549311403</v>
+      </c>
       <c r="CU32" s="17"/>
       <c r="CV32" s="17"/>
       <c r="CW32" s="17"/>
@@ -28164,11 +28255,11 @@
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
-      <c r="CP33" s="11"/>
-      <c r="CQ33" s="11"/>
-      <c r="CR33" s="11"/>
-      <c r="CS33" s="11"/>
-      <c r="CT33" s="17"/>
+      <c r="CP33" s="25"/>
+      <c r="CQ33" s="25"/>
+      <c r="CR33" s="25"/>
+      <c r="CS33" s="25"/>
+      <c r="CT33" s="25"/>
       <c r="CU33" s="17"/>
       <c r="CV33" s="17"/>
       <c r="CW33" s="17"/>
@@ -28495,31 +28586,33 @@
       <c r="CK34" s="14">
         <v>169066.76956932823</v>
       </c>
-      <c r="CL34" s="19">
-        <v>200118.08390886278</v>
-      </c>
-      <c r="CM34" s="19">
-        <v>228916.59183787473</v>
-      </c>
-      <c r="CN34" s="19">
-        <v>184211.73470418886</v>
-      </c>
-      <c r="CO34" s="19">
-        <v>186017.75188191794</v>
-      </c>
-      <c r="CP34" s="19">
-        <v>213352.14864192129</v>
-      </c>
-      <c r="CQ34" s="19">
-        <v>244654.50666448395</v>
-      </c>
-      <c r="CR34" s="19">
-        <v>196069.42440820695</v>
-      </c>
-      <c r="CS34" s="19">
-        <v>200738.79398202425</v>
-      </c>
-      <c r="CT34" s="17"/>
+      <c r="CL34" s="14">
+        <v>199044.64166702167</v>
+      </c>
+      <c r="CM34" s="14">
+        <v>227946.75347545661</v>
+      </c>
+      <c r="CN34" s="14">
+        <v>183821.35448942927</v>
+      </c>
+      <c r="CO34" s="14">
+        <v>185340.89040402116</v>
+      </c>
+      <c r="CP34" s="26">
+        <v>212654.53422940106</v>
+      </c>
+      <c r="CQ34" s="26">
+        <v>243386.81086794165</v>
+      </c>
+      <c r="CR34" s="26">
+        <v>195311.61362097727</v>
+      </c>
+      <c r="CS34" s="26">
+        <v>200266.26309159555</v>
+      </c>
+      <c r="CT34" s="26">
+        <v>222394.29861020253</v>
+      </c>
       <c r="CU34" s="17"/>
       <c r="CV34" s="17"/>
       <c r="CW34" s="17"/>
@@ -28672,10 +28765,11 @@
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
-      <c r="CP35" s="9"/>
-      <c r="CQ35" s="9"/>
-      <c r="CR35" s="9"/>
-      <c r="CS35" s="9"/>
+      <c r="CP35" s="27"/>
+      <c r="CQ35" s="27"/>
+      <c r="CR35" s="27"/>
+      <c r="CS35" s="27"/>
+      <c r="CT35" s="27"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28773,10 +28867,11 @@
       <c r="CM36" s="3"/>
       <c r="CN36" s="3"/>
       <c r="CO36" s="3"/>
-      <c r="CP36" s="3"/>
-      <c r="CQ36" s="3"/>
-      <c r="CR36" s="3"/>
-      <c r="CS36" s="3"/>
+      <c r="CP36" s="21"/>
+      <c r="CQ36" s="21"/>
+      <c r="CR36" s="21"/>
+      <c r="CS36" s="21"/>
+      <c r="CT36" s="21"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -28871,11 +28966,11 @@
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
-      <c r="CP37" s="11"/>
-      <c r="CQ37" s="11"/>
-      <c r="CR37" s="11"/>
-      <c r="CS37" s="11"/>
-      <c r="CT37" s="17"/>
+      <c r="CP37" s="25"/>
+      <c r="CQ37" s="25"/>
+      <c r="CR37" s="25"/>
+      <c r="CS37" s="25"/>
+      <c r="CT37" s="25"/>
       <c r="CU37" s="17"/>
       <c r="CV37" s="17"/>
       <c r="CW37" s="17"/>
@@ -29027,11 +29122,11 @@
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
-      <c r="CP38" s="11"/>
-      <c r="CQ38" s="11"/>
-      <c r="CR38" s="11"/>
-      <c r="CS38" s="11"/>
-      <c r="CT38" s="17"/>
+      <c r="CP38" s="25"/>
+      <c r="CQ38" s="25"/>
+      <c r="CR38" s="25"/>
+      <c r="CS38" s="25"/>
+      <c r="CT38" s="25"/>
       <c r="CU38" s="17"/>
       <c r="CV38" s="17"/>
       <c r="CW38" s="17"/>
@@ -29186,10 +29281,11 @@
       <c r="CM39" s="3"/>
       <c r="CN39" s="3"/>
       <c r="CO39" s="3"/>
-      <c r="CP39" s="3"/>
-      <c r="CQ39" s="3"/>
-      <c r="CR39" s="3"/>
-      <c r="CS39" s="3"/>
+      <c r="CP39" s="21"/>
+      <c r="CQ39" s="21"/>
+      <c r="CR39" s="21"/>
+      <c r="CS39" s="21"/>
+      <c r="CT39" s="21"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29287,14 +29383,15 @@
       <c r="CM40" s="3"/>
       <c r="CN40" s="3"/>
       <c r="CO40" s="3"/>
-      <c r="CP40" s="3"/>
-      <c r="CQ40" s="3"/>
-      <c r="CR40" s="3"/>
-      <c r="CS40" s="3"/>
+      <c r="CP40" s="21"/>
+      <c r="CQ40" s="21"/>
+      <c r="CR40" s="21"/>
+      <c r="CS40" s="21"/>
+      <c r="CT40" s="21"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29388,10 +29485,11 @@
       <c r="CM41" s="3"/>
       <c r="CN41" s="3"/>
       <c r="CO41" s="3"/>
-      <c r="CP41" s="3"/>
-      <c r="CQ41" s="3"/>
-      <c r="CR41" s="3"/>
-      <c r="CS41" s="3"/>
+      <c r="CP41" s="21"/>
+      <c r="CQ41" s="21"/>
+      <c r="CR41" s="21"/>
+      <c r="CS41" s="21"/>
+      <c r="CT41" s="21"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29487,10 +29585,11 @@
       <c r="CM42" s="3"/>
       <c r="CN42" s="3"/>
       <c r="CO42" s="3"/>
-      <c r="CP42" s="3"/>
-      <c r="CQ42" s="3"/>
-      <c r="CR42" s="3"/>
-      <c r="CS42" s="3"/>
+      <c r="CP42" s="21"/>
+      <c r="CQ42" s="21"/>
+      <c r="CR42" s="21"/>
+      <c r="CS42" s="21"/>
+      <c r="CT42" s="21"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29588,14 +29687,15 @@
       <c r="CM43" s="3"/>
       <c r="CN43" s="3"/>
       <c r="CO43" s="3"/>
-      <c r="CP43" s="3"/>
-      <c r="CQ43" s="3"/>
-      <c r="CR43" s="3"/>
-      <c r="CS43" s="3"/>
+      <c r="CP43" s="21"/>
+      <c r="CQ43" s="21"/>
+      <c r="CR43" s="21"/>
+      <c r="CS43" s="21"/>
+      <c r="CT43" s="21"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29677,6 +29777,11 @@
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
+      <c r="CP44" s="20"/>
+      <c r="CQ44" s="20"/>
+      <c r="CR44" s="20"/>
+      <c r="CS44" s="20"/>
+      <c r="CT44" s="20"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -29762,6 +29867,11 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
+      <c r="CP45" s="20"/>
+      <c r="CQ45" s="20"/>
+      <c r="CR45" s="20"/>
+      <c r="CS45" s="20"/>
+      <c r="CT45" s="20"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -29857,155 +29967,159 @@
       <c r="CM46" s="3"/>
       <c r="CN46" s="3"/>
       <c r="CO46" s="3"/>
-      <c r="CP46" s="3"/>
-      <c r="CQ46" s="3"/>
-      <c r="CR46" s="3"/>
-      <c r="CS46" s="3"/>
+      <c r="CP46" s="21"/>
+      <c r="CQ46" s="21"/>
+      <c r="CR46" s="21"/>
+      <c r="CS46" s="21"/>
+      <c r="CT46" s="21"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22" t="s">
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22" t="s">
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22" t="s">
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22" t="s">
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22" t="s">
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22" t="s">
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22" t="s">
+      <c r="AE47" s="33"/>
+      <c r="AF47" s="33"/>
+      <c r="AG47" s="33"/>
+      <c r="AH47" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22" t="s">
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="33"/>
+      <c r="AL47" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22" t="s">
+      <c r="AM47" s="33"/>
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22" t="s">
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="33"/>
+      <c r="AS47" s="33"/>
+      <c r="AT47" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22" t="s">
+      <c r="AU47" s="33"/>
+      <c r="AV47" s="33"/>
+      <c r="AW47" s="33"/>
+      <c r="AX47" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22" t="s">
+      <c r="AY47" s="33"/>
+      <c r="AZ47" s="33"/>
+      <c r="BA47" s="33"/>
+      <c r="BB47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22" t="s">
+      <c r="BC47" s="33"/>
+      <c r="BD47" s="33"/>
+      <c r="BE47" s="33"/>
+      <c r="BF47" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22" t="s">
+      <c r="BG47" s="33"/>
+      <c r="BH47" s="33"/>
+      <c r="BI47" s="33"/>
+      <c r="BJ47" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22" t="s">
+      <c r="BK47" s="33"/>
+      <c r="BL47" s="33"/>
+      <c r="BM47" s="33"/>
+      <c r="BN47" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22" t="s">
+      <c r="BO47" s="33"/>
+      <c r="BP47" s="33"/>
+      <c r="BQ47" s="33"/>
+      <c r="BR47" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22" t="s">
+      <c r="BS47" s="33"/>
+      <c r="BT47" s="33"/>
+      <c r="BU47" s="33"/>
+      <c r="BV47" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22" t="s">
+      <c r="BW47" s="33"/>
+      <c r="BX47" s="33"/>
+      <c r="BY47" s="33"/>
+      <c r="BZ47" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22" t="s">
+      <c r="CA47" s="33"/>
+      <c r="CB47" s="33"/>
+      <c r="CC47" s="33"/>
+      <c r="CD47" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="22"/>
-      <c r="CF47" s="22"/>
-      <c r="CG47" s="22"/>
-      <c r="CH47" s="22" t="s">
+      <c r="CE47" s="33"/>
+      <c r="CF47" s="33"/>
+      <c r="CG47" s="33"/>
+      <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="22"/>
-      <c r="CJ47" s="22"/>
-      <c r="CK47" s="22"/>
-      <c r="CL47" s="21" t="s">
+      <c r="CI47" s="19"/>
+      <c r="CJ47" s="19"/>
+      <c r="CK47" s="19"/>
+      <c r="CL47" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="21"/>
-      <c r="CN47" s="21"/>
-      <c r="CO47" s="21"/>
-      <c r="CP47" s="20"/>
-      <c r="CQ47" s="20"/>
-      <c r="CR47" s="20"/>
-      <c r="CS47" s="20"/>
+      <c r="CM47" s="19"/>
+      <c r="CN47" s="19"/>
+      <c r="CO47" s="19"/>
+      <c r="CP47" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ47" s="28"/>
+      <c r="CR47" s="28"/>
+      <c r="CS47" s="28"/>
+      <c r="CT47" s="28"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30287,10 +30401,13 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="5"/>
-      <c r="CQ48" s="5"/>
-      <c r="CR48" s="5"/>
-      <c r="CS48" s="5"/>
+      <c r="CP48" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ48" s="29"/>
+      <c r="CR48" s="29"/>
+      <c r="CS48" s="29"/>
+      <c r="CT48" s="29"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30386,10 +30503,11 @@
       <c r="CM49" s="3"/>
       <c r="CN49" s="3"/>
       <c r="CO49" s="3"/>
-      <c r="CP49" s="3"/>
-      <c r="CQ49" s="3"/>
-      <c r="CR49" s="3"/>
-      <c r="CS49" s="3"/>
+      <c r="CP49" s="21"/>
+      <c r="CQ49" s="21"/>
+      <c r="CR49" s="21"/>
+      <c r="CS49" s="21"/>
+      <c r="CT49" s="21"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30648,34 +30766,36 @@
         <v>11.740105237264075</v>
       </c>
       <c r="CH50" s="12">
-        <v>13.367912830125547</v>
+        <v>12.519246823301188</v>
       </c>
       <c r="CI50" s="12">
-        <v>9.3626839112412199</v>
+        <v>8.4393527943808806</v>
       </c>
       <c r="CJ50" s="12">
-        <v>7.3929024296293164</v>
+        <v>6.5889650244942572</v>
       </c>
       <c r="CK50" s="12">
-        <v>15.804186939397653</v>
+        <v>14.937283117584684</v>
       </c>
       <c r="CL50" s="12">
         <v>8.9045740817916794</v>
       </c>
       <c r="CM50" s="12">
-        <v>9.6470243321747233</v>
+        <v>9.6472388899466921</v>
       </c>
       <c r="CN50" s="12">
         <v>8.4992849367631891</v>
       </c>
       <c r="CO50" s="12">
-        <v>11.155047143873787</v>
-      </c>
-      <c r="CP50" s="12"/>
-      <c r="CQ50" s="12"/>
-      <c r="CR50" s="12"/>
-      <c r="CS50" s="12"/>
-      <c r="CT50" s="17"/>
+        <v>11.181952903747458</v>
+      </c>
+      <c r="CP50" s="30">
+        <v>3.7021790060269808</v>
+      </c>
+      <c r="CQ50" s="30"/>
+      <c r="CR50" s="30"/>
+      <c r="CS50" s="30"/>
+      <c r="CT50" s="30"/>
       <c r="CU50" s="17"/>
       <c r="CV50" s="17"/>
       <c r="CW50" s="17"/>
@@ -30987,34 +31107,36 @@
         <v>4.4890441753529871</v>
       </c>
       <c r="CH51" s="12">
-        <v>10.454411629975269</v>
+        <v>10.387413896354289</v>
       </c>
       <c r="CI51" s="12">
-        <v>7.3373506852746857</v>
+        <v>8.0030915244133354</v>
       </c>
       <c r="CJ51" s="12">
-        <v>13.10001887358743</v>
+        <v>14.113986687441169</v>
       </c>
       <c r="CK51" s="12">
-        <v>8.8656599021623492</v>
+        <v>9.3458251903547591</v>
       </c>
       <c r="CL51" s="12">
-        <v>13.888840521205779</v>
+        <v>14.951468621725141</v>
       </c>
       <c r="CM51" s="12">
-        <v>14.998689146700968</v>
+        <v>14.563484354497419</v>
       </c>
       <c r="CN51" s="12">
-        <v>13.171301887369239</v>
+        <v>12.53683547790105</v>
       </c>
       <c r="CO51" s="12">
-        <v>13.85400037449142</v>
-      </c>
-      <c r="CP51" s="12"/>
-      <c r="CQ51" s="12"/>
-      <c r="CR51" s="12"/>
-      <c r="CS51" s="12"/>
-      <c r="CT51" s="17"/>
+        <v>14.304083598147272</v>
+      </c>
+      <c r="CP51" s="30">
+        <v>17.9565502932181</v>
+      </c>
+      <c r="CQ51" s="30"/>
+      <c r="CR51" s="30"/>
+      <c r="CS51" s="30"/>
+      <c r="CT51" s="30"/>
       <c r="CU51" s="17"/>
       <c r="CV51" s="17"/>
       <c r="CW51" s="17"/>
@@ -31163,11 +31285,11 @@
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
-      <c r="CP52" s="11"/>
-      <c r="CQ52" s="11"/>
-      <c r="CR52" s="11"/>
-      <c r="CS52" s="11"/>
-      <c r="CT52" s="17"/>
+      <c r="CP52" s="25"/>
+      <c r="CQ52" s="25"/>
+      <c r="CR52" s="25"/>
+      <c r="CS52" s="25"/>
+      <c r="CT52" s="25"/>
       <c r="CU52" s="17"/>
       <c r="CV52" s="17"/>
       <c r="CW52" s="17"/>
@@ -31479,34 +31601,36 @@
         <v>9.3717395669498558</v>
       </c>
       <c r="CH53" s="12">
-        <v>12.505109341496691</v>
+        <v>11.887926374060001</v>
       </c>
       <c r="CI53" s="12">
-        <v>8.8165606103059417</v>
+        <v>8.3217166238138418</v>
       </c>
       <c r="CJ53" s="12">
-        <v>9.1742598085008353</v>
+        <v>8.9377436059527895</v>
       </c>
       <c r="CK53" s="12">
-        <v>13.639076187838199</v>
+        <v>13.192514291265951</v>
       </c>
       <c r="CL53" s="12">
-        <v>10.353708800800575</v>
+        <v>10.671284700872306</v>
       </c>
       <c r="CM53" s="12">
-        <v>11.070463791642666</v>
+        <v>10.968986187478563</v>
       </c>
       <c r="CN53" s="12">
-        <v>10.009995112311671</v>
+        <v>9.8194030733779698</v>
       </c>
       <c r="CO53" s="12">
-        <v>11.961857391052462</v>
-      </c>
-      <c r="CP53" s="12"/>
-      <c r="CQ53" s="12"/>
-      <c r="CR53" s="12"/>
-      <c r="CS53" s="12"/>
-      <c r="CT53" s="17"/>
+        <v>12.123080287688339</v>
+      </c>
+      <c r="CP53" s="30">
+        <v>8.0279215175093981</v>
+      </c>
+      <c r="CQ53" s="30"/>
+      <c r="CR53" s="30"/>
+      <c r="CS53" s="30"/>
+      <c r="CT53" s="30"/>
       <c r="CU53" s="17"/>
       <c r="CV53" s="17"/>
       <c r="CW53" s="17"/>
@@ -31655,10 +31779,11 @@
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
-      <c r="CP54" s="9"/>
-      <c r="CQ54" s="9"/>
-      <c r="CR54" s="9"/>
-      <c r="CS54" s="9"/>
+      <c r="CP54" s="27"/>
+      <c r="CQ54" s="27"/>
+      <c r="CR54" s="27"/>
+      <c r="CS54" s="27"/>
+      <c r="CT54" s="27"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -31756,10 +31881,11 @@
       <c r="CM55" s="3"/>
       <c r="CN55" s="3"/>
       <c r="CO55" s="3"/>
-      <c r="CP55" s="3"/>
-      <c r="CQ55" s="3"/>
-      <c r="CR55" s="3"/>
-      <c r="CS55" s="3"/>
+      <c r="CP55" s="21"/>
+      <c r="CQ55" s="21"/>
+      <c r="CR55" s="21"/>
+      <c r="CS55" s="21"/>
+      <c r="CT55" s="21"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -31854,11 +31980,11 @@
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
-      <c r="CP56" s="11"/>
-      <c r="CQ56" s="11"/>
-      <c r="CR56" s="11"/>
-      <c r="CS56" s="11"/>
-      <c r="CT56" s="17"/>
+      <c r="CP56" s="25"/>
+      <c r="CQ56" s="25"/>
+      <c r="CR56" s="25"/>
+      <c r="CS56" s="25"/>
+      <c r="CT56" s="25"/>
       <c r="CU56" s="17"/>
       <c r="CV56" s="17"/>
       <c r="CW56" s="17"/>
@@ -32006,11 +32132,11 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="11"/>
-      <c r="CS57" s="11"/>
-      <c r="CT57" s="17"/>
+      <c r="CP57" s="25"/>
+      <c r="CQ57" s="25"/>
+      <c r="CR57" s="25"/>
+      <c r="CS57" s="25"/>
+      <c r="CT57" s="25"/>
       <c r="CU57" s="17"/>
       <c r="CV57" s="17"/>
       <c r="CW57" s="17"/>
@@ -32161,10 +32287,11 @@
       <c r="CM58" s="3"/>
       <c r="CN58" s="3"/>
       <c r="CO58" s="3"/>
-      <c r="CP58" s="3"/>
-      <c r="CQ58" s="3"/>
-      <c r="CR58" s="3"/>
-      <c r="CS58" s="3"/>
+      <c r="CP58" s="21"/>
+      <c r="CQ58" s="21"/>
+      <c r="CR58" s="21"/>
+      <c r="CS58" s="21"/>
+      <c r="CT58" s="21"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32262,14 +32389,15 @@
       <c r="CM59" s="3"/>
       <c r="CN59" s="3"/>
       <c r="CO59" s="3"/>
-      <c r="CP59" s="3"/>
-      <c r="CQ59" s="3"/>
-      <c r="CR59" s="3"/>
-      <c r="CS59" s="3"/>
+      <c r="CP59" s="21"/>
+      <c r="CQ59" s="21"/>
+      <c r="CR59" s="21"/>
+      <c r="CS59" s="21"/>
+      <c r="CT59" s="21"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32363,10 +32491,11 @@
       <c r="CM60" s="3"/>
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
-      <c r="CP60" s="3"/>
-      <c r="CQ60" s="3"/>
-      <c r="CR60" s="3"/>
-      <c r="CS60" s="3"/>
+      <c r="CP60" s="21"/>
+      <c r="CQ60" s="21"/>
+      <c r="CR60" s="21"/>
+      <c r="CS60" s="21"/>
+      <c r="CT60" s="21"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32462,10 +32591,11 @@
       <c r="CM61" s="3"/>
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
-      <c r="CP61" s="3"/>
-      <c r="CQ61" s="3"/>
-      <c r="CR61" s="3"/>
-      <c r="CS61" s="3"/>
+      <c r="CP61" s="21"/>
+      <c r="CQ61" s="21"/>
+      <c r="CR61" s="21"/>
+      <c r="CS61" s="21"/>
+      <c r="CT61" s="21"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32563,14 +32693,15 @@
       <c r="CM62" s="3"/>
       <c r="CN62" s="3"/>
       <c r="CO62" s="3"/>
-      <c r="CP62" s="3"/>
-      <c r="CQ62" s="3"/>
-      <c r="CR62" s="3"/>
-      <c r="CS62" s="3"/>
+      <c r="CP62" s="21"/>
+      <c r="CQ62" s="21"/>
+      <c r="CR62" s="21"/>
+      <c r="CS62" s="21"/>
+      <c r="CT62" s="21"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32664,10 +32795,11 @@
       <c r="CM63" s="3"/>
       <c r="CN63" s="3"/>
       <c r="CO63" s="3"/>
-      <c r="CP63" s="3"/>
-      <c r="CQ63" s="3"/>
-      <c r="CR63" s="3"/>
-      <c r="CS63" s="3"/>
+      <c r="CP63" s="21"/>
+      <c r="CQ63" s="21"/>
+      <c r="CR63" s="21"/>
+      <c r="CS63" s="21"/>
+      <c r="CT63" s="21"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -32765,10 +32897,11 @@
       <c r="CM64" s="3"/>
       <c r="CN64" s="3"/>
       <c r="CO64" s="3"/>
-      <c r="CP64" s="3"/>
-      <c r="CQ64" s="3"/>
-      <c r="CR64" s="3"/>
-      <c r="CS64" s="3"/>
+      <c r="CP64" s="21"/>
+      <c r="CQ64" s="21"/>
+      <c r="CR64" s="21"/>
+      <c r="CS64" s="21"/>
+      <c r="CT64" s="21"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -32864,155 +32997,159 @@
       <c r="CM65" s="3"/>
       <c r="CN65" s="3"/>
       <c r="CO65" s="3"/>
-      <c r="CP65" s="3"/>
-      <c r="CQ65" s="3"/>
-      <c r="CR65" s="3"/>
-      <c r="CS65" s="3"/>
+      <c r="CP65" s="21"/>
+      <c r="CQ65" s="21"/>
+      <c r="CR65" s="21"/>
+      <c r="CS65" s="21"/>
+      <c r="CT65" s="21"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22" t="s">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22" t="s">
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22" t="s">
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22" t="s">
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22" t="s">
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22" t="s">
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22" t="s">
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
+      <c r="AD66" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22" t="s">
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="33"/>
+      <c r="AG66" s="33"/>
+      <c r="AH66" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="22" t="s">
+      <c r="AI66" s="33"/>
+      <c r="AJ66" s="33"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="22" t="s">
+      <c r="AM66" s="33"/>
+      <c r="AN66" s="33"/>
+      <c r="AO66" s="33"/>
+      <c r="AP66" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="22"/>
-      <c r="AR66" s="22"/>
-      <c r="AS66" s="22"/>
-      <c r="AT66" s="22" t="s">
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="33"/>
+      <c r="AS66" s="33"/>
+      <c r="AT66" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="22"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="22"/>
-      <c r="AX66" s="22" t="s">
+      <c r="AU66" s="33"/>
+      <c r="AV66" s="33"/>
+      <c r="AW66" s="33"/>
+      <c r="AX66" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="22"/>
-      <c r="AZ66" s="22"/>
-      <c r="BA66" s="22"/>
-      <c r="BB66" s="22" t="s">
+      <c r="AY66" s="33"/>
+      <c r="AZ66" s="33"/>
+      <c r="BA66" s="33"/>
+      <c r="BB66" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="22"/>
-      <c r="BD66" s="22"/>
-      <c r="BE66" s="22"/>
-      <c r="BF66" s="22" t="s">
+      <c r="BC66" s="33"/>
+      <c r="BD66" s="33"/>
+      <c r="BE66" s="33"/>
+      <c r="BF66" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="22"/>
-      <c r="BH66" s="22"/>
-      <c r="BI66" s="22"/>
-      <c r="BJ66" s="22" t="s">
+      <c r="BG66" s="33"/>
+      <c r="BH66" s="33"/>
+      <c r="BI66" s="33"/>
+      <c r="BJ66" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="22"/>
-      <c r="BL66" s="22"/>
-      <c r="BM66" s="22"/>
-      <c r="BN66" s="22" t="s">
+      <c r="BK66" s="33"/>
+      <c r="BL66" s="33"/>
+      <c r="BM66" s="33"/>
+      <c r="BN66" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="22"/>
-      <c r="BP66" s="22"/>
-      <c r="BQ66" s="22"/>
-      <c r="BR66" s="22" t="s">
+      <c r="BO66" s="33"/>
+      <c r="BP66" s="33"/>
+      <c r="BQ66" s="33"/>
+      <c r="BR66" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="22"/>
-      <c r="BT66" s="22"/>
-      <c r="BU66" s="22"/>
-      <c r="BV66" s="22" t="s">
+      <c r="BS66" s="33"/>
+      <c r="BT66" s="33"/>
+      <c r="BU66" s="33"/>
+      <c r="BV66" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="22"/>
-      <c r="BX66" s="22"/>
-      <c r="BY66" s="22"/>
-      <c r="BZ66" s="22" t="s">
+      <c r="BW66" s="33"/>
+      <c r="BX66" s="33"/>
+      <c r="BY66" s="33"/>
+      <c r="BZ66" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="22"/>
-      <c r="CB66" s="22"/>
-      <c r="CC66" s="22"/>
-      <c r="CD66" s="22" t="s">
+      <c r="CA66" s="33"/>
+      <c r="CB66" s="33"/>
+      <c r="CC66" s="33"/>
+      <c r="CD66" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="22"/>
-      <c r="CF66" s="22"/>
-      <c r="CG66" s="22"/>
-      <c r="CH66" s="22" t="s">
+      <c r="CE66" s="33"/>
+      <c r="CF66" s="33"/>
+      <c r="CG66" s="33"/>
+      <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="22"/>
-      <c r="CJ66" s="22"/>
-      <c r="CK66" s="22"/>
-      <c r="CL66" s="21" t="s">
+      <c r="CI66" s="19"/>
+      <c r="CJ66" s="19"/>
+      <c r="CK66" s="19"/>
+      <c r="CL66" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="21"/>
-      <c r="CN66" s="21"/>
-      <c r="CO66" s="21"/>
-      <c r="CP66" s="20"/>
-      <c r="CQ66" s="20"/>
-      <c r="CR66" s="20"/>
-      <c r="CS66" s="20"/>
+      <c r="CM66" s="19"/>
+      <c r="CN66" s="19"/>
+      <c r="CO66" s="19"/>
+      <c r="CP66" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ66" s="28"/>
+      <c r="CR66" s="28"/>
+      <c r="CS66" s="28"/>
+      <c r="CT66" s="28"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33294,10 +33431,13 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="5"/>
-      <c r="CQ67" s="5"/>
-      <c r="CR67" s="5"/>
-      <c r="CS67" s="5"/>
+      <c r="CP67" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ67" s="29"/>
+      <c r="CR67" s="29"/>
+      <c r="CS67" s="29"/>
+      <c r="CT67" s="29"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33393,10 +33533,11 @@
       <c r="CM68" s="3"/>
       <c r="CN68" s="3"/>
       <c r="CO68" s="3"/>
-      <c r="CP68" s="3"/>
-      <c r="CQ68" s="3"/>
-      <c r="CR68" s="3"/>
-      <c r="CS68" s="3"/>
+      <c r="CP68" s="21"/>
+      <c r="CQ68" s="21"/>
+      <c r="CR68" s="21"/>
+      <c r="CS68" s="21"/>
+      <c r="CT68" s="21"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33655,34 +33796,36 @@
         <v>8.9551298439811262</v>
       </c>
       <c r="CH69" s="12">
-        <v>8.032817686031521</v>
+        <v>7.2240899102192486</v>
       </c>
       <c r="CI69" s="12">
-        <v>4.5600803444950202</v>
+        <v>3.6940521842381315</v>
       </c>
       <c r="CJ69" s="12">
-        <v>3.0281076537770133</v>
+        <v>2.256844864064945</v>
       </c>
       <c r="CK69" s="12">
-        <v>12.082243256871521</v>
+        <v>11.243201702289412</v>
       </c>
       <c r="CL69" s="12">
-        <v>4.9915013343150321</v>
+        <v>4.9915013343150036</v>
       </c>
       <c r="CM69" s="12">
-        <v>5.2263007550360214</v>
+        <v>5.2263007550360072</v>
       </c>
       <c r="CN69" s="12">
         <v>4.9814191127157841</v>
       </c>
       <c r="CO69" s="12">
-        <v>7.2224800437344072</v>
-      </c>
-      <c r="CP69" s="12"/>
-      <c r="CQ69" s="12"/>
-      <c r="CR69" s="12"/>
-      <c r="CS69" s="12"/>
-      <c r="CT69" s="17"/>
+        <v>7.2224800437344214</v>
+      </c>
+      <c r="CP69" s="30">
+        <v>0.62225790178607099</v>
+      </c>
+      <c r="CQ69" s="30"/>
+      <c r="CR69" s="30"/>
+      <c r="CS69" s="30"/>
+      <c r="CT69" s="30"/>
       <c r="CU69" s="17"/>
       <c r="CV69" s="17"/>
       <c r="CW69" s="17"/>
@@ -33994,34 +34137,36 @@
         <v>4.5768811051656115</v>
       </c>
       <c r="CH70" s="12">
-        <v>9.8367727951385291</v>
+        <v>9.7701496993569918</v>
       </c>
       <c r="CI70" s="12">
-        <v>8.1740693238248525</v>
+        <v>8.8449997615980465</v>
       </c>
       <c r="CJ70" s="12">
-        <v>12.467586335617668</v>
+        <v>13.475884245572885</v>
       </c>
       <c r="CK70" s="12">
-        <v>5.9595037905697694</v>
+        <v>6.4268511223183822</v>
       </c>
       <c r="CL70" s="12">
-        <v>10.248949769825217</v>
+        <v>10.948241610702624</v>
       </c>
       <c r="CM70" s="12">
-        <v>11.128662530999449</v>
+        <v>10.708103593819175</v>
       </c>
       <c r="CN70" s="12">
-        <v>9.4433060604911532</v>
+        <v>8.8297397209819337</v>
       </c>
       <c r="CO70" s="12">
-        <v>9.3601452822072275</v>
-      </c>
-      <c r="CP70" s="12"/>
-      <c r="CQ70" s="12"/>
-      <c r="CR70" s="12"/>
-      <c r="CS70" s="12"/>
-      <c r="CT70" s="17"/>
+        <v>9.769839053307507</v>
+      </c>
+      <c r="CP70" s="30">
+        <v>12.919641092846959</v>
+      </c>
+      <c r="CQ70" s="30"/>
+      <c r="CR70" s="30"/>
+      <c r="CS70" s="30"/>
+      <c r="CT70" s="30"/>
       <c r="CU70" s="17"/>
       <c r="CV70" s="17"/>
       <c r="CW70" s="17"/>
@@ -34169,11 +34314,11 @@
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
-      <c r="CP71" s="11"/>
-      <c r="CQ71" s="11"/>
-      <c r="CR71" s="11"/>
-      <c r="CS71" s="11"/>
-      <c r="CT71" s="17"/>
+      <c r="CP71" s="25"/>
+      <c r="CQ71" s="25"/>
+      <c r="CR71" s="25"/>
+      <c r="CS71" s="25"/>
+      <c r="CT71" s="25"/>
       <c r="CU71" s="17"/>
       <c r="CV71" s="17"/>
       <c r="CW71" s="17"/>
@@ -34485,34 +34630,36 @@
         <v>7.4445819424762618</v>
       </c>
       <c r="CH72" s="12">
-        <v>8.582884126201364</v>
+        <v>8.0004407393503953</v>
       </c>
       <c r="CI72" s="12">
-        <v>5.5450103550372063</v>
+        <v>5.0978536016436777</v>
       </c>
       <c r="CJ72" s="12">
-        <v>5.928440298927498</v>
+        <v>5.703957492012691</v>
       </c>
       <c r="CK72" s="12">
-        <v>10.026205833215911</v>
+        <v>9.6258542563679299</v>
       </c>
       <c r="CL72" s="12">
-        <v>6.613127846599582</v>
+        <v>6.8376081106203088</v>
       </c>
       <c r="CM72" s="12">
-        <v>6.8749559393035327</v>
+        <v>6.7735368708146524</v>
       </c>
       <c r="CN72" s="12">
-        <v>6.4369893281008643</v>
+        <v>6.2507749240900949</v>
       </c>
       <c r="CO72" s="12">
-        <v>7.9137834702201104</v>
-      </c>
-      <c r="CP72" s="12"/>
-      <c r="CQ72" s="12"/>
-      <c r="CR72" s="12"/>
-      <c r="CS72" s="12"/>
-      <c r="CT72" s="17"/>
+        <v>8.052930281622622</v>
+      </c>
+      <c r="CP72" s="30">
+        <v>4.5800878011351074</v>
+      </c>
+      <c r="CQ72" s="30"/>
+      <c r="CR72" s="30"/>
+      <c r="CS72" s="30"/>
+      <c r="CT72" s="30"/>
       <c r="CU72" s="17"/>
       <c r="CV72" s="17"/>
       <c r="CW72" s="17"/>
@@ -34661,10 +34808,11 @@
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
-      <c r="CP73" s="9"/>
-      <c r="CQ73" s="9"/>
-      <c r="CR73" s="9"/>
-      <c r="CS73" s="9"/>
+      <c r="CP73" s="27"/>
+      <c r="CQ73" s="27"/>
+      <c r="CR73" s="27"/>
+      <c r="CS73" s="27"/>
+      <c r="CT73" s="27"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -34762,10 +34910,11 @@
       <c r="CM74" s="3"/>
       <c r="CN74" s="3"/>
       <c r="CO74" s="3"/>
-      <c r="CP74" s="3"/>
-      <c r="CQ74" s="3"/>
-      <c r="CR74" s="3"/>
-      <c r="CS74" s="3"/>
+      <c r="CP74" s="21"/>
+      <c r="CQ74" s="21"/>
+      <c r="CR74" s="21"/>
+      <c r="CS74" s="21"/>
+      <c r="CT74" s="21"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -34860,11 +35009,11 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="17"/>
       <c r="CO75" s="17"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="17"/>
-      <c r="CS75" s="17"/>
-      <c r="CT75" s="17"/>
+      <c r="CP75" s="25"/>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="31"/>
+      <c r="CS75" s="31"/>
+      <c r="CT75" s="25"/>
       <c r="CU75" s="17"/>
       <c r="CV75" s="17"/>
       <c r="CW75" s="17"/>
@@ -35012,11 +35161,11 @@
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="17"/>
-      <c r="CQ76" s="17"/>
-      <c r="CR76" s="17"/>
-      <c r="CS76" s="17"/>
-      <c r="CT76" s="17"/>
+      <c r="CP76" s="31"/>
+      <c r="CQ76" s="31"/>
+      <c r="CR76" s="31"/>
+      <c r="CS76" s="31"/>
+      <c r="CT76" s="31"/>
       <c r="CU76" s="17"/>
       <c r="CV76" s="17"/>
       <c r="CW76" s="17"/>
@@ -35155,10 +35304,15 @@
       <c r="CA77" s="3"/>
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
+      <c r="CP77" s="20"/>
+      <c r="CQ77" s="20"/>
+      <c r="CR77" s="20"/>
+      <c r="CS77" s="20"/>
+      <c r="CT77" s="20"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -35240,6 +35394,11 @@
       <c r="CA78" s="3"/>
       <c r="CB78" s="3"/>
       <c r="CC78" s="3"/>
+      <c r="CP78" s="20"/>
+      <c r="CQ78" s="20"/>
+      <c r="CR78" s="20"/>
+      <c r="CS78" s="20"/>
+      <c r="CT78" s="20"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35323,6 +35482,11 @@
       <c r="CA79" s="3"/>
       <c r="CB79" s="3"/>
       <c r="CC79" s="3"/>
+      <c r="CP79" s="20"/>
+      <c r="CQ79" s="20"/>
+      <c r="CR79" s="20"/>
+      <c r="CS79" s="20"/>
+      <c r="CT79" s="20"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35408,10 +35572,15 @@
       <c r="CA80" s="3"/>
       <c r="CB80" s="3"/>
       <c r="CC80" s="3"/>
+      <c r="CP80" s="20"/>
+      <c r="CQ80" s="20"/>
+      <c r="CR80" s="20"/>
+      <c r="CS80" s="20"/>
+      <c r="CT80" s="20"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35493,6 +35662,11 @@
       <c r="CA81" s="3"/>
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
+      <c r="CP81" s="20"/>
+      <c r="CQ81" s="20"/>
+      <c r="CR81" s="20"/>
+      <c r="CS81" s="20"/>
+      <c r="CT81" s="20"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -35578,6 +35752,11 @@
       <c r="CA82" s="3"/>
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
+      <c r="CP82" s="20"/>
+      <c r="CQ82" s="20"/>
+      <c r="CR82" s="20"/>
+      <c r="CS82" s="20"/>
+      <c r="CT82" s="20"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -35661,153 +35840,161 @@
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
+      <c r="CP83" s="20"/>
+      <c r="CQ83" s="20"/>
+      <c r="CR83" s="20"/>
+      <c r="CS83" s="20"/>
+      <c r="CT83" s="20"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="22">
+      <c r="B84" s="33">
         <v>2000</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="22">
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="33">
         <v>2001</v>
       </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="22">
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="33">
         <v>2002</v>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="22">
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="33">
         <v>2003</v>
       </c>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="22">
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="33">
         <v>2004</v>
       </c>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="22">
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="33">
         <v>2005</v>
       </c>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="22">
+      <c r="W84" s="34"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="33">
         <v>2006</v>
       </c>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="23"/>
-      <c r="AD84" s="22">
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="34"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="33">
         <v>2007</v>
       </c>
-      <c r="AE84" s="23"/>
-      <c r="AF84" s="23"/>
-      <c r="AG84" s="23"/>
-      <c r="AH84" s="22">
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="34"/>
+      <c r="AG84" s="34"/>
+      <c r="AH84" s="33">
         <v>2008</v>
       </c>
-      <c r="AI84" s="23"/>
-      <c r="AJ84" s="23"/>
-      <c r="AK84" s="23"/>
-      <c r="AL84" s="22">
+      <c r="AI84" s="34"/>
+      <c r="AJ84" s="34"/>
+      <c r="AK84" s="34"/>
+      <c r="AL84" s="33">
         <v>2009</v>
       </c>
-      <c r="AM84" s="23"/>
-      <c r="AN84" s="23"/>
-      <c r="AO84" s="23"/>
-      <c r="AP84" s="22">
+      <c r="AM84" s="34"/>
+      <c r="AN84" s="34"/>
+      <c r="AO84" s="34"/>
+      <c r="AP84" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="23"/>
-      <c r="AR84" s="23"/>
-      <c r="AS84" s="23"/>
-      <c r="AT84" s="22">
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="34"/>
+      <c r="AS84" s="34"/>
+      <c r="AT84" s="33">
         <v>2011</v>
       </c>
-      <c r="AU84" s="23"/>
-      <c r="AV84" s="23"/>
-      <c r="AW84" s="23"/>
-      <c r="AX84" s="22">
+      <c r="AU84" s="34"/>
+      <c r="AV84" s="34"/>
+      <c r="AW84" s="34"/>
+      <c r="AX84" s="33">
         <v>2012</v>
       </c>
-      <c r="AY84" s="23"/>
-      <c r="AZ84" s="23"/>
-      <c r="BA84" s="23"/>
-      <c r="BB84" s="22">
+      <c r="AY84" s="34"/>
+      <c r="AZ84" s="34"/>
+      <c r="BA84" s="34"/>
+      <c r="BB84" s="33">
         <v>2013</v>
       </c>
-      <c r="BC84" s="23"/>
-      <c r="BD84" s="23"/>
-      <c r="BE84" s="23"/>
-      <c r="BF84" s="22">
+      <c r="BC84" s="34"/>
+      <c r="BD84" s="34"/>
+      <c r="BE84" s="34"/>
+      <c r="BF84" s="33">
         <v>2014</v>
       </c>
-      <c r="BG84" s="23"/>
-      <c r="BH84" s="23"/>
-      <c r="BI84" s="23"/>
-      <c r="BJ84" s="22">
+      <c r="BG84" s="34"/>
+      <c r="BH84" s="34"/>
+      <c r="BI84" s="34"/>
+      <c r="BJ84" s="33">
         <v>2015</v>
       </c>
-      <c r="BK84" s="23"/>
-      <c r="BL84" s="23"/>
-      <c r="BM84" s="23"/>
-      <c r="BN84" s="22">
+      <c r="BK84" s="34"/>
+      <c r="BL84" s="34"/>
+      <c r="BM84" s="34"/>
+      <c r="BN84" s="33">
         <v>2016</v>
       </c>
-      <c r="BO84" s="23"/>
-      <c r="BP84" s="23"/>
-      <c r="BQ84" s="23"/>
-      <c r="BR84" s="22">
+      <c r="BO84" s="34"/>
+      <c r="BP84" s="34"/>
+      <c r="BQ84" s="34"/>
+      <c r="BR84" s="33">
         <v>2017</v>
       </c>
-      <c r="BS84" s="23"/>
-      <c r="BT84" s="23"/>
-      <c r="BU84" s="23"/>
-      <c r="BV84" s="22">
+      <c r="BS84" s="34"/>
+      <c r="BT84" s="34"/>
+      <c r="BU84" s="34"/>
+      <c r="BV84" s="33">
         <v>2018</v>
       </c>
-      <c r="BW84" s="23"/>
-      <c r="BX84" s="23"/>
-      <c r="BY84" s="23"/>
-      <c r="BZ84" s="22">
+      <c r="BW84" s="34"/>
+      <c r="BX84" s="34"/>
+      <c r="BY84" s="34"/>
+      <c r="BZ84" s="33">
         <v>2019</v>
       </c>
-      <c r="CA84" s="23"/>
-      <c r="CB84" s="23"/>
-      <c r="CC84" s="23"/>
-      <c r="CD84" s="22">
+      <c r="CA84" s="34"/>
+      <c r="CB84" s="34"/>
+      <c r="CC84" s="34"/>
+      <c r="CD84" s="33">
         <v>2020</v>
       </c>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
-      <c r="CH84" s="22">
+      <c r="CE84" s="33"/>
+      <c r="CF84" s="33"/>
+      <c r="CG84" s="33"/>
+      <c r="CH84" s="19">
         <v>2021</v>
       </c>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="22"/>
-      <c r="CL84" s="21">
+      <c r="CI84" s="19"/>
+      <c r="CJ84" s="19"/>
+      <c r="CK84" s="19"/>
+      <c r="CL84" s="19">
         <v>2022</v>
       </c>
-      <c r="CM84" s="21"/>
-      <c r="CN84" s="21"/>
-      <c r="CO84" s="21"/>
-      <c r="CP84" s="21">
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
+      <c r="CP84" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="21"/>
-      <c r="CR84" s="21"/>
-      <c r="CS84" s="21"/>
+      <c r="CQ84" s="22"/>
+      <c r="CR84" s="22"/>
+      <c r="CS84" s="22"/>
+      <c r="CT84" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -36089,17 +36276,20 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="6" t="s">
+      <c r="CR85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="6" t="s">
+      <c r="CS85" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT85" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36184,6 +36374,11 @@
       <c r="CA86" s="3"/>
       <c r="CB86" s="3"/>
       <c r="CC86" s="3"/>
+      <c r="CP86" s="20"/>
+      <c r="CQ86" s="20"/>
+      <c r="CR86" s="20"/>
+      <c r="CS86" s="20"/>
+      <c r="CT86" s="20"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36454,10 +36649,10 @@
         <v>124.54738077603018</v>
       </c>
       <c r="CL87" s="12">
-        <v>106.31873751394872</v>
+        <v>106.31873751394869</v>
       </c>
       <c r="CM87" s="12">
-        <v>106.78871627269469</v>
+        <v>106.77146085633204</v>
       </c>
       <c r="CN87" s="12">
         <v>112.02202008486056</v>
@@ -36465,19 +36660,21 @@
       <c r="CO87" s="12">
         <v>128.683257464295</v>
       </c>
-      <c r="CP87" s="12">
+      <c r="CP87" s="30">
         <v>110.28127685308264</v>
       </c>
-      <c r="CQ87" s="12">
-        <v>111.27507940065517</v>
-      </c>
-      <c r="CR87" s="12">
+      <c r="CQ87" s="30">
+        <v>111.25731676529109</v>
+      </c>
+      <c r="CR87" s="30">
         <v>115.77581232093399</v>
       </c>
-      <c r="CS87" s="12">
-        <v>133.40293513297453</v>
-      </c>
-      <c r="CT87" s="17"/>
+      <c r="CS87" s="30">
+        <v>133.43522613038178</v>
+      </c>
+      <c r="CT87" s="30">
+        <v>113.65684841215035</v>
+      </c>
       <c r="CU87" s="17"/>
       <c r="CV87" s="17"/>
       <c r="CW87" s="17"/>
@@ -36801,30 +36998,32 @@
         <v>111.7369322217173</v>
       </c>
       <c r="CL88" s="12">
-        <v>97.715788312788192</v>
+        <v>97.715788312788206</v>
       </c>
       <c r="CM88" s="12">
-        <v>99.840252290607452</v>
+        <v>99.840252290607467</v>
       </c>
       <c r="CN88" s="12">
         <v>110.56546230442498</v>
       </c>
       <c r="CO88" s="12">
-        <v>114.8015461246719</v>
-      </c>
-      <c r="CP88" s="12">
-        <v>100.94189427466942</v>
-      </c>
-      <c r="CQ88" s="12">
-        <v>103.31716297128108</v>
-      </c>
-      <c r="CR88" s="12">
-        <v>114.33168243158305</v>
-      </c>
-      <c r="CS88" s="12">
-        <v>119.51900065367931</v>
-      </c>
-      <c r="CT88" s="17"/>
+        <v>114.80154612467186</v>
+      </c>
+      <c r="CP88" s="30">
+        <v>101.24156283159209</v>
+      </c>
+      <c r="CQ88" s="30">
+        <v>103.31716297128104</v>
+      </c>
+      <c r="CR88" s="30">
+        <v>114.33168243158303</v>
+      </c>
+      <c r="CS88" s="30">
+        <v>119.54363455938457</v>
+      </c>
+      <c r="CT88" s="30">
+        <v>105.75755805041413</v>
+      </c>
       <c r="CU88" s="17"/>
       <c r="CV88" s="17"/>
       <c r="CW88" s="17"/>
@@ -36972,11 +37171,11 @@
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
-      <c r="CP89" s="11"/>
-      <c r="CQ89" s="11"/>
-      <c r="CR89" s="11"/>
-      <c r="CS89" s="11"/>
-      <c r="CT89" s="17"/>
+      <c r="CP89" s="25"/>
+      <c r="CQ89" s="25"/>
+      <c r="CR89" s="25"/>
+      <c r="CS89" s="25"/>
+      <c r="CT89" s="25"/>
       <c r="CU89" s="17"/>
       <c r="CV89" s="17"/>
       <c r="CW89" s="17"/>
@@ -37300,30 +37499,32 @@
         <v>120.24558714485497</v>
       </c>
       <c r="CL90" s="12">
-        <v>103.66521258078684</v>
+        <v>103.65252040869257</v>
       </c>
       <c r="CM90" s="12">
-        <v>104.84786249219349</v>
+        <v>104.81513069739042</v>
       </c>
       <c r="CN90" s="12">
-        <v>111.54685741332615</v>
+        <v>111.54157932344712</v>
       </c>
       <c r="CO90" s="12">
-        <v>124.19402573527888</v>
-      </c>
-      <c r="CP90" s="12">
-        <v>107.30236428644572</v>
-      </c>
-      <c r="CQ90" s="12">
-        <v>108.96379429792722</v>
-      </c>
-      <c r="CR90" s="12">
-        <v>115.29139743897237</v>
-      </c>
-      <c r="CS90" s="12">
-        <v>128.85280592567878</v>
-      </c>
-      <c r="CT90" s="17"/>
+        <v>124.15775852953077</v>
+      </c>
+      <c r="CP90" s="30">
+        <v>107.37190582024149</v>
+      </c>
+      <c r="CQ90" s="30">
+        <v>108.93362842021526</v>
+      </c>
+      <c r="CR90" s="30">
+        <v>115.28790889209321</v>
+      </c>
+      <c r="CS90" s="30">
+        <v>128.83454702860234</v>
+      </c>
+      <c r="CT90" s="30">
+        <v>110.91178119099423</v>
+      </c>
       <c r="CU90" s="17"/>
       <c r="CV90" s="17"/>
       <c r="CW90" s="17"/>
@@ -37472,10 +37673,11 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
-      <c r="CR91" s="9"/>
-      <c r="CS91" s="9"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
+      <c r="CT91" s="27"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37561,6 +37763,11 @@
       <c r="CA92" s="3"/>
       <c r="CB92" s="3"/>
       <c r="CC92" s="3"/>
+      <c r="CP92" s="20"/>
+      <c r="CQ92" s="20"/>
+      <c r="CR92" s="20"/>
+      <c r="CS92" s="20"/>
+      <c r="CT92" s="20"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -37655,10 +37862,11 @@
       <c r="CM93" s="3"/>
       <c r="CN93" s="3"/>
       <c r="CO93" s="3"/>
-      <c r="CP93" s="3"/>
-      <c r="CQ93" s="3"/>
-      <c r="CR93" s="3"/>
-      <c r="CS93" s="3"/>
+      <c r="CP93" s="21"/>
+      <c r="CQ93" s="21"/>
+      <c r="CR93" s="21"/>
+      <c r="CS93" s="21"/>
+      <c r="CT93" s="21"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -37753,10 +37961,11 @@
       <c r="CM94" s="3"/>
       <c r="CN94" s="3"/>
       <c r="CO94" s="3"/>
-      <c r="CP94" s="3"/>
-      <c r="CQ94" s="3"/>
-      <c r="CR94" s="3"/>
-      <c r="CS94" s="3"/>
+      <c r="CP94" s="21"/>
+      <c r="CQ94" s="21"/>
+      <c r="CR94" s="21"/>
+      <c r="CS94" s="21"/>
+      <c r="CT94" s="21"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -37854,10 +38063,11 @@
       <c r="CM95" s="3"/>
       <c r="CN95" s="3"/>
       <c r="CO95" s="3"/>
-      <c r="CP95" s="3"/>
-      <c r="CQ95" s="3"/>
-      <c r="CR95" s="3"/>
-      <c r="CS95" s="3"/>
+      <c r="CP95" s="21"/>
+      <c r="CQ95" s="21"/>
+      <c r="CR95" s="21"/>
+      <c r="CS95" s="21"/>
+      <c r="CT95" s="21"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -37955,14 +38165,15 @@
       <c r="CM96" s="3"/>
       <c r="CN96" s="3"/>
       <c r="CO96" s="3"/>
-      <c r="CP96" s="3"/>
-      <c r="CQ96" s="3"/>
-      <c r="CR96" s="3"/>
-      <c r="CS96" s="3"/>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
+      <c r="CS96" s="21"/>
+      <c r="CT96" s="21"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -38056,10 +38267,11 @@
       <c r="CM97" s="3"/>
       <c r="CN97" s="3"/>
       <c r="CO97" s="3"/>
-      <c r="CP97" s="3"/>
-      <c r="CQ97" s="3"/>
-      <c r="CR97" s="3"/>
-      <c r="CS97" s="3"/>
+      <c r="CP97" s="21"/>
+      <c r="CQ97" s="21"/>
+      <c r="CR97" s="21"/>
+      <c r="CS97" s="21"/>
+      <c r="CT97" s="21"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -38155,10 +38367,11 @@
       <c r="CM98" s="3"/>
       <c r="CN98" s="3"/>
       <c r="CO98" s="3"/>
-      <c r="CP98" s="3"/>
-      <c r="CQ98" s="3"/>
-      <c r="CR98" s="3"/>
-      <c r="CS98" s="3"/>
+      <c r="CP98" s="21"/>
+      <c r="CQ98" s="21"/>
+      <c r="CR98" s="21"/>
+      <c r="CS98" s="21"/>
+      <c r="CT98" s="21"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -38256,14 +38469,15 @@
       <c r="CM99" s="3"/>
       <c r="CN99" s="3"/>
       <c r="CO99" s="3"/>
-      <c r="CP99" s="3"/>
-      <c r="CQ99" s="3"/>
-      <c r="CR99" s="3"/>
-      <c r="CS99" s="3"/>
+      <c r="CP99" s="21"/>
+      <c r="CQ99" s="21"/>
+      <c r="CR99" s="21"/>
+      <c r="CS99" s="21"/>
+      <c r="CT99" s="21"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -38357,10 +38571,11 @@
       <c r="CM100" s="3"/>
       <c r="CN100" s="3"/>
       <c r="CO100" s="3"/>
-      <c r="CP100" s="3"/>
-      <c r="CQ100" s="3"/>
-      <c r="CR100" s="3"/>
-      <c r="CS100" s="3"/>
+      <c r="CP100" s="21"/>
+      <c r="CQ100" s="21"/>
+      <c r="CR100" s="21"/>
+      <c r="CS100" s="21"/>
+      <c r="CT100" s="21"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38458,10 +38673,11 @@
       <c r="CM101" s="3"/>
       <c r="CN101" s="3"/>
       <c r="CO101" s="3"/>
-      <c r="CP101" s="3"/>
-      <c r="CQ101" s="3"/>
-      <c r="CR101" s="3"/>
-      <c r="CS101" s="3"/>
+      <c r="CP101" s="21"/>
+      <c r="CQ101" s="21"/>
+      <c r="CR101" s="21"/>
+      <c r="CS101" s="21"/>
+      <c r="CT101" s="21"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -38557,157 +38773,161 @@
       <c r="CM102" s="3"/>
       <c r="CN102" s="3"/>
       <c r="CO102" s="3"/>
-      <c r="CP102" s="3"/>
-      <c r="CQ102" s="3"/>
-      <c r="CR102" s="3"/>
-      <c r="CS102" s="3"/>
+      <c r="CP102" s="21"/>
+      <c r="CQ102" s="21"/>
+      <c r="CR102" s="21"/>
+      <c r="CS102" s="21"/>
+      <c r="CT102" s="21"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="22">
+      <c r="B103" s="33">
         <v>2000</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="22">
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="33">
         <v>2001</v>
       </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="22">
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="33">
         <v>2002</v>
       </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="22">
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="33">
         <v>2003</v>
       </c>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="22">
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="33">
         <v>2004</v>
       </c>
-      <c r="S103" s="23"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="22">
+      <c r="S103" s="34"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="34"/>
+      <c r="V103" s="33">
         <v>2005</v>
       </c>
-      <c r="W103" s="23"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="22">
+      <c r="W103" s="34"/>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="33">
         <v>2006</v>
       </c>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="23"/>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="22">
+      <c r="AA103" s="34"/>
+      <c r="AB103" s="34"/>
+      <c r="AC103" s="34"/>
+      <c r="AD103" s="33">
         <v>2007</v>
       </c>
-      <c r="AE103" s="23"/>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="23"/>
-      <c r="AH103" s="22">
+      <c r="AE103" s="34"/>
+      <c r="AF103" s="34"/>
+      <c r="AG103" s="34"/>
+      <c r="AH103" s="33">
         <v>2008</v>
       </c>
-      <c r="AI103" s="23"/>
-      <c r="AJ103" s="23"/>
-      <c r="AK103" s="23"/>
-      <c r="AL103" s="22">
+      <c r="AI103" s="34"/>
+      <c r="AJ103" s="34"/>
+      <c r="AK103" s="34"/>
+      <c r="AL103" s="33">
         <v>2009</v>
       </c>
-      <c r="AM103" s="23"/>
-      <c r="AN103" s="23"/>
-      <c r="AO103" s="23"/>
-      <c r="AP103" s="22">
+      <c r="AM103" s="34"/>
+      <c r="AN103" s="34"/>
+      <c r="AO103" s="34"/>
+      <c r="AP103" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="23"/>
-      <c r="AR103" s="23"/>
-      <c r="AS103" s="23"/>
-      <c r="AT103" s="22">
+      <c r="AQ103" s="34"/>
+      <c r="AR103" s="34"/>
+      <c r="AS103" s="34"/>
+      <c r="AT103" s="33">
         <v>2011</v>
       </c>
-      <c r="AU103" s="23"/>
-      <c r="AV103" s="23"/>
-      <c r="AW103" s="23"/>
-      <c r="AX103" s="22">
+      <c r="AU103" s="34"/>
+      <c r="AV103" s="34"/>
+      <c r="AW103" s="34"/>
+      <c r="AX103" s="33">
         <v>2012</v>
       </c>
-      <c r="AY103" s="23"/>
-      <c r="AZ103" s="23"/>
-      <c r="BA103" s="23"/>
-      <c r="BB103" s="22">
+      <c r="AY103" s="34"/>
+      <c r="AZ103" s="34"/>
+      <c r="BA103" s="34"/>
+      <c r="BB103" s="33">
         <v>2013</v>
       </c>
-      <c r="BC103" s="23"/>
-      <c r="BD103" s="23"/>
-      <c r="BE103" s="23"/>
-      <c r="BF103" s="22">
+      <c r="BC103" s="34"/>
+      <c r="BD103" s="34"/>
+      <c r="BE103" s="34"/>
+      <c r="BF103" s="33">
         <v>2014</v>
       </c>
-      <c r="BG103" s="23"/>
-      <c r="BH103" s="23"/>
-      <c r="BI103" s="23"/>
-      <c r="BJ103" s="22">
+      <c r="BG103" s="34"/>
+      <c r="BH103" s="34"/>
+      <c r="BI103" s="34"/>
+      <c r="BJ103" s="33">
         <v>2015</v>
       </c>
-      <c r="BK103" s="23"/>
-      <c r="BL103" s="23"/>
-      <c r="BM103" s="23"/>
-      <c r="BN103" s="22">
+      <c r="BK103" s="34"/>
+      <c r="BL103" s="34"/>
+      <c r="BM103" s="34"/>
+      <c r="BN103" s="33">
         <v>2016</v>
       </c>
-      <c r="BO103" s="23"/>
-      <c r="BP103" s="23"/>
-      <c r="BQ103" s="23"/>
-      <c r="BR103" s="22">
+      <c r="BO103" s="34"/>
+      <c r="BP103" s="34"/>
+      <c r="BQ103" s="34"/>
+      <c r="BR103" s="33">
         <v>2017</v>
       </c>
-      <c r="BS103" s="23"/>
-      <c r="BT103" s="23"/>
-      <c r="BU103" s="23"/>
-      <c r="BV103" s="22">
+      <c r="BS103" s="34"/>
+      <c r="BT103" s="34"/>
+      <c r="BU103" s="34"/>
+      <c r="BV103" s="33">
         <v>2018</v>
       </c>
-      <c r="BW103" s="23"/>
-      <c r="BX103" s="23"/>
-      <c r="BY103" s="23"/>
-      <c r="BZ103" s="22">
+      <c r="BW103" s="34"/>
+      <c r="BX103" s="34"/>
+      <c r="BY103" s="34"/>
+      <c r="BZ103" s="33">
         <v>2019</v>
       </c>
-      <c r="CA103" s="23"/>
-      <c r="CB103" s="23"/>
-      <c r="CC103" s="23"/>
-      <c r="CD103" s="22">
+      <c r="CA103" s="34"/>
+      <c r="CB103" s="34"/>
+      <c r="CC103" s="34"/>
+      <c r="CD103" s="33">
         <v>2020</v>
       </c>
-      <c r="CE103" s="22"/>
-      <c r="CF103" s="22"/>
-      <c r="CG103" s="22"/>
-      <c r="CH103" s="22">
+      <c r="CE103" s="33"/>
+      <c r="CF103" s="33"/>
+      <c r="CG103" s="33"/>
+      <c r="CH103" s="19">
         <v>2021</v>
       </c>
-      <c r="CI103" s="22"/>
-      <c r="CJ103" s="22"/>
-      <c r="CK103" s="22"/>
-      <c r="CL103" s="21">
+      <c r="CI103" s="19"/>
+      <c r="CJ103" s="19"/>
+      <c r="CK103" s="19"/>
+      <c r="CL103" s="19">
         <v>2022</v>
       </c>
-      <c r="CM103" s="21"/>
-      <c r="CN103" s="21"/>
-      <c r="CO103" s="21"/>
-      <c r="CP103" s="21">
+      <c r="CM103" s="19"/>
+      <c r="CN103" s="19"/>
+      <c r="CO103" s="19"/>
+      <c r="CP103" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="21"/>
-      <c r="CR103" s="21"/>
-      <c r="CS103" s="21"/>
+      <c r="CQ103" s="22"/>
+      <c r="CR103" s="22"/>
+      <c r="CS103" s="22"/>
+      <c r="CT103" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -38989,17 +39209,20 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="6" t="s">
+      <c r="CR104" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="6" t="s">
+      <c r="CS104" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT104" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39096,10 +39319,11 @@
       <c r="CM105" s="3"/>
       <c r="CN105" s="3"/>
       <c r="CO105" s="3"/>
-      <c r="CP105" s="3"/>
-      <c r="CQ105" s="3"/>
-      <c r="CR105" s="3"/>
-      <c r="CS105" s="3"/>
+      <c r="CP105" s="21"/>
+      <c r="CQ105" s="21"/>
+      <c r="CR105" s="21"/>
+      <c r="CS105" s="21"/>
+      <c r="CT105" s="21"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39370,30 +39594,32 @@
         <v>68.795815885122764</v>
       </c>
       <c r="CL106" s="12">
-        <v>70.925817537570708</v>
+        <v>70.783174612797765</v>
       </c>
       <c r="CM106" s="12">
-        <v>73.401931757679677</v>
+        <v>73.114700902090163</v>
       </c>
       <c r="CN106" s="12">
-        <v>67.664711161792852</v>
+        <v>67.303984850113153</v>
       </c>
       <c r="CO106" s="12">
-        <v>70.10654953090652</v>
-      </c>
-      <c r="CP106" s="12">
-        <v>69.994439101950462</v>
-      </c>
-      <c r="CQ106" s="12">
-        <v>72.461238773259836</v>
-      </c>
-      <c r="CR106" s="12">
-        <v>66.73550679655942</v>
-      </c>
-      <c r="CS106" s="12">
-        <v>69.601353530465786</v>
-      </c>
-      <c r="CT106" s="17"/>
+        <v>69.8562463887571</v>
+      </c>
+      <c r="CP106" s="30">
+        <v>69.653221286795741</v>
+      </c>
+      <c r="CQ106" s="30">
+        <v>72.243834530796818</v>
+      </c>
+      <c r="CR106" s="30">
+        <v>66.494936461754008</v>
+      </c>
+      <c r="CS106" s="30">
+        <v>69.269894085136002</v>
+      </c>
+      <c r="CT106" s="30">
+        <v>66.864109951971557</v>
+      </c>
       <c r="CU106" s="17"/>
       <c r="CV106" s="17"/>
       <c r="CW106" s="17"/>
@@ -39721,30 +39947,32 @@
         <v>31.204184114877236</v>
       </c>
       <c r="CL107" s="12">
-        <v>29.074182462429281</v>
+        <v>29.216825387202235</v>
       </c>
       <c r="CM107" s="12">
-        <v>26.598068242320327</v>
+        <v>26.885299097909844</v>
       </c>
       <c r="CN107" s="12">
-        <v>32.335288838207155</v>
+        <v>32.696015149886854</v>
       </c>
       <c r="CO107" s="12">
-        <v>29.893450469093487</v>
-      </c>
-      <c r="CP107" s="12">
-        <v>30.005560898049538</v>
-      </c>
-      <c r="CQ107" s="12">
-        <v>27.538761226740142</v>
-      </c>
-      <c r="CR107" s="12">
-        <v>33.26449320344058</v>
-      </c>
-      <c r="CS107" s="12">
-        <v>30.398646469534217</v>
-      </c>
-      <c r="CT107" s="17"/>
+        <v>30.143753611242897</v>
+      </c>
+      <c r="CP107" s="30">
+        <v>30.346778713204259</v>
+      </c>
+      <c r="CQ107" s="30">
+        <v>27.756165469203182</v>
+      </c>
+      <c r="CR107" s="30">
+        <v>33.505063538245999</v>
+      </c>
+      <c r="CS107" s="30">
+        <v>30.730105914863998</v>
+      </c>
+      <c r="CT107" s="30">
+        <v>33.135890048028457</v>
+      </c>
       <c r="CU107" s="17"/>
       <c r="CV107" s="17"/>
       <c r="CW107" s="17"/>
@@ -39896,11 +40124,11 @@
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
-      <c r="CP108" s="11"/>
-      <c r="CQ108" s="11"/>
-      <c r="CR108" s="11"/>
-      <c r="CS108" s="11"/>
-      <c r="CT108" s="17"/>
+      <c r="CP108" s="25"/>
+      <c r="CQ108" s="25"/>
+      <c r="CR108" s="25"/>
+      <c r="CS108" s="25"/>
+      <c r="CT108" s="25"/>
       <c r="CU108" s="17"/>
       <c r="CV108" s="17"/>
       <c r="CW108" s="17"/>
@@ -40239,19 +40467,21 @@
       <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="12">
+      <c r="CP109" s="30">
         <v>100</v>
       </c>
-      <c r="CQ109" s="12">
+      <c r="CQ109" s="30">
         <v>100</v>
       </c>
-      <c r="CR109" s="12">
+      <c r="CR109" s="30">
         <v>100</v>
       </c>
-      <c r="CS109" s="12">
+      <c r="CS109" s="30">
         <v>100</v>
       </c>
-      <c r="CT109" s="17"/>
+      <c r="CT109" s="30">
+        <v>100</v>
+      </c>
       <c r="CU109" s="17"/>
       <c r="CV109" s="17"/>
       <c r="CW109" s="17"/>
@@ -40404,10 +40634,11 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
-      <c r="CR110" s="9"/>
-      <c r="CS110" s="9"/>
+      <c r="CP110" s="27"/>
+      <c r="CQ110" s="27"/>
+      <c r="CR110" s="27"/>
+      <c r="CS110" s="27"/>
+      <c r="CT110" s="27"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -40505,10 +40736,11 @@
       <c r="CM111" s="3"/>
       <c r="CN111" s="3"/>
       <c r="CO111" s="3"/>
-      <c r="CP111" s="3"/>
-      <c r="CQ111" s="3"/>
-      <c r="CR111" s="3"/>
-      <c r="CS111" s="3"/>
+      <c r="CP111" s="21"/>
+      <c r="CQ111" s="21"/>
+      <c r="CR111" s="21"/>
+      <c r="CS111" s="21"/>
+      <c r="CT111" s="21"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -40603,11 +40835,11 @@
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
-      <c r="CP112" s="11"/>
-      <c r="CQ112" s="11"/>
-      <c r="CR112" s="11"/>
-      <c r="CS112" s="11"/>
-      <c r="CT112" s="17"/>
+      <c r="CP112" s="25"/>
+      <c r="CQ112" s="25"/>
+      <c r="CR112" s="25"/>
+      <c r="CS112" s="25"/>
+      <c r="CT112" s="25"/>
       <c r="CU112" s="17"/>
       <c r="CV112" s="17"/>
       <c r="CW112" s="17"/>
@@ -40759,11 +40991,11 @@
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
-      <c r="CP113" s="11"/>
-      <c r="CQ113" s="11"/>
-      <c r="CR113" s="11"/>
-      <c r="CS113" s="11"/>
-      <c r="CT113" s="17"/>
+      <c r="CP113" s="25"/>
+      <c r="CQ113" s="25"/>
+      <c r="CR113" s="25"/>
+      <c r="CS113" s="25"/>
+      <c r="CT113" s="25"/>
       <c r="CU113" s="17"/>
       <c r="CV113" s="17"/>
       <c r="CW113" s="17"/>
@@ -40918,10 +41150,11 @@
       <c r="CM114" s="3"/>
       <c r="CN114" s="3"/>
       <c r="CO114" s="3"/>
-      <c r="CP114" s="3"/>
-      <c r="CQ114" s="3"/>
-      <c r="CR114" s="3"/>
-      <c r="CS114" s="3"/>
+      <c r="CP114" s="21"/>
+      <c r="CQ114" s="21"/>
+      <c r="CR114" s="21"/>
+      <c r="CS114" s="21"/>
+      <c r="CT114" s="21"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -41019,14 +41252,15 @@
       <c r="CM115" s="3"/>
       <c r="CN115" s="3"/>
       <c r="CO115" s="3"/>
-      <c r="CP115" s="3"/>
-      <c r="CQ115" s="3"/>
-      <c r="CR115" s="3"/>
-      <c r="CS115" s="3"/>
+      <c r="CP115" s="21"/>
+      <c r="CQ115" s="21"/>
+      <c r="CR115" s="21"/>
+      <c r="CS115" s="21"/>
+      <c r="CT115" s="21"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -41120,10 +41354,11 @@
       <c r="CM116" s="3"/>
       <c r="CN116" s="3"/>
       <c r="CO116" s="3"/>
-      <c r="CP116" s="3"/>
-      <c r="CQ116" s="3"/>
-      <c r="CR116" s="3"/>
-      <c r="CS116" s="3"/>
+      <c r="CP116" s="21"/>
+      <c r="CQ116" s="21"/>
+      <c r="CR116" s="21"/>
+      <c r="CS116" s="21"/>
+      <c r="CT116" s="21"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -41219,10 +41454,11 @@
       <c r="CM117" s="3"/>
       <c r="CN117" s="3"/>
       <c r="CO117" s="3"/>
-      <c r="CP117" s="3"/>
-      <c r="CQ117" s="3"/>
-      <c r="CR117" s="3"/>
-      <c r="CS117" s="3"/>
+      <c r="CP117" s="21"/>
+      <c r="CQ117" s="21"/>
+      <c r="CR117" s="21"/>
+      <c r="CS117" s="21"/>
+      <c r="CT117" s="21"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -41320,14 +41556,15 @@
       <c r="CM118" s="3"/>
       <c r="CN118" s="3"/>
       <c r="CO118" s="3"/>
-      <c r="CP118" s="3"/>
-      <c r="CQ118" s="3"/>
-      <c r="CR118" s="3"/>
-      <c r="CS118" s="3"/>
+      <c r="CP118" s="21"/>
+      <c r="CQ118" s="21"/>
+      <c r="CR118" s="21"/>
+      <c r="CS118" s="21"/>
+      <c r="CT118" s="21"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -41421,10 +41658,11 @@
       <c r="CM119" s="3"/>
       <c r="CN119" s="3"/>
       <c r="CO119" s="3"/>
-      <c r="CP119" s="3"/>
-      <c r="CQ119" s="3"/>
-      <c r="CR119" s="3"/>
-      <c r="CS119" s="3"/>
+      <c r="CP119" s="21"/>
+      <c r="CQ119" s="21"/>
+      <c r="CR119" s="21"/>
+      <c r="CS119" s="21"/>
+      <c r="CT119" s="21"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -41522,10 +41760,11 @@
       <c r="CM120" s="3"/>
       <c r="CN120" s="3"/>
       <c r="CO120" s="3"/>
-      <c r="CP120" s="3"/>
-      <c r="CQ120" s="3"/>
-      <c r="CR120" s="3"/>
-      <c r="CS120" s="3"/>
+      <c r="CP120" s="21"/>
+      <c r="CQ120" s="21"/>
+      <c r="CR120" s="21"/>
+      <c r="CS120" s="21"/>
+      <c r="CT120" s="21"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -41621,157 +41860,161 @@
       <c r="CM121" s="3"/>
       <c r="CN121" s="3"/>
       <c r="CO121" s="3"/>
-      <c r="CP121" s="3"/>
-      <c r="CQ121" s="3"/>
-      <c r="CR121" s="3"/>
-      <c r="CS121" s="3"/>
+      <c r="CP121" s="21"/>
+      <c r="CQ121" s="21"/>
+      <c r="CR121" s="21"/>
+      <c r="CS121" s="21"/>
+      <c r="CT121" s="21"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="22">
+      <c r="B122" s="33">
         <v>2000</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="22">
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="33">
         <v>2001</v>
       </c>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="22">
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="33">
         <v>2002</v>
       </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="23"/>
-      <c r="N122" s="22">
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="33">
         <v>2003</v>
       </c>
-      <c r="O122" s="23"/>
-      <c r="P122" s="23"/>
-      <c r="Q122" s="23"/>
-      <c r="R122" s="22">
+      <c r="O122" s="34"/>
+      <c r="P122" s="34"/>
+      <c r="Q122" s="34"/>
+      <c r="R122" s="33">
         <v>2004</v>
       </c>
-      <c r="S122" s="23"/>
-      <c r="T122" s="23"/>
-      <c r="U122" s="23"/>
-      <c r="V122" s="22">
+      <c r="S122" s="34"/>
+      <c r="T122" s="34"/>
+      <c r="U122" s="34"/>
+      <c r="V122" s="33">
         <v>2005</v>
       </c>
-      <c r="W122" s="23"/>
-      <c r="X122" s="23"/>
-      <c r="Y122" s="23"/>
-      <c r="Z122" s="22">
+      <c r="W122" s="34"/>
+      <c r="X122" s="34"/>
+      <c r="Y122" s="34"/>
+      <c r="Z122" s="33">
         <v>2006</v>
       </c>
-      <c r="AA122" s="23"/>
-      <c r="AB122" s="23"/>
-      <c r="AC122" s="23"/>
-      <c r="AD122" s="22">
+      <c r="AA122" s="34"/>
+      <c r="AB122" s="34"/>
+      <c r="AC122" s="34"/>
+      <c r="AD122" s="33">
         <v>2007</v>
       </c>
-      <c r="AE122" s="23"/>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="23"/>
-      <c r="AH122" s="22">
+      <c r="AE122" s="34"/>
+      <c r="AF122" s="34"/>
+      <c r="AG122" s="34"/>
+      <c r="AH122" s="33">
         <v>2008</v>
       </c>
-      <c r="AI122" s="23"/>
-      <c r="AJ122" s="23"/>
-      <c r="AK122" s="23"/>
-      <c r="AL122" s="22">
+      <c r="AI122" s="34"/>
+      <c r="AJ122" s="34"/>
+      <c r="AK122" s="34"/>
+      <c r="AL122" s="33">
         <v>2009</v>
       </c>
-      <c r="AM122" s="23"/>
-      <c r="AN122" s="23"/>
-      <c r="AO122" s="23"/>
-      <c r="AP122" s="22">
+      <c r="AM122" s="34"/>
+      <c r="AN122" s="34"/>
+      <c r="AO122" s="34"/>
+      <c r="AP122" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="23"/>
-      <c r="AR122" s="23"/>
-      <c r="AS122" s="23"/>
-      <c r="AT122" s="22">
+      <c r="AQ122" s="34"/>
+      <c r="AR122" s="34"/>
+      <c r="AS122" s="34"/>
+      <c r="AT122" s="33">
         <v>2011</v>
       </c>
-      <c r="AU122" s="23"/>
-      <c r="AV122" s="23"/>
-      <c r="AW122" s="23"/>
-      <c r="AX122" s="22">
+      <c r="AU122" s="34"/>
+      <c r="AV122" s="34"/>
+      <c r="AW122" s="34"/>
+      <c r="AX122" s="33">
         <v>2012</v>
       </c>
-      <c r="AY122" s="23"/>
-      <c r="AZ122" s="23"/>
-      <c r="BA122" s="23"/>
-      <c r="BB122" s="22">
+      <c r="AY122" s="34"/>
+      <c r="AZ122" s="34"/>
+      <c r="BA122" s="34"/>
+      <c r="BB122" s="33">
         <v>2013</v>
       </c>
-      <c r="BC122" s="23"/>
-      <c r="BD122" s="23"/>
-      <c r="BE122" s="23"/>
-      <c r="BF122" s="22">
+      <c r="BC122" s="34"/>
+      <c r="BD122" s="34"/>
+      <c r="BE122" s="34"/>
+      <c r="BF122" s="33">
         <v>2014</v>
       </c>
-      <c r="BG122" s="23"/>
-      <c r="BH122" s="23"/>
-      <c r="BI122" s="23"/>
-      <c r="BJ122" s="22">
+      <c r="BG122" s="34"/>
+      <c r="BH122" s="34"/>
+      <c r="BI122" s="34"/>
+      <c r="BJ122" s="33">
         <v>2015</v>
       </c>
-      <c r="BK122" s="23"/>
-      <c r="BL122" s="23"/>
-      <c r="BM122" s="23"/>
-      <c r="BN122" s="22">
+      <c r="BK122" s="34"/>
+      <c r="BL122" s="34"/>
+      <c r="BM122" s="34"/>
+      <c r="BN122" s="33">
         <v>2016</v>
       </c>
-      <c r="BO122" s="23"/>
-      <c r="BP122" s="23"/>
-      <c r="BQ122" s="23"/>
-      <c r="BR122" s="22">
+      <c r="BO122" s="34"/>
+      <c r="BP122" s="34"/>
+      <c r="BQ122" s="34"/>
+      <c r="BR122" s="33">
         <v>2017</v>
       </c>
-      <c r="BS122" s="23"/>
-      <c r="BT122" s="23"/>
-      <c r="BU122" s="23"/>
-      <c r="BV122" s="22">
+      <c r="BS122" s="34"/>
+      <c r="BT122" s="34"/>
+      <c r="BU122" s="34"/>
+      <c r="BV122" s="33">
         <v>2018</v>
       </c>
-      <c r="BW122" s="23"/>
-      <c r="BX122" s="23"/>
-      <c r="BY122" s="23"/>
-      <c r="BZ122" s="22">
+      <c r="BW122" s="34"/>
+      <c r="BX122" s="34"/>
+      <c r="BY122" s="34"/>
+      <c r="BZ122" s="33">
         <v>2019</v>
       </c>
-      <c r="CA122" s="23"/>
-      <c r="CB122" s="23"/>
-      <c r="CC122" s="23"/>
-      <c r="CD122" s="22">
+      <c r="CA122" s="34"/>
+      <c r="CB122" s="34"/>
+      <c r="CC122" s="34"/>
+      <c r="CD122" s="33">
         <v>2020</v>
       </c>
-      <c r="CE122" s="22"/>
-      <c r="CF122" s="22"/>
-      <c r="CG122" s="22"/>
-      <c r="CH122" s="22">
+      <c r="CE122" s="33"/>
+      <c r="CF122" s="33"/>
+      <c r="CG122" s="33"/>
+      <c r="CH122" s="19">
         <v>2021</v>
       </c>
-      <c r="CI122" s="22"/>
-      <c r="CJ122" s="22"/>
-      <c r="CK122" s="22"/>
-      <c r="CL122" s="21">
+      <c r="CI122" s="19"/>
+      <c r="CJ122" s="19"/>
+      <c r="CK122" s="19"/>
+      <c r="CL122" s="19">
         <v>2022</v>
       </c>
-      <c r="CM122" s="21"/>
-      <c r="CN122" s="21"/>
-      <c r="CO122" s="21"/>
-      <c r="CP122" s="21">
+      <c r="CM122" s="19"/>
+      <c r="CN122" s="19"/>
+      <c r="CO122" s="19"/>
+      <c r="CP122" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="21"/>
-      <c r="CR122" s="21"/>
-      <c r="CS122" s="21"/>
+      <c r="CQ122" s="22"/>
+      <c r="CR122" s="22"/>
+      <c r="CS122" s="22"/>
+      <c r="CT122" s="22">
+        <v>2024</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -42053,17 +42296,20 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="6" t="s">
+      <c r="CR123" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="6" t="s">
+      <c r="CS123" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CT123" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42160,10 +42406,11 @@
       <c r="CM124" s="3"/>
       <c r="CN124" s="3"/>
       <c r="CO124" s="3"/>
-      <c r="CP124" s="3"/>
-      <c r="CQ124" s="3"/>
-      <c r="CR124" s="3"/>
-      <c r="CS124" s="3"/>
+      <c r="CP124" s="21"/>
+      <c r="CQ124" s="21"/>
+      <c r="CR124" s="21"/>
+      <c r="CS124" s="21"/>
+      <c r="CT124" s="21"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -42434,30 +42681,32 @@
         <v>66.419648672435144</v>
       </c>
       <c r="CL125" s="12">
-        <v>69.155636385672253</v>
+        <v>69.008103582705715</v>
       </c>
       <c r="CM125" s="12">
-        <v>72.067873050726121</v>
+        <v>71.775049900880944</v>
       </c>
       <c r="CN125" s="12">
-        <v>67.377698439652278</v>
+        <v>67.015331086299113</v>
       </c>
       <c r="CO125" s="12">
-        <v>67.660819194515952</v>
-      </c>
-      <c r="CP125" s="12">
-        <v>68.10375266645265</v>
-      </c>
-      <c r="CQ125" s="12">
-        <v>70.956152615569252</v>
-      </c>
-      <c r="CR125" s="12">
-        <v>66.456280315661232</v>
-      </c>
-      <c r="CS125" s="12">
-        <v>67.2273791403925</v>
-      </c>
-      <c r="CT125" s="17"/>
+        <v>67.399560298830735</v>
+      </c>
+      <c r="CP125" s="30">
+        <v>67.81567397016606</v>
+      </c>
+      <c r="CQ125" s="30">
+        <v>70.734970564061555</v>
+      </c>
+      <c r="CR125" s="30">
+        <v>66.214712925854244</v>
+      </c>
+      <c r="CS125" s="30">
+        <v>66.881555088441345</v>
+      </c>
+      <c r="CT125" s="30">
+        <v>65.249192073593051</v>
+      </c>
       <c r="CU125" s="17"/>
       <c r="CV125" s="17"/>
       <c r="CW125" s="17"/>
@@ -42785,30 +43034,32 @@
         <v>33.580351327564863</v>
       </c>
       <c r="CL126" s="12">
-        <v>30.844363614327747</v>
+        <v>30.991896417294278</v>
       </c>
       <c r="CM126" s="12">
-        <v>27.932126949273883</v>
+        <v>28.224950099119056</v>
       </c>
       <c r="CN126" s="12">
-        <v>32.622301560347715</v>
+        <v>32.98466891370088</v>
       </c>
       <c r="CO126" s="12">
-        <v>32.339180805484055</v>
-      </c>
-      <c r="CP126" s="12">
-        <v>31.896247333547358</v>
-      </c>
-      <c r="CQ126" s="12">
-        <v>29.043847384430748</v>
-      </c>
-      <c r="CR126" s="12">
-        <v>33.543719684338782</v>
-      </c>
-      <c r="CS126" s="12">
-        <v>32.7726208596075</v>
-      </c>
-      <c r="CT126" s="17"/>
+        <v>32.600439701169257</v>
+      </c>
+      <c r="CP126" s="30">
+        <v>32.18432602983394</v>
+      </c>
+      <c r="CQ126" s="30">
+        <v>29.265029435938445</v>
+      </c>
+      <c r="CR126" s="30">
+        <v>33.785287074145756</v>
+      </c>
+      <c r="CS126" s="30">
+        <v>33.118444911558655</v>
+      </c>
+      <c r="CT126" s="30">
+        <v>34.750807926406949</v>
+      </c>
       <c r="CU126" s="17"/>
       <c r="CV126" s="17"/>
       <c r="CW126" s="17"/>
@@ -42960,11 +43211,11 @@
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
-      <c r="CP127" s="11"/>
-      <c r="CQ127" s="11"/>
-      <c r="CR127" s="11"/>
-      <c r="CS127" s="11"/>
-      <c r="CT127" s="17"/>
+      <c r="CP127" s="25"/>
+      <c r="CQ127" s="25"/>
+      <c r="CR127" s="25"/>
+      <c r="CS127" s="25"/>
+      <c r="CT127" s="25"/>
       <c r="CU127" s="17"/>
       <c r="CV127" s="17"/>
       <c r="CW127" s="17"/>
@@ -43303,19 +43554,21 @@
       <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="12">
+      <c r="CP128" s="30">
         <v>100</v>
       </c>
-      <c r="CQ128" s="12">
+      <c r="CQ128" s="30">
         <v>100</v>
       </c>
-      <c r="CR128" s="12">
+      <c r="CR128" s="30">
         <v>100</v>
       </c>
-      <c r="CS128" s="12">
+      <c r="CS128" s="30">
         <v>100</v>
       </c>
-      <c r="CT128" s="17"/>
+      <c r="CT128" s="30">
+        <v>100</v>
+      </c>
       <c r="CU128" s="17"/>
       <c r="CV128" s="17"/>
       <c r="CW128" s="17"/>
@@ -43374,7 +43627,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:97" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:98" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -43468,12 +43721,13 @@
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
-      <c r="CP129" s="9"/>
-      <c r="CQ129" s="9"/>
-      <c r="CR129" s="9"/>
-      <c r="CS129" s="9"/>
+      <c r="CP129" s="27"/>
+      <c r="CQ129" s="27"/>
+      <c r="CR129" s="27"/>
+      <c r="CS129" s="27"/>
+      <c r="CT129" s="27"/>
     </row>
-    <row r="130" spans="1:97" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:98" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -43569,25 +43823,14 @@
       <c r="CM130" s="3"/>
       <c r="CN130" s="3"/>
       <c r="CO130" s="3"/>
-      <c r="CP130" s="3"/>
-      <c r="CQ130" s="3"/>
-      <c r="CR130" s="3"/>
-      <c r="CS130" s="3"/>
+      <c r="CP130" s="21"/>
+      <c r="CQ130" s="21"/>
+      <c r="CR130" s="21"/>
+      <c r="CS130" s="21"/>
+      <c r="CT130" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BV66:BY66"/>
+  <mergeCells count="147">
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="BZ28:CC28"/>
@@ -43600,21 +43843,8 @@
     <mergeCell ref="BR103:BU103"/>
     <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="BR122:BU122"/>
     <mergeCell ref="B103:E103"/>
     <mergeCell ref="F103:I103"/>
     <mergeCell ref="J103:M103"/>
@@ -43624,8 +43854,34 @@
     <mergeCell ref="AD122:AG122"/>
     <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AX103:BA103"/>
     <mergeCell ref="BJ28:BM28"/>
     <mergeCell ref="BN28:BQ28"/>
     <mergeCell ref="BR28:BU28"/>
@@ -43635,63 +43891,42 @@
     <mergeCell ref="BB28:BE28"/>
     <mergeCell ref="AT28:AW28"/>
     <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX66:BA66"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="BN66:BQ66"/>
     <mergeCell ref="BB47:BE47"/>
     <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
     <mergeCell ref="BB66:BE66"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX66:BA66"/>
     <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
     <mergeCell ref="Z103:AC103"/>
     <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="R66:U66"/>
     <mergeCell ref="V66:Y66"/>
@@ -43704,23 +43939,35 @@
     <mergeCell ref="N47:Q47"/>
     <mergeCell ref="R47:U47"/>
     <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
     <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AL103:AO103"/>
     <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
     <mergeCell ref="AX122:BA122"/>
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AP122:AS122"/>
     <mergeCell ref="BJ103:BM103"/>
     <mergeCell ref="BN103:BQ103"/>
     <mergeCell ref="BJ84:BM84"/>
@@ -43730,15 +43977,16 @@
     <mergeCell ref="BN122:BQ122"/>
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB122:BE122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="96" man="1"/>
-    <brk id="76" max="96" man="1"/>
-    <brk id="94" max="96" man="1"/>
+    <brk id="38" max="97" man="1"/>
+    <brk id="76" max="97" man="1"/>
+    <brk id="94" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAC8332-9FA4-4F90-9B69-95A2E59F0404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E886681D-6151-427F-83C3-A0FC913B566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CT$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CU$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -755,27 +755,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23644,84 +23626,49 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV9" sqref="CV9"/>
+      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="93" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="32" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="15"/>
+    <col min="94" max="99" width="9.5546875" style="15" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="CP1" s="20"/>
-      <c r="CQ1" s="20"/>
-      <c r="CR1" s="20"/>
-      <c r="CS1" s="20"/>
-      <c r="CT1" s="20"/>
     </row>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="CP2" s="20"/>
-      <c r="CQ2" s="20"/>
-      <c r="CR2" s="20"/>
-      <c r="CS2" s="20"/>
-      <c r="CT2" s="20"/>
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP3" s="20"/>
-      <c r="CQ3" s="20"/>
-      <c r="CR3" s="20"/>
-      <c r="CS3" s="20"/>
-      <c r="CT3" s="20"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="CP4" s="20"/>
-      <c r="CQ4" s="20"/>
-      <c r="CR4" s="20"/>
-      <c r="CS4" s="20"/>
-      <c r="CT4" s="20"/>
     </row>
     <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="CP5" s="20"/>
-      <c r="CQ5" s="20"/>
-      <c r="CR5" s="20"/>
-      <c r="CS5" s="20"/>
-      <c r="CT5" s="20"/>
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP6" s="20"/>
-      <c r="CQ6" s="20"/>
-      <c r="CR6" s="20"/>
-      <c r="CS6" s="20"/>
-      <c r="CT6" s="20"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="CP7" s="20"/>
-      <c r="CQ7" s="20"/>
-      <c r="CR7" s="20"/>
-      <c r="CS7" s="20"/>
-      <c r="CT7" s="20"/>
     </row>
     <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -23817,140 +23764,141 @@
       <c r="CM8" s="3"/>
       <c r="CN8" s="3"/>
       <c r="CO8" s="3"/>
-      <c r="CP8" s="21"/>
-      <c r="CQ8" s="21"/>
-      <c r="CR8" s="21"/>
-      <c r="CS8" s="21"/>
-      <c r="CT8" s="21"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="33">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
-      <c r="CD9" s="33">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="33"/>
-      <c r="CG9" s="33"/>
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23963,15 +23911,16 @@
       <c r="CM9" s="19"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="19"/>
-      <c r="CP9" s="22">
+      <c r="CP9" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="22"/>
-      <c r="CS9" s="22"/>
-      <c r="CT9" s="22">
+      <c r="CQ9" s="19"/>
+      <c r="CR9" s="19"/>
+      <c r="CS9" s="19"/>
+      <c r="CT9" s="19">
         <v>2024</v>
       </c>
+      <c r="CU9" s="19"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24253,20 +24202,23 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="23" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="23" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="23" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="23" t="s">
+      <c r="CS10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="23" t="s">
+      <c r="CT10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24363,11 +24315,12 @@
       <c r="CM11" s="3"/>
       <c r="CN11" s="3"/>
       <c r="CO11" s="3"/>
-      <c r="CP11" s="21"/>
-      <c r="CQ11" s="21"/>
-      <c r="CR11" s="21"/>
-      <c r="CS11" s="21"/>
-      <c r="CT11" s="21"/>
+      <c r="CP11" s="3"/>
+      <c r="CQ11" s="3"/>
+      <c r="CR11" s="3"/>
+      <c r="CS11" s="3"/>
+      <c r="CT11" s="3"/>
+      <c r="CU11" s="3"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24649,22 +24602,24 @@
       <c r="CO12" s="13">
         <v>160749.76785570109</v>
       </c>
-      <c r="CP12" s="24">
+      <c r="CP12" s="13">
         <v>159040.05426257322</v>
       </c>
-      <c r="CQ12" s="24">
+      <c r="CQ12" s="13">
         <v>191540.13930252948</v>
       </c>
-      <c r="CR12" s="24">
+      <c r="CR12" s="13">
         <v>149727.0973828187</v>
       </c>
-      <c r="CS12" s="24">
+      <c r="CS12" s="13">
         <v>178724.73119020896</v>
       </c>
-      <c r="CT12" s="24">
+      <c r="CT12" s="13">
         <v>164928.00176265615</v>
       </c>
-      <c r="CU12" s="17"/>
+      <c r="CU12" s="13">
+        <v>195043.16710521569</v>
+      </c>
       <c r="CV12" s="17"/>
       <c r="CW12" s="17"/>
       <c r="CX12" s="17"/>
@@ -25002,22 +24957,24 @@
       <c r="CO13" s="13">
         <v>69365.327308605774</v>
       </c>
-      <c r="CP13" s="24">
+      <c r="CP13" s="13">
         <v>69291.17195269253</v>
       </c>
-      <c r="CQ13" s="24">
+      <c r="CQ13" s="13">
         <v>73589.944872166205</v>
       </c>
-      <c r="CR13" s="24">
+      <c r="CR13" s="13">
         <v>75443.577784210705</v>
       </c>
-      <c r="CS13" s="24">
+      <c r="CS13" s="13">
         <v>79287.401714957232</v>
       </c>
-      <c r="CT13" s="24">
-        <v>81733.476093138001</v>
-      </c>
-      <c r="CU13" s="17"/>
+      <c r="CT13" s="13">
+        <v>79797.360121441001</v>
+      </c>
+      <c r="CU13" s="13">
+        <v>84761.245136884943</v>
+      </c>
       <c r="CV13" s="17"/>
       <c r="CW13" s="17"/>
       <c r="CX13" s="17"/>
@@ -25168,12 +25125,12 @@
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
-      <c r="CP14" s="25"/>
-      <c r="CQ14" s="25"/>
-      <c r="CR14" s="25"/>
-      <c r="CS14" s="25"/>
-      <c r="CT14" s="25"/>
-      <c r="CU14" s="17"/>
+      <c r="CP14" s="11"/>
+      <c r="CQ14" s="11"/>
+      <c r="CR14" s="11"/>
+      <c r="CS14" s="11"/>
+      <c r="CT14" s="11"/>
+      <c r="CU14" s="11"/>
       <c r="CV14" s="17"/>
       <c r="CW14" s="17"/>
       <c r="CX14" s="17"/>
@@ -25511,22 +25468,24 @@
       <c r="CO15" s="14">
         <v>230115.09516430687</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="14">
         <v>228331.22621526575</v>
       </c>
-      <c r="CQ15" s="26">
+      <c r="CQ15" s="14">
         <v>265130.08417469566</v>
       </c>
-      <c r="CR15" s="26">
+      <c r="CR15" s="14">
         <v>225170.6751670294</v>
       </c>
-      <c r="CS15" s="26">
+      <c r="CS15" s="14">
         <v>258012.13290516619</v>
       </c>
-      <c r="CT15" s="26">
-        <v>246661.47785579413</v>
-      </c>
-      <c r="CU15" s="17"/>
+      <c r="CT15" s="14">
+        <v>244725.36188409716</v>
+      </c>
+      <c r="CU15" s="14">
+        <v>279804.41224210063</v>
+      </c>
       <c r="CV15" s="17"/>
       <c r="CW15" s="17"/>
       <c r="CX15" s="17"/>
@@ -25678,11 +25637,12 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="27"/>
-      <c r="CQ16" s="27"/>
-      <c r="CR16" s="27"/>
-      <c r="CS16" s="27"/>
-      <c r="CT16" s="27"/>
+      <c r="CP16" s="9"/>
+      <c r="CQ16" s="9"/>
+      <c r="CR16" s="9"/>
+      <c r="CS16" s="9"/>
+      <c r="CT16" s="9"/>
+      <c r="CU16" s="9"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25780,11 +25740,12 @@
       <c r="CM17" s="3"/>
       <c r="CN17" s="3"/>
       <c r="CO17" s="3"/>
-      <c r="CP17" s="21"/>
-      <c r="CQ17" s="21"/>
-      <c r="CR17" s="21"/>
-      <c r="CS17" s="21"/>
-      <c r="CT17" s="21"/>
+      <c r="CP17" s="3"/>
+      <c r="CQ17" s="3"/>
+      <c r="CR17" s="3"/>
+      <c r="CS17" s="3"/>
+      <c r="CT17" s="3"/>
+      <c r="CU17" s="3"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25879,12 +25840,12 @@
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
-      <c r="CP18" s="25"/>
-      <c r="CQ18" s="25"/>
-      <c r="CR18" s="25"/>
-      <c r="CS18" s="25"/>
-      <c r="CT18" s="25"/>
-      <c r="CU18" s="17"/>
+      <c r="CP18" s="11"/>
+      <c r="CQ18" s="11"/>
+      <c r="CR18" s="11"/>
+      <c r="CS18" s="11"/>
+      <c r="CT18" s="11"/>
+      <c r="CU18" s="11"/>
       <c r="CV18" s="17"/>
       <c r="CW18" s="17"/>
       <c r="CX18" s="17"/>
@@ -26035,12 +25996,12 @@
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
-      <c r="CP19" s="25"/>
-      <c r="CQ19" s="25"/>
-      <c r="CR19" s="25"/>
-      <c r="CS19" s="25"/>
-      <c r="CT19" s="25"/>
-      <c r="CU19" s="17"/>
+      <c r="CP19" s="11"/>
+      <c r="CQ19" s="11"/>
+      <c r="CR19" s="11"/>
+      <c r="CS19" s="11"/>
+      <c r="CT19" s="11"/>
+      <c r="CU19" s="11"/>
       <c r="CV19" s="17"/>
       <c r="CW19" s="17"/>
       <c r="CX19" s="17"/>
@@ -26194,11 +26155,12 @@
       <c r="CM20" s="3"/>
       <c r="CN20" s="3"/>
       <c r="CO20" s="3"/>
-      <c r="CP20" s="21"/>
-      <c r="CQ20" s="21"/>
-      <c r="CR20" s="21"/>
-      <c r="CS20" s="21"/>
-      <c r="CT20" s="21"/>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="3"/>
+      <c r="CR20" s="3"/>
+      <c r="CS20" s="3"/>
+      <c r="CT20" s="3"/>
+      <c r="CU20" s="3"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26296,15 +26258,16 @@
       <c r="CM21" s="3"/>
       <c r="CN21" s="3"/>
       <c r="CO21" s="3"/>
-      <c r="CP21" s="21"/>
-      <c r="CQ21" s="21"/>
-      <c r="CR21" s="21"/>
-      <c r="CS21" s="21"/>
-      <c r="CT21" s="21"/>
+      <c r="CP21" s="3"/>
+      <c r="CQ21" s="3"/>
+      <c r="CR21" s="3"/>
+      <c r="CS21" s="3"/>
+      <c r="CT21" s="3"/>
+      <c r="CU21" s="3"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26398,11 +26361,12 @@
       <c r="CM22" s="3"/>
       <c r="CN22" s="3"/>
       <c r="CO22" s="3"/>
-      <c r="CP22" s="21"/>
-      <c r="CQ22" s="21"/>
-      <c r="CR22" s="21"/>
-      <c r="CS22" s="21"/>
-      <c r="CT22" s="21"/>
+      <c r="CP22" s="3"/>
+      <c r="CQ22" s="3"/>
+      <c r="CR22" s="3"/>
+      <c r="CS22" s="3"/>
+      <c r="CT22" s="3"/>
+      <c r="CU22" s="3"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26498,11 +26462,12 @@
       <c r="CM23" s="3"/>
       <c r="CN23" s="3"/>
       <c r="CO23" s="3"/>
-      <c r="CP23" s="21"/>
-      <c r="CQ23" s="21"/>
-      <c r="CR23" s="21"/>
-      <c r="CS23" s="21"/>
-      <c r="CT23" s="21"/>
+      <c r="CP23" s="3"/>
+      <c r="CQ23" s="3"/>
+      <c r="CR23" s="3"/>
+      <c r="CS23" s="3"/>
+      <c r="CT23" s="3"/>
+      <c r="CU23" s="3"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26600,15 +26565,16 @@
       <c r="CM24" s="3"/>
       <c r="CN24" s="3"/>
       <c r="CO24" s="3"/>
-      <c r="CP24" s="21"/>
-      <c r="CQ24" s="21"/>
-      <c r="CR24" s="21"/>
-      <c r="CS24" s="21"/>
-      <c r="CT24" s="21"/>
+      <c r="CP24" s="3"/>
+      <c r="CQ24" s="3"/>
+      <c r="CR24" s="3"/>
+      <c r="CS24" s="3"/>
+      <c r="CT24" s="3"/>
+      <c r="CU24" s="3"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26702,11 +26668,12 @@
       <c r="CM25" s="3"/>
       <c r="CN25" s="3"/>
       <c r="CO25" s="3"/>
-      <c r="CP25" s="21"/>
-      <c r="CQ25" s="21"/>
-      <c r="CR25" s="21"/>
-      <c r="CS25" s="21"/>
-      <c r="CT25" s="21"/>
+      <c r="CP25" s="3"/>
+      <c r="CQ25" s="3"/>
+      <c r="CR25" s="3"/>
+      <c r="CS25" s="3"/>
+      <c r="CT25" s="3"/>
+      <c r="CU25" s="3"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26804,11 +26771,12 @@
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
       <c r="CO26" s="3"/>
-      <c r="CP26" s="21"/>
-      <c r="CQ26" s="21"/>
-      <c r="CR26" s="21"/>
-      <c r="CS26" s="21"/>
-      <c r="CT26" s="21"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="3"/>
+      <c r="CS26" s="3"/>
+      <c r="CT26" s="3"/>
+      <c r="CU26" s="3"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26904,140 +26872,141 @@
       <c r="CM27" s="3"/>
       <c r="CN27" s="3"/>
       <c r="CO27" s="3"/>
-      <c r="CP27" s="21"/>
-      <c r="CQ27" s="21"/>
-      <c r="CR27" s="21"/>
-      <c r="CS27" s="21"/>
-      <c r="CT27" s="21"/>
+      <c r="CP27" s="3"/>
+      <c r="CQ27" s="3"/>
+      <c r="CR27" s="3"/>
+      <c r="CS27" s="3"/>
+      <c r="CT27" s="3"/>
+      <c r="CU27" s="3"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="33">
+      <c r="B28" s="21">
         <v>2000</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="33">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21">
         <v>2001</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21">
         <v>2002</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="33">
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21">
         <v>2003</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="33">
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21">
         <v>2004</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="33">
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="21">
         <v>2005</v>
       </c>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="33">
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="21">
         <v>2006</v>
       </c>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="33">
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="21">
         <v>2007</v>
       </c>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="33">
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="21">
         <v>2008</v>
       </c>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="33">
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="21">
         <v>2009</v>
       </c>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="33">
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="33">
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="21">
         <v>2011</v>
       </c>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="33">
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="21">
         <v>2012</v>
       </c>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="33">
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="21">
         <v>2013</v>
       </c>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="33">
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="21">
         <v>2014</v>
       </c>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="33">
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="21">
         <v>2015</v>
       </c>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
-      <c r="BN28" s="33">
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="21">
         <v>2016</v>
       </c>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="33">
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="21">
         <v>2017</v>
       </c>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="34"/>
-      <c r="BU28" s="34"/>
-      <c r="BV28" s="33">
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
+      <c r="BV28" s="21">
         <v>2018</v>
       </c>
-      <c r="BW28" s="34"/>
-      <c r="BX28" s="34"/>
-      <c r="BY28" s="34"/>
-      <c r="BZ28" s="33">
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
+      <c r="BZ28" s="21">
         <v>2019</v>
       </c>
-      <c r="CA28" s="34"/>
-      <c r="CB28" s="34"/>
-      <c r="CC28" s="34"/>
-      <c r="CD28" s="33">
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
+      <c r="CD28" s="21">
         <v>2020</v>
       </c>
-      <c r="CE28" s="33"/>
-      <c r="CF28" s="33"/>
-      <c r="CG28" s="33"/>
+      <c r="CE28" s="21"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
       <c r="CH28" s="19">
         <v>2021</v>
       </c>
@@ -27050,15 +27019,16 @@
       <c r="CM28" s="19"/>
       <c r="CN28" s="19"/>
       <c r="CO28" s="19"/>
-      <c r="CP28" s="22">
+      <c r="CP28" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="22"/>
-      <c r="CR28" s="22"/>
-      <c r="CS28" s="22"/>
-      <c r="CT28" s="22">
+      <c r="CQ28" s="19"/>
+      <c r="CR28" s="19"/>
+      <c r="CS28" s="19"/>
+      <c r="CT28" s="19">
         <v>2024</v>
       </c>
+      <c r="CU28" s="19"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27340,20 +27310,23 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="23" t="s">
+      <c r="CP29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="23" t="s">
+      <c r="CQ29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="23" t="s">
+      <c r="CR29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="23" t="s">
+      <c r="CS29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="23" t="s">
+      <c r="CT29" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU29" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27450,11 +27423,12 @@
       <c r="CM30" s="3"/>
       <c r="CN30" s="3"/>
       <c r="CO30" s="3"/>
-      <c r="CP30" s="21"/>
-      <c r="CQ30" s="21"/>
-      <c r="CR30" s="21"/>
-      <c r="CS30" s="21"/>
-      <c r="CT30" s="21"/>
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="3"/>
+      <c r="CS30" s="3"/>
+      <c r="CT30" s="3"/>
+      <c r="CU30" s="3"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27736,22 +27710,24 @@
       <c r="CO31" s="13">
         <v>124918.94518624805</v>
       </c>
-      <c r="CP31" s="24">
+      <c r="CP31" s="13">
         <v>144213.10561578581</v>
       </c>
-      <c r="CQ31" s="24">
+      <c r="CQ31" s="13">
         <v>172159.5890242467</v>
       </c>
-      <c r="CR31" s="24">
+      <c r="CR31" s="13">
         <v>129325.02426998374</v>
       </c>
-      <c r="CS31" s="24">
+      <c r="CS31" s="13">
         <v>133941.19107316836</v>
       </c>
-      <c r="CT31" s="24">
+      <c r="CT31" s="13">
         <v>145110.48306089113</v>
       </c>
-      <c r="CU31" s="17"/>
+      <c r="CU31" s="13">
+        <v>169807.54145259602</v>
+      </c>
       <c r="CV31" s="17"/>
       <c r="CW31" s="17"/>
       <c r="CX31" s="17"/>
@@ -28089,22 +28065,24 @@
       <c r="CO32" s="13">
         <v>60421.945217773122</v>
       </c>
-      <c r="CP32" s="24">
+      <c r="CP32" s="13">
         <v>68441.428613615251</v>
       </c>
-      <c r="CQ32" s="24">
+      <c r="CQ32" s="13">
         <v>71227.221843694948</v>
       </c>
-      <c r="CR32" s="24">
+      <c r="CR32" s="13">
         <v>65986.589350993527</v>
       </c>
-      <c r="CS32" s="24">
+      <c r="CS32" s="13">
         <v>66325.072018427192</v>
       </c>
-      <c r="CT32" s="24">
-        <v>77283.815549311403</v>
-      </c>
-      <c r="CU32" s="17"/>
+      <c r="CT32" s="13">
+        <v>75453.530197352287</v>
+      </c>
+      <c r="CU32" s="13">
+        <v>78577.622413241799</v>
+      </c>
       <c r="CV32" s="17"/>
       <c r="CW32" s="17"/>
       <c r="CX32" s="17"/>
@@ -28255,12 +28233,12 @@
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
-      <c r="CP33" s="25"/>
-      <c r="CQ33" s="25"/>
-      <c r="CR33" s="25"/>
-      <c r="CS33" s="25"/>
-      <c r="CT33" s="25"/>
-      <c r="CU33" s="17"/>
+      <c r="CP33" s="11"/>
+      <c r="CQ33" s="11"/>
+      <c r="CR33" s="11"/>
+      <c r="CS33" s="11"/>
+      <c r="CT33" s="11"/>
+      <c r="CU33" s="11"/>
       <c r="CV33" s="17"/>
       <c r="CW33" s="17"/>
       <c r="CX33" s="17"/>
@@ -28598,22 +28576,24 @@
       <c r="CO34" s="14">
         <v>185340.89040402116</v>
       </c>
-      <c r="CP34" s="26">
+      <c r="CP34" s="14">
         <v>212654.53422940106</v>
       </c>
-      <c r="CQ34" s="26">
+      <c r="CQ34" s="14">
         <v>243386.81086794165</v>
       </c>
-      <c r="CR34" s="26">
+      <c r="CR34" s="14">
         <v>195311.61362097727</v>
       </c>
-      <c r="CS34" s="26">
+      <c r="CS34" s="14">
         <v>200266.26309159555</v>
       </c>
-      <c r="CT34" s="26">
-        <v>222394.29861020253</v>
-      </c>
-      <c r="CU34" s="17"/>
+      <c r="CT34" s="14">
+        <v>220564.01325824342</v>
+      </c>
+      <c r="CU34" s="14">
+        <v>248385.16386583782</v>
+      </c>
       <c r="CV34" s="17"/>
       <c r="CW34" s="17"/>
       <c r="CX34" s="17"/>
@@ -28765,11 +28745,12 @@
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
-      <c r="CP35" s="27"/>
-      <c r="CQ35" s="27"/>
-      <c r="CR35" s="27"/>
-      <c r="CS35" s="27"/>
-      <c r="CT35" s="27"/>
+      <c r="CP35" s="9"/>
+      <c r="CQ35" s="9"/>
+      <c r="CR35" s="9"/>
+      <c r="CS35" s="9"/>
+      <c r="CT35" s="9"/>
+      <c r="CU35" s="9"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28867,11 +28848,12 @@
       <c r="CM36" s="3"/>
       <c r="CN36" s="3"/>
       <c r="CO36" s="3"/>
-      <c r="CP36" s="21"/>
-      <c r="CQ36" s="21"/>
-      <c r="CR36" s="21"/>
-      <c r="CS36" s="21"/>
-      <c r="CT36" s="21"/>
+      <c r="CP36" s="3"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="3"/>
+      <c r="CT36" s="3"/>
+      <c r="CU36" s="3"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -28966,12 +28948,12 @@
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
-      <c r="CP37" s="25"/>
-      <c r="CQ37" s="25"/>
-      <c r="CR37" s="25"/>
-      <c r="CS37" s="25"/>
-      <c r="CT37" s="25"/>
-      <c r="CU37" s="17"/>
+      <c r="CP37" s="11"/>
+      <c r="CQ37" s="11"/>
+      <c r="CR37" s="11"/>
+      <c r="CS37" s="11"/>
+      <c r="CT37" s="11"/>
+      <c r="CU37" s="11"/>
       <c r="CV37" s="17"/>
       <c r="CW37" s="17"/>
       <c r="CX37" s="17"/>
@@ -29122,12 +29104,12 @@
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
-      <c r="CP38" s="25"/>
-      <c r="CQ38" s="25"/>
-      <c r="CR38" s="25"/>
-      <c r="CS38" s="25"/>
-      <c r="CT38" s="25"/>
-      <c r="CU38" s="17"/>
+      <c r="CP38" s="11"/>
+      <c r="CQ38" s="11"/>
+      <c r="CR38" s="11"/>
+      <c r="CS38" s="11"/>
+      <c r="CT38" s="11"/>
+      <c r="CU38" s="11"/>
       <c r="CV38" s="17"/>
       <c r="CW38" s="17"/>
       <c r="CX38" s="17"/>
@@ -29281,11 +29263,12 @@
       <c r="CM39" s="3"/>
       <c r="CN39" s="3"/>
       <c r="CO39" s="3"/>
-      <c r="CP39" s="21"/>
-      <c r="CQ39" s="21"/>
-      <c r="CR39" s="21"/>
-      <c r="CS39" s="21"/>
-      <c r="CT39" s="21"/>
+      <c r="CP39" s="3"/>
+      <c r="CQ39" s="3"/>
+      <c r="CR39" s="3"/>
+      <c r="CS39" s="3"/>
+      <c r="CT39" s="3"/>
+      <c r="CU39" s="3"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29383,15 +29366,16 @@
       <c r="CM40" s="3"/>
       <c r="CN40" s="3"/>
       <c r="CO40" s="3"/>
-      <c r="CP40" s="21"/>
-      <c r="CQ40" s="21"/>
-      <c r="CR40" s="21"/>
-      <c r="CS40" s="21"/>
-      <c r="CT40" s="21"/>
+      <c r="CP40" s="3"/>
+      <c r="CQ40" s="3"/>
+      <c r="CR40" s="3"/>
+      <c r="CS40" s="3"/>
+      <c r="CT40" s="3"/>
+      <c r="CU40" s="3"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29485,11 +29469,12 @@
       <c r="CM41" s="3"/>
       <c r="CN41" s="3"/>
       <c r="CO41" s="3"/>
-      <c r="CP41" s="21"/>
-      <c r="CQ41" s="21"/>
-      <c r="CR41" s="21"/>
-      <c r="CS41" s="21"/>
-      <c r="CT41" s="21"/>
+      <c r="CP41" s="3"/>
+      <c r="CQ41" s="3"/>
+      <c r="CR41" s="3"/>
+      <c r="CS41" s="3"/>
+      <c r="CT41" s="3"/>
+      <c r="CU41" s="3"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29585,11 +29570,12 @@
       <c r="CM42" s="3"/>
       <c r="CN42" s="3"/>
       <c r="CO42" s="3"/>
-      <c r="CP42" s="21"/>
-      <c r="CQ42" s="21"/>
-      <c r="CR42" s="21"/>
-      <c r="CS42" s="21"/>
-      <c r="CT42" s="21"/>
+      <c r="CP42" s="3"/>
+      <c r="CQ42" s="3"/>
+      <c r="CR42" s="3"/>
+      <c r="CS42" s="3"/>
+      <c r="CT42" s="3"/>
+      <c r="CU42" s="3"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29687,15 +29673,16 @@
       <c r="CM43" s="3"/>
       <c r="CN43" s="3"/>
       <c r="CO43" s="3"/>
-      <c r="CP43" s="21"/>
-      <c r="CQ43" s="21"/>
-      <c r="CR43" s="21"/>
-      <c r="CS43" s="21"/>
-      <c r="CT43" s="21"/>
+      <c r="CP43" s="3"/>
+      <c r="CQ43" s="3"/>
+      <c r="CR43" s="3"/>
+      <c r="CS43" s="3"/>
+      <c r="CT43" s="3"/>
+      <c r="CU43" s="3"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29777,11 +29764,6 @@
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
-      <c r="CP44" s="20"/>
-      <c r="CQ44" s="20"/>
-      <c r="CR44" s="20"/>
-      <c r="CS44" s="20"/>
-      <c r="CT44" s="20"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -29867,11 +29849,6 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
-      <c r="CP45" s="20"/>
-      <c r="CQ45" s="20"/>
-      <c r="CR45" s="20"/>
-      <c r="CS45" s="20"/>
-      <c r="CT45" s="20"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -29967,140 +29944,141 @@
       <c r="CM46" s="3"/>
       <c r="CN46" s="3"/>
       <c r="CO46" s="3"/>
-      <c r="CP46" s="21"/>
-      <c r="CQ46" s="21"/>
-      <c r="CR46" s="21"/>
-      <c r="CS46" s="21"/>
-      <c r="CT46" s="21"/>
+      <c r="CP46" s="3"/>
+      <c r="CQ46" s="3"/>
+      <c r="CR46" s="3"/>
+      <c r="CS46" s="3"/>
+      <c r="CT46" s="3"/>
+      <c r="CU46" s="3"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33" t="s">
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33" t="s">
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33" t="s">
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33" t="s">
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33" t="s">
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="33"/>
-      <c r="AH47" s="33" t="s">
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="33"/>
-      <c r="AK47" s="33"/>
-      <c r="AL47" s="33" t="s">
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="33"/>
-      <c r="AN47" s="33"/>
-      <c r="AO47" s="33"/>
-      <c r="AP47" s="33" t="s">
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="33"/>
-      <c r="AR47" s="33"/>
-      <c r="AS47" s="33"/>
-      <c r="AT47" s="33" t="s">
+      <c r="AQ47" s="21"/>
+      <c r="AR47" s="21"/>
+      <c r="AS47" s="21"/>
+      <c r="AT47" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="33"/>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="33"/>
-      <c r="AX47" s="33" t="s">
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="33"/>
-      <c r="AZ47" s="33"/>
-      <c r="BA47" s="33"/>
-      <c r="BB47" s="33" t="s">
+      <c r="AY47" s="21"/>
+      <c r="AZ47" s="21"/>
+      <c r="BA47" s="21"/>
+      <c r="BB47" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="33"/>
-      <c r="BD47" s="33"/>
-      <c r="BE47" s="33"/>
-      <c r="BF47" s="33" t="s">
+      <c r="BC47" s="21"/>
+      <c r="BD47" s="21"/>
+      <c r="BE47" s="21"/>
+      <c r="BF47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="33"/>
-      <c r="BH47" s="33"/>
-      <c r="BI47" s="33"/>
-      <c r="BJ47" s="33" t="s">
+      <c r="BG47" s="21"/>
+      <c r="BH47" s="21"/>
+      <c r="BI47" s="21"/>
+      <c r="BJ47" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="33"/>
-      <c r="BL47" s="33"/>
-      <c r="BM47" s="33"/>
-      <c r="BN47" s="33" t="s">
+      <c r="BK47" s="21"/>
+      <c r="BL47" s="21"/>
+      <c r="BM47" s="21"/>
+      <c r="BN47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="33"/>
-      <c r="BP47" s="33"/>
-      <c r="BQ47" s="33"/>
-      <c r="BR47" s="33" t="s">
+      <c r="BO47" s="21"/>
+      <c r="BP47" s="21"/>
+      <c r="BQ47" s="21"/>
+      <c r="BR47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="33"/>
-      <c r="BT47" s="33"/>
-      <c r="BU47" s="33"/>
-      <c r="BV47" s="33" t="s">
+      <c r="BS47" s="21"/>
+      <c r="BT47" s="21"/>
+      <c r="BU47" s="21"/>
+      <c r="BV47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="33"/>
-      <c r="BX47" s="33"/>
-      <c r="BY47" s="33"/>
-      <c r="BZ47" s="33" t="s">
+      <c r="BW47" s="21"/>
+      <c r="BX47" s="21"/>
+      <c r="BY47" s="21"/>
+      <c r="BZ47" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="33"/>
-      <c r="CB47" s="33"/>
-      <c r="CC47" s="33"/>
-      <c r="CD47" s="33" t="s">
+      <c r="CA47" s="21"/>
+      <c r="CB47" s="21"/>
+      <c r="CC47" s="21"/>
+      <c r="CD47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="33"/>
-      <c r="CF47" s="33"/>
-      <c r="CG47" s="33"/>
+      <c r="CE47" s="21"/>
+      <c r="CF47" s="21"/>
+      <c r="CG47" s="21"/>
       <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
@@ -30113,13 +30091,14 @@
       <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
-      <c r="CP47" s="22" t="s">
+      <c r="CP47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="28"/>
-      <c r="CR47" s="28"/>
-      <c r="CS47" s="28"/>
-      <c r="CT47" s="28"/>
+      <c r="CQ47" s="19"/>
+      <c r="CR47" s="20"/>
+      <c r="CS47" s="20"/>
+      <c r="CT47" s="19"/>
+      <c r="CU47" s="20"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30401,13 +30380,16 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="29" t="s">
+      <c r="CP48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="29"/>
-      <c r="CR48" s="29"/>
-      <c r="CS48" s="29"/>
-      <c r="CT48" s="29"/>
+      <c r="CQ48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR48" s="5"/>
+      <c r="CS48" s="5"/>
+      <c r="CT48" s="5"/>
+      <c r="CU48" s="5"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30503,11 +30485,12 @@
       <c r="CM49" s="3"/>
       <c r="CN49" s="3"/>
       <c r="CO49" s="3"/>
-      <c r="CP49" s="21"/>
-      <c r="CQ49" s="21"/>
-      <c r="CR49" s="21"/>
-      <c r="CS49" s="21"/>
-      <c r="CT49" s="21"/>
+      <c r="CP49" s="3"/>
+      <c r="CQ49" s="3"/>
+      <c r="CR49" s="3"/>
+      <c r="CS49" s="3"/>
+      <c r="CT49" s="3"/>
+      <c r="CU49" s="3"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30789,14 +30772,16 @@
       <c r="CO50" s="12">
         <v>11.181952903747458</v>
       </c>
-      <c r="CP50" s="30">
+      <c r="CP50" s="12">
         <v>3.7021790060269808</v>
       </c>
-      <c r="CQ50" s="30"/>
-      <c r="CR50" s="30"/>
-      <c r="CS50" s="30"/>
-      <c r="CT50" s="30"/>
-      <c r="CU50" s="17"/>
+      <c r="CQ50" s="12">
+        <v>1.8288739976080421</v>
+      </c>
+      <c r="CR50" s="12"/>
+      <c r="CS50" s="12"/>
+      <c r="CT50" s="12"/>
+      <c r="CU50" s="12"/>
       <c r="CV50" s="17"/>
       <c r="CW50" s="17"/>
       <c r="CX50" s="17"/>
@@ -31130,14 +31115,16 @@
       <c r="CO51" s="12">
         <v>14.304083598147272</v>
       </c>
-      <c r="CP51" s="30">
-        <v>17.9565502932181</v>
-      </c>
-      <c r="CQ51" s="30"/>
-      <c r="CR51" s="30"/>
-      <c r="CS51" s="30"/>
-      <c r="CT51" s="30"/>
-      <c r="CU51" s="17"/>
+      <c r="CP51" s="12">
+        <v>15.162376205617377</v>
+      </c>
+      <c r="CQ51" s="12">
+        <v>15.180471033270251</v>
+      </c>
+      <c r="CR51" s="12"/>
+      <c r="CS51" s="12"/>
+      <c r="CT51" s="12"/>
+      <c r="CU51" s="12"/>
       <c r="CV51" s="17"/>
       <c r="CW51" s="17"/>
       <c r="CX51" s="17"/>
@@ -31285,12 +31272,12 @@
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
-      <c r="CP52" s="25"/>
-      <c r="CQ52" s="25"/>
-      <c r="CR52" s="25"/>
-      <c r="CS52" s="25"/>
-      <c r="CT52" s="25"/>
-      <c r="CU52" s="17"/>
+      <c r="CP52" s="11"/>
+      <c r="CQ52" s="11"/>
+      <c r="CR52" s="11"/>
+      <c r="CS52" s="11"/>
+      <c r="CT52" s="11"/>
+      <c r="CU52" s="11"/>
       <c r="CV52" s="17"/>
       <c r="CW52" s="17"/>
       <c r="CX52" s="17"/>
@@ -31624,14 +31611,16 @@
       <c r="CO53" s="12">
         <v>12.123080287688339</v>
       </c>
-      <c r="CP53" s="30">
-        <v>8.0279215175093981</v>
-      </c>
-      <c r="CQ53" s="30"/>
-      <c r="CR53" s="30"/>
-      <c r="CS53" s="30"/>
-      <c r="CT53" s="30"/>
-      <c r="CU53" s="17"/>
+      <c r="CP53" s="12">
+        <v>7.1799796902835169</v>
+      </c>
+      <c r="CQ53" s="12">
+        <v>5.5347653636076899</v>
+      </c>
+      <c r="CR53" s="12"/>
+      <c r="CS53" s="12"/>
+      <c r="CT53" s="12"/>
+      <c r="CU53" s="12"/>
       <c r="CV53" s="17"/>
       <c r="CW53" s="17"/>
       <c r="CX53" s="17"/>
@@ -31779,11 +31768,12 @@
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
-      <c r="CP54" s="27"/>
-      <c r="CQ54" s="27"/>
-      <c r="CR54" s="27"/>
-      <c r="CS54" s="27"/>
-      <c r="CT54" s="27"/>
+      <c r="CP54" s="9"/>
+      <c r="CQ54" s="9"/>
+      <c r="CR54" s="9"/>
+      <c r="CS54" s="9"/>
+      <c r="CT54" s="9"/>
+      <c r="CU54" s="9"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -31881,11 +31871,12 @@
       <c r="CM55" s="3"/>
       <c r="CN55" s="3"/>
       <c r="CO55" s="3"/>
-      <c r="CP55" s="21"/>
-      <c r="CQ55" s="21"/>
-      <c r="CR55" s="21"/>
-      <c r="CS55" s="21"/>
-      <c r="CT55" s="21"/>
+      <c r="CP55" s="3"/>
+      <c r="CQ55" s="3"/>
+      <c r="CR55" s="3"/>
+      <c r="CS55" s="3"/>
+      <c r="CT55" s="3"/>
+      <c r="CU55" s="3"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -31980,12 +31971,12 @@
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
-      <c r="CP56" s="25"/>
-      <c r="CQ56" s="25"/>
-      <c r="CR56" s="25"/>
-      <c r="CS56" s="25"/>
-      <c r="CT56" s="25"/>
-      <c r="CU56" s="17"/>
+      <c r="CP56" s="11"/>
+      <c r="CQ56" s="11"/>
+      <c r="CR56" s="11"/>
+      <c r="CS56" s="11"/>
+      <c r="CT56" s="11"/>
+      <c r="CU56" s="11"/>
       <c r="CV56" s="17"/>
       <c r="CW56" s="17"/>
       <c r="CX56" s="17"/>
@@ -32132,12 +32123,12 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="25"/>
-      <c r="CQ57" s="25"/>
-      <c r="CR57" s="25"/>
-      <c r="CS57" s="25"/>
-      <c r="CT57" s="25"/>
-      <c r="CU57" s="17"/>
+      <c r="CP57" s="11"/>
+      <c r="CQ57" s="11"/>
+      <c r="CR57" s="11"/>
+      <c r="CS57" s="11"/>
+      <c r="CT57" s="11"/>
+      <c r="CU57" s="11"/>
       <c r="CV57" s="17"/>
       <c r="CW57" s="17"/>
       <c r="CX57" s="17"/>
@@ -32287,11 +32278,12 @@
       <c r="CM58" s="3"/>
       <c r="CN58" s="3"/>
       <c r="CO58" s="3"/>
-      <c r="CP58" s="21"/>
-      <c r="CQ58" s="21"/>
-      <c r="CR58" s="21"/>
-      <c r="CS58" s="21"/>
-      <c r="CT58" s="21"/>
+      <c r="CP58" s="3"/>
+      <c r="CQ58" s="3"/>
+      <c r="CR58" s="3"/>
+      <c r="CS58" s="3"/>
+      <c r="CT58" s="3"/>
+      <c r="CU58" s="3"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32389,15 +32381,16 @@
       <c r="CM59" s="3"/>
       <c r="CN59" s="3"/>
       <c r="CO59" s="3"/>
-      <c r="CP59" s="21"/>
-      <c r="CQ59" s="21"/>
-      <c r="CR59" s="21"/>
-      <c r="CS59" s="21"/>
-      <c r="CT59" s="21"/>
+      <c r="CP59" s="3"/>
+      <c r="CQ59" s="3"/>
+      <c r="CR59" s="3"/>
+      <c r="CS59" s="3"/>
+      <c r="CT59" s="3"/>
+      <c r="CU59" s="3"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32491,11 +32484,12 @@
       <c r="CM60" s="3"/>
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
-      <c r="CP60" s="21"/>
-      <c r="CQ60" s="21"/>
-      <c r="CR60" s="21"/>
-      <c r="CS60" s="21"/>
-      <c r="CT60" s="21"/>
+      <c r="CP60" s="3"/>
+      <c r="CQ60" s="3"/>
+      <c r="CR60" s="3"/>
+      <c r="CS60" s="3"/>
+      <c r="CT60" s="3"/>
+      <c r="CU60" s="3"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32591,11 +32585,12 @@
       <c r="CM61" s="3"/>
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
-      <c r="CP61" s="21"/>
-      <c r="CQ61" s="21"/>
-      <c r="CR61" s="21"/>
-      <c r="CS61" s="21"/>
-      <c r="CT61" s="21"/>
+      <c r="CP61" s="3"/>
+      <c r="CQ61" s="3"/>
+      <c r="CR61" s="3"/>
+      <c r="CS61" s="3"/>
+      <c r="CT61" s="3"/>
+      <c r="CU61" s="3"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32693,15 +32688,16 @@
       <c r="CM62" s="3"/>
       <c r="CN62" s="3"/>
       <c r="CO62" s="3"/>
-      <c r="CP62" s="21"/>
-      <c r="CQ62" s="21"/>
-      <c r="CR62" s="21"/>
-      <c r="CS62" s="21"/>
-      <c r="CT62" s="21"/>
+      <c r="CP62" s="3"/>
+      <c r="CQ62" s="3"/>
+      <c r="CR62" s="3"/>
+      <c r="CS62" s="3"/>
+      <c r="CT62" s="3"/>
+      <c r="CU62" s="3"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32795,11 +32791,12 @@
       <c r="CM63" s="3"/>
       <c r="CN63" s="3"/>
       <c r="CO63" s="3"/>
-      <c r="CP63" s="21"/>
-      <c r="CQ63" s="21"/>
-      <c r="CR63" s="21"/>
-      <c r="CS63" s="21"/>
-      <c r="CT63" s="21"/>
+      <c r="CP63" s="3"/>
+      <c r="CQ63" s="3"/>
+      <c r="CR63" s="3"/>
+      <c r="CS63" s="3"/>
+      <c r="CT63" s="3"/>
+      <c r="CU63" s="3"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -32897,11 +32894,12 @@
       <c r="CM64" s="3"/>
       <c r="CN64" s="3"/>
       <c r="CO64" s="3"/>
-      <c r="CP64" s="21"/>
-      <c r="CQ64" s="21"/>
-      <c r="CR64" s="21"/>
-      <c r="CS64" s="21"/>
-      <c r="CT64" s="21"/>
+      <c r="CP64" s="3"/>
+      <c r="CQ64" s="3"/>
+      <c r="CR64" s="3"/>
+      <c r="CS64" s="3"/>
+      <c r="CT64" s="3"/>
+      <c r="CU64" s="3"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -32997,140 +32995,141 @@
       <c r="CM65" s="3"/>
       <c r="CN65" s="3"/>
       <c r="CO65" s="3"/>
-      <c r="CP65" s="21"/>
-      <c r="CQ65" s="21"/>
-      <c r="CR65" s="21"/>
-      <c r="CS65" s="21"/>
-      <c r="CT65" s="21"/>
+      <c r="CP65" s="3"/>
+      <c r="CQ65" s="3"/>
+      <c r="CR65" s="3"/>
+      <c r="CS65" s="3"/>
+      <c r="CT65" s="3"/>
+      <c r="CU65" s="3"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33" t="s">
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33" t="s">
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33" t="s">
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="33" t="s">
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33" t="s">
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="33"/>
-      <c r="AD66" s="33" t="s">
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="33"/>
-      <c r="AF66" s="33"/>
-      <c r="AG66" s="33"/>
-      <c r="AH66" s="33" t="s">
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="33"/>
-      <c r="AJ66" s="33"/>
-      <c r="AK66" s="33"/>
-      <c r="AL66" s="33" t="s">
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="33"/>
-      <c r="AN66" s="33"/>
-      <c r="AO66" s="33"/>
-      <c r="AP66" s="33" t="s">
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+      <c r="AP66" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="33"/>
-      <c r="AR66" s="33"/>
-      <c r="AS66" s="33"/>
-      <c r="AT66" s="33" t="s">
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
+      <c r="AT66" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="33"/>
-      <c r="AV66" s="33"/>
-      <c r="AW66" s="33"/>
-      <c r="AX66" s="33" t="s">
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+      <c r="AX66" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="33"/>
-      <c r="AZ66" s="33"/>
-      <c r="BA66" s="33"/>
-      <c r="BB66" s="33" t="s">
+      <c r="AY66" s="21"/>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="21"/>
+      <c r="BB66" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="33"/>
-      <c r="BD66" s="33"/>
-      <c r="BE66" s="33"/>
-      <c r="BF66" s="33" t="s">
+      <c r="BC66" s="21"/>
+      <c r="BD66" s="21"/>
+      <c r="BE66" s="21"/>
+      <c r="BF66" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="33"/>
-      <c r="BH66" s="33"/>
-      <c r="BI66" s="33"/>
-      <c r="BJ66" s="33" t="s">
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="21"/>
+      <c r="BJ66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="33"/>
-      <c r="BL66" s="33"/>
-      <c r="BM66" s="33"/>
-      <c r="BN66" s="33" t="s">
+      <c r="BK66" s="21"/>
+      <c r="BL66" s="21"/>
+      <c r="BM66" s="21"/>
+      <c r="BN66" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="33"/>
-      <c r="BP66" s="33"/>
-      <c r="BQ66" s="33"/>
-      <c r="BR66" s="33" t="s">
+      <c r="BO66" s="21"/>
+      <c r="BP66" s="21"/>
+      <c r="BQ66" s="21"/>
+      <c r="BR66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="33"/>
-      <c r="BT66" s="33"/>
-      <c r="BU66" s="33"/>
-      <c r="BV66" s="33" t="s">
+      <c r="BS66" s="21"/>
+      <c r="BT66" s="21"/>
+      <c r="BU66" s="21"/>
+      <c r="BV66" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="33"/>
-      <c r="BX66" s="33"/>
-      <c r="BY66" s="33"/>
-      <c r="BZ66" s="33" t="s">
+      <c r="BW66" s="21"/>
+      <c r="BX66" s="21"/>
+      <c r="BY66" s="21"/>
+      <c r="BZ66" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="33"/>
-      <c r="CB66" s="33"/>
-      <c r="CC66" s="33"/>
-      <c r="CD66" s="33" t="s">
+      <c r="CA66" s="21"/>
+      <c r="CB66" s="21"/>
+      <c r="CC66" s="21"/>
+      <c r="CD66" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="33"/>
-      <c r="CF66" s="33"/>
-      <c r="CG66" s="33"/>
+      <c r="CE66" s="21"/>
+      <c r="CF66" s="21"/>
+      <c r="CG66" s="21"/>
       <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
@@ -33143,13 +33142,14 @@
       <c r="CM66" s="19"/>
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
-      <c r="CP66" s="22" t="s">
+      <c r="CP66" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="28"/>
-      <c r="CR66" s="28"/>
-      <c r="CS66" s="28"/>
-      <c r="CT66" s="28"/>
+      <c r="CQ66" s="19"/>
+      <c r="CR66" s="20"/>
+      <c r="CS66" s="20"/>
+      <c r="CT66" s="19"/>
+      <c r="CU66" s="20"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33431,13 +33431,16 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="29" t="s">
+      <c r="CP67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="29"/>
-      <c r="CR67" s="29"/>
-      <c r="CS67" s="29"/>
-      <c r="CT67" s="29"/>
+      <c r="CQ67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR67" s="5"/>
+      <c r="CS67" s="5"/>
+      <c r="CT67" s="5"/>
+      <c r="CU67" s="5"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33533,11 +33536,12 @@
       <c r="CM68" s="3"/>
       <c r="CN68" s="3"/>
       <c r="CO68" s="3"/>
-      <c r="CP68" s="21"/>
-      <c r="CQ68" s="21"/>
-      <c r="CR68" s="21"/>
-      <c r="CS68" s="21"/>
-      <c r="CT68" s="21"/>
+      <c r="CP68" s="3"/>
+      <c r="CQ68" s="3"/>
+      <c r="CR68" s="3"/>
+      <c r="CS68" s="3"/>
+      <c r="CT68" s="3"/>
+      <c r="CU68" s="3"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33819,14 +33823,16 @@
       <c r="CO69" s="12">
         <v>7.2224800437344214</v>
       </c>
-      <c r="CP69" s="30">
+      <c r="CP69" s="12">
         <v>0.62225790178607099</v>
       </c>
-      <c r="CQ69" s="30"/>
-      <c r="CR69" s="30"/>
-      <c r="CS69" s="30"/>
-      <c r="CT69" s="30"/>
-      <c r="CU69" s="17"/>
+      <c r="CQ69" s="12">
+        <v>-1.3662018973101766</v>
+      </c>
+      <c r="CR69" s="12"/>
+      <c r="CS69" s="12"/>
+      <c r="CT69" s="12"/>
+      <c r="CU69" s="12"/>
       <c r="CV69" s="17"/>
       <c r="CW69" s="17"/>
       <c r="CX69" s="17"/>
@@ -34160,14 +34166,16 @@
       <c r="CO70" s="12">
         <v>9.769839053307507</v>
       </c>
-      <c r="CP70" s="30">
-        <v>12.919641092846959</v>
-      </c>
-      <c r="CQ70" s="30"/>
-      <c r="CR70" s="30"/>
-      <c r="CS70" s="30"/>
-      <c r="CT70" s="30"/>
-      <c r="CU70" s="17"/>
+      <c r="CP70" s="12">
+        <v>10.245405050388001</v>
+      </c>
+      <c r="CQ70" s="12">
+        <v>10.319650801033603</v>
+      </c>
+      <c r="CR70" s="12"/>
+      <c r="CS70" s="12"/>
+      <c r="CT70" s="12"/>
+      <c r="CU70" s="12"/>
       <c r="CV70" s="17"/>
       <c r="CW70" s="17"/>
       <c r="CX70" s="17"/>
@@ -34314,12 +34322,12 @@
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
-      <c r="CP71" s="25"/>
-      <c r="CQ71" s="25"/>
-      <c r="CR71" s="25"/>
-      <c r="CS71" s="25"/>
-      <c r="CT71" s="25"/>
-      <c r="CU71" s="17"/>
+      <c r="CP71" s="11"/>
+      <c r="CQ71" s="11"/>
+      <c r="CR71" s="11"/>
+      <c r="CS71" s="11"/>
+      <c r="CT71" s="11"/>
+      <c r="CU71" s="11"/>
       <c r="CV71" s="17"/>
       <c r="CW71" s="17"/>
       <c r="CX71" s="17"/>
@@ -34653,14 +34661,16 @@
       <c r="CO72" s="12">
         <v>8.052930281622622</v>
       </c>
-      <c r="CP72" s="30">
-        <v>4.5800878011351074</v>
-      </c>
-      <c r="CQ72" s="30"/>
-      <c r="CR72" s="30"/>
-      <c r="CS72" s="30"/>
-      <c r="CT72" s="30"/>
-      <c r="CU72" s="17"/>
+      <c r="CP72" s="12">
+        <v>3.7194029544227902</v>
+      </c>
+      <c r="CQ72" s="12">
+        <v>2.0536663347005231</v>
+      </c>
+      <c r="CR72" s="12"/>
+      <c r="CS72" s="12"/>
+      <c r="CT72" s="12"/>
+      <c r="CU72" s="12"/>
       <c r="CV72" s="17"/>
       <c r="CW72" s="17"/>
       <c r="CX72" s="17"/>
@@ -34808,11 +34818,12 @@
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
-      <c r="CP73" s="27"/>
-      <c r="CQ73" s="27"/>
-      <c r="CR73" s="27"/>
-      <c r="CS73" s="27"/>
-      <c r="CT73" s="27"/>
+      <c r="CP73" s="9"/>
+      <c r="CQ73" s="9"/>
+      <c r="CR73" s="9"/>
+      <c r="CS73" s="9"/>
+      <c r="CT73" s="9"/>
+      <c r="CU73" s="9"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -34910,11 +34921,12 @@
       <c r="CM74" s="3"/>
       <c r="CN74" s="3"/>
       <c r="CO74" s="3"/>
-      <c r="CP74" s="21"/>
-      <c r="CQ74" s="21"/>
-      <c r="CR74" s="21"/>
-      <c r="CS74" s="21"/>
-      <c r="CT74" s="21"/>
+      <c r="CP74" s="3"/>
+      <c r="CQ74" s="3"/>
+      <c r="CR74" s="3"/>
+      <c r="CS74" s="3"/>
+      <c r="CT74" s="3"/>
+      <c r="CU74" s="3"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -35009,12 +35021,12 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="17"/>
       <c r="CO75" s="17"/>
-      <c r="CP75" s="25"/>
-      <c r="CQ75" s="25"/>
-      <c r="CR75" s="31"/>
-      <c r="CS75" s="31"/>
-      <c r="CT75" s="25"/>
-      <c r="CU75" s="17"/>
+      <c r="CP75" s="11"/>
+      <c r="CQ75" s="11"/>
+      <c r="CR75" s="17"/>
+      <c r="CS75" s="17"/>
+      <c r="CT75" s="11"/>
+      <c r="CU75" s="11"/>
       <c r="CV75" s="17"/>
       <c r="CW75" s="17"/>
       <c r="CX75" s="17"/>
@@ -35161,11 +35173,11 @@
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="31"/>
-      <c r="CQ76" s="31"/>
-      <c r="CR76" s="31"/>
-      <c r="CS76" s="31"/>
-      <c r="CT76" s="31"/>
+      <c r="CP76" s="17"/>
+      <c r="CQ76" s="17"/>
+      <c r="CR76" s="17"/>
+      <c r="CS76" s="17"/>
+      <c r="CT76" s="17"/>
       <c r="CU76" s="17"/>
       <c r="CV76" s="17"/>
       <c r="CW76" s="17"/>
@@ -35304,15 +35316,10 @@
       <c r="CA77" s="3"/>
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
-      <c r="CP77" s="20"/>
-      <c r="CQ77" s="20"/>
-      <c r="CR77" s="20"/>
-      <c r="CS77" s="20"/>
-      <c r="CT77" s="20"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -35394,11 +35401,6 @@
       <c r="CA78" s="3"/>
       <c r="CB78" s="3"/>
       <c r="CC78" s="3"/>
-      <c r="CP78" s="20"/>
-      <c r="CQ78" s="20"/>
-      <c r="CR78" s="20"/>
-      <c r="CS78" s="20"/>
-      <c r="CT78" s="20"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35482,11 +35484,6 @@
       <c r="CA79" s="3"/>
       <c r="CB79" s="3"/>
       <c r="CC79" s="3"/>
-      <c r="CP79" s="20"/>
-      <c r="CQ79" s="20"/>
-      <c r="CR79" s="20"/>
-      <c r="CS79" s="20"/>
-      <c r="CT79" s="20"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35572,15 +35569,10 @@
       <c r="CA80" s="3"/>
       <c r="CB80" s="3"/>
       <c r="CC80" s="3"/>
-      <c r="CP80" s="20"/>
-      <c r="CQ80" s="20"/>
-      <c r="CR80" s="20"/>
-      <c r="CS80" s="20"/>
-      <c r="CT80" s="20"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35662,11 +35654,6 @@
       <c r="CA81" s="3"/>
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
-      <c r="CP81" s="20"/>
-      <c r="CQ81" s="20"/>
-      <c r="CR81" s="20"/>
-      <c r="CS81" s="20"/>
-      <c r="CT81" s="20"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -35752,11 +35739,6 @@
       <c r="CA82" s="3"/>
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
-      <c r="CP82" s="20"/>
-      <c r="CQ82" s="20"/>
-      <c r="CR82" s="20"/>
-      <c r="CS82" s="20"/>
-      <c r="CT82" s="20"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -35840,140 +35822,135 @@
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
-      <c r="CP83" s="20"/>
-      <c r="CQ83" s="20"/>
-      <c r="CR83" s="20"/>
-      <c r="CS83" s="20"/>
-      <c r="CT83" s="20"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="33">
+      <c r="B84" s="21">
         <v>2000</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="33">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="21">
         <v>2001</v>
       </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="33">
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="21">
         <v>2002</v>
       </c>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="33">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="21">
         <v>2003</v>
       </c>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="33">
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="21">
         <v>2004</v>
       </c>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="33">
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="21">
         <v>2005</v>
       </c>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="33">
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="21">
         <v>2006</v>
       </c>
-      <c r="AA84" s="34"/>
-      <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
-      <c r="AD84" s="33">
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="21">
         <v>2007</v>
       </c>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="34"/>
-      <c r="AG84" s="34"/>
-      <c r="AH84" s="33">
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="21">
         <v>2008</v>
       </c>
-      <c r="AI84" s="34"/>
-      <c r="AJ84" s="34"/>
-      <c r="AK84" s="34"/>
-      <c r="AL84" s="33">
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="21">
         <v>2009</v>
       </c>
-      <c r="AM84" s="34"/>
-      <c r="AN84" s="34"/>
-      <c r="AO84" s="34"/>
-      <c r="AP84" s="33">
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="34"/>
-      <c r="AS84" s="34"/>
-      <c r="AT84" s="33">
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="21">
         <v>2011</v>
       </c>
-      <c r="AU84" s="34"/>
-      <c r="AV84" s="34"/>
-      <c r="AW84" s="34"/>
-      <c r="AX84" s="33">
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="21">
         <v>2012</v>
       </c>
-      <c r="AY84" s="34"/>
-      <c r="AZ84" s="34"/>
-      <c r="BA84" s="34"/>
-      <c r="BB84" s="33">
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="21">
         <v>2013</v>
       </c>
-      <c r="BC84" s="34"/>
-      <c r="BD84" s="34"/>
-      <c r="BE84" s="34"/>
-      <c r="BF84" s="33">
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="21">
         <v>2014</v>
       </c>
-      <c r="BG84" s="34"/>
-      <c r="BH84" s="34"/>
-      <c r="BI84" s="34"/>
-      <c r="BJ84" s="33">
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="21">
         <v>2015</v>
       </c>
-      <c r="BK84" s="34"/>
-      <c r="BL84" s="34"/>
-      <c r="BM84" s="34"/>
-      <c r="BN84" s="33">
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="21">
         <v>2016</v>
       </c>
-      <c r="BO84" s="34"/>
-      <c r="BP84" s="34"/>
-      <c r="BQ84" s="34"/>
-      <c r="BR84" s="33">
+      <c r="BO84" s="22"/>
+      <c r="BP84" s="22"/>
+      <c r="BQ84" s="22"/>
+      <c r="BR84" s="21">
         <v>2017</v>
       </c>
-      <c r="BS84" s="34"/>
-      <c r="BT84" s="34"/>
-      <c r="BU84" s="34"/>
-      <c r="BV84" s="33">
+      <c r="BS84" s="22"/>
+      <c r="BT84" s="22"/>
+      <c r="BU84" s="22"/>
+      <c r="BV84" s="21">
         <v>2018</v>
       </c>
-      <c r="BW84" s="34"/>
-      <c r="BX84" s="34"/>
-      <c r="BY84" s="34"/>
-      <c r="BZ84" s="33">
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
+      <c r="BZ84" s="21">
         <v>2019</v>
       </c>
-      <c r="CA84" s="34"/>
-      <c r="CB84" s="34"/>
-      <c r="CC84" s="34"/>
-      <c r="CD84" s="33">
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
+      <c r="CD84" s="21">
         <v>2020</v>
       </c>
-      <c r="CE84" s="33"/>
-      <c r="CF84" s="33"/>
-      <c r="CG84" s="33"/>
+      <c r="CE84" s="21"/>
+      <c r="CF84" s="21"/>
+      <c r="CG84" s="21"/>
       <c r="CH84" s="19">
         <v>2021</v>
       </c>
@@ -35986,15 +35963,16 @@
       <c r="CM84" s="19"/>
       <c r="CN84" s="19"/>
       <c r="CO84" s="19"/>
-      <c r="CP84" s="22">
+      <c r="CP84" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="22"/>
-      <c r="CR84" s="22"/>
-      <c r="CS84" s="22"/>
-      <c r="CT84" s="22">
+      <c r="CQ84" s="19"/>
+      <c r="CR84" s="19"/>
+      <c r="CS84" s="19"/>
+      <c r="CT84" s="19">
         <v>2024</v>
       </c>
+      <c r="CU84" s="19"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -36276,20 +36254,23 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="23" t="s">
+      <c r="CP85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="23" t="s">
+      <c r="CQ85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="23" t="s">
+      <c r="CR85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="23" t="s">
+      <c r="CS85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="23" t="s">
+      <c r="CT85" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU85" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36374,11 +36355,6 @@
       <c r="CA86" s="3"/>
       <c r="CB86" s="3"/>
       <c r="CC86" s="3"/>
-      <c r="CP86" s="20"/>
-      <c r="CQ86" s="20"/>
-      <c r="CR86" s="20"/>
-      <c r="CS86" s="20"/>
-      <c r="CT86" s="20"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36660,22 +36636,24 @@
       <c r="CO87" s="12">
         <v>128.683257464295</v>
       </c>
-      <c r="CP87" s="30">
+      <c r="CP87" s="12">
         <v>110.28127685308264</v>
       </c>
-      <c r="CQ87" s="30">
+      <c r="CQ87" s="12">
         <v>111.25731676529109</v>
       </c>
-      <c r="CR87" s="30">
+      <c r="CR87" s="12">
         <v>115.77581232093399</v>
       </c>
-      <c r="CS87" s="30">
+      <c r="CS87" s="12">
         <v>133.43522613038178</v>
       </c>
-      <c r="CT87" s="30">
+      <c r="CT87" s="12">
         <v>113.65684841215035</v>
       </c>
-      <c r="CU87" s="17"/>
+      <c r="CU87" s="12">
+        <v>114.86131030267848</v>
+      </c>
       <c r="CV87" s="17"/>
       <c r="CW87" s="17"/>
       <c r="CX87" s="17"/>
@@ -37009,22 +36987,24 @@
       <c r="CO88" s="12">
         <v>114.80154612467186</v>
       </c>
-      <c r="CP88" s="30">
+      <c r="CP88" s="12">
         <v>101.24156283159209</v>
       </c>
-      <c r="CQ88" s="30">
+      <c r="CQ88" s="12">
         <v>103.31716297128104</v>
       </c>
-      <c r="CR88" s="30">
+      <c r="CR88" s="12">
         <v>114.33168243158303</v>
       </c>
-      <c r="CS88" s="30">
+      <c r="CS88" s="12">
         <v>119.54363455938457</v>
       </c>
-      <c r="CT88" s="30">
-        <v>105.75755805041413</v>
-      </c>
-      <c r="CU88" s="17"/>
+      <c r="CT88" s="12">
+        <v>105.75696049307066</v>
+      </c>
+      <c r="CU88" s="12">
+        <v>107.86944493067416</v>
+      </c>
       <c r="CV88" s="17"/>
       <c r="CW88" s="17"/>
       <c r="CX88" s="17"/>
@@ -37171,12 +37151,12 @@
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
-      <c r="CP89" s="25"/>
-      <c r="CQ89" s="25"/>
-      <c r="CR89" s="25"/>
-      <c r="CS89" s="25"/>
-      <c r="CT89" s="25"/>
-      <c r="CU89" s="17"/>
+      <c r="CP89" s="11"/>
+      <c r="CQ89" s="11"/>
+      <c r="CR89" s="11"/>
+      <c r="CS89" s="11"/>
+      <c r="CT89" s="11"/>
+      <c r="CU89" s="11"/>
       <c r="CV89" s="17"/>
       <c r="CW89" s="17"/>
       <c r="CX89" s="17"/>
@@ -37510,22 +37490,24 @@
       <c r="CO90" s="12">
         <v>124.15775852953077</v>
       </c>
-      <c r="CP90" s="30">
+      <c r="CP90" s="12">
         <v>107.37190582024149</v>
       </c>
-      <c r="CQ90" s="30">
+      <c r="CQ90" s="12">
         <v>108.93362842021526</v>
       </c>
-      <c r="CR90" s="30">
+      <c r="CR90" s="12">
         <v>115.28790889209321</v>
       </c>
-      <c r="CS90" s="30">
+      <c r="CS90" s="12">
         <v>128.83454702860234</v>
       </c>
-      <c r="CT90" s="30">
-        <v>110.91178119099423</v>
-      </c>
-      <c r="CU90" s="17"/>
+      <c r="CT90" s="12">
+        <v>110.95434756963951</v>
+      </c>
+      <c r="CU90" s="12">
+        <v>112.64940622348665</v>
+      </c>
       <c r="CV90" s="17"/>
       <c r="CW90" s="17"/>
       <c r="CX90" s="17"/>
@@ -37673,11 +37655,12 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="27"/>
-      <c r="CQ91" s="27"/>
-      <c r="CR91" s="27"/>
-      <c r="CS91" s="27"/>
-      <c r="CT91" s="27"/>
+      <c r="CP91" s="9"/>
+      <c r="CQ91" s="9"/>
+      <c r="CR91" s="9"/>
+      <c r="CS91" s="9"/>
+      <c r="CT91" s="9"/>
+      <c r="CU91" s="9"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37763,11 +37746,6 @@
       <c r="CA92" s="3"/>
       <c r="CB92" s="3"/>
       <c r="CC92" s="3"/>
-      <c r="CP92" s="20"/>
-      <c r="CQ92" s="20"/>
-      <c r="CR92" s="20"/>
-      <c r="CS92" s="20"/>
-      <c r="CT92" s="20"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -37862,11 +37840,12 @@
       <c r="CM93" s="3"/>
       <c r="CN93" s="3"/>
       <c r="CO93" s="3"/>
-      <c r="CP93" s="21"/>
-      <c r="CQ93" s="21"/>
-      <c r="CR93" s="21"/>
-      <c r="CS93" s="21"/>
-      <c r="CT93" s="21"/>
+      <c r="CP93" s="3"/>
+      <c r="CQ93" s="3"/>
+      <c r="CR93" s="3"/>
+      <c r="CS93" s="3"/>
+      <c r="CT93" s="3"/>
+      <c r="CU93" s="3"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -37961,11 +37940,12 @@
       <c r="CM94" s="3"/>
       <c r="CN94" s="3"/>
       <c r="CO94" s="3"/>
-      <c r="CP94" s="21"/>
-      <c r="CQ94" s="21"/>
-      <c r="CR94" s="21"/>
-      <c r="CS94" s="21"/>
-      <c r="CT94" s="21"/>
+      <c r="CP94" s="3"/>
+      <c r="CQ94" s="3"/>
+      <c r="CR94" s="3"/>
+      <c r="CS94" s="3"/>
+      <c r="CT94" s="3"/>
+      <c r="CU94" s="3"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -38063,11 +38043,12 @@
       <c r="CM95" s="3"/>
       <c r="CN95" s="3"/>
       <c r="CO95" s="3"/>
-      <c r="CP95" s="21"/>
-      <c r="CQ95" s="21"/>
-      <c r="CR95" s="21"/>
-      <c r="CS95" s="21"/>
-      <c r="CT95" s="21"/>
+      <c r="CP95" s="3"/>
+      <c r="CQ95" s="3"/>
+      <c r="CR95" s="3"/>
+      <c r="CS95" s="3"/>
+      <c r="CT95" s="3"/>
+      <c r="CU95" s="3"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -38165,15 +38146,16 @@
       <c r="CM96" s="3"/>
       <c r="CN96" s="3"/>
       <c r="CO96" s="3"/>
-      <c r="CP96" s="21"/>
-      <c r="CQ96" s="21"/>
-      <c r="CR96" s="21"/>
-      <c r="CS96" s="21"/>
-      <c r="CT96" s="21"/>
+      <c r="CP96" s="3"/>
+      <c r="CQ96" s="3"/>
+      <c r="CR96" s="3"/>
+      <c r="CS96" s="3"/>
+      <c r="CT96" s="3"/>
+      <c r="CU96" s="3"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -38267,11 +38249,12 @@
       <c r="CM97" s="3"/>
       <c r="CN97" s="3"/>
       <c r="CO97" s="3"/>
-      <c r="CP97" s="21"/>
-      <c r="CQ97" s="21"/>
-      <c r="CR97" s="21"/>
-      <c r="CS97" s="21"/>
-      <c r="CT97" s="21"/>
+      <c r="CP97" s="3"/>
+      <c r="CQ97" s="3"/>
+      <c r="CR97" s="3"/>
+      <c r="CS97" s="3"/>
+      <c r="CT97" s="3"/>
+      <c r="CU97" s="3"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -38367,11 +38350,12 @@
       <c r="CM98" s="3"/>
       <c r="CN98" s="3"/>
       <c r="CO98" s="3"/>
-      <c r="CP98" s="21"/>
-      <c r="CQ98" s="21"/>
-      <c r="CR98" s="21"/>
-      <c r="CS98" s="21"/>
-      <c r="CT98" s="21"/>
+      <c r="CP98" s="3"/>
+      <c r="CQ98" s="3"/>
+      <c r="CR98" s="3"/>
+      <c r="CS98" s="3"/>
+      <c r="CT98" s="3"/>
+      <c r="CU98" s="3"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -38469,15 +38453,16 @@
       <c r="CM99" s="3"/>
       <c r="CN99" s="3"/>
       <c r="CO99" s="3"/>
-      <c r="CP99" s="21"/>
-      <c r="CQ99" s="21"/>
-      <c r="CR99" s="21"/>
-      <c r="CS99" s="21"/>
-      <c r="CT99" s="21"/>
+      <c r="CP99" s="3"/>
+      <c r="CQ99" s="3"/>
+      <c r="CR99" s="3"/>
+      <c r="CS99" s="3"/>
+      <c r="CT99" s="3"/>
+      <c r="CU99" s="3"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -38571,11 +38556,12 @@
       <c r="CM100" s="3"/>
       <c r="CN100" s="3"/>
       <c r="CO100" s="3"/>
-      <c r="CP100" s="21"/>
-      <c r="CQ100" s="21"/>
-      <c r="CR100" s="21"/>
-      <c r="CS100" s="21"/>
-      <c r="CT100" s="21"/>
+      <c r="CP100" s="3"/>
+      <c r="CQ100" s="3"/>
+      <c r="CR100" s="3"/>
+      <c r="CS100" s="3"/>
+      <c r="CT100" s="3"/>
+      <c r="CU100" s="3"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38673,11 +38659,12 @@
       <c r="CM101" s="3"/>
       <c r="CN101" s="3"/>
       <c r="CO101" s="3"/>
-      <c r="CP101" s="21"/>
-      <c r="CQ101" s="21"/>
-      <c r="CR101" s="21"/>
-      <c r="CS101" s="21"/>
-      <c r="CT101" s="21"/>
+      <c r="CP101" s="3"/>
+      <c r="CQ101" s="3"/>
+      <c r="CR101" s="3"/>
+      <c r="CS101" s="3"/>
+      <c r="CT101" s="3"/>
+      <c r="CU101" s="3"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -38773,140 +38760,141 @@
       <c r="CM102" s="3"/>
       <c r="CN102" s="3"/>
       <c r="CO102" s="3"/>
-      <c r="CP102" s="21"/>
-      <c r="CQ102" s="21"/>
-      <c r="CR102" s="21"/>
-      <c r="CS102" s="21"/>
-      <c r="CT102" s="21"/>
+      <c r="CP102" s="3"/>
+      <c r="CQ102" s="3"/>
+      <c r="CR102" s="3"/>
+      <c r="CS102" s="3"/>
+      <c r="CT102" s="3"/>
+      <c r="CU102" s="3"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="33">
+      <c r="B103" s="21">
         <v>2000</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="33">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="21">
         <v>2001</v>
       </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="33">
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="21">
         <v>2002</v>
       </c>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="33">
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="21">
         <v>2003</v>
       </c>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="33">
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="21">
         <v>2004</v>
       </c>
-      <c r="S103" s="34"/>
-      <c r="T103" s="34"/>
-      <c r="U103" s="34"/>
-      <c r="V103" s="33">
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="21">
         <v>2005</v>
       </c>
-      <c r="W103" s="34"/>
-      <c r="X103" s="34"/>
-      <c r="Y103" s="34"/>
-      <c r="Z103" s="33">
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="21">
         <v>2006</v>
       </c>
-      <c r="AA103" s="34"/>
-      <c r="AB103" s="34"/>
-      <c r="AC103" s="34"/>
-      <c r="AD103" s="33">
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="22"/>
+      <c r="AD103" s="21">
         <v>2007</v>
       </c>
-      <c r="AE103" s="34"/>
-      <c r="AF103" s="34"/>
-      <c r="AG103" s="34"/>
-      <c r="AH103" s="33">
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
+      <c r="AH103" s="21">
         <v>2008</v>
       </c>
-      <c r="AI103" s="34"/>
-      <c r="AJ103" s="34"/>
-      <c r="AK103" s="34"/>
-      <c r="AL103" s="33">
+      <c r="AI103" s="22"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
+      <c r="AL103" s="21">
         <v>2009</v>
       </c>
-      <c r="AM103" s="34"/>
-      <c r="AN103" s="34"/>
-      <c r="AO103" s="34"/>
-      <c r="AP103" s="33">
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="22"/>
+      <c r="AP103" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="34"/>
-      <c r="AR103" s="34"/>
-      <c r="AS103" s="34"/>
-      <c r="AT103" s="33">
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="22"/>
+      <c r="AT103" s="21">
         <v>2011</v>
       </c>
-      <c r="AU103" s="34"/>
-      <c r="AV103" s="34"/>
-      <c r="AW103" s="34"/>
-      <c r="AX103" s="33">
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="22"/>
+      <c r="AW103" s="22"/>
+      <c r="AX103" s="21">
         <v>2012</v>
       </c>
-      <c r="AY103" s="34"/>
-      <c r="AZ103" s="34"/>
-      <c r="BA103" s="34"/>
-      <c r="BB103" s="33">
+      <c r="AY103" s="22"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
+      <c r="BB103" s="21">
         <v>2013</v>
       </c>
-      <c r="BC103" s="34"/>
-      <c r="BD103" s="34"/>
-      <c r="BE103" s="34"/>
-      <c r="BF103" s="33">
+      <c r="BC103" s="22"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
+      <c r="BF103" s="21">
         <v>2014</v>
       </c>
-      <c r="BG103" s="34"/>
-      <c r="BH103" s="34"/>
-      <c r="BI103" s="34"/>
-      <c r="BJ103" s="33">
+      <c r="BG103" s="22"/>
+      <c r="BH103" s="22"/>
+      <c r="BI103" s="22"/>
+      <c r="BJ103" s="21">
         <v>2015</v>
       </c>
-      <c r="BK103" s="34"/>
-      <c r="BL103" s="34"/>
-      <c r="BM103" s="34"/>
-      <c r="BN103" s="33">
+      <c r="BK103" s="22"/>
+      <c r="BL103" s="22"/>
+      <c r="BM103" s="22"/>
+      <c r="BN103" s="21">
         <v>2016</v>
       </c>
-      <c r="BO103" s="34"/>
-      <c r="BP103" s="34"/>
-      <c r="BQ103" s="34"/>
-      <c r="BR103" s="33">
+      <c r="BO103" s="22"/>
+      <c r="BP103" s="22"/>
+      <c r="BQ103" s="22"/>
+      <c r="BR103" s="21">
         <v>2017</v>
       </c>
-      <c r="BS103" s="34"/>
-      <c r="BT103" s="34"/>
-      <c r="BU103" s="34"/>
-      <c r="BV103" s="33">
+      <c r="BS103" s="22"/>
+      <c r="BT103" s="22"/>
+      <c r="BU103" s="22"/>
+      <c r="BV103" s="21">
         <v>2018</v>
       </c>
-      <c r="BW103" s="34"/>
-      <c r="BX103" s="34"/>
-      <c r="BY103" s="34"/>
-      <c r="BZ103" s="33">
+      <c r="BW103" s="22"/>
+      <c r="BX103" s="22"/>
+      <c r="BY103" s="22"/>
+      <c r="BZ103" s="21">
         <v>2019</v>
       </c>
-      <c r="CA103" s="34"/>
-      <c r="CB103" s="34"/>
-      <c r="CC103" s="34"/>
-      <c r="CD103" s="33">
+      <c r="CA103" s="22"/>
+      <c r="CB103" s="22"/>
+      <c r="CC103" s="22"/>
+      <c r="CD103" s="21">
         <v>2020</v>
       </c>
-      <c r="CE103" s="33"/>
-      <c r="CF103" s="33"/>
-      <c r="CG103" s="33"/>
+      <c r="CE103" s="21"/>
+      <c r="CF103" s="21"/>
+      <c r="CG103" s="21"/>
       <c r="CH103" s="19">
         <v>2021</v>
       </c>
@@ -38919,15 +38907,16 @@
       <c r="CM103" s="19"/>
       <c r="CN103" s="19"/>
       <c r="CO103" s="19"/>
-      <c r="CP103" s="22">
+      <c r="CP103" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="22"/>
-      <c r="CR103" s="22"/>
-      <c r="CS103" s="22"/>
-      <c r="CT103" s="22">
+      <c r="CQ103" s="19"/>
+      <c r="CR103" s="19"/>
+      <c r="CS103" s="19"/>
+      <c r="CT103" s="19">
         <v>2024</v>
       </c>
+      <c r="CU103" s="19"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -39209,20 +39198,23 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="23" t="s">
+      <c r="CP104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="23" t="s">
+      <c r="CQ104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="23" t="s">
+      <c r="CR104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="23" t="s">
+      <c r="CS104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="23" t="s">
+      <c r="CT104" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU104" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39319,11 +39311,12 @@
       <c r="CM105" s="3"/>
       <c r="CN105" s="3"/>
       <c r="CO105" s="3"/>
-      <c r="CP105" s="21"/>
-      <c r="CQ105" s="21"/>
-      <c r="CR105" s="21"/>
-      <c r="CS105" s="21"/>
-      <c r="CT105" s="21"/>
+      <c r="CP105" s="3"/>
+      <c r="CQ105" s="3"/>
+      <c r="CR105" s="3"/>
+      <c r="CS105" s="3"/>
+      <c r="CT105" s="3"/>
+      <c r="CU105" s="3"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39605,22 +39598,24 @@
       <c r="CO106" s="12">
         <v>69.8562463887571</v>
       </c>
-      <c r="CP106" s="30">
+      <c r="CP106" s="12">
         <v>69.653221286795741</v>
       </c>
-      <c r="CQ106" s="30">
+      <c r="CQ106" s="12">
         <v>72.243834530796818</v>
       </c>
-      <c r="CR106" s="30">
+      <c r="CR106" s="12">
         <v>66.494936461754008</v>
       </c>
-      <c r="CS106" s="30">
+      <c r="CS106" s="12">
         <v>69.269894085136002</v>
       </c>
-      <c r="CT106" s="30">
-        <v>66.864109951971557</v>
-      </c>
-      <c r="CU106" s="17"/>
+      <c r="CT106" s="12">
+        <v>67.393097508531483</v>
+      </c>
+      <c r="CU106" s="12">
+        <v>69.706966213404343</v>
+      </c>
       <c r="CV106" s="17"/>
       <c r="CW106" s="17"/>
       <c r="CX106" s="17"/>
@@ -39958,22 +39953,24 @@
       <c r="CO107" s="12">
         <v>30.143753611242897</v>
       </c>
-      <c r="CP107" s="30">
+      <c r="CP107" s="12">
         <v>30.346778713204259</v>
       </c>
-      <c r="CQ107" s="30">
+      <c r="CQ107" s="12">
         <v>27.756165469203182</v>
       </c>
-      <c r="CR107" s="30">
+      <c r="CR107" s="12">
         <v>33.505063538245999</v>
       </c>
-      <c r="CS107" s="30">
+      <c r="CS107" s="12">
         <v>30.730105914863998</v>
       </c>
-      <c r="CT107" s="30">
-        <v>33.135890048028457</v>
-      </c>
-      <c r="CU107" s="17"/>
+      <c r="CT107" s="12">
+        <v>32.60690249146851</v>
+      </c>
+      <c r="CU107" s="12">
+        <v>30.293033786595657</v>
+      </c>
       <c r="CV107" s="17"/>
       <c r="CW107" s="17"/>
       <c r="CX107" s="17"/>
@@ -40124,12 +40121,12 @@
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
-      <c r="CP108" s="25"/>
-      <c r="CQ108" s="25"/>
-      <c r="CR108" s="25"/>
-      <c r="CS108" s="25"/>
-      <c r="CT108" s="25"/>
-      <c r="CU108" s="17"/>
+      <c r="CP108" s="11"/>
+      <c r="CQ108" s="11"/>
+      <c r="CR108" s="11"/>
+      <c r="CS108" s="11"/>
+      <c r="CT108" s="11"/>
+      <c r="CU108" s="11"/>
       <c r="CV108" s="17"/>
       <c r="CW108" s="17"/>
       <c r="CX108" s="17"/>
@@ -40467,22 +40464,24 @@
       <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="30">
+      <c r="CP109" s="12">
         <v>100</v>
       </c>
-      <c r="CQ109" s="30">
+      <c r="CQ109" s="12">
         <v>100</v>
       </c>
-      <c r="CR109" s="30">
+      <c r="CR109" s="12">
         <v>100</v>
       </c>
-      <c r="CS109" s="30">
+      <c r="CS109" s="12">
         <v>100</v>
       </c>
-      <c r="CT109" s="30">
+      <c r="CT109" s="12">
         <v>100</v>
       </c>
-      <c r="CU109" s="17"/>
+      <c r="CU109" s="12">
+        <v>100</v>
+      </c>
       <c r="CV109" s="17"/>
       <c r="CW109" s="17"/>
       <c r="CX109" s="17"/>
@@ -40634,11 +40633,12 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="27"/>
-      <c r="CQ110" s="27"/>
-      <c r="CR110" s="27"/>
-      <c r="CS110" s="27"/>
-      <c r="CT110" s="27"/>
+      <c r="CP110" s="9"/>
+      <c r="CQ110" s="9"/>
+      <c r="CR110" s="9"/>
+      <c r="CS110" s="9"/>
+      <c r="CT110" s="9"/>
+      <c r="CU110" s="9"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -40736,11 +40736,12 @@
       <c r="CM111" s="3"/>
       <c r="CN111" s="3"/>
       <c r="CO111" s="3"/>
-      <c r="CP111" s="21"/>
-      <c r="CQ111" s="21"/>
-      <c r="CR111" s="21"/>
-      <c r="CS111" s="21"/>
-      <c r="CT111" s="21"/>
+      <c r="CP111" s="3"/>
+      <c r="CQ111" s="3"/>
+      <c r="CR111" s="3"/>
+      <c r="CS111" s="3"/>
+      <c r="CT111" s="3"/>
+      <c r="CU111" s="3"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -40835,12 +40836,12 @@
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
-      <c r="CP112" s="25"/>
-      <c r="CQ112" s="25"/>
-      <c r="CR112" s="25"/>
-      <c r="CS112" s="25"/>
-      <c r="CT112" s="25"/>
-      <c r="CU112" s="17"/>
+      <c r="CP112" s="11"/>
+      <c r="CQ112" s="11"/>
+      <c r="CR112" s="11"/>
+      <c r="CS112" s="11"/>
+      <c r="CT112" s="11"/>
+      <c r="CU112" s="11"/>
       <c r="CV112" s="17"/>
       <c r="CW112" s="17"/>
       <c r="CX112" s="17"/>
@@ -40991,12 +40992,12 @@
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
-      <c r="CP113" s="25"/>
-      <c r="CQ113" s="25"/>
-      <c r="CR113" s="25"/>
-      <c r="CS113" s="25"/>
-      <c r="CT113" s="25"/>
-      <c r="CU113" s="17"/>
+      <c r="CP113" s="11"/>
+      <c r="CQ113" s="11"/>
+      <c r="CR113" s="11"/>
+      <c r="CS113" s="11"/>
+      <c r="CT113" s="11"/>
+      <c r="CU113" s="11"/>
       <c r="CV113" s="17"/>
       <c r="CW113" s="17"/>
       <c r="CX113" s="17"/>
@@ -41150,11 +41151,12 @@
       <c r="CM114" s="3"/>
       <c r="CN114" s="3"/>
       <c r="CO114" s="3"/>
-      <c r="CP114" s="21"/>
-      <c r="CQ114" s="21"/>
-      <c r="CR114" s="21"/>
-      <c r="CS114" s="21"/>
-      <c r="CT114" s="21"/>
+      <c r="CP114" s="3"/>
+      <c r="CQ114" s="3"/>
+      <c r="CR114" s="3"/>
+      <c r="CS114" s="3"/>
+      <c r="CT114" s="3"/>
+      <c r="CU114" s="3"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -41252,15 +41254,16 @@
       <c r="CM115" s="3"/>
       <c r="CN115" s="3"/>
       <c r="CO115" s="3"/>
-      <c r="CP115" s="21"/>
-      <c r="CQ115" s="21"/>
-      <c r="CR115" s="21"/>
-      <c r="CS115" s="21"/>
-      <c r="CT115" s="21"/>
+      <c r="CP115" s="3"/>
+      <c r="CQ115" s="3"/>
+      <c r="CR115" s="3"/>
+      <c r="CS115" s="3"/>
+      <c r="CT115" s="3"/>
+      <c r="CU115" s="3"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -41354,11 +41357,12 @@
       <c r="CM116" s="3"/>
       <c r="CN116" s="3"/>
       <c r="CO116" s="3"/>
-      <c r="CP116" s="21"/>
-      <c r="CQ116" s="21"/>
-      <c r="CR116" s="21"/>
-      <c r="CS116" s="21"/>
-      <c r="CT116" s="21"/>
+      <c r="CP116" s="3"/>
+      <c r="CQ116" s="3"/>
+      <c r="CR116" s="3"/>
+      <c r="CS116" s="3"/>
+      <c r="CT116" s="3"/>
+      <c r="CU116" s="3"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -41454,11 +41458,12 @@
       <c r="CM117" s="3"/>
       <c r="CN117" s="3"/>
       <c r="CO117" s="3"/>
-      <c r="CP117" s="21"/>
-      <c r="CQ117" s="21"/>
-      <c r="CR117" s="21"/>
-      <c r="CS117" s="21"/>
-      <c r="CT117" s="21"/>
+      <c r="CP117" s="3"/>
+      <c r="CQ117" s="3"/>
+      <c r="CR117" s="3"/>
+      <c r="CS117" s="3"/>
+      <c r="CT117" s="3"/>
+      <c r="CU117" s="3"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -41556,15 +41561,16 @@
       <c r="CM118" s="3"/>
       <c r="CN118" s="3"/>
       <c r="CO118" s="3"/>
-      <c r="CP118" s="21"/>
-      <c r="CQ118" s="21"/>
-      <c r="CR118" s="21"/>
-      <c r="CS118" s="21"/>
-      <c r="CT118" s="21"/>
+      <c r="CP118" s="3"/>
+      <c r="CQ118" s="3"/>
+      <c r="CR118" s="3"/>
+      <c r="CS118" s="3"/>
+      <c r="CT118" s="3"/>
+      <c r="CU118" s="3"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -41658,11 +41664,12 @@
       <c r="CM119" s="3"/>
       <c r="CN119" s="3"/>
       <c r="CO119" s="3"/>
-      <c r="CP119" s="21"/>
-      <c r="CQ119" s="21"/>
-      <c r="CR119" s="21"/>
-      <c r="CS119" s="21"/>
-      <c r="CT119" s="21"/>
+      <c r="CP119" s="3"/>
+      <c r="CQ119" s="3"/>
+      <c r="CR119" s="3"/>
+      <c r="CS119" s="3"/>
+      <c r="CT119" s="3"/>
+      <c r="CU119" s="3"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -41760,11 +41767,12 @@
       <c r="CM120" s="3"/>
       <c r="CN120" s="3"/>
       <c r="CO120" s="3"/>
-      <c r="CP120" s="21"/>
-      <c r="CQ120" s="21"/>
-      <c r="CR120" s="21"/>
-      <c r="CS120" s="21"/>
-      <c r="CT120" s="21"/>
+      <c r="CP120" s="3"/>
+      <c r="CQ120" s="3"/>
+      <c r="CR120" s="3"/>
+      <c r="CS120" s="3"/>
+      <c r="CT120" s="3"/>
+      <c r="CU120" s="3"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -41860,140 +41868,141 @@
       <c r="CM121" s="3"/>
       <c r="CN121" s="3"/>
       <c r="CO121" s="3"/>
-      <c r="CP121" s="21"/>
-      <c r="CQ121" s="21"/>
-      <c r="CR121" s="21"/>
-      <c r="CS121" s="21"/>
-      <c r="CT121" s="21"/>
+      <c r="CP121" s="3"/>
+      <c r="CQ121" s="3"/>
+      <c r="CR121" s="3"/>
+      <c r="CS121" s="3"/>
+      <c r="CT121" s="3"/>
+      <c r="CU121" s="3"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="33">
+      <c r="B122" s="21">
         <v>2000</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="33">
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="21">
         <v>2001</v>
       </c>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="33">
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="21">
         <v>2002</v>
       </c>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="33">
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="21">
         <v>2003</v>
       </c>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
-      <c r="R122" s="33">
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="21">
         <v>2004</v>
       </c>
-      <c r="S122" s="34"/>
-      <c r="T122" s="34"/>
-      <c r="U122" s="34"/>
-      <c r="V122" s="33">
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="21">
         <v>2005</v>
       </c>
-      <c r="W122" s="34"/>
-      <c r="X122" s="34"/>
-      <c r="Y122" s="34"/>
-      <c r="Z122" s="33">
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
+      <c r="Z122" s="21">
         <v>2006</v>
       </c>
-      <c r="AA122" s="34"/>
-      <c r="AB122" s="34"/>
-      <c r="AC122" s="34"/>
-      <c r="AD122" s="33">
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
+      <c r="AD122" s="21">
         <v>2007</v>
       </c>
-      <c r="AE122" s="34"/>
-      <c r="AF122" s="34"/>
-      <c r="AG122" s="34"/>
-      <c r="AH122" s="33">
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
+      <c r="AH122" s="21">
         <v>2008</v>
       </c>
-      <c r="AI122" s="34"/>
-      <c r="AJ122" s="34"/>
-      <c r="AK122" s="34"/>
-      <c r="AL122" s="33">
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
+      <c r="AL122" s="21">
         <v>2009</v>
       </c>
-      <c r="AM122" s="34"/>
-      <c r="AN122" s="34"/>
-      <c r="AO122" s="34"/>
-      <c r="AP122" s="33">
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
+      <c r="AP122" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="34"/>
-      <c r="AR122" s="34"/>
-      <c r="AS122" s="34"/>
-      <c r="AT122" s="33">
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
+      <c r="AT122" s="21">
         <v>2011</v>
       </c>
-      <c r="AU122" s="34"/>
-      <c r="AV122" s="34"/>
-      <c r="AW122" s="34"/>
-      <c r="AX122" s="33">
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
+      <c r="AX122" s="21">
         <v>2012</v>
       </c>
-      <c r="AY122" s="34"/>
-      <c r="AZ122" s="34"/>
-      <c r="BA122" s="34"/>
-      <c r="BB122" s="33">
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
+      <c r="BB122" s="21">
         <v>2013</v>
       </c>
-      <c r="BC122" s="34"/>
-      <c r="BD122" s="34"/>
-      <c r="BE122" s="34"/>
-      <c r="BF122" s="33">
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
+      <c r="BF122" s="21">
         <v>2014</v>
       </c>
-      <c r="BG122" s="34"/>
-      <c r="BH122" s="34"/>
-      <c r="BI122" s="34"/>
-      <c r="BJ122" s="33">
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
+      <c r="BJ122" s="21">
         <v>2015</v>
       </c>
-      <c r="BK122" s="34"/>
-      <c r="BL122" s="34"/>
-      <c r="BM122" s="34"/>
-      <c r="BN122" s="33">
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
+      <c r="BN122" s="21">
         <v>2016</v>
       </c>
-      <c r="BO122" s="34"/>
-      <c r="BP122" s="34"/>
-      <c r="BQ122" s="34"/>
-      <c r="BR122" s="33">
+      <c r="BO122" s="22"/>
+      <c r="BP122" s="22"/>
+      <c r="BQ122" s="22"/>
+      <c r="BR122" s="21">
         <v>2017</v>
       </c>
-      <c r="BS122" s="34"/>
-      <c r="BT122" s="34"/>
-      <c r="BU122" s="34"/>
-      <c r="BV122" s="33">
+      <c r="BS122" s="22"/>
+      <c r="BT122" s="22"/>
+      <c r="BU122" s="22"/>
+      <c r="BV122" s="21">
         <v>2018</v>
       </c>
-      <c r="BW122" s="34"/>
-      <c r="BX122" s="34"/>
-      <c r="BY122" s="34"/>
-      <c r="BZ122" s="33">
+      <c r="BW122" s="22"/>
+      <c r="BX122" s="22"/>
+      <c r="BY122" s="22"/>
+      <c r="BZ122" s="21">
         <v>2019</v>
       </c>
-      <c r="CA122" s="34"/>
-      <c r="CB122" s="34"/>
-      <c r="CC122" s="34"/>
-      <c r="CD122" s="33">
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
+      <c r="CD122" s="21">
         <v>2020</v>
       </c>
-      <c r="CE122" s="33"/>
-      <c r="CF122" s="33"/>
-      <c r="CG122" s="33"/>
+      <c r="CE122" s="21"/>
+      <c r="CF122" s="21"/>
+      <c r="CG122" s="21"/>
       <c r="CH122" s="19">
         <v>2021</v>
       </c>
@@ -42006,15 +42015,16 @@
       <c r="CM122" s="19"/>
       <c r="CN122" s="19"/>
       <c r="CO122" s="19"/>
-      <c r="CP122" s="22">
+      <c r="CP122" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="22"/>
-      <c r="CR122" s="22"/>
-      <c r="CS122" s="22"/>
-      <c r="CT122" s="22">
+      <c r="CQ122" s="19"/>
+      <c r="CR122" s="19"/>
+      <c r="CS122" s="19"/>
+      <c r="CT122" s="19">
         <v>2024</v>
       </c>
+      <c r="CU122" s="19"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -42296,20 +42306,23 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="23" t="s">
+      <c r="CP123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="23" t="s">
+      <c r="CQ123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="23" t="s">
+      <c r="CR123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="23" t="s">
+      <c r="CS123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="23" t="s">
+      <c r="CT123" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU123" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42406,11 +42419,12 @@
       <c r="CM124" s="3"/>
       <c r="CN124" s="3"/>
       <c r="CO124" s="3"/>
-      <c r="CP124" s="21"/>
-      <c r="CQ124" s="21"/>
-      <c r="CR124" s="21"/>
-      <c r="CS124" s="21"/>
-      <c r="CT124" s="21"/>
+      <c r="CP124" s="3"/>
+      <c r="CQ124" s="3"/>
+      <c r="CR124" s="3"/>
+      <c r="CS124" s="3"/>
+      <c r="CT124" s="3"/>
+      <c r="CU124" s="3"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -42692,22 +42706,24 @@
       <c r="CO125" s="12">
         <v>67.399560298830735</v>
       </c>
-      <c r="CP125" s="30">
+      <c r="CP125" s="12">
         <v>67.81567397016606</v>
       </c>
-      <c r="CQ125" s="30">
+      <c r="CQ125" s="12">
         <v>70.734970564061555</v>
       </c>
-      <c r="CR125" s="30">
+      <c r="CR125" s="12">
         <v>66.214712925854244</v>
       </c>
-      <c r="CS125" s="30">
+      <c r="CS125" s="12">
         <v>66.881555088441345</v>
       </c>
-      <c r="CT125" s="30">
-        <v>65.249192073593051</v>
-      </c>
-      <c r="CU125" s="17"/>
+      <c r="CT125" s="12">
+        <v>65.790643231990487</v>
+      </c>
+      <c r="CU125" s="12">
+        <v>68.364607132620634</v>
+      </c>
       <c r="CV125" s="17"/>
       <c r="CW125" s="17"/>
       <c r="CX125" s="17"/>
@@ -43045,22 +43061,24 @@
       <c r="CO126" s="12">
         <v>32.600439701169257</v>
       </c>
-      <c r="CP126" s="30">
+      <c r="CP126" s="12">
         <v>32.18432602983394</v>
       </c>
-      <c r="CQ126" s="30">
+      <c r="CQ126" s="12">
         <v>29.265029435938445</v>
       </c>
-      <c r="CR126" s="30">
+      <c r="CR126" s="12">
         <v>33.785287074145756</v>
       </c>
-      <c r="CS126" s="30">
+      <c r="CS126" s="12">
         <v>33.118444911558655</v>
       </c>
-      <c r="CT126" s="30">
-        <v>34.750807926406949</v>
-      </c>
-      <c r="CU126" s="17"/>
+      <c r="CT126" s="12">
+        <v>34.209356768009506</v>
+      </c>
+      <c r="CU126" s="12">
+        <v>31.635392867379363</v>
+      </c>
       <c r="CV126" s="17"/>
       <c r="CW126" s="17"/>
       <c r="CX126" s="17"/>
@@ -43211,12 +43229,12 @@
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
-      <c r="CP127" s="25"/>
-      <c r="CQ127" s="25"/>
-      <c r="CR127" s="25"/>
-      <c r="CS127" s="25"/>
-      <c r="CT127" s="25"/>
-      <c r="CU127" s="17"/>
+      <c r="CP127" s="11"/>
+      <c r="CQ127" s="11"/>
+      <c r="CR127" s="11"/>
+      <c r="CS127" s="11"/>
+      <c r="CT127" s="11"/>
+      <c r="CU127" s="11"/>
       <c r="CV127" s="17"/>
       <c r="CW127" s="17"/>
       <c r="CX127" s="17"/>
@@ -43554,22 +43572,24 @@
       <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="30">
+      <c r="CP128" s="12">
         <v>100</v>
       </c>
-      <c r="CQ128" s="30">
+      <c r="CQ128" s="12">
         <v>100</v>
       </c>
-      <c r="CR128" s="30">
+      <c r="CR128" s="12">
         <v>100</v>
       </c>
-      <c r="CS128" s="30">
+      <c r="CS128" s="12">
         <v>100</v>
       </c>
-      <c r="CT128" s="30">
+      <c r="CT128" s="12">
         <v>100</v>
       </c>
-      <c r="CU128" s="17"/>
+      <c r="CU128" s="12">
+        <v>100</v>
+      </c>
       <c r="CV128" s="17"/>
       <c r="CW128" s="17"/>
       <c r="CX128" s="17"/>
@@ -43627,7 +43647,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:98" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:99" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -43721,13 +43741,14 @@
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
-      <c r="CP129" s="27"/>
-      <c r="CQ129" s="27"/>
-      <c r="CR129" s="27"/>
-      <c r="CS129" s="27"/>
-      <c r="CT129" s="27"/>
+      <c r="CP129" s="9"/>
+      <c r="CQ129" s="9"/>
+      <c r="CR129" s="9"/>
+      <c r="CS129" s="9"/>
+      <c r="CT129" s="9"/>
+      <c r="CU129" s="9"/>
     </row>
-    <row r="130" spans="1:98" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:99" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -43823,105 +43844,47 @@
       <c r="CM130" s="3"/>
       <c r="CN130" s="3"/>
       <c r="CO130" s="3"/>
-      <c r="CP130" s="21"/>
-      <c r="CQ130" s="21"/>
-      <c r="CR130" s="21"/>
-      <c r="CS130" s="21"/>
-      <c r="CT130" s="21"/>
+      <c r="CP130" s="3"/>
+      <c r="CQ130" s="3"/>
+      <c r="CR130" s="3"/>
+      <c r="CS130" s="3"/>
+      <c r="CT130" s="3"/>
+      <c r="CU130" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
@@ -43946,47 +43909,106 @@
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="R28:U28"/>
     <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BR122:BU122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="97" man="1"/>
-    <brk id="76" max="97" man="1"/>
-    <brk id="94" max="97" man="1"/>
+    <brk id="38" max="98" man="1"/>
+    <brk id="76" max="98" man="1"/>
+    <brk id="94" max="98" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E886681D-6151-427F-83C3-A0FC913B566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F4395C-859D-4785-B6E6-F6F44DE6ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CU$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CV$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -755,9 +755,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23625,50 +23643,99 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="93" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="94" max="99" width="9.5546875" style="15" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="15"/>
+    <col min="94" max="100" width="10.109375" style="32" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
     </row>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="CP2" s="20"/>
+      <c r="CQ2" s="20"/>
+      <c r="CR2" s="20"/>
+      <c r="CS2" s="20"/>
+      <c r="CT2" s="20"/>
+      <c r="CU2" s="20"/>
+      <c r="CV2" s="20"/>
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="CP3" s="20"/>
+      <c r="CQ3" s="20"/>
+      <c r="CR3" s="20"/>
+      <c r="CS3" s="20"/>
+      <c r="CT3" s="20"/>
+      <c r="CU3" s="20"/>
+      <c r="CV3" s="20"/>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
+      <c r="CP4" s="20"/>
+      <c r="CQ4" s="20"/>
+      <c r="CR4" s="20"/>
+      <c r="CS4" s="20"/>
+      <c r="CT4" s="20"/>
+      <c r="CU4" s="20"/>
+      <c r="CV4" s="20"/>
     </row>
     <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="CP5" s="20"/>
+      <c r="CQ5" s="20"/>
+      <c r="CR5" s="20"/>
+      <c r="CS5" s="20"/>
+      <c r="CT5" s="20"/>
+      <c r="CU5" s="20"/>
+      <c r="CV5" s="20"/>
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="CP6" s="20"/>
+      <c r="CQ6" s="20"/>
+      <c r="CR6" s="20"/>
+      <c r="CS6" s="20"/>
+      <c r="CT6" s="20"/>
+      <c r="CU6" s="20"/>
+      <c r="CV6" s="20"/>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="CP7" s="20"/>
+      <c r="CQ7" s="20"/>
+      <c r="CR7" s="20"/>
+      <c r="CS7" s="20"/>
+      <c r="CT7" s="20"/>
+      <c r="CU7" s="20"/>
+      <c r="CV7" s="20"/>
     </row>
     <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -23764,141 +23831,142 @@
       <c r="CM8" s="3"/>
       <c r="CN8" s="3"/>
       <c r="CO8" s="3"/>
-      <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
-      <c r="CR8" s="3"/>
-      <c r="CS8" s="3"/>
-      <c r="CT8" s="3"/>
-      <c r="CU8" s="3"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
+      <c r="CR8" s="21"/>
+      <c r="CS8" s="21"/>
+      <c r="CT8" s="21"/>
+      <c r="CU8" s="21"/>
+      <c r="CV8" s="21"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="21">
+      <c r="B9" s="33">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="33"/>
+      <c r="BN9" s="33">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="33"/>
+      <c r="BQ9" s="33"/>
+      <c r="BR9" s="33">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="33"/>
+      <c r="BT9" s="33"/>
+      <c r="BU9" s="33"/>
+      <c r="BV9" s="33">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="33"/>
+      <c r="BX9" s="33"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="33">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="33"/>
+      <c r="CB9" s="33"/>
+      <c r="CC9" s="33"/>
+      <c r="CD9" s="33">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
+      <c r="CE9" s="33"/>
+      <c r="CF9" s="33"/>
+      <c r="CG9" s="33"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23911,16 +23979,17 @@
       <c r="CM9" s="19"/>
       <c r="CN9" s="19"/>
       <c r="CO9" s="19"/>
-      <c r="CP9" s="19">
+      <c r="CP9" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="19"/>
-      <c r="CR9" s="19"/>
-      <c r="CS9" s="19"/>
-      <c r="CT9" s="19">
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="22"/>
+      <c r="CS9" s="22"/>
+      <c r="CT9" s="22">
         <v>2024</v>
       </c>
-      <c r="CU9" s="19"/>
+      <c r="CU9" s="22"/>
+      <c r="CV9" s="22"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24202,23 +24271,26 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24315,12 +24387,13 @@
       <c r="CM11" s="3"/>
       <c r="CN11" s="3"/>
       <c r="CO11" s="3"/>
-      <c r="CP11" s="3"/>
-      <c r="CQ11" s="3"/>
-      <c r="CR11" s="3"/>
-      <c r="CS11" s="3"/>
-      <c r="CT11" s="3"/>
-      <c r="CU11" s="3"/>
+      <c r="CP11" s="21"/>
+      <c r="CQ11" s="21"/>
+      <c r="CR11" s="21"/>
+      <c r="CS11" s="21"/>
+      <c r="CT11" s="21"/>
+      <c r="CU11" s="21"/>
+      <c r="CV11" s="21"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24602,25 +24675,27 @@
       <c r="CO12" s="13">
         <v>160749.76785570109</v>
       </c>
-      <c r="CP12" s="13">
+      <c r="CP12" s="24">
         <v>159040.05426257322</v>
       </c>
-      <c r="CQ12" s="13">
+      <c r="CQ12" s="24">
         <v>191540.13930252948</v>
       </c>
-      <c r="CR12" s="13">
+      <c r="CR12" s="24">
         <v>149727.0973828187</v>
       </c>
-      <c r="CS12" s="13">
+      <c r="CS12" s="24">
         <v>178724.73119020896</v>
       </c>
-      <c r="CT12" s="13">
+      <c r="CT12" s="24">
         <v>164928.00176265615</v>
       </c>
-      <c r="CU12" s="13">
-        <v>195043.16710521569</v>
-      </c>
-      <c r="CV12" s="17"/>
+      <c r="CU12" s="24">
+        <v>195666.10390364955</v>
+      </c>
+      <c r="CV12" s="24">
+        <v>160797.61491778804</v>
+      </c>
       <c r="CW12" s="17"/>
       <c r="CX12" s="17"/>
       <c r="CY12" s="17"/>
@@ -24957,25 +25032,27 @@
       <c r="CO13" s="13">
         <v>69365.327308605774</v>
       </c>
-      <c r="CP13" s="13">
+      <c r="CP13" s="24">
         <v>69291.17195269253</v>
       </c>
-      <c r="CQ13" s="13">
+      <c r="CQ13" s="24">
         <v>73589.944872166205</v>
       </c>
-      <c r="CR13" s="13">
+      <c r="CR13" s="24">
         <v>75443.577784210705</v>
       </c>
-      <c r="CS13" s="13">
+      <c r="CS13" s="24">
         <v>79287.401714957232</v>
       </c>
-      <c r="CT13" s="13">
+      <c r="CT13" s="24">
         <v>79797.360121441001</v>
       </c>
-      <c r="CU13" s="13">
-        <v>84761.245136884943</v>
-      </c>
-      <c r="CV13" s="17"/>
+      <c r="CU13" s="24">
+        <v>84700.077529256945</v>
+      </c>
+      <c r="CV13" s="24">
+        <v>81034.917520515446</v>
+      </c>
       <c r="CW13" s="17"/>
       <c r="CX13" s="17"/>
       <c r="CY13" s="17"/>
@@ -25125,13 +25202,13 @@
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
-      <c r="CP14" s="11"/>
-      <c r="CQ14" s="11"/>
-      <c r="CR14" s="11"/>
-      <c r="CS14" s="11"/>
-      <c r="CT14" s="11"/>
-      <c r="CU14" s="11"/>
-      <c r="CV14" s="17"/>
+      <c r="CP14" s="25"/>
+      <c r="CQ14" s="25"/>
+      <c r="CR14" s="25"/>
+      <c r="CS14" s="25"/>
+      <c r="CT14" s="25"/>
+      <c r="CU14" s="25"/>
+      <c r="CV14" s="25"/>
       <c r="CW14" s="17"/>
       <c r="CX14" s="17"/>
       <c r="CY14" s="17"/>
@@ -25468,25 +25545,27 @@
       <c r="CO15" s="14">
         <v>230115.09516430687</v>
       </c>
-      <c r="CP15" s="14">
+      <c r="CP15" s="26">
         <v>228331.22621526575</v>
       </c>
-      <c r="CQ15" s="14">
+      <c r="CQ15" s="26">
         <v>265130.08417469566</v>
       </c>
-      <c r="CR15" s="14">
+      <c r="CR15" s="26">
         <v>225170.6751670294</v>
       </c>
-      <c r="CS15" s="14">
+      <c r="CS15" s="26">
         <v>258012.13290516619</v>
       </c>
-      <c r="CT15" s="14">
+      <c r="CT15" s="26">
         <v>244725.36188409716</v>
       </c>
-      <c r="CU15" s="14">
-        <v>279804.41224210063</v>
-      </c>
-      <c r="CV15" s="17"/>
+      <c r="CU15" s="26">
+        <v>280366.18143290648</v>
+      </c>
+      <c r="CV15" s="26">
+        <v>241832.53243830349</v>
+      </c>
       <c r="CW15" s="17"/>
       <c r="CX15" s="17"/>
       <c r="CY15" s="17"/>
@@ -25637,12 +25716,13 @@
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
-      <c r="CP16" s="9"/>
-      <c r="CQ16" s="9"/>
-      <c r="CR16" s="9"/>
-      <c r="CS16" s="9"/>
-      <c r="CT16" s="9"/>
-      <c r="CU16" s="9"/>
+      <c r="CP16" s="27"/>
+      <c r="CQ16" s="27"/>
+      <c r="CR16" s="27"/>
+      <c r="CS16" s="27"/>
+      <c r="CT16" s="27"/>
+      <c r="CU16" s="27"/>
+      <c r="CV16" s="27"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25740,12 +25820,13 @@
       <c r="CM17" s="3"/>
       <c r="CN17" s="3"/>
       <c r="CO17" s="3"/>
-      <c r="CP17" s="3"/>
-      <c r="CQ17" s="3"/>
-      <c r="CR17" s="3"/>
-      <c r="CS17" s="3"/>
-      <c r="CT17" s="3"/>
-      <c r="CU17" s="3"/>
+      <c r="CP17" s="21"/>
+      <c r="CQ17" s="21"/>
+      <c r="CR17" s="21"/>
+      <c r="CS17" s="21"/>
+      <c r="CT17" s="21"/>
+      <c r="CU17" s="21"/>
+      <c r="CV17" s="21"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25840,13 +25921,13 @@
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
-      <c r="CP18" s="11"/>
-      <c r="CQ18" s="11"/>
-      <c r="CR18" s="11"/>
-      <c r="CS18" s="11"/>
-      <c r="CT18" s="11"/>
-      <c r="CU18" s="11"/>
-      <c r="CV18" s="17"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
+      <c r="CU18" s="25"/>
+      <c r="CV18" s="25"/>
       <c r="CW18" s="17"/>
       <c r="CX18" s="17"/>
       <c r="CY18" s="17"/>
@@ -25996,13 +26077,13 @@
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
-      <c r="CP19" s="11"/>
-      <c r="CQ19" s="11"/>
-      <c r="CR19" s="11"/>
-      <c r="CS19" s="11"/>
-      <c r="CT19" s="11"/>
-      <c r="CU19" s="11"/>
-      <c r="CV19" s="17"/>
+      <c r="CP19" s="25"/>
+      <c r="CQ19" s="25"/>
+      <c r="CR19" s="25"/>
+      <c r="CS19" s="25"/>
+      <c r="CT19" s="25"/>
+      <c r="CU19" s="25"/>
+      <c r="CV19" s="25"/>
       <c r="CW19" s="17"/>
       <c r="CX19" s="17"/>
       <c r="CY19" s="17"/>
@@ -26155,12 +26236,13 @@
       <c r="CM20" s="3"/>
       <c r="CN20" s="3"/>
       <c r="CO20" s="3"/>
-      <c r="CP20" s="3"/>
-      <c r="CQ20" s="3"/>
-      <c r="CR20" s="3"/>
-      <c r="CS20" s="3"/>
-      <c r="CT20" s="3"/>
-      <c r="CU20" s="3"/>
+      <c r="CP20" s="21"/>
+      <c r="CQ20" s="21"/>
+      <c r="CR20" s="21"/>
+      <c r="CS20" s="21"/>
+      <c r="CT20" s="21"/>
+      <c r="CU20" s="21"/>
+      <c r="CV20" s="21"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26258,12 +26340,13 @@
       <c r="CM21" s="3"/>
       <c r="CN21" s="3"/>
       <c r="CO21" s="3"/>
-      <c r="CP21" s="3"/>
-      <c r="CQ21" s="3"/>
-      <c r="CR21" s="3"/>
-      <c r="CS21" s="3"/>
-      <c r="CT21" s="3"/>
-      <c r="CU21" s="3"/>
+      <c r="CP21" s="21"/>
+      <c r="CQ21" s="21"/>
+      <c r="CR21" s="21"/>
+      <c r="CS21" s="21"/>
+      <c r="CT21" s="21"/>
+      <c r="CU21" s="21"/>
+      <c r="CV21" s="21"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -26361,12 +26444,13 @@
       <c r="CM22" s="3"/>
       <c r="CN22" s="3"/>
       <c r="CO22" s="3"/>
-      <c r="CP22" s="3"/>
-      <c r="CQ22" s="3"/>
-      <c r="CR22" s="3"/>
-      <c r="CS22" s="3"/>
-      <c r="CT22" s="3"/>
-      <c r="CU22" s="3"/>
+      <c r="CP22" s="21"/>
+      <c r="CQ22" s="21"/>
+      <c r="CR22" s="21"/>
+      <c r="CS22" s="21"/>
+      <c r="CT22" s="21"/>
+      <c r="CU22" s="21"/>
+      <c r="CV22" s="21"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26462,12 +26546,13 @@
       <c r="CM23" s="3"/>
       <c r="CN23" s="3"/>
       <c r="CO23" s="3"/>
-      <c r="CP23" s="3"/>
-      <c r="CQ23" s="3"/>
-      <c r="CR23" s="3"/>
-      <c r="CS23" s="3"/>
-      <c r="CT23" s="3"/>
-      <c r="CU23" s="3"/>
+      <c r="CP23" s="21"/>
+      <c r="CQ23" s="21"/>
+      <c r="CR23" s="21"/>
+      <c r="CS23" s="21"/>
+      <c r="CT23" s="21"/>
+      <c r="CU23" s="21"/>
+      <c r="CV23" s="21"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26565,12 +26650,13 @@
       <c r="CM24" s="3"/>
       <c r="CN24" s="3"/>
       <c r="CO24" s="3"/>
-      <c r="CP24" s="3"/>
-      <c r="CQ24" s="3"/>
-      <c r="CR24" s="3"/>
-      <c r="CS24" s="3"/>
-      <c r="CT24" s="3"/>
-      <c r="CU24" s="3"/>
+      <c r="CP24" s="21"/>
+      <c r="CQ24" s="21"/>
+      <c r="CR24" s="21"/>
+      <c r="CS24" s="21"/>
+      <c r="CT24" s="21"/>
+      <c r="CU24" s="21"/>
+      <c r="CV24" s="21"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -26668,12 +26754,13 @@
       <c r="CM25" s="3"/>
       <c r="CN25" s="3"/>
       <c r="CO25" s="3"/>
-      <c r="CP25" s="3"/>
-      <c r="CQ25" s="3"/>
-      <c r="CR25" s="3"/>
-      <c r="CS25" s="3"/>
-      <c r="CT25" s="3"/>
-      <c r="CU25" s="3"/>
+      <c r="CP25" s="21"/>
+      <c r="CQ25" s="21"/>
+      <c r="CR25" s="21"/>
+      <c r="CS25" s="21"/>
+      <c r="CT25" s="21"/>
+      <c r="CU25" s="21"/>
+      <c r="CV25" s="21"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26771,12 +26858,13 @@
       <c r="CM26" s="3"/>
       <c r="CN26" s="3"/>
       <c r="CO26" s="3"/>
-      <c r="CP26" s="3"/>
-      <c r="CQ26" s="3"/>
-      <c r="CR26" s="3"/>
-      <c r="CS26" s="3"/>
-      <c r="CT26" s="3"/>
-      <c r="CU26" s="3"/>
+      <c r="CP26" s="21"/>
+      <c r="CQ26" s="21"/>
+      <c r="CR26" s="21"/>
+      <c r="CS26" s="21"/>
+      <c r="CT26" s="21"/>
+      <c r="CU26" s="21"/>
+      <c r="CV26" s="21"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26872,141 +26960,142 @@
       <c r="CM27" s="3"/>
       <c r="CN27" s="3"/>
       <c r="CO27" s="3"/>
-      <c r="CP27" s="3"/>
-      <c r="CQ27" s="3"/>
-      <c r="CR27" s="3"/>
-      <c r="CS27" s="3"/>
-      <c r="CT27" s="3"/>
-      <c r="CU27" s="3"/>
+      <c r="CP27" s="21"/>
+      <c r="CQ27" s="21"/>
+      <c r="CR27" s="21"/>
+      <c r="CS27" s="21"/>
+      <c r="CT27" s="21"/>
+      <c r="CU27" s="21"/>
+      <c r="CV27" s="21"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="21">
+      <c r="B28" s="33">
         <v>2000</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="33">
         <v>2001</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33">
         <v>2002</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="21">
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="33">
         <v>2003</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="21">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="33">
         <v>2004</v>
       </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="21">
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="33">
         <v>2005</v>
       </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="21">
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="33">
         <v>2006</v>
       </c>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="21">
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="33">
         <v>2007</v>
       </c>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="21">
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="33">
         <v>2008</v>
       </c>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="21">
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="33">
         <v>2009</v>
       </c>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="21">
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="21">
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="33">
         <v>2011</v>
       </c>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="21">
+      <c r="AU28" s="34"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="34"/>
+      <c r="AX28" s="33">
         <v>2012</v>
       </c>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="21">
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="33">
         <v>2013</v>
       </c>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="21">
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="33">
         <v>2014</v>
       </c>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="21">
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="34"/>
+      <c r="BJ28" s="33">
         <v>2015</v>
       </c>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="21">
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+      <c r="BN28" s="33">
         <v>2016</v>
       </c>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="21">
+      <c r="BO28" s="34"/>
+      <c r="BP28" s="34"/>
+      <c r="BQ28" s="34"/>
+      <c r="BR28" s="33">
         <v>2017</v>
       </c>
-      <c r="BS28" s="22"/>
-      <c r="BT28" s="22"/>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="21">
+      <c r="BS28" s="34"/>
+      <c r="BT28" s="34"/>
+      <c r="BU28" s="34"/>
+      <c r="BV28" s="33">
         <v>2018</v>
       </c>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="21">
+      <c r="BW28" s="34"/>
+      <c r="BX28" s="34"/>
+      <c r="BY28" s="34"/>
+      <c r="BZ28" s="33">
         <v>2019</v>
       </c>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="21">
+      <c r="CA28" s="34"/>
+      <c r="CB28" s="34"/>
+      <c r="CC28" s="34"/>
+      <c r="CD28" s="33">
         <v>2020</v>
       </c>
-      <c r="CE28" s="21"/>
-      <c r="CF28" s="21"/>
-      <c r="CG28" s="21"/>
+      <c r="CE28" s="33"/>
+      <c r="CF28" s="33"/>
+      <c r="CG28" s="33"/>
       <c r="CH28" s="19">
         <v>2021</v>
       </c>
@@ -27019,16 +27108,17 @@
       <c r="CM28" s="19"/>
       <c r="CN28" s="19"/>
       <c r="CO28" s="19"/>
-      <c r="CP28" s="19">
+      <c r="CP28" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="19"/>
-      <c r="CR28" s="19"/>
-      <c r="CS28" s="19"/>
-      <c r="CT28" s="19">
+      <c r="CQ28" s="22"/>
+      <c r="CR28" s="22"/>
+      <c r="CS28" s="22"/>
+      <c r="CT28" s="22">
         <v>2024</v>
       </c>
-      <c r="CU28" s="19"/>
+      <c r="CU28" s="22"/>
+      <c r="CV28" s="22"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27310,23 +27400,26 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="6" t="s">
+      <c r="CR29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="6" t="s">
+      <c r="CS29" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="6" t="s">
+      <c r="CT29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU29" s="6" t="s">
+      <c r="CU29" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV29" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27423,12 +27516,13 @@
       <c r="CM30" s="3"/>
       <c r="CN30" s="3"/>
       <c r="CO30" s="3"/>
-      <c r="CP30" s="3"/>
-      <c r="CQ30" s="3"/>
-      <c r="CR30" s="3"/>
-      <c r="CS30" s="3"/>
-      <c r="CT30" s="3"/>
-      <c r="CU30" s="3"/>
+      <c r="CP30" s="21"/>
+      <c r="CQ30" s="21"/>
+      <c r="CR30" s="21"/>
+      <c r="CS30" s="21"/>
+      <c r="CT30" s="21"/>
+      <c r="CU30" s="21"/>
+      <c r="CV30" s="21"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27710,25 +27804,27 @@
       <c r="CO31" s="13">
         <v>124918.94518624805</v>
       </c>
-      <c r="CP31" s="13">
+      <c r="CP31" s="24">
         <v>144213.10561578581</v>
       </c>
-      <c r="CQ31" s="13">
+      <c r="CQ31" s="24">
         <v>172159.5890242467</v>
       </c>
-      <c r="CR31" s="13">
+      <c r="CR31" s="24">
         <v>129325.02426998374</v>
       </c>
-      <c r="CS31" s="13">
+      <c r="CS31" s="24">
         <v>133941.19107316836</v>
       </c>
-      <c r="CT31" s="13">
+      <c r="CT31" s="24">
         <v>145110.48306089113</v>
       </c>
-      <c r="CU31" s="13">
-        <v>169807.54145259602</v>
-      </c>
-      <c r="CV31" s="17"/>
+      <c r="CU31" s="24">
+        <v>169520.85967004599</v>
+      </c>
+      <c r="CV31" s="24">
+        <v>133593.75489520951</v>
+      </c>
       <c r="CW31" s="17"/>
       <c r="CX31" s="17"/>
       <c r="CY31" s="17"/>
@@ -28065,25 +28161,27 @@
       <c r="CO32" s="13">
         <v>60421.945217773122</v>
       </c>
-      <c r="CP32" s="13">
+      <c r="CP32" s="24">
         <v>68441.428613615251</v>
       </c>
-      <c r="CQ32" s="13">
+      <c r="CQ32" s="24">
         <v>71227.221843694948</v>
       </c>
-      <c r="CR32" s="13">
+      <c r="CR32" s="24">
         <v>65986.589350993527</v>
       </c>
-      <c r="CS32" s="13">
+      <c r="CS32" s="24">
         <v>66325.072018427192</v>
       </c>
-      <c r="CT32" s="13">
+      <c r="CT32" s="24">
         <v>75453.530197352287</v>
       </c>
-      <c r="CU32" s="13">
-        <v>78577.622413241799</v>
-      </c>
-      <c r="CV32" s="17"/>
+      <c r="CU32" s="24">
+        <v>78520.917191788845</v>
+      </c>
+      <c r="CV32" s="24">
+        <v>66745.785253637601</v>
+      </c>
       <c r="CW32" s="17"/>
       <c r="CX32" s="17"/>
       <c r="CY32" s="17"/>
@@ -28233,13 +28331,13 @@
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
-      <c r="CP33" s="11"/>
-      <c r="CQ33" s="11"/>
-      <c r="CR33" s="11"/>
-      <c r="CS33" s="11"/>
-      <c r="CT33" s="11"/>
-      <c r="CU33" s="11"/>
-      <c r="CV33" s="17"/>
+      <c r="CP33" s="25"/>
+      <c r="CQ33" s="25"/>
+      <c r="CR33" s="25"/>
+      <c r="CS33" s="25"/>
+      <c r="CT33" s="25"/>
+      <c r="CU33" s="25"/>
+      <c r="CV33" s="25"/>
       <c r="CW33" s="17"/>
       <c r="CX33" s="17"/>
       <c r="CY33" s="17"/>
@@ -28576,25 +28674,27 @@
       <c r="CO34" s="14">
         <v>185340.89040402116</v>
       </c>
-      <c r="CP34" s="14">
+      <c r="CP34" s="26">
         <v>212654.53422940106</v>
       </c>
-      <c r="CQ34" s="14">
+      <c r="CQ34" s="26">
         <v>243386.81086794165</v>
       </c>
-      <c r="CR34" s="14">
+      <c r="CR34" s="26">
         <v>195311.61362097727</v>
       </c>
-      <c r="CS34" s="14">
+      <c r="CS34" s="26">
         <v>200266.26309159555</v>
       </c>
-      <c r="CT34" s="14">
+      <c r="CT34" s="26">
         <v>220564.01325824342</v>
       </c>
-      <c r="CU34" s="14">
-        <v>248385.16386583782</v>
-      </c>
-      <c r="CV34" s="17"/>
+      <c r="CU34" s="26">
+        <v>248041.77686183483</v>
+      </c>
+      <c r="CV34" s="26">
+        <v>200339.5401488471</v>
+      </c>
       <c r="CW34" s="17"/>
       <c r="CX34" s="17"/>
       <c r="CY34" s="17"/>
@@ -28745,12 +28845,13 @@
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
-      <c r="CP35" s="9"/>
-      <c r="CQ35" s="9"/>
-      <c r="CR35" s="9"/>
-      <c r="CS35" s="9"/>
-      <c r="CT35" s="9"/>
-      <c r="CU35" s="9"/>
+      <c r="CP35" s="27"/>
+      <c r="CQ35" s="27"/>
+      <c r="CR35" s="27"/>
+      <c r="CS35" s="27"/>
+      <c r="CT35" s="27"/>
+      <c r="CU35" s="27"/>
+      <c r="CV35" s="27"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28848,12 +28949,13 @@
       <c r="CM36" s="3"/>
       <c r="CN36" s="3"/>
       <c r="CO36" s="3"/>
-      <c r="CP36" s="3"/>
-      <c r="CQ36" s="3"/>
-      <c r="CR36" s="3"/>
-      <c r="CS36" s="3"/>
-      <c r="CT36" s="3"/>
-      <c r="CU36" s="3"/>
+      <c r="CP36" s="21"/>
+      <c r="CQ36" s="21"/>
+      <c r="CR36" s="21"/>
+      <c r="CS36" s="21"/>
+      <c r="CT36" s="21"/>
+      <c r="CU36" s="21"/>
+      <c r="CV36" s="21"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -28948,13 +29050,13 @@
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
-      <c r="CP37" s="11"/>
-      <c r="CQ37" s="11"/>
-      <c r="CR37" s="11"/>
-      <c r="CS37" s="11"/>
-      <c r="CT37" s="11"/>
-      <c r="CU37" s="11"/>
-      <c r="CV37" s="17"/>
+      <c r="CP37" s="25"/>
+      <c r="CQ37" s="25"/>
+      <c r="CR37" s="25"/>
+      <c r="CS37" s="25"/>
+      <c r="CT37" s="25"/>
+      <c r="CU37" s="25"/>
+      <c r="CV37" s="25"/>
       <c r="CW37" s="17"/>
       <c r="CX37" s="17"/>
       <c r="CY37" s="17"/>
@@ -29104,13 +29206,13 @@
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
-      <c r="CP38" s="11"/>
-      <c r="CQ38" s="11"/>
-      <c r="CR38" s="11"/>
-      <c r="CS38" s="11"/>
-      <c r="CT38" s="11"/>
-      <c r="CU38" s="11"/>
-      <c r="CV38" s="17"/>
+      <c r="CP38" s="25"/>
+      <c r="CQ38" s="25"/>
+      <c r="CR38" s="25"/>
+      <c r="CS38" s="25"/>
+      <c r="CT38" s="25"/>
+      <c r="CU38" s="25"/>
+      <c r="CV38" s="25"/>
       <c r="CW38" s="17"/>
       <c r="CX38" s="17"/>
       <c r="CY38" s="17"/>
@@ -29263,12 +29365,13 @@
       <c r="CM39" s="3"/>
       <c r="CN39" s="3"/>
       <c r="CO39" s="3"/>
-      <c r="CP39" s="3"/>
-      <c r="CQ39" s="3"/>
-      <c r="CR39" s="3"/>
-      <c r="CS39" s="3"/>
-      <c r="CT39" s="3"/>
-      <c r="CU39" s="3"/>
+      <c r="CP39" s="21"/>
+      <c r="CQ39" s="21"/>
+      <c r="CR39" s="21"/>
+      <c r="CS39" s="21"/>
+      <c r="CT39" s="21"/>
+      <c r="CU39" s="21"/>
+      <c r="CV39" s="21"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29366,12 +29469,13 @@
       <c r="CM40" s="3"/>
       <c r="CN40" s="3"/>
       <c r="CO40" s="3"/>
-      <c r="CP40" s="3"/>
-      <c r="CQ40" s="3"/>
-      <c r="CR40" s="3"/>
-      <c r="CS40" s="3"/>
-      <c r="CT40" s="3"/>
-      <c r="CU40" s="3"/>
+      <c r="CP40" s="21"/>
+      <c r="CQ40" s="21"/>
+      <c r="CR40" s="21"/>
+      <c r="CS40" s="21"/>
+      <c r="CT40" s="21"/>
+      <c r="CU40" s="21"/>
+      <c r="CV40" s="21"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -29469,12 +29573,13 @@
       <c r="CM41" s="3"/>
       <c r="CN41" s="3"/>
       <c r="CO41" s="3"/>
-      <c r="CP41" s="3"/>
-      <c r="CQ41" s="3"/>
-      <c r="CR41" s="3"/>
-      <c r="CS41" s="3"/>
-      <c r="CT41" s="3"/>
-      <c r="CU41" s="3"/>
+      <c r="CP41" s="21"/>
+      <c r="CQ41" s="21"/>
+      <c r="CR41" s="21"/>
+      <c r="CS41" s="21"/>
+      <c r="CT41" s="21"/>
+      <c r="CU41" s="21"/>
+      <c r="CV41" s="21"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29570,12 +29675,13 @@
       <c r="CM42" s="3"/>
       <c r="CN42" s="3"/>
       <c r="CO42" s="3"/>
-      <c r="CP42" s="3"/>
-      <c r="CQ42" s="3"/>
-      <c r="CR42" s="3"/>
-      <c r="CS42" s="3"/>
-      <c r="CT42" s="3"/>
-      <c r="CU42" s="3"/>
+      <c r="CP42" s="21"/>
+      <c r="CQ42" s="21"/>
+      <c r="CR42" s="21"/>
+      <c r="CS42" s="21"/>
+      <c r="CT42" s="21"/>
+      <c r="CU42" s="21"/>
+      <c r="CV42" s="21"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29673,12 +29779,13 @@
       <c r="CM43" s="3"/>
       <c r="CN43" s="3"/>
       <c r="CO43" s="3"/>
-      <c r="CP43" s="3"/>
-      <c r="CQ43" s="3"/>
-      <c r="CR43" s="3"/>
-      <c r="CS43" s="3"/>
-      <c r="CT43" s="3"/>
-      <c r="CU43" s="3"/>
+      <c r="CP43" s="21"/>
+      <c r="CQ43" s="21"/>
+      <c r="CR43" s="21"/>
+      <c r="CS43" s="21"/>
+      <c r="CT43" s="21"/>
+      <c r="CU43" s="21"/>
+      <c r="CV43" s="21"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -29764,6 +29871,13 @@
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
+      <c r="CP44" s="20"/>
+      <c r="CQ44" s="20"/>
+      <c r="CR44" s="20"/>
+      <c r="CS44" s="20"/>
+      <c r="CT44" s="20"/>
+      <c r="CU44" s="20"/>
+      <c r="CV44" s="20"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -29849,6 +29963,13 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
+      <c r="CP45" s="20"/>
+      <c r="CQ45" s="20"/>
+      <c r="CR45" s="20"/>
+      <c r="CS45" s="20"/>
+      <c r="CT45" s="20"/>
+      <c r="CU45" s="20"/>
+      <c r="CV45" s="20"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -29944,141 +30065,142 @@
       <c r="CM46" s="3"/>
       <c r="CN46" s="3"/>
       <c r="CO46" s="3"/>
-      <c r="CP46" s="3"/>
-      <c r="CQ46" s="3"/>
-      <c r="CR46" s="3"/>
-      <c r="CS46" s="3"/>
-      <c r="CT46" s="3"/>
-      <c r="CU46" s="3"/>
+      <c r="CP46" s="21"/>
+      <c r="CQ46" s="21"/>
+      <c r="CR46" s="21"/>
+      <c r="CS46" s="21"/>
+      <c r="CT46" s="21"/>
+      <c r="CU46" s="21"/>
+      <c r="CV46" s="21"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21" t="s">
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21" t="s">
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21" t="s">
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21" t="s">
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21" t="s">
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21" t="s">
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21" t="s">
+      <c r="AE47" s="33"/>
+      <c r="AF47" s="33"/>
+      <c r="AG47" s="33"/>
+      <c r="AH47" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21" t="s">
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="33"/>
+      <c r="AL47" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21" t="s">
+      <c r="AM47" s="33"/>
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21" t="s">
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="33"/>
+      <c r="AS47" s="33"/>
+      <c r="AT47" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="21"/>
-      <c r="AX47" s="21" t="s">
+      <c r="AU47" s="33"/>
+      <c r="AV47" s="33"/>
+      <c r="AW47" s="33"/>
+      <c r="AX47" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="21"/>
-      <c r="BA47" s="21"/>
-      <c r="BB47" s="21" t="s">
+      <c r="AY47" s="33"/>
+      <c r="AZ47" s="33"/>
+      <c r="BA47" s="33"/>
+      <c r="BB47" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="21"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="21"/>
-      <c r="BF47" s="21" t="s">
+      <c r="BC47" s="33"/>
+      <c r="BD47" s="33"/>
+      <c r="BE47" s="33"/>
+      <c r="BF47" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="21"/>
-      <c r="BH47" s="21"/>
-      <c r="BI47" s="21"/>
-      <c r="BJ47" s="21" t="s">
+      <c r="BG47" s="33"/>
+      <c r="BH47" s="33"/>
+      <c r="BI47" s="33"/>
+      <c r="BJ47" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="21"/>
-      <c r="BL47" s="21"/>
-      <c r="BM47" s="21"/>
-      <c r="BN47" s="21" t="s">
+      <c r="BK47" s="33"/>
+      <c r="BL47" s="33"/>
+      <c r="BM47" s="33"/>
+      <c r="BN47" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="21"/>
-      <c r="BP47" s="21"/>
-      <c r="BQ47" s="21"/>
-      <c r="BR47" s="21" t="s">
+      <c r="BO47" s="33"/>
+      <c r="BP47" s="33"/>
+      <c r="BQ47" s="33"/>
+      <c r="BR47" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="21"/>
-      <c r="BT47" s="21"/>
-      <c r="BU47" s="21"/>
-      <c r="BV47" s="21" t="s">
+      <c r="BS47" s="33"/>
+      <c r="BT47" s="33"/>
+      <c r="BU47" s="33"/>
+      <c r="BV47" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="21"/>
-      <c r="BX47" s="21"/>
-      <c r="BY47" s="21"/>
-      <c r="BZ47" s="21" t="s">
+      <c r="BW47" s="33"/>
+      <c r="BX47" s="33"/>
+      <c r="BY47" s="33"/>
+      <c r="BZ47" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="21"/>
-      <c r="CB47" s="21"/>
-      <c r="CC47" s="21"/>
-      <c r="CD47" s="21" t="s">
+      <c r="CA47" s="33"/>
+      <c r="CB47" s="33"/>
+      <c r="CC47" s="33"/>
+      <c r="CD47" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="21"/>
-      <c r="CF47" s="21"/>
-      <c r="CG47" s="21"/>
+      <c r="CE47" s="33"/>
+      <c r="CF47" s="33"/>
+      <c r="CG47" s="33"/>
       <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
@@ -30091,14 +30213,15 @@
       <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
-      <c r="CP47" s="19" t="s">
+      <c r="CP47" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="19"/>
-      <c r="CR47" s="20"/>
-      <c r="CS47" s="20"/>
-      <c r="CT47" s="19"/>
-      <c r="CU47" s="20"/>
+      <c r="CQ47" s="22"/>
+      <c r="CR47" s="22"/>
+      <c r="CS47" s="28"/>
+      <c r="CT47" s="22"/>
+      <c r="CU47" s="22"/>
+      <c r="CV47" s="28"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30380,16 +30503,19 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="5" t="s">
+      <c r="CP48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="5" t="s">
+      <c r="CQ48" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR48" s="5"/>
-      <c r="CS48" s="5"/>
-      <c r="CT48" s="5"/>
-      <c r="CU48" s="5"/>
+      <c r="CR48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS48" s="29"/>
+      <c r="CT48" s="29"/>
+      <c r="CU48" s="29"/>
+      <c r="CV48" s="29"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30485,12 +30611,13 @@
       <c r="CM49" s="3"/>
       <c r="CN49" s="3"/>
       <c r="CO49" s="3"/>
-      <c r="CP49" s="3"/>
-      <c r="CQ49" s="3"/>
-      <c r="CR49" s="3"/>
-      <c r="CS49" s="3"/>
-      <c r="CT49" s="3"/>
-      <c r="CU49" s="3"/>
+      <c r="CP49" s="21"/>
+      <c r="CQ49" s="21"/>
+      <c r="CR49" s="21"/>
+      <c r="CS49" s="21"/>
+      <c r="CT49" s="21"/>
+      <c r="CU49" s="21"/>
+      <c r="CV49" s="21"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30772,17 +30899,19 @@
       <c r="CO50" s="12">
         <v>11.181952903747458</v>
       </c>
-      <c r="CP50" s="12">
+      <c r="CP50" s="30">
         <v>3.7021790060269808</v>
       </c>
-      <c r="CQ50" s="12">
-        <v>1.8288739976080421</v>
-      </c>
-      <c r="CR50" s="12"/>
-      <c r="CS50" s="12"/>
-      <c r="CT50" s="12"/>
-      <c r="CU50" s="12"/>
-      <c r="CV50" s="17"/>
+      <c r="CQ50" s="30">
+        <v>2.1540991962020399</v>
+      </c>
+      <c r="CR50" s="30">
+        <v>7.3937969335400311</v>
+      </c>
+      <c r="CS50" s="30"/>
+      <c r="CT50" s="30"/>
+      <c r="CU50" s="30"/>
+      <c r="CV50" s="30"/>
       <c r="CW50" s="17"/>
       <c r="CX50" s="17"/>
       <c r="CY50" s="17"/>
@@ -31115,17 +31244,19 @@
       <c r="CO51" s="12">
         <v>14.304083598147272</v>
       </c>
-      <c r="CP51" s="12">
+      <c r="CP51" s="30">
         <v>15.162376205617377</v>
       </c>
-      <c r="CQ51" s="12">
-        <v>15.180471033270251</v>
-      </c>
-      <c r="CR51" s="12"/>
-      <c r="CS51" s="12"/>
-      <c r="CT51" s="12"/>
-      <c r="CU51" s="12"/>
-      <c r="CV51" s="17"/>
+      <c r="CQ51" s="30">
+        <v>15.097351515061263</v>
+      </c>
+      <c r="CR51" s="30">
+        <v>7.4112865541683419</v>
+      </c>
+      <c r="CS51" s="30"/>
+      <c r="CT51" s="30"/>
+      <c r="CU51" s="30"/>
+      <c r="CV51" s="30"/>
       <c r="CW51" s="17"/>
       <c r="CX51" s="17"/>
       <c r="CY51" s="17"/>
@@ -31272,13 +31403,13 @@
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
-      <c r="CP52" s="11"/>
-      <c r="CQ52" s="11"/>
-      <c r="CR52" s="11"/>
-      <c r="CS52" s="11"/>
-      <c r="CT52" s="11"/>
-      <c r="CU52" s="11"/>
-      <c r="CV52" s="17"/>
+      <c r="CP52" s="25"/>
+      <c r="CQ52" s="25"/>
+      <c r="CR52" s="25"/>
+      <c r="CS52" s="25"/>
+      <c r="CT52" s="25"/>
+      <c r="CU52" s="25"/>
+      <c r="CV52" s="25"/>
       <c r="CW52" s="17"/>
       <c r="CX52" s="17"/>
       <c r="CY52" s="17"/>
@@ -31611,17 +31742,19 @@
       <c r="CO53" s="12">
         <v>12.123080287688339</v>
       </c>
-      <c r="CP53" s="12">
+      <c r="CP53" s="30">
         <v>7.1799796902835169</v>
       </c>
-      <c r="CQ53" s="12">
-        <v>5.5347653636076899</v>
-      </c>
-      <c r="CR53" s="12"/>
-      <c r="CS53" s="12"/>
-      <c r="CT53" s="12"/>
-      <c r="CU53" s="12"/>
-      <c r="CV53" s="17"/>
+      <c r="CQ53" s="30">
+        <v>5.7466497269210919</v>
+      </c>
+      <c r="CR53" s="30">
+        <v>7.3996568420441378</v>
+      </c>
+      <c r="CS53" s="30"/>
+      <c r="CT53" s="30"/>
+      <c r="CU53" s="30"/>
+      <c r="CV53" s="30"/>
       <c r="CW53" s="17"/>
       <c r="CX53" s="17"/>
       <c r="CY53" s="17"/>
@@ -31768,12 +31901,13 @@
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
-      <c r="CP54" s="9"/>
-      <c r="CQ54" s="9"/>
-      <c r="CR54" s="9"/>
-      <c r="CS54" s="9"/>
-      <c r="CT54" s="9"/>
-      <c r="CU54" s="9"/>
+      <c r="CP54" s="27"/>
+      <c r="CQ54" s="27"/>
+      <c r="CR54" s="27"/>
+      <c r="CS54" s="27"/>
+      <c r="CT54" s="27"/>
+      <c r="CU54" s="27"/>
+      <c r="CV54" s="27"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -31871,12 +32005,13 @@
       <c r="CM55" s="3"/>
       <c r="CN55" s="3"/>
       <c r="CO55" s="3"/>
-      <c r="CP55" s="3"/>
-      <c r="CQ55" s="3"/>
-      <c r="CR55" s="3"/>
-      <c r="CS55" s="3"/>
-      <c r="CT55" s="3"/>
-      <c r="CU55" s="3"/>
+      <c r="CP55" s="21"/>
+      <c r="CQ55" s="21"/>
+      <c r="CR55" s="21"/>
+      <c r="CS55" s="21"/>
+      <c r="CT55" s="21"/>
+      <c r="CU55" s="21"/>
+      <c r="CV55" s="21"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -31971,13 +32106,13 @@
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
-      <c r="CP56" s="11"/>
-      <c r="CQ56" s="11"/>
-      <c r="CR56" s="11"/>
-      <c r="CS56" s="11"/>
-      <c r="CT56" s="11"/>
-      <c r="CU56" s="11"/>
-      <c r="CV56" s="17"/>
+      <c r="CP56" s="25"/>
+      <c r="CQ56" s="25"/>
+      <c r="CR56" s="25"/>
+      <c r="CS56" s="25"/>
+      <c r="CT56" s="25"/>
+      <c r="CU56" s="25"/>
+      <c r="CV56" s="25"/>
       <c r="CW56" s="17"/>
       <c r="CX56" s="17"/>
       <c r="CY56" s="17"/>
@@ -32123,13 +32258,13 @@
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
-      <c r="CP57" s="11"/>
-      <c r="CQ57" s="11"/>
-      <c r="CR57" s="11"/>
-      <c r="CS57" s="11"/>
-      <c r="CT57" s="11"/>
-      <c r="CU57" s="11"/>
-      <c r="CV57" s="17"/>
+      <c r="CP57" s="25"/>
+      <c r="CQ57" s="25"/>
+      <c r="CR57" s="25"/>
+      <c r="CS57" s="25"/>
+      <c r="CT57" s="25"/>
+      <c r="CU57" s="25"/>
+      <c r="CV57" s="25"/>
       <c r="CW57" s="17"/>
       <c r="CX57" s="17"/>
       <c r="CY57" s="17"/>
@@ -32278,12 +32413,13 @@
       <c r="CM58" s="3"/>
       <c r="CN58" s="3"/>
       <c r="CO58" s="3"/>
-      <c r="CP58" s="3"/>
-      <c r="CQ58" s="3"/>
-      <c r="CR58" s="3"/>
-      <c r="CS58" s="3"/>
-      <c r="CT58" s="3"/>
-      <c r="CU58" s="3"/>
+      <c r="CP58" s="21"/>
+      <c r="CQ58" s="21"/>
+      <c r="CR58" s="21"/>
+      <c r="CS58" s="21"/>
+      <c r="CT58" s="21"/>
+      <c r="CU58" s="21"/>
+      <c r="CV58" s="21"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32381,12 +32517,13 @@
       <c r="CM59" s="3"/>
       <c r="CN59" s="3"/>
       <c r="CO59" s="3"/>
-      <c r="CP59" s="3"/>
-      <c r="CQ59" s="3"/>
-      <c r="CR59" s="3"/>
-      <c r="CS59" s="3"/>
-      <c r="CT59" s="3"/>
-      <c r="CU59" s="3"/>
+      <c r="CP59" s="21"/>
+      <c r="CQ59" s="21"/>
+      <c r="CR59" s="21"/>
+      <c r="CS59" s="21"/>
+      <c r="CT59" s="21"/>
+      <c r="CU59" s="21"/>
+      <c r="CV59" s="21"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
@@ -32484,12 +32621,13 @@
       <c r="CM60" s="3"/>
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
-      <c r="CP60" s="3"/>
-      <c r="CQ60" s="3"/>
-      <c r="CR60" s="3"/>
-      <c r="CS60" s="3"/>
-      <c r="CT60" s="3"/>
-      <c r="CU60" s="3"/>
+      <c r="CP60" s="21"/>
+      <c r="CQ60" s="21"/>
+      <c r="CR60" s="21"/>
+      <c r="CS60" s="21"/>
+      <c r="CT60" s="21"/>
+      <c r="CU60" s="21"/>
+      <c r="CV60" s="21"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32585,12 +32723,13 @@
       <c r="CM61" s="3"/>
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
-      <c r="CP61" s="3"/>
-      <c r="CQ61" s="3"/>
-      <c r="CR61" s="3"/>
-      <c r="CS61" s="3"/>
-      <c r="CT61" s="3"/>
-      <c r="CU61" s="3"/>
+      <c r="CP61" s="21"/>
+      <c r="CQ61" s="21"/>
+      <c r="CR61" s="21"/>
+      <c r="CS61" s="21"/>
+      <c r="CT61" s="21"/>
+      <c r="CU61" s="21"/>
+      <c r="CV61" s="21"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32688,12 +32827,13 @@
       <c r="CM62" s="3"/>
       <c r="CN62" s="3"/>
       <c r="CO62" s="3"/>
-      <c r="CP62" s="3"/>
-      <c r="CQ62" s="3"/>
-      <c r="CR62" s="3"/>
-      <c r="CS62" s="3"/>
-      <c r="CT62" s="3"/>
-      <c r="CU62" s="3"/>
+      <c r="CP62" s="21"/>
+      <c r="CQ62" s="21"/>
+      <c r="CR62" s="21"/>
+      <c r="CS62" s="21"/>
+      <c r="CT62" s="21"/>
+      <c r="CU62" s="21"/>
+      <c r="CV62" s="21"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
@@ -32791,12 +32931,13 @@
       <c r="CM63" s="3"/>
       <c r="CN63" s="3"/>
       <c r="CO63" s="3"/>
-      <c r="CP63" s="3"/>
-      <c r="CQ63" s="3"/>
-      <c r="CR63" s="3"/>
-      <c r="CS63" s="3"/>
-      <c r="CT63" s="3"/>
-      <c r="CU63" s="3"/>
+      <c r="CP63" s="21"/>
+      <c r="CQ63" s="21"/>
+      <c r="CR63" s="21"/>
+      <c r="CS63" s="21"/>
+      <c r="CT63" s="21"/>
+      <c r="CU63" s="21"/>
+      <c r="CV63" s="21"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -32894,12 +33035,13 @@
       <c r="CM64" s="3"/>
       <c r="CN64" s="3"/>
       <c r="CO64" s="3"/>
-      <c r="CP64" s="3"/>
-      <c r="CQ64" s="3"/>
-      <c r="CR64" s="3"/>
-      <c r="CS64" s="3"/>
-      <c r="CT64" s="3"/>
-      <c r="CU64" s="3"/>
+      <c r="CP64" s="21"/>
+      <c r="CQ64" s="21"/>
+      <c r="CR64" s="21"/>
+      <c r="CS64" s="21"/>
+      <c r="CT64" s="21"/>
+      <c r="CU64" s="21"/>
+      <c r="CV64" s="21"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -32995,141 +33137,142 @@
       <c r="CM65" s="3"/>
       <c r="CN65" s="3"/>
       <c r="CO65" s="3"/>
-      <c r="CP65" s="3"/>
-      <c r="CQ65" s="3"/>
-      <c r="CR65" s="3"/>
-      <c r="CS65" s="3"/>
-      <c r="CT65" s="3"/>
-      <c r="CU65" s="3"/>
+      <c r="CP65" s="21"/>
+      <c r="CQ65" s="21"/>
+      <c r="CR65" s="21"/>
+      <c r="CS65" s="21"/>
+      <c r="CT65" s="21"/>
+      <c r="CU65" s="21"/>
+      <c r="CV65" s="21"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21" t="s">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21" t="s">
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21" t="s">
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21" t="s">
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21" t="s">
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21" t="s">
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="21" t="s">
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
+      <c r="AD66" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="21" t="s">
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="33"/>
+      <c r="AG66" s="33"/>
+      <c r="AH66" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="21" t="s">
+      <c r="AI66" s="33"/>
+      <c r="AJ66" s="33"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="21"/>
-      <c r="AP66" s="21" t="s">
+      <c r="AM66" s="33"/>
+      <c r="AN66" s="33"/>
+      <c r="AO66" s="33"/>
+      <c r="AP66" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="21"/>
-      <c r="AT66" s="21" t="s">
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="33"/>
+      <c r="AS66" s="33"/>
+      <c r="AT66" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="21"/>
-      <c r="AX66" s="21" t="s">
+      <c r="AU66" s="33"/>
+      <c r="AV66" s="33"/>
+      <c r="AW66" s="33"/>
+      <c r="AX66" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="21"/>
-      <c r="AZ66" s="21"/>
-      <c r="BA66" s="21"/>
-      <c r="BB66" s="21" t="s">
+      <c r="AY66" s="33"/>
+      <c r="AZ66" s="33"/>
+      <c r="BA66" s="33"/>
+      <c r="BB66" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="21"/>
-      <c r="BD66" s="21"/>
-      <c r="BE66" s="21"/>
-      <c r="BF66" s="21" t="s">
+      <c r="BC66" s="33"/>
+      <c r="BD66" s="33"/>
+      <c r="BE66" s="33"/>
+      <c r="BF66" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="21"/>
-      <c r="BH66" s="21"/>
-      <c r="BI66" s="21"/>
-      <c r="BJ66" s="21" t="s">
+      <c r="BG66" s="33"/>
+      <c r="BH66" s="33"/>
+      <c r="BI66" s="33"/>
+      <c r="BJ66" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="21"/>
-      <c r="BL66" s="21"/>
-      <c r="BM66" s="21"/>
-      <c r="BN66" s="21" t="s">
+      <c r="BK66" s="33"/>
+      <c r="BL66" s="33"/>
+      <c r="BM66" s="33"/>
+      <c r="BN66" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="21"/>
-      <c r="BP66" s="21"/>
-      <c r="BQ66" s="21"/>
-      <c r="BR66" s="21" t="s">
+      <c r="BO66" s="33"/>
+      <c r="BP66" s="33"/>
+      <c r="BQ66" s="33"/>
+      <c r="BR66" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="21"/>
-      <c r="BT66" s="21"/>
-      <c r="BU66" s="21"/>
-      <c r="BV66" s="21" t="s">
+      <c r="BS66" s="33"/>
+      <c r="BT66" s="33"/>
+      <c r="BU66" s="33"/>
+      <c r="BV66" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="21"/>
-      <c r="BX66" s="21"/>
-      <c r="BY66" s="21"/>
-      <c r="BZ66" s="21" t="s">
+      <c r="BW66" s="33"/>
+      <c r="BX66" s="33"/>
+      <c r="BY66" s="33"/>
+      <c r="BZ66" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="21"/>
-      <c r="CB66" s="21"/>
-      <c r="CC66" s="21"/>
-      <c r="CD66" s="21" t="s">
+      <c r="CA66" s="33"/>
+      <c r="CB66" s="33"/>
+      <c r="CC66" s="33"/>
+      <c r="CD66" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="21"/>
-      <c r="CF66" s="21"/>
-      <c r="CG66" s="21"/>
+      <c r="CE66" s="33"/>
+      <c r="CF66" s="33"/>
+      <c r="CG66" s="33"/>
       <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
@@ -33142,14 +33285,15 @@
       <c r="CM66" s="19"/>
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
-      <c r="CP66" s="19" t="s">
+      <c r="CP66" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="19"/>
-      <c r="CR66" s="20"/>
-      <c r="CS66" s="20"/>
-      <c r="CT66" s="19"/>
-      <c r="CU66" s="20"/>
+      <c r="CQ66" s="22"/>
+      <c r="CR66" s="22"/>
+      <c r="CS66" s="28"/>
+      <c r="CT66" s="22"/>
+      <c r="CU66" s="22"/>
+      <c r="CV66" s="28"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33431,16 +33575,19 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="5" t="s">
+      <c r="CP67" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="5" t="s">
+      <c r="CQ67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR67" s="5"/>
-      <c r="CS67" s="5"/>
-      <c r="CT67" s="5"/>
-      <c r="CU67" s="5"/>
+      <c r="CR67" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS67" s="29"/>
+      <c r="CT67" s="29"/>
+      <c r="CU67" s="29"/>
+      <c r="CV67" s="29"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33536,12 +33683,13 @@
       <c r="CM68" s="3"/>
       <c r="CN68" s="3"/>
       <c r="CO68" s="3"/>
-      <c r="CP68" s="3"/>
-      <c r="CQ68" s="3"/>
-      <c r="CR68" s="3"/>
-      <c r="CS68" s="3"/>
-      <c r="CT68" s="3"/>
-      <c r="CU68" s="3"/>
+      <c r="CP68" s="21"/>
+      <c r="CQ68" s="21"/>
+      <c r="CR68" s="21"/>
+      <c r="CS68" s="21"/>
+      <c r="CT68" s="21"/>
+      <c r="CU68" s="21"/>
+      <c r="CV68" s="21"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33823,17 +33971,19 @@
       <c r="CO69" s="12">
         <v>7.2224800437344214</v>
       </c>
-      <c r="CP69" s="12">
+      <c r="CP69" s="30">
         <v>0.62225790178607099</v>
       </c>
-      <c r="CQ69" s="12">
-        <v>-1.3662018973101766</v>
-      </c>
-      <c r="CR69" s="12"/>
-      <c r="CS69" s="12"/>
-      <c r="CT69" s="12"/>
-      <c r="CU69" s="12"/>
-      <c r="CV69" s="17"/>
+      <c r="CQ69" s="30">
+        <v>-1.5327228469563039</v>
+      </c>
+      <c r="CR69" s="30">
+        <v>3.300776975934852</v>
+      </c>
+      <c r="CS69" s="30"/>
+      <c r="CT69" s="30"/>
+      <c r="CU69" s="30"/>
+      <c r="CV69" s="30"/>
       <c r="CW69" s="17"/>
       <c r="CX69" s="17"/>
       <c r="CY69" s="17"/>
@@ -34166,17 +34316,19 @@
       <c r="CO70" s="12">
         <v>9.769839053307507</v>
       </c>
-      <c r="CP70" s="12">
+      <c r="CP70" s="30">
         <v>10.245405050388001</v>
       </c>
-      <c r="CQ70" s="12">
-        <v>10.319650801033603</v>
-      </c>
-      <c r="CR70" s="12"/>
-      <c r="CS70" s="12"/>
-      <c r="CT70" s="12"/>
-      <c r="CU70" s="12"/>
-      <c r="CV70" s="17"/>
+      <c r="CQ70" s="30">
+        <v>10.240039073964709</v>
+      </c>
+      <c r="CR70" s="30">
+        <v>1.1505306004009128</v>
+      </c>
+      <c r="CS70" s="30"/>
+      <c r="CT70" s="30"/>
+      <c r="CU70" s="30"/>
+      <c r="CV70" s="30"/>
       <c r="CW70" s="17"/>
       <c r="CX70" s="17"/>
       <c r="CY70" s="17"/>
@@ -34322,13 +34474,13 @@
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
-      <c r="CP71" s="11"/>
-      <c r="CQ71" s="11"/>
-      <c r="CR71" s="11"/>
-      <c r="CS71" s="11"/>
-      <c r="CT71" s="11"/>
-      <c r="CU71" s="11"/>
-      <c r="CV71" s="17"/>
+      <c r="CP71" s="25"/>
+      <c r="CQ71" s="25"/>
+      <c r="CR71" s="25"/>
+      <c r="CS71" s="25"/>
+      <c r="CT71" s="25"/>
+      <c r="CU71" s="25"/>
+      <c r="CV71" s="25"/>
       <c r="CW71" s="17"/>
       <c r="CX71" s="17"/>
       <c r="CY71" s="17"/>
@@ -34661,17 +34813,19 @@
       <c r="CO72" s="12">
         <v>8.052930281622622</v>
       </c>
-      <c r="CP72" s="12">
+      <c r="CP72" s="30">
         <v>3.7194029544227902</v>
       </c>
-      <c r="CQ72" s="12">
-        <v>2.0536663347005231</v>
-      </c>
-      <c r="CR72" s="12"/>
-      <c r="CS72" s="12"/>
-      <c r="CT72" s="12"/>
-      <c r="CU72" s="12"/>
-      <c r="CV72" s="17"/>
+      <c r="CQ72" s="30">
+        <v>1.9125793946241885</v>
+      </c>
+      <c r="CR72" s="30">
+        <v>2.5743100651592954</v>
+      </c>
+      <c r="CS72" s="30"/>
+      <c r="CT72" s="30"/>
+      <c r="CU72" s="30"/>
+      <c r="CV72" s="30"/>
       <c r="CW72" s="17"/>
       <c r="CX72" s="17"/>
       <c r="CY72" s="17"/>
@@ -34818,12 +34972,13 @@
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
       <c r="CO73" s="9"/>
-      <c r="CP73" s="9"/>
-      <c r="CQ73" s="9"/>
-      <c r="CR73" s="9"/>
-      <c r="CS73" s="9"/>
-      <c r="CT73" s="9"/>
-      <c r="CU73" s="9"/>
+      <c r="CP73" s="27"/>
+      <c r="CQ73" s="27"/>
+      <c r="CR73" s="27"/>
+      <c r="CS73" s="27"/>
+      <c r="CT73" s="27"/>
+      <c r="CU73" s="27"/>
+      <c r="CV73" s="27"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -34921,12 +35076,13 @@
       <c r="CM74" s="3"/>
       <c r="CN74" s="3"/>
       <c r="CO74" s="3"/>
-      <c r="CP74" s="3"/>
-      <c r="CQ74" s="3"/>
-      <c r="CR74" s="3"/>
-      <c r="CS74" s="3"/>
-      <c r="CT74" s="3"/>
-      <c r="CU74" s="3"/>
+      <c r="CP74" s="21"/>
+      <c r="CQ74" s="21"/>
+      <c r="CR74" s="21"/>
+      <c r="CS74" s="21"/>
+      <c r="CT74" s="21"/>
+      <c r="CU74" s="21"/>
+      <c r="CV74" s="21"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -35021,13 +35177,13 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="17"/>
       <c r="CO75" s="17"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="17"/>
-      <c r="CS75" s="17"/>
-      <c r="CT75" s="11"/>
-      <c r="CU75" s="11"/>
-      <c r="CV75" s="17"/>
+      <c r="CP75" s="25"/>
+      <c r="CQ75" s="25"/>
+      <c r="CR75" s="31"/>
+      <c r="CS75" s="31"/>
+      <c r="CT75" s="25"/>
+      <c r="CU75" s="25"/>
+      <c r="CV75" s="31"/>
       <c r="CW75" s="17"/>
       <c r="CX75" s="17"/>
       <c r="CY75" s="17"/>
@@ -35173,13 +35329,13 @@
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="17"/>
-      <c r="CQ76" s="17"/>
-      <c r="CR76" s="17"/>
-      <c r="CS76" s="17"/>
-      <c r="CT76" s="17"/>
-      <c r="CU76" s="17"/>
-      <c r="CV76" s="17"/>
+      <c r="CP76" s="31"/>
+      <c r="CQ76" s="31"/>
+      <c r="CR76" s="31"/>
+      <c r="CS76" s="31"/>
+      <c r="CT76" s="31"/>
+      <c r="CU76" s="31"/>
+      <c r="CV76" s="31"/>
       <c r="CW76" s="17"/>
       <c r="CX76" s="17"/>
       <c r="CY76" s="17"/>
@@ -35316,6 +35472,13 @@
       <c r="CA77" s="3"/>
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
+      <c r="CP77" s="20"/>
+      <c r="CQ77" s="20"/>
+      <c r="CR77" s="20"/>
+      <c r="CS77" s="20"/>
+      <c r="CT77" s="20"/>
+      <c r="CU77" s="20"/>
+      <c r="CV77" s="20"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
@@ -35401,6 +35564,13 @@
       <c r="CA78" s="3"/>
       <c r="CB78" s="3"/>
       <c r="CC78" s="3"/>
+      <c r="CP78" s="20"/>
+      <c r="CQ78" s="20"/>
+      <c r="CR78" s="20"/>
+      <c r="CS78" s="20"/>
+      <c r="CT78" s="20"/>
+      <c r="CU78" s="20"/>
+      <c r="CV78" s="20"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35484,6 +35654,13 @@
       <c r="CA79" s="3"/>
       <c r="CB79" s="3"/>
       <c r="CC79" s="3"/>
+      <c r="CP79" s="20"/>
+      <c r="CQ79" s="20"/>
+      <c r="CR79" s="20"/>
+      <c r="CS79" s="20"/>
+      <c r="CT79" s="20"/>
+      <c r="CU79" s="20"/>
+      <c r="CV79" s="20"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35569,6 +35746,13 @@
       <c r="CA80" s="3"/>
       <c r="CB80" s="3"/>
       <c r="CC80" s="3"/>
+      <c r="CP80" s="20"/>
+      <c r="CQ80" s="20"/>
+      <c r="CR80" s="20"/>
+      <c r="CS80" s="20"/>
+      <c r="CT80" s="20"/>
+      <c r="CU80" s="20"/>
+      <c r="CV80" s="20"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
@@ -35654,6 +35838,13 @@
       <c r="CA81" s="3"/>
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
+      <c r="CP81" s="20"/>
+      <c r="CQ81" s="20"/>
+      <c r="CR81" s="20"/>
+      <c r="CS81" s="20"/>
+      <c r="CT81" s="20"/>
+      <c r="CU81" s="20"/>
+      <c r="CV81" s="20"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -35739,6 +35930,13 @@
       <c r="CA82" s="3"/>
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
+      <c r="CP82" s="20"/>
+      <c r="CQ82" s="20"/>
+      <c r="CR82" s="20"/>
+      <c r="CS82" s="20"/>
+      <c r="CT82" s="20"/>
+      <c r="CU82" s="20"/>
+      <c r="CV82" s="20"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -35822,135 +36020,142 @@
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
+      <c r="CP83" s="20"/>
+      <c r="CQ83" s="20"/>
+      <c r="CR83" s="20"/>
+      <c r="CS83" s="20"/>
+      <c r="CT83" s="20"/>
+      <c r="CU83" s="20"/>
+      <c r="CV83" s="20"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="21">
+      <c r="B84" s="33">
         <v>2000</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="21">
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="33">
         <v>2001</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="21">
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="33">
         <v>2002</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="21">
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="33">
         <v>2003</v>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="21">
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="33">
         <v>2004</v>
       </c>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="21">
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="33">
         <v>2005</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="21">
+      <c r="W84" s="34"/>
+      <c r="X84" s="34"/>
+      <c r="Y84" s="34"/>
+      <c r="Z84" s="33">
         <v>2006</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="21">
+      <c r="AA84" s="34"/>
+      <c r="AB84" s="34"/>
+      <c r="AC84" s="34"/>
+      <c r="AD84" s="33">
         <v>2007</v>
       </c>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="21">
+      <c r="AE84" s="34"/>
+      <c r="AF84" s="34"/>
+      <c r="AG84" s="34"/>
+      <c r="AH84" s="33">
         <v>2008</v>
       </c>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="21">
+      <c r="AI84" s="34"/>
+      <c r="AJ84" s="34"/>
+      <c r="AK84" s="34"/>
+      <c r="AL84" s="33">
         <v>2009</v>
       </c>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="21">
+      <c r="AM84" s="34"/>
+      <c r="AN84" s="34"/>
+      <c r="AO84" s="34"/>
+      <c r="AP84" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="21">
+      <c r="AQ84" s="34"/>
+      <c r="AR84" s="34"/>
+      <c r="AS84" s="34"/>
+      <c r="AT84" s="33">
         <v>2011</v>
       </c>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="21">
+      <c r="AU84" s="34"/>
+      <c r="AV84" s="34"/>
+      <c r="AW84" s="34"/>
+      <c r="AX84" s="33">
         <v>2012</v>
       </c>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="21">
+      <c r="AY84" s="34"/>
+      <c r="AZ84" s="34"/>
+      <c r="BA84" s="34"/>
+      <c r="BB84" s="33">
         <v>2013</v>
       </c>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="21">
+      <c r="BC84" s="34"/>
+      <c r="BD84" s="34"/>
+      <c r="BE84" s="34"/>
+      <c r="BF84" s="33">
         <v>2014</v>
       </c>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="21">
+      <c r="BG84" s="34"/>
+      <c r="BH84" s="34"/>
+      <c r="BI84" s="34"/>
+      <c r="BJ84" s="33">
         <v>2015</v>
       </c>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="21">
+      <c r="BK84" s="34"/>
+      <c r="BL84" s="34"/>
+      <c r="BM84" s="34"/>
+      <c r="BN84" s="33">
         <v>2016</v>
       </c>
-      <c r="BO84" s="22"/>
-      <c r="BP84" s="22"/>
-      <c r="BQ84" s="22"/>
-      <c r="BR84" s="21">
+      <c r="BO84" s="34"/>
+      <c r="BP84" s="34"/>
+      <c r="BQ84" s="34"/>
+      <c r="BR84" s="33">
         <v>2017</v>
       </c>
-      <c r="BS84" s="22"/>
-      <c r="BT84" s="22"/>
-      <c r="BU84" s="22"/>
-      <c r="BV84" s="21">
+      <c r="BS84" s="34"/>
+      <c r="BT84" s="34"/>
+      <c r="BU84" s="34"/>
+      <c r="BV84" s="33">
         <v>2018</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="21">
+      <c r="BW84" s="34"/>
+      <c r="BX84" s="34"/>
+      <c r="BY84" s="34"/>
+      <c r="BZ84" s="33">
         <v>2019</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="21">
+      <c r="CA84" s="34"/>
+      <c r="CB84" s="34"/>
+      <c r="CC84" s="34"/>
+      <c r="CD84" s="33">
         <v>2020</v>
       </c>
-      <c r="CE84" s="21"/>
-      <c r="CF84" s="21"/>
-      <c r="CG84" s="21"/>
+      <c r="CE84" s="33"/>
+      <c r="CF84" s="33"/>
+      <c r="CG84" s="33"/>
       <c r="CH84" s="19">
         <v>2021</v>
       </c>
@@ -35963,16 +36168,17 @@
       <c r="CM84" s="19"/>
       <c r="CN84" s="19"/>
       <c r="CO84" s="19"/>
-      <c r="CP84" s="19">
+      <c r="CP84" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="19"/>
-      <c r="CR84" s="19"/>
-      <c r="CS84" s="19"/>
-      <c r="CT84" s="19">
+      <c r="CQ84" s="22"/>
+      <c r="CR84" s="22"/>
+      <c r="CS84" s="22"/>
+      <c r="CT84" s="22">
         <v>2024</v>
       </c>
-      <c r="CU84" s="19"/>
+      <c r="CU84" s="22"/>
+      <c r="CV84" s="22"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -36254,23 +36460,26 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="6" t="s">
+      <c r="CR85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="6" t="s">
+      <c r="CS85" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="6" t="s">
+      <c r="CT85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU85" s="6" t="s">
+      <c r="CU85" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV85" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36355,6 +36564,13 @@
       <c r="CA86" s="3"/>
       <c r="CB86" s="3"/>
       <c r="CC86" s="3"/>
+      <c r="CP86" s="20"/>
+      <c r="CQ86" s="20"/>
+      <c r="CR86" s="20"/>
+      <c r="CS86" s="20"/>
+      <c r="CT86" s="20"/>
+      <c r="CU86" s="20"/>
+      <c r="CV86" s="20"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36636,25 +36852,27 @@
       <c r="CO87" s="12">
         <v>128.683257464295</v>
       </c>
-      <c r="CP87" s="12">
+      <c r="CP87" s="30">
         <v>110.28127685308264</v>
       </c>
-      <c r="CQ87" s="12">
+      <c r="CQ87" s="30">
         <v>111.25731676529109</v>
       </c>
-      <c r="CR87" s="12">
+      <c r="CR87" s="30">
         <v>115.77581232093399</v>
       </c>
-      <c r="CS87" s="12">
+      <c r="CS87" s="30">
         <v>133.43522613038178</v>
       </c>
-      <c r="CT87" s="12">
+      <c r="CT87" s="30">
         <v>113.65684841215035</v>
       </c>
-      <c r="CU87" s="12">
-        <v>114.86131030267848</v>
-      </c>
-      <c r="CV87" s="17"/>
+      <c r="CU87" s="30">
+        <v>115.42302480325574</v>
+      </c>
+      <c r="CV87" s="30">
+        <v>120.36312254559888</v>
+      </c>
       <c r="CW87" s="17"/>
       <c r="CX87" s="17"/>
       <c r="CY87" s="17"/>
@@ -36987,25 +37205,27 @@
       <c r="CO88" s="12">
         <v>114.80154612467186</v>
       </c>
-      <c r="CP88" s="12">
+      <c r="CP88" s="30">
         <v>101.24156283159209</v>
       </c>
-      <c r="CQ88" s="12">
+      <c r="CQ88" s="30">
         <v>103.31716297128104</v>
       </c>
-      <c r="CR88" s="12">
+      <c r="CR88" s="30">
         <v>114.33168243158303</v>
       </c>
-      <c r="CS88" s="12">
+      <c r="CS88" s="30">
         <v>119.54363455938457</v>
       </c>
-      <c r="CT88" s="12">
+      <c r="CT88" s="30">
         <v>105.75696049307066</v>
       </c>
-      <c r="CU88" s="12">
-        <v>107.86944493067416</v>
-      </c>
-      <c r="CV88" s="17"/>
+      <c r="CU88" s="30">
+        <v>107.86944493067419</v>
+      </c>
+      <c r="CV88" s="30">
+        <v>121.40829149373008</v>
+      </c>
       <c r="CW88" s="17"/>
       <c r="CX88" s="17"/>
       <c r="CY88" s="17"/>
@@ -37151,13 +37371,13 @@
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
-      <c r="CP89" s="11"/>
-      <c r="CQ89" s="11"/>
-      <c r="CR89" s="11"/>
-      <c r="CS89" s="11"/>
-      <c r="CT89" s="11"/>
-      <c r="CU89" s="11"/>
-      <c r="CV89" s="17"/>
+      <c r="CP89" s="25"/>
+      <c r="CQ89" s="25"/>
+      <c r="CR89" s="25"/>
+      <c r="CS89" s="25"/>
+      <c r="CT89" s="25"/>
+      <c r="CU89" s="25"/>
+      <c r="CV89" s="25"/>
       <c r="CW89" s="17"/>
       <c r="CX89" s="17"/>
       <c r="CY89" s="17"/>
@@ -37490,25 +37710,27 @@
       <c r="CO90" s="12">
         <v>124.15775852953077</v>
       </c>
-      <c r="CP90" s="12">
+      <c r="CP90" s="30">
         <v>107.37190582024149</v>
       </c>
-      <c r="CQ90" s="12">
+      <c r="CQ90" s="30">
         <v>108.93362842021526</v>
       </c>
-      <c r="CR90" s="12">
+      <c r="CR90" s="30">
         <v>115.28790889209321</v>
       </c>
-      <c r="CS90" s="12">
+      <c r="CS90" s="30">
         <v>128.83454702860234</v>
       </c>
-      <c r="CT90" s="12">
+      <c r="CT90" s="30">
         <v>110.95434756963951</v>
       </c>
-      <c r="CU90" s="12">
-        <v>112.64940622348665</v>
-      </c>
-      <c r="CV90" s="17"/>
+      <c r="CU90" s="30">
+        <v>113.03183882168248</v>
+      </c>
+      <c r="CV90" s="30">
+        <v>120.71133449673897</v>
+      </c>
       <c r="CW90" s="17"/>
       <c r="CX90" s="17"/>
       <c r="CY90" s="17"/>
@@ -37655,12 +37877,13 @@
       <c r="CM91" s="9"/>
       <c r="CN91" s="9"/>
       <c r="CO91" s="9"/>
-      <c r="CP91" s="9"/>
-      <c r="CQ91" s="9"/>
-      <c r="CR91" s="9"/>
-      <c r="CS91" s="9"/>
-      <c r="CT91" s="9"/>
-      <c r="CU91" s="9"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
+      <c r="CT91" s="27"/>
+      <c r="CU91" s="27"/>
+      <c r="CV91" s="27"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37746,6 +37969,13 @@
       <c r="CA92" s="3"/>
       <c r="CB92" s="3"/>
       <c r="CC92" s="3"/>
+      <c r="CP92" s="20"/>
+      <c r="CQ92" s="20"/>
+      <c r="CR92" s="20"/>
+      <c r="CS92" s="20"/>
+      <c r="CT92" s="20"/>
+      <c r="CU92" s="20"/>
+      <c r="CV92" s="20"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -37840,12 +38070,13 @@
       <c r="CM93" s="3"/>
       <c r="CN93" s="3"/>
       <c r="CO93" s="3"/>
-      <c r="CP93" s="3"/>
-      <c r="CQ93" s="3"/>
-      <c r="CR93" s="3"/>
-      <c r="CS93" s="3"/>
-      <c r="CT93" s="3"/>
-      <c r="CU93" s="3"/>
+      <c r="CP93" s="21"/>
+      <c r="CQ93" s="21"/>
+      <c r="CR93" s="21"/>
+      <c r="CS93" s="21"/>
+      <c r="CT93" s="21"/>
+      <c r="CU93" s="21"/>
+      <c r="CV93" s="21"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -37940,12 +38171,13 @@
       <c r="CM94" s="3"/>
       <c r="CN94" s="3"/>
       <c r="CO94" s="3"/>
-      <c r="CP94" s="3"/>
-      <c r="CQ94" s="3"/>
-      <c r="CR94" s="3"/>
-      <c r="CS94" s="3"/>
-      <c r="CT94" s="3"/>
-      <c r="CU94" s="3"/>
+      <c r="CP94" s="21"/>
+      <c r="CQ94" s="21"/>
+      <c r="CR94" s="21"/>
+      <c r="CS94" s="21"/>
+      <c r="CT94" s="21"/>
+      <c r="CU94" s="21"/>
+      <c r="CV94" s="21"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -38043,12 +38275,13 @@
       <c r="CM95" s="3"/>
       <c r="CN95" s="3"/>
       <c r="CO95" s="3"/>
-      <c r="CP95" s="3"/>
-      <c r="CQ95" s="3"/>
-      <c r="CR95" s="3"/>
-      <c r="CS95" s="3"/>
-      <c r="CT95" s="3"/>
-      <c r="CU95" s="3"/>
+      <c r="CP95" s="21"/>
+      <c r="CQ95" s="21"/>
+      <c r="CR95" s="21"/>
+      <c r="CS95" s="21"/>
+      <c r="CT95" s="21"/>
+      <c r="CU95" s="21"/>
+      <c r="CV95" s="21"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -38146,12 +38379,13 @@
       <c r="CM96" s="3"/>
       <c r="CN96" s="3"/>
       <c r="CO96" s="3"/>
-      <c r="CP96" s="3"/>
-      <c r="CQ96" s="3"/>
-      <c r="CR96" s="3"/>
-      <c r="CS96" s="3"/>
-      <c r="CT96" s="3"/>
-      <c r="CU96" s="3"/>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
+      <c r="CS96" s="21"/>
+      <c r="CT96" s="21"/>
+      <c r="CU96" s="21"/>
+      <c r="CV96" s="21"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
@@ -38249,12 +38483,13 @@
       <c r="CM97" s="3"/>
       <c r="CN97" s="3"/>
       <c r="CO97" s="3"/>
-      <c r="CP97" s="3"/>
-      <c r="CQ97" s="3"/>
-      <c r="CR97" s="3"/>
-      <c r="CS97" s="3"/>
-      <c r="CT97" s="3"/>
-      <c r="CU97" s="3"/>
+      <c r="CP97" s="21"/>
+      <c r="CQ97" s="21"/>
+      <c r="CR97" s="21"/>
+      <c r="CS97" s="21"/>
+      <c r="CT97" s="21"/>
+      <c r="CU97" s="21"/>
+      <c r="CV97" s="21"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -38350,12 +38585,13 @@
       <c r="CM98" s="3"/>
       <c r="CN98" s="3"/>
       <c r="CO98" s="3"/>
-      <c r="CP98" s="3"/>
-      <c r="CQ98" s="3"/>
-      <c r="CR98" s="3"/>
-      <c r="CS98" s="3"/>
-      <c r="CT98" s="3"/>
-      <c r="CU98" s="3"/>
+      <c r="CP98" s="21"/>
+      <c r="CQ98" s="21"/>
+      <c r="CR98" s="21"/>
+      <c r="CS98" s="21"/>
+      <c r="CT98" s="21"/>
+      <c r="CU98" s="21"/>
+      <c r="CV98" s="21"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -38453,12 +38689,13 @@
       <c r="CM99" s="3"/>
       <c r="CN99" s="3"/>
       <c r="CO99" s="3"/>
-      <c r="CP99" s="3"/>
-      <c r="CQ99" s="3"/>
-      <c r="CR99" s="3"/>
-      <c r="CS99" s="3"/>
-      <c r="CT99" s="3"/>
-      <c r="CU99" s="3"/>
+      <c r="CP99" s="21"/>
+      <c r="CQ99" s="21"/>
+      <c r="CR99" s="21"/>
+      <c r="CS99" s="21"/>
+      <c r="CT99" s="21"/>
+      <c r="CU99" s="21"/>
+      <c r="CV99" s="21"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
@@ -38556,12 +38793,13 @@
       <c r="CM100" s="3"/>
       <c r="CN100" s="3"/>
       <c r="CO100" s="3"/>
-      <c r="CP100" s="3"/>
-      <c r="CQ100" s="3"/>
-      <c r="CR100" s="3"/>
-      <c r="CS100" s="3"/>
-      <c r="CT100" s="3"/>
-      <c r="CU100" s="3"/>
+      <c r="CP100" s="21"/>
+      <c r="CQ100" s="21"/>
+      <c r="CR100" s="21"/>
+      <c r="CS100" s="21"/>
+      <c r="CT100" s="21"/>
+      <c r="CU100" s="21"/>
+      <c r="CV100" s="21"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38659,12 +38897,13 @@
       <c r="CM101" s="3"/>
       <c r="CN101" s="3"/>
       <c r="CO101" s="3"/>
-      <c r="CP101" s="3"/>
-      <c r="CQ101" s="3"/>
-      <c r="CR101" s="3"/>
-      <c r="CS101" s="3"/>
-      <c r="CT101" s="3"/>
-      <c r="CU101" s="3"/>
+      <c r="CP101" s="21"/>
+      <c r="CQ101" s="21"/>
+      <c r="CR101" s="21"/>
+      <c r="CS101" s="21"/>
+      <c r="CT101" s="21"/>
+      <c r="CU101" s="21"/>
+      <c r="CV101" s="21"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -38760,141 +38999,142 @@
       <c r="CM102" s="3"/>
       <c r="CN102" s="3"/>
       <c r="CO102" s="3"/>
-      <c r="CP102" s="3"/>
-      <c r="CQ102" s="3"/>
-      <c r="CR102" s="3"/>
-      <c r="CS102" s="3"/>
-      <c r="CT102" s="3"/>
-      <c r="CU102" s="3"/>
+      <c r="CP102" s="21"/>
+      <c r="CQ102" s="21"/>
+      <c r="CR102" s="21"/>
+      <c r="CS102" s="21"/>
+      <c r="CT102" s="21"/>
+      <c r="CU102" s="21"/>
+      <c r="CV102" s="21"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="21">
+      <c r="B103" s="33">
         <v>2000</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="21">
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="33">
         <v>2001</v>
       </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="21">
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="33">
         <v>2002</v>
       </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="21">
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="33">
         <v>2003</v>
       </c>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="21">
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="33">
         <v>2004</v>
       </c>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="21">
+      <c r="S103" s="34"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="34"/>
+      <c r="V103" s="33">
         <v>2005</v>
       </c>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="21">
+      <c r="W103" s="34"/>
+      <c r="X103" s="34"/>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="33">
         <v>2006</v>
       </c>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="21">
+      <c r="AA103" s="34"/>
+      <c r="AB103" s="34"/>
+      <c r="AC103" s="34"/>
+      <c r="AD103" s="33">
         <v>2007</v>
       </c>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="21">
+      <c r="AE103" s="34"/>
+      <c r="AF103" s="34"/>
+      <c r="AG103" s="34"/>
+      <c r="AH103" s="33">
         <v>2008</v>
       </c>
-      <c r="AI103" s="22"/>
-      <c r="AJ103" s="22"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="21">
+      <c r="AI103" s="34"/>
+      <c r="AJ103" s="34"/>
+      <c r="AK103" s="34"/>
+      <c r="AL103" s="33">
         <v>2009</v>
       </c>
-      <c r="AM103" s="22"/>
-      <c r="AN103" s="22"/>
-      <c r="AO103" s="22"/>
-      <c r="AP103" s="21">
+      <c r="AM103" s="34"/>
+      <c r="AN103" s="34"/>
+      <c r="AO103" s="34"/>
+      <c r="AP103" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="22"/>
-      <c r="AR103" s="22"/>
-      <c r="AS103" s="22"/>
-      <c r="AT103" s="21">
+      <c r="AQ103" s="34"/>
+      <c r="AR103" s="34"/>
+      <c r="AS103" s="34"/>
+      <c r="AT103" s="33">
         <v>2011</v>
       </c>
-      <c r="AU103" s="22"/>
-      <c r="AV103" s="22"/>
-      <c r="AW103" s="22"/>
-      <c r="AX103" s="21">
+      <c r="AU103" s="34"/>
+      <c r="AV103" s="34"/>
+      <c r="AW103" s="34"/>
+      <c r="AX103" s="33">
         <v>2012</v>
       </c>
-      <c r="AY103" s="22"/>
-      <c r="AZ103" s="22"/>
-      <c r="BA103" s="22"/>
-      <c r="BB103" s="21">
+      <c r="AY103" s="34"/>
+      <c r="AZ103" s="34"/>
+      <c r="BA103" s="34"/>
+      <c r="BB103" s="33">
         <v>2013</v>
       </c>
-      <c r="BC103" s="22"/>
-      <c r="BD103" s="22"/>
-      <c r="BE103" s="22"/>
-      <c r="BF103" s="21">
+      <c r="BC103" s="34"/>
+      <c r="BD103" s="34"/>
+      <c r="BE103" s="34"/>
+      <c r="BF103" s="33">
         <v>2014</v>
       </c>
-      <c r="BG103" s="22"/>
-      <c r="BH103" s="22"/>
-      <c r="BI103" s="22"/>
-      <c r="BJ103" s="21">
+      <c r="BG103" s="34"/>
+      <c r="BH103" s="34"/>
+      <c r="BI103" s="34"/>
+      <c r="BJ103" s="33">
         <v>2015</v>
       </c>
-      <c r="BK103" s="22"/>
-      <c r="BL103" s="22"/>
-      <c r="BM103" s="22"/>
-      <c r="BN103" s="21">
+      <c r="BK103" s="34"/>
+      <c r="BL103" s="34"/>
+      <c r="BM103" s="34"/>
+      <c r="BN103" s="33">
         <v>2016</v>
       </c>
-      <c r="BO103" s="22"/>
-      <c r="BP103" s="22"/>
-      <c r="BQ103" s="22"/>
-      <c r="BR103" s="21">
+      <c r="BO103" s="34"/>
+      <c r="BP103" s="34"/>
+      <c r="BQ103" s="34"/>
+      <c r="BR103" s="33">
         <v>2017</v>
       </c>
-      <c r="BS103" s="22"/>
-      <c r="BT103" s="22"/>
-      <c r="BU103" s="22"/>
-      <c r="BV103" s="21">
+      <c r="BS103" s="34"/>
+      <c r="BT103" s="34"/>
+      <c r="BU103" s="34"/>
+      <c r="BV103" s="33">
         <v>2018</v>
       </c>
-      <c r="BW103" s="22"/>
-      <c r="BX103" s="22"/>
-      <c r="BY103" s="22"/>
-      <c r="BZ103" s="21">
+      <c r="BW103" s="34"/>
+      <c r="BX103" s="34"/>
+      <c r="BY103" s="34"/>
+      <c r="BZ103" s="33">
         <v>2019</v>
       </c>
-      <c r="CA103" s="22"/>
-      <c r="CB103" s="22"/>
-      <c r="CC103" s="22"/>
-      <c r="CD103" s="21">
+      <c r="CA103" s="34"/>
+      <c r="CB103" s="34"/>
+      <c r="CC103" s="34"/>
+      <c r="CD103" s="33">
         <v>2020</v>
       </c>
-      <c r="CE103" s="21"/>
-      <c r="CF103" s="21"/>
-      <c r="CG103" s="21"/>
+      <c r="CE103" s="33"/>
+      <c r="CF103" s="33"/>
+      <c r="CG103" s="33"/>
       <c r="CH103" s="19">
         <v>2021</v>
       </c>
@@ -38907,16 +39147,17 @@
       <c r="CM103" s="19"/>
       <c r="CN103" s="19"/>
       <c r="CO103" s="19"/>
-      <c r="CP103" s="19">
+      <c r="CP103" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="19"/>
-      <c r="CR103" s="19"/>
-      <c r="CS103" s="19"/>
-      <c r="CT103" s="19">
+      <c r="CQ103" s="22"/>
+      <c r="CR103" s="22"/>
+      <c r="CS103" s="22"/>
+      <c r="CT103" s="22">
         <v>2024</v>
       </c>
-      <c r="CU103" s="19"/>
+      <c r="CU103" s="22"/>
+      <c r="CV103" s="22"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -39198,23 +39439,26 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="6" t="s">
+      <c r="CR104" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="6" t="s">
+      <c r="CS104" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="6" t="s">
+      <c r="CT104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU104" s="6" t="s">
+      <c r="CU104" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV104" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39311,12 +39555,13 @@
       <c r="CM105" s="3"/>
       <c r="CN105" s="3"/>
       <c r="CO105" s="3"/>
-      <c r="CP105" s="3"/>
-      <c r="CQ105" s="3"/>
-      <c r="CR105" s="3"/>
-      <c r="CS105" s="3"/>
-      <c r="CT105" s="3"/>
-      <c r="CU105" s="3"/>
+      <c r="CP105" s="21"/>
+      <c r="CQ105" s="21"/>
+      <c r="CR105" s="21"/>
+      <c r="CS105" s="21"/>
+      <c r="CT105" s="21"/>
+      <c r="CU105" s="21"/>
+      <c r="CV105" s="21"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39598,25 +39843,27 @@
       <c r="CO106" s="12">
         <v>69.8562463887571</v>
       </c>
-      <c r="CP106" s="12">
+      <c r="CP106" s="30">
         <v>69.653221286795741</v>
       </c>
-      <c r="CQ106" s="12">
+      <c r="CQ106" s="30">
         <v>72.243834530796818</v>
       </c>
-      <c r="CR106" s="12">
+      <c r="CR106" s="30">
         <v>66.494936461754008</v>
       </c>
-      <c r="CS106" s="12">
+      <c r="CS106" s="30">
         <v>69.269894085136002</v>
       </c>
-      <c r="CT106" s="12">
+      <c r="CT106" s="30">
         <v>67.393097508531483</v>
       </c>
-      <c r="CU106" s="12">
-        <v>69.706966213404343</v>
-      </c>
-      <c r="CV106" s="17"/>
+      <c r="CU106" s="30">
+        <v>69.789481350293954</v>
+      </c>
+      <c r="CV106" s="30">
+        <v>66.491308384578431</v>
+      </c>
       <c r="CW106" s="17"/>
       <c r="CX106" s="17"/>
       <c r="CY106" s="17"/>
@@ -39953,25 +40200,27 @@
       <c r="CO107" s="12">
         <v>30.143753611242897</v>
       </c>
-      <c r="CP107" s="12">
+      <c r="CP107" s="30">
         <v>30.346778713204259</v>
       </c>
-      <c r="CQ107" s="12">
+      <c r="CQ107" s="30">
         <v>27.756165469203182</v>
       </c>
-      <c r="CR107" s="12">
+      <c r="CR107" s="30">
         <v>33.505063538245999</v>
       </c>
-      <c r="CS107" s="12">
+      <c r="CS107" s="30">
         <v>30.730105914863998</v>
       </c>
-      <c r="CT107" s="12">
+      <c r="CT107" s="30">
         <v>32.60690249146851</v>
       </c>
-      <c r="CU107" s="12">
-        <v>30.293033786595657</v>
-      </c>
-      <c r="CV107" s="17"/>
+      <c r="CU107" s="30">
+        <v>30.210518649706064</v>
+      </c>
+      <c r="CV107" s="30">
+        <v>33.508691615421569</v>
+      </c>
       <c r="CW107" s="17"/>
       <c r="CX107" s="17"/>
       <c r="CY107" s="17"/>
@@ -40121,13 +40370,13 @@
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
-      <c r="CP108" s="11"/>
-      <c r="CQ108" s="11"/>
-      <c r="CR108" s="11"/>
-      <c r="CS108" s="11"/>
-      <c r="CT108" s="11"/>
-      <c r="CU108" s="11"/>
-      <c r="CV108" s="17"/>
+      <c r="CP108" s="25"/>
+      <c r="CQ108" s="25"/>
+      <c r="CR108" s="25"/>
+      <c r="CS108" s="25"/>
+      <c r="CT108" s="25"/>
+      <c r="CU108" s="25"/>
+      <c r="CV108" s="25"/>
       <c r="CW108" s="17"/>
       <c r="CX108" s="17"/>
       <c r="CY108" s="17"/>
@@ -40464,25 +40713,27 @@
       <c r="CO109" s="12">
         <v>100</v>
       </c>
-      <c r="CP109" s="12">
+      <c r="CP109" s="30">
         <v>100</v>
       </c>
-      <c r="CQ109" s="12">
+      <c r="CQ109" s="30">
         <v>100</v>
       </c>
-      <c r="CR109" s="12">
+      <c r="CR109" s="30">
         <v>100</v>
       </c>
-      <c r="CS109" s="12">
+      <c r="CS109" s="30">
         <v>100</v>
       </c>
-      <c r="CT109" s="12">
+      <c r="CT109" s="30">
         <v>100</v>
       </c>
-      <c r="CU109" s="12">
+      <c r="CU109" s="30">
         <v>100</v>
       </c>
-      <c r="CV109" s="17"/>
+      <c r="CV109" s="30">
+        <v>100</v>
+      </c>
       <c r="CW109" s="17"/>
       <c r="CX109" s="17"/>
       <c r="CY109" s="17"/>
@@ -40633,12 +40884,13 @@
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
       <c r="CO110" s="9"/>
-      <c r="CP110" s="9"/>
-      <c r="CQ110" s="9"/>
-      <c r="CR110" s="9"/>
-      <c r="CS110" s="9"/>
-      <c r="CT110" s="9"/>
-      <c r="CU110" s="9"/>
+      <c r="CP110" s="27"/>
+      <c r="CQ110" s="27"/>
+      <c r="CR110" s="27"/>
+      <c r="CS110" s="27"/>
+      <c r="CT110" s="27"/>
+      <c r="CU110" s="27"/>
+      <c r="CV110" s="27"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -40736,12 +40988,13 @@
       <c r="CM111" s="3"/>
       <c r="CN111" s="3"/>
       <c r="CO111" s="3"/>
-      <c r="CP111" s="3"/>
-      <c r="CQ111" s="3"/>
-      <c r="CR111" s="3"/>
-      <c r="CS111" s="3"/>
-      <c r="CT111" s="3"/>
-      <c r="CU111" s="3"/>
+      <c r="CP111" s="21"/>
+      <c r="CQ111" s="21"/>
+      <c r="CR111" s="21"/>
+      <c r="CS111" s="21"/>
+      <c r="CT111" s="21"/>
+      <c r="CU111" s="21"/>
+      <c r="CV111" s="21"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -40836,13 +41089,13 @@
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
-      <c r="CP112" s="11"/>
-      <c r="CQ112" s="11"/>
-      <c r="CR112" s="11"/>
-      <c r="CS112" s="11"/>
-      <c r="CT112" s="11"/>
-      <c r="CU112" s="11"/>
-      <c r="CV112" s="17"/>
+      <c r="CP112" s="25"/>
+      <c r="CQ112" s="25"/>
+      <c r="CR112" s="25"/>
+      <c r="CS112" s="25"/>
+      <c r="CT112" s="25"/>
+      <c r="CU112" s="25"/>
+      <c r="CV112" s="25"/>
       <c r="CW112" s="17"/>
       <c r="CX112" s="17"/>
       <c r="CY112" s="17"/>
@@ -40992,13 +41245,13 @@
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
-      <c r="CP113" s="11"/>
-      <c r="CQ113" s="11"/>
-      <c r="CR113" s="11"/>
-      <c r="CS113" s="11"/>
-      <c r="CT113" s="11"/>
-      <c r="CU113" s="11"/>
-      <c r="CV113" s="17"/>
+      <c r="CP113" s="25"/>
+      <c r="CQ113" s="25"/>
+      <c r="CR113" s="25"/>
+      <c r="CS113" s="25"/>
+      <c r="CT113" s="25"/>
+      <c r="CU113" s="25"/>
+      <c r="CV113" s="25"/>
       <c r="CW113" s="17"/>
       <c r="CX113" s="17"/>
       <c r="CY113" s="17"/>
@@ -41151,12 +41404,13 @@
       <c r="CM114" s="3"/>
       <c r="CN114" s="3"/>
       <c r="CO114" s="3"/>
-      <c r="CP114" s="3"/>
-      <c r="CQ114" s="3"/>
-      <c r="CR114" s="3"/>
-      <c r="CS114" s="3"/>
-      <c r="CT114" s="3"/>
-      <c r="CU114" s="3"/>
+      <c r="CP114" s="21"/>
+      <c r="CQ114" s="21"/>
+      <c r="CR114" s="21"/>
+      <c r="CS114" s="21"/>
+      <c r="CT114" s="21"/>
+      <c r="CU114" s="21"/>
+      <c r="CV114" s="21"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -41254,12 +41508,13 @@
       <c r="CM115" s="3"/>
       <c r="CN115" s="3"/>
       <c r="CO115" s="3"/>
-      <c r="CP115" s="3"/>
-      <c r="CQ115" s="3"/>
-      <c r="CR115" s="3"/>
-      <c r="CS115" s="3"/>
-      <c r="CT115" s="3"/>
-      <c r="CU115" s="3"/>
+      <c r="CP115" s="21"/>
+      <c r="CQ115" s="21"/>
+      <c r="CR115" s="21"/>
+      <c r="CS115" s="21"/>
+      <c r="CT115" s="21"/>
+      <c r="CU115" s="21"/>
+      <c r="CV115" s="21"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
@@ -41357,12 +41612,13 @@
       <c r="CM116" s="3"/>
       <c r="CN116" s="3"/>
       <c r="CO116" s="3"/>
-      <c r="CP116" s="3"/>
-      <c r="CQ116" s="3"/>
-      <c r="CR116" s="3"/>
-      <c r="CS116" s="3"/>
-      <c r="CT116" s="3"/>
-      <c r="CU116" s="3"/>
+      <c r="CP116" s="21"/>
+      <c r="CQ116" s="21"/>
+      <c r="CR116" s="21"/>
+      <c r="CS116" s="21"/>
+      <c r="CT116" s="21"/>
+      <c r="CU116" s="21"/>
+      <c r="CV116" s="21"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -41458,12 +41714,13 @@
       <c r="CM117" s="3"/>
       <c r="CN117" s="3"/>
       <c r="CO117" s="3"/>
-      <c r="CP117" s="3"/>
-      <c r="CQ117" s="3"/>
-      <c r="CR117" s="3"/>
-      <c r="CS117" s="3"/>
-      <c r="CT117" s="3"/>
-      <c r="CU117" s="3"/>
+      <c r="CP117" s="21"/>
+      <c r="CQ117" s="21"/>
+      <c r="CR117" s="21"/>
+      <c r="CS117" s="21"/>
+      <c r="CT117" s="21"/>
+      <c r="CU117" s="21"/>
+      <c r="CV117" s="21"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -41561,12 +41818,13 @@
       <c r="CM118" s="3"/>
       <c r="CN118" s="3"/>
       <c r="CO118" s="3"/>
-      <c r="CP118" s="3"/>
-      <c r="CQ118" s="3"/>
-      <c r="CR118" s="3"/>
-      <c r="CS118" s="3"/>
-      <c r="CT118" s="3"/>
-      <c r="CU118" s="3"/>
+      <c r="CP118" s="21"/>
+      <c r="CQ118" s="21"/>
+      <c r="CR118" s="21"/>
+      <c r="CS118" s="21"/>
+      <c r="CT118" s="21"/>
+      <c r="CU118" s="21"/>
+      <c r="CV118" s="21"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
@@ -41664,12 +41922,13 @@
       <c r="CM119" s="3"/>
       <c r="CN119" s="3"/>
       <c r="CO119" s="3"/>
-      <c r="CP119" s="3"/>
-      <c r="CQ119" s="3"/>
-      <c r="CR119" s="3"/>
-      <c r="CS119" s="3"/>
-      <c r="CT119" s="3"/>
-      <c r="CU119" s="3"/>
+      <c r="CP119" s="21"/>
+      <c r="CQ119" s="21"/>
+      <c r="CR119" s="21"/>
+      <c r="CS119" s="21"/>
+      <c r="CT119" s="21"/>
+      <c r="CU119" s="21"/>
+      <c r="CV119" s="21"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -41767,12 +42026,13 @@
       <c r="CM120" s="3"/>
       <c r="CN120" s="3"/>
       <c r="CO120" s="3"/>
-      <c r="CP120" s="3"/>
-      <c r="CQ120" s="3"/>
-      <c r="CR120" s="3"/>
-      <c r="CS120" s="3"/>
-      <c r="CT120" s="3"/>
-      <c r="CU120" s="3"/>
+      <c r="CP120" s="21"/>
+      <c r="CQ120" s="21"/>
+      <c r="CR120" s="21"/>
+      <c r="CS120" s="21"/>
+      <c r="CT120" s="21"/>
+      <c r="CU120" s="21"/>
+      <c r="CV120" s="21"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -41868,141 +42128,142 @@
       <c r="CM121" s="3"/>
       <c r="CN121" s="3"/>
       <c r="CO121" s="3"/>
-      <c r="CP121" s="3"/>
-      <c r="CQ121" s="3"/>
-      <c r="CR121" s="3"/>
-      <c r="CS121" s="3"/>
-      <c r="CT121" s="3"/>
-      <c r="CU121" s="3"/>
+      <c r="CP121" s="21"/>
+      <c r="CQ121" s="21"/>
+      <c r="CR121" s="21"/>
+      <c r="CS121" s="21"/>
+      <c r="CT121" s="21"/>
+      <c r="CU121" s="21"/>
+      <c r="CV121" s="21"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="21">
+      <c r="B122" s="33">
         <v>2000</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="21">
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="33">
         <v>2001</v>
       </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="21">
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="33">
         <v>2002</v>
       </c>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="21">
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="33">
         <v>2003</v>
       </c>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="21">
+      <c r="O122" s="34"/>
+      <c r="P122" s="34"/>
+      <c r="Q122" s="34"/>
+      <c r="R122" s="33">
         <v>2004</v>
       </c>
-      <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="22"/>
-      <c r="V122" s="21">
+      <c r="S122" s="34"/>
+      <c r="T122" s="34"/>
+      <c r="U122" s="34"/>
+      <c r="V122" s="33">
         <v>2005</v>
       </c>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-      <c r="Y122" s="22"/>
-      <c r="Z122" s="21">
+      <c r="W122" s="34"/>
+      <c r="X122" s="34"/>
+      <c r="Y122" s="34"/>
+      <c r="Z122" s="33">
         <v>2006</v>
       </c>
-      <c r="AA122" s="22"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="22"/>
-      <c r="AD122" s="21">
+      <c r="AA122" s="34"/>
+      <c r="AB122" s="34"/>
+      <c r="AC122" s="34"/>
+      <c r="AD122" s="33">
         <v>2007</v>
       </c>
-      <c r="AE122" s="22"/>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="22"/>
-      <c r="AH122" s="21">
+      <c r="AE122" s="34"/>
+      <c r="AF122" s="34"/>
+      <c r="AG122" s="34"/>
+      <c r="AH122" s="33">
         <v>2008</v>
       </c>
-      <c r="AI122" s="22"/>
-      <c r="AJ122" s="22"/>
-      <c r="AK122" s="22"/>
-      <c r="AL122" s="21">
+      <c r="AI122" s="34"/>
+      <c r="AJ122" s="34"/>
+      <c r="AK122" s="34"/>
+      <c r="AL122" s="33">
         <v>2009</v>
       </c>
-      <c r="AM122" s="22"/>
-      <c r="AN122" s="22"/>
-      <c r="AO122" s="22"/>
-      <c r="AP122" s="21">
+      <c r="AM122" s="34"/>
+      <c r="AN122" s="34"/>
+      <c r="AO122" s="34"/>
+      <c r="AP122" s="33">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="22"/>
-      <c r="AR122" s="22"/>
-      <c r="AS122" s="22"/>
-      <c r="AT122" s="21">
+      <c r="AQ122" s="34"/>
+      <c r="AR122" s="34"/>
+      <c r="AS122" s="34"/>
+      <c r="AT122" s="33">
         <v>2011</v>
       </c>
-      <c r="AU122" s="22"/>
-      <c r="AV122" s="22"/>
-      <c r="AW122" s="22"/>
-      <c r="AX122" s="21">
+      <c r="AU122" s="34"/>
+      <c r="AV122" s="34"/>
+      <c r="AW122" s="34"/>
+      <c r="AX122" s="33">
         <v>2012</v>
       </c>
-      <c r="AY122" s="22"/>
-      <c r="AZ122" s="22"/>
-      <c r="BA122" s="22"/>
-      <c r="BB122" s="21">
+      <c r="AY122" s="34"/>
+      <c r="AZ122" s="34"/>
+      <c r="BA122" s="34"/>
+      <c r="BB122" s="33">
         <v>2013</v>
       </c>
-      <c r="BC122" s="22"/>
-      <c r="BD122" s="22"/>
-      <c r="BE122" s="22"/>
-      <c r="BF122" s="21">
+      <c r="BC122" s="34"/>
+      <c r="BD122" s="34"/>
+      <c r="BE122" s="34"/>
+      <c r="BF122" s="33">
         <v>2014</v>
       </c>
-      <c r="BG122" s="22"/>
-      <c r="BH122" s="22"/>
-      <c r="BI122" s="22"/>
-      <c r="BJ122" s="21">
+      <c r="BG122" s="34"/>
+      <c r="BH122" s="34"/>
+      <c r="BI122" s="34"/>
+      <c r="BJ122" s="33">
         <v>2015</v>
       </c>
-      <c r="BK122" s="22"/>
-      <c r="BL122" s="22"/>
-      <c r="BM122" s="22"/>
-      <c r="BN122" s="21">
+      <c r="BK122" s="34"/>
+      <c r="BL122" s="34"/>
+      <c r="BM122" s="34"/>
+      <c r="BN122" s="33">
         <v>2016</v>
       </c>
-      <c r="BO122" s="22"/>
-      <c r="BP122" s="22"/>
-      <c r="BQ122" s="22"/>
-      <c r="BR122" s="21">
+      <c r="BO122" s="34"/>
+      <c r="BP122" s="34"/>
+      <c r="BQ122" s="34"/>
+      <c r="BR122" s="33">
         <v>2017</v>
       </c>
-      <c r="BS122" s="22"/>
-      <c r="BT122" s="22"/>
-      <c r="BU122" s="22"/>
-      <c r="BV122" s="21">
+      <c r="BS122" s="34"/>
+      <c r="BT122" s="34"/>
+      <c r="BU122" s="34"/>
+      <c r="BV122" s="33">
         <v>2018</v>
       </c>
-      <c r="BW122" s="22"/>
-      <c r="BX122" s="22"/>
-      <c r="BY122" s="22"/>
-      <c r="BZ122" s="21">
+      <c r="BW122" s="34"/>
+      <c r="BX122" s="34"/>
+      <c r="BY122" s="34"/>
+      <c r="BZ122" s="33">
         <v>2019</v>
       </c>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="21">
+      <c r="CA122" s="34"/>
+      <c r="CB122" s="34"/>
+      <c r="CC122" s="34"/>
+      <c r="CD122" s="33">
         <v>2020</v>
       </c>
-      <c r="CE122" s="21"/>
-      <c r="CF122" s="21"/>
-      <c r="CG122" s="21"/>
+      <c r="CE122" s="33"/>
+      <c r="CF122" s="33"/>
+      <c r="CG122" s="33"/>
       <c r="CH122" s="19">
         <v>2021</v>
       </c>
@@ -42015,16 +42276,17 @@
       <c r="CM122" s="19"/>
       <c r="CN122" s="19"/>
       <c r="CO122" s="19"/>
-      <c r="CP122" s="19">
+      <c r="CP122" s="22">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="19"/>
-      <c r="CR122" s="19"/>
-      <c r="CS122" s="19"/>
-      <c r="CT122" s="19">
+      <c r="CQ122" s="22"/>
+      <c r="CR122" s="22"/>
+      <c r="CS122" s="22"/>
+      <c r="CT122" s="22">
         <v>2024</v>
       </c>
-      <c r="CU122" s="19"/>
+      <c r="CU122" s="22"/>
+      <c r="CV122" s="22"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -42306,23 +42568,26 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="6" t="s">
+      <c r="CR123" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="6" t="s">
+      <c r="CS123" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="6" t="s">
+      <c r="CT123" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CU123" s="6" t="s">
+      <c r="CU123" s="23" t="s">
         <v>8</v>
+      </c>
+      <c r="CV123" s="23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42419,12 +42684,13 @@
       <c r="CM124" s="3"/>
       <c r="CN124" s="3"/>
       <c r="CO124" s="3"/>
-      <c r="CP124" s="3"/>
-      <c r="CQ124" s="3"/>
-      <c r="CR124" s="3"/>
-      <c r="CS124" s="3"/>
-      <c r="CT124" s="3"/>
-      <c r="CU124" s="3"/>
+      <c r="CP124" s="21"/>
+      <c r="CQ124" s="21"/>
+      <c r="CR124" s="21"/>
+      <c r="CS124" s="21"/>
+      <c r="CT124" s="21"/>
+      <c r="CU124" s="21"/>
+      <c r="CV124" s="21"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -42706,25 +42972,27 @@
       <c r="CO125" s="12">
         <v>67.399560298830735</v>
       </c>
-      <c r="CP125" s="12">
+      <c r="CP125" s="30">
         <v>67.81567397016606</v>
       </c>
-      <c r="CQ125" s="12">
+      <c r="CQ125" s="30">
         <v>70.734970564061555</v>
       </c>
-      <c r="CR125" s="12">
+      <c r="CR125" s="30">
         <v>66.214712925854244</v>
       </c>
-      <c r="CS125" s="12">
+      <c r="CS125" s="30">
         <v>66.881555088441345</v>
       </c>
-      <c r="CT125" s="12">
+      <c r="CT125" s="30">
         <v>65.790643231990487</v>
       </c>
-      <c r="CU125" s="12">
-        <v>68.364607132620634</v>
-      </c>
-      <c r="CV125" s="17"/>
+      <c r="CU125" s="30">
+        <v>68.343672511454841</v>
+      </c>
+      <c r="CV125" s="30">
+        <v>66.683668533906399</v>
+      </c>
       <c r="CW125" s="17"/>
       <c r="CX125" s="17"/>
       <c r="CY125" s="17"/>
@@ -43061,25 +43329,27 @@
       <c r="CO126" s="12">
         <v>32.600439701169257</v>
       </c>
-      <c r="CP126" s="12">
+      <c r="CP126" s="30">
         <v>32.18432602983394</v>
       </c>
-      <c r="CQ126" s="12">
+      <c r="CQ126" s="30">
         <v>29.265029435938445</v>
       </c>
-      <c r="CR126" s="12">
+      <c r="CR126" s="30">
         <v>33.785287074145756</v>
       </c>
-      <c r="CS126" s="12">
+      <c r="CS126" s="30">
         <v>33.118444911558655</v>
       </c>
-      <c r="CT126" s="12">
+      <c r="CT126" s="30">
         <v>34.209356768009506</v>
       </c>
-      <c r="CU126" s="12">
-        <v>31.635392867379363</v>
-      </c>
-      <c r="CV126" s="17"/>
+      <c r="CU126" s="30">
+        <v>31.656327488545148</v>
+      </c>
+      <c r="CV126" s="30">
+        <v>33.316331466093615</v>
+      </c>
       <c r="CW126" s="17"/>
       <c r="CX126" s="17"/>
       <c r="CY126" s="17"/>
@@ -43229,13 +43499,13 @@
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
-      <c r="CP127" s="11"/>
-      <c r="CQ127" s="11"/>
-      <c r="CR127" s="11"/>
-      <c r="CS127" s="11"/>
-      <c r="CT127" s="11"/>
-      <c r="CU127" s="11"/>
-      <c r="CV127" s="17"/>
+      <c r="CP127" s="25"/>
+      <c r="CQ127" s="25"/>
+      <c r="CR127" s="25"/>
+      <c r="CS127" s="25"/>
+      <c r="CT127" s="25"/>
+      <c r="CU127" s="25"/>
+      <c r="CV127" s="25"/>
       <c r="CW127" s="17"/>
       <c r="CX127" s="17"/>
       <c r="CY127" s="17"/>
@@ -43572,25 +43842,27 @@
       <c r="CO128" s="12">
         <v>100</v>
       </c>
-      <c r="CP128" s="12">
+      <c r="CP128" s="30">
         <v>100</v>
       </c>
-      <c r="CQ128" s="12">
+      <c r="CQ128" s="30">
         <v>100</v>
       </c>
-      <c r="CR128" s="12">
+      <c r="CR128" s="30">
         <v>100</v>
       </c>
-      <c r="CS128" s="12">
+      <c r="CS128" s="30">
         <v>100</v>
       </c>
-      <c r="CT128" s="12">
+      <c r="CT128" s="30">
         <v>100</v>
       </c>
-      <c r="CU128" s="12">
+      <c r="CU128" s="30">
         <v>100</v>
       </c>
-      <c r="CV128" s="17"/>
+      <c r="CV128" s="30">
+        <v>100</v>
+      </c>
       <c r="CW128" s="17"/>
       <c r="CX128" s="17"/>
       <c r="CY128" s="17"/>
@@ -43647,7 +43919,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:99" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:100" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -43741,14 +44013,15 @@
       <c r="CM129" s="9"/>
       <c r="CN129" s="9"/>
       <c r="CO129" s="9"/>
-      <c r="CP129" s="9"/>
-      <c r="CQ129" s="9"/>
-      <c r="CR129" s="9"/>
-      <c r="CS129" s="9"/>
-      <c r="CT129" s="9"/>
-      <c r="CU129" s="9"/>
+      <c r="CP129" s="27"/>
+      <c r="CQ129" s="27"/>
+      <c r="CR129" s="27"/>
+      <c r="CS129" s="27"/>
+      <c r="CT129" s="27"/>
+      <c r="CU129" s="27"/>
+      <c r="CV129" s="27"/>
     </row>
-    <row r="130" spans="1:99" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:100" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -43844,12 +44117,13 @@
       <c r="CM130" s="3"/>
       <c r="CN130" s="3"/>
       <c r="CO130" s="3"/>
-      <c r="CP130" s="3"/>
-      <c r="CQ130" s="3"/>
-      <c r="CR130" s="3"/>
-      <c r="CS130" s="3"/>
-      <c r="CT130" s="3"/>
-      <c r="CU130" s="3"/>
+      <c r="CP130" s="21"/>
+      <c r="CQ130" s="21"/>
+      <c r="CR130" s="21"/>
+      <c r="CS130" s="21"/>
+      <c r="CT130" s="21"/>
+      <c r="CU130" s="21"/>
+      <c r="CV130" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="147">
@@ -44006,9 +44280,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="98" man="1"/>
-    <brk id="76" max="98" man="1"/>
-    <brk id="94" max="98" man="1"/>
+    <brk id="38" max="99" man="1"/>
+    <brk id="76" max="99" man="1"/>
+    <brk id="94" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F4395C-859D-4785-B6E6-F6F44DE6ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA446C9-7CB7-4883-A3C1-8797F870C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EDUC" sheetId="13" r:id="rId1"/>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CV$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CW$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -776,6 +776,24 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23640,19 +23658,19 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY130"/>
+  <dimension ref="A1:EY143"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="93" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="32" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="15"/>
+    <col min="94" max="101" width="10.109375" style="32" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23666,6 +23684,7 @@
       <c r="CT1" s="20"/>
       <c r="CU1" s="20"/>
       <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
     </row>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -23678,10 +23697,11 @@
       <c r="CT2" s="20"/>
       <c r="CU2" s="20"/>
       <c r="CV2" s="20"/>
+      <c r="CW2" s="20"/>
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CP3" s="20"/>
       <c r="CQ3" s="20"/>
@@ -23690,6 +23710,7 @@
       <c r="CT3" s="20"/>
       <c r="CU3" s="20"/>
       <c r="CV3" s="20"/>
+      <c r="CW3" s="20"/>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -23700,6 +23721,7 @@
       <c r="CT4" s="20"/>
       <c r="CU4" s="20"/>
       <c r="CV4" s="20"/>
+      <c r="CW4" s="20"/>
     </row>
     <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -23712,10 +23734,11 @@
       <c r="CT5" s="20"/>
       <c r="CU5" s="20"/>
       <c r="CV5" s="20"/>
+      <c r="CW5" s="20"/>
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CP6" s="20"/>
       <c r="CQ6" s="20"/>
@@ -23724,6 +23747,7 @@
       <c r="CT6" s="20"/>
       <c r="CU6" s="20"/>
       <c r="CV6" s="20"/>
+      <c r="CW6" s="20"/>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -23736,6 +23760,7 @@
       <c r="CT7" s="20"/>
       <c r="CU7" s="20"/>
       <c r="CV7" s="20"/>
+      <c r="CW7" s="20"/>
     </row>
     <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -23838,135 +23863,136 @@
       <c r="CT8" s="21"/>
       <c r="CU8" s="21"/>
       <c r="CV8" s="21"/>
+      <c r="CW8" s="21"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="33">
+      <c r="B9" s="39">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="39">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="39"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33">
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="39">
         <v>2018</v>
       </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="33">
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="BY9" s="39"/>
+      <c r="BZ9" s="39">
         <v>2019</v>
       </c>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
-      <c r="CD9" s="33">
+      <c r="CA9" s="39"/>
+      <c r="CB9" s="39"/>
+      <c r="CC9" s="39"/>
+      <c r="CD9" s="39">
         <v>2020</v>
       </c>
-      <c r="CE9" s="33"/>
-      <c r="CF9" s="33"/>
-      <c r="CG9" s="33"/>
+      <c r="CE9" s="39"/>
+      <c r="CF9" s="39"/>
+      <c r="CG9" s="39"/>
       <c r="CH9" s="19">
         <v>2021</v>
       </c>
@@ -23990,6 +24016,7 @@
       </c>
       <c r="CU9" s="22"/>
       <c r="CV9" s="22"/>
+      <c r="CW9" s="22"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24291,6 +24318,9 @@
       </c>
       <c r="CV10" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24394,6 +24424,7 @@
       <c r="CT11" s="21"/>
       <c r="CU11" s="21"/>
       <c r="CV11" s="21"/>
+      <c r="CW11" s="21"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24696,7 +24727,9 @@
       <c r="CV12" s="24">
         <v>160797.61491778804</v>
       </c>
-      <c r="CW12" s="17"/>
+      <c r="CW12" s="24">
+        <v>194636.35227677273</v>
+      </c>
       <c r="CX12" s="17"/>
       <c r="CY12" s="17"/>
       <c r="CZ12" s="17"/>
@@ -25051,9 +25084,11 @@
         <v>84700.077529256945</v>
       </c>
       <c r="CV13" s="24">
-        <v>81034.917520515446</v>
-      </c>
-      <c r="CW13" s="17"/>
+        <v>84721.007210138298</v>
+      </c>
+      <c r="CW13" s="24">
+        <v>89657.277559498049</v>
+      </c>
       <c r="CX13" s="17"/>
       <c r="CY13" s="17"/>
       <c r="CZ13" s="17"/>
@@ -25209,7 +25244,7 @@
       <c r="CT14" s="25"/>
       <c r="CU14" s="25"/>
       <c r="CV14" s="25"/>
-      <c r="CW14" s="17"/>
+      <c r="CW14" s="25"/>
       <c r="CX14" s="17"/>
       <c r="CY14" s="17"/>
       <c r="CZ14" s="17"/>
@@ -25564,9 +25599,11 @@
         <v>280366.18143290648</v>
       </c>
       <c r="CV15" s="26">
-        <v>241832.53243830349</v>
-      </c>
-      <c r="CW15" s="17"/>
+        <v>245518.62212792633</v>
+      </c>
+      <c r="CW15" s="26">
+        <v>284293.62983627076</v>
+      </c>
       <c r="CX15" s="17"/>
       <c r="CY15" s="17"/>
       <c r="CZ15" s="17"/>
@@ -25723,6 +25760,7 @@
       <c r="CT16" s="27"/>
       <c r="CU16" s="27"/>
       <c r="CV16" s="27"/>
+      <c r="CW16" s="27"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25827,6 +25865,7 @@
       <c r="CT17" s="21"/>
       <c r="CU17" s="21"/>
       <c r="CV17" s="21"/>
+      <c r="CW17" s="21"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25928,7 +25967,7 @@
       <c r="CT18" s="25"/>
       <c r="CU18" s="25"/>
       <c r="CV18" s="25"/>
-      <c r="CW18" s="17"/>
+      <c r="CW18" s="25"/>
       <c r="CX18" s="17"/>
       <c r="CY18" s="17"/>
       <c r="CZ18" s="17"/>
@@ -26084,7 +26123,7 @@
       <c r="CT19" s="25"/>
       <c r="CU19" s="25"/>
       <c r="CV19" s="25"/>
-      <c r="CW19" s="17"/>
+      <c r="CW19" s="25"/>
       <c r="CX19" s="17"/>
       <c r="CY19" s="17"/>
       <c r="CZ19" s="17"/>
@@ -26243,6 +26282,7 @@
       <c r="CT20" s="21"/>
       <c r="CU20" s="21"/>
       <c r="CV20" s="21"/>
+      <c r="CW20" s="21"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26347,10 +26387,11 @@
       <c r="CT21" s="21"/>
       <c r="CU21" s="21"/>
       <c r="CV21" s="21"/>
+      <c r="CW21" s="21"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26451,6 +26492,7 @@
       <c r="CT22" s="21"/>
       <c r="CU22" s="21"/>
       <c r="CV22" s="21"/>
+      <c r="CW22" s="21"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26553,6 +26595,7 @@
       <c r="CT23" s="21"/>
       <c r="CU23" s="21"/>
       <c r="CV23" s="21"/>
+      <c r="CW23" s="21"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26657,10 +26700,11 @@
       <c r="CT24" s="21"/>
       <c r="CU24" s="21"/>
       <c r="CV24" s="21"/>
+      <c r="CW24" s="21"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26761,6 +26805,7 @@
       <c r="CT25" s="21"/>
       <c r="CU25" s="21"/>
       <c r="CV25" s="21"/>
+      <c r="CW25" s="21"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26865,6 +26910,7 @@
       <c r="CT26" s="21"/>
       <c r="CU26" s="21"/>
       <c r="CV26" s="21"/>
+      <c r="CW26" s="21"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -26967,135 +27013,136 @@
       <c r="CT27" s="21"/>
       <c r="CU27" s="21"/>
       <c r="CV27" s="21"/>
+      <c r="CW27" s="21"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="33">
+      <c r="B28" s="39">
         <v>2000</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="33">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="39">
         <v>2001</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33">
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39">
         <v>2002</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="33">
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="39">
         <v>2003</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="33">
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="39">
         <v>2004</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="33">
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="39">
         <v>2005</v>
       </c>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="33">
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="39">
         <v>2006</v>
       </c>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="33">
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="39">
         <v>2007</v>
       </c>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="33">
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="39">
         <v>2008</v>
       </c>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="33">
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="39">
         <v>2009</v>
       </c>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="33">
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="33">
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="39">
         <v>2011</v>
       </c>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="33">
+      <c r="AU28" s="40"/>
+      <c r="AV28" s="40"/>
+      <c r="AW28" s="40"/>
+      <c r="AX28" s="39">
         <v>2012</v>
       </c>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="33">
+      <c r="AY28" s="40"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="40"/>
+      <c r="BB28" s="39">
         <v>2013</v>
       </c>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="33">
+      <c r="BC28" s="40"/>
+      <c r="BD28" s="40"/>
+      <c r="BE28" s="40"/>
+      <c r="BF28" s="39">
         <v>2014</v>
       </c>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="33">
+      <c r="BG28" s="40"/>
+      <c r="BH28" s="40"/>
+      <c r="BI28" s="40"/>
+      <c r="BJ28" s="39">
         <v>2015</v>
       </c>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
-      <c r="BN28" s="33">
+      <c r="BK28" s="40"/>
+      <c r="BL28" s="40"/>
+      <c r="BM28" s="40"/>
+      <c r="BN28" s="39">
         <v>2016</v>
       </c>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="33">
+      <c r="BO28" s="40"/>
+      <c r="BP28" s="40"/>
+      <c r="BQ28" s="40"/>
+      <c r="BR28" s="39">
         <v>2017</v>
       </c>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="34"/>
-      <c r="BU28" s="34"/>
-      <c r="BV28" s="33">
+      <c r="BS28" s="40"/>
+      <c r="BT28" s="40"/>
+      <c r="BU28" s="40"/>
+      <c r="BV28" s="39">
         <v>2018</v>
       </c>
-      <c r="BW28" s="34"/>
-      <c r="BX28" s="34"/>
-      <c r="BY28" s="34"/>
-      <c r="BZ28" s="33">
+      <c r="BW28" s="40"/>
+      <c r="BX28" s="40"/>
+      <c r="BY28" s="40"/>
+      <c r="BZ28" s="39">
         <v>2019</v>
       </c>
-      <c r="CA28" s="34"/>
-      <c r="CB28" s="34"/>
-      <c r="CC28" s="34"/>
-      <c r="CD28" s="33">
+      <c r="CA28" s="40"/>
+      <c r="CB28" s="40"/>
+      <c r="CC28" s="40"/>
+      <c r="CD28" s="39">
         <v>2020</v>
       </c>
-      <c r="CE28" s="33"/>
-      <c r="CF28" s="33"/>
-      <c r="CG28" s="33"/>
+      <c r="CE28" s="39"/>
+      <c r="CF28" s="39"/>
+      <c r="CG28" s="39"/>
       <c r="CH28" s="19">
         <v>2021</v>
       </c>
@@ -27119,6 +27166,7 @@
       </c>
       <c r="CU28" s="22"/>
       <c r="CV28" s="22"/>
+      <c r="CW28" s="22"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27420,6 +27468,9 @@
       </c>
       <c r="CV29" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW29" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27523,6 +27574,7 @@
       <c r="CT30" s="21"/>
       <c r="CU30" s="21"/>
       <c r="CV30" s="21"/>
+      <c r="CW30" s="21"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27825,7 +27877,9 @@
       <c r="CV31" s="24">
         <v>133593.75489520951</v>
       </c>
-      <c r="CW31" s="17"/>
+      <c r="CW31" s="24">
+        <v>141362.05257497405</v>
+      </c>
       <c r="CX31" s="17"/>
       <c r="CY31" s="17"/>
       <c r="CZ31" s="17"/>
@@ -28180,9 +28234,11 @@
         <v>78520.917191788845</v>
       </c>
       <c r="CV32" s="24">
-        <v>66745.785253637601</v>
-      </c>
-      <c r="CW32" s="17"/>
+        <v>69781.8955919609</v>
+      </c>
+      <c r="CW32" s="24">
+        <v>71342.056187319846</v>
+      </c>
       <c r="CX32" s="17"/>
       <c r="CY32" s="17"/>
       <c r="CZ32" s="17"/>
@@ -28338,7 +28394,7 @@
       <c r="CT33" s="25"/>
       <c r="CU33" s="25"/>
       <c r="CV33" s="25"/>
-      <c r="CW33" s="17"/>
+      <c r="CW33" s="25"/>
       <c r="CX33" s="17"/>
       <c r="CY33" s="17"/>
       <c r="CZ33" s="17"/>
@@ -28693,9 +28749,11 @@
         <v>248041.77686183483</v>
       </c>
       <c r="CV34" s="26">
-        <v>200339.5401488471</v>
-      </c>
-      <c r="CW34" s="17"/>
+        <v>203375.65048717041</v>
+      </c>
+      <c r="CW34" s="26">
+        <v>212704.10876229388</v>
+      </c>
       <c r="CX34" s="17"/>
       <c r="CY34" s="17"/>
       <c r="CZ34" s="17"/>
@@ -28852,6 +28910,7 @@
       <c r="CT35" s="27"/>
       <c r="CU35" s="27"/>
       <c r="CV35" s="27"/>
+      <c r="CW35" s="27"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -28956,6 +29015,7 @@
       <c r="CT36" s="21"/>
       <c r="CU36" s="21"/>
       <c r="CV36" s="21"/>
+      <c r="CW36" s="21"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -29057,7 +29117,7 @@
       <c r="CT37" s="25"/>
       <c r="CU37" s="25"/>
       <c r="CV37" s="25"/>
-      <c r="CW37" s="17"/>
+      <c r="CW37" s="25"/>
       <c r="CX37" s="17"/>
       <c r="CY37" s="17"/>
       <c r="CZ37" s="17"/>
@@ -29213,7 +29273,7 @@
       <c r="CT38" s="25"/>
       <c r="CU38" s="25"/>
       <c r="CV38" s="25"/>
-      <c r="CW38" s="17"/>
+      <c r="CW38" s="25"/>
       <c r="CX38" s="17"/>
       <c r="CY38" s="17"/>
       <c r="CZ38" s="17"/>
@@ -29372,6 +29432,7 @@
       <c r="CT39" s="21"/>
       <c r="CU39" s="21"/>
       <c r="CV39" s="21"/>
+      <c r="CW39" s="21"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29476,10 +29537,11 @@
       <c r="CT40" s="21"/>
       <c r="CU40" s="21"/>
       <c r="CV40" s="21"/>
+      <c r="CW40" s="21"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29580,6 +29642,7 @@
       <c r="CT41" s="21"/>
       <c r="CU41" s="21"/>
       <c r="CV41" s="21"/>
+      <c r="CW41" s="21"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29678,10 +29741,11 @@
       <c r="CP42" s="21"/>
       <c r="CQ42" s="21"/>
       <c r="CR42" s="21"/>
-      <c r="CS42" s="21"/>
-      <c r="CT42" s="21"/>
-      <c r="CU42" s="21"/>
-      <c r="CV42" s="21"/>
+      <c r="CS42" s="33"/>
+      <c r="CT42" s="33"/>
+      <c r="CU42" s="33"/>
+      <c r="CV42" s="33"/>
+      <c r="CW42" s="33"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29782,14 +29846,15 @@
       <c r="CP43" s="21"/>
       <c r="CQ43" s="21"/>
       <c r="CR43" s="21"/>
-      <c r="CS43" s="21"/>
-      <c r="CT43" s="21"/>
-      <c r="CU43" s="21"/>
-      <c r="CV43" s="21"/>
+      <c r="CS43" s="33"/>
+      <c r="CT43" s="33"/>
+      <c r="CU43" s="33"/>
+      <c r="CV43" s="33"/>
+      <c r="CW43" s="33"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29874,10 +29939,11 @@
       <c r="CP44" s="20"/>
       <c r="CQ44" s="20"/>
       <c r="CR44" s="20"/>
-      <c r="CS44" s="20"/>
-      <c r="CT44" s="20"/>
-      <c r="CU44" s="20"/>
-      <c r="CV44" s="20"/>
+      <c r="CS44" s="34"/>
+      <c r="CT44" s="34"/>
+      <c r="CU44" s="34"/>
+      <c r="CV44" s="34"/>
+      <c r="CW44" s="34"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -29967,9 +30033,10 @@
       <c r="CQ45" s="20"/>
       <c r="CR45" s="20"/>
       <c r="CS45" s="20"/>
-      <c r="CT45" s="20"/>
-      <c r="CU45" s="20"/>
-      <c r="CV45" s="20"/>
+      <c r="CT45" s="34"/>
+      <c r="CU45" s="34"/>
+      <c r="CV45" s="34"/>
+      <c r="CW45" s="34"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -30069,138 +30136,139 @@
       <c r="CQ46" s="21"/>
       <c r="CR46" s="21"/>
       <c r="CS46" s="21"/>
-      <c r="CT46" s="21"/>
-      <c r="CU46" s="21"/>
-      <c r="CV46" s="21"/>
+      <c r="CT46" s="33"/>
+      <c r="CU46" s="33"/>
+      <c r="CV46" s="33"/>
+      <c r="CW46" s="33"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33" t="s">
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33" t="s">
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33" t="s">
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33" t="s">
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33" t="s">
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33" t="s">
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33" t="s">
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="33"/>
-      <c r="AH47" s="33" t="s">
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="33"/>
-      <c r="AK47" s="33"/>
-      <c r="AL47" s="33" t="s">
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="33"/>
-      <c r="AN47" s="33"/>
-      <c r="AO47" s="33"/>
-      <c r="AP47" s="33" t="s">
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="33"/>
-      <c r="AR47" s="33"/>
-      <c r="AS47" s="33"/>
-      <c r="AT47" s="33" t="s">
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="39"/>
+      <c r="AS47" s="39"/>
+      <c r="AT47" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="33"/>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="33"/>
-      <c r="AX47" s="33" t="s">
+      <c r="AU47" s="39"/>
+      <c r="AV47" s="39"/>
+      <c r="AW47" s="39"/>
+      <c r="AX47" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="33"/>
-      <c r="AZ47" s="33"/>
-      <c r="BA47" s="33"/>
-      <c r="BB47" s="33" t="s">
+      <c r="AY47" s="39"/>
+      <c r="AZ47" s="39"/>
+      <c r="BA47" s="39"/>
+      <c r="BB47" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="33"/>
-      <c r="BD47" s="33"/>
-      <c r="BE47" s="33"/>
-      <c r="BF47" s="33" t="s">
+      <c r="BC47" s="39"/>
+      <c r="BD47" s="39"/>
+      <c r="BE47" s="39"/>
+      <c r="BF47" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="33"/>
-      <c r="BH47" s="33"/>
-      <c r="BI47" s="33"/>
-      <c r="BJ47" s="33" t="s">
+      <c r="BG47" s="39"/>
+      <c r="BH47" s="39"/>
+      <c r="BI47" s="39"/>
+      <c r="BJ47" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="33"/>
-      <c r="BL47" s="33"/>
-      <c r="BM47" s="33"/>
-      <c r="BN47" s="33" t="s">
+      <c r="BK47" s="39"/>
+      <c r="BL47" s="39"/>
+      <c r="BM47" s="39"/>
+      <c r="BN47" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="33"/>
-      <c r="BP47" s="33"/>
-      <c r="BQ47" s="33"/>
-      <c r="BR47" s="33" t="s">
+      <c r="BO47" s="39"/>
+      <c r="BP47" s="39"/>
+      <c r="BQ47" s="39"/>
+      <c r="BR47" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="33"/>
-      <c r="BT47" s="33"/>
-      <c r="BU47" s="33"/>
-      <c r="BV47" s="33" t="s">
+      <c r="BS47" s="39"/>
+      <c r="BT47" s="39"/>
+      <c r="BU47" s="39"/>
+      <c r="BV47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="33"/>
-      <c r="BX47" s="33"/>
-      <c r="BY47" s="33"/>
-      <c r="BZ47" s="33" t="s">
+      <c r="BW47" s="39"/>
+      <c r="BX47" s="39"/>
+      <c r="BY47" s="39"/>
+      <c r="BZ47" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="33"/>
-      <c r="CB47" s="33"/>
-      <c r="CC47" s="33"/>
-      <c r="CD47" s="33" t="s">
+      <c r="CA47" s="39"/>
+      <c r="CB47" s="39"/>
+      <c r="CC47" s="39"/>
+      <c r="CD47" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="33"/>
-      <c r="CF47" s="33"/>
-      <c r="CG47" s="33"/>
+      <c r="CE47" s="39"/>
+      <c r="CF47" s="39"/>
+      <c r="CG47" s="39"/>
       <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
@@ -30218,10 +30286,11 @@
       </c>
       <c r="CQ47" s="22"/>
       <c r="CR47" s="22"/>
-      <c r="CS47" s="28"/>
-      <c r="CT47" s="22"/>
-      <c r="CU47" s="22"/>
+      <c r="CS47" s="22"/>
+      <c r="CT47" s="28"/>
+      <c r="CU47" s="28"/>
       <c r="CV47" s="28"/>
+      <c r="CW47" s="28"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30512,10 +30581,13 @@
       <c r="CR48" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CS48" s="29"/>
+      <c r="CS48" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="CT48" s="29"/>
       <c r="CU48" s="29"/>
       <c r="CV48" s="29"/>
+      <c r="CW48" s="29"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30615,9 +30687,10 @@
       <c r="CQ49" s="21"/>
       <c r="CR49" s="21"/>
       <c r="CS49" s="21"/>
-      <c r="CT49" s="21"/>
-      <c r="CU49" s="21"/>
-      <c r="CV49" s="21"/>
+      <c r="CT49" s="33"/>
+      <c r="CU49" s="33"/>
+      <c r="CV49" s="33"/>
+      <c r="CW49" s="33"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30908,11 +30981,13 @@
       <c r="CR50" s="30">
         <v>7.3937969335400311</v>
       </c>
-      <c r="CS50" s="30"/>
-      <c r="CT50" s="30"/>
-      <c r="CU50" s="30"/>
-      <c r="CV50" s="30"/>
-      <c r="CW50" s="17"/>
+      <c r="CS50" s="30">
+        <v>8.9028647465860331</v>
+      </c>
+      <c r="CT50" s="35"/>
+      <c r="CU50" s="35"/>
+      <c r="CV50" s="35"/>
+      <c r="CW50" s="35"/>
       <c r="CX50" s="17"/>
       <c r="CY50" s="17"/>
       <c r="CZ50" s="17"/>
@@ -31251,13 +31326,15 @@
         <v>15.097351515061263</v>
       </c>
       <c r="CR51" s="30">
-        <v>7.4112865541683419</v>
-      </c>
-      <c r="CS51" s="30"/>
-      <c r="CT51" s="30"/>
-      <c r="CU51" s="30"/>
-      <c r="CV51" s="30"/>
-      <c r="CW51" s="17"/>
+        <v>12.297175847709113</v>
+      </c>
+      <c r="CS51" s="30">
+        <v>13.078844331185309</v>
+      </c>
+      <c r="CT51" s="35"/>
+      <c r="CU51" s="35"/>
+      <c r="CV51" s="35"/>
+      <c r="CW51" s="35"/>
       <c r="CX51" s="17"/>
       <c r="CY51" s="17"/>
       <c r="CZ51" s="17"/>
@@ -31407,10 +31484,10 @@
       <c r="CQ52" s="25"/>
       <c r="CR52" s="25"/>
       <c r="CS52" s="25"/>
-      <c r="CT52" s="25"/>
-      <c r="CU52" s="25"/>
-      <c r="CV52" s="25"/>
-      <c r="CW52" s="17"/>
+      <c r="CT52" s="36"/>
+      <c r="CU52" s="36"/>
+      <c r="CV52" s="36"/>
+      <c r="CW52" s="36"/>
       <c r="CX52" s="17"/>
       <c r="CY52" s="17"/>
       <c r="CZ52" s="17"/>
@@ -31749,13 +31826,15 @@
         <v>5.7466497269210919</v>
       </c>
       <c r="CR53" s="30">
-        <v>7.3996568420441378</v>
-      </c>
-      <c r="CS53" s="30"/>
-      <c r="CT53" s="30"/>
-      <c r="CU53" s="30"/>
-      <c r="CV53" s="30"/>
-      <c r="CW53" s="17"/>
+        <v>9.0366771542533399</v>
+      </c>
+      <c r="CS53" s="30">
+        <v>10.186147695916475</v>
+      </c>
+      <c r="CT53" s="35"/>
+      <c r="CU53" s="35"/>
+      <c r="CV53" s="35"/>
+      <c r="CW53" s="35"/>
       <c r="CX53" s="17"/>
       <c r="CY53" s="17"/>
       <c r="CZ53" s="17"/>
@@ -31905,9 +31984,10 @@
       <c r="CQ54" s="27"/>
       <c r="CR54" s="27"/>
       <c r="CS54" s="27"/>
-      <c r="CT54" s="27"/>
-      <c r="CU54" s="27"/>
-      <c r="CV54" s="27"/>
+      <c r="CT54" s="23"/>
+      <c r="CU54" s="23"/>
+      <c r="CV54" s="23"/>
+      <c r="CW54" s="23"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -32009,9 +32089,10 @@
       <c r="CQ55" s="21"/>
       <c r="CR55" s="21"/>
       <c r="CS55" s="21"/>
-      <c r="CT55" s="21"/>
-      <c r="CU55" s="21"/>
-      <c r="CV55" s="21"/>
+      <c r="CT55" s="33"/>
+      <c r="CU55" s="33"/>
+      <c r="CV55" s="33"/>
+      <c r="CW55" s="33"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -32110,10 +32191,10 @@
       <c r="CQ56" s="25"/>
       <c r="CR56" s="25"/>
       <c r="CS56" s="25"/>
-      <c r="CT56" s="25"/>
-      <c r="CU56" s="25"/>
-      <c r="CV56" s="25"/>
-      <c r="CW56" s="17"/>
+      <c r="CT56" s="36"/>
+      <c r="CU56" s="36"/>
+      <c r="CV56" s="36"/>
+      <c r="CW56" s="36"/>
       <c r="CX56" s="17"/>
       <c r="CY56" s="17"/>
       <c r="CZ56" s="17"/>
@@ -32262,10 +32343,10 @@
       <c r="CQ57" s="25"/>
       <c r="CR57" s="25"/>
       <c r="CS57" s="25"/>
-      <c r="CT57" s="25"/>
-      <c r="CU57" s="25"/>
-      <c r="CV57" s="25"/>
-      <c r="CW57" s="17"/>
+      <c r="CT57" s="36"/>
+      <c r="CU57" s="36"/>
+      <c r="CV57" s="36"/>
+      <c r="CW57" s="36"/>
       <c r="CX57" s="17"/>
       <c r="CY57" s="17"/>
       <c r="CZ57" s="17"/>
@@ -32417,9 +32498,10 @@
       <c r="CQ58" s="21"/>
       <c r="CR58" s="21"/>
       <c r="CS58" s="21"/>
-      <c r="CT58" s="21"/>
-      <c r="CU58" s="21"/>
-      <c r="CV58" s="21"/>
+      <c r="CT58" s="33"/>
+      <c r="CU58" s="33"/>
+      <c r="CV58" s="33"/>
+      <c r="CW58" s="33"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32521,13 +32603,14 @@
       <c r="CQ59" s="21"/>
       <c r="CR59" s="21"/>
       <c r="CS59" s="21"/>
-      <c r="CT59" s="21"/>
-      <c r="CU59" s="21"/>
-      <c r="CV59" s="21"/>
+      <c r="CT59" s="33"/>
+      <c r="CU59" s="33"/>
+      <c r="CV59" s="33"/>
+      <c r="CW59" s="33"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32625,9 +32708,10 @@
       <c r="CQ60" s="21"/>
       <c r="CR60" s="21"/>
       <c r="CS60" s="21"/>
-      <c r="CT60" s="21"/>
-      <c r="CU60" s="21"/>
-      <c r="CV60" s="21"/>
+      <c r="CT60" s="33"/>
+      <c r="CU60" s="33"/>
+      <c r="CV60" s="33"/>
+      <c r="CW60" s="33"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32727,9 +32811,10 @@
       <c r="CQ61" s="21"/>
       <c r="CR61" s="21"/>
       <c r="CS61" s="21"/>
-      <c r="CT61" s="21"/>
-      <c r="CU61" s="21"/>
-      <c r="CV61" s="21"/>
+      <c r="CT61" s="33"/>
+      <c r="CU61" s="33"/>
+      <c r="CV61" s="33"/>
+      <c r="CW61" s="33"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32831,13 +32916,14 @@
       <c r="CQ62" s="21"/>
       <c r="CR62" s="21"/>
       <c r="CS62" s="21"/>
-      <c r="CT62" s="21"/>
-      <c r="CU62" s="21"/>
-      <c r="CV62" s="21"/>
+      <c r="CT62" s="33"/>
+      <c r="CU62" s="33"/>
+      <c r="CV62" s="33"/>
+      <c r="CW62" s="33"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -32935,9 +33021,10 @@
       <c r="CQ63" s="21"/>
       <c r="CR63" s="21"/>
       <c r="CS63" s="21"/>
-      <c r="CT63" s="21"/>
-      <c r="CU63" s="21"/>
-      <c r="CV63" s="21"/>
+      <c r="CT63" s="33"/>
+      <c r="CU63" s="33"/>
+      <c r="CV63" s="33"/>
+      <c r="CW63" s="33"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -33039,9 +33126,10 @@
       <c r="CQ64" s="21"/>
       <c r="CR64" s="21"/>
       <c r="CS64" s="21"/>
-      <c r="CT64" s="21"/>
-      <c r="CU64" s="21"/>
-      <c r="CV64" s="21"/>
+      <c r="CT64" s="33"/>
+      <c r="CU64" s="33"/>
+      <c r="CV64" s="33"/>
+      <c r="CW64" s="33"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -33141,138 +33229,139 @@
       <c r="CQ65" s="21"/>
       <c r="CR65" s="21"/>
       <c r="CS65" s="21"/>
-      <c r="CT65" s="21"/>
-      <c r="CU65" s="21"/>
-      <c r="CV65" s="21"/>
+      <c r="CT65" s="33"/>
+      <c r="CU65" s="33"/>
+      <c r="CV65" s="33"/>
+      <c r="CW65" s="33"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33" t="s">
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33" t="s">
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33" t="s">
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33" t="s">
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="33" t="s">
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33" t="s">
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="33"/>
-      <c r="AD66" s="33" t="s">
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="39"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="33"/>
-      <c r="AF66" s="33"/>
-      <c r="AG66" s="33"/>
-      <c r="AH66" s="33" t="s">
+      <c r="AE66" s="39"/>
+      <c r="AF66" s="39"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="33"/>
-      <c r="AJ66" s="33"/>
-      <c r="AK66" s="33"/>
-      <c r="AL66" s="33" t="s">
+      <c r="AI66" s="39"/>
+      <c r="AJ66" s="39"/>
+      <c r="AK66" s="39"/>
+      <c r="AL66" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="33"/>
-      <c r="AN66" s="33"/>
-      <c r="AO66" s="33"/>
-      <c r="AP66" s="33" t="s">
+      <c r="AM66" s="39"/>
+      <c r="AN66" s="39"/>
+      <c r="AO66" s="39"/>
+      <c r="AP66" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="33"/>
-      <c r="AR66" s="33"/>
-      <c r="AS66" s="33"/>
-      <c r="AT66" s="33" t="s">
+      <c r="AQ66" s="39"/>
+      <c r="AR66" s="39"/>
+      <c r="AS66" s="39"/>
+      <c r="AT66" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="33"/>
-      <c r="AV66" s="33"/>
-      <c r="AW66" s="33"/>
-      <c r="AX66" s="33" t="s">
+      <c r="AU66" s="39"/>
+      <c r="AV66" s="39"/>
+      <c r="AW66" s="39"/>
+      <c r="AX66" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="33"/>
-      <c r="AZ66" s="33"/>
-      <c r="BA66" s="33"/>
-      <c r="BB66" s="33" t="s">
+      <c r="AY66" s="39"/>
+      <c r="AZ66" s="39"/>
+      <c r="BA66" s="39"/>
+      <c r="BB66" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="33"/>
-      <c r="BD66" s="33"/>
-      <c r="BE66" s="33"/>
-      <c r="BF66" s="33" t="s">
+      <c r="BC66" s="39"/>
+      <c r="BD66" s="39"/>
+      <c r="BE66" s="39"/>
+      <c r="BF66" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="33"/>
-      <c r="BH66" s="33"/>
-      <c r="BI66" s="33"/>
-      <c r="BJ66" s="33" t="s">
+      <c r="BG66" s="39"/>
+      <c r="BH66" s="39"/>
+      <c r="BI66" s="39"/>
+      <c r="BJ66" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="33"/>
-      <c r="BL66" s="33"/>
-      <c r="BM66" s="33"/>
-      <c r="BN66" s="33" t="s">
+      <c r="BK66" s="39"/>
+      <c r="BL66" s="39"/>
+      <c r="BM66" s="39"/>
+      <c r="BN66" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="33"/>
-      <c r="BP66" s="33"/>
-      <c r="BQ66" s="33"/>
-      <c r="BR66" s="33" t="s">
+      <c r="BO66" s="39"/>
+      <c r="BP66" s="39"/>
+      <c r="BQ66" s="39"/>
+      <c r="BR66" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="33"/>
-      <c r="BT66" s="33"/>
-      <c r="BU66" s="33"/>
-      <c r="BV66" s="33" t="s">
+      <c r="BS66" s="39"/>
+      <c r="BT66" s="39"/>
+      <c r="BU66" s="39"/>
+      <c r="BV66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="33"/>
-      <c r="BX66" s="33"/>
-      <c r="BY66" s="33"/>
-      <c r="BZ66" s="33" t="s">
+      <c r="BW66" s="39"/>
+      <c r="BX66" s="39"/>
+      <c r="BY66" s="39"/>
+      <c r="BZ66" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="33"/>
-      <c r="CB66" s="33"/>
-      <c r="CC66" s="33"/>
-      <c r="CD66" s="33" t="s">
+      <c r="CA66" s="39"/>
+      <c r="CB66" s="39"/>
+      <c r="CC66" s="39"/>
+      <c r="CD66" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="33"/>
-      <c r="CF66" s="33"/>
-      <c r="CG66" s="33"/>
+      <c r="CE66" s="39"/>
+      <c r="CF66" s="39"/>
+      <c r="CG66" s="39"/>
       <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
@@ -33290,10 +33379,11 @@
       </c>
       <c r="CQ66" s="22"/>
       <c r="CR66" s="22"/>
-      <c r="CS66" s="28"/>
-      <c r="CT66" s="22"/>
-      <c r="CU66" s="22"/>
+      <c r="CS66" s="22"/>
+      <c r="CT66" s="28"/>
+      <c r="CU66" s="28"/>
       <c r="CV66" s="28"/>
+      <c r="CW66" s="28"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33584,10 +33674,13 @@
       <c r="CR67" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CS67" s="29"/>
+      <c r="CS67" s="29" t="s">
+        <v>9</v>
+      </c>
       <c r="CT67" s="29"/>
       <c r="CU67" s="29"/>
       <c r="CV67" s="29"/>
+      <c r="CW67" s="29"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33687,9 +33780,10 @@
       <c r="CQ68" s="21"/>
       <c r="CR68" s="21"/>
       <c r="CS68" s="21"/>
-      <c r="CT68" s="21"/>
-      <c r="CU68" s="21"/>
-      <c r="CV68" s="21"/>
+      <c r="CT68" s="33"/>
+      <c r="CU68" s="33"/>
+      <c r="CV68" s="33"/>
+      <c r="CW68" s="33"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -33980,11 +34074,13 @@
       <c r="CR69" s="30">
         <v>3.300776975934852</v>
       </c>
-      <c r="CS69" s="30"/>
-      <c r="CT69" s="30"/>
-      <c r="CU69" s="30"/>
-      <c r="CV69" s="30"/>
-      <c r="CW69" s="17"/>
+      <c r="CS69" s="30">
+        <v>5.5403878689953387</v>
+      </c>
+      <c r="CT69" s="35"/>
+      <c r="CU69" s="35"/>
+      <c r="CV69" s="35"/>
+      <c r="CW69" s="35"/>
       <c r="CX69" s="17"/>
       <c r="CY69" s="17"/>
       <c r="CZ69" s="17"/>
@@ -34323,13 +34419,15 @@
         <v>10.240039073964709</v>
       </c>
       <c r="CR70" s="30">
-        <v>1.1505306004009128</v>
-      </c>
-      <c r="CS70" s="30"/>
-      <c r="CT70" s="30"/>
-      <c r="CU70" s="30"/>
-      <c r="CV70" s="30"/>
-      <c r="CW70" s="17"/>
+        <v>5.7516326852105095</v>
+      </c>
+      <c r="CS70" s="30">
+        <v>7.5642347851484999</v>
+      </c>
+      <c r="CT70" s="35"/>
+      <c r="CU70" s="35"/>
+      <c r="CV70" s="35"/>
+      <c r="CW70" s="35"/>
       <c r="CX70" s="17"/>
       <c r="CY70" s="17"/>
       <c r="CZ70" s="17"/>
@@ -34478,10 +34576,10 @@
       <c r="CQ71" s="25"/>
       <c r="CR71" s="25"/>
       <c r="CS71" s="25"/>
-      <c r="CT71" s="25"/>
-      <c r="CU71" s="25"/>
-      <c r="CV71" s="25"/>
-      <c r="CW71" s="17"/>
+      <c r="CT71" s="36"/>
+      <c r="CU71" s="36"/>
+      <c r="CV71" s="36"/>
+      <c r="CW71" s="36"/>
       <c r="CX71" s="17"/>
       <c r="CY71" s="17"/>
       <c r="CZ71" s="17"/>
@@ -34820,13 +34918,15 @@
         <v>1.9125793946241885</v>
       </c>
       <c r="CR72" s="30">
-        <v>2.5743100651592954</v>
-      </c>
-      <c r="CS72" s="30"/>
-      <c r="CT72" s="30"/>
-      <c r="CU72" s="30"/>
-      <c r="CV72" s="30"/>
-      <c r="CW72" s="17"/>
+        <v>4.1288056130867119</v>
+      </c>
+      <c r="CS72" s="30">
+        <v>6.2106544950157883</v>
+      </c>
+      <c r="CT72" s="35"/>
+      <c r="CU72" s="35"/>
+      <c r="CV72" s="35"/>
+      <c r="CW72" s="35"/>
       <c r="CX72" s="17"/>
       <c r="CY72" s="17"/>
       <c r="CZ72" s="17"/>
@@ -34976,9 +35076,10 @@
       <c r="CQ73" s="27"/>
       <c r="CR73" s="27"/>
       <c r="CS73" s="27"/>
-      <c r="CT73" s="27"/>
-      <c r="CU73" s="27"/>
-      <c r="CV73" s="27"/>
+      <c r="CT73" s="23"/>
+      <c r="CU73" s="23"/>
+      <c r="CV73" s="23"/>
+      <c r="CW73" s="23"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -35080,9 +35181,10 @@
       <c r="CQ74" s="21"/>
       <c r="CR74" s="21"/>
       <c r="CS74" s="21"/>
-      <c r="CT74" s="21"/>
-      <c r="CU74" s="21"/>
-      <c r="CV74" s="21"/>
+      <c r="CT74" s="33"/>
+      <c r="CU74" s="33"/>
+      <c r="CV74" s="33"/>
+      <c r="CW74" s="33"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -35181,10 +35283,10 @@
       <c r="CQ75" s="25"/>
       <c r="CR75" s="31"/>
       <c r="CS75" s="31"/>
-      <c r="CT75" s="25"/>
-      <c r="CU75" s="25"/>
-      <c r="CV75" s="31"/>
-      <c r="CW75" s="17"/>
+      <c r="CT75" s="36"/>
+      <c r="CU75" s="36"/>
+      <c r="CV75" s="37"/>
+      <c r="CW75" s="37"/>
       <c r="CX75" s="17"/>
       <c r="CY75" s="17"/>
       <c r="CZ75" s="17"/>
@@ -35336,7 +35438,7 @@
       <c r="CT76" s="31"/>
       <c r="CU76" s="31"/>
       <c r="CV76" s="31"/>
-      <c r="CW76" s="17"/>
+      <c r="CW76" s="31"/>
       <c r="CX76" s="17"/>
       <c r="CY76" s="17"/>
       <c r="CZ76" s="17"/>
@@ -35479,10 +35581,11 @@
       <c r="CT77" s="20"/>
       <c r="CU77" s="20"/>
       <c r="CV77" s="20"/>
+      <c r="CW77" s="20"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -35571,6 +35674,7 @@
       <c r="CT78" s="20"/>
       <c r="CU78" s="20"/>
       <c r="CV78" s="20"/>
+      <c r="CW78" s="20"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35661,6 +35765,7 @@
       <c r="CT79" s="20"/>
       <c r="CU79" s="20"/>
       <c r="CV79" s="20"/>
+      <c r="CW79" s="20"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35753,10 +35858,11 @@
       <c r="CT80" s="20"/>
       <c r="CU80" s="20"/>
       <c r="CV80" s="20"/>
+      <c r="CW80" s="20"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35845,6 +35951,7 @@
       <c r="CT81" s="20"/>
       <c r="CU81" s="20"/>
       <c r="CV81" s="20"/>
+      <c r="CW81" s="20"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -35937,6 +36044,7 @@
       <c r="CT82" s="20"/>
       <c r="CU82" s="20"/>
       <c r="CV82" s="20"/>
+      <c r="CW82" s="20"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -36027,135 +36135,136 @@
       <c r="CT83" s="20"/>
       <c r="CU83" s="20"/>
       <c r="CV83" s="20"/>
+      <c r="CW83" s="20"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="33">
+      <c r="B84" s="39">
         <v>2000</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="33">
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="39">
         <v>2001</v>
       </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="33">
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="39">
         <v>2002</v>
       </c>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="33">
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="39">
         <v>2003</v>
       </c>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="33">
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="39">
         <v>2004</v>
       </c>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="33">
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="39">
         <v>2005</v>
       </c>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="33">
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="39">
         <v>2006</v>
       </c>
-      <c r="AA84" s="34"/>
-      <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
-      <c r="AD84" s="33">
+      <c r="AA84" s="40"/>
+      <c r="AB84" s="40"/>
+      <c r="AC84" s="40"/>
+      <c r="AD84" s="39">
         <v>2007</v>
       </c>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="34"/>
-      <c r="AG84" s="34"/>
-      <c r="AH84" s="33">
+      <c r="AE84" s="40"/>
+      <c r="AF84" s="40"/>
+      <c r="AG84" s="40"/>
+      <c r="AH84" s="39">
         <v>2008</v>
       </c>
-      <c r="AI84" s="34"/>
-      <c r="AJ84" s="34"/>
-      <c r="AK84" s="34"/>
-      <c r="AL84" s="33">
+      <c r="AI84" s="40"/>
+      <c r="AJ84" s="40"/>
+      <c r="AK84" s="40"/>
+      <c r="AL84" s="39">
         <v>2009</v>
       </c>
-      <c r="AM84" s="34"/>
-      <c r="AN84" s="34"/>
-      <c r="AO84" s="34"/>
-      <c r="AP84" s="33">
+      <c r="AM84" s="40"/>
+      <c r="AN84" s="40"/>
+      <c r="AO84" s="40"/>
+      <c r="AP84" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="34"/>
-      <c r="AS84" s="34"/>
-      <c r="AT84" s="33">
+      <c r="AQ84" s="40"/>
+      <c r="AR84" s="40"/>
+      <c r="AS84" s="40"/>
+      <c r="AT84" s="39">
         <v>2011</v>
       </c>
-      <c r="AU84" s="34"/>
-      <c r="AV84" s="34"/>
-      <c r="AW84" s="34"/>
-      <c r="AX84" s="33">
+      <c r="AU84" s="40"/>
+      <c r="AV84" s="40"/>
+      <c r="AW84" s="40"/>
+      <c r="AX84" s="39">
         <v>2012</v>
       </c>
-      <c r="AY84" s="34"/>
-      <c r="AZ84" s="34"/>
-      <c r="BA84" s="34"/>
-      <c r="BB84" s="33">
+      <c r="AY84" s="40"/>
+      <c r="AZ84" s="40"/>
+      <c r="BA84" s="40"/>
+      <c r="BB84" s="39">
         <v>2013</v>
       </c>
-      <c r="BC84" s="34"/>
-      <c r="BD84" s="34"/>
-      <c r="BE84" s="34"/>
-      <c r="BF84" s="33">
+      <c r="BC84" s="40"/>
+      <c r="BD84" s="40"/>
+      <c r="BE84" s="40"/>
+      <c r="BF84" s="39">
         <v>2014</v>
       </c>
-      <c r="BG84" s="34"/>
-      <c r="BH84" s="34"/>
-      <c r="BI84" s="34"/>
-      <c r="BJ84" s="33">
+      <c r="BG84" s="40"/>
+      <c r="BH84" s="40"/>
+      <c r="BI84" s="40"/>
+      <c r="BJ84" s="39">
         <v>2015</v>
       </c>
-      <c r="BK84" s="34"/>
-      <c r="BL84" s="34"/>
-      <c r="BM84" s="34"/>
-      <c r="BN84" s="33">
+      <c r="BK84" s="40"/>
+      <c r="BL84" s="40"/>
+      <c r="BM84" s="40"/>
+      <c r="BN84" s="39">
         <v>2016</v>
       </c>
-      <c r="BO84" s="34"/>
-      <c r="BP84" s="34"/>
-      <c r="BQ84" s="34"/>
-      <c r="BR84" s="33">
+      <c r="BO84" s="40"/>
+      <c r="BP84" s="40"/>
+      <c r="BQ84" s="40"/>
+      <c r="BR84" s="39">
         <v>2017</v>
       </c>
-      <c r="BS84" s="34"/>
-      <c r="BT84" s="34"/>
-      <c r="BU84" s="34"/>
-      <c r="BV84" s="33">
+      <c r="BS84" s="40"/>
+      <c r="BT84" s="40"/>
+      <c r="BU84" s="40"/>
+      <c r="BV84" s="39">
         <v>2018</v>
       </c>
-      <c r="BW84" s="34"/>
-      <c r="BX84" s="34"/>
-      <c r="BY84" s="34"/>
-      <c r="BZ84" s="33">
+      <c r="BW84" s="40"/>
+      <c r="BX84" s="40"/>
+      <c r="BY84" s="40"/>
+      <c r="BZ84" s="39">
         <v>2019</v>
       </c>
-      <c r="CA84" s="34"/>
-      <c r="CB84" s="34"/>
-      <c r="CC84" s="34"/>
-      <c r="CD84" s="33">
+      <c r="CA84" s="40"/>
+      <c r="CB84" s="40"/>
+      <c r="CC84" s="40"/>
+      <c r="CD84" s="39">
         <v>2020</v>
       </c>
-      <c r="CE84" s="33"/>
-      <c r="CF84" s="33"/>
-      <c r="CG84" s="33"/>
+      <c r="CE84" s="39"/>
+      <c r="CF84" s="39"/>
+      <c r="CG84" s="39"/>
       <c r="CH84" s="19">
         <v>2021</v>
       </c>
@@ -36179,6 +36288,7 @@
       </c>
       <c r="CU84" s="22"/>
       <c r="CV84" s="22"/>
+      <c r="CW84" s="22"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -36480,6 +36590,9 @@
       </c>
       <c r="CV85" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW85" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36571,6 +36684,7 @@
       <c r="CT86" s="20"/>
       <c r="CU86" s="20"/>
       <c r="CV86" s="20"/>
+      <c r="CW86" s="20"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36873,7 +36987,9 @@
       <c r="CV87" s="30">
         <v>120.36312254559888</v>
       </c>
-      <c r="CW87" s="17"/>
+      <c r="CW87" s="30">
+        <v>137.68642201452448</v>
+      </c>
       <c r="CX87" s="17"/>
       <c r="CY87" s="17"/>
       <c r="CZ87" s="17"/>
@@ -37224,9 +37340,11 @@
         <v>107.86944493067419</v>
       </c>
       <c r="CV88" s="30">
-        <v>121.40829149373008</v>
-      </c>
-      <c r="CW88" s="17"/>
+        <v>121.40829149373012</v>
+      </c>
+      <c r="CW88" s="30">
+        <v>125.67240468103232</v>
+      </c>
       <c r="CX88" s="17"/>
       <c r="CY88" s="17"/>
       <c r="CZ88" s="17"/>
@@ -37378,7 +37496,7 @@
       <c r="CT89" s="25"/>
       <c r="CU89" s="25"/>
       <c r="CV89" s="25"/>
-      <c r="CW89" s="17"/>
+      <c r="CW89" s="25"/>
       <c r="CX89" s="17"/>
       <c r="CY89" s="17"/>
       <c r="CZ89" s="17"/>
@@ -37729,9 +37847,11 @@
         <v>113.03183882168248</v>
       </c>
       <c r="CV90" s="30">
-        <v>120.71133449673897</v>
-      </c>
-      <c r="CW90" s="17"/>
+        <v>120.72173907732106</v>
+      </c>
+      <c r="CW90" s="30">
+        <v>133.65685857718023</v>
+      </c>
       <c r="CX90" s="17"/>
       <c r="CY90" s="17"/>
       <c r="CZ90" s="17"/>
@@ -37884,6 +38004,7 @@
       <c r="CT91" s="27"/>
       <c r="CU91" s="27"/>
       <c r="CV91" s="27"/>
+      <c r="CW91" s="27"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -37976,6 +38097,7 @@
       <c r="CT92" s="20"/>
       <c r="CU92" s="20"/>
       <c r="CV92" s="20"/>
+      <c r="CW92" s="20"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -38077,6 +38199,7 @@
       <c r="CT93" s="21"/>
       <c r="CU93" s="21"/>
       <c r="CV93" s="21"/>
+      <c r="CW93" s="21"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -38178,6 +38301,7 @@
       <c r="CT94" s="21"/>
       <c r="CU94" s="21"/>
       <c r="CV94" s="21"/>
+      <c r="CW94" s="21"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -38282,6 +38406,7 @@
       <c r="CT95" s="21"/>
       <c r="CU95" s="21"/>
       <c r="CV95" s="21"/>
+      <c r="CW95" s="21"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -38386,10 +38511,11 @@
       <c r="CT96" s="21"/>
       <c r="CU96" s="21"/>
       <c r="CV96" s="21"/>
+      <c r="CW96" s="21"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -38490,6 +38616,7 @@
       <c r="CT97" s="21"/>
       <c r="CU97" s="21"/>
       <c r="CV97" s="21"/>
+      <c r="CW97" s="21"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -38592,6 +38719,7 @@
       <c r="CT98" s="21"/>
       <c r="CU98" s="21"/>
       <c r="CV98" s="21"/>
+      <c r="CW98" s="21"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -38696,10 +38824,11 @@
       <c r="CT99" s="21"/>
       <c r="CU99" s="21"/>
       <c r="CV99" s="21"/>
+      <c r="CW99" s="21"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -38800,6 +38929,7 @@
       <c r="CT100" s="21"/>
       <c r="CU100" s="21"/>
       <c r="CV100" s="21"/>
+      <c r="CW100" s="21"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -38904,6 +39034,7 @@
       <c r="CT101" s="21"/>
       <c r="CU101" s="21"/>
       <c r="CV101" s="21"/>
+      <c r="CW101" s="21"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -39006,135 +39137,136 @@
       <c r="CT102" s="21"/>
       <c r="CU102" s="21"/>
       <c r="CV102" s="21"/>
+      <c r="CW102" s="21"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="33">
+      <c r="B103" s="39">
         <v>2000</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="33">
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="39">
         <v>2001</v>
       </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="33">
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="39">
         <v>2002</v>
       </c>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="33">
+      <c r="K103" s="40"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="39">
         <v>2003</v>
       </c>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="33">
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="40"/>
+      <c r="R103" s="39">
         <v>2004</v>
       </c>
-      <c r="S103" s="34"/>
-      <c r="T103" s="34"/>
-      <c r="U103" s="34"/>
-      <c r="V103" s="33">
+      <c r="S103" s="40"/>
+      <c r="T103" s="40"/>
+      <c r="U103" s="40"/>
+      <c r="V103" s="39">
         <v>2005</v>
       </c>
-      <c r="W103" s="34"/>
-      <c r="X103" s="34"/>
-      <c r="Y103" s="34"/>
-      <c r="Z103" s="33">
+      <c r="W103" s="40"/>
+      <c r="X103" s="40"/>
+      <c r="Y103" s="40"/>
+      <c r="Z103" s="39">
         <v>2006</v>
       </c>
-      <c r="AA103" s="34"/>
-      <c r="AB103" s="34"/>
-      <c r="AC103" s="34"/>
-      <c r="AD103" s="33">
+      <c r="AA103" s="40"/>
+      <c r="AB103" s="40"/>
+      <c r="AC103" s="40"/>
+      <c r="AD103" s="39">
         <v>2007</v>
       </c>
-      <c r="AE103" s="34"/>
-      <c r="AF103" s="34"/>
-      <c r="AG103" s="34"/>
-      <c r="AH103" s="33">
+      <c r="AE103" s="40"/>
+      <c r="AF103" s="40"/>
+      <c r="AG103" s="40"/>
+      <c r="AH103" s="39">
         <v>2008</v>
       </c>
-      <c r="AI103" s="34"/>
-      <c r="AJ103" s="34"/>
-      <c r="AK103" s="34"/>
-      <c r="AL103" s="33">
+      <c r="AI103" s="40"/>
+      <c r="AJ103" s="40"/>
+      <c r="AK103" s="40"/>
+      <c r="AL103" s="39">
         <v>2009</v>
       </c>
-      <c r="AM103" s="34"/>
-      <c r="AN103" s="34"/>
-      <c r="AO103" s="34"/>
-      <c r="AP103" s="33">
+      <c r="AM103" s="40"/>
+      <c r="AN103" s="40"/>
+      <c r="AO103" s="40"/>
+      <c r="AP103" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="34"/>
-      <c r="AR103" s="34"/>
-      <c r="AS103" s="34"/>
-      <c r="AT103" s="33">
+      <c r="AQ103" s="40"/>
+      <c r="AR103" s="40"/>
+      <c r="AS103" s="40"/>
+      <c r="AT103" s="39">
         <v>2011</v>
       </c>
-      <c r="AU103" s="34"/>
-      <c r="AV103" s="34"/>
-      <c r="AW103" s="34"/>
-      <c r="AX103" s="33">
+      <c r="AU103" s="40"/>
+      <c r="AV103" s="40"/>
+      <c r="AW103" s="40"/>
+      <c r="AX103" s="39">
         <v>2012</v>
       </c>
-      <c r="AY103" s="34"/>
-      <c r="AZ103" s="34"/>
-      <c r="BA103" s="34"/>
-      <c r="BB103" s="33">
+      <c r="AY103" s="40"/>
+      <c r="AZ103" s="40"/>
+      <c r="BA103" s="40"/>
+      <c r="BB103" s="39">
         <v>2013</v>
       </c>
-      <c r="BC103" s="34"/>
-      <c r="BD103" s="34"/>
-      <c r="BE103" s="34"/>
-      <c r="BF103" s="33">
+      <c r="BC103" s="40"/>
+      <c r="BD103" s="40"/>
+      <c r="BE103" s="40"/>
+      <c r="BF103" s="39">
         <v>2014</v>
       </c>
-      <c r="BG103" s="34"/>
-      <c r="BH103" s="34"/>
-      <c r="BI103" s="34"/>
-      <c r="BJ103" s="33">
+      <c r="BG103" s="40"/>
+      <c r="BH103" s="40"/>
+      <c r="BI103" s="40"/>
+      <c r="BJ103" s="39">
         <v>2015</v>
       </c>
-      <c r="BK103" s="34"/>
-      <c r="BL103" s="34"/>
-      <c r="BM103" s="34"/>
-      <c r="BN103" s="33">
+      <c r="BK103" s="40"/>
+      <c r="BL103" s="40"/>
+      <c r="BM103" s="40"/>
+      <c r="BN103" s="39">
         <v>2016</v>
       </c>
-      <c r="BO103" s="34"/>
-      <c r="BP103" s="34"/>
-      <c r="BQ103" s="34"/>
-      <c r="BR103" s="33">
+      <c r="BO103" s="40"/>
+      <c r="BP103" s="40"/>
+      <c r="BQ103" s="40"/>
+      <c r="BR103" s="39">
         <v>2017</v>
       </c>
-      <c r="BS103" s="34"/>
-      <c r="BT103" s="34"/>
-      <c r="BU103" s="34"/>
-      <c r="BV103" s="33">
+      <c r="BS103" s="40"/>
+      <c r="BT103" s="40"/>
+      <c r="BU103" s="40"/>
+      <c r="BV103" s="39">
         <v>2018</v>
       </c>
-      <c r="BW103" s="34"/>
-      <c r="BX103" s="34"/>
-      <c r="BY103" s="34"/>
-      <c r="BZ103" s="33">
+      <c r="BW103" s="40"/>
+      <c r="BX103" s="40"/>
+      <c r="BY103" s="40"/>
+      <c r="BZ103" s="39">
         <v>2019</v>
       </c>
-      <c r="CA103" s="34"/>
-      <c r="CB103" s="34"/>
-      <c r="CC103" s="34"/>
-      <c r="CD103" s="33">
+      <c r="CA103" s="40"/>
+      <c r="CB103" s="40"/>
+      <c r="CC103" s="40"/>
+      <c r="CD103" s="39">
         <v>2020</v>
       </c>
-      <c r="CE103" s="33"/>
-      <c r="CF103" s="33"/>
-      <c r="CG103" s="33"/>
+      <c r="CE103" s="39"/>
+      <c r="CF103" s="39"/>
+      <c r="CG103" s="39"/>
       <c r="CH103" s="19">
         <v>2021</v>
       </c>
@@ -39158,6 +39290,7 @@
       </c>
       <c r="CU103" s="22"/>
       <c r="CV103" s="22"/>
+      <c r="CW103" s="22"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -39459,6 +39592,9 @@
       </c>
       <c r="CV104" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW104" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39562,6 +39698,7 @@
       <c r="CT105" s="21"/>
       <c r="CU105" s="21"/>
       <c r="CV105" s="21"/>
+      <c r="CW105" s="21"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39862,9 +39999,11 @@
         <v>69.789481350293954</v>
       </c>
       <c r="CV106" s="30">
-        <v>66.491308384578431</v>
-      </c>
-      <c r="CW106" s="17"/>
+        <v>65.493042248341226</v>
+      </c>
+      <c r="CW106" s="30">
+        <v>68.4631422761273</v>
+      </c>
       <c r="CX106" s="17"/>
       <c r="CY106" s="17"/>
       <c r="CZ106" s="17"/>
@@ -40219,9 +40358,11 @@
         <v>30.210518649706064</v>
       </c>
       <c r="CV107" s="30">
-        <v>33.508691615421569</v>
-      </c>
-      <c r="CW107" s="17"/>
+        <v>34.506957751658781</v>
+      </c>
+      <c r="CW107" s="30">
+        <v>31.536857723872714</v>
+      </c>
       <c r="CX107" s="17"/>
       <c r="CY107" s="17"/>
       <c r="CZ107" s="17"/>
@@ -40377,7 +40518,7 @@
       <c r="CT108" s="25"/>
       <c r="CU108" s="25"/>
       <c r="CV108" s="25"/>
-      <c r="CW108" s="17"/>
+      <c r="CW108" s="25"/>
       <c r="CX108" s="17"/>
       <c r="CY108" s="17"/>
       <c r="CZ108" s="17"/>
@@ -40734,7 +40875,9 @@
       <c r="CV109" s="30">
         <v>100</v>
       </c>
-      <c r="CW109" s="17"/>
+      <c r="CW109" s="30">
+        <v>100</v>
+      </c>
       <c r="CX109" s="17"/>
       <c r="CY109" s="17"/>
       <c r="CZ109" s="17"/>
@@ -40891,6 +41034,7 @@
       <c r="CT110" s="27"/>
       <c r="CU110" s="27"/>
       <c r="CV110" s="27"/>
+      <c r="CW110" s="27"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -40995,6 +41139,7 @@
       <c r="CT111" s="21"/>
       <c r="CU111" s="21"/>
       <c r="CV111" s="21"/>
+      <c r="CW111" s="21"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -41096,7 +41241,7 @@
       <c r="CT112" s="25"/>
       <c r="CU112" s="25"/>
       <c r="CV112" s="25"/>
-      <c r="CW112" s="17"/>
+      <c r="CW112" s="25"/>
       <c r="CX112" s="17"/>
       <c r="CY112" s="17"/>
       <c r="CZ112" s="17"/>
@@ -41252,7 +41397,7 @@
       <c r="CT113" s="25"/>
       <c r="CU113" s="25"/>
       <c r="CV113" s="25"/>
-      <c r="CW113" s="17"/>
+      <c r="CW113" s="25"/>
       <c r="CX113" s="17"/>
       <c r="CY113" s="17"/>
       <c r="CZ113" s="17"/>
@@ -41411,6 +41556,7 @@
       <c r="CT114" s="21"/>
       <c r="CU114" s="21"/>
       <c r="CV114" s="21"/>
+      <c r="CW114" s="21"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -41515,10 +41661,11 @@
       <c r="CT115" s="21"/>
       <c r="CU115" s="21"/>
       <c r="CV115" s="21"/>
+      <c r="CW115" s="21"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -41619,6 +41766,7 @@
       <c r="CT116" s="21"/>
       <c r="CU116" s="21"/>
       <c r="CV116" s="21"/>
+      <c r="CW116" s="21"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -41721,6 +41869,7 @@
       <c r="CT117" s="21"/>
       <c r="CU117" s="21"/>
       <c r="CV117" s="21"/>
+      <c r="CW117" s="21"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -41825,10 +41974,11 @@
       <c r="CT118" s="21"/>
       <c r="CU118" s="21"/>
       <c r="CV118" s="21"/>
+      <c r="CW118" s="21"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -41929,6 +42079,7 @@
       <c r="CT119" s="21"/>
       <c r="CU119" s="21"/>
       <c r="CV119" s="21"/>
+      <c r="CW119" s="21"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -42033,6 +42184,7 @@
       <c r="CT120" s="21"/>
       <c r="CU120" s="21"/>
       <c r="CV120" s="21"/>
+      <c r="CW120" s="21"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -42135,135 +42287,136 @@
       <c r="CT121" s="21"/>
       <c r="CU121" s="21"/>
       <c r="CV121" s="21"/>
+      <c r="CW121" s="21"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="33">
+      <c r="B122" s="39">
         <v>2000</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="33">
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="39">
         <v>2001</v>
       </c>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="33">
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="39">
         <v>2002</v>
       </c>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="33">
+      <c r="K122" s="40"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="39">
         <v>2003</v>
       </c>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
-      <c r="R122" s="33">
+      <c r="O122" s="40"/>
+      <c r="P122" s="40"/>
+      <c r="Q122" s="40"/>
+      <c r="R122" s="39">
         <v>2004</v>
       </c>
-      <c r="S122" s="34"/>
-      <c r="T122" s="34"/>
-      <c r="U122" s="34"/>
-      <c r="V122" s="33">
+      <c r="S122" s="40"/>
+      <c r="T122" s="40"/>
+      <c r="U122" s="40"/>
+      <c r="V122" s="39">
         <v>2005</v>
       </c>
-      <c r="W122" s="34"/>
-      <c r="X122" s="34"/>
-      <c r="Y122" s="34"/>
-      <c r="Z122" s="33">
+      <c r="W122" s="40"/>
+      <c r="X122" s="40"/>
+      <c r="Y122" s="40"/>
+      <c r="Z122" s="39">
         <v>2006</v>
       </c>
-      <c r="AA122" s="34"/>
-      <c r="AB122" s="34"/>
-      <c r="AC122" s="34"/>
-      <c r="AD122" s="33">
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="40"/>
+      <c r="AC122" s="40"/>
+      <c r="AD122" s="39">
         <v>2007</v>
       </c>
-      <c r="AE122" s="34"/>
-      <c r="AF122" s="34"/>
-      <c r="AG122" s="34"/>
-      <c r="AH122" s="33">
+      <c r="AE122" s="40"/>
+      <c r="AF122" s="40"/>
+      <c r="AG122" s="40"/>
+      <c r="AH122" s="39">
         <v>2008</v>
       </c>
-      <c r="AI122" s="34"/>
-      <c r="AJ122" s="34"/>
-      <c r="AK122" s="34"/>
-      <c r="AL122" s="33">
+      <c r="AI122" s="40"/>
+      <c r="AJ122" s="40"/>
+      <c r="AK122" s="40"/>
+      <c r="AL122" s="39">
         <v>2009</v>
       </c>
-      <c r="AM122" s="34"/>
-      <c r="AN122" s="34"/>
-      <c r="AO122" s="34"/>
-      <c r="AP122" s="33">
+      <c r="AM122" s="40"/>
+      <c r="AN122" s="40"/>
+      <c r="AO122" s="40"/>
+      <c r="AP122" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="34"/>
-      <c r="AR122" s="34"/>
-      <c r="AS122" s="34"/>
-      <c r="AT122" s="33">
+      <c r="AQ122" s="40"/>
+      <c r="AR122" s="40"/>
+      <c r="AS122" s="40"/>
+      <c r="AT122" s="39">
         <v>2011</v>
       </c>
-      <c r="AU122" s="34"/>
-      <c r="AV122" s="34"/>
-      <c r="AW122" s="34"/>
-      <c r="AX122" s="33">
+      <c r="AU122" s="40"/>
+      <c r="AV122" s="40"/>
+      <c r="AW122" s="40"/>
+      <c r="AX122" s="39">
         <v>2012</v>
       </c>
-      <c r="AY122" s="34"/>
-      <c r="AZ122" s="34"/>
-      <c r="BA122" s="34"/>
-      <c r="BB122" s="33">
+      <c r="AY122" s="40"/>
+      <c r="AZ122" s="40"/>
+      <c r="BA122" s="40"/>
+      <c r="BB122" s="39">
         <v>2013</v>
       </c>
-      <c r="BC122" s="34"/>
-      <c r="BD122" s="34"/>
-      <c r="BE122" s="34"/>
-      <c r="BF122" s="33">
+      <c r="BC122" s="40"/>
+      <c r="BD122" s="40"/>
+      <c r="BE122" s="40"/>
+      <c r="BF122" s="39">
         <v>2014</v>
       </c>
-      <c r="BG122" s="34"/>
-      <c r="BH122" s="34"/>
-      <c r="BI122" s="34"/>
-      <c r="BJ122" s="33">
+      <c r="BG122" s="40"/>
+      <c r="BH122" s="40"/>
+      <c r="BI122" s="40"/>
+      <c r="BJ122" s="39">
         <v>2015</v>
       </c>
-      <c r="BK122" s="34"/>
-      <c r="BL122" s="34"/>
-      <c r="BM122" s="34"/>
-      <c r="BN122" s="33">
+      <c r="BK122" s="40"/>
+      <c r="BL122" s="40"/>
+      <c r="BM122" s="40"/>
+      <c r="BN122" s="39">
         <v>2016</v>
       </c>
-      <c r="BO122" s="34"/>
-      <c r="BP122" s="34"/>
-      <c r="BQ122" s="34"/>
-      <c r="BR122" s="33">
+      <c r="BO122" s="40"/>
+      <c r="BP122" s="40"/>
+      <c r="BQ122" s="40"/>
+      <c r="BR122" s="39">
         <v>2017</v>
       </c>
-      <c r="BS122" s="34"/>
-      <c r="BT122" s="34"/>
-      <c r="BU122" s="34"/>
-      <c r="BV122" s="33">
+      <c r="BS122" s="40"/>
+      <c r="BT122" s="40"/>
+      <c r="BU122" s="40"/>
+      <c r="BV122" s="39">
         <v>2018</v>
       </c>
-      <c r="BW122" s="34"/>
-      <c r="BX122" s="34"/>
-      <c r="BY122" s="34"/>
-      <c r="BZ122" s="33">
+      <c r="BW122" s="40"/>
+      <c r="BX122" s="40"/>
+      <c r="BY122" s="40"/>
+      <c r="BZ122" s="39">
         <v>2019</v>
       </c>
-      <c r="CA122" s="34"/>
-      <c r="CB122" s="34"/>
-      <c r="CC122" s="34"/>
-      <c r="CD122" s="33">
+      <c r="CA122" s="40"/>
+      <c r="CB122" s="40"/>
+      <c r="CC122" s="40"/>
+      <c r="CD122" s="39">
         <v>2020</v>
       </c>
-      <c r="CE122" s="33"/>
-      <c r="CF122" s="33"/>
-      <c r="CG122" s="33"/>
+      <c r="CE122" s="39"/>
+      <c r="CF122" s="39"/>
+      <c r="CG122" s="39"/>
       <c r="CH122" s="19">
         <v>2021</v>
       </c>
@@ -42287,6 +42440,7 @@
       </c>
       <c r="CU122" s="22"/>
       <c r="CV122" s="22"/>
+      <c r="CW122" s="22"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -42588,6 +42742,9 @@
       </c>
       <c r="CV123" s="23" t="s">
         <v>10</v>
+      </c>
+      <c r="CW123" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42691,6 +42848,7 @@
       <c r="CT124" s="21"/>
       <c r="CU124" s="21"/>
       <c r="CV124" s="21"/>
+      <c r="CW124" s="21"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -42991,9 +43149,11 @@
         <v>68.343672511454841</v>
       </c>
       <c r="CV125" s="30">
-        <v>66.683668533906399</v>
-      </c>
-      <c r="CW125" s="17"/>
+        <v>65.688175833830726</v>
+      </c>
+      <c r="CW125" s="30">
+        <v>66.459483738958852</v>
+      </c>
       <c r="CX125" s="17"/>
       <c r="CY125" s="17"/>
       <c r="CZ125" s="17"/>
@@ -43348,9 +43508,11 @@
         <v>31.656327488545148</v>
       </c>
       <c r="CV126" s="30">
-        <v>33.316331466093615</v>
-      </c>
-      <c r="CW126" s="17"/>
+        <v>34.311824166169274</v>
+      </c>
+      <c r="CW126" s="30">
+        <v>33.540516261041162</v>
+      </c>
       <c r="CX126" s="17"/>
       <c r="CY126" s="17"/>
       <c r="CZ126" s="17"/>
@@ -43506,7 +43668,7 @@
       <c r="CT127" s="25"/>
       <c r="CU127" s="25"/>
       <c r="CV127" s="25"/>
-      <c r="CW127" s="17"/>
+      <c r="CW127" s="25"/>
       <c r="CX127" s="17"/>
       <c r="CY127" s="17"/>
       <c r="CZ127" s="17"/>
@@ -43863,7 +44025,9 @@
       <c r="CV128" s="30">
         <v>100</v>
       </c>
-      <c r="CW128" s="17"/>
+      <c r="CW128" s="30">
+        <v>100</v>
+      </c>
       <c r="CX128" s="17"/>
       <c r="CY128" s="17"/>
       <c r="CZ128" s="17"/>
@@ -43919,7 +44083,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:100" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:101" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -44020,8 +44184,9 @@
       <c r="CT129" s="27"/>
       <c r="CU129" s="27"/>
       <c r="CV129" s="27"/>
+      <c r="CW129" s="27"/>
     </row>
-    <row r="130" spans="1:100" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:101" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -44124,41 +44289,166 @@
       <c r="CT130" s="21"/>
       <c r="CU130" s="21"/>
       <c r="CV130" s="21"/>
+      <c r="CW130" s="21"/>
+    </row>
+    <row r="131" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT131" s="38"/>
+      <c r="CU131" s="38"/>
+      <c r="CV131" s="38"/>
+    </row>
+    <row r="132" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT132" s="38"/>
+      <c r="CU132" s="38"/>
+      <c r="CV132" s="38"/>
+    </row>
+    <row r="133" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT133" s="38"/>
+      <c r="CU133" s="38"/>
+      <c r="CV133" s="38"/>
+    </row>
+    <row r="134" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT134" s="38"/>
+      <c r="CU134" s="38"/>
+      <c r="CV134" s="38"/>
+    </row>
+    <row r="135" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT135" s="38"/>
+      <c r="CU135" s="38"/>
+      <c r="CV135" s="38"/>
+    </row>
+    <row r="136" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT136" s="38"/>
+      <c r="CU136" s="38"/>
+      <c r="CV136" s="38"/>
+    </row>
+    <row r="137" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT137" s="38"/>
+      <c r="CU137" s="38"/>
+      <c r="CV137" s="38"/>
+    </row>
+    <row r="138" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT138" s="38"/>
+      <c r="CU138" s="38"/>
+      <c r="CV138" s="38"/>
+    </row>
+    <row r="139" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT139" s="38"/>
+      <c r="CU139" s="38"/>
+      <c r="CV139" s="38"/>
+    </row>
+    <row r="140" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT140" s="38"/>
+      <c r="CU140" s="38"/>
+      <c r="CV140" s="38"/>
+    </row>
+    <row r="141" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT141" s="38"/>
+      <c r="CU141" s="38"/>
+      <c r="CV141" s="38"/>
+    </row>
+    <row r="142" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT142" s="38"/>
+      <c r="CU142" s="38"/>
+      <c r="CV142" s="38"/>
+    </row>
+    <row r="143" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT143" s="38"/>
+      <c r="CU143" s="38"/>
+      <c r="CV143" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
@@ -44183,106 +44473,47 @@
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="R28:U28"/>
     <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB122:BE122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="99" man="1"/>
-    <brk id="76" max="99" man="1"/>
-    <brk id="94" max="99" man="1"/>
+    <brk id="38" max="100" man="1"/>
+    <brk id="76" max="100" man="1"/>
+    <brk id="94" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA446C9-7CB7-4883-A3C1-8797F870C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7F077-ED8A-41C6-AAF3-71BD496FF267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CW$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CX$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -23658,25 +23661,29 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY143"/>
+  <dimension ref="A1:EY138"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
-    <col min="2" max="93" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="32" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="15"/>
+    <col min="2" max="89" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="32" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
       <c r="CP1" s="20"/>
       <c r="CQ1" s="20"/>
       <c r="CR1" s="20"/>
@@ -23685,11 +23692,16 @@
       <c r="CU1" s="20"/>
       <c r="CV1" s="20"/>
       <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
     </row>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="20"/>
+      <c r="CO2" s="20"/>
       <c r="CP2" s="20"/>
       <c r="CQ2" s="20"/>
       <c r="CR2" s="20"/>
@@ -23698,11 +23710,16 @@
       <c r="CU2" s="20"/>
       <c r="CV2" s="20"/>
       <c r="CW2" s="20"/>
+      <c r="CX2" s="20"/>
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CL3" s="20"/>
+      <c r="CM3" s="20"/>
+      <c r="CN3" s="20"/>
+      <c r="CO3" s="20"/>
       <c r="CP3" s="20"/>
       <c r="CQ3" s="20"/>
       <c r="CR3" s="20"/>
@@ -23711,9 +23728,14 @@
       <c r="CU3" s="20"/>
       <c r="CV3" s="20"/>
       <c r="CW3" s="20"/>
+      <c r="CX3" s="20"/>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
+      <c r="CL4" s="20"/>
+      <c r="CM4" s="20"/>
+      <c r="CN4" s="20"/>
+      <c r="CO4" s="20"/>
       <c r="CP4" s="20"/>
       <c r="CQ4" s="20"/>
       <c r="CR4" s="20"/>
@@ -23722,11 +23744,16 @@
       <c r="CU4" s="20"/>
       <c r="CV4" s="20"/>
       <c r="CW4" s="20"/>
+      <c r="CX4" s="20"/>
     </row>
     <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="CL5" s="20"/>
+      <c r="CM5" s="20"/>
+      <c r="CN5" s="20"/>
+      <c r="CO5" s="20"/>
       <c r="CP5" s="20"/>
       <c r="CQ5" s="20"/>
       <c r="CR5" s="20"/>
@@ -23735,11 +23762,16 @@
       <c r="CU5" s="20"/>
       <c r="CV5" s="20"/>
       <c r="CW5" s="20"/>
+      <c r="CX5" s="20"/>
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CL6" s="20"/>
+      <c r="CM6" s="20"/>
+      <c r="CN6" s="20"/>
+      <c r="CO6" s="20"/>
       <c r="CP6" s="20"/>
       <c r="CQ6" s="20"/>
       <c r="CR6" s="20"/>
@@ -23748,11 +23780,16 @@
       <c r="CU6" s="20"/>
       <c r="CV6" s="20"/>
       <c r="CW6" s="20"/>
+      <c r="CX6" s="20"/>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="CL7" s="20"/>
+      <c r="CM7" s="20"/>
+      <c r="CN7" s="20"/>
+      <c r="CO7" s="20"/>
       <c r="CP7" s="20"/>
       <c r="CQ7" s="20"/>
       <c r="CR7" s="20"/>
@@ -23761,6 +23798,7 @@
       <c r="CU7" s="20"/>
       <c r="CV7" s="20"/>
       <c r="CW7" s="20"/>
+      <c r="CX7" s="20"/>
     </row>
     <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -23852,10 +23890,10 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="3"/>
-      <c r="CM8" s="3"/>
-      <c r="CN8" s="3"/>
-      <c r="CO8" s="3"/>
+      <c r="CL8" s="21"/>
+      <c r="CM8" s="21"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="21"/>
       <c r="CP8" s="21"/>
       <c r="CQ8" s="21"/>
       <c r="CR8" s="21"/>
@@ -23864,6 +23902,7 @@
       <c r="CU8" s="21"/>
       <c r="CV8" s="21"/>
       <c r="CW8" s="21"/>
+      <c r="CX8" s="21"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -23999,12 +24038,12 @@
       <c r="CI9" s="19"/>
       <c r="CJ9" s="19"/>
       <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
       <c r="CP9" s="22">
         <v>2023</v>
       </c>
@@ -24017,6 +24056,9 @@
       <c r="CU9" s="22"/>
       <c r="CV9" s="22"/>
       <c r="CW9" s="22"/>
+      <c r="CX9" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24286,16 +24328,16 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="23" t="s">
@@ -24321,6 +24363,9 @@
       </c>
       <c r="CW10" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24413,10 +24458,10 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="3"/>
-      <c r="CM11" s="3"/>
-      <c r="CN11" s="3"/>
-      <c r="CO11" s="3"/>
+      <c r="CL11" s="21"/>
+      <c r="CM11" s="21"/>
+      <c r="CN11" s="21"/>
+      <c r="CO11" s="21"/>
       <c r="CP11" s="21"/>
       <c r="CQ11" s="21"/>
       <c r="CR11" s="21"/>
@@ -24425,6 +24470,7 @@
       <c r="CU11" s="21"/>
       <c r="CV11" s="21"/>
       <c r="CW11" s="21"/>
+      <c r="CX11" s="21"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24694,43 +24740,45 @@
       <c r="CK12" s="13">
         <v>139858.68074787248</v>
       </c>
-      <c r="CL12" s="13">
+      <c r="CL12" s="24">
         <v>146036.15651912635</v>
       </c>
-      <c r="CM12" s="13">
+      <c r="CM12" s="24">
         <v>174687.6084082509</v>
       </c>
-      <c r="CN12" s="13">
+      <c r="CN12" s="24">
         <v>137998.23424650621</v>
       </c>
-      <c r="CO12" s="13">
+      <c r="CO12" s="24">
         <v>160749.76785570109</v>
       </c>
       <c r="CP12" s="24">
-        <v>159040.05426257322</v>
+        <v>158019.91139409045</v>
       </c>
       <c r="CQ12" s="24">
-        <v>191540.13930252948</v>
+        <v>190053.27354264795</v>
       </c>
       <c r="CR12" s="24">
-        <v>149727.0973828187</v>
+        <v>148439.67217529708</v>
       </c>
       <c r="CS12" s="24">
-        <v>178724.73119020896</v>
+        <v>176829.23358122614</v>
       </c>
       <c r="CT12" s="24">
-        <v>164928.00176265615</v>
+        <v>168359.77340023682</v>
       </c>
       <c r="CU12" s="24">
-        <v>195666.10390364955</v>
+        <v>194147.2095803858</v>
       </c>
       <c r="CV12" s="24">
-        <v>160797.61491778804</v>
+        <v>159361.80581482823</v>
       </c>
       <c r="CW12" s="24">
-        <v>194636.35227677273</v>
-      </c>
-      <c r="CX12" s="17"/>
+        <v>194830.74221769127</v>
+      </c>
+      <c r="CX12" s="24">
+        <v>187688.09327552898</v>
+      </c>
       <c r="CY12" s="17"/>
       <c r="CZ12" s="17"/>
       <c r="DA12" s="17"/>
@@ -25053,43 +25101,45 @@
       <c r="CK13" s="13">
         <v>63436.648987605236</v>
       </c>
-      <c r="CL13" s="13">
+      <c r="CL13" s="24">
         <v>60278.631307192292</v>
       </c>
-      <c r="CM13" s="13">
+      <c r="CM13" s="24">
         <v>64235.079167507261</v>
       </c>
-      <c r="CN13" s="13">
+      <c r="CN13" s="24">
         <v>67039.007684755474</v>
       </c>
-      <c r="CO13" s="13">
+      <c r="CO13" s="24">
         <v>69365.327308605774</v>
       </c>
       <c r="CP13" s="24">
-        <v>69291.17195269253</v>
+        <v>69367.335020243685</v>
       </c>
       <c r="CQ13" s="24">
-        <v>73589.944872166205</v>
+        <v>73817.719368915132</v>
       </c>
       <c r="CR13" s="24">
-        <v>75443.577784210705</v>
+        <v>74706.96887114679</v>
       </c>
       <c r="CS13" s="24">
-        <v>79287.401714957232</v>
+        <v>78316.02459144521</v>
       </c>
       <c r="CT13" s="24">
-        <v>79797.360121441001</v>
+        <v>79636.973774950107</v>
       </c>
       <c r="CU13" s="24">
-        <v>84700.077529256945</v>
+        <v>84823.505099704911</v>
       </c>
       <c r="CV13" s="24">
-        <v>84721.007210138298</v>
+        <v>83919.915399997291</v>
       </c>
       <c r="CW13" s="24">
-        <v>89657.277559498049</v>
-      </c>
-      <c r="CX13" s="17"/>
+        <v>88000.492502709472</v>
+      </c>
+      <c r="CX13" s="24">
+        <v>89891.710927016204</v>
+      </c>
       <c r="CY13" s="17"/>
       <c r="CZ13" s="17"/>
       <c r="DA13" s="17"/>
@@ -25233,10 +25283,10 @@
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
       <c r="CK14" s="11"/>
-      <c r="CL14" s="11"/>
-      <c r="CM14" s="11"/>
-      <c r="CN14" s="11"/>
-      <c r="CO14" s="11"/>
+      <c r="CL14" s="25"/>
+      <c r="CM14" s="25"/>
+      <c r="CN14" s="25"/>
+      <c r="CO14" s="25"/>
       <c r="CP14" s="25"/>
       <c r="CQ14" s="25"/>
       <c r="CR14" s="25"/>
@@ -25245,7 +25295,7 @@
       <c r="CU14" s="25"/>
       <c r="CV14" s="25"/>
       <c r="CW14" s="25"/>
-      <c r="CX14" s="17"/>
+      <c r="CX14" s="25"/>
       <c r="CY14" s="17"/>
       <c r="CZ14" s="17"/>
       <c r="DA14" s="17"/>
@@ -25568,43 +25618,45 @@
       <c r="CK15" s="14">
         <v>203295.32973547772</v>
       </c>
-      <c r="CL15" s="14">
+      <c r="CL15" s="26">
         <v>206314.78782631864</v>
       </c>
-      <c r="CM15" s="14">
+      <c r="CM15" s="26">
         <v>238922.68757575817</v>
       </c>
-      <c r="CN15" s="14">
+      <c r="CN15" s="26">
         <v>205037.24193126167</v>
       </c>
-      <c r="CO15" s="14">
+      <c r="CO15" s="26">
         <v>230115.09516430687</v>
       </c>
       <c r="CP15" s="26">
-        <v>228331.22621526575</v>
+        <v>227387.24641433413</v>
       </c>
       <c r="CQ15" s="26">
-        <v>265130.08417469566</v>
+        <v>263870.99291156308</v>
       </c>
       <c r="CR15" s="26">
-        <v>225170.6751670294</v>
+        <v>223146.64104644387</v>
       </c>
       <c r="CS15" s="26">
-        <v>258012.13290516619</v>
+        <v>255145.25817267137</v>
       </c>
       <c r="CT15" s="26">
-        <v>244725.36188409716</v>
+        <v>247996.74717518693</v>
       </c>
       <c r="CU15" s="26">
-        <v>280366.18143290648</v>
+        <v>278970.71468009072</v>
       </c>
       <c r="CV15" s="26">
-        <v>245518.62212792633</v>
+        <v>243281.72121482552</v>
       </c>
       <c r="CW15" s="26">
-        <v>284293.62983627076</v>
-      </c>
-      <c r="CX15" s="17"/>
+        <v>282831.23472040077</v>
+      </c>
+      <c r="CX15" s="26">
+        <v>277579.8042025452</v>
+      </c>
       <c r="CY15" s="17"/>
       <c r="CZ15" s="17"/>
       <c r="DA15" s="17"/>
@@ -25749,10 +25801,10 @@
       <c r="CI16" s="9"/>
       <c r="CJ16" s="9"/>
       <c r="CK16" s="9"/>
-      <c r="CL16" s="9"/>
-      <c r="CM16" s="9"/>
-      <c r="CN16" s="9"/>
-      <c r="CO16" s="9"/>
+      <c r="CL16" s="27"/>
+      <c r="CM16" s="27"/>
+      <c r="CN16" s="27"/>
+      <c r="CO16" s="27"/>
       <c r="CP16" s="27"/>
       <c r="CQ16" s="27"/>
       <c r="CR16" s="27"/>
@@ -25761,6 +25813,7 @@
       <c r="CU16" s="27"/>
       <c r="CV16" s="27"/>
       <c r="CW16" s="27"/>
+      <c r="CX16" s="27"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25854,10 +25907,10 @@
       <c r="CI17" s="3"/>
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
-      <c r="CL17" s="3"/>
-      <c r="CM17" s="3"/>
-      <c r="CN17" s="3"/>
-      <c r="CO17" s="3"/>
+      <c r="CL17" s="21"/>
+      <c r="CM17" s="21"/>
+      <c r="CN17" s="21"/>
+      <c r="CO17" s="21"/>
       <c r="CP17" s="21"/>
       <c r="CQ17" s="21"/>
       <c r="CR17" s="21"/>
@@ -25866,6 +25919,7 @@
       <c r="CU17" s="21"/>
       <c r="CV17" s="21"/>
       <c r="CW17" s="21"/>
+      <c r="CX17" s="21"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -25956,10 +26010,10 @@
       <c r="CI18" s="11"/>
       <c r="CJ18" s="11"/>
       <c r="CK18" s="11"/>
-      <c r="CL18" s="11"/>
-      <c r="CM18" s="11"/>
-      <c r="CN18" s="11"/>
-      <c r="CO18" s="11"/>
+      <c r="CL18" s="25"/>
+      <c r="CM18" s="25"/>
+      <c r="CN18" s="25"/>
+      <c r="CO18" s="25"/>
       <c r="CP18" s="25"/>
       <c r="CQ18" s="25"/>
       <c r="CR18" s="25"/>
@@ -25968,7 +26022,7 @@
       <c r="CU18" s="25"/>
       <c r="CV18" s="25"/>
       <c r="CW18" s="25"/>
-      <c r="CX18" s="17"/>
+      <c r="CX18" s="25"/>
       <c r="CY18" s="17"/>
       <c r="CZ18" s="17"/>
       <c r="DA18" s="17"/>
@@ -26112,10 +26166,10 @@
       <c r="CI19" s="11"/>
       <c r="CJ19" s="11"/>
       <c r="CK19" s="11"/>
-      <c r="CL19" s="11"/>
-      <c r="CM19" s="11"/>
-      <c r="CN19" s="11"/>
-      <c r="CO19" s="11"/>
+      <c r="CL19" s="25"/>
+      <c r="CM19" s="25"/>
+      <c r="CN19" s="25"/>
+      <c r="CO19" s="25"/>
       <c r="CP19" s="25"/>
       <c r="CQ19" s="25"/>
       <c r="CR19" s="25"/>
@@ -26124,7 +26178,7 @@
       <c r="CU19" s="25"/>
       <c r="CV19" s="25"/>
       <c r="CW19" s="25"/>
-      <c r="CX19" s="17"/>
+      <c r="CX19" s="25"/>
       <c r="CY19" s="17"/>
       <c r="CZ19" s="17"/>
       <c r="DA19" s="17"/>
@@ -26271,10 +26325,10 @@
       <c r="CI20" s="3"/>
       <c r="CJ20" s="3"/>
       <c r="CK20" s="3"/>
-      <c r="CL20" s="3"/>
-      <c r="CM20" s="3"/>
-      <c r="CN20" s="3"/>
-      <c r="CO20" s="3"/>
+      <c r="CL20" s="21"/>
+      <c r="CM20" s="21"/>
+      <c r="CN20" s="21"/>
+      <c r="CO20" s="21"/>
       <c r="CP20" s="21"/>
       <c r="CQ20" s="21"/>
       <c r="CR20" s="21"/>
@@ -26283,6 +26337,7 @@
       <c r="CU20" s="21"/>
       <c r="CV20" s="21"/>
       <c r="CW20" s="21"/>
+      <c r="CX20" s="21"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26376,10 +26431,10 @@
       <c r="CI21" s="3"/>
       <c r="CJ21" s="3"/>
       <c r="CK21" s="3"/>
-      <c r="CL21" s="3"/>
-      <c r="CM21" s="3"/>
-      <c r="CN21" s="3"/>
-      <c r="CO21" s="3"/>
+      <c r="CL21" s="21"/>
+      <c r="CM21" s="21"/>
+      <c r="CN21" s="21"/>
+      <c r="CO21" s="21"/>
       <c r="CP21" s="21"/>
       <c r="CQ21" s="21"/>
       <c r="CR21" s="21"/>
@@ -26388,10 +26443,11 @@
       <c r="CU21" s="21"/>
       <c r="CV21" s="21"/>
       <c r="CW21" s="21"/>
+      <c r="CX21" s="21"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26481,10 +26537,10 @@
       <c r="CI22" s="3"/>
       <c r="CJ22" s="3"/>
       <c r="CK22" s="3"/>
-      <c r="CL22" s="3"/>
-      <c r="CM22" s="3"/>
-      <c r="CN22" s="3"/>
-      <c r="CO22" s="3"/>
+      <c r="CL22" s="21"/>
+      <c r="CM22" s="21"/>
+      <c r="CN22" s="21"/>
+      <c r="CO22" s="21"/>
       <c r="CP22" s="21"/>
       <c r="CQ22" s="21"/>
       <c r="CR22" s="21"/>
@@ -26493,6 +26549,7 @@
       <c r="CU22" s="21"/>
       <c r="CV22" s="21"/>
       <c r="CW22" s="21"/>
+      <c r="CX22" s="21"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26584,10 +26641,10 @@
       <c r="CI23" s="3"/>
       <c r="CJ23" s="3"/>
       <c r="CK23" s="3"/>
-      <c r="CL23" s="3"/>
-      <c r="CM23" s="3"/>
-      <c r="CN23" s="3"/>
-      <c r="CO23" s="3"/>
+      <c r="CL23" s="21"/>
+      <c r="CM23" s="21"/>
+      <c r="CN23" s="21"/>
+      <c r="CO23" s="21"/>
       <c r="CP23" s="21"/>
       <c r="CQ23" s="21"/>
       <c r="CR23" s="21"/>
@@ -26596,6 +26653,7 @@
       <c r="CU23" s="21"/>
       <c r="CV23" s="21"/>
       <c r="CW23" s="21"/>
+      <c r="CX23" s="21"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26689,10 +26747,10 @@
       <c r="CI24" s="3"/>
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
-      <c r="CL24" s="3"/>
-      <c r="CM24" s="3"/>
-      <c r="CN24" s="3"/>
-      <c r="CO24" s="3"/>
+      <c r="CL24" s="21"/>
+      <c r="CM24" s="21"/>
+      <c r="CN24" s="21"/>
+      <c r="CO24" s="21"/>
       <c r="CP24" s="21"/>
       <c r="CQ24" s="21"/>
       <c r="CR24" s="21"/>
@@ -26701,10 +26759,11 @@
       <c r="CU24" s="21"/>
       <c r="CV24" s="21"/>
       <c r="CW24" s="21"/>
+      <c r="CX24" s="21"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26794,10 +26853,10 @@
       <c r="CI25" s="3"/>
       <c r="CJ25" s="3"/>
       <c r="CK25" s="3"/>
-      <c r="CL25" s="3"/>
-      <c r="CM25" s="3"/>
-      <c r="CN25" s="3"/>
-      <c r="CO25" s="3"/>
+      <c r="CL25" s="21"/>
+      <c r="CM25" s="21"/>
+      <c r="CN25" s="21"/>
+      <c r="CO25" s="21"/>
       <c r="CP25" s="21"/>
       <c r="CQ25" s="21"/>
       <c r="CR25" s="21"/>
@@ -26806,6 +26865,7 @@
       <c r="CU25" s="21"/>
       <c r="CV25" s="21"/>
       <c r="CW25" s="21"/>
+      <c r="CX25" s="21"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26899,10 +26959,10 @@
       <c r="CI26" s="3"/>
       <c r="CJ26" s="3"/>
       <c r="CK26" s="3"/>
-      <c r="CL26" s="3"/>
-      <c r="CM26" s="3"/>
-      <c r="CN26" s="3"/>
-      <c r="CO26" s="3"/>
+      <c r="CL26" s="21"/>
+      <c r="CM26" s="21"/>
+      <c r="CN26" s="21"/>
+      <c r="CO26" s="21"/>
       <c r="CP26" s="21"/>
       <c r="CQ26" s="21"/>
       <c r="CR26" s="21"/>
@@ -26911,6 +26971,7 @@
       <c r="CU26" s="21"/>
       <c r="CV26" s="21"/>
       <c r="CW26" s="21"/>
+      <c r="CX26" s="21"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -27002,10 +27063,10 @@
       <c r="CI27" s="3"/>
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
-      <c r="CL27" s="3"/>
-      <c r="CM27" s="3"/>
-      <c r="CN27" s="3"/>
-      <c r="CO27" s="3"/>
+      <c r="CL27" s="21"/>
+      <c r="CM27" s="21"/>
+      <c r="CN27" s="21"/>
+      <c r="CO27" s="21"/>
       <c r="CP27" s="21"/>
       <c r="CQ27" s="21"/>
       <c r="CR27" s="21"/>
@@ -27014,6 +27075,7 @@
       <c r="CU27" s="21"/>
       <c r="CV27" s="21"/>
       <c r="CW27" s="21"/>
+      <c r="CX27" s="21"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
@@ -27149,12 +27211,12 @@
       <c r="CI28" s="19"/>
       <c r="CJ28" s="19"/>
       <c r="CK28" s="19"/>
-      <c r="CL28" s="19">
+      <c r="CL28" s="22">
         <v>2022</v>
       </c>
-      <c r="CM28" s="19"/>
-      <c r="CN28" s="19"/>
-      <c r="CO28" s="19"/>
+      <c r="CM28" s="22"/>
+      <c r="CN28" s="22"/>
+      <c r="CO28" s="22"/>
       <c r="CP28" s="22">
         <v>2023</v>
       </c>
@@ -27167,6 +27229,9 @@
       <c r="CU28" s="22"/>
       <c r="CV28" s="22"/>
       <c r="CW28" s="22"/>
+      <c r="CX28" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27436,16 +27501,16 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="6" t="s">
+      <c r="CL29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="6" t="s">
+      <c r="CM29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="6" t="s">
+      <c r="CN29" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="6" t="s">
+      <c r="CO29" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP29" s="23" t="s">
@@ -27471,6 +27536,9 @@
       </c>
       <c r="CW29" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX29" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27563,10 +27631,10 @@
       <c r="CI30" s="3"/>
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
-      <c r="CL30" s="3"/>
-      <c r="CM30" s="3"/>
-      <c r="CN30" s="3"/>
-      <c r="CO30" s="3"/>
+      <c r="CL30" s="21"/>
+      <c r="CM30" s="21"/>
+      <c r="CN30" s="21"/>
+      <c r="CO30" s="21"/>
       <c r="CP30" s="21"/>
       <c r="CQ30" s="21"/>
       <c r="CR30" s="21"/>
@@ -27575,6 +27643,7 @@
       <c r="CU30" s="21"/>
       <c r="CV30" s="21"/>
       <c r="CW30" s="21"/>
+      <c r="CX30" s="21"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27844,43 +27913,45 @@
       <c r="CK31" s="13">
         <v>112293.55436978329</v>
       </c>
-      <c r="CL31" s="13">
+      <c r="CL31" s="24">
         <v>137356.93249740373</v>
       </c>
-      <c r="CM31" s="13">
+      <c r="CM31" s="24">
         <v>163608.89605444705</v>
       </c>
-      <c r="CN31" s="13">
+      <c r="CN31" s="24">
         <v>123188.48931841059</v>
       </c>
-      <c r="CO31" s="13">
+      <c r="CO31" s="24">
         <v>124918.94518624805</v>
       </c>
       <c r="CP31" s="24">
-        <v>144213.10561578581</v>
+        <v>143337.75558561768</v>
       </c>
       <c r="CQ31" s="24">
-        <v>172159.5890242467</v>
+        <v>170527.50476922328</v>
       </c>
       <c r="CR31" s="24">
-        <v>129325.02426998374</v>
+        <v>127857.36844287917</v>
       </c>
       <c r="CS31" s="24">
-        <v>133941.19107316836</v>
+        <v>132175.92810071129</v>
       </c>
       <c r="CT31" s="24">
-        <v>145110.48306089113</v>
+        <v>147747.86051204643</v>
       </c>
       <c r="CU31" s="24">
-        <v>169520.85967004599</v>
+        <v>167964.02713479899</v>
       </c>
       <c r="CV31" s="24">
-        <v>133593.75489520951</v>
+        <v>132077.65502247788</v>
       </c>
       <c r="CW31" s="24">
-        <v>141362.05257497405</v>
-      </c>
-      <c r="CX31" s="17"/>
+        <v>141178.44662462836</v>
+      </c>
+      <c r="CX31" s="24">
+        <v>158079.12450786741</v>
+      </c>
       <c r="CY31" s="17"/>
       <c r="CZ31" s="17"/>
       <c r="DA31" s="17"/>
@@ -28203,43 +28274,45 @@
       <c r="CK32" s="13">
         <v>56773.215199544939</v>
       </c>
-      <c r="CL32" s="13">
+      <c r="CL32" s="24">
         <v>61687.709169617927</v>
       </c>
-      <c r="CM32" s="13">
+      <c r="CM32" s="24">
         <v>64337.857421009561</v>
       </c>
-      <c r="CN32" s="13">
+      <c r="CN32" s="24">
         <v>60632.865171018668</v>
       </c>
-      <c r="CO32" s="13">
+      <c r="CO32" s="24">
         <v>60421.945217773122</v>
       </c>
       <c r="CP32" s="24">
-        <v>68441.428613615251</v>
+        <v>68516.6384462313</v>
       </c>
       <c r="CQ32" s="24">
-        <v>71227.221843694948</v>
+        <v>71447.683275463292</v>
       </c>
       <c r="CR32" s="24">
-        <v>65986.589350993527</v>
+        <v>65342.315692635777</v>
       </c>
       <c r="CS32" s="24">
-        <v>66325.072018427192</v>
+        <v>65512.500837123953</v>
       </c>
       <c r="CT32" s="24">
-        <v>75453.530197352287</v>
+        <v>75301.910777375509</v>
       </c>
       <c r="CU32" s="24">
-        <v>78520.917191788845</v>
+        <v>78635.340298839496</v>
       </c>
       <c r="CV32" s="24">
-        <v>69781.8955919609</v>
+        <v>69122.062725288561</v>
       </c>
       <c r="CW32" s="24">
-        <v>71342.056187319846</v>
-      </c>
-      <c r="CX32" s="17"/>
+        <v>70023.719786426052</v>
+      </c>
+      <c r="CX32" s="24">
+        <v>81047.000105843617</v>
+      </c>
       <c r="CY32" s="17"/>
       <c r="CZ32" s="17"/>
       <c r="DA32" s="17"/>
@@ -28383,10 +28456,10 @@
       <c r="CI33" s="11"/>
       <c r="CJ33" s="11"/>
       <c r="CK33" s="11"/>
-      <c r="CL33" s="11"/>
-      <c r="CM33" s="11"/>
-      <c r="CN33" s="11"/>
-      <c r="CO33" s="11"/>
+      <c r="CL33" s="25"/>
+      <c r="CM33" s="25"/>
+      <c r="CN33" s="25"/>
+      <c r="CO33" s="25"/>
       <c r="CP33" s="25"/>
       <c r="CQ33" s="25"/>
       <c r="CR33" s="25"/>
@@ -28395,7 +28468,7 @@
       <c r="CU33" s="25"/>
       <c r="CV33" s="25"/>
       <c r="CW33" s="25"/>
-      <c r="CX33" s="17"/>
+      <c r="CX33" s="25"/>
       <c r="CY33" s="17"/>
       <c r="CZ33" s="17"/>
       <c r="DA33" s="17"/>
@@ -28718,43 +28791,45 @@
       <c r="CK34" s="14">
         <v>169066.76956932823</v>
       </c>
-      <c r="CL34" s="14">
+      <c r="CL34" s="26">
         <v>199044.64166702167</v>
       </c>
-      <c r="CM34" s="14">
+      <c r="CM34" s="26">
         <v>227946.75347545661</v>
       </c>
-      <c r="CN34" s="14">
+      <c r="CN34" s="26">
         <v>183821.35448942927</v>
       </c>
-      <c r="CO34" s="14">
+      <c r="CO34" s="26">
         <v>185340.89040402116</v>
       </c>
       <c r="CP34" s="26">
-        <v>212654.53422940106</v>
+        <v>211854.39403184899</v>
       </c>
       <c r="CQ34" s="26">
-        <v>243386.81086794165</v>
+        <v>241975.18804468657</v>
       </c>
       <c r="CR34" s="26">
-        <v>195311.61362097727</v>
+        <v>193199.68413551495</v>
       </c>
       <c r="CS34" s="26">
-        <v>200266.26309159555</v>
+        <v>197688.42893783524</v>
       </c>
       <c r="CT34" s="26">
-        <v>220564.01325824342</v>
+        <v>223049.77128942194</v>
       </c>
       <c r="CU34" s="26">
-        <v>248041.77686183483</v>
+        <v>246599.36743363849</v>
       </c>
       <c r="CV34" s="26">
-        <v>203375.65048717041</v>
+        <v>201199.71774776644</v>
       </c>
       <c r="CW34" s="26">
-        <v>212704.10876229388</v>
-      </c>
-      <c r="CX34" s="17"/>
+        <v>211202.16641105441</v>
+      </c>
+      <c r="CX34" s="26">
+        <v>239126.12461371103</v>
+      </c>
       <c r="CY34" s="17"/>
       <c r="CZ34" s="17"/>
       <c r="DA34" s="17"/>
@@ -28899,10 +28974,10 @@
       <c r="CI35" s="9"/>
       <c r="CJ35" s="9"/>
       <c r="CK35" s="9"/>
-      <c r="CL35" s="9"/>
-      <c r="CM35" s="9"/>
-      <c r="CN35" s="9"/>
-      <c r="CO35" s="9"/>
+      <c r="CL35" s="27"/>
+      <c r="CM35" s="27"/>
+      <c r="CN35" s="27"/>
+      <c r="CO35" s="27"/>
       <c r="CP35" s="27"/>
       <c r="CQ35" s="27"/>
       <c r="CR35" s="27"/>
@@ -28911,6 +28986,7 @@
       <c r="CU35" s="27"/>
       <c r="CV35" s="27"/>
       <c r="CW35" s="27"/>
+      <c r="CX35" s="27"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -29004,10 +29080,10 @@
       <c r="CI36" s="3"/>
       <c r="CJ36" s="3"/>
       <c r="CK36" s="3"/>
-      <c r="CL36" s="3"/>
-      <c r="CM36" s="3"/>
-      <c r="CN36" s="3"/>
-      <c r="CO36" s="3"/>
+      <c r="CL36" s="21"/>
+      <c r="CM36" s="21"/>
+      <c r="CN36" s="21"/>
+      <c r="CO36" s="21"/>
       <c r="CP36" s="21"/>
       <c r="CQ36" s="21"/>
       <c r="CR36" s="21"/>
@@ -29016,6 +29092,7 @@
       <c r="CU36" s="21"/>
       <c r="CV36" s="21"/>
       <c r="CW36" s="21"/>
+      <c r="CX36" s="21"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -29106,10 +29183,10 @@
       <c r="CI37" s="11"/>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
-      <c r="CL37" s="11"/>
-      <c r="CM37" s="11"/>
-      <c r="CN37" s="11"/>
-      <c r="CO37" s="11"/>
+      <c r="CL37" s="25"/>
+      <c r="CM37" s="25"/>
+      <c r="CN37" s="25"/>
+      <c r="CO37" s="25"/>
       <c r="CP37" s="25"/>
       <c r="CQ37" s="25"/>
       <c r="CR37" s="25"/>
@@ -29118,7 +29195,7 @@
       <c r="CU37" s="25"/>
       <c r="CV37" s="25"/>
       <c r="CW37" s="25"/>
-      <c r="CX37" s="17"/>
+      <c r="CX37" s="25"/>
       <c r="CY37" s="17"/>
       <c r="CZ37" s="17"/>
       <c r="DA37" s="17"/>
@@ -29262,10 +29339,10 @@
       <c r="CI38" s="11"/>
       <c r="CJ38" s="11"/>
       <c r="CK38" s="11"/>
-      <c r="CL38" s="11"/>
-      <c r="CM38" s="11"/>
-      <c r="CN38" s="11"/>
-      <c r="CO38" s="11"/>
+      <c r="CL38" s="25"/>
+      <c r="CM38" s="25"/>
+      <c r="CN38" s="25"/>
+      <c r="CO38" s="25"/>
       <c r="CP38" s="25"/>
       <c r="CQ38" s="25"/>
       <c r="CR38" s="25"/>
@@ -29274,7 +29351,7 @@
       <c r="CU38" s="25"/>
       <c r="CV38" s="25"/>
       <c r="CW38" s="25"/>
-      <c r="CX38" s="17"/>
+      <c r="CX38" s="25"/>
       <c r="CY38" s="17"/>
       <c r="CZ38" s="17"/>
       <c r="DA38" s="17"/>
@@ -29421,10 +29498,10 @@
       <c r="CI39" s="3"/>
       <c r="CJ39" s="3"/>
       <c r="CK39" s="3"/>
-      <c r="CL39" s="3"/>
-      <c r="CM39" s="3"/>
-      <c r="CN39" s="3"/>
-      <c r="CO39" s="3"/>
+      <c r="CL39" s="21"/>
+      <c r="CM39" s="21"/>
+      <c r="CN39" s="21"/>
+      <c r="CO39" s="21"/>
       <c r="CP39" s="21"/>
       <c r="CQ39" s="21"/>
       <c r="CR39" s="21"/>
@@ -29433,6 +29510,7 @@
       <c r="CU39" s="21"/>
       <c r="CV39" s="21"/>
       <c r="CW39" s="21"/>
+      <c r="CX39" s="21"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29526,10 +29604,10 @@
       <c r="CI40" s="3"/>
       <c r="CJ40" s="3"/>
       <c r="CK40" s="3"/>
-      <c r="CL40" s="3"/>
-      <c r="CM40" s="3"/>
-      <c r="CN40" s="3"/>
-      <c r="CO40" s="3"/>
+      <c r="CL40" s="21"/>
+      <c r="CM40" s="21"/>
+      <c r="CN40" s="21"/>
+      <c r="CO40" s="21"/>
       <c r="CP40" s="21"/>
       <c r="CQ40" s="21"/>
       <c r="CR40" s="21"/>
@@ -29538,10 +29616,11 @@
       <c r="CU40" s="21"/>
       <c r="CV40" s="21"/>
       <c r="CW40" s="21"/>
+      <c r="CX40" s="21"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29631,10 +29710,10 @@
       <c r="CI41" s="3"/>
       <c r="CJ41" s="3"/>
       <c r="CK41" s="3"/>
-      <c r="CL41" s="3"/>
-      <c r="CM41" s="3"/>
-      <c r="CN41" s="3"/>
-      <c r="CO41" s="3"/>
+      <c r="CL41" s="21"/>
+      <c r="CM41" s="21"/>
+      <c r="CN41" s="21"/>
+      <c r="CO41" s="21"/>
       <c r="CP41" s="21"/>
       <c r="CQ41" s="21"/>
       <c r="CR41" s="21"/>
@@ -29643,6 +29722,7 @@
       <c r="CU41" s="21"/>
       <c r="CV41" s="21"/>
       <c r="CW41" s="21"/>
+      <c r="CX41" s="21"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29734,10 +29814,10 @@
       <c r="CI42" s="3"/>
       <c r="CJ42" s="3"/>
       <c r="CK42" s="3"/>
-      <c r="CL42" s="3"/>
-      <c r="CM42" s="3"/>
-      <c r="CN42" s="3"/>
-      <c r="CO42" s="3"/>
+      <c r="CL42" s="21"/>
+      <c r="CM42" s="21"/>
+      <c r="CN42" s="21"/>
+      <c r="CO42" s="21"/>
       <c r="CP42" s="21"/>
       <c r="CQ42" s="21"/>
       <c r="CR42" s="21"/>
@@ -29746,6 +29826,7 @@
       <c r="CU42" s="33"/>
       <c r="CV42" s="33"/>
       <c r="CW42" s="33"/>
+      <c r="CX42" s="33"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29839,10 +29920,10 @@
       <c r="CI43" s="3"/>
       <c r="CJ43" s="3"/>
       <c r="CK43" s="3"/>
-      <c r="CL43" s="3"/>
-      <c r="CM43" s="3"/>
-      <c r="CN43" s="3"/>
-      <c r="CO43" s="3"/>
+      <c r="CL43" s="21"/>
+      <c r="CM43" s="21"/>
+      <c r="CN43" s="21"/>
+      <c r="CO43" s="21"/>
       <c r="CP43" s="21"/>
       <c r="CQ43" s="21"/>
       <c r="CR43" s="21"/>
@@ -29851,10 +29932,11 @@
       <c r="CU43" s="33"/>
       <c r="CV43" s="33"/>
       <c r="CW43" s="33"/>
+      <c r="CX43" s="33"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -29936,6 +30018,10 @@
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
+      <c r="CL44" s="20"/>
+      <c r="CM44" s="20"/>
+      <c r="CN44" s="20"/>
+      <c r="CO44" s="20"/>
       <c r="CP44" s="20"/>
       <c r="CQ44" s="20"/>
       <c r="CR44" s="20"/>
@@ -29944,6 +30030,7 @@
       <c r="CU44" s="34"/>
       <c r="CV44" s="34"/>
       <c r="CW44" s="34"/>
+      <c r="CX44" s="34"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -30029,14 +30116,19 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
+      <c r="CL45" s="20"/>
+      <c r="CM45" s="20"/>
+      <c r="CN45" s="20"/>
+      <c r="CO45" s="20"/>
       <c r="CP45" s="20"/>
       <c r="CQ45" s="20"/>
       <c r="CR45" s="20"/>
       <c r="CS45" s="20"/>
-      <c r="CT45" s="34"/>
+      <c r="CT45" s="20"/>
       <c r="CU45" s="34"/>
       <c r="CV45" s="34"/>
       <c r="CW45" s="34"/>
+      <c r="CX45" s="34"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -30128,18 +30220,19 @@
       <c r="CI46" s="3"/>
       <c r="CJ46" s="3"/>
       <c r="CK46" s="3"/>
-      <c r="CL46" s="3"/>
-      <c r="CM46" s="3"/>
-      <c r="CN46" s="3"/>
-      <c r="CO46" s="3"/>
+      <c r="CL46" s="21"/>
+      <c r="CM46" s="21"/>
+      <c r="CN46" s="21"/>
+      <c r="CO46" s="21"/>
       <c r="CP46" s="21"/>
       <c r="CQ46" s="21"/>
       <c r="CR46" s="21"/>
       <c r="CS46" s="21"/>
-      <c r="CT46" s="33"/>
+      <c r="CT46" s="21"/>
       <c r="CU46" s="33"/>
       <c r="CV46" s="33"/>
       <c r="CW46" s="33"/>
+      <c r="CX46" s="33"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -30275,22 +30368,25 @@
       <c r="CI47" s="19"/>
       <c r="CJ47" s="19"/>
       <c r="CK47" s="19"/>
-      <c r="CL47" s="19" t="s">
+      <c r="CL47" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="19"/>
-      <c r="CN47" s="19"/>
-      <c r="CO47" s="19"/>
+      <c r="CM47" s="22"/>
+      <c r="CN47" s="22"/>
+      <c r="CO47" s="22"/>
       <c r="CP47" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CQ47" s="22"/>
       <c r="CR47" s="22"/>
       <c r="CS47" s="22"/>
-      <c r="CT47" s="28"/>
+      <c r="CT47" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="CU47" s="28"/>
       <c r="CV47" s="28"/>
       <c r="CW47" s="28"/>
+      <c r="CX47" s="28"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30560,16 +30656,16 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5" t="s">
+      <c r="CL48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5" t="s">
+      <c r="CM48" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="5" t="s">
+      <c r="CN48" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="5" t="s">
+      <c r="CO48" s="29" t="s">
         <v>9</v>
       </c>
       <c r="CP48" s="29" t="s">
@@ -30584,10 +30680,13 @@
       <c r="CS48" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CT48" s="29"/>
+      <c r="CT48" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="CU48" s="29"/>
       <c r="CV48" s="29"/>
       <c r="CW48" s="29"/>
+      <c r="CX48" s="29"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30679,18 +30778,19 @@
       <c r="CI49" s="3"/>
       <c r="CJ49" s="3"/>
       <c r="CK49" s="3"/>
-      <c r="CL49" s="3"/>
-      <c r="CM49" s="3"/>
-      <c r="CN49" s="3"/>
-      <c r="CO49" s="3"/>
+      <c r="CL49" s="21"/>
+      <c r="CM49" s="21"/>
+      <c r="CN49" s="21"/>
+      <c r="CO49" s="21"/>
       <c r="CP49" s="21"/>
       <c r="CQ49" s="21"/>
       <c r="CR49" s="21"/>
       <c r="CS49" s="21"/>
-      <c r="CT49" s="33"/>
+      <c r="CT49" s="21"/>
       <c r="CU49" s="33"/>
       <c r="CV49" s="33"/>
       <c r="CW49" s="33"/>
+      <c r="CX49" s="33"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -30960,35 +31060,37 @@
       <c r="CK50" s="12">
         <v>14.937283117584684</v>
       </c>
-      <c r="CL50" s="12">
-        <v>8.9045740817916794</v>
-      </c>
-      <c r="CM50" s="12">
-        <v>9.6472388899466921</v>
-      </c>
-      <c r="CN50" s="12">
-        <v>8.4992849367631891</v>
-      </c>
-      <c r="CO50" s="12">
-        <v>11.181952903747458</v>
+      <c r="CL50" s="30">
+        <v>8.2060190850028221</v>
+      </c>
+      <c r="CM50" s="30">
+        <v>8.796081916976604</v>
+      </c>
+      <c r="CN50" s="30">
+        <v>7.5663561826010834</v>
+      </c>
+      <c r="CO50" s="30">
+        <v>10.002792501671891</v>
       </c>
       <c r="CP50" s="30">
-        <v>3.7021790060269808</v>
+        <v>6.5433918516505827</v>
       </c>
       <c r="CQ50" s="30">
         <v>2.1540991962020399</v>
       </c>
       <c r="CR50" s="30">
-        <v>7.3937969335400311</v>
+        <v>7.3579613047331804</v>
       </c>
       <c r="CS50" s="30">
-        <v>8.9028647465860331</v>
-      </c>
-      <c r="CT50" s="35"/>
+        <v>10.180165503118673</v>
+      </c>
+      <c r="CT50" s="30">
+        <v>11.480367005094209</v>
+      </c>
       <c r="CU50" s="35"/>
       <c r="CV50" s="35"/>
       <c r="CW50" s="35"/>
-      <c r="CX50" s="17"/>
+      <c r="CX50" s="35"/>
       <c r="CY50" s="17"/>
       <c r="CZ50" s="17"/>
       <c r="DA50" s="17"/>
@@ -31307,35 +31409,37 @@
       <c r="CK51" s="12">
         <v>9.3458251903547591</v>
       </c>
-      <c r="CL51" s="12">
-        <v>14.951468621725141</v>
-      </c>
-      <c r="CM51" s="12">
-        <v>14.563484354497419</v>
-      </c>
-      <c r="CN51" s="12">
-        <v>12.53683547790105</v>
-      </c>
-      <c r="CO51" s="12">
-        <v>14.304083598147272</v>
+      <c r="CL51" s="30">
+        <v>15.077820308715189</v>
+      </c>
+      <c r="CM51" s="30">
+        <v>14.918079537847234</v>
+      </c>
+      <c r="CN51" s="30">
+        <v>11.438058902138252</v>
+      </c>
+      <c r="CO51" s="30">
+        <v>12.903705107622216</v>
       </c>
       <c r="CP51" s="30">
-        <v>15.162376205617377</v>
+        <v>14.80471860668915</v>
       </c>
       <c r="CQ51" s="30">
-        <v>15.097351515061263</v>
+        <v>14.909409048235034</v>
       </c>
       <c r="CR51" s="30">
-        <v>12.297175847709113</v>
+        <v>12.33211127162825</v>
       </c>
       <c r="CS51" s="30">
-        <v>13.078844331185309</v>
-      </c>
-      <c r="CT51" s="35"/>
+        <v>12.365882923431926</v>
+      </c>
+      <c r="CT51" s="30">
+        <v>12.876854388070356</v>
+      </c>
       <c r="CU51" s="35"/>
       <c r="CV51" s="35"/>
       <c r="CW51" s="35"/>
-      <c r="CX51" s="17"/>
+      <c r="CX51" s="35"/>
       <c r="CY51" s="17"/>
       <c r="CZ51" s="17"/>
       <c r="DA51" s="17"/>
@@ -31476,19 +31580,19 @@
       <c r="CI52" s="11"/>
       <c r="CJ52" s="11"/>
       <c r="CK52" s="11"/>
-      <c r="CL52" s="11"/>
-      <c r="CM52" s="11"/>
-      <c r="CN52" s="11"/>
-      <c r="CO52" s="11"/>
+      <c r="CL52" s="25"/>
+      <c r="CM52" s="25"/>
+      <c r="CN52" s="25"/>
+      <c r="CO52" s="25"/>
       <c r="CP52" s="25"/>
       <c r="CQ52" s="25"/>
       <c r="CR52" s="25"/>
       <c r="CS52" s="25"/>
-      <c r="CT52" s="36"/>
+      <c r="CT52" s="25"/>
       <c r="CU52" s="36"/>
       <c r="CV52" s="36"/>
       <c r="CW52" s="36"/>
-      <c r="CX52" s="17"/>
+      <c r="CX52" s="36"/>
       <c r="CY52" s="17"/>
       <c r="CZ52" s="17"/>
       <c r="DA52" s="17"/>
@@ -31807,35 +31911,37 @@
       <c r="CK53" s="12">
         <v>13.192514291265951</v>
       </c>
-      <c r="CL53" s="12">
-        <v>10.671284700872306</v>
-      </c>
-      <c r="CM53" s="12">
-        <v>10.968986187478563</v>
-      </c>
-      <c r="CN53" s="12">
-        <v>9.8194030733779698</v>
-      </c>
-      <c r="CO53" s="12">
-        <v>12.123080287688339</v>
+      <c r="CL53" s="30">
+        <v>10.213741249490482</v>
+      </c>
+      <c r="CM53" s="30">
+        <v>10.441999288114573</v>
+      </c>
+      <c r="CN53" s="30">
+        <v>8.8322486903395543</v>
+      </c>
+      <c r="CO53" s="30">
+        <v>10.877236450087054</v>
       </c>
       <c r="CP53" s="30">
-        <v>7.1799796902835169</v>
+        <v>9.0636133230177478</v>
       </c>
       <c r="CQ53" s="30">
-        <v>5.7466497269210919</v>
+        <v>5.7223878994491599</v>
       </c>
       <c r="CR53" s="30">
-        <v>9.0366771542533399</v>
+        <v>9.0232503944305051</v>
       </c>
       <c r="CS53" s="30">
-        <v>10.186147695916475</v>
-      </c>
-      <c r="CT53" s="35"/>
+        <v>10.851064505769784</v>
+      </c>
+      <c r="CT53" s="30">
+        <v>11.928808488145435</v>
+      </c>
       <c r="CU53" s="35"/>
       <c r="CV53" s="35"/>
       <c r="CW53" s="35"/>
-      <c r="CX53" s="17"/>
+      <c r="CX53" s="35"/>
       <c r="CY53" s="17"/>
       <c r="CZ53" s="17"/>
       <c r="DA53" s="17"/>
@@ -31976,18 +32082,19 @@
       <c r="CI54" s="9"/>
       <c r="CJ54" s="9"/>
       <c r="CK54" s="9"/>
-      <c r="CL54" s="9"/>
-      <c r="CM54" s="9"/>
-      <c r="CN54" s="9"/>
-      <c r="CO54" s="9"/>
+      <c r="CL54" s="27"/>
+      <c r="CM54" s="27"/>
+      <c r="CN54" s="27"/>
+      <c r="CO54" s="27"/>
       <c r="CP54" s="27"/>
       <c r="CQ54" s="27"/>
       <c r="CR54" s="27"/>
       <c r="CS54" s="27"/>
-      <c r="CT54" s="23"/>
+      <c r="CT54" s="27"/>
       <c r="CU54" s="23"/>
       <c r="CV54" s="23"/>
       <c r="CW54" s="23"/>
+      <c r="CX54" s="23"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -32081,18 +32188,19 @@
       <c r="CI55" s="3"/>
       <c r="CJ55" s="3"/>
       <c r="CK55" s="3"/>
-      <c r="CL55" s="3"/>
-      <c r="CM55" s="3"/>
-      <c r="CN55" s="3"/>
-      <c r="CO55" s="3"/>
+      <c r="CL55" s="21"/>
+      <c r="CM55" s="21"/>
+      <c r="CN55" s="21"/>
+      <c r="CO55" s="21"/>
       <c r="CP55" s="21"/>
       <c r="CQ55" s="21"/>
       <c r="CR55" s="21"/>
       <c r="CS55" s="21"/>
-      <c r="CT55" s="33"/>
+      <c r="CT55" s="21"/>
       <c r="CU55" s="33"/>
       <c r="CV55" s="33"/>
       <c r="CW55" s="33"/>
+      <c r="CX55" s="33"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -32183,19 +32291,19 @@
       <c r="CI56" s="11"/>
       <c r="CJ56" s="11"/>
       <c r="CK56" s="11"/>
-      <c r="CL56" s="11"/>
-      <c r="CM56" s="11"/>
-      <c r="CN56" s="11"/>
-      <c r="CO56" s="11"/>
+      <c r="CL56" s="25"/>
+      <c r="CM56" s="25"/>
+      <c r="CN56" s="25"/>
+      <c r="CO56" s="25"/>
       <c r="CP56" s="25"/>
       <c r="CQ56" s="25"/>
       <c r="CR56" s="25"/>
       <c r="CS56" s="25"/>
-      <c r="CT56" s="36"/>
+      <c r="CT56" s="25"/>
       <c r="CU56" s="36"/>
       <c r="CV56" s="36"/>
       <c r="CW56" s="36"/>
-      <c r="CX56" s="17"/>
+      <c r="CX56" s="36"/>
       <c r="CY56" s="17"/>
       <c r="CZ56" s="17"/>
       <c r="DA56" s="17"/>
@@ -32335,19 +32443,19 @@
       <c r="CI57" s="11"/>
       <c r="CJ57" s="11"/>
       <c r="CK57" s="11"/>
-      <c r="CL57" s="11"/>
-      <c r="CM57" s="11"/>
-      <c r="CN57" s="11"/>
-      <c r="CO57" s="11"/>
+      <c r="CL57" s="25"/>
+      <c r="CM57" s="25"/>
+      <c r="CN57" s="25"/>
+      <c r="CO57" s="25"/>
       <c r="CP57" s="25"/>
       <c r="CQ57" s="25"/>
       <c r="CR57" s="25"/>
       <c r="CS57" s="25"/>
-      <c r="CT57" s="36"/>
+      <c r="CT57" s="25"/>
       <c r="CU57" s="36"/>
       <c r="CV57" s="36"/>
       <c r="CW57" s="36"/>
-      <c r="CX57" s="17"/>
+      <c r="CX57" s="36"/>
       <c r="CY57" s="17"/>
       <c r="CZ57" s="17"/>
       <c r="DA57" s="17"/>
@@ -32490,18 +32598,19 @@
       <c r="CI58" s="3"/>
       <c r="CJ58" s="3"/>
       <c r="CK58" s="3"/>
-      <c r="CL58" s="3"/>
-      <c r="CM58" s="3"/>
-      <c r="CN58" s="3"/>
-      <c r="CO58" s="3"/>
+      <c r="CL58" s="21"/>
+      <c r="CM58" s="21"/>
+      <c r="CN58" s="21"/>
+      <c r="CO58" s="21"/>
       <c r="CP58" s="21"/>
       <c r="CQ58" s="21"/>
       <c r="CR58" s="21"/>
       <c r="CS58" s="21"/>
-      <c r="CT58" s="33"/>
+      <c r="CT58" s="21"/>
       <c r="CU58" s="33"/>
       <c r="CV58" s="33"/>
       <c r="CW58" s="33"/>
+      <c r="CX58" s="33"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32595,22 +32704,23 @@
       <c r="CI59" s="3"/>
       <c r="CJ59" s="3"/>
       <c r="CK59" s="3"/>
-      <c r="CL59" s="3"/>
-      <c r="CM59" s="3"/>
-      <c r="CN59" s="3"/>
-      <c r="CO59" s="3"/>
+      <c r="CL59" s="21"/>
+      <c r="CM59" s="21"/>
+      <c r="CN59" s="21"/>
+      <c r="CO59" s="21"/>
       <c r="CP59" s="21"/>
       <c r="CQ59" s="21"/>
       <c r="CR59" s="21"/>
       <c r="CS59" s="21"/>
-      <c r="CT59" s="33"/>
+      <c r="CT59" s="21"/>
       <c r="CU59" s="33"/>
       <c r="CV59" s="33"/>
       <c r="CW59" s="33"/>
+      <c r="CX59" s="33"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32700,18 +32810,19 @@
       <c r="CI60" s="3"/>
       <c r="CJ60" s="3"/>
       <c r="CK60" s="3"/>
-      <c r="CL60" s="3"/>
-      <c r="CM60" s="3"/>
-      <c r="CN60" s="3"/>
-      <c r="CO60" s="3"/>
+      <c r="CL60" s="21"/>
+      <c r="CM60" s="21"/>
+      <c r="CN60" s="21"/>
+      <c r="CO60" s="21"/>
       <c r="CP60" s="21"/>
       <c r="CQ60" s="21"/>
       <c r="CR60" s="21"/>
       <c r="CS60" s="21"/>
-      <c r="CT60" s="33"/>
+      <c r="CT60" s="21"/>
       <c r="CU60" s="33"/>
       <c r="CV60" s="33"/>
       <c r="CW60" s="33"/>
+      <c r="CX60" s="33"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32803,18 +32914,19 @@
       <c r="CI61" s="3"/>
       <c r="CJ61" s="3"/>
       <c r="CK61" s="3"/>
-      <c r="CL61" s="3"/>
-      <c r="CM61" s="3"/>
-      <c r="CN61" s="3"/>
-      <c r="CO61" s="3"/>
+      <c r="CL61" s="21"/>
+      <c r="CM61" s="21"/>
+      <c r="CN61" s="21"/>
+      <c r="CO61" s="21"/>
       <c r="CP61" s="21"/>
       <c r="CQ61" s="21"/>
       <c r="CR61" s="21"/>
       <c r="CS61" s="21"/>
-      <c r="CT61" s="33"/>
+      <c r="CT61" s="21"/>
       <c r="CU61" s="33"/>
       <c r="CV61" s="33"/>
       <c r="CW61" s="33"/>
+      <c r="CX61" s="33"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -32908,22 +33020,23 @@
       <c r="CI62" s="3"/>
       <c r="CJ62" s="3"/>
       <c r="CK62" s="3"/>
-      <c r="CL62" s="3"/>
-      <c r="CM62" s="3"/>
-      <c r="CN62" s="3"/>
-      <c r="CO62" s="3"/>
+      <c r="CL62" s="21"/>
+      <c r="CM62" s="21"/>
+      <c r="CN62" s="21"/>
+      <c r="CO62" s="21"/>
       <c r="CP62" s="21"/>
       <c r="CQ62" s="21"/>
       <c r="CR62" s="21"/>
       <c r="CS62" s="21"/>
-      <c r="CT62" s="33"/>
+      <c r="CT62" s="21"/>
       <c r="CU62" s="33"/>
       <c r="CV62" s="33"/>
       <c r="CW62" s="33"/>
+      <c r="CX62" s="33"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -33013,18 +33126,19 @@
       <c r="CI63" s="3"/>
       <c r="CJ63" s="3"/>
       <c r="CK63" s="3"/>
-      <c r="CL63" s="3"/>
-      <c r="CM63" s="3"/>
-      <c r="CN63" s="3"/>
-      <c r="CO63" s="3"/>
+      <c r="CL63" s="21"/>
+      <c r="CM63" s="21"/>
+      <c r="CN63" s="21"/>
+      <c r="CO63" s="21"/>
       <c r="CP63" s="21"/>
       <c r="CQ63" s="21"/>
       <c r="CR63" s="21"/>
       <c r="CS63" s="21"/>
-      <c r="CT63" s="33"/>
+      <c r="CT63" s="21"/>
       <c r="CU63" s="33"/>
       <c r="CV63" s="33"/>
       <c r="CW63" s="33"/>
+      <c r="CX63" s="33"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -33118,18 +33232,19 @@
       <c r="CI64" s="3"/>
       <c r="CJ64" s="3"/>
       <c r="CK64" s="3"/>
-      <c r="CL64" s="3"/>
-      <c r="CM64" s="3"/>
-      <c r="CN64" s="3"/>
-      <c r="CO64" s="3"/>
+      <c r="CL64" s="21"/>
+      <c r="CM64" s="21"/>
+      <c r="CN64" s="21"/>
+      <c r="CO64" s="21"/>
       <c r="CP64" s="21"/>
       <c r="CQ64" s="21"/>
       <c r="CR64" s="21"/>
       <c r="CS64" s="21"/>
-      <c r="CT64" s="33"/>
+      <c r="CT64" s="21"/>
       <c r="CU64" s="33"/>
       <c r="CV64" s="33"/>
       <c r="CW64" s="33"/>
+      <c r="CX64" s="33"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -33221,18 +33336,19 @@
       <c r="CI65" s="3"/>
       <c r="CJ65" s="3"/>
       <c r="CK65" s="3"/>
-      <c r="CL65" s="3"/>
-      <c r="CM65" s="3"/>
-      <c r="CN65" s="3"/>
-      <c r="CO65" s="3"/>
+      <c r="CL65" s="21"/>
+      <c r="CM65" s="21"/>
+      <c r="CN65" s="21"/>
+      <c r="CO65" s="21"/>
       <c r="CP65" s="21"/>
       <c r="CQ65" s="21"/>
       <c r="CR65" s="21"/>
       <c r="CS65" s="21"/>
-      <c r="CT65" s="33"/>
+      <c r="CT65" s="21"/>
       <c r="CU65" s="33"/>
       <c r="CV65" s="33"/>
       <c r="CW65" s="33"/>
+      <c r="CX65" s="33"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -33368,22 +33484,25 @@
       <c r="CI66" s="19"/>
       <c r="CJ66" s="19"/>
       <c r="CK66" s="19"/>
-      <c r="CL66" s="19" t="s">
+      <c r="CL66" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="19"/>
-      <c r="CN66" s="19"/>
-      <c r="CO66" s="19"/>
+      <c r="CM66" s="22"/>
+      <c r="CN66" s="22"/>
+      <c r="CO66" s="22"/>
       <c r="CP66" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CQ66" s="22"/>
       <c r="CR66" s="22"/>
       <c r="CS66" s="22"/>
-      <c r="CT66" s="28"/>
+      <c r="CT66" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="CU66" s="28"/>
       <c r="CV66" s="28"/>
       <c r="CW66" s="28"/>
+      <c r="CX66" s="28"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33653,16 +33772,16 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5" t="s">
+      <c r="CL67" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5" t="s">
+      <c r="CM67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="5" t="s">
+      <c r="CN67" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="5" t="s">
+      <c r="CO67" s="29" t="s">
         <v>9</v>
       </c>
       <c r="CP67" s="29" t="s">
@@ -33677,10 +33796,13 @@
       <c r="CS67" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CT67" s="29"/>
+      <c r="CT67" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="CU67" s="29"/>
       <c r="CV67" s="29"/>
       <c r="CW67" s="29"/>
+      <c r="CX67" s="29"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33772,18 +33894,19 @@
       <c r="CI68" s="3"/>
       <c r="CJ68" s="3"/>
       <c r="CK68" s="3"/>
-      <c r="CL68" s="3"/>
-      <c r="CM68" s="3"/>
-      <c r="CN68" s="3"/>
-      <c r="CO68" s="3"/>
+      <c r="CL68" s="21"/>
+      <c r="CM68" s="21"/>
+      <c r="CN68" s="21"/>
+      <c r="CO68" s="21"/>
       <c r="CP68" s="21"/>
       <c r="CQ68" s="21"/>
       <c r="CR68" s="21"/>
       <c r="CS68" s="21"/>
-      <c r="CT68" s="33"/>
+      <c r="CT68" s="21"/>
       <c r="CU68" s="33"/>
       <c r="CV68" s="33"/>
       <c r="CW68" s="33"/>
+      <c r="CX68" s="33"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -34053,35 +34176,37 @@
       <c r="CK69" s="12">
         <v>11.243201702289412</v>
       </c>
-      <c r="CL69" s="12">
-        <v>4.9915013343150036</v>
-      </c>
-      <c r="CM69" s="12">
-        <v>5.2263007550360072</v>
-      </c>
-      <c r="CN69" s="12">
-        <v>4.9814191127157841</v>
-      </c>
-      <c r="CO69" s="12">
-        <v>7.2224800437344214</v>
+      <c r="CL69" s="30">
+        <v>4.3542200451564383</v>
+      </c>
+      <c r="CM69" s="30">
+        <v>4.2287484859465252</v>
+      </c>
+      <c r="CN69" s="30">
+        <v>3.7900287196482623</v>
+      </c>
+      <c r="CO69" s="30">
+        <v>5.8093533399945301</v>
       </c>
       <c r="CP69" s="30">
-        <v>0.62225790178607099</v>
+        <v>3.0767224646506719</v>
       </c>
       <c r="CQ69" s="30">
-        <v>-1.5327228469563039</v>
+        <v>-1.5032634400494231</v>
       </c>
       <c r="CR69" s="30">
-        <v>3.300776975934852</v>
+        <v>3.3007769759348093</v>
       </c>
       <c r="CS69" s="30">
-        <v>5.5403878689953387</v>
-      </c>
-      <c r="CT69" s="35"/>
+        <v>6.8110121512122959</v>
+      </c>
+      <c r="CT69" s="30">
+        <v>6.9924965140044151</v>
+      </c>
       <c r="CU69" s="35"/>
       <c r="CV69" s="35"/>
       <c r="CW69" s="35"/>
-      <c r="CX69" s="17"/>
+      <c r="CX69" s="35"/>
       <c r="CY69" s="17"/>
       <c r="CZ69" s="17"/>
       <c r="DA69" s="17"/>
@@ -34400,35 +34525,37 @@
       <c r="CK70" s="12">
         <v>6.4268511223183822</v>
       </c>
-      <c r="CL70" s="12">
-        <v>10.948241610702624</v>
-      </c>
-      <c r="CM70" s="12">
-        <v>10.708103593819175</v>
-      </c>
-      <c r="CN70" s="12">
-        <v>8.8297397209819337</v>
-      </c>
-      <c r="CO70" s="12">
-        <v>9.769839053307507</v>
+      <c r="CL70" s="30">
+        <v>11.070161898598613</v>
+      </c>
+      <c r="CM70" s="30">
+        <v>11.050765660300058</v>
+      </c>
+      <c r="CN70" s="30">
+        <v>7.7671581383030883</v>
+      </c>
+      <c r="CO70" s="30">
+        <v>8.4250111462042838</v>
       </c>
       <c r="CP70" s="30">
-        <v>10.245405050388001</v>
+        <v>9.9031016188410774</v>
       </c>
       <c r="CQ70" s="30">
-        <v>10.240039073964709</v>
+        <v>10.060028112688443</v>
       </c>
       <c r="CR70" s="30">
-        <v>5.7516326852105095</v>
+        <v>5.7845318039115199</v>
       </c>
       <c r="CS70" s="30">
-        <v>7.5642347851484999</v>
-      </c>
-      <c r="CT70" s="35"/>
+        <v>6.8860429561646868</v>
+      </c>
+      <c r="CT70" s="30">
+        <v>7.6294071015714735</v>
+      </c>
       <c r="CU70" s="35"/>
       <c r="CV70" s="35"/>
       <c r="CW70" s="35"/>
-      <c r="CX70" s="17"/>
+      <c r="CX70" s="35"/>
       <c r="CY70" s="17"/>
       <c r="CZ70" s="17"/>
       <c r="DA70" s="17"/>
@@ -34568,19 +34695,19 @@
       <c r="CI71" s="11"/>
       <c r="CJ71" s="11"/>
       <c r="CK71" s="11"/>
-      <c r="CL71" s="11"/>
-      <c r="CM71" s="11"/>
-      <c r="CN71" s="11"/>
-      <c r="CO71" s="11"/>
+      <c r="CL71" s="25"/>
+      <c r="CM71" s="25"/>
+      <c r="CN71" s="25"/>
+      <c r="CO71" s="25"/>
       <c r="CP71" s="25"/>
       <c r="CQ71" s="25"/>
       <c r="CR71" s="25"/>
       <c r="CS71" s="25"/>
-      <c r="CT71" s="36"/>
+      <c r="CT71" s="25"/>
       <c r="CU71" s="36"/>
       <c r="CV71" s="36"/>
       <c r="CW71" s="36"/>
-      <c r="CX71" s="17"/>
+      <c r="CX71" s="36"/>
       <c r="CY71" s="17"/>
       <c r="CZ71" s="17"/>
       <c r="DA71" s="17"/>
@@ -34899,35 +35026,37 @@
       <c r="CK72" s="12">
         <v>9.6258542563679299</v>
       </c>
-      <c r="CL72" s="12">
-        <v>6.8376081106203088</v>
-      </c>
-      <c r="CM72" s="12">
-        <v>6.7735368708146524</v>
-      </c>
-      <c r="CN72" s="12">
-        <v>6.2507749240900949</v>
-      </c>
-      <c r="CO72" s="12">
-        <v>8.052930281622622</v>
+      <c r="CL72" s="30">
+        <v>6.4356177878209593</v>
+      </c>
+      <c r="CM72" s="30">
+        <v>6.1542594291611294</v>
+      </c>
+      <c r="CN72" s="30">
+        <v>5.1018716906609427</v>
+      </c>
+      <c r="CO72" s="30">
+        <v>6.6620692858968766</v>
       </c>
       <c r="CP72" s="30">
-        <v>3.7194029544227902</v>
+        <v>5.284467810419784</v>
       </c>
       <c r="CQ72" s="30">
-        <v>1.9125793946241885</v>
+        <v>1.9110138631643281</v>
       </c>
       <c r="CR72" s="30">
-        <v>4.1288056130867119</v>
+        <v>4.1408109169785519</v>
       </c>
       <c r="CS72" s="30">
-        <v>6.2106544950157883</v>
-      </c>
-      <c r="CT72" s="35"/>
+        <v>6.8358768117220876</v>
+      </c>
+      <c r="CT72" s="30">
+        <v>7.2075184078216097</v>
+      </c>
       <c r="CU72" s="35"/>
       <c r="CV72" s="35"/>
       <c r="CW72" s="35"/>
-      <c r="CX72" s="17"/>
+      <c r="CX72" s="35"/>
       <c r="CY72" s="17"/>
       <c r="CZ72" s="17"/>
       <c r="DA72" s="17"/>
@@ -35068,18 +35197,19 @@
       <c r="CI73" s="9"/>
       <c r="CJ73" s="9"/>
       <c r="CK73" s="9"/>
-      <c r="CL73" s="9"/>
-      <c r="CM73" s="9"/>
-      <c r="CN73" s="9"/>
-      <c r="CO73" s="9"/>
+      <c r="CL73" s="27"/>
+      <c r="CM73" s="27"/>
+      <c r="CN73" s="27"/>
+      <c r="CO73" s="27"/>
       <c r="CP73" s="27"/>
       <c r="CQ73" s="27"/>
       <c r="CR73" s="27"/>
       <c r="CS73" s="27"/>
-      <c r="CT73" s="23"/>
+      <c r="CT73" s="27"/>
       <c r="CU73" s="23"/>
       <c r="CV73" s="23"/>
       <c r="CW73" s="23"/>
+      <c r="CX73" s="23"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -35173,18 +35303,19 @@
       <c r="CI74" s="3"/>
       <c r="CJ74" s="3"/>
       <c r="CK74" s="3"/>
-      <c r="CL74" s="3"/>
-      <c r="CM74" s="3"/>
-      <c r="CN74" s="3"/>
-      <c r="CO74" s="3"/>
+      <c r="CL74" s="21"/>
+      <c r="CM74" s="21"/>
+      <c r="CN74" s="21"/>
+      <c r="CO74" s="21"/>
       <c r="CP74" s="21"/>
       <c r="CQ74" s="21"/>
       <c r="CR74" s="21"/>
       <c r="CS74" s="21"/>
-      <c r="CT74" s="33"/>
+      <c r="CT74" s="21"/>
       <c r="CU74" s="33"/>
       <c r="CV74" s="33"/>
       <c r="CW74" s="33"/>
+      <c r="CX74" s="33"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -35275,19 +35406,19 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="17"/>
       <c r="CK75" s="17"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="17"/>
-      <c r="CO75" s="17"/>
+      <c r="CL75" s="25"/>
+      <c r="CM75" s="25"/>
+      <c r="CN75" s="31"/>
+      <c r="CO75" s="31"/>
       <c r="CP75" s="25"/>
       <c r="CQ75" s="25"/>
       <c r="CR75" s="31"/>
       <c r="CS75" s="31"/>
-      <c r="CT75" s="36"/>
+      <c r="CT75" s="25"/>
       <c r="CU75" s="36"/>
       <c r="CV75" s="37"/>
       <c r="CW75" s="37"/>
-      <c r="CX75" s="17"/>
+      <c r="CX75" s="36"/>
       <c r="CY75" s="17"/>
       <c r="CZ75" s="17"/>
       <c r="DA75" s="17"/>
@@ -35427,10 +35558,10 @@
       <c r="CI76" s="17"/>
       <c r="CJ76" s="17"/>
       <c r="CK76" s="17"/>
-      <c r="CL76" s="17"/>
-      <c r="CM76" s="17"/>
-      <c r="CN76" s="17"/>
-      <c r="CO76" s="17"/>
+      <c r="CL76" s="31"/>
+      <c r="CM76" s="31"/>
+      <c r="CN76" s="31"/>
+      <c r="CO76" s="31"/>
       <c r="CP76" s="31"/>
       <c r="CQ76" s="31"/>
       <c r="CR76" s="31"/>
@@ -35439,7 +35570,7 @@
       <c r="CU76" s="31"/>
       <c r="CV76" s="31"/>
       <c r="CW76" s="31"/>
-      <c r="CX76" s="17"/>
+      <c r="CX76" s="31"/>
       <c r="CY76" s="17"/>
       <c r="CZ76" s="17"/>
       <c r="DA76" s="17"/>
@@ -35574,6 +35705,10 @@
       <c r="CA77" s="3"/>
       <c r="CB77" s="3"/>
       <c r="CC77" s="3"/>
+      <c r="CL77" s="20"/>
+      <c r="CM77" s="20"/>
+      <c r="CN77" s="20"/>
+      <c r="CO77" s="20"/>
       <c r="CP77" s="20"/>
       <c r="CQ77" s="20"/>
       <c r="CR77" s="20"/>
@@ -35582,10 +35717,11 @@
       <c r="CU77" s="20"/>
       <c r="CV77" s="20"/>
       <c r="CW77" s="20"/>
+      <c r="CX77" s="20"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -35667,6 +35803,10 @@
       <c r="CA78" s="3"/>
       <c r="CB78" s="3"/>
       <c r="CC78" s="3"/>
+      <c r="CL78" s="20"/>
+      <c r="CM78" s="20"/>
+      <c r="CN78" s="20"/>
+      <c r="CO78" s="20"/>
       <c r="CP78" s="20"/>
       <c r="CQ78" s="20"/>
       <c r="CR78" s="20"/>
@@ -35675,6 +35815,7 @@
       <c r="CU78" s="20"/>
       <c r="CV78" s="20"/>
       <c r="CW78" s="20"/>
+      <c r="CX78" s="20"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35758,6 +35899,10 @@
       <c r="CA79" s="3"/>
       <c r="CB79" s="3"/>
       <c r="CC79" s="3"/>
+      <c r="CL79" s="20"/>
+      <c r="CM79" s="20"/>
+      <c r="CN79" s="20"/>
+      <c r="CO79" s="20"/>
       <c r="CP79" s="20"/>
       <c r="CQ79" s="20"/>
       <c r="CR79" s="20"/>
@@ -35766,6 +35911,7 @@
       <c r="CU79" s="20"/>
       <c r="CV79" s="20"/>
       <c r="CW79" s="20"/>
+      <c r="CX79" s="20"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -35851,6 +35997,10 @@
       <c r="CA80" s="3"/>
       <c r="CB80" s="3"/>
       <c r="CC80" s="3"/>
+      <c r="CL80" s="20"/>
+      <c r="CM80" s="20"/>
+      <c r="CN80" s="20"/>
+      <c r="CO80" s="20"/>
       <c r="CP80" s="20"/>
       <c r="CQ80" s="20"/>
       <c r="CR80" s="20"/>
@@ -35859,10 +36009,11 @@
       <c r="CU80" s="20"/>
       <c r="CV80" s="20"/>
       <c r="CW80" s="20"/>
+      <c r="CX80" s="20"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -35944,6 +36095,10 @@
       <c r="CA81" s="3"/>
       <c r="CB81" s="3"/>
       <c r="CC81" s="3"/>
+      <c r="CL81" s="20"/>
+      <c r="CM81" s="20"/>
+      <c r="CN81" s="20"/>
+      <c r="CO81" s="20"/>
       <c r="CP81" s="20"/>
       <c r="CQ81" s="20"/>
       <c r="CR81" s="20"/>
@@ -35952,6 +36107,7 @@
       <c r="CU81" s="20"/>
       <c r="CV81" s="20"/>
       <c r="CW81" s="20"/>
+      <c r="CX81" s="20"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -36037,6 +36193,10 @@
       <c r="CA82" s="3"/>
       <c r="CB82" s="3"/>
       <c r="CC82" s="3"/>
+      <c r="CL82" s="20"/>
+      <c r="CM82" s="20"/>
+      <c r="CN82" s="20"/>
+      <c r="CO82" s="20"/>
       <c r="CP82" s="20"/>
       <c r="CQ82" s="20"/>
       <c r="CR82" s="20"/>
@@ -36045,6 +36205,7 @@
       <c r="CU82" s="20"/>
       <c r="CV82" s="20"/>
       <c r="CW82" s="20"/>
+      <c r="CX82" s="20"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -36128,6 +36289,10 @@
       <c r="CA83" s="3"/>
       <c r="CB83" s="3"/>
       <c r="CC83" s="3"/>
+      <c r="CL83" s="20"/>
+      <c r="CM83" s="20"/>
+      <c r="CN83" s="20"/>
+      <c r="CO83" s="20"/>
       <c r="CP83" s="20"/>
       <c r="CQ83" s="20"/>
       <c r="CR83" s="20"/>
@@ -36136,6 +36301,7 @@
       <c r="CU83" s="20"/>
       <c r="CV83" s="20"/>
       <c r="CW83" s="20"/>
+      <c r="CX83" s="20"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
@@ -36271,12 +36437,12 @@
       <c r="CI84" s="19"/>
       <c r="CJ84" s="19"/>
       <c r="CK84" s="19"/>
-      <c r="CL84" s="19">
+      <c r="CL84" s="22">
         <v>2022</v>
       </c>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
+      <c r="CM84" s="22"/>
+      <c r="CN84" s="22"/>
+      <c r="CO84" s="22"/>
       <c r="CP84" s="22">
         <v>2023</v>
       </c>
@@ -36289,6 +36455,9 @@
       <c r="CU84" s="22"/>
       <c r="CV84" s="22"/>
       <c r="CW84" s="22"/>
+      <c r="CX84" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -36558,16 +36727,16 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="6" t="s">
+      <c r="CL85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="6" t="s">
+      <c r="CM85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="6" t="s">
+      <c r="CN85" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="6" t="s">
+      <c r="CO85" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP85" s="23" t="s">
@@ -36593,6 +36762,9 @@
       </c>
       <c r="CW85" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX85" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36677,6 +36849,10 @@
       <c r="CA86" s="3"/>
       <c r="CB86" s="3"/>
       <c r="CC86" s="3"/>
+      <c r="CL86" s="20"/>
+      <c r="CM86" s="20"/>
+      <c r="CN86" s="20"/>
+      <c r="CO86" s="20"/>
       <c r="CP86" s="20"/>
       <c r="CQ86" s="20"/>
       <c r="CR86" s="20"/>
@@ -36685,6 +36861,7 @@
       <c r="CU86" s="20"/>
       <c r="CV86" s="20"/>
       <c r="CW86" s="20"/>
+      <c r="CX86" s="20"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -36954,43 +37131,45 @@
       <c r="CK87" s="12">
         <v>124.54738077603018</v>
       </c>
-      <c r="CL87" s="12">
+      <c r="CL87" s="30">
         <v>106.31873751394869</v>
       </c>
-      <c r="CM87" s="12">
+      <c r="CM87" s="30">
         <v>106.77146085633204</v>
       </c>
-      <c r="CN87" s="12">
+      <c r="CN87" s="30">
         <v>112.02202008486056</v>
       </c>
-      <c r="CO87" s="12">
+      <c r="CO87" s="30">
         <v>128.683257464295</v>
       </c>
       <c r="CP87" s="30">
-        <v>110.28127685308264</v>
+        <v>110.24304848955369</v>
       </c>
       <c r="CQ87" s="30">
-        <v>111.25731676529109</v>
+        <v>111.45021666730486</v>
       </c>
       <c r="CR87" s="30">
-        <v>115.77581232093399</v>
+        <v>116.09786278497758</v>
       </c>
       <c r="CS87" s="30">
-        <v>133.43522613038178</v>
+        <v>133.78323581468732</v>
       </c>
       <c r="CT87" s="30">
-        <v>113.65684841215035</v>
+        <v>113.95073527072145</v>
       </c>
       <c r="CU87" s="30">
-        <v>115.42302480325574</v>
+        <v>115.58856553526999</v>
       </c>
       <c r="CV87" s="30">
-        <v>120.36312254559888</v>
+        <v>120.65765839627221</v>
       </c>
       <c r="CW87" s="30">
-        <v>137.68642201452448</v>
-      </c>
-      <c r="CX87" s="17"/>
+        <v>138.00317745081588</v>
+      </c>
+      <c r="CX87" s="30">
+        <v>118.73047365352025</v>
+      </c>
       <c r="CY87" s="17"/>
       <c r="CZ87" s="17"/>
       <c r="DA87" s="17"/>
@@ -37309,43 +37488,45 @@
       <c r="CK88" s="12">
         <v>111.7369322217173</v>
       </c>
-      <c r="CL88" s="12">
+      <c r="CL88" s="30">
         <v>97.715788312788206</v>
       </c>
-      <c r="CM88" s="12">
+      <c r="CM88" s="30">
         <v>99.840252290607467</v>
       </c>
-      <c r="CN88" s="12">
+      <c r="CN88" s="30">
         <v>110.56546230442498</v>
       </c>
-      <c r="CO88" s="12">
+      <c r="CO88" s="30">
         <v>114.80154612467186</v>
       </c>
       <c r="CP88" s="30">
-        <v>101.24156283159209</v>
+        <v>101.24159122996083</v>
       </c>
       <c r="CQ88" s="30">
-        <v>103.31716297128104</v>
+        <v>103.31716297128106</v>
       </c>
       <c r="CR88" s="30">
-        <v>114.33168243158303</v>
+        <v>114.33168243158305</v>
       </c>
       <c r="CS88" s="30">
         <v>119.54363455938457</v>
       </c>
       <c r="CT88" s="30">
-        <v>105.75696049307066</v>
+        <v>105.75690968903947</v>
       </c>
       <c r="CU88" s="30">
         <v>107.86944493067419</v>
       </c>
       <c r="CV88" s="30">
-        <v>121.40829149373012</v>
+        <v>121.40829149373009</v>
       </c>
       <c r="CW88" s="30">
-        <v>125.67240468103232</v>
-      </c>
-      <c r="CX88" s="17"/>
+        <v>125.67240468103236</v>
+      </c>
+      <c r="CX88" s="30">
+        <v>110.91306378967982</v>
+      </c>
       <c r="CY88" s="17"/>
       <c r="CZ88" s="17"/>
       <c r="DA88" s="17"/>
@@ -37485,10 +37666,10 @@
       <c r="CI89" s="11"/>
       <c r="CJ89" s="11"/>
       <c r="CK89" s="11"/>
-      <c r="CL89" s="11"/>
-      <c r="CM89" s="11"/>
-      <c r="CN89" s="11"/>
-      <c r="CO89" s="11"/>
+      <c r="CL89" s="25"/>
+      <c r="CM89" s="25"/>
+      <c r="CN89" s="25"/>
+      <c r="CO89" s="25"/>
       <c r="CP89" s="25"/>
       <c r="CQ89" s="25"/>
       <c r="CR89" s="25"/>
@@ -37497,7 +37678,7 @@
       <c r="CU89" s="25"/>
       <c r="CV89" s="25"/>
       <c r="CW89" s="25"/>
-      <c r="CX89" s="17"/>
+      <c r="CX89" s="25"/>
       <c r="CY89" s="17"/>
       <c r="CZ89" s="17"/>
       <c r="DA89" s="17"/>
@@ -37816,43 +37997,45 @@
       <c r="CK90" s="12">
         <v>120.24558714485497</v>
       </c>
-      <c r="CL90" s="12">
+      <c r="CL90" s="30">
         <v>103.65252040869257</v>
       </c>
-      <c r="CM90" s="12">
+      <c r="CM90" s="30">
         <v>104.81513069739042</v>
       </c>
-      <c r="CN90" s="12">
+      <c r="CN90" s="30">
         <v>111.54157932344712</v>
       </c>
-      <c r="CO90" s="12">
+      <c r="CO90" s="30">
         <v>124.15775852953077</v>
       </c>
       <c r="CP90" s="30">
-        <v>107.37190582024149</v>
+        <v>107.33185282914171</v>
       </c>
       <c r="CQ90" s="30">
-        <v>108.93362842021526</v>
+        <v>109.04878101089972</v>
       </c>
       <c r="CR90" s="30">
-        <v>115.28790889209321</v>
+        <v>115.50052063745785</v>
       </c>
       <c r="CS90" s="30">
-        <v>128.83454702860234</v>
+        <v>129.06433600770021</v>
       </c>
       <c r="CT90" s="30">
-        <v>110.95434756963951</v>
+        <v>111.18448844020317</v>
       </c>
       <c r="CU90" s="30">
-        <v>113.03183882168248</v>
+        <v>113.12710068291784</v>
       </c>
       <c r="CV90" s="30">
-        <v>120.72173907732106</v>
+        <v>120.91553802268007</v>
       </c>
       <c r="CW90" s="30">
-        <v>133.65685857718023</v>
-      </c>
-      <c r="CX90" s="17"/>
+        <v>133.91493066881594</v>
+      </c>
+      <c r="CX90" s="30">
+        <v>116.08091949424303</v>
+      </c>
       <c r="CY90" s="17"/>
       <c r="CZ90" s="17"/>
       <c r="DA90" s="17"/>
@@ -37993,10 +38176,10 @@
       <c r="CI91" s="9"/>
       <c r="CJ91" s="9"/>
       <c r="CK91" s="9"/>
-      <c r="CL91" s="9"/>
-      <c r="CM91" s="9"/>
-      <c r="CN91" s="9"/>
-      <c r="CO91" s="9"/>
+      <c r="CL91" s="27"/>
+      <c r="CM91" s="27"/>
+      <c r="CN91" s="27"/>
+      <c r="CO91" s="27"/>
       <c r="CP91" s="27"/>
       <c r="CQ91" s="27"/>
       <c r="CR91" s="27"/>
@@ -38005,6 +38188,7 @@
       <c r="CU91" s="27"/>
       <c r="CV91" s="27"/>
       <c r="CW91" s="27"/>
+      <c r="CX91" s="27"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -38090,6 +38274,10 @@
       <c r="CA92" s="3"/>
       <c r="CB92" s="3"/>
       <c r="CC92" s="3"/>
+      <c r="CL92" s="20"/>
+      <c r="CM92" s="20"/>
+      <c r="CN92" s="20"/>
+      <c r="CO92" s="20"/>
       <c r="CP92" s="20"/>
       <c r="CQ92" s="20"/>
       <c r="CR92" s="20"/>
@@ -38098,6 +38286,7 @@
       <c r="CU92" s="20"/>
       <c r="CV92" s="20"/>
       <c r="CW92" s="20"/>
+      <c r="CX92" s="20"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -38188,10 +38377,10 @@
       <c r="CI93" s="3"/>
       <c r="CJ93" s="3"/>
       <c r="CK93" s="3"/>
-      <c r="CL93" s="3"/>
-      <c r="CM93" s="3"/>
-      <c r="CN93" s="3"/>
-      <c r="CO93" s="3"/>
+      <c r="CL93" s="21"/>
+      <c r="CM93" s="21"/>
+      <c r="CN93" s="21"/>
+      <c r="CO93" s="21"/>
       <c r="CP93" s="21"/>
       <c r="CQ93" s="21"/>
       <c r="CR93" s="21"/>
@@ -38200,6 +38389,7 @@
       <c r="CU93" s="21"/>
       <c r="CV93" s="21"/>
       <c r="CW93" s="21"/>
+      <c r="CX93" s="21"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -38290,10 +38480,10 @@
       <c r="CI94" s="3"/>
       <c r="CJ94" s="3"/>
       <c r="CK94" s="3"/>
-      <c r="CL94" s="3"/>
-      <c r="CM94" s="3"/>
-      <c r="CN94" s="3"/>
-      <c r="CO94" s="3"/>
+      <c r="CL94" s="21"/>
+      <c r="CM94" s="21"/>
+      <c r="CN94" s="21"/>
+      <c r="CO94" s="21"/>
       <c r="CP94" s="21"/>
       <c r="CQ94" s="21"/>
       <c r="CR94" s="21"/>
@@ -38302,6 +38492,7 @@
       <c r="CU94" s="21"/>
       <c r="CV94" s="21"/>
       <c r="CW94" s="21"/>
+      <c r="CX94" s="21"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -38395,10 +38586,10 @@
       <c r="CI95" s="3"/>
       <c r="CJ95" s="3"/>
       <c r="CK95" s="3"/>
-      <c r="CL95" s="3"/>
-      <c r="CM95" s="3"/>
-      <c r="CN95" s="3"/>
-      <c r="CO95" s="3"/>
+      <c r="CL95" s="21"/>
+      <c r="CM95" s="21"/>
+      <c r="CN95" s="21"/>
+      <c r="CO95" s="21"/>
       <c r="CP95" s="21"/>
       <c r="CQ95" s="21"/>
       <c r="CR95" s="21"/>
@@ -38407,6 +38598,7 @@
       <c r="CU95" s="21"/>
       <c r="CV95" s="21"/>
       <c r="CW95" s="21"/>
+      <c r="CX95" s="21"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -38500,10 +38692,10 @@
       <c r="CI96" s="3"/>
       <c r="CJ96" s="3"/>
       <c r="CK96" s="3"/>
-      <c r="CL96" s="3"/>
-      <c r="CM96" s="3"/>
-      <c r="CN96" s="3"/>
-      <c r="CO96" s="3"/>
+      <c r="CL96" s="21"/>
+      <c r="CM96" s="21"/>
+      <c r="CN96" s="21"/>
+      <c r="CO96" s="21"/>
       <c r="CP96" s="21"/>
       <c r="CQ96" s="21"/>
       <c r="CR96" s="21"/>
@@ -38512,10 +38704,11 @@
       <c r="CU96" s="21"/>
       <c r="CV96" s="21"/>
       <c r="CW96" s="21"/>
+      <c r="CX96" s="21"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -38605,10 +38798,10 @@
       <c r="CI97" s="3"/>
       <c r="CJ97" s="3"/>
       <c r="CK97" s="3"/>
-      <c r="CL97" s="3"/>
-      <c r="CM97" s="3"/>
-      <c r="CN97" s="3"/>
-      <c r="CO97" s="3"/>
+      <c r="CL97" s="21"/>
+      <c r="CM97" s="21"/>
+      <c r="CN97" s="21"/>
+      <c r="CO97" s="21"/>
       <c r="CP97" s="21"/>
       <c r="CQ97" s="21"/>
       <c r="CR97" s="21"/>
@@ -38617,6 +38810,7 @@
       <c r="CU97" s="21"/>
       <c r="CV97" s="21"/>
       <c r="CW97" s="21"/>
+      <c r="CX97" s="21"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -38708,10 +38902,10 @@
       <c r="CI98" s="3"/>
       <c r="CJ98" s="3"/>
       <c r="CK98" s="3"/>
-      <c r="CL98" s="3"/>
-      <c r="CM98" s="3"/>
-      <c r="CN98" s="3"/>
-      <c r="CO98" s="3"/>
+      <c r="CL98" s="21"/>
+      <c r="CM98" s="21"/>
+      <c r="CN98" s="21"/>
+      <c r="CO98" s="21"/>
       <c r="CP98" s="21"/>
       <c r="CQ98" s="21"/>
       <c r="CR98" s="21"/>
@@ -38720,6 +38914,7 @@
       <c r="CU98" s="21"/>
       <c r="CV98" s="21"/>
       <c r="CW98" s="21"/>
+      <c r="CX98" s="21"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -38813,10 +39008,10 @@
       <c r="CI99" s="3"/>
       <c r="CJ99" s="3"/>
       <c r="CK99" s="3"/>
-      <c r="CL99" s="3"/>
-      <c r="CM99" s="3"/>
-      <c r="CN99" s="3"/>
-      <c r="CO99" s="3"/>
+      <c r="CL99" s="21"/>
+      <c r="CM99" s="21"/>
+      <c r="CN99" s="21"/>
+      <c r="CO99" s="21"/>
       <c r="CP99" s="21"/>
       <c r="CQ99" s="21"/>
       <c r="CR99" s="21"/>
@@ -38825,10 +39020,11 @@
       <c r="CU99" s="21"/>
       <c r="CV99" s="21"/>
       <c r="CW99" s="21"/>
+      <c r="CX99" s="21"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -38918,10 +39114,10 @@
       <c r="CI100" s="3"/>
       <c r="CJ100" s="3"/>
       <c r="CK100" s="3"/>
-      <c r="CL100" s="3"/>
-      <c r="CM100" s="3"/>
-      <c r="CN100" s="3"/>
-      <c r="CO100" s="3"/>
+      <c r="CL100" s="21"/>
+      <c r="CM100" s="21"/>
+      <c r="CN100" s="21"/>
+      <c r="CO100" s="21"/>
       <c r="CP100" s="21"/>
       <c r="CQ100" s="21"/>
       <c r="CR100" s="21"/>
@@ -38930,6 +39126,7 @@
       <c r="CU100" s="21"/>
       <c r="CV100" s="21"/>
       <c r="CW100" s="21"/>
+      <c r="CX100" s="21"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -39023,10 +39220,10 @@
       <c r="CI101" s="3"/>
       <c r="CJ101" s="3"/>
       <c r="CK101" s="3"/>
-      <c r="CL101" s="3"/>
-      <c r="CM101" s="3"/>
-      <c r="CN101" s="3"/>
-      <c r="CO101" s="3"/>
+      <c r="CL101" s="21"/>
+      <c r="CM101" s="21"/>
+      <c r="CN101" s="21"/>
+      <c r="CO101" s="21"/>
       <c r="CP101" s="21"/>
       <c r="CQ101" s="21"/>
       <c r="CR101" s="21"/>
@@ -39035,6 +39232,7 @@
       <c r="CU101" s="21"/>
       <c r="CV101" s="21"/>
       <c r="CW101" s="21"/>
+      <c r="CX101" s="21"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -39126,10 +39324,10 @@
       <c r="CI102" s="3"/>
       <c r="CJ102" s="3"/>
       <c r="CK102" s="3"/>
-      <c r="CL102" s="3"/>
-      <c r="CM102" s="3"/>
-      <c r="CN102" s="3"/>
-      <c r="CO102" s="3"/>
+      <c r="CL102" s="21"/>
+      <c r="CM102" s="21"/>
+      <c r="CN102" s="21"/>
+      <c r="CO102" s="21"/>
       <c r="CP102" s="21"/>
       <c r="CQ102" s="21"/>
       <c r="CR102" s="21"/>
@@ -39138,6 +39336,7 @@
       <c r="CU102" s="21"/>
       <c r="CV102" s="21"/>
       <c r="CW102" s="21"/>
+      <c r="CX102" s="21"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
@@ -39273,12 +39472,12 @@
       <c r="CI103" s="19"/>
       <c r="CJ103" s="19"/>
       <c r="CK103" s="19"/>
-      <c r="CL103" s="19">
+      <c r="CL103" s="22">
         <v>2022</v>
       </c>
-      <c r="CM103" s="19"/>
-      <c r="CN103" s="19"/>
-      <c r="CO103" s="19"/>
+      <c r="CM103" s="22"/>
+      <c r="CN103" s="22"/>
+      <c r="CO103" s="22"/>
       <c r="CP103" s="22">
         <v>2023</v>
       </c>
@@ -39291,6 +39490,9 @@
       <c r="CU103" s="22"/>
       <c r="CV103" s="22"/>
       <c r="CW103" s="22"/>
+      <c r="CX103" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -39560,16 +39762,16 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="6" t="s">
+      <c r="CL104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="6" t="s">
+      <c r="CM104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="6" t="s">
+      <c r="CN104" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="6" t="s">
+      <c r="CO104" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP104" s="23" t="s">
@@ -39595,6 +39797,9 @@
       </c>
       <c r="CW104" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX104" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39687,10 +39892,10 @@
       <c r="CI105" s="3"/>
       <c r="CJ105" s="3"/>
       <c r="CK105" s="3"/>
-      <c r="CL105" s="3"/>
-      <c r="CM105" s="3"/>
-      <c r="CN105" s="3"/>
-      <c r="CO105" s="3"/>
+      <c r="CL105" s="21"/>
+      <c r="CM105" s="21"/>
+      <c r="CN105" s="21"/>
+      <c r="CO105" s="21"/>
       <c r="CP105" s="21"/>
       <c r="CQ105" s="21"/>
       <c r="CR105" s="21"/>
@@ -39699,6 +39904,7 @@
       <c r="CU105" s="21"/>
       <c r="CV105" s="21"/>
       <c r="CW105" s="21"/>
+      <c r="CX105" s="21"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -39968,43 +40174,45 @@
       <c r="CK106" s="12">
         <v>68.795815885122764</v>
       </c>
-      <c r="CL106" s="12">
+      <c r="CL106" s="30">
         <v>70.783174612797765</v>
       </c>
-      <c r="CM106" s="12">
+      <c r="CM106" s="30">
         <v>73.114700902090163</v>
       </c>
-      <c r="CN106" s="12">
+      <c r="CN106" s="30">
         <v>67.303984850113153</v>
       </c>
-      <c r="CO106" s="12">
+      <c r="CO106" s="30">
         <v>69.8562463887571</v>
       </c>
       <c r="CP106" s="30">
-        <v>69.653221286795741</v>
+        <v>69.493744212089254</v>
       </c>
       <c r="CQ106" s="30">
-        <v>72.243834530796818</v>
+        <v>72.025072345236779</v>
       </c>
       <c r="CR106" s="30">
-        <v>66.494936461754008</v>
+        <v>66.521132238061369</v>
       </c>
       <c r="CS106" s="30">
-        <v>69.269894085136002</v>
+        <v>69.305318408682993</v>
       </c>
       <c r="CT106" s="30">
-        <v>67.393097508531483</v>
+        <v>67.887895836515185</v>
       </c>
       <c r="CU106" s="30">
-        <v>69.789481350293954</v>
+        <v>69.594118437494004</v>
       </c>
       <c r="CV106" s="30">
-        <v>65.493042248341226</v>
+        <v>65.505046996155812</v>
       </c>
       <c r="CW106" s="30">
-        <v>68.4631422761273</v>
-      </c>
-      <c r="CX106" s="17"/>
+        <v>68.885864890522299</v>
+      </c>
+      <c r="CX106" s="30">
+        <v>67.615903763148495</v>
+      </c>
       <c r="CY106" s="17"/>
       <c r="CZ106" s="17"/>
       <c r="DA106" s="17"/>
@@ -40327,43 +40535,45 @@
       <c r="CK107" s="12">
         <v>31.204184114877236</v>
       </c>
-      <c r="CL107" s="12">
+      <c r="CL107" s="30">
         <v>29.216825387202235</v>
       </c>
-      <c r="CM107" s="12">
+      <c r="CM107" s="30">
         <v>26.885299097909844</v>
       </c>
-      <c r="CN107" s="12">
+      <c r="CN107" s="30">
         <v>32.696015149886854</v>
       </c>
-      <c r="CO107" s="12">
+      <c r="CO107" s="30">
         <v>30.143753611242897</v>
       </c>
       <c r="CP107" s="30">
-        <v>30.346778713204259</v>
+        <v>30.506255787910753</v>
       </c>
       <c r="CQ107" s="30">
-        <v>27.756165469203182</v>
+        <v>27.97492765476321</v>
       </c>
       <c r="CR107" s="30">
-        <v>33.505063538245999</v>
+        <v>33.478867761938616</v>
       </c>
       <c r="CS107" s="30">
-        <v>30.730105914863998</v>
+        <v>30.694681591317007</v>
       </c>
       <c r="CT107" s="30">
-        <v>32.60690249146851</v>
+        <v>32.112104163484808</v>
       </c>
       <c r="CU107" s="30">
-        <v>30.210518649706064</v>
+        <v>30.405881562505993</v>
       </c>
       <c r="CV107" s="30">
-        <v>34.506957751658781</v>
+        <v>34.494953003844188</v>
       </c>
       <c r="CW107" s="30">
-        <v>31.536857723872714</v>
-      </c>
-      <c r="CX107" s="17"/>
+        <v>31.114135109477694</v>
+      </c>
+      <c r="CX107" s="30">
+        <v>32.384096236851498</v>
+      </c>
       <c r="CY107" s="17"/>
       <c r="CZ107" s="17"/>
       <c r="DA107" s="17"/>
@@ -40507,10 +40717,10 @@
       <c r="CI108" s="11"/>
       <c r="CJ108" s="11"/>
       <c r="CK108" s="11"/>
-      <c r="CL108" s="11"/>
-      <c r="CM108" s="11"/>
-      <c r="CN108" s="11"/>
-      <c r="CO108" s="11"/>
+      <c r="CL108" s="25"/>
+      <c r="CM108" s="25"/>
+      <c r="CN108" s="25"/>
+      <c r="CO108" s="25"/>
       <c r="CP108" s="25"/>
       <c r="CQ108" s="25"/>
       <c r="CR108" s="25"/>
@@ -40519,7 +40729,7 @@
       <c r="CU108" s="25"/>
       <c r="CV108" s="25"/>
       <c r="CW108" s="25"/>
-      <c r="CX108" s="17"/>
+      <c r="CX108" s="25"/>
       <c r="CY108" s="17"/>
       <c r="CZ108" s="17"/>
       <c r="DA108" s="17"/>
@@ -40842,16 +41052,16 @@
       <c r="CK109" s="12">
         <v>100</v>
       </c>
-      <c r="CL109" s="12">
+      <c r="CL109" s="30">
         <v>100</v>
       </c>
-      <c r="CM109" s="12">
+      <c r="CM109" s="30">
         <v>100</v>
       </c>
-      <c r="CN109" s="12">
+      <c r="CN109" s="30">
         <v>100</v>
       </c>
-      <c r="CO109" s="12">
+      <c r="CO109" s="30">
         <v>100</v>
       </c>
       <c r="CP109" s="30">
@@ -40878,7 +41088,9 @@
       <c r="CW109" s="30">
         <v>100</v>
       </c>
-      <c r="CX109" s="17"/>
+      <c r="CX109" s="30">
+        <v>100</v>
+      </c>
       <c r="CY109" s="17"/>
       <c r="CZ109" s="17"/>
       <c r="DA109" s="17"/>
@@ -41023,10 +41235,10 @@
       <c r="CI110" s="9"/>
       <c r="CJ110" s="9"/>
       <c r="CK110" s="9"/>
-      <c r="CL110" s="9"/>
-      <c r="CM110" s="9"/>
-      <c r="CN110" s="9"/>
-      <c r="CO110" s="9"/>
+      <c r="CL110" s="27"/>
+      <c r="CM110" s="27"/>
+      <c r="CN110" s="27"/>
+      <c r="CO110" s="27"/>
       <c r="CP110" s="27"/>
       <c r="CQ110" s="27"/>
       <c r="CR110" s="27"/>
@@ -41035,6 +41247,7 @@
       <c r="CU110" s="27"/>
       <c r="CV110" s="27"/>
       <c r="CW110" s="27"/>
+      <c r="CX110" s="27"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -41128,10 +41341,10 @@
       <c r="CI111" s="3"/>
       <c r="CJ111" s="3"/>
       <c r="CK111" s="3"/>
-      <c r="CL111" s="3"/>
-      <c r="CM111" s="3"/>
-      <c r="CN111" s="3"/>
-      <c r="CO111" s="3"/>
+      <c r="CL111" s="21"/>
+      <c r="CM111" s="21"/>
+      <c r="CN111" s="21"/>
+      <c r="CO111" s="21"/>
       <c r="CP111" s="21"/>
       <c r="CQ111" s="21"/>
       <c r="CR111" s="21"/>
@@ -41140,6 +41353,7 @@
       <c r="CU111" s="21"/>
       <c r="CV111" s="21"/>
       <c r="CW111" s="21"/>
+      <c r="CX111" s="21"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -41230,10 +41444,10 @@
       <c r="CI112" s="11"/>
       <c r="CJ112" s="11"/>
       <c r="CK112" s="11"/>
-      <c r="CL112" s="11"/>
-      <c r="CM112" s="11"/>
-      <c r="CN112" s="11"/>
-      <c r="CO112" s="11"/>
+      <c r="CL112" s="25"/>
+      <c r="CM112" s="25"/>
+      <c r="CN112" s="25"/>
+      <c r="CO112" s="25"/>
       <c r="CP112" s="25"/>
       <c r="CQ112" s="25"/>
       <c r="CR112" s="25"/>
@@ -41242,7 +41456,7 @@
       <c r="CU112" s="25"/>
       <c r="CV112" s="25"/>
       <c r="CW112" s="25"/>
-      <c r="CX112" s="17"/>
+      <c r="CX112" s="25"/>
       <c r="CY112" s="17"/>
       <c r="CZ112" s="17"/>
       <c r="DA112" s="17"/>
@@ -41386,10 +41600,10 @@
       <c r="CI113" s="11"/>
       <c r="CJ113" s="11"/>
       <c r="CK113" s="11"/>
-      <c r="CL113" s="11"/>
-      <c r="CM113" s="11"/>
-      <c r="CN113" s="11"/>
-      <c r="CO113" s="11"/>
+      <c r="CL113" s="25"/>
+      <c r="CM113" s="25"/>
+      <c r="CN113" s="25"/>
+      <c r="CO113" s="25"/>
       <c r="CP113" s="25"/>
       <c r="CQ113" s="25"/>
       <c r="CR113" s="25"/>
@@ -41398,7 +41612,7 @@
       <c r="CU113" s="25"/>
       <c r="CV113" s="25"/>
       <c r="CW113" s="25"/>
-      <c r="CX113" s="17"/>
+      <c r="CX113" s="25"/>
       <c r="CY113" s="17"/>
       <c r="CZ113" s="17"/>
       <c r="DA113" s="17"/>
@@ -41545,10 +41759,10 @@
       <c r="CI114" s="3"/>
       <c r="CJ114" s="3"/>
       <c r="CK114" s="3"/>
-      <c r="CL114" s="3"/>
-      <c r="CM114" s="3"/>
-      <c r="CN114" s="3"/>
-      <c r="CO114" s="3"/>
+      <c r="CL114" s="21"/>
+      <c r="CM114" s="21"/>
+      <c r="CN114" s="21"/>
+      <c r="CO114" s="21"/>
       <c r="CP114" s="21"/>
       <c r="CQ114" s="21"/>
       <c r="CR114" s="21"/>
@@ -41557,6 +41771,7 @@
       <c r="CU114" s="21"/>
       <c r="CV114" s="21"/>
       <c r="CW114" s="21"/>
+      <c r="CX114" s="21"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -41650,10 +41865,10 @@
       <c r="CI115" s="3"/>
       <c r="CJ115" s="3"/>
       <c r="CK115" s="3"/>
-      <c r="CL115" s="3"/>
-      <c r="CM115" s="3"/>
-      <c r="CN115" s="3"/>
-      <c r="CO115" s="3"/>
+      <c r="CL115" s="21"/>
+      <c r="CM115" s="21"/>
+      <c r="CN115" s="21"/>
+      <c r="CO115" s="21"/>
       <c r="CP115" s="21"/>
       <c r="CQ115" s="21"/>
       <c r="CR115" s="21"/>
@@ -41662,10 +41877,11 @@
       <c r="CU115" s="21"/>
       <c r="CV115" s="21"/>
       <c r="CW115" s="21"/>
+      <c r="CX115" s="21"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -41755,10 +41971,10 @@
       <c r="CI116" s="3"/>
       <c r="CJ116" s="3"/>
       <c r="CK116" s="3"/>
-      <c r="CL116" s="3"/>
-      <c r="CM116" s="3"/>
-      <c r="CN116" s="3"/>
-      <c r="CO116" s="3"/>
+      <c r="CL116" s="21"/>
+      <c r="CM116" s="21"/>
+      <c r="CN116" s="21"/>
+      <c r="CO116" s="21"/>
       <c r="CP116" s="21"/>
       <c r="CQ116" s="21"/>
       <c r="CR116" s="21"/>
@@ -41767,6 +41983,7 @@
       <c r="CU116" s="21"/>
       <c r="CV116" s="21"/>
       <c r="CW116" s="21"/>
+      <c r="CX116" s="21"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -41858,10 +42075,10 @@
       <c r="CI117" s="3"/>
       <c r="CJ117" s="3"/>
       <c r="CK117" s="3"/>
-      <c r="CL117" s="3"/>
-      <c r="CM117" s="3"/>
-      <c r="CN117" s="3"/>
-      <c r="CO117" s="3"/>
+      <c r="CL117" s="21"/>
+      <c r="CM117" s="21"/>
+      <c r="CN117" s="21"/>
+      <c r="CO117" s="21"/>
       <c r="CP117" s="21"/>
       <c r="CQ117" s="21"/>
       <c r="CR117" s="21"/>
@@ -41870,6 +42087,7 @@
       <c r="CU117" s="21"/>
       <c r="CV117" s="21"/>
       <c r="CW117" s="21"/>
+      <c r="CX117" s="21"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -41963,10 +42181,10 @@
       <c r="CI118" s="3"/>
       <c r="CJ118" s="3"/>
       <c r="CK118" s="3"/>
-      <c r="CL118" s="3"/>
-      <c r="CM118" s="3"/>
-      <c r="CN118" s="3"/>
-      <c r="CO118" s="3"/>
+      <c r="CL118" s="21"/>
+      <c r="CM118" s="21"/>
+      <c r="CN118" s="21"/>
+      <c r="CO118" s="21"/>
       <c r="CP118" s="21"/>
       <c r="CQ118" s="21"/>
       <c r="CR118" s="21"/>
@@ -41975,10 +42193,11 @@
       <c r="CU118" s="21"/>
       <c r="CV118" s="21"/>
       <c r="CW118" s="21"/>
+      <c r="CX118" s="21"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -42068,10 +42287,10 @@
       <c r="CI119" s="3"/>
       <c r="CJ119" s="3"/>
       <c r="CK119" s="3"/>
-      <c r="CL119" s="3"/>
-      <c r="CM119" s="3"/>
-      <c r="CN119" s="3"/>
-      <c r="CO119" s="3"/>
+      <c r="CL119" s="21"/>
+      <c r="CM119" s="21"/>
+      <c r="CN119" s="21"/>
+      <c r="CO119" s="21"/>
       <c r="CP119" s="21"/>
       <c r="CQ119" s="21"/>
       <c r="CR119" s="21"/>
@@ -42080,6 +42299,7 @@
       <c r="CU119" s="21"/>
       <c r="CV119" s="21"/>
       <c r="CW119" s="21"/>
+      <c r="CX119" s="21"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -42173,10 +42393,10 @@
       <c r="CI120" s="3"/>
       <c r="CJ120" s="3"/>
       <c r="CK120" s="3"/>
-      <c r="CL120" s="3"/>
-      <c r="CM120" s="3"/>
-      <c r="CN120" s="3"/>
-      <c r="CO120" s="3"/>
+      <c r="CL120" s="21"/>
+      <c r="CM120" s="21"/>
+      <c r="CN120" s="21"/>
+      <c r="CO120" s="21"/>
       <c r="CP120" s="21"/>
       <c r="CQ120" s="21"/>
       <c r="CR120" s="21"/>
@@ -42185,6 +42405,7 @@
       <c r="CU120" s="21"/>
       <c r="CV120" s="21"/>
       <c r="CW120" s="21"/>
+      <c r="CX120" s="21"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -42276,10 +42497,10 @@
       <c r="CI121" s="3"/>
       <c r="CJ121" s="3"/>
       <c r="CK121" s="3"/>
-      <c r="CL121" s="3"/>
-      <c r="CM121" s="3"/>
-      <c r="CN121" s="3"/>
-      <c r="CO121" s="3"/>
+      <c r="CL121" s="21"/>
+      <c r="CM121" s="21"/>
+      <c r="CN121" s="21"/>
+      <c r="CO121" s="21"/>
       <c r="CP121" s="21"/>
       <c r="CQ121" s="21"/>
       <c r="CR121" s="21"/>
@@ -42288,6 +42509,7 @@
       <c r="CU121" s="21"/>
       <c r="CV121" s="21"/>
       <c r="CW121" s="21"/>
+      <c r="CX121" s="21"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
@@ -42423,12 +42645,12 @@
       <c r="CI122" s="19"/>
       <c r="CJ122" s="19"/>
       <c r="CK122" s="19"/>
-      <c r="CL122" s="19">
+      <c r="CL122" s="22">
         <v>2022</v>
       </c>
-      <c r="CM122" s="19"/>
-      <c r="CN122" s="19"/>
-      <c r="CO122" s="19"/>
+      <c r="CM122" s="22"/>
+      <c r="CN122" s="22"/>
+      <c r="CO122" s="22"/>
       <c r="CP122" s="22">
         <v>2023</v>
       </c>
@@ -42441,6 +42663,9 @@
       <c r="CU122" s="22"/>
       <c r="CV122" s="22"/>
       <c r="CW122" s="22"/>
+      <c r="CX122" s="22">
+        <v>2025</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -42710,16 +42935,16 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="6" t="s">
+      <c r="CL123" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="6" t="s">
+      <c r="CM123" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="6" t="s">
+      <c r="CN123" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="6" t="s">
+      <c r="CO123" s="23" t="s">
         <v>9</v>
       </c>
       <c r="CP123" s="23" t="s">
@@ -42745,6 +42970,9 @@
       </c>
       <c r="CW123" s="23" t="s">
         <v>9</v>
+      </c>
+      <c r="CX123" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42837,10 +43065,10 @@
       <c r="CI124" s="3"/>
       <c r="CJ124" s="3"/>
       <c r="CK124" s="3"/>
-      <c r="CL124" s="3"/>
-      <c r="CM124" s="3"/>
-      <c r="CN124" s="3"/>
-      <c r="CO124" s="3"/>
+      <c r="CL124" s="21"/>
+      <c r="CM124" s="21"/>
+      <c r="CN124" s="21"/>
+      <c r="CO124" s="21"/>
       <c r="CP124" s="21"/>
       <c r="CQ124" s="21"/>
       <c r="CR124" s="21"/>
@@ -42849,6 +43077,7 @@
       <c r="CU124" s="21"/>
       <c r="CV124" s="21"/>
       <c r="CW124" s="21"/>
+      <c r="CX124" s="21"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -43118,43 +43347,45 @@
       <c r="CK125" s="12">
         <v>66.419648672435144</v>
       </c>
-      <c r="CL125" s="12">
+      <c r="CL125" s="30">
         <v>69.008103582705715</v>
       </c>
-      <c r="CM125" s="12">
+      <c r="CM125" s="30">
         <v>71.775049900880944</v>
       </c>
-      <c r="CN125" s="12">
+      <c r="CN125" s="30">
         <v>67.015331086299113</v>
       </c>
-      <c r="CO125" s="12">
+      <c r="CO125" s="30">
         <v>67.399560298830735</v>
       </c>
       <c r="CP125" s="30">
-        <v>67.81567397016606</v>
+        <v>67.658618194187227</v>
       </c>
       <c r="CQ125" s="30">
-        <v>70.734970564061555</v>
+        <v>70.473136583628261</v>
       </c>
       <c r="CR125" s="30">
-        <v>66.214712925854244</v>
+        <v>66.178870330448831</v>
       </c>
       <c r="CS125" s="30">
-        <v>66.881555088441345</v>
+        <v>66.860730701782799</v>
       </c>
       <c r="CT125" s="30">
-        <v>65.790643231990487</v>
+        <v>66.239861918680802</v>
       </c>
       <c r="CU125" s="30">
-        <v>68.343672511454841</v>
+        <v>68.112107862563448</v>
       </c>
       <c r="CV125" s="30">
-        <v>65.688175833830726</v>
+        <v>65.645049854422126</v>
       </c>
       <c r="CW125" s="30">
-        <v>66.459483738958852</v>
-      </c>
-      <c r="CX125" s="17"/>
+        <v>66.845169736497084</v>
+      </c>
+      <c r="CX125" s="30">
+        <v>66.107007238640904</v>
+      </c>
       <c r="CY125" s="17"/>
       <c r="CZ125" s="17"/>
       <c r="DA125" s="17"/>
@@ -43477,43 +43708,45 @@
       <c r="CK126" s="12">
         <v>33.580351327564863</v>
       </c>
-      <c r="CL126" s="12">
+      <c r="CL126" s="30">
         <v>30.991896417294278</v>
       </c>
-      <c r="CM126" s="12">
+      <c r="CM126" s="30">
         <v>28.224950099119056</v>
       </c>
-      <c r="CN126" s="12">
+      <c r="CN126" s="30">
         <v>32.98466891370088</v>
       </c>
-      <c r="CO126" s="12">
+      <c r="CO126" s="30">
         <v>32.600439701169257</v>
       </c>
       <c r="CP126" s="30">
-        <v>32.18432602983394</v>
+        <v>32.341381805812766</v>
       </c>
       <c r="CQ126" s="30">
-        <v>29.265029435938445</v>
+        <v>29.526863416371746</v>
       </c>
       <c r="CR126" s="30">
-        <v>33.785287074145756</v>
+        <v>33.821129669551162</v>
       </c>
       <c r="CS126" s="30">
-        <v>33.118444911558655</v>
+        <v>33.139269298217194</v>
       </c>
       <c r="CT126" s="30">
-        <v>34.209356768009506</v>
+        <v>33.760138081319198</v>
       </c>
       <c r="CU126" s="30">
-        <v>31.656327488545148</v>
+        <v>31.887892137436559</v>
       </c>
       <c r="CV126" s="30">
-        <v>34.311824166169274</v>
+        <v>34.354950145577881</v>
       </c>
       <c r="CW126" s="30">
-        <v>33.540516261041162</v>
-      </c>
-      <c r="CX126" s="17"/>
+        <v>33.154830263502916</v>
+      </c>
+      <c r="CX126" s="30">
+        <v>33.892992761359096</v>
+      </c>
       <c r="CY126" s="17"/>
       <c r="CZ126" s="17"/>
       <c r="DA126" s="17"/>
@@ -43657,10 +43890,10 @@
       <c r="CI127" s="11"/>
       <c r="CJ127" s="11"/>
       <c r="CK127" s="11"/>
-      <c r="CL127" s="11"/>
-      <c r="CM127" s="11"/>
-      <c r="CN127" s="11"/>
-      <c r="CO127" s="11"/>
+      <c r="CL127" s="25"/>
+      <c r="CM127" s="25"/>
+      <c r="CN127" s="25"/>
+      <c r="CO127" s="25"/>
       <c r="CP127" s="25"/>
       <c r="CQ127" s="25"/>
       <c r="CR127" s="25"/>
@@ -43669,7 +43902,7 @@
       <c r="CU127" s="25"/>
       <c r="CV127" s="25"/>
       <c r="CW127" s="25"/>
-      <c r="CX127" s="17"/>
+      <c r="CX127" s="25"/>
       <c r="CY127" s="17"/>
       <c r="CZ127" s="17"/>
       <c r="DA127" s="17"/>
@@ -43992,16 +44225,16 @@
       <c r="CK128" s="12">
         <v>100</v>
       </c>
-      <c r="CL128" s="12">
+      <c r="CL128" s="30">
         <v>100</v>
       </c>
-      <c r="CM128" s="12">
+      <c r="CM128" s="30">
         <v>100</v>
       </c>
-      <c r="CN128" s="12">
+      <c r="CN128" s="30">
         <v>100</v>
       </c>
-      <c r="CO128" s="12">
+      <c r="CO128" s="30">
         <v>100</v>
       </c>
       <c r="CP128" s="30">
@@ -44028,7 +44261,9 @@
       <c r="CW128" s="30">
         <v>100</v>
       </c>
-      <c r="CX128" s="17"/>
+      <c r="CX128" s="30">
+        <v>100</v>
+      </c>
       <c r="CY128" s="17"/>
       <c r="CZ128" s="17"/>
       <c r="DA128" s="17"/>
@@ -44083,7 +44318,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:101" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:102" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -44173,10 +44408,10 @@
       <c r="CI129" s="9"/>
       <c r="CJ129" s="9"/>
       <c r="CK129" s="9"/>
-      <c r="CL129" s="9"/>
-      <c r="CM129" s="9"/>
-      <c r="CN129" s="9"/>
-      <c r="CO129" s="9"/>
+      <c r="CL129" s="27"/>
+      <c r="CM129" s="27"/>
+      <c r="CN129" s="27"/>
+      <c r="CO129" s="27"/>
       <c r="CP129" s="27"/>
       <c r="CQ129" s="27"/>
       <c r="CR129" s="27"/>
@@ -44185,8 +44420,9 @@
       <c r="CU129" s="27"/>
       <c r="CV129" s="27"/>
       <c r="CW129" s="27"/>
+      <c r="CX129" s="27"/>
     </row>
-    <row r="130" spans="1:101" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:102" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -44278,10 +44514,10 @@
       <c r="CI130" s="3"/>
       <c r="CJ130" s="3"/>
       <c r="CK130" s="3"/>
-      <c r="CL130" s="3"/>
-      <c r="CM130" s="3"/>
-      <c r="CN130" s="3"/>
-      <c r="CO130" s="3"/>
+      <c r="CL130" s="21"/>
+      <c r="CM130" s="21"/>
+      <c r="CN130" s="21"/>
+      <c r="CO130" s="21"/>
       <c r="CP130" s="21"/>
       <c r="CQ130" s="21"/>
       <c r="CR130" s="21"/>
@@ -44290,165 +44526,90 @@
       <c r="CU130" s="21"/>
       <c r="CV130" s="21"/>
       <c r="CW130" s="21"/>
+      <c r="CX130" s="21"/>
     </row>
-    <row r="131" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:102" x14ac:dyDescent="0.25">
       <c r="CT131" s="38"/>
       <c r="CU131" s="38"/>
       <c r="CV131" s="38"/>
+      <c r="CX131" s="38"/>
     </row>
-    <row r="132" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:102" x14ac:dyDescent="0.25">
       <c r="CT132" s="38"/>
       <c r="CU132" s="38"/>
       <c r="CV132" s="38"/>
+      <c r="CX132" s="38"/>
     </row>
-    <row r="133" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:102" x14ac:dyDescent="0.25">
       <c r="CT133" s="38"/>
       <c r="CU133" s="38"/>
       <c r="CV133" s="38"/>
+      <c r="CX133" s="38"/>
     </row>
-    <row r="134" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:102" x14ac:dyDescent="0.25">
       <c r="CT134" s="38"/>
       <c r="CU134" s="38"/>
       <c r="CV134" s="38"/>
+      <c r="CX134" s="38"/>
     </row>
-    <row r="135" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:102" x14ac:dyDescent="0.25">
       <c r="CT135" s="38"/>
       <c r="CU135" s="38"/>
       <c r="CV135" s="38"/>
+      <c r="CX135" s="38"/>
     </row>
-    <row r="136" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:102" x14ac:dyDescent="0.25">
       <c r="CT136" s="38"/>
       <c r="CU136" s="38"/>
       <c r="CV136" s="38"/>
+      <c r="CX136" s="38"/>
     </row>
-    <row r="137" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:102" x14ac:dyDescent="0.25">
       <c r="CT137" s="38"/>
       <c r="CU137" s="38"/>
       <c r="CV137" s="38"/>
+      <c r="CX137" s="38"/>
     </row>
-    <row r="138" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:102" x14ac:dyDescent="0.25">
       <c r="CT138" s="38"/>
       <c r="CU138" s="38"/>
       <c r="CV138" s="38"/>
-    </row>
-    <row r="139" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT139" s="38"/>
-      <c r="CU139" s="38"/>
-      <c r="CV139" s="38"/>
-    </row>
-    <row r="140" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT140" s="38"/>
-      <c r="CU140" s="38"/>
-      <c r="CV140" s="38"/>
-    </row>
-    <row r="141" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT141" s="38"/>
-      <c r="CU141" s="38"/>
-      <c r="CV141" s="38"/>
-    </row>
-    <row r="142" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT142" s="38"/>
-      <c r="CU142" s="38"/>
-      <c r="CV142" s="38"/>
-    </row>
-    <row r="143" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT143" s="38"/>
-      <c r="CU143" s="38"/>
-      <c r="CV143" s="38"/>
+      <c r="CX138" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="V103:Y103"/>
@@ -44473,47 +44634,106 @@
     <mergeCell ref="N28:Q28"/>
     <mergeCell ref="R28:U28"/>
     <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BR122:BU122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="100" man="1"/>
-    <brk id="76" max="100" man="1"/>
-    <brk id="94" max="100" man="1"/>
+    <brk id="38" max="101" man="1"/>
+    <brk id="76" max="101" man="1"/>
+    <brk id="94" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-19EDUC_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7F077-ED8A-41C6-AAF3-71BD496FF267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DAB22-56F1-4D04-8414-0CF46958CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CX$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EDUC!$A$1:$CY$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -635,10 +635,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -723,9 +723,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -748,13 +748,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -766,9 +766,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,7 +776,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -785,7 +785,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -23661,19 +23661,19 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY138"/>
+  <dimension ref="A1:EY141"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="65" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <pane xSplit="1" topLeftCell="CM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="3" customWidth="1"/>
     <col min="2" max="89" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="32" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="15"/>
+    <col min="90" max="103" width="10.109375" style="32" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23693,6 +23693,7 @@
       <c r="CV1" s="20"/>
       <c r="CW1" s="20"/>
       <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
     </row>
     <row r="2" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -23711,10 +23712,11 @@
       <c r="CV2" s="20"/>
       <c r="CW2" s="20"/>
       <c r="CX2" s="20"/>
+      <c r="CY2" s="20"/>
     </row>
     <row r="3" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="CL3" s="20"/>
       <c r="CM3" s="20"/>
@@ -23729,6 +23731,7 @@
       <c r="CV3" s="20"/>
       <c r="CW3" s="20"/>
       <c r="CX3" s="20"/>
+      <c r="CY3" s="20"/>
     </row>
     <row r="4" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -23745,6 +23748,7 @@
       <c r="CV4" s="20"/>
       <c r="CW4" s="20"/>
       <c r="CX4" s="20"/>
+      <c r="CY4" s="20"/>
     </row>
     <row r="5" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -23763,10 +23767,11 @@
       <c r="CV5" s="20"/>
       <c r="CW5" s="20"/>
       <c r="CX5" s="20"/>
+      <c r="CY5" s="20"/>
     </row>
     <row r="6" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CL6" s="20"/>
       <c r="CM6" s="20"/>
@@ -23781,6 +23786,7 @@
       <c r="CV6" s="20"/>
       <c r="CW6" s="20"/>
       <c r="CX6" s="20"/>
+      <c r="CY6" s="20"/>
     </row>
     <row r="7" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -23799,6 +23805,7 @@
       <c r="CV7" s="20"/>
       <c r="CW7" s="20"/>
       <c r="CX7" s="20"/>
+      <c r="CY7" s="20"/>
     </row>
     <row r="8" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -23903,6 +23910,7 @@
       <c r="CV8" s="21"/>
       <c r="CW8" s="21"/>
       <c r="CX8" s="21"/>
+      <c r="CY8" s="21"/>
     </row>
     <row r="9" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
@@ -24059,6 +24067,7 @@
       <c r="CX9" s="22">
         <v>2025</v>
       </c>
+      <c r="CY9" s="22"/>
     </row>
     <row r="10" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24366,6 +24375,9 @@
       </c>
       <c r="CX10" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY10" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24471,6 +24483,7 @@
       <c r="CV11" s="21"/>
       <c r="CW11" s="21"/>
       <c r="CX11" s="21"/>
+      <c r="CY11" s="21"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -24779,7 +24792,9 @@
       <c r="CX12" s="24">
         <v>187688.09327552898</v>
       </c>
-      <c r="CY12" s="17"/>
+      <c r="CY12" s="24">
+        <v>229891.51526216336</v>
+      </c>
       <c r="CZ12" s="17"/>
       <c r="DA12" s="17"/>
       <c r="DB12" s="17"/>
@@ -25138,9 +25153,11 @@
         <v>88000.492502709472</v>
       </c>
       <c r="CX13" s="24">
-        <v>89891.710927016204</v>
-      </c>
-      <c r="CY13" s="17"/>
+        <v>88497.473039610355</v>
+      </c>
+      <c r="CY13" s="24">
+        <v>95214.365162500791</v>
+      </c>
       <c r="CZ13" s="17"/>
       <c r="DA13" s="17"/>
       <c r="DB13" s="17"/>
@@ -25296,7 +25313,7 @@
       <c r="CV14" s="25"/>
       <c r="CW14" s="25"/>
       <c r="CX14" s="25"/>
-      <c r="CY14" s="17"/>
+      <c r="CY14" s="25"/>
       <c r="CZ14" s="17"/>
       <c r="DA14" s="17"/>
       <c r="DB14" s="17"/>
@@ -25655,9 +25672,11 @@
         <v>282831.23472040077</v>
       </c>
       <c r="CX15" s="26">
-        <v>277579.8042025452</v>
-      </c>
-      <c r="CY15" s="17"/>
+        <v>276185.56631513935</v>
+      </c>
+      <c r="CY15" s="26">
+        <v>325105.88042466412</v>
+      </c>
       <c r="CZ15" s="17"/>
       <c r="DA15" s="17"/>
       <c r="DB15" s="17"/>
@@ -25814,6 +25833,7 @@
       <c r="CV16" s="27"/>
       <c r="CW16" s="27"/>
       <c r="CX16" s="27"/>
+      <c r="CY16" s="27"/>
     </row>
     <row r="17" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -25920,6 +25940,7 @@
       <c r="CV17" s="21"/>
       <c r="CW17" s="21"/>
       <c r="CX17" s="21"/>
+      <c r="CY17" s="21"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
@@ -26023,7 +26044,7 @@
       <c r="CV18" s="25"/>
       <c r="CW18" s="25"/>
       <c r="CX18" s="25"/>
-      <c r="CY18" s="17"/>
+      <c r="CY18" s="25"/>
       <c r="CZ18" s="17"/>
       <c r="DA18" s="17"/>
       <c r="DB18" s="17"/>
@@ -26179,7 +26200,7 @@
       <c r="CV19" s="25"/>
       <c r="CW19" s="25"/>
       <c r="CX19" s="25"/>
-      <c r="CY19" s="17"/>
+      <c r="CY19" s="25"/>
       <c r="CZ19" s="17"/>
       <c r="DA19" s="17"/>
       <c r="DB19" s="17"/>
@@ -26338,6 +26359,7 @@
       <c r="CV20" s="21"/>
       <c r="CW20" s="21"/>
       <c r="CX20" s="21"/>
+      <c r="CY20" s="21"/>
     </row>
     <row r="21" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -26444,10 +26466,11 @@
       <c r="CV21" s="21"/>
       <c r="CW21" s="21"/>
       <c r="CX21" s="21"/>
+      <c r="CY21" s="21"/>
     </row>
     <row r="22" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -26550,6 +26573,7 @@
       <c r="CV22" s="21"/>
       <c r="CW22" s="21"/>
       <c r="CX22" s="21"/>
+      <c r="CY22" s="21"/>
     </row>
     <row r="23" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -26654,6 +26678,7 @@
       <c r="CV23" s="21"/>
       <c r="CW23" s="21"/>
       <c r="CX23" s="21"/>
+      <c r="CY23" s="21"/>
     </row>
     <row r="24" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -26760,10 +26785,11 @@
       <c r="CV24" s="21"/>
       <c r="CW24" s="21"/>
       <c r="CX24" s="21"/>
+      <c r="CY24" s="21"/>
     </row>
     <row r="25" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -26866,6 +26892,7 @@
       <c r="CV25" s="21"/>
       <c r="CW25" s="21"/>
       <c r="CX25" s="21"/>
+      <c r="CY25" s="21"/>
     </row>
     <row r="26" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -26972,6 +26999,7 @@
       <c r="CV26" s="21"/>
       <c r="CW26" s="21"/>
       <c r="CX26" s="21"/>
+      <c r="CY26" s="21"/>
     </row>
     <row r="27" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
@@ -27076,6 +27104,7 @@
       <c r="CV27" s="21"/>
       <c r="CW27" s="21"/>
       <c r="CX27" s="21"/>
+      <c r="CY27" s="21"/>
     </row>
     <row r="28" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
@@ -27232,6 +27261,7 @@
       <c r="CX28" s="22">
         <v>2025</v>
       </c>
+      <c r="CY28" s="22"/>
     </row>
     <row r="29" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -27539,6 +27569,9 @@
       </c>
       <c r="CX29" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY29" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27644,6 +27677,7 @@
       <c r="CV30" s="21"/>
       <c r="CW30" s="21"/>
       <c r="CX30" s="21"/>
+      <c r="CY30" s="21"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -27952,7 +27986,9 @@
       <c r="CX31" s="24">
         <v>158079.12450786741</v>
       </c>
-      <c r="CY31" s="17"/>
+      <c r="CY31" s="24">
+        <v>191887.6656960549</v>
+      </c>
       <c r="CZ31" s="17"/>
       <c r="DA31" s="17"/>
       <c r="DB31" s="17"/>
@@ -28311,9 +28347,11 @@
         <v>70023.719786426052</v>
       </c>
       <c r="CX32" s="24">
-        <v>81047.000105843617</v>
-      </c>
-      <c r="CY32" s="17"/>
+        <v>79790.166241331404</v>
+      </c>
+      <c r="CY32" s="24">
+        <v>83736.590116297972</v>
+      </c>
       <c r="CZ32" s="17"/>
       <c r="DA32" s="17"/>
       <c r="DB32" s="17"/>
@@ -28469,7 +28507,7 @@
       <c r="CV33" s="25"/>
       <c r="CW33" s="25"/>
       <c r="CX33" s="25"/>
-      <c r="CY33" s="17"/>
+      <c r="CY33" s="25"/>
       <c r="CZ33" s="17"/>
       <c r="DA33" s="17"/>
       <c r="DB33" s="17"/>
@@ -28828,9 +28866,11 @@
         <v>211202.16641105441</v>
       </c>
       <c r="CX34" s="26">
-        <v>239126.12461371103</v>
-      </c>
-      <c r="CY34" s="17"/>
+        <v>237869.29074919882</v>
+      </c>
+      <c r="CY34" s="26">
+        <v>275624.25581235287</v>
+      </c>
       <c r="CZ34" s="17"/>
       <c r="DA34" s="17"/>
       <c r="DB34" s="17"/>
@@ -28987,6 +29027,7 @@
       <c r="CV35" s="27"/>
       <c r="CW35" s="27"/>
       <c r="CX35" s="27"/>
+      <c r="CY35" s="27"/>
     </row>
     <row r="36" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -29093,6 +29134,7 @@
       <c r="CV36" s="21"/>
       <c r="CW36" s="21"/>
       <c r="CX36" s="21"/>
+      <c r="CY36" s="21"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="11"/>
@@ -29196,7 +29238,7 @@
       <c r="CV37" s="25"/>
       <c r="CW37" s="25"/>
       <c r="CX37" s="25"/>
-      <c r="CY37" s="17"/>
+      <c r="CY37" s="25"/>
       <c r="CZ37" s="17"/>
       <c r="DA37" s="17"/>
       <c r="DB37" s="17"/>
@@ -29352,7 +29394,7 @@
       <c r="CV38" s="25"/>
       <c r="CW38" s="25"/>
       <c r="CX38" s="25"/>
-      <c r="CY38" s="17"/>
+      <c r="CY38" s="25"/>
       <c r="CZ38" s="17"/>
       <c r="DA38" s="17"/>
       <c r="DB38" s="17"/>
@@ -29511,6 +29553,7 @@
       <c r="CV39" s="21"/>
       <c r="CW39" s="21"/>
       <c r="CX39" s="21"/>
+      <c r="CY39" s="21"/>
     </row>
     <row r="40" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -29617,10 +29660,11 @@
       <c r="CV40" s="21"/>
       <c r="CW40" s="21"/>
       <c r="CX40" s="21"/>
+      <c r="CY40" s="21"/>
     </row>
     <row r="41" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -29723,6 +29767,7 @@
       <c r="CV41" s="21"/>
       <c r="CW41" s="21"/>
       <c r="CX41" s="21"/>
+      <c r="CY41" s="21"/>
     </row>
     <row r="42" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
@@ -29827,6 +29872,7 @@
       <c r="CV42" s="33"/>
       <c r="CW42" s="33"/>
       <c r="CX42" s="33"/>
+      <c r="CY42" s="33"/>
     </row>
     <row r="43" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -29933,10 +29979,11 @@
       <c r="CV43" s="33"/>
       <c r="CW43" s="33"/>
       <c r="CX43" s="33"/>
+      <c r="CY43" s="33"/>
     </row>
     <row r="44" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -30031,6 +30078,7 @@
       <c r="CV44" s="34"/>
       <c r="CW44" s="34"/>
       <c r="CX44" s="34"/>
+      <c r="CY44" s="34"/>
     </row>
     <row r="45" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -30129,6 +30177,7 @@
       <c r="CV45" s="34"/>
       <c r="CW45" s="34"/>
       <c r="CX45" s="34"/>
+      <c r="CY45" s="34"/>
     </row>
     <row r="46" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
@@ -30229,10 +30278,11 @@
       <c r="CR46" s="21"/>
       <c r="CS46" s="21"/>
       <c r="CT46" s="21"/>
-      <c r="CU46" s="33"/>
+      <c r="CU46" s="21"/>
       <c r="CV46" s="33"/>
       <c r="CW46" s="33"/>
       <c r="CX46" s="33"/>
+      <c r="CY46" s="33"/>
     </row>
     <row r="47" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -30383,10 +30433,11 @@
       <c r="CT47" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CU47" s="28"/>
+      <c r="CU47" s="22"/>
       <c r="CV47" s="28"/>
       <c r="CW47" s="28"/>
       <c r="CX47" s="28"/>
+      <c r="CY47" s="28"/>
     </row>
     <row r="48" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -30683,10 +30734,13 @@
       <c r="CT48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU48" s="29"/>
+      <c r="CU48" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="CV48" s="29"/>
       <c r="CW48" s="29"/>
       <c r="CX48" s="29"/>
+      <c r="CY48" s="29"/>
     </row>
     <row r="49" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -30787,10 +30841,11 @@
       <c r="CR49" s="21"/>
       <c r="CS49" s="21"/>
       <c r="CT49" s="21"/>
-      <c r="CU49" s="33"/>
+      <c r="CU49" s="21"/>
       <c r="CV49" s="33"/>
       <c r="CW49" s="33"/>
       <c r="CX49" s="33"/>
+      <c r="CY49" s="33"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
@@ -31087,11 +31142,13 @@
       <c r="CT50" s="30">
         <v>11.480367005094209</v>
       </c>
-      <c r="CU50" s="35"/>
+      <c r="CU50" s="30">
+        <v>18.410929396838839</v>
+      </c>
       <c r="CV50" s="35"/>
       <c r="CW50" s="35"/>
       <c r="CX50" s="35"/>
-      <c r="CY50" s="17"/>
+      <c r="CY50" s="35"/>
       <c r="CZ50" s="17"/>
       <c r="DA50" s="17"/>
       <c r="DB50" s="17"/>
@@ -31434,13 +31491,15 @@
         <v>12.365882923431926</v>
       </c>
       <c r="CT51" s="30">
-        <v>12.876854388070356</v>
-      </c>
-      <c r="CU51" s="35"/>
+        <v>11.126112463413733</v>
+      </c>
+      <c r="CU51" s="30">
+        <v>12.249977232822502</v>
+      </c>
       <c r="CV51" s="35"/>
       <c r="CW51" s="35"/>
       <c r="CX51" s="35"/>
-      <c r="CY51" s="17"/>
+      <c r="CY51" s="35"/>
       <c r="CZ51" s="17"/>
       <c r="DA51" s="17"/>
       <c r="DB51" s="17"/>
@@ -31589,11 +31648,11 @@
       <c r="CR52" s="25"/>
       <c r="CS52" s="25"/>
       <c r="CT52" s="25"/>
-      <c r="CU52" s="36"/>
+      <c r="CU52" s="25"/>
       <c r="CV52" s="36"/>
       <c r="CW52" s="36"/>
       <c r="CX52" s="36"/>
-      <c r="CY52" s="17"/>
+      <c r="CY52" s="36"/>
       <c r="CZ52" s="17"/>
       <c r="DA52" s="17"/>
       <c r="DB52" s="17"/>
@@ -31936,13 +31995,15 @@
         <v>10.851064505769784</v>
       </c>
       <c r="CT53" s="30">
-        <v>11.928808488145435</v>
-      </c>
-      <c r="CU53" s="35"/>
+        <v>11.366608417665901</v>
+      </c>
+      <c r="CU53" s="30">
+        <v>16.537637578725366</v>
+      </c>
       <c r="CV53" s="35"/>
       <c r="CW53" s="35"/>
       <c r="CX53" s="35"/>
-      <c r="CY53" s="17"/>
+      <c r="CY53" s="35"/>
       <c r="CZ53" s="17"/>
       <c r="DA53" s="17"/>
       <c r="DB53" s="17"/>
@@ -32091,10 +32152,11 @@
       <c r="CR54" s="27"/>
       <c r="CS54" s="27"/>
       <c r="CT54" s="27"/>
-      <c r="CU54" s="23"/>
+      <c r="CU54" s="27"/>
       <c r="CV54" s="23"/>
       <c r="CW54" s="23"/>
       <c r="CX54" s="23"/>
+      <c r="CY54" s="23"/>
     </row>
     <row r="55" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
@@ -32197,10 +32259,11 @@
       <c r="CR55" s="21"/>
       <c r="CS55" s="21"/>
       <c r="CT55" s="21"/>
-      <c r="CU55" s="33"/>
+      <c r="CU55" s="21"/>
       <c r="CV55" s="33"/>
       <c r="CW55" s="33"/>
       <c r="CX55" s="33"/>
+      <c r="CY55" s="33"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11"/>
@@ -32300,11 +32363,11 @@
       <c r="CR56" s="25"/>
       <c r="CS56" s="25"/>
       <c r="CT56" s="25"/>
-      <c r="CU56" s="36"/>
+      <c r="CU56" s="25"/>
       <c r="CV56" s="36"/>
       <c r="CW56" s="36"/>
       <c r="CX56" s="36"/>
-      <c r="CY56" s="17"/>
+      <c r="CY56" s="36"/>
       <c r="CZ56" s="17"/>
       <c r="DA56" s="17"/>
       <c r="DB56" s="17"/>
@@ -32452,11 +32515,11 @@
       <c r="CR57" s="25"/>
       <c r="CS57" s="25"/>
       <c r="CT57" s="25"/>
-      <c r="CU57" s="36"/>
+      <c r="CU57" s="25"/>
       <c r="CV57" s="36"/>
       <c r="CW57" s="36"/>
       <c r="CX57" s="36"/>
-      <c r="CY57" s="17"/>
+      <c r="CY57" s="36"/>
       <c r="CZ57" s="17"/>
       <c r="DA57" s="17"/>
       <c r="DB57" s="17"/>
@@ -32607,10 +32670,11 @@
       <c r="CR58" s="21"/>
       <c r="CS58" s="21"/>
       <c r="CT58" s="21"/>
-      <c r="CU58" s="33"/>
+      <c r="CU58" s="21"/>
       <c r="CV58" s="33"/>
       <c r="CW58" s="33"/>
       <c r="CX58" s="33"/>
+      <c r="CY58" s="33"/>
     </row>
     <row r="59" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -32713,14 +32777,15 @@
       <c r="CR59" s="21"/>
       <c r="CS59" s="21"/>
       <c r="CT59" s="21"/>
-      <c r="CU59" s="33"/>
+      <c r="CU59" s="21"/>
       <c r="CV59" s="33"/>
       <c r="CW59" s="33"/>
       <c r="CX59" s="33"/>
+      <c r="CY59" s="33"/>
     </row>
     <row r="60" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -32819,10 +32884,11 @@
       <c r="CR60" s="21"/>
       <c r="CS60" s="21"/>
       <c r="CT60" s="21"/>
-      <c r="CU60" s="33"/>
+      <c r="CU60" s="21"/>
       <c r="CV60" s="33"/>
       <c r="CW60" s="33"/>
       <c r="CX60" s="33"/>
+      <c r="CY60" s="33"/>
     </row>
     <row r="61" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -32923,10 +32989,11 @@
       <c r="CR61" s="21"/>
       <c r="CS61" s="21"/>
       <c r="CT61" s="21"/>
-      <c r="CU61" s="33"/>
+      <c r="CU61" s="21"/>
       <c r="CV61" s="33"/>
       <c r="CW61" s="33"/>
       <c r="CX61" s="33"/>
+      <c r="CY61" s="33"/>
     </row>
     <row r="62" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -33029,14 +33096,15 @@
       <c r="CR62" s="21"/>
       <c r="CS62" s="21"/>
       <c r="CT62" s="21"/>
-      <c r="CU62" s="33"/>
+      <c r="CU62" s="21"/>
       <c r="CV62" s="33"/>
       <c r="CW62" s="33"/>
       <c r="CX62" s="33"/>
+      <c r="CY62" s="33"/>
     </row>
     <row r="63" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -33135,10 +33203,11 @@
       <c r="CR63" s="21"/>
       <c r="CS63" s="21"/>
       <c r="CT63" s="21"/>
-      <c r="CU63" s="33"/>
+      <c r="CU63" s="21"/>
       <c r="CV63" s="33"/>
       <c r="CW63" s="33"/>
       <c r="CX63" s="33"/>
+      <c r="CY63" s="33"/>
     </row>
     <row r="64" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
@@ -33241,10 +33310,11 @@
       <c r="CR64" s="21"/>
       <c r="CS64" s="21"/>
       <c r="CT64" s="21"/>
-      <c r="CU64" s="33"/>
+      <c r="CU64" s="21"/>
       <c r="CV64" s="33"/>
       <c r="CW64" s="33"/>
       <c r="CX64" s="33"/>
+      <c r="CY64" s="33"/>
     </row>
     <row r="65" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
@@ -33345,10 +33415,11 @@
       <c r="CR65" s="21"/>
       <c r="CS65" s="21"/>
       <c r="CT65" s="21"/>
-      <c r="CU65" s="33"/>
+      <c r="CU65" s="21"/>
       <c r="CV65" s="33"/>
       <c r="CW65" s="33"/>
       <c r="CX65" s="33"/>
+      <c r="CY65" s="33"/>
     </row>
     <row r="66" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -33499,10 +33570,11 @@
       <c r="CT66" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="CU66" s="28"/>
+      <c r="CU66" s="22"/>
       <c r="CV66" s="28"/>
       <c r="CW66" s="28"/>
       <c r="CX66" s="28"/>
+      <c r="CY66" s="28"/>
     </row>
     <row r="67" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -33799,10 +33871,13 @@
       <c r="CT67" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU67" s="29"/>
+      <c r="CU67" s="29" t="s">
+        <v>8</v>
+      </c>
       <c r="CV67" s="29"/>
       <c r="CW67" s="29"/>
       <c r="CX67" s="29"/>
+      <c r="CY67" s="29"/>
     </row>
     <row r="68" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -33903,10 +33978,11 @@
       <c r="CR68" s="21"/>
       <c r="CS68" s="21"/>
       <c r="CT68" s="21"/>
-      <c r="CU68" s="33"/>
+      <c r="CU68" s="21"/>
       <c r="CV68" s="33"/>
       <c r="CW68" s="33"/>
       <c r="CX68" s="33"/>
+      <c r="CY68" s="33"/>
     </row>
     <row r="69" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -34203,11 +34279,13 @@
       <c r="CT69" s="30">
         <v>6.9924965140044151</v>
       </c>
-      <c r="CU69" s="35"/>
+      <c r="CU69" s="30">
+        <v>14.243310885881584</v>
+      </c>
       <c r="CV69" s="35"/>
       <c r="CW69" s="35"/>
       <c r="CX69" s="35"/>
-      <c r="CY69" s="17"/>
+      <c r="CY69" s="35"/>
       <c r="CZ69" s="17"/>
       <c r="DA69" s="17"/>
       <c r="DB69" s="17"/>
@@ -34550,13 +34628,15 @@
         <v>6.8860429561646868</v>
       </c>
       <c r="CT70" s="30">
-        <v>7.6294071015714735</v>
-      </c>
-      <c r="CU70" s="35"/>
+        <v>5.9603473771403941</v>
+      </c>
+      <c r="CU70" s="30">
+        <v>6.4872229179298984</v>
+      </c>
       <c r="CV70" s="35"/>
       <c r="CW70" s="35"/>
       <c r="CX70" s="35"/>
-      <c r="CY70" s="17"/>
+      <c r="CY70" s="35"/>
       <c r="CZ70" s="17"/>
       <c r="DA70" s="17"/>
       <c r="DB70" s="17"/>
@@ -34704,11 +34784,11 @@
       <c r="CR71" s="25"/>
       <c r="CS71" s="25"/>
       <c r="CT71" s="25"/>
-      <c r="CU71" s="36"/>
+      <c r="CU71" s="25"/>
       <c r="CV71" s="36"/>
       <c r="CW71" s="36"/>
       <c r="CX71" s="36"/>
-      <c r="CY71" s="17"/>
+      <c r="CY71" s="36"/>
       <c r="CZ71" s="17"/>
       <c r="DA71" s="17"/>
       <c r="DB71" s="17"/>
@@ -35051,13 +35131,15 @@
         <v>6.8358768117220876</v>
       </c>
       <c r="CT72" s="30">
-        <v>7.2075184078216097</v>
-      </c>
-      <c r="CU72" s="35"/>
+        <v>6.6440415401939816</v>
+      </c>
+      <c r="CU72" s="30">
+        <v>11.770057920576434</v>
+      </c>
       <c r="CV72" s="35"/>
       <c r="CW72" s="35"/>
       <c r="CX72" s="35"/>
-      <c r="CY72" s="17"/>
+      <c r="CY72" s="35"/>
       <c r="CZ72" s="17"/>
       <c r="DA72" s="17"/>
       <c r="DB72" s="17"/>
@@ -35206,10 +35288,11 @@
       <c r="CR73" s="27"/>
       <c r="CS73" s="27"/>
       <c r="CT73" s="27"/>
-      <c r="CU73" s="23"/>
+      <c r="CU73" s="27"/>
       <c r="CV73" s="23"/>
       <c r="CW73" s="23"/>
       <c r="CX73" s="23"/>
+      <c r="CY73" s="23"/>
     </row>
     <row r="74" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
@@ -35312,10 +35395,11 @@
       <c r="CR74" s="21"/>
       <c r="CS74" s="21"/>
       <c r="CT74" s="21"/>
-      <c r="CU74" s="33"/>
+      <c r="CU74" s="21"/>
       <c r="CV74" s="33"/>
       <c r="CW74" s="33"/>
       <c r="CX74" s="33"/>
+      <c r="CY74" s="33"/>
     </row>
     <row r="75" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="11"/>
@@ -35415,11 +35499,11 @@
       <c r="CR75" s="31"/>
       <c r="CS75" s="31"/>
       <c r="CT75" s="25"/>
-      <c r="CU75" s="36"/>
+      <c r="CU75" s="25"/>
       <c r="CV75" s="37"/>
       <c r="CW75" s="37"/>
       <c r="CX75" s="36"/>
-      <c r="CY75" s="17"/>
+      <c r="CY75" s="36"/>
       <c r="CZ75" s="17"/>
       <c r="DA75" s="17"/>
       <c r="DB75" s="17"/>
@@ -35571,7 +35655,7 @@
       <c r="CV76" s="31"/>
       <c r="CW76" s="31"/>
       <c r="CX76" s="31"/>
-      <c r="CY76" s="17"/>
+      <c r="CY76" s="31"/>
       <c r="CZ76" s="17"/>
       <c r="DA76" s="17"/>
       <c r="DB76" s="17"/>
@@ -35718,10 +35802,11 @@
       <c r="CV77" s="20"/>
       <c r="CW77" s="20"/>
       <c r="CX77" s="20"/>
+      <c r="CY77" s="20"/>
     </row>
     <row r="78" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -35816,6 +35901,7 @@
       <c r="CV78" s="20"/>
       <c r="CW78" s="20"/>
       <c r="CX78" s="20"/>
+      <c r="CY78" s="20"/>
     </row>
     <row r="79" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
@@ -35912,6 +35998,7 @@
       <c r="CV79" s="20"/>
       <c r="CW79" s="20"/>
       <c r="CX79" s="20"/>
+      <c r="CY79" s="20"/>
     </row>
     <row r="80" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -36010,10 +36097,11 @@
       <c r="CV80" s="20"/>
       <c r="CW80" s="20"/>
       <c r="CX80" s="20"/>
+      <c r="CY80" s="20"/>
     </row>
     <row r="81" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -36108,6 +36196,7 @@
       <c r="CV81" s="20"/>
       <c r="CW81" s="20"/>
       <c r="CX81" s="20"/>
+      <c r="CY81" s="20"/>
     </row>
     <row r="82" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
@@ -36206,6 +36295,7 @@
       <c r="CV82" s="20"/>
       <c r="CW82" s="20"/>
       <c r="CX82" s="20"/>
+      <c r="CY82" s="20"/>
     </row>
     <row r="83" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
@@ -36302,6 +36392,7 @@
       <c r="CV83" s="20"/>
       <c r="CW83" s="20"/>
       <c r="CX83" s="20"/>
+      <c r="CY83" s="20"/>
     </row>
     <row r="84" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
@@ -36458,6 +36549,7 @@
       <c r="CX84" s="22">
         <v>2025</v>
       </c>
+      <c r="CY84" s="22"/>
     </row>
     <row r="85" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -36765,6 +36857,9 @@
       </c>
       <c r="CX85" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY85" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:151" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36862,6 +36957,7 @@
       <c r="CV86" s="20"/>
       <c r="CW86" s="20"/>
       <c r="CX86" s="20"/>
+      <c r="CY86" s="20"/>
     </row>
     <row r="87" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -37170,7 +37266,9 @@
       <c r="CX87" s="30">
         <v>118.73047365352025</v>
       </c>
-      <c r="CY87" s="17"/>
+      <c r="CY87" s="30">
+        <v>119.80525920113362</v>
+      </c>
       <c r="CZ87" s="17"/>
       <c r="DA87" s="17"/>
       <c r="DB87" s="17"/>
@@ -37525,9 +37623,11 @@
         <v>125.67240468103236</v>
       </c>
       <c r="CX88" s="30">
-        <v>110.91306378967982</v>
-      </c>
-      <c r="CY88" s="17"/>
+        <v>110.91275680757833</v>
+      </c>
+      <c r="CY88" s="30">
+        <v>113.7070007630617</v>
+      </c>
       <c r="CZ88" s="17"/>
       <c r="DA88" s="17"/>
       <c r="DB88" s="17"/>
@@ -37679,7 +37779,7 @@
       <c r="CV89" s="25"/>
       <c r="CW89" s="25"/>
       <c r="CX89" s="25"/>
-      <c r="CY89" s="17"/>
+      <c r="CY89" s="25"/>
       <c r="CZ89" s="17"/>
       <c r="DA89" s="17"/>
       <c r="DB89" s="17"/>
@@ -38034,9 +38134,11 @@
         <v>133.91493066881594</v>
       </c>
       <c r="CX90" s="30">
-        <v>116.08091949424303</v>
-      </c>
-      <c r="CY90" s="17"/>
+        <v>116.10812200484504</v>
+      </c>
+      <c r="CY90" s="30">
+        <v>117.95256533808067</v>
+      </c>
       <c r="CZ90" s="17"/>
       <c r="DA90" s="17"/>
       <c r="DB90" s="17"/>
@@ -38189,6 +38291,7 @@
       <c r="CV91" s="27"/>
       <c r="CW91" s="27"/>
       <c r="CX91" s="27"/>
+      <c r="CY91" s="27"/>
     </row>
     <row r="92" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
@@ -38287,6 +38390,7 @@
       <c r="CV92" s="20"/>
       <c r="CW92" s="20"/>
       <c r="CX92" s="20"/>
+      <c r="CY92" s="20"/>
     </row>
     <row r="93" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -38390,6 +38494,7 @@
       <c r="CV93" s="21"/>
       <c r="CW93" s="21"/>
       <c r="CX93" s="21"/>
+      <c r="CY93" s="21"/>
     </row>
     <row r="94" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -38493,6 +38598,7 @@
       <c r="CV94" s="21"/>
       <c r="CW94" s="21"/>
       <c r="CX94" s="21"/>
+      <c r="CY94" s="21"/>
     </row>
     <row r="95" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
@@ -38599,6 +38705,7 @@
       <c r="CV95" s="21"/>
       <c r="CW95" s="21"/>
       <c r="CX95" s="21"/>
+      <c r="CY95" s="21"/>
     </row>
     <row r="96" spans="1:151" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
@@ -38705,10 +38812,11 @@
       <c r="CV96" s="21"/>
       <c r="CW96" s="21"/>
       <c r="CX96" s="21"/>
+      <c r="CY96" s="21"/>
     </row>
     <row r="97" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -38811,6 +38919,7 @@
       <c r="CV97" s="21"/>
       <c r="CW97" s="21"/>
       <c r="CX97" s="21"/>
+      <c r="CY97" s="21"/>
     </row>
     <row r="98" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
@@ -38915,6 +39024,7 @@
       <c r="CV98" s="21"/>
       <c r="CW98" s="21"/>
       <c r="CX98" s="21"/>
+      <c r="CY98" s="21"/>
     </row>
     <row r="99" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -39021,10 +39131,11 @@
       <c r="CV99" s="21"/>
       <c r="CW99" s="21"/>
       <c r="CX99" s="21"/>
+      <c r="CY99" s="21"/>
     </row>
     <row r="100" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -39127,6 +39238,7 @@
       <c r="CV100" s="21"/>
       <c r="CW100" s="21"/>
       <c r="CX100" s="21"/>
+      <c r="CY100" s="21"/>
     </row>
     <row r="101" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
@@ -39233,6 +39345,7 @@
       <c r="CV101" s="21"/>
       <c r="CW101" s="21"/>
       <c r="CX101" s="21"/>
+      <c r="CY101" s="21"/>
     </row>
     <row r="102" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -39337,6 +39450,7 @@
       <c r="CV102" s="21"/>
       <c r="CW102" s="21"/>
       <c r="CX102" s="21"/>
+      <c r="CY102" s="21"/>
     </row>
     <row r="103" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
@@ -39493,6 +39607,7 @@
       <c r="CX103" s="22">
         <v>2025</v>
       </c>
+      <c r="CY103" s="22"/>
     </row>
     <row r="104" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -39800,6 +39915,9 @@
       </c>
       <c r="CX104" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY104" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39905,6 +40023,7 @@
       <c r="CV105" s="21"/>
       <c r="CW105" s="21"/>
       <c r="CX105" s="21"/>
+      <c r="CY105" s="21"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
@@ -40211,9 +40330,11 @@
         <v>68.885864890522299</v>
       </c>
       <c r="CX106" s="30">
-        <v>67.615903763148495</v>
-      </c>
-      <c r="CY106" s="17"/>
+        <v>67.957241857226165</v>
+      </c>
+      <c r="CY106" s="30">
+        <v>70.712813610713965</v>
+      </c>
       <c r="CZ106" s="17"/>
       <c r="DA106" s="17"/>
       <c r="DB106" s="17"/>
@@ -40572,9 +40693,11 @@
         <v>31.114135109477694</v>
       </c>
       <c r="CX107" s="30">
-        <v>32.384096236851498</v>
-      </c>
-      <c r="CY107" s="17"/>
+        <v>32.042758142773835</v>
+      </c>
+      <c r="CY107" s="30">
+        <v>29.287186389286045</v>
+      </c>
       <c r="CZ107" s="17"/>
       <c r="DA107" s="17"/>
       <c r="DB107" s="17"/>
@@ -40730,7 +40853,7 @@
       <c r="CV108" s="25"/>
       <c r="CW108" s="25"/>
       <c r="CX108" s="25"/>
-      <c r="CY108" s="17"/>
+      <c r="CY108" s="25"/>
       <c r="CZ108" s="17"/>
       <c r="DA108" s="17"/>
       <c r="DB108" s="17"/>
@@ -41091,7 +41214,9 @@
       <c r="CX109" s="30">
         <v>100</v>
       </c>
-      <c r="CY109" s="17"/>
+      <c r="CY109" s="30">
+        <v>100</v>
+      </c>
       <c r="CZ109" s="17"/>
       <c r="DA109" s="17"/>
       <c r="DB109" s="17"/>
@@ -41248,6 +41373,7 @@
       <c r="CV110" s="27"/>
       <c r="CW110" s="27"/>
       <c r="CX110" s="27"/>
+      <c r="CY110" s="27"/>
     </row>
     <row r="111" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
@@ -41354,6 +41480,7 @@
       <c r="CV111" s="21"/>
       <c r="CW111" s="21"/>
       <c r="CX111" s="21"/>
+      <c r="CY111" s="21"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="11"/>
@@ -41457,7 +41584,7 @@
       <c r="CV112" s="25"/>
       <c r="CW112" s="25"/>
       <c r="CX112" s="25"/>
-      <c r="CY112" s="17"/>
+      <c r="CY112" s="25"/>
       <c r="CZ112" s="17"/>
       <c r="DA112" s="17"/>
       <c r="DB112" s="17"/>
@@ -41613,7 +41740,7 @@
       <c r="CV113" s="25"/>
       <c r="CW113" s="25"/>
       <c r="CX113" s="25"/>
-      <c r="CY113" s="17"/>
+      <c r="CY113" s="25"/>
       <c r="CZ113" s="17"/>
       <c r="DA113" s="17"/>
       <c r="DB113" s="17"/>
@@ -41772,6 +41899,7 @@
       <c r="CV114" s="21"/>
       <c r="CW114" s="21"/>
       <c r="CX114" s="21"/>
+      <c r="CY114" s="21"/>
     </row>
     <row r="115" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
@@ -41878,10 +42006,11 @@
       <c r="CV115" s="21"/>
       <c r="CW115" s="21"/>
       <c r="CX115" s="21"/>
+      <c r="CY115" s="21"/>
     </row>
     <row r="116" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -41984,6 +42113,7 @@
       <c r="CV116" s="21"/>
       <c r="CW116" s="21"/>
       <c r="CX116" s="21"/>
+      <c r="CY116" s="21"/>
     </row>
     <row r="117" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
@@ -42088,6 +42218,7 @@
       <c r="CV117" s="21"/>
       <c r="CW117" s="21"/>
       <c r="CX117" s="21"/>
+      <c r="CY117" s="21"/>
     </row>
     <row r="118" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
@@ -42194,10 +42325,11 @@
       <c r="CV118" s="21"/>
       <c r="CW118" s="21"/>
       <c r="CX118" s="21"/>
+      <c r="CY118" s="21"/>
     </row>
     <row r="119" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -42300,6 +42432,7 @@
       <c r="CV119" s="21"/>
       <c r="CW119" s="21"/>
       <c r="CX119" s="21"/>
+      <c r="CY119" s="21"/>
     </row>
     <row r="120" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
@@ -42406,6 +42539,7 @@
       <c r="CV120" s="21"/>
       <c r="CW120" s="21"/>
       <c r="CX120" s="21"/>
+      <c r="CY120" s="21"/>
     </row>
     <row r="121" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
@@ -42510,6 +42644,7 @@
       <c r="CV121" s="21"/>
       <c r="CW121" s="21"/>
       <c r="CX121" s="21"/>
+      <c r="CY121" s="21"/>
     </row>
     <row r="122" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
@@ -42666,6 +42801,7 @@
       <c r="CX122" s="22">
         <v>2025</v>
       </c>
+      <c r="CY122" s="22"/>
     </row>
     <row r="123" spans="1:155" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -42973,6 +43109,9 @@
       </c>
       <c r="CX123" s="23" t="s">
         <v>7</v>
+      </c>
+      <c r="CY123" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="16" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43078,6 +43217,7 @@
       <c r="CV124" s="21"/>
       <c r="CW124" s="21"/>
       <c r="CX124" s="21"/>
+      <c r="CY124" s="21"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
@@ -43384,9 +43524,11 @@
         <v>66.845169736497084</v>
       </c>
       <c r="CX125" s="30">
-        <v>66.107007238640904</v>
-      </c>
-      <c r="CY125" s="17"/>
+        <v>66.456297914698283</v>
+      </c>
+      <c r="CY125" s="30">
+        <v>69.6192957076657</v>
+      </c>
       <c r="CZ125" s="17"/>
       <c r="DA125" s="17"/>
       <c r="DB125" s="17"/>
@@ -43745,9 +43887,11 @@
         <v>33.154830263502916</v>
       </c>
       <c r="CX126" s="30">
-        <v>33.892992761359096</v>
-      </c>
-      <c r="CY126" s="17"/>
+        <v>33.54370208530171</v>
+      </c>
+      <c r="CY126" s="30">
+        <v>30.380704292334304</v>
+      </c>
       <c r="CZ126" s="17"/>
       <c r="DA126" s="17"/>
       <c r="DB126" s="17"/>
@@ -43903,7 +44047,7 @@
       <c r="CV127" s="25"/>
       <c r="CW127" s="25"/>
       <c r="CX127" s="25"/>
-      <c r="CY127" s="17"/>
+      <c r="CY127" s="25"/>
       <c r="CZ127" s="17"/>
       <c r="DA127" s="17"/>
       <c r="DB127" s="17"/>
@@ -44264,7 +44408,9 @@
       <c r="CX128" s="30">
         <v>100</v>
       </c>
-      <c r="CY128" s="17"/>
+      <c r="CY128" s="30">
+        <v>100</v>
+      </c>
       <c r="CZ128" s="17"/>
       <c r="DA128" s="17"/>
       <c r="DB128" s="17"/>
@@ -44318,7 +44464,7 @@
       <c r="EX128" s="17"/>
       <c r="EY128" s="17"/>
     </row>
-    <row r="129" spans="1:102" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:103" s="16" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -44421,8 +44567,9 @@
       <c r="CV129" s="27"/>
       <c r="CW129" s="27"/>
       <c r="CX129" s="27"/>
+      <c r="CY129" s="27"/>
     </row>
-    <row r="130" spans="1:102" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:103" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>0</v>
       </c>
@@ -44527,54 +44674,84 @@
       <c r="CV130" s="21"/>
       <c r="CW130" s="21"/>
       <c r="CX130" s="21"/>
+      <c r="CY130" s="21"/>
     </row>
-    <row r="131" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:103" x14ac:dyDescent="0.25">
       <c r="CT131" s="38"/>
       <c r="CU131" s="38"/>
       <c r="CV131" s="38"/>
       <c r="CX131" s="38"/>
+      <c r="CY131" s="38"/>
     </row>
-    <row r="132" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:103" x14ac:dyDescent="0.25">
       <c r="CT132" s="38"/>
       <c r="CU132" s="38"/>
       <c r="CV132" s="38"/>
       <c r="CX132" s="38"/>
+      <c r="CY132" s="38"/>
     </row>
-    <row r="133" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:103" x14ac:dyDescent="0.25">
       <c r="CT133" s="38"/>
       <c r="CU133" s="38"/>
       <c r="CV133" s="38"/>
       <c r="CX133" s="38"/>
+      <c r="CY133" s="38"/>
     </row>
-    <row r="134" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:103" x14ac:dyDescent="0.25">
       <c r="CT134" s="38"/>
       <c r="CU134" s="38"/>
       <c r="CV134" s="38"/>
       <c r="CX134" s="38"/>
+      <c r="CY134" s="38"/>
     </row>
-    <row r="135" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:103" x14ac:dyDescent="0.25">
       <c r="CT135" s="38"/>
       <c r="CU135" s="38"/>
       <c r="CV135" s="38"/>
       <c r="CX135" s="38"/>
+      <c r="CY135" s="38"/>
     </row>
-    <row r="136" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:103" x14ac:dyDescent="0.25">
       <c r="CT136" s="38"/>
       <c r="CU136" s="38"/>
       <c r="CV136" s="38"/>
       <c r="CX136" s="38"/>
+      <c r="CY136" s="38"/>
     </row>
-    <row r="137" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:103" x14ac:dyDescent="0.25">
       <c r="CT137" s="38"/>
       <c r="CU137" s="38"/>
       <c r="CV137" s="38"/>
       <c r="CX137" s="38"/>
+      <c r="CY137" s="38"/>
     </row>
-    <row r="138" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:103" x14ac:dyDescent="0.25">
       <c r="CT138" s="38"/>
       <c r="CU138" s="38"/>
       <c r="CV138" s="38"/>
       <c r="CX138" s="38"/>
+      <c r="CY138" s="38"/>
+    </row>
+    <row r="139" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CT139" s="38"/>
+      <c r="CU139" s="38"/>
+      <c r="CV139" s="38"/>
+      <c r="CX139" s="38"/>
+      <c r="CY139" s="38"/>
+    </row>
+    <row r="140" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CT140" s="38"/>
+      <c r="CU140" s="38"/>
+      <c r="CV140" s="38"/>
+      <c r="CX140" s="38"/>
+      <c r="CY140" s="38"/>
+    </row>
+    <row r="141" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CT141" s="38"/>
+      <c r="CU141" s="38"/>
+      <c r="CV141" s="38"/>
+      <c r="CX141" s="38"/>
+      <c r="CY141" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="147">
@@ -44731,9 +44908,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="101" man="1"/>
-    <brk id="76" max="101" man="1"/>
-    <brk id="94" max="101" man="1"/>
+    <brk id="38" max="102" man="1"/>
+    <brk id="76" max="102" man="1"/>
+    <brk id="94" max="102" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>